--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -92,7 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006AD15A"/>
+        <fgColor rgb="00FFCE30"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCE30"/>
+        <fgColor rgb="0045B5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -375,7 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045B5FF"/>
+        <fgColor rgb="006AD15A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1981,6 +1981,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="009966FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DDA0DD"/>
       </patternFill>
     </fill>
@@ -2078,11 +2083,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF29"/>
         <bgColor rgb="00FFFF29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009966FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2478,7 +2478,7 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2556,7 +2556,7 @@
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3372,11 +3372,11 @@
     <xf numFmtId="0" fontId="0" fillId="325" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="326" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="326" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="327" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="327" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="328" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3423,8 +3423,8 @@
     <xf numFmtId="0" fontId="0" fillId="342" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="343" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="343" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="344" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3562,13 +3562,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="167" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="222" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="57" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="343" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="326" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="75" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="320" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="326" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="327" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="387" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="inlineStr">
+      <c r="A14" s="82" t="inlineStr">
         <is>
           <t>[核电+工业空调+国企改革]</t>
         </is>
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="inlineStr">
+      <c r="A15" s="80" t="inlineStr">
         <is>
           <t>[可控核聚变+氢能源+能源化工装备]</t>
         </is>
@@ -7452,7 +7452,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="35" t="inlineStr">
+      <c r="A31" s="13" t="inlineStr">
         <is>
           <t>[外骨骼机器人+风电光伏+股份回购]</t>
         </is>
@@ -12562,7 +12562,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="35" t="inlineStr">
+      <c r="A96" s="333" t="inlineStr">
         <is>
           <t>[申请撤销其他风险警示+军工+商用车+氢能源]</t>
         </is>
@@ -12660,7 +12660,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="333" t="inlineStr">
+      <c r="A97" s="334" t="inlineStr">
         <is>
           <t>[家居产品+AI智家+低价股]</t>
         </is>
@@ -12716,7 +12716,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="X97" s="334" t="inlineStr">
+      <c r="X97" s="335" t="inlineStr">
         <is>
           <t>5.26%</t>
         </is>
@@ -12810,7 +12810,7 @@
           <t>-3.48%</t>
         </is>
       </c>
-      <c r="AA98" s="335" t="inlineStr">
+      <c r="AA98" s="336" t="inlineStr">
         <is>
           <t>3.35%</t>
         </is>
@@ -12859,7 +12859,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="M99" s="336" t="inlineStr">
+      <c r="M99" s="337" t="inlineStr">
         <is>
           <t>-5.70%</t>
         </is>
@@ -12879,7 +12879,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="Q99" s="337" t="inlineStr">
+      <c r="Q99" s="338" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
@@ -12914,7 +12914,7 @@
           <t>-9.34%</t>
         </is>
       </c>
-      <c r="X99" s="338" t="inlineStr">
+      <c r="X99" s="339" t="inlineStr">
         <is>
           <t>6.86%</t>
         </is>
@@ -13161,7 +13161,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="L102" s="339" t="inlineStr">
+      <c r="L102" s="340" t="inlineStr">
         <is>
           <t>-6.85%</t>
         </is>
@@ -13235,7 +13235,7 @@
           <t>-1.88%</t>
         </is>
       </c>
-      <c r="P103" s="340" t="inlineStr">
+      <c r="P103" s="341" t="inlineStr">
         <is>
           <t>6.70%</t>
         </is>
@@ -13368,7 +13368,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="V105" s="341" t="inlineStr">
+      <c r="V105" s="342" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
@@ -13378,7 +13378,7 @@
           <t>0.65%</t>
         </is>
       </c>
-      <c r="X105" s="342" t="inlineStr">
+      <c r="X105" s="343" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
@@ -13652,7 +13652,7 @@
           <t>2.19%</t>
         </is>
       </c>
-      <c r="S108" s="343" t="inlineStr">
+      <c r="S108" s="344" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
@@ -13906,7 +13906,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="P112" s="344" t="inlineStr">
+      <c r="P112" s="345" t="inlineStr">
         <is>
           <t>-3.05%</t>
         </is>
@@ -14085,7 +14085,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AJ113" s="345" t="inlineStr">
+      <c r="AJ113" s="346" t="inlineStr">
         <is>
           <t>5.74%</t>
         </is>
@@ -14122,7 +14122,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="333" t="inlineStr">
+      <c r="A114" s="334" t="inlineStr">
         <is>
           <t>[ST板块+时尚鞋履+AIGC]</t>
         </is>
@@ -14813,7 +14813,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="P121" s="346" t="inlineStr">
+      <c r="P121" s="347" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
@@ -14909,7 +14909,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="Q122" s="347" t="inlineStr">
+      <c r="Q122" s="348" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
@@ -14936,7 +14936,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="333" t="inlineStr">
+      <c r="A123" s="334" t="inlineStr">
         <is>
           <t>[MCP+东方超算+PCB电子油墨]</t>
         </is>
@@ -14985,7 +14985,7 @@
           <t>1.60%</t>
         </is>
       </c>
-      <c r="R123" s="348" t="inlineStr">
+      <c r="R123" s="349" t="inlineStr">
         <is>
           <t>-7.64%</t>
         </is>
@@ -15076,7 +15076,7 @@
           <t>-2.41%</t>
         </is>
       </c>
-      <c r="V124" s="344" t="inlineStr">
+      <c r="V124" s="345" t="inlineStr">
         <is>
           <t>-3.09%</t>
         </is>
@@ -15177,7 +15177,7 @@
           <t>-0.20%</t>
         </is>
       </c>
-      <c r="U125" s="349" t="inlineStr">
+      <c r="U125" s="350" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
@@ -15251,7 +15251,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="350" t="inlineStr">
+      <c r="A127" s="333" t="inlineStr">
         <is>
           <t>[房地产+大飞机+天津国企]</t>
         </is>
@@ -15451,7 +15451,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AH128" s="337" t="inlineStr">
+      <c r="AH128" s="338" t="inlineStr">
         <is>
           <t>6.49%</t>
         </is>
@@ -15803,7 +15803,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="Y132" s="337" t="inlineStr">
+      <c r="Y132" s="338" t="inlineStr">
         <is>
           <t>6.47%</t>
         </is>
@@ -15917,7 +15917,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="333" t="inlineStr">
+      <c r="A134" s="334" t="inlineStr">
         <is>
           <t>[参股迪洛斯10%股权+AI初创公司]</t>
         </is>
@@ -15997,7 +15997,7 @@
           <t>-5.92%</t>
         </is>
       </c>
-      <c r="Y134" s="339" t="inlineStr">
+      <c r="Y134" s="340" t="inlineStr">
         <is>
           <t>-6.85%</t>
         </is>
@@ -16128,7 +16128,7 @@
           <t>2.16%</t>
         </is>
       </c>
-      <c r="R135" s="344" t="inlineStr">
+      <c r="R135" s="345" t="inlineStr">
         <is>
           <t>-3.09%</t>
         </is>
@@ -16216,7 +16216,7 @@
           <t>-4.67%</t>
         </is>
       </c>
-      <c r="Q136" s="343" t="inlineStr">
+      <c r="Q136" s="344" t="inlineStr">
         <is>
           <t>4.66%</t>
         </is>
@@ -16831,7 +16831,7 @@
           <t>2.79%</t>
         </is>
       </c>
-      <c r="Q142" s="348" t="inlineStr">
+      <c r="Q142" s="349" t="inlineStr">
         <is>
           <t>-7.61%</t>
         </is>
@@ -17155,7 +17155,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="350" t="inlineStr">
+      <c r="A147" s="333" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -17771,7 +17771,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="350" t="inlineStr">
+      <c r="A154" s="333" t="inlineStr">
         <is>
           <t>[航空发动机+军工+央企+年报净利增长]</t>
         </is>
@@ -18004,7 +18004,7 @@
           <t>-4.08%</t>
         </is>
       </c>
-      <c r="R157" s="336" t="inlineStr">
+      <c r="R157" s="337" t="inlineStr">
         <is>
           <t>-5.71%</t>
         </is>
@@ -19289,7 +19289,7 @@
           <t>-4.15%</t>
         </is>
       </c>
-      <c r="S170" s="347" t="inlineStr">
+      <c r="S170" s="348" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
@@ -19660,7 +19660,7 @@
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="AC173" s="338" t="inlineStr">
+      <c r="AC173" s="339" t="inlineStr">
         <is>
           <t>6.88%</t>
         </is>
@@ -19885,7 +19885,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="35" t="inlineStr">
+      <c r="A177" s="13" t="inlineStr">
         <is>
           <t>[机器人+战略布局未受关税实质影响+特斯拉供应链]</t>
         </is>
@@ -20050,7 +20050,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="35" t="inlineStr">
+      <c r="A179" s="13" t="inlineStr">
         <is>
           <t>[机器人关节+新能源驱动电机+国企]</t>
         </is>
@@ -20127,7 +20127,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="35" t="inlineStr">
+      <c r="A180" s="82" t="inlineStr">
         <is>
           <t>[正丙醇+硫磺回收+氢能源]</t>
         </is>
@@ -20340,7 +20340,7 @@
           <t>0.83%</t>
         </is>
       </c>
-      <c r="X182" s="343" t="inlineStr">
+      <c r="X182" s="344" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
@@ -21106,7 +21106,7 @@
           <t>4.12%</t>
         </is>
       </c>
-      <c r="Z192" s="340" t="inlineStr">
+      <c r="Z192" s="341" t="inlineStr">
         <is>
           <t>6.72%</t>
         </is>
@@ -21239,7 +21239,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="333" t="inlineStr">
+      <c r="A194" s="334" t="inlineStr">
         <is>
           <t>[参股迪洛斯10%股权+AI初创公司]</t>
         </is>
@@ -21303,7 +21303,7 @@
           <t>-5.92%</t>
         </is>
       </c>
-      <c r="Y194" s="339" t="inlineStr">
+      <c r="Y194" s="340" t="inlineStr">
         <is>
           <t>-6.85%</t>
         </is>
@@ -21385,7 +21385,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="35" t="inlineStr">
+      <c r="A195" s="333" t="inlineStr">
         <is>
           <t>[涂料制造+氢能源+军工+重庆国资]</t>
         </is>
@@ -21457,7 +21457,7 @@
           <t>7.10%</t>
         </is>
       </c>
-      <c r="AC195" s="345" t="inlineStr">
+      <c r="AC195" s="346" t="inlineStr">
         <is>
           <t>5.72%</t>
         </is>
@@ -21703,7 +21703,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="333" t="inlineStr">
+      <c r="A198" s="334" t="inlineStr">
         <is>
           <t>[一季报净利增长+信创+华为概念+人工智能]</t>
         </is>
@@ -23373,7 +23373,7 @@
           <t>1.80%</t>
         </is>
       </c>
-      <c r="AB217" s="335" t="inlineStr">
+      <c r="AB217" s="336" t="inlineStr">
         <is>
           <t>3.38%</t>
         </is>
@@ -23385,7 +23385,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="350" t="inlineStr">
+      <c r="A218" s="333" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -23561,7 +23561,7 @@
           <t>-3.74%</t>
         </is>
       </c>
-      <c r="AB219" s="344" t="inlineStr">
+      <c r="AB219" s="345" t="inlineStr">
         <is>
           <t>-3.05%</t>
         </is>
@@ -24131,7 +24131,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="350" t="inlineStr">
+      <c r="A226" s="333" t="inlineStr">
         <is>
           <t>[人形机器人+大飞机+军工+国企]</t>
         </is>
@@ -25466,7 +25466,7 @@
           <t>0.40%</t>
         </is>
       </c>
-      <c r="AC240" s="344" t="inlineStr">
+      <c r="AC240" s="345" t="inlineStr">
         <is>
           <t>-3.09%</t>
         </is>
@@ -25931,7 +25931,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="350" t="inlineStr">
+      <c r="A246" s="333" t="inlineStr">
         <is>
           <t>[成飞概念+军工+汽车零部件+国企改革]</t>
         </is>
@@ -26109,7 +26109,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="350" t="inlineStr">
+      <c r="A248" s="333" t="inlineStr">
         <is>
           <t>[军工+航空零部件+粉磨系统+机器人]</t>
         </is>
@@ -26286,7 +26286,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="350" t="inlineStr">
+      <c r="A250" s="333" t="inlineStr">
         <is>
           <t>[军工+卫星通信+雷达+一季报增长]</t>
         </is>
@@ -26370,7 +26370,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="350" t="inlineStr">
+      <c r="A251" s="333" t="inlineStr">
         <is>
           <t>[航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造]</t>
         </is>
@@ -26439,7 +26439,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="350" t="inlineStr">
+      <c r="A252" s="333" t="inlineStr">
         <is>
           <t>[航空装备+军工+无人机]</t>
         </is>
@@ -26522,7 +26522,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="350" t="inlineStr">
+      <c r="A253" s="333" t="inlineStr">
         <is>
           <t>[军工电子+低空经济+医疗装备+央企]</t>
         </is>
@@ -26564,7 +26564,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AA253" s="338" t="inlineStr">
+      <c r="AA253" s="339" t="inlineStr">
         <is>
           <t>6.85%</t>
         </is>
@@ -26683,7 +26683,7 @@
           <t>-2.96%</t>
         </is>
       </c>
-      <c r="AK254" s="344" t="inlineStr">
+      <c r="AK254" s="345" t="inlineStr">
         <is>
           <t>-3.08%</t>
         </is>
@@ -26747,7 +26747,7 @@
           <t>4.96%</t>
         </is>
       </c>
-      <c r="AD255" s="348" t="inlineStr">
+      <c r="AD255" s="349" t="inlineStr">
         <is>
           <t>-7.60%</t>
         </is>
@@ -26757,7 +26757,7 @@
           <t>-3.44%</t>
         </is>
       </c>
-      <c r="AF255" s="342" t="inlineStr">
+      <c r="AF255" s="343" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
@@ -26769,7 +26769,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="35" t="inlineStr">
+      <c r="A256" s="13" t="inlineStr">
         <is>
           <t>[固态电池+磁悬浮技术产品+物流搬运机器人+国企]</t>
         </is>
@@ -27074,7 +27074,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="350" t="inlineStr">
+      <c r="A260" s="333" t="inlineStr">
         <is>
           <t>[航空装备+军贸+无人机+人形机器人]</t>
         </is>
@@ -27261,7 +27261,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="350" t="inlineStr">
+      <c r="A262" s="333" t="inlineStr">
         <is>
           <t>[军工信息化+电梯]</t>
         </is>
@@ -27342,7 +27342,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="333" t="inlineStr">
+      <c r="A263" s="334" t="inlineStr">
         <is>
           <t>[脑机接口+AI大模型+机器人概念+外销]</t>
         </is>
@@ -27509,7 +27509,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="350" t="inlineStr">
+      <c r="A265" s="333" t="inlineStr">
         <is>
           <t>[军工+一季报增长+低空经济+央企]</t>
         </is>
@@ -27580,7 +27580,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="350" t="inlineStr">
+      <c r="A266" s="333" t="inlineStr">
         <is>
           <t>[航空航天+轨道交通+一季报增长]</t>
         </is>
@@ -27701,7 +27701,7 @@
           <t>1.82%</t>
         </is>
       </c>
-      <c r="AE267" s="347" t="inlineStr">
+      <c r="AE267" s="348" t="inlineStr">
         <is>
           <t>4.48%</t>
         </is>
@@ -27872,7 +27872,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="35" t="inlineStr">
+      <c r="A270" s="327" t="inlineStr">
         <is>
           <t>[汽车保护膜+芯片概念+氢能源+一季报增长]</t>
         </is>
@@ -27921,7 +27921,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AD270" s="335" t="inlineStr">
+      <c r="AD270" s="336" t="inlineStr">
         <is>
           <t>3.39%</t>
         </is>
@@ -28366,7 +28366,7 @@
           <t>0.67%</t>
         </is>
       </c>
-      <c r="AG275" s="336" t="inlineStr">
+      <c r="AG275" s="337" t="inlineStr">
         <is>
           <t>-5.73%</t>
         </is>
@@ -28456,7 +28456,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AH276" s="337" t="inlineStr">
+      <c r="AH276" s="338" t="inlineStr">
         <is>
           <t>6.49%</t>
         </is>
@@ -29234,7 +29234,7 @@
           <t>-9.00%</t>
         </is>
       </c>
-      <c r="AJ283" s="336" t="inlineStr">
+      <c r="AJ283" s="337" t="inlineStr">
         <is>
           <t>-5.71%</t>
         </is>
@@ -29336,7 +29336,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="350" t="inlineStr">
+      <c r="A285" s="333" t="inlineStr">
         <is>
           <t>[涨价+碳纤维+军工应用+国企改革]</t>
         </is>
@@ -30200,7 +30200,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="350" t="inlineStr">
+      <c r="A295" s="333" t="inlineStr">
         <is>
           <t>[军工+大飞机+电线电缆]</t>
         </is>
@@ -30279,7 +30279,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="333" t="inlineStr">
+      <c r="A296" s="334" t="inlineStr">
         <is>
           <t>[AI设计+IP+室内设计+小红书]</t>
         </is>
@@ -30369,7 +30369,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="333" t="inlineStr">
+      <c r="A297" s="334" t="inlineStr">
         <is>
           <t>[北京玄戒+中科系+鸿蒙概念+脑机接口]</t>
         </is>
@@ -31186,7 +31186,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="35" t="inlineStr">
+      <c r="A306" s="333" t="inlineStr">
         <is>
           <t>[可控核聚变+军工+塑料包装]</t>
         </is>
@@ -31371,7 +31371,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="35" t="inlineStr">
+      <c r="A308" s="82" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -31432,7 +31432,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AH308" s="337" t="inlineStr">
+      <c r="AH308" s="338" t="inlineStr">
         <is>
           <t>6.45%</t>
         </is>
@@ -31651,7 +31651,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="35" t="inlineStr">
+      <c r="A311" s="82" t="inlineStr">
         <is>
           <t>[可控核聚变+超导+电网设备+国企]</t>
         </is>
@@ -31891,7 +31891,7 @@
           <t>-3.72%</t>
         </is>
       </c>
-      <c r="AK313" s="344" t="inlineStr">
+      <c r="AK313" s="345" t="inlineStr">
         <is>
           <t>-3.05%</t>
         </is>
@@ -32645,7 +32645,7 @@
           <t>-3.92%</t>
         </is>
       </c>
-      <c r="AK321" s="344" t="inlineStr">
+      <c r="AK321" s="345" t="inlineStr">
         <is>
           <t>-3.09%</t>
         </is>
@@ -34064,7 +34064,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AJ337" s="345" t="inlineStr">
+      <c r="AJ337" s="346" t="inlineStr">
         <is>
           <t>5.74%</t>
         </is>
@@ -34272,7 +34272,7 @@
           <t>1.08%</t>
         </is>
       </c>
-      <c r="AN339" s="339" t="inlineStr">
+      <c r="AN339" s="340" t="inlineStr">
         <is>
           <t>-6.86%</t>
         </is>
@@ -34793,7 +34793,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="350" t="inlineStr">
+      <c r="A346" s="333" t="inlineStr">
         <is>
           <t>[军工+资产重组+低空防御系统+国企改革]</t>
         </is>
@@ -35301,7 +35301,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="35" t="inlineStr">
+      <c r="A352" s="82" t="inlineStr">
         <is>
           <t>[可控核聚变+国企]</t>
         </is>
@@ -35377,7 +35377,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="35" t="inlineStr">
+      <c r="A353" s="82" t="inlineStr">
         <is>
           <t>[可控核聚变+数据中心+热能动力]</t>
         </is>
@@ -35461,7 +35461,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="35" t="inlineStr">
+      <c r="A354" s="82" t="inlineStr">
         <is>
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
@@ -35697,7 +35697,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="35" t="inlineStr">
+      <c r="A357" s="82" t="inlineStr">
         <is>
           <t>[核电设备+高效换热器+订单充足]</t>
         </is>
@@ -36025,7 +36025,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="35" t="inlineStr">
+      <c r="A361" s="82" t="inlineStr">
         <is>
           <t>[核电+输配电设备+国企改革]</t>
         </is>
@@ -36273,7 +36273,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="35" t="inlineStr">
+      <c r="A364" s="82" t="inlineStr">
         <is>
           <t>[核电+输电线路铁塔+海工装备]</t>
         </is>
@@ -37721,7 +37721,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="333" t="inlineStr">
+      <c r="A384" s="334" t="inlineStr">
         <is>
           <t>[无人驾驶扫路机器人+城市服务运营商+AI大模型]</t>
         </is>
@@ -37853,7 +37853,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="35" t="inlineStr">
+      <c r="A386" s="82" t="inlineStr">
         <is>
           <t>[可控核聚变+雷达+低空经济+实控人中电科]</t>
         </is>
@@ -38329,7 +38329,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="35" t="inlineStr">
+      <c r="A392" s="82" t="inlineStr">
         <is>
           <t>[并购重组+可控核聚变+高速视觉+钢结构工程]</t>
         </is>
@@ -39015,7 +39015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39064,37 +39064,37 @@
         </is>
       </c>
       <c r="B4" s="395" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="399" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B5" s="395" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="400" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B6" s="395" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="401" t="inlineStr">
         <is>
-          <t>医药</t>
+          <t>新能源</t>
         </is>
       </c>
       <c r="B7" s="395" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -39130,7 +39130,7 @@
     <row r="11">
       <c r="A11" s="405" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>AI大模型</t>
         </is>
       </c>
       <c r="B11" s="395" t="n">
@@ -39168,7 +39168,7 @@
     <row r="15">
       <c r="A15" s="395" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>核聚变</t>
         </is>
       </c>
       <c r="B15" s="395" t="n">
@@ -39178,37 +39178,37 @@
     <row r="16">
       <c r="A16" s="395" t="inlineStr">
         <is>
-          <t>算力</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B16" s="395" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="395" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B17" s="395" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="395" t="inlineStr">
         <is>
-          <t>重组</t>
+          <t>房地产</t>
         </is>
       </c>
       <c r="B18" s="395" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="395" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>重组</t>
         </is>
       </c>
       <c r="B19" s="395" t="n">
@@ -39218,27 +39218,27 @@
     <row r="20">
       <c r="A20" s="395" t="inlineStr">
         <is>
-          <t>新消费</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="B20" s="395" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="395" t="inlineStr">
         <is>
-          <t>新传媒</t>
+          <t>新消费</t>
         </is>
       </c>
       <c r="B21" s="395" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="395" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>新传媒</t>
         </is>
       </c>
       <c r="B22" s="395" t="n">
@@ -39248,7 +39248,7 @@
     <row r="23">
       <c r="A23" s="395" t="inlineStr">
         <is>
-          <t>航天</t>
+          <t>电子元件</t>
         </is>
       </c>
       <c r="B23" s="395" t="n">
@@ -39258,17 +39258,17 @@
     <row r="24">
       <c r="A24" s="395" t="inlineStr">
         <is>
-          <t>新材料</t>
+          <t>航天</t>
         </is>
       </c>
       <c r="B24" s="395" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="395" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>新材料</t>
         </is>
       </c>
       <c r="B25" s="395" t="n">
@@ -39278,139 +39278,149 @@
     <row r="26">
       <c r="A26" s="395" t="inlineStr">
         <is>
-          <t>金融</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B26" s="395" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="395" t="inlineStr">
         <is>
+          <t>金融</t>
+        </is>
+      </c>
+      <c r="B27" s="395" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="395" t="inlineStr">
+        <is>
           <t>旅游</t>
         </is>
       </c>
-      <c r="B27" s="395" t="n">
+      <c r="B28" s="395" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="396" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="396" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B28" s="395" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="395" t="inlineStr">
-        <is>
-          <t>业绩增长</t>
-        </is>
-      </c>
-      <c r="B29" s="395" t="n">
-        <v>59</v>
-      </c>
+      <c r="B29" s="395" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="395" t="inlineStr">
         <is>
-          <t>扭亏为盈</t>
+          <t>业绩增长</t>
         </is>
       </c>
       <c r="B30" s="395" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="395" t="inlineStr">
         <is>
+          <t>扭亏为盈</t>
+        </is>
+      </c>
+      <c r="B31" s="395" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="395" t="inlineStr">
+        <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B31" s="395" t="n">
+      <c r="B32" s="395" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="406" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="406" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B32" s="395" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="396" t="inlineStr">
+      <c r="B33" s="395" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="396" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B33" s="395" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="407" t="inlineStr">
+      <c r="B34" s="395" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="407" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B34" s="395" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="408" t="inlineStr">
+      <c r="B35" s="395" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="408" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B35" s="395" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="409" t="inlineStr">
+      <c r="B36" s="395" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="409" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B36" s="395" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="410" t="inlineStr">
+      <c r="B37" s="395" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="410" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B37" s="395" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="411" t="inlineStr">
+      <c r="B38" s="395" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="411" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B38" s="395" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="412" t="inlineStr">
+      <c r="B39" s="395" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="412" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B39" s="395" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="413" t="inlineStr">
+      <c r="B40" s="395" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="413" t="inlineStr">
         <is>
           <t>特殊标记</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="414" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="414" t="inlineStr">
         <is>
           <t>首板涨停</t>
         </is>
       </c>
-      <c r="B41" s="395" t="inlineStr">
+      <c r="B42" s="395" t="inlineStr">
         <is>
           <t>梯队股再次首板</t>
         </is>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -3654,6 +3654,8232 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>涨停信息</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 10:33:39 
+最终涨停: 10:34:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AN4" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:42:49 
+最终涨停: 14:56:27 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="AO4" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:49 
+最终涨停: 10:05:28 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:40:30 
+最终涨停: 10:01:38 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 14:51:42 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:49:40 
+最终涨停: 14:44:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <t>8天7板 
+首次涨停: 13:27:07 
+最终涨停: 13:51:43 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AM5" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:09 
+最终涨停: 09:53:30 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:47:42 
+最终涨停: 14:45:36 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:15 
+最终涨停: 09:30:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:13:16 
+最终涨停: 13:07:26 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:30 
+最终涨停: 09:32:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:16:15 
+最终涨停: 10:16:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:39:45 
+最终涨停: 09:39:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:01:14 
+最终涨停: 10:01:14 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:45:00 
+最终涨停: 09:46:57 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:54:37 
+最终涨停: 10:01:38 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:33:30 
+最终涨停: 11:22:35 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:50:51 
+最终涨停: 14:50:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:06:28 
+最终涨停: 14:06:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO16" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:45:10 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:33:15 
+最终涨停: 09:33:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <t>7天4板 
+首次涨停: 11:29:13 
+最终涨停: 11:29:13 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 10:59:15 
+最终涨停: 10:59:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:32:51 
+最终涨停: 10:34:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:35:09 
+最终涨停: 09:52:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="R18" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:35 
+最终涨停: 10:57:53 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="S18" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:34:47 
+最终涨停: 14:34:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X18" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:01:26 
+最终涨停: 11:01:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:18 
+最终涨停: 09:46:24 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE18" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 14:56:39 
+最终涨停: 14:56:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG18" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 10:08:09 
+最终涨停: 13:43:39 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AK18" authorId="0" shapeId="0">
+      <text>
+        <t>9天5板 
+首次涨停: 09:43:12 
+最终涨停: 14:08:24 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AM18" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:19:03 
+最终涨停: 11:19:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN18" authorId="0" shapeId="0">
+      <text>
+        <t>12天7板 
+首次涨停: 09:35:09 
+最终涨停: 14:54:30 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 10:08:41 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:53:08 
+最终涨停: 10:03:57 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0">
+      <text>
+        <t>9天7板 
+首次涨停: 13:27:12 
+最终涨停: 14:48:35 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0">
+      <text>
+        <t>14天8板 
+首次涨停: 13:57:56 
+最终涨停: 14:27:04 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0" shapeId="0">
+      <text>
+        <t>15天9板 
+首次涨停: 09:34:49 
+最终涨停: 09:36:37 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:02:15 
+最终涨停: 10:40:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:44:47 
+最终涨停: 14:39:09 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="Y20" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z20" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 14:50:57 
+最终涨停: 14:50:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF21" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:45:03 
+最终涨停: 13:49:09 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AI21" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:02:27 
+最终涨停: 10:02:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:32:15 
+最终涨停: 10:21:45 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:03 
+最终涨停: 09:49:07 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:00 
+最终涨停: 09:33:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:32 
+最终涨停: 09:36:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:35:02 
+最终涨停: 09:35:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:21:35 
+最终涨停: 14:33:47 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:01:45 
+最终涨停: 14:35:27 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:57:00 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AH26" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:31:30 
+最终涨停: 14:31:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI26" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:33 
+最终涨停: 09:59:06 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:00:50 
+最终涨停: 11:00:50 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:40:38 
+最终涨停: 09:46:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X28" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y28" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z28" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:42 
+最终涨停: 09:31:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB28" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:32:09 
+最终涨停: 09:33:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AF28" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:32:09 
+最终涨停: 09:32:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG28" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 14:36:36 
+最终涨停: 14:56:54 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AJ28" authorId="0" shapeId="0">
+      <text>
+        <t>14天8板 
+首次涨停: 09:31:00 
+最终涨停: 09:31:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK28" authorId="0" shapeId="0">
+      <text>
+        <t>15天9板 
+首次涨停: 09:31:42 
+最终涨停: 09:31:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AL28" authorId="0" shapeId="0">
+      <text>
+        <t>16天10板 
+首次涨停: 09:32:36 
+最终涨停: 10:57:06 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AM28" authorId="0" shapeId="0">
+      <text>
+        <t>17天11板 
+首次涨停: 10:28:57 
+最终涨停: 10:28:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO28" authorId="0" shapeId="0">
+      <text>
+        <t>19天12板 
+首次涨停: 09:39:12 
+最终涨停: 10:33:57 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:18:35 
+最终涨停: 13:24:05 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:11:28 
+最终涨停: 13:37:39 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 14:45:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:15 
+最终涨停: 09:30:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:41:20 
+最终涨停: 10:41:20 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:15:08 
+最终涨停: 15:00:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 13:38:32 
+最终涨停: 14:26:09 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:42 
+最终涨停: 15:00:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G36" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:39:39 
+最终涨停: 10:02:23 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:32:51 
+最终涨停: 09:33:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:53 
+最终涨停: 09:39:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:54 
+最终涨停: 09:30:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 14:56:39 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="0" shapeId="0">
+      <text>
+        <t>9天7板 
+首次涨停: 09:43:07 
+最终涨停: 13:36:08 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="Q38" authorId="0" shapeId="0">
+      <text>
+        <t>13天8板 
+首次涨停: 10:10:53 
+最终涨停: 10:12:23 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="R38" authorId="0" shapeId="0">
+      <text>
+        <t>14天9板 
+首次涨停: 14:19:04 
+最终涨停: 14:19:04 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD38" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:02:08 
+最终涨停: 10:25:53 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE38" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:47 
+最终涨停: 09:37:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF38" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:53:11 
+最终涨停: 14:55:05 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AG38" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:37:49 
+最终涨停: 09:56:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 14:20:10 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 
+首次涨停: 09:33:51 
+最终涨停: 09:33:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M39" authorId="0" shapeId="0">
+      <text>
+        <t>9天8板 
+首次涨停: 14:43:17 
+最终涨停: 14:43:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N39" authorId="0" shapeId="0">
+      <text>
+        <t>10天9板 
+首次涨停: 10:28:18 
+最终涨停: 13:40:08 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="O39" authorId="0" shapeId="0">
+      <text>
+        <t>11天10板 
+首次涨停: 10:25:06 
+最终涨停: 13:23:24 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P39" authorId="0" shapeId="0">
+      <text>
+        <t>12天11板 
+首次涨停: 09:34:54 
+最终涨停: 13:25:47 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q39" authorId="0" shapeId="0">
+      <text>
+        <t>13天12板 
+首次涨停: 13:31:54 
+最终涨停: 13:31:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S39" authorId="0" shapeId="0">
+      <text>
+        <t>15天13板 
+首次涨停: 14:54:02 
+最终涨停: 14:55:32 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y39" authorId="0" shapeId="0">
+      <text>
+        <t>21天14板 
+首次涨停: 14:34:42 
+最终涨停: 14:36:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD39" authorId="0" shapeId="0">
+      <text>
+        <t>26天15板 
+首次涨停: 10:36:24 
+最终涨停: 14:40:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AO39" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:53:42 
+最终涨停: 14:56:32 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:54:50 
+最终涨停: 09:54:50 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:46 
+最终涨停: 15:00:00 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 13:53:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:40 
+最终涨停: 10:31:40 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y42" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:41:06 
+最终涨停: 10:41:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH42" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 13:20:12 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:03:03 
+最终涨停: 13:03:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:31:24 
+最终涨停: 09:31:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:13:42 
+最终涨停: 14:13:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:37:06 
+最终涨停: 13:37:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:50 
+最终涨停: 10:08:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q45" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:03 
+最终涨停: 09:30:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R45" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD45" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:26:09 
+最终涨停: 14:48:03 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AO45" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:23:03 
+最终涨停: 11:23:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:34:39 
+最终涨停: 14:10:23 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="M46" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:49:47 
+最终涨停: 14:49:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N46" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:02 
+最终涨停: 09:55:27 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O46" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 10:28:51 
+最终涨停: 14:53:31 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="Q46" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 13:41:09 
+最终涨停: 13:58:54 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:57:48 
+最终涨停: 10:57:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H47" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:21:08 
+最终涨停: 11:21:08 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:26:11 
+最终涨停: 11:26:11 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:40:09 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:55:27 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G51" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:04:19 
+最终涨停: 11:10:20 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:33:16 
+最终涨停: 14:54:23 
+开板次数: 17</t>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:05:07 
+最终涨停: 13:27:33 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:37:04 
+最终涨停: 09:45:47 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G54" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:35:40 
+最终涨停: 14:35:40 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G55" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:25:26 
+最终涨停: 10:25:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G56" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:05:07 
+最终涨停: 11:05:07 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H56" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:39:17 
+最终涨停: 13:45:06 
+开板次数: 10</t>
+      </text>
+    </comment>
+    <comment ref="H57" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:45:37 
+最终涨停: 09:57:42 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:07:16 
+最终涨停: 13:07:16 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I58" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:28:46 
+最终涨停: 10:28:46 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H59" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:56:09 
+最终涨停: 14:56:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H60" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:35:05 
+最终涨停: 13:35:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I60" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:14:06 
+最终涨停: 10:28:01 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="J60" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:52:00 
+最终涨停: 14:47:10 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="M60" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 14:55:47 
+最终涨停: 14:55:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H61" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:36:05 
+最终涨停: 13:36:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H62" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:17:14 
+最终涨停: 14:17:14 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H63" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:58:54 
+最终涨停: 15:00:00 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="H64" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:31 
+最终涨停: 09:30:31 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:30:01 
+最终涨停: 13:30:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H66" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:14:14 
+最终涨停: 14:14:14 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H67" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I67" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J67" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K67" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I68" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:45:05 
+最终涨停: 09:45:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J68" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 11:15:57 
+最终涨停: 11:15:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:51 
+最终涨停: 09:54:35 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="J69" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:34:15 
+最终涨停: 09:34:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I70" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:14:12 
+最终涨停: 14:41:19 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="I71" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:50:50 
+最终涨停: 14:50:27 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="I72" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:42:42 
+最终涨停: 09:42:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I73" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:48:05 
+最终涨停: 09:48:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I74" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:57:57 
+最终涨停: 10:57:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I75" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:15:06 
+最终涨停: 10:38:28 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="I76" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J76" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 14:40:21 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="M76" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 13:19:53 
+最终涨停: 13:19:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I77" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:10 
+最终涨停: 13:12:42 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="I78" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:30 
+最终涨停: 09:39:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD78" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE78" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF78" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG78" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:33:27 
+最终涨停: 09:33:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I79" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:35:36 
+最终涨停: 09:36:14 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="I80" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L80" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:30:36 
+最终涨停: 09:30:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE80" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:45 
+最终涨停: 14:52:15 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="I81" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:21:53 
+最终涨停: 13:21:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I82" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I83" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:21:17 
+最终涨停: 14:21:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I84" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:05:51 
+最终涨停: 10:05:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J84" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:40:15 
+最终涨停: 09:40:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I85" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:42:42 
+最终涨停: 09:42:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J86" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:15 
+最终涨停: 14:55:02 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="J87" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K87" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:38:17 
+最终涨停: 10:00:22 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="J88" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:47:45 
+最终涨停: 09:47:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K88" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L88" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:36 
+最终涨停: 13:37:51 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="M88" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:06 
+最终涨停: 09:30:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N88" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:36:02 
+最终涨停: 13:49:28 
+开板次数: 10</t>
+      </text>
+    </comment>
+    <comment ref="J89" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:41:00 
+最终涨停: 09:41:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J90" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:00:17 
+最终涨停: 13:00:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J91" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:38:45 
+最终涨停: 14:51:41 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="J92" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:25:16 
+最终涨停: 14:45:14 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Y92" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:55:08 
+最终涨停: 10:14:58 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI92" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:14:24 
+最终涨停: 11:14:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J93" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:11:43 
+最终涨停: 10:11:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q93" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R93" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S93" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:21 
+最终涨停: 14:40:02 
+开板次数: 18</t>
+      </text>
+    </comment>
+    <comment ref="AP93" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J94" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:44:45 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="K94" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:06:52 
+最终涨停: 13:54:27 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="Q94" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J95" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:39:06 
+最终涨停: 13:39:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J96" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K96" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L96" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M96" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J97" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K98" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:38:02 
+最终涨停: 14:38:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K99" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L99" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 14:03:51 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="N99" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 14:34:43 
+最终涨停: 14:34:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P99" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 09:31:09 
+最终涨停: 09:34:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="S99" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:31:36 
+最终涨停: 09:33:51 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AL99" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:42:48 
+最终涨停: 09:42:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K100" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K101" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N101" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:01:05 
+最终涨停: 13:01:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K102" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:24:01 
+最终涨停: 15:00:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="K103" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:39:05 
+最终涨停: 10:55:21 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="K104" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:42 
+最终涨停: 09:30:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L104" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:20:24 
+最终涨停: 10:20:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M104" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 14:01:10 
+最终涨停: 14:46:32 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="K105" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:38:32 
+最终涨停: 09:38:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L105" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:13:51 
+最终涨停: 14:13:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD105" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:58:31 
+最终涨停: 14:20:22 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF105" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:30:19 
+最终涨停: 10:36:13 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AG105" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 13:03:03 
+最终涨停: 13:03:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K106" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D107" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:00 
+最终涨停: 09:33:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K107" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:32 
+最终涨停: 09:36:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N107" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:35:02 
+最终涨停: 09:35:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K108" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:10:52 
+最终涨停: 10:10:52 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L108" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:54:36 
+最终涨停: 14:54:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N108" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 10:23:18 
+最终涨停: 10:23:18 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K109" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:55:12 
+最终涨停: 13:55:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L110" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:26:51 
+最终涨停: 11:26:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L111" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:55:06 
+最终涨停: 14:53:36 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="T111" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:27:27 
+最终涨停: 14:22:52 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="L112" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M112" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O112" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 10:22:36 
+最终涨停: 14:04:54 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="Q112" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 
+首次涨停: 10:05:37 
+最终涨停: 14:50:03 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="S112" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 10:01:51 
+最终涨停: 10:04:21 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="U112" authorId="0" shapeId="0">
+      <text>
+        <t>12天7板 
+首次涨停: 09:49:44 
+最终涨停: 09:49:44 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L113" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:43:38 
+最终涨停: 09:43:38 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M113" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N113" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:18:05 
+最终涨停: 14:31:16 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="P113" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:32:39 
+最终涨停: 09:41:39 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="Q113" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:42:22 
+最终涨停: 14:55:48 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="S113" authorId="0" shapeId="0">
+      <text>
+        <t>9天7板 
+首次涨停: 14:50:02 
+最终涨停: 14:50:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI113" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:57 
+最终涨停: 14:11:39 
+开板次数: 28</t>
+      </text>
+    </comment>
+    <comment ref="L114" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:08:43 
+最终涨停: 14:51:06 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="L115" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M115" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:32:21 
+最终涨停: 10:31:22 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="N115" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:32 
+最终涨停: 09:30:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O115" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:30 
+最终涨停: 09:57:30 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P115" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 10:15:13 
+最终涨停: 14:52:57 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG115" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:39:51 
+最终涨停: 14:56:51 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="M116" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M117" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:53:32 
+最终涨停: 14:53:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M118" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:14:37 
+最终涨停: 10:14:37 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N118" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:19:48 
+最终涨停: 10:19:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O118" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:37:45 
+最终涨停: 13:33:24 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q118" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:52:37 
+最终涨停: 09:59:07 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="M119" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N119" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U119" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:31:44 
+最终涨停: 14:49:30 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="G120" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:34:39 
+最终涨停: 14:10:23 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="M120" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:49:47 
+最终涨停: 14:49:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N120" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:02 
+最终涨停: 09:55:27 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O120" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 10:28:51 
+最终涨停: 14:53:31 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="Q120" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 13:41:09 
+最终涨停: 13:58:54 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="M121" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:04:07 
+最终涨停: 14:21:10 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="N121" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 14:08:03 
+最终涨停: 14:14:33 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="M122" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N122" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O122" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P122" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:36:09 
+最终涨停: 10:02:58 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="M123" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:44:52 
+最终涨停: 14:55:32 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="P123" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:57:22 
+最终涨停: 10:57:22 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M124" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N124" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 14:26:22 
+最终涨停: 14:45:52 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="Q124" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:34:19 
+最终涨停: 14:30:58 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="M125" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:28:53 
+最终涨停: 13:28:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N125" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:17 
+最终涨停: 09:30:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O125" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:36:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P125" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 10:30:14 
+最终涨停: 14:53:12 
+开板次数: 10</t>
+      </text>
+    </comment>
+    <comment ref="Q125" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 13:50:24 
+最终涨停: 14:12:33 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="S125" authorId="0" shapeId="0">
+      <text>
+        <t>8天7板 
+首次涨停: 14:28:47 
+最终涨停: 14:30:17 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="N126" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:17 
+最终涨停: 14:10:48 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O126" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:00 
+最终涨停: 14:23:35 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="N127" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:38:02 
+最终涨停: 09:42:32 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O127" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:35:15 
+最终涨停: 09:52:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P127" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:54 
+最终涨停: 09:30:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q127" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:18 
+最终涨停: 10:12:53 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="S127" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:35:21 
+最终涨停: 13:14:19 
+开板次数: 16</t>
+      </text>
+    </comment>
+    <comment ref="Y127" authorId="0" shapeId="0">
+      <text>
+        <t>13天7板 
+首次涨停: 09:30:38 
+最终涨停: 09:49:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="N128" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 10:24:03 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD128" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:39 
+最终涨停: 09:47:00 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE128" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF128" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:24 
+最终涨停: 10:00:57 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG128" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI128" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:44:54 
+最终涨停: 14:05:18 
+开板次数: 15</t>
+      </text>
+    </comment>
+    <comment ref="D129" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:02:15 
+最终涨停: 10:40:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="N129" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:44:47 
+最终涨停: 14:39:09 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="Y129" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z129" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N130" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:14:32 
+最终涨停: 10:14:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N131" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:36:33 
+最终涨停: 10:46:04 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="N132" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:37:47 
+最终涨停: 10:05:44 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="N133" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:42:32 
+最终涨停: 09:47:02 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="N134" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:54:42 
+最终涨停: 09:54:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T134" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:32:45 
+最终涨停: 14:23:37 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="V134" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:33:50 
+最终涨停: 10:43:37 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="W134" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:35:47 
+最终涨停: 09:35:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N135" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD135" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:32:38 
+最终涨停: 13:32:38 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE135" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:46:28 
+最终涨停: 13:33:58 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O136" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:17:36 
+最终涨停: 13:56:39 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="D137" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 10:59:15 
+最终涨停: 10:59:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O137" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:32:51 
+最终涨停: 10:34:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P137" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:35:09 
+最终涨停: 09:52:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="R137" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:35 
+最终涨停: 10:57:53 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="S137" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:34:47 
+最终涨停: 14:34:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X137" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:01:26 
+最终涨停: 11:01:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD137" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:18 
+最终涨停: 09:46:24 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE137" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 14:56:39 
+最终涨停: 14:56:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG137" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 10:08:09 
+最终涨停: 13:43:39 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AK137" authorId="0" shapeId="0">
+      <text>
+        <t>9天5板 
+首次涨停: 09:43:12 
+最终涨停: 14:08:24 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AM137" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:19:03 
+最终涨停: 11:19:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN137" authorId="0" shapeId="0">
+      <text>
+        <t>12天7板 
+首次涨停: 09:35:09 
+最终涨停: 14:54:30 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="O138" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:37:30 
+最终涨停: 09:38:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P138" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:33:24 
+最终涨停: 14:47:42 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="Q138" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 14:28:38 
+最终涨停: 14:37:00 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="S138" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:48:32 
+最终涨停: 14:48:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V138" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 09:47:20 
+最终涨停: 10:26:14 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Y138" authorId="0" shapeId="0">
+      <text>
+        <t>12天7板 
+首次涨停: 14:29:57 
+最终涨停: 14:29:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA138" authorId="0" shapeId="0">
+      <text>
+        <t>14天8板 
+首次涨停: 11:06:33 
+最终涨停: 11:06:33 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB138" authorId="0" shapeId="0">
+      <text>
+        <t>15天9板 
+首次涨停: 13:24:18 
+最终涨停: 13:24:18 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC138" authorId="0" shapeId="0">
+      <text>
+        <t>16天10板 
+首次涨停: 10:05:00 
+最终涨停: 11:10:18 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF138" authorId="0" shapeId="0">
+      <text>
+        <t>19天11板 
+首次涨停: 13:28:24 
+最终涨停: 14:50:33 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="O139" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O140" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:30 
+最终涨停: 09:32:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P140" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:39 
+最终涨停: 09:30:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q140" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O141" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:15 
+最终涨停: 09:50:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="O142" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O143" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:09:24 
+最终涨停: 13:09:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O144" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:48:01 
+最终涨停: 14:48:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P145" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:35:39 
+最终涨停: 14:49:27 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="P146" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:51:57 
+最终涨停: 14:51:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P147" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:54 
+最终涨停: 09:30:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q147" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:39:07 
+最终涨停: 14:00:10 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="S147" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 13:54:04 
+最终涨停: 14:54:17 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X147" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:13:00 
+最终涨停: 10:13:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y147" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:32:08 
+最终涨停: 09:35:38 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z147" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 10:16:27 
+最终涨停: 10:19:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD147" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 
+首次涨停: 11:09:45 
+最终涨停: 11:09:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P148" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:51:42 
+最终涨停: 09:51:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P149" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P150" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:31:09 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q150" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R150" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:30:00 
+最终涨停: 14:39:01 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="S150" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:37:47 
+最终涨停: 14:40:02 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="T150" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 14:54:32 
+最终涨停: 14:55:20 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P151" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:53:42 
+最终涨停: 09:53:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P152" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:49:14 
+最终涨停: 13:49:14 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P153" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q153" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R153" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:35 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="S153" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T153" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 14:52:46 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="P154" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:31:24 
+最终涨停: 09:36:09 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P155" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:24 
+最终涨停: 09:30:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q155" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:34:34 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="P156" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:24 
+最终涨停: 09:48:27 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P157" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:45:25 
+最终涨停: 14:35:39 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="P158" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:09 
+最终涨停: 09:46:41 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="Q158" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:44:52 
+最终涨停: 11:01:22 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="U158" authorId="0" shapeId="0">
+      <text>
+        <t>7天4板 
+首次涨停: 09:46:29 
+最终涨停: 09:46:29 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P159" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:52:07 
+最终涨停: 10:52:07 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X159" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:19:50 
+最终涨停: 14:19:50 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI159" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:29:47 
+最终涨停: 11:29:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ159" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:30 
+最终涨停: 14:54:43 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AL159" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:44:32 
+最终涨停: 14:34:29 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AM159" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 10:21:37 
+最终涨停: 10:21:37 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P160" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:16:28 
+最终涨停: 11:17:44 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="W160" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:04:40 
+最终涨停: 14:55:20 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="G161" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:13:42 
+最终涨停: 14:13:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H161" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:37:06 
+最终涨停: 13:37:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I161" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:50 
+最终涨停: 10:08:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q161" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:03 
+最终涨停: 09:30:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R161" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD161" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:26:09 
+最终涨停: 14:48:03 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AO161" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:23:03 
+最终涨停: 11:23:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q162" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:55:07 
+最终涨停: 09:55:07 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T162" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:05:05 
+最终涨停: 13:05:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J163" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:11:43 
+最终涨停: 10:11:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q163" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R163" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S163" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:21 
+最终涨停: 14:40:02 
+开板次数: 18</t>
+      </text>
+    </comment>
+    <comment ref="AP163" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q164" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:47:22 
+最终涨停: 09:47:22 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J165" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:44:45 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="K165" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:06:52 
+最终涨停: 13:54:27 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="Q165" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q166" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q167" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:12:18 
+最终涨停: 15:00:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="D168" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:32:15 
+最终涨停: 10:21:45 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q168" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:03 
+最终涨停: 09:49:07 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q169" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R169" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S169" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:36 
+最终涨停: 11:29:59 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="V169" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 10:36:03 
+最终涨停: 10:38:02 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X169" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 11:02:56 
+最终涨停: 14:33:14 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="Q170" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:45:56 
+最终涨停: 14:56:33 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="Q171" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF171" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:25:24 
+最终涨停: 13:26:48 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="R172" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 10:17:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="S172" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R173" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:25:17 
+最终涨停: 11:25:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S173" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:43:21 
+最终涨停: 09:43:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V173" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:33:35 
+最终涨停: 09:33:35 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W173" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 09:30:00 
+最终涨停: 11:13:11 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Y173" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 13:40:58 
+最终涨停: 14:55:49 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="R174" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R175" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:35 
+最终涨停: 09:30:35 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R176" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:00:51 
+最终涨停: 10:01:58 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="R177" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:08:53 
+最终涨停: 11:30:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="S177" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:49:47 
+最终涨停: 14:52:02 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="R178" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:01:58 
+最终涨停: 10:01:58 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S179" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V179" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:08:47 
+最终涨停: 10:08:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S180" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:11:34 
+最终涨停: 14:56:32 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="S181" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:01:24 
+最终涨停: 11:01:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S182" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:40:51 
+最终涨停: 09:40:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S183" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 13:22:19 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="S184" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T184" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U184" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S185" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:31:47 
+最终涨停: 14:41:47 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="L186" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:55:06 
+最终涨停: 14:53:36 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="T186" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:27:27 
+最终涨停: 14:22:52 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="T187" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:12 
+最终涨停: 10:31:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK187" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T188" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:28:36 
+最终涨停: 14:52:29 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="T189" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:33:45 
+最终涨停: 09:33:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T190" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T191" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:15 
+最终涨停: 09:37:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="T192" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U192" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X192" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 11:20:55 
+最终涨停: 13:10:47 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="T193" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U193" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:32:44 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="V193" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 14:09:03 
+最终涨停: 14:09:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N194" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:54:42 
+最终涨停: 09:54:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="T194" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:32:45 
+最终涨停: 14:23:37 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="V194" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:33:50 
+最终涨停: 10:43:37 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="W194" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:35:47 
+最终涨停: 09:35:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U195" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:44:40 
+最终涨停: 14:44:40 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V195" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W195" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 14:49:25 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="X195" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:36:39 
+最终涨停: 13:42:25 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="Y195" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:35:53 
+最终涨停: 14:24:27 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AD195" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 14:54:42 
+最终涨停: 14:54:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE195" authorId="0" shapeId="0">
+      <text>
+        <t>12天8板 
+首次涨停: 10:38:30 
+最终涨停: 14:55:06 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AF195" authorId="0" shapeId="0">
+      <text>
+        <t>13天9板 
+首次涨停: 14:49:09 
+最终涨停: 14:49:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M196" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N196" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U196" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:31:44 
+最终涨停: 14:49:30 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="U197" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V197" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:35 
+最终涨停: 09:31:35 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W197" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:42:20 
+最终涨停: 09:42:20 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U198" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:59 
+最终涨停: 09:30:59 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U199" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:32:14 
+最终涨停: 11:28:30 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="U200" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:29 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X200" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:58:57 
+最终涨停: 13:58:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z200" authorId="0" shapeId="0">
+      <text>
+        <t>7天4板 
+首次涨停: 10:46:16 
+最终涨停: 14:53:53 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="U201" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:05:06 
+最终涨停: 14:34:05 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="U202" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:21:45 
+最终涨停: 13:21:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="U203" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:54:36 
+最终涨停: 14:49:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="V204" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:38:05 
+最终涨停: 09:39:35 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X204" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 09:42:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AG204" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:44:04 
+最终涨停: 09:58:13 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="V205" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:59:06 
+最终涨停: 13:59:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM205" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:27 
+最终涨停: 09:34:36 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AN205" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:54 
+最终涨停: 10:10:57 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="V206" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM206" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:50:20 
+最终涨停: 14:50:20 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO206" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:37 
+最终涨停: 14:09:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="V207" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:07:18 
+最终涨停: 13:07:18 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W208" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:48:35 
+最终涨停: 13:48:35 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W209" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:15 
+最终涨停: 13:22:55 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="W210" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X210" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 13:00:20 
+最终涨停: 13:00:20 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W211" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X211" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y211" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:53 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="W212" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:19:38 
+最终涨停: 10:47:37 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="X212" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:33:06 
+最终涨停: 09:34:36 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="W213" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:12:10 
+最终涨停: 11:12:10 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X213" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:41 
+最终涨停: 09:30:41 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="W214" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:05 
+最终涨停: 09:39:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P215" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:16:28 
+最终涨停: 11:17:44 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="W215" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:04:40 
+最终涨停: 14:55:20 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="W216" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:12:36 
+最终涨停: 10:12:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X216" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:09:48 
+最终涨停: 10:09:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y216" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:35:53 
+最终涨停: 14:27:42 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="X217" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:23:09 
+最终涨停: 11:23:21 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="P218" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:54 
+最终涨停: 09:30:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q218" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:39:07 
+最终涨停: 14:00:10 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="S218" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 13:54:04 
+最终涨停: 14:54:17 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X218" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:13:00 
+最终涨停: 10:13:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y218" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:32:08 
+最终涨停: 09:35:38 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z218" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 10:16:27 
+最终涨停: 10:19:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD218" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 
+首次涨停: 11:09:45 
+最终涨停: 11:09:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X219" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:46:03 
+最终涨停: 09:46:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X220" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:56 
+最终涨停: 09:39:37 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X221" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:44:46 
+最终涨停: 10:44:46 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E222" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X222" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y222" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z222" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:42 
+最终涨停: 09:31:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB222" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:32:09 
+最终涨停: 09:33:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AF222" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:32:09 
+最终涨停: 09:32:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG222" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 14:36:36 
+最终涨停: 14:56:54 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AJ222" authorId="0" shapeId="0">
+      <text>
+        <t>14天8板 
+首次涨停: 09:31:00 
+最终涨停: 09:31:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK222" authorId="0" shapeId="0">
+      <text>
+        <t>15天9板 
+首次涨停: 09:31:42 
+最终涨停: 09:31:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AL222" authorId="0" shapeId="0">
+      <text>
+        <t>16天10板 
+首次涨停: 09:32:36 
+最终涨停: 10:57:06 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AM222" authorId="0" shapeId="0">
+      <text>
+        <t>17天11板 
+首次涨停: 10:28:57 
+最终涨停: 10:28:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO222" authorId="0" shapeId="0">
+      <text>
+        <t>19天12板 
+首次涨停: 09:39:12 
+最终涨停: 10:33:57 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="X223" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:56 
+最终涨停: 10:36:13 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X224" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y224" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:50:42 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="X225" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:30:45 
+最终涨停: 14:30:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y225" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:41:42 
+最终涨停: 14:43:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X226" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:54:49 
+最终涨停: 10:54:49 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y226" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:40:08 
+最终涨停: 10:39:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="X227" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:34:36 
+最终涨停: 09:34:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE227" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:40:38 
+最终涨停: 15:00:02 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="X228" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:03:59 
+最终涨停: 14:04:49 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="X229" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:03:42 
+最终涨停: 13:17:41 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="X230" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y230" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P231" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:52:07 
+最终涨停: 10:52:07 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X231" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:19:50 
+最终涨停: 14:19:50 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI231" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:29:47 
+最终涨停: 11:29:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ231" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:30 
+最终涨停: 14:54:43 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AL231" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:44:32 
+最终涨停: 14:34:29 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AM231" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 10:21:37 
+最终涨停: 10:21:37 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X232" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:53:25 
+最终涨停: 13:58:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G233" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:40 
+最终涨停: 10:31:40 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y233" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:41:06 
+最终涨停: 10:41:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH233" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 13:20:12 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="J234" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:25:16 
+最终涨停: 14:45:14 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Y234" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:55:08 
+最终涨停: 10:14:58 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI234" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:14:24 
+最终涨停: 11:14:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y235" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:53 
+最终涨停: 09:30:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB235" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:25:51 
+最终涨停: 10:25:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y236" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D237" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:02:15 
+最终涨停: 10:40:30 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="N237" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:44:47 
+最终涨停: 14:39:09 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="Y237" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z237" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y238" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:08 
+最终涨停: 09:30:08 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB238" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:00:06 
+最终涨停: 13:00:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC238" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:42:30 
+最终涨停: 09:42:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y239" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:48:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y240" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 13:26:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y241" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 10:03:33 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z241" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:38:13 
+最终涨停: 13:58:43 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AA241" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:30:28 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AC241" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:30:39 
+最终涨停: 09:43:09 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Y242" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:14:28 
+最终涨停: 10:14:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE242" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:28:47 
+最终涨停: 14:28:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF242" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:07:50 
+最终涨停: 10:09:14 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y243" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 13:21:53 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z243" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA243" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:58:48 
+最终涨停: 15:00:03 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Y244" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:23 
+最终涨停: 09:36:38 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Z244" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:27 
+最终涨停: 09:30:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA244" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:43:05 
+最终涨停: 14:17:23 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AB244" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 10:18:59 
+最终涨停: 10:20:05 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y245" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:53 
+最终涨停: 09:33:23 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Z246" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:28 
+最终涨停: 09:39:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA246" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB246" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:51 
+最终涨停: 09:30:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC246" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD246" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE246" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 
+首次涨停: 09:31:48 
+最终涨停: 09:32:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AF246" authorId="0" shapeId="0">
+      <text>
+        <t>8天8板 
+首次涨停: 09:35:15 
+最终涨停: 09:35:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG246" authorId="0" shapeId="0">
+      <text>
+        <t>9天9板 
+首次涨停: 09:33:45 
+最终涨停: 10:17:27 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z247" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA247" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:37:24 
+最终涨停: 14:45:12 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="Z248" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:46:48 
+最终涨停: 10:55:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AA248" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:09 
+最终涨停: 14:53:57 
+开板次数: 19</t>
+      </text>
+    </comment>
+    <comment ref="AB248" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:41:57 
+最终涨停: 09:53:12 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AC248" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:32:27 
+最终涨停: 10:43:51 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AD248" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 09:50:30 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AF248" authorId="0" shapeId="0">
+      <text>
+        <t>8天7板 
+首次涨停: 09:34:00 
+最终涨停: 09:34:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG248" authorId="0" shapeId="0">
+      <text>
+        <t>9天8板 
+首次涨停: 13:30:48 
+最终涨停: 14:52:48 
+开板次数: 15</t>
+      </text>
+    </comment>
+    <comment ref="Z249" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z250" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:19:12 
+最终涨停: 10:19:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA250" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:03 
+最终涨停: 10:05:21 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AB250" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:33:51 
+最终涨停: 09:35:30 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AC250" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 14:47:12 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="Z251" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:41:28 
+最终涨停: 09:42:28 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z252" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:43:41 
+最终涨停: 14:43:41 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB252" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:41:15 
+最终涨停: 14:41:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z253" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Z254" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:46:54 
+最终涨停: 13:46:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA255" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:27 
+最终涨停: 09:31:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB255" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 10:24:33 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AA256" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:42:06 
+最终涨停: 14:42:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AA257" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:27 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AO257" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:52:03 
+最终涨停: 09:55:51 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AA258" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 10:15:29 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AC258" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:49:42 
+最终涨停: 14:10:51 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AA259" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB260" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:08:36 
+最终涨停: 14:00:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AB261" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC261" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD261" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:03 
+最终涨停: 09:49:12 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AE261" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 10:39:13 
+最终涨停: 14:23:55 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AH261" authorId="0" shapeId="0">
+      <text>
+        <t>8天6板 
+首次涨停: 13:43:52 
+最终涨停: 13:43:52 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK261" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 10:01:43 
+最终涨停: 10:01:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL261" authorId="0" shapeId="0">
+      <text>
+        <t>12天8板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM261" authorId="0" shapeId="0">
+      <text>
+        <t>13天9板 
+首次涨停: 09:44:22 
+最终涨停: 10:24:10 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AB262" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:37:49 
+最终涨停: 09:37:49 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD262" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:54:41 
+最终涨停: 10:54:41 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB263" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:06:09 
+最终涨停: 13:06:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB264" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:02 
+最终涨停: 09:30:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC264" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD264" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:22:15 
+最终涨停: 13:26:48 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AE264" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:43:59 
+最终涨停: 10:16:14 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AG264" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 10:07:55 
+最终涨停: 13:26:37 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AH264" authorId="0" shapeId="0">
+      <text>
+        <t>8天7板 
+首次涨停: 14:13:31 
+最终涨停: 14:49:16 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AB265" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:42:23 
+最终涨停: 09:43:35 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AB266" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:54:20 
+最终涨停: 10:38:35 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AC267" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:00:24 
+最终涨停: 14:00:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC268" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:01:27 
+最终涨停: 10:33:30 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="AC269" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:38:24 
+最终涨停: 13:38:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD269" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 10:01:12 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AC270" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:55:06 
+最终涨停: 13:55:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AC271" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:06 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AC272" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD272" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:39 
+最终涨停: 10:14:21 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AC273" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:40:22 
+最终涨停: 09:40:22 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD273" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 09:47:45 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AE273" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:31:35 
+最终涨停: 10:14:20 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AG273" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 13:06:13 
+最终涨停: 13:10:13 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AD274" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:36:24 
+最终涨停: 14:36:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD275" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:12 
+最终涨停: 10:31:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N276" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 10:24:03 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD276" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:39 
+最终涨停: 09:47:00 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE276" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF276" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:24 
+最终涨停: 10:00:57 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG276" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI276" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:44:54 
+最终涨停: 14:05:18 
+开板次数: 15</t>
+      </text>
+    </comment>
+    <comment ref="G277" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:13:42 
+最终涨停: 14:13:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H277" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:37:06 
+最终涨停: 13:37:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I277" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:50 
+最终涨停: 10:08:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q277" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:03 
+最终涨停: 09:30:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R277" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD277" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:26:09 
+最终涨停: 14:48:03 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AO277" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:23:03 
+最终涨停: 11:23:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="D278" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 10:59:15 
+最终涨停: 10:59:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O278" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:32:51 
+最终涨停: 10:34:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="P278" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:35:09 
+最终涨停: 09:52:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="R278" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:35 
+最终涨停: 10:57:53 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="S278" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:34:47 
+最终涨停: 14:34:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X278" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:01:26 
+最终涨停: 11:01:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD278" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:18 
+最终涨停: 09:46:24 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE278" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 14:56:39 
+最终涨停: 14:56:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG278" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 10:08:09 
+最终涨停: 13:43:39 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AK278" authorId="0" shapeId="0">
+      <text>
+        <t>9天5板 
+首次涨停: 09:43:12 
+最终涨停: 14:08:24 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AM278" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 11:19:03 
+最终涨停: 11:19:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN278" authorId="0" shapeId="0">
+      <text>
+        <t>12天7板 
+首次涨停: 09:35:09 
+最终涨停: 14:54:30 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AD279" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE279" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF279" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:00 
+最终涨停: 10:17:09 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="K280" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:38:32 
+最终涨停: 09:38:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L280" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:13:51 
+最终涨停: 14:13:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD280" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:58:31 
+最终涨停: 14:20:22 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF280" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:30:19 
+最终涨停: 10:36:13 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AG280" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 13:03:03 
+最终涨停: 13:03:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I281" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:30 
+最终涨停: 09:39:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD281" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE281" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF281" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG281" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:33:27 
+最终涨停: 09:33:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F282" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:53 
+最终涨停: 09:39:53 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G282" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:54 
+最终涨停: 09:30:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H282" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I282" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J282" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 14:56:39 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="M282" authorId="0" shapeId="0">
+      <text>
+        <t>9天7板 
+首次涨停: 09:43:07 
+最终涨停: 13:36:08 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="Q282" authorId="0" shapeId="0">
+      <text>
+        <t>13天8板 
+首次涨停: 10:10:53 
+最终涨停: 10:12:23 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="R282" authorId="0" shapeId="0">
+      <text>
+        <t>14天9板 
+首次涨停: 14:19:04 
+最终涨停: 14:19:04 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD282" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:02:08 
+最终涨停: 10:25:53 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AE282" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:47 
+最终涨停: 09:37:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF282" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:53:11 
+最终涨停: 14:55:05 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AG282" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:37:49 
+最终涨停: 09:56:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD283" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:18 
+最终涨停: 09:36:18 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AE283" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF283" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 15:00:00 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="N284" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD284" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:32:38 
+最终涨停: 13:32:38 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE284" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:46:28 
+最终涨停: 13:33:58 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AE285" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:24 
+最终涨停: 09:33:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG285" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:42:18 
+最终涨停: 10:42:18 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE286" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 10:24:42 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X287" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:34:36 
+最终涨停: 09:34:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE287" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:40:38 
+最终涨停: 15:00:02 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AE288" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG288" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH288" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI288" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I289" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L289" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:30:36 
+最终涨停: 09:30:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE289" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:45 
+最终涨停: 14:52:15 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AE290" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:11 
+最终涨停: 14:03:05 
+开板次数: 83</t>
+      </text>
+    </comment>
+    <comment ref="Y291" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:14:28 
+最终涨停: 10:14:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE291" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:28:47 
+最终涨停: 14:28:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF291" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:07:50 
+最终涨停: 10:09:14 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AE292" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:06:05 
+最终涨停: 10:06:05 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG292" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:12:41 
+最终涨停: 14:30:23 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="AH292" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 09:35:46 
+最终涨停: 14:40:40 
+开板次数: 24</t>
+      </text>
+    </comment>
+    <comment ref="AE293" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF294" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:44:15 
+最终涨停: 09:44:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG294" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:41:30 
+最终涨停: 09:55:48 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI294" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 10:14:15 
+最终涨停: 10:14:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL294" authorId="0" shapeId="0">
+      <text>
+        <t>9天5板 
+首次涨停: 09:59:09 
+最终涨停: 09:59:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF295" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:34:45 
+最终涨停: 09:35:06 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AF296" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 10:19:42 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG296" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:47:54 
+最终涨停: 14:56:09 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="AH296" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:57:30 
+最终涨停: 09:57:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI296" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:31:30 
+最终涨停: 09:31:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF297" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:31:00 
+最终涨停: 10:40:48 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AG297" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:02:48 
+最终涨停: 13:05:00 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="D298" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E298" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G298" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 14:50:57 
+最终涨停: 14:50:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF298" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:45:03 
+最终涨停: 13:49:09 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AI298" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 10:02:27 
+最终涨停: 10:02:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF299" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:19:54 
+最终涨停: 14:19:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q300" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF300" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:25:24 
+最终涨停: 13:26:48 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AF301" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG301" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 13:15:04 
+最终涨停: 13:15:04 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH301" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:54 
+最终涨停: 09:33:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI301" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:03 
+最终涨停: 14:55:33 
+开板次数: 14</t>
+      </text>
+    </comment>
+    <comment ref="AK301" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 14:42:02 
+最终涨停: 14:42:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF302" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG303" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:44:00 
+最终涨停: 14:44:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH303" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:38:21 
+最终涨停: 14:17:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AG304" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH304" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI304" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG305" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH305" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:51:12 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="AG306" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:35:24 
+最终涨停: 09:38:54 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AH306" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 13:22:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AJ306" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:35:45 
+最终涨停: 14:33:42 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="AK306" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:47:24 
+最终涨停: 14:47:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO306" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 14:47:03 
+最终涨停: 14:47:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG307" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 15:00:00 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AH307" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG308" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:20:21 
+最终涨停: 11:20:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="V309" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:38:05 
+最终涨停: 09:39:35 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="X309" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 09:42:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AG309" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:44:04 
+最终涨停: 09:58:13 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG310" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:26 
+最终涨停: 09:30:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG311" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:46 
+最终涨停: 09:49:25 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AH311" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:34:28 
+最终涨停: 09:34:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL311" authorId="0" shapeId="0">
+      <text>
+        <t>7天4板 
+首次涨停: 09:38:35 
+最终涨停: 10:33:59 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AM311" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 
+首次涨停: 13:08:14 
+最终涨停: 13:10:38 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AP311" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 
+首次涨停: 13:25:49 
+最终涨停: 13:25:49 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AG312" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:10 
+最终涨停: 10:53:58 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="AG313" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:00:01 
+最终涨停: 11:08:58 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="L314" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M314" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:32:21 
+最终涨停: 10:31:22 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="N314" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:32 
+最终涨停: 09:30:32 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="O314" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:30 
+最终涨停: 09:57:30 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P314" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 10:15:13 
+最终涨停: 14:52:57 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AG314" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:39:51 
+最终涨停: 14:56:51 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="G315" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:40 
+最终涨停: 10:31:40 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Y315" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:41:06 
+最终涨停: 10:41:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH315" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 13:20:12 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AH316" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI316" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ316" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK316" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AN316" authorId="0" shapeId="0">
+      <text>
+        <t>8天6板 
+首次涨停: 14:27:51 
+最终涨停: 14:28:24 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="E317" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:57:00 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AH317" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:31:30 
+最终涨停: 14:31:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI317" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:33 
+最终涨停: 09:59:06 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AH318" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:46:06 
+最终涨停: 09:49:30 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AH319" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI319" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:58:00 
+最终涨停: 09:58:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ319" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL319" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 14:45:21 
+最终涨停: 14:45:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP319" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:32:48 
+最终涨停: 09:32:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH320" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:15 
+最终涨停: 09:30:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH321" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:00:51 
+最终涨停: 14:55:06 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AH322" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:02 
+最终涨停: 10:58:47 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AH323" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI323" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ323" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH324" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH325" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:35:01 
+最终涨停: 13:55:28 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AI325" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH326" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:48:04 
+最终涨停: 09:48:04 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AH327" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI327" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:31:10 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AH328" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:20 
+最终涨停: 13:52:02 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI328" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:00 
+最终涨停: 14:54:55 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AJ328" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:41:27 
+最终涨停: 13:41:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL328" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:31:27 
+最终涨停: 09:37:06 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AH329" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:39:55 
+最终涨停: 09:40:25 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AH330" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI330" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:32:11 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AJ330" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 10:06:15 
+最终涨停: 14:22:27 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="AH331" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:18:24 
+最终涨停: 13:18:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J332" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:25:16 
+最终涨停: 14:45:14 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="Y332" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:55:08 
+最终涨停: 10:14:58 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI332" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:14:24 
+最终涨停: 11:14:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI333" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:38:48 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AK333" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:44:03 
+最终涨停: 14:20:57 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI334" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:37:24 
+最终涨停: 09:37:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK334" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:36:33 
+最终涨停: 14:36:33 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM334" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 
+首次涨停: 13:06:42 
+最终涨停: 13:06:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI335" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:18 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AI336" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ336" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L337" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:43:38 
+最终涨停: 09:43:38 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M337" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N337" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:18:05 
+最终涨停: 14:31:16 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="P337" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:32:39 
+最终涨停: 09:41:39 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="Q337" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:42:22 
+最终涨停: 14:55:48 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="S337" authorId="0" shapeId="0">
+      <text>
+        <t>9天7板 
+首次涨停: 14:50:02 
+最终涨停: 14:50:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI337" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:57 
+最终涨停: 14:11:39 
+开板次数: 28</t>
+      </text>
+    </comment>
+    <comment ref="P338" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:52:07 
+最终涨停: 10:52:07 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X338" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:19:50 
+最终涨停: 14:19:50 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AI338" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:29:47 
+最终涨停: 11:29:47 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ338" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:31:30 
+最终涨停: 14:54:43 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AL338" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:44:32 
+最终涨停: 14:34:29 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AM338" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 10:21:37 
+最终涨停: 10:21:37 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ339" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:27:57 
+最终涨停: 14:27:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ340" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:00 
+最终涨停: 09:31:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ341" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:16:57 
+最终涨停: 14:16:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ342" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ343" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK343" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:43:47 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AL343" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM343" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:25 
+最终涨停: 09:30:25 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ344" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:46:15 
+最终涨停: 09:54:15 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AL344" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:00:10 
+最终涨停: 10:00:10 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM344" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:39:37 
+最终涨停: 13:36:01 
+开板次数: 14</t>
+      </text>
+    </comment>
+    <comment ref="AN344" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO344" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AJ345" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:56:12 
+最终涨停: 14:35:42 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AK345" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:53:45 
+最终涨停: 14:53:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL345" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 13:34:46 
+最终涨停: 13:34:46 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM345" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:49:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AK346" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:34:12 
+最终涨停: 13:34:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM346" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 10:12:33 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="T347" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:12 
+最终涨停: 10:31:12 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK347" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AK348" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:51:57 
+最终涨停: 14:50:21 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AK349" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:33:21 
+最终涨停: 14:27:45 
+开板次数: 28</t>
+      </text>
+    </comment>
+    <comment ref="AK350" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL350" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM350" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN350" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:43:06 
+最终涨停: 13:21:12 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AO350" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:31:00 
+最终涨停: 09:31:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K351" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="L351" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 14:03:51 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="N351" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 14:34:43 
+最终涨停: 14:34:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="P351" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 09:31:09 
+最终涨停: 09:34:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="S351" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:31:36 
+最终涨停: 09:33:51 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AL351" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:42:48 
+最终涨停: 09:42:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL352" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:09 
+最终涨停: 09:31:09 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM352" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN352" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:27 
+最终涨停: 09:41:09 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AO352" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 14:55:39 
+最终涨停: 14:55:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AL353" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:37:57 
+最终涨停: 10:05:21 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AN353" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:41:00 
+最终涨停: 14:15:21 
+开板次数: 24</t>
+      </text>
+    </comment>
+    <comment ref="AL354" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:35:45 
+最终涨停: 09:35:45 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM354" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 13:31:48 
+最终涨停: 14:53:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AL355" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:36:38 
+最终涨停: 14:54:47 
+开板次数: 10</t>
+      </text>
+    </comment>
+    <comment ref="AM355" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 13:37:34 
+最终涨停: 13:43:37 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AO355" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 10:35:12 
+最终涨停: 13:23:21 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AM356" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN356" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO356" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM357" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:31:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AM358" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:14:00 
+最终涨停: 14:14:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C359" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:40:30 
+最终涨停: 10:01:38 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="D359" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 14:51:42 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="F359" authorId="0" shapeId="0">
+      <text>
+        <t>7天6板 
+首次涨停: 09:49:40 
+最终涨停: 14:44:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="G359" authorId="0" shapeId="0">
+      <text>
+        <t>8天7板 
+首次涨停: 13:27:07 
+最终涨停: 13:51:43 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AM359" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:33:09 
+最终涨停: 09:53:30 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AM360" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:32:21 
+最终涨停: 09:32:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM361" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:33 
+最终涨停: 10:30:30 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AN361" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:37 
+最终涨停: 09:37:25 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="V362" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:59:06 
+最终涨停: 13:59:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM362" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:27 
+最终涨停: 09:34:36 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AN362" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:54 
+最终涨停: 10:10:57 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="V363" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM363" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:50:20 
+最终涨停: 14:50:20 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO363" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:37 
+最终涨停: 14:09:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AM364" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN364" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 10:32:19 
+开板次数: 11</t>
+      </text>
+    </comment>
+    <comment ref="AM365" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN365" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO365" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM366" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:51 
+最终涨停: 09:49:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AN367" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO367" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN368" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:53:30 
+最终涨停: 13:53:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN369" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:17:36 
+最终涨停: 13:17:36 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO369" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:51:24 
+最终涨停: 09:51:24 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP369" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:32:48 
+最终涨停: 09:32:48 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="C370" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 10:33:39 
+最终涨停: 10:34:39 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AN370" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:42:49 
+最终涨停: 14:56:27 
+开板次数: 7</t>
+      </text>
+    </comment>
+    <comment ref="AO370" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:49 
+最终涨停: 10:05:28 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AN371" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 11:08:36 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AO371" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:27 
+最终涨停: 09:32:51 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AP371" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN372" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 10:31:00 
+最终涨停: 10:58:48 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AO372" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:44:55 
+最终涨停: 10:09:31 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AN373" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:31:29 
+最终涨停: 11:05:32 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AO373" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 10:18:59 
+最终涨停: 14:53:05 
+开板次数: 15</t>
+      </text>
+    </comment>
+    <comment ref="AN374" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 11:09:19 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="C375" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:50:51 
+最终涨停: 14:50:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="E375" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:06:28 
+最终涨停: 14:06:28 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN375" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO375" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:01 
+最终涨停: 09:45:10 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AN376" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:35:37 
+最终涨停: 13:48:01 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AO377" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:30 
+最终涨停: 09:30:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO378" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="G379" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:13:42 
+最终涨停: 14:13:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H379" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 13:37:06 
+最终涨停: 13:37:06 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I379" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:49:50 
+最终涨停: 10:08:51 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Q379" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:03 
+最终涨停: 09:30:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R379" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD379" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:26:09 
+最终涨停: 14:48:03 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AO379" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 11:23:03 
+最终涨停: 11:23:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO380" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:54:15 
+最终涨停: 09:54:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP380" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO381" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:22:21 
+最终涨停: 10:22:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP381" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:36:51 
+最终涨停: 11:06:33 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AA382" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:27 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AO382" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:52:03 
+最终涨停: 09:55:51 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AO383" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:24:15 
+最终涨停: 10:24:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO384" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:48:30 
+最终涨停: 10:00:27 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AO385" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:34:27 
+最终涨停: 10:34:27 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO386" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:22:26 
+最终涨停: 14:22:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="F387" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 14:20:10 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="G387" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="H387" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="I387" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="J387" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="K387" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 
+首次涨停: 09:33:51 
+最终涨停: 09:33:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="M387" authorId="0" shapeId="0">
+      <text>
+        <t>9天8板 
+首次涨停: 14:43:17 
+最终涨停: 14:43:17 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="N387" authorId="0" shapeId="0">
+      <text>
+        <t>10天9板 
+首次涨停: 10:28:18 
+最终涨停: 13:40:08 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="O387" authorId="0" shapeId="0">
+      <text>
+        <t>11天10板 
+首次涨停: 10:25:06 
+最终涨停: 13:23:24 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="P387" authorId="0" shapeId="0">
+      <text>
+        <t>12天11板 
+首次涨停: 09:34:54 
+最终涨停: 13:25:47 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="Q387" authorId="0" shapeId="0">
+      <text>
+        <t>13天12板 
+首次涨停: 13:31:54 
+最终涨停: 13:31:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S387" authorId="0" shapeId="0">
+      <text>
+        <t>15天13板 
+首次涨停: 14:54:02 
+最终涨停: 14:55:32 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Y387" authorId="0" shapeId="0">
+      <text>
+        <t>21天14板 
+首次涨停: 14:34:42 
+最终涨停: 14:36:12 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD387" authorId="0" shapeId="0">
+      <text>
+        <t>26天15板 
+首次涨停: 10:36:24 
+最终涨停: 14:40:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AO387" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:53:42 
+最终涨停: 14:56:32 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AO388" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:11:49 
+最终涨停: 10:11:49 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO389" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP390" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:32:27 
+最终涨停: 09:46:09 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="J391" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:11:43 
+最终涨停: 10:11:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="Q391" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="R391" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:00 
+最终涨停: 09:30:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="S391" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:21 
+最终涨停: 14:40:02 
+开板次数: 18</t>
+      </text>
+    </comment>
+    <comment ref="AP391" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP392" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:29:54 
+最终涨停: 11:29:54 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP393" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:37:15 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AP394" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:03:12 
+最终涨停: 14:47:06 
+开板次数: 14</t>
+      </text>
+    </comment>
+    <comment ref="AP395" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AP396" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 13:11:34 
+最终涨停: 14:47:43 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AP397" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 14:27:19 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AP398" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:49:13 
+最终涨停: 10:45:58 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AP399" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 10:35:30 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AP400" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:48:42 
+最终涨停: 10:05:30 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AP401" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:22:36 
+最终涨停: 15:00:00 
+开板次数: 8</t>
+      </text>
+    </comment>
+    <comment ref="AP402" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:46:34 
+最终涨停: 14:48:46 
+开板次数: 1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8203,9 +16429,9 @@
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="S39" s="91" t="inlineStr">
-        <is>
-          <t>10.04%</t>
+      <c r="S39" s="213" t="inlineStr">
+        <is>
+          <t>13板</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
@@ -8221,6 +16447,16 @@
       <c r="V39" s="182" t="inlineStr">
         <is>
           <t>-1.24%</t>
+        </is>
+      </c>
+      <c r="W39" s="18" t="inlineStr">
+        <is>
+          <t>-9.96%</t>
+        </is>
+      </c>
+      <c r="X39" s="239" t="inlineStr">
+        <is>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="Y39" s="213" t="inlineStr">
@@ -15115,7 +23351,7 @@
     <row r="125">
       <c r="A125" s="229" t="inlineStr">
         <is>
-          <t>[调味品+新零售+年报增长]</t>
+          <t>[地天板+调味品+新零售+年报增长]</t>
         </is>
       </c>
       <c r="B125" s="36" t="inlineStr">
@@ -15167,9 +23403,9 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="S125" s="91" t="inlineStr">
-        <is>
-          <t>9.98%</t>
+      <c r="S125" s="40" t="inlineStr">
+        <is>
+          <t>7板</t>
         </is>
       </c>
       <c r="T125" s="49" t="inlineStr">
@@ -15185,6 +23421,16 @@
       <c r="V125" s="142" t="inlineStr">
         <is>
           <t>1.43%</t>
+        </is>
+      </c>
+      <c r="W125" s="18" t="inlineStr">
+        <is>
+          <t>-10.02%</t>
+        </is>
+      </c>
+      <c r="X125" s="18" t="inlineStr">
+        <is>
+          <t>-9.98%</t>
         </is>
       </c>
     </row>
@@ -15369,10 +23615,10 @@
     <row r="128">
       <c r="A128" s="174" t="inlineStr">
         <is>
-          <t>[港口+统一大市场+国企改革]</t>
-        </is>
-      </c>
-      <c r="B128" s="14" t="inlineStr">
+          <t>[地天板+港口+统一大市场+国企改革]</t>
+        </is>
+      </c>
+      <c r="B128" s="36" t="inlineStr">
         <is>
           <t>南京港</t>
         </is>
@@ -15456,9 +23702,9 @@
           <t>6.49%</t>
         </is>
       </c>
-      <c r="AI128" s="91" t="inlineStr">
-        <is>
-          <t>10.02%</t>
+      <c r="AI128" s="39" t="inlineStr">
+        <is>
+          <t>6板</t>
         </is>
       </c>
       <c r="AJ128" s="353" t="inlineStr">
@@ -15474,6 +23720,16 @@
       <c r="AL128" s="18" t="inlineStr">
         <is>
           <t>-9.98%</t>
+        </is>
+      </c>
+      <c r="AM128" s="310" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="AN128" s="129" t="inlineStr">
+        <is>
+          <t>-7.31%</t>
         </is>
       </c>
     </row>
@@ -27214,9 +35470,9 @@
           <t>2.31%</t>
         </is>
       </c>
-      <c r="AH261" s="91" t="inlineStr">
-        <is>
-          <t>9.98%</t>
+      <c r="AH261" s="39" t="inlineStr">
+        <is>
+          <t>6板</t>
         </is>
       </c>
       <c r="AI261" s="73" t="inlineStr">
@@ -27415,7 +35671,7 @@
     <row r="264">
       <c r="A264" s="80" t="inlineStr">
         <is>
-          <t>[纺织制造+年报增长]</t>
+          <t>[地天板+纺织制造+年报增长]</t>
         </is>
       </c>
       <c r="B264" s="36" t="inlineStr">
@@ -27482,9 +35738,9 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AH264" s="91" t="inlineStr">
-        <is>
-          <t>10.03%</t>
+      <c r="AH264" s="40" t="inlineStr">
+        <is>
+          <t>7板</t>
         </is>
       </c>
       <c r="AI264" s="313" t="inlineStr">
@@ -27505,6 +35761,11 @@
       <c r="AL264" s="248" t="inlineStr">
         <is>
           <t>-2.60%</t>
+        </is>
+      </c>
+      <c r="AM264" s="102" t="inlineStr">
+        <is>
+          <t>-5.99%</t>
         </is>
       </c>
     </row>
@@ -28385,10 +36646,10 @@
     <row r="276">
       <c r="A276" s="174" t="inlineStr">
         <is>
-          <t>[港口+统一大市场+国企改革]</t>
-        </is>
-      </c>
-      <c r="B276" s="14" t="inlineStr">
+          <t>[地天板+港口+统一大市场+国企改革]</t>
+        </is>
+      </c>
+      <c r="B276" s="36" t="inlineStr">
         <is>
           <t>南京港</t>
         </is>
@@ -28461,9 +36722,9 @@
           <t>6.49%</t>
         </is>
       </c>
-      <c r="AI276" s="91" t="inlineStr">
-        <is>
-          <t>10.02%</t>
+      <c r="AI276" s="39" t="inlineStr">
+        <is>
+          <t>6板</t>
         </is>
       </c>
       <c r="AJ276" s="353" t="inlineStr">
@@ -28479,6 +36740,16 @@
       <c r="AL276" s="18" t="inlineStr">
         <is>
           <t>-9.98%</t>
+        </is>
+      </c>
+      <c r="AM276" s="310" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="AN276" s="129" t="inlineStr">
+        <is>
+          <t>-7.31%</t>
         </is>
       </c>
     </row>
@@ -37999,7 +46270,11 @@
         </is>
       </c>
       <c r="R387" s="137" t="n"/>
-      <c r="S387" s="137" t="n"/>
+      <c r="S387" s="213" t="inlineStr">
+        <is>
+          <t>13板</t>
+        </is>
+      </c>
       <c r="T387" s="137" t="n"/>
       <c r="U387" s="137" t="n"/>
       <c r="V387" s="137" t="n"/>
@@ -39006,6 +47281,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -31505,7 +31505,7 @@
       </c>
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>精进电动</t>
+          <t>精进电动*</t>
         </is>
       </c>
       <c r="C216" s="137" t="n"/>
@@ -35777,7 +35777,7 @@
       </c>
       <c r="B265" s="62" t="inlineStr">
         <is>
-          <t>航天南湖</t>
+          <t>航天南湖*</t>
         </is>
       </c>
       <c r="C265" s="137" t="n"/>
@@ -41642,7 +41642,7 @@
       </c>
       <c r="B330" s="14" t="inlineStr">
         <is>
-          <t>三生国健</t>
+          <t>三生国健*</t>
         </is>
       </c>
       <c r="C330" s="137" t="n"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="B366" s="62" t="inlineStr">
         <is>
-          <t>科捷智能</t>
+          <t>科捷智能*</t>
         </is>
       </c>
       <c r="C366" s="137" t="n"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -40,18 +40,18 @@
       <sz val="8"/>
     </font>
     <font>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
+    <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
     <font>
       <color rgb="00FFFFFF"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="183">
+  <fills count="186">
     <fill>
       <patternFill/>
     </fill>
@@ -95,7 +95,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF66B3"/>
+        <fgColor rgb="0045B5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -147,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005ACDCD"/>
+        <fgColor rgb="009966FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -193,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCE30"/>
+        <fgColor rgb="00FF5A5A"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDA0DD"/>
+        <fgColor rgb="00FF66B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,6 +322,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00DDA0DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C0FFC0"/>
         <bgColor rgb="00C0FFC0"/>
       </patternFill>
@@ -351,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006AD15A"/>
+        <fgColor rgb="00FF8C42"/>
       </patternFill>
     </fill>
     <fill>
@@ -386,7 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF5A5A"/>
+        <fgColor rgb="005ACDCD"/>
       </patternFill>
     </fill>
     <fill>
@@ -444,7 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009966FF"/>
+        <fgColor rgb="006AD15A"/>
       </patternFill>
     </fill>
     <fill>
@@ -587,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045B5FF"/>
+        <fgColor rgb="00FFCE30"/>
       </patternFill>
     </fill>
     <fill>
@@ -695,11 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0066BAFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8C42"/>
       </patternFill>
     </fill>
     <fill>
@@ -925,6 +925,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C4FFC4"/>
+        <bgColor rgb="00C4FFC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E6FFE6"/>
         <bgColor rgb="00E6FFE6"/>
       </patternFill>
@@ -1051,6 +1057,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB4"/>
+        <bgColor rgb="00FFFFB4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF2C"/>
         <bgColor rgb="00FFFF2C"/>
       </patternFill>
@@ -1059,6 +1071,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADFFAD"/>
         <bgColor rgb="00ADFFAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008AFF8A"/>
+        <bgColor rgb="008AFF8A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1147,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1186,13 +1204,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1201,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1210,25 +1228,25 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1240,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1294,10 +1312,10 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1312,8 +1330,8 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1322,16 +1340,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1345,16 +1363,16 @@
     <xf numFmtId="0" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="59" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="63" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1375,11 +1393,11 @@
     <xf numFmtId="0" fontId="0" fillId="68" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="69" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="71" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1447,11 +1465,11 @@
     <xf numFmtId="0" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1502,9 +1520,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1708,30 +1726,39 @@
     <xf numFmtId="0" fontId="0" fillId="179" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="59" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="93" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="54" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="60" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="182" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="61" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="185" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -6974,6 +7001,14 @@
 开板次数: 12</t>
       </text>
     </comment>
+    <comment ref="AT168" authorId="0" shapeId="0">
+      <text>
+        <t>13天8板 
+首次涨停: 09:31:48 
+最终涨停: 09:31:48 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="F169" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -7958,6 +7993,14 @@
 开板次数: 5</t>
       </text>
     </comment>
+    <comment ref="AT208" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 
+首次涨停: 10:43:54 
+最终涨停: 13:25:00 
+开板次数: 4</t>
+      </text>
+    </comment>
     <comment ref="AQ209" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -7982,6 +8025,14 @@
 开板次数: 1</t>
       </text>
     </comment>
+    <comment ref="AT211" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 14:20:00 
+最终涨停: 14:20:00 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AQ212" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -7998,6 +8049,14 @@
 开板次数: 3</t>
       </text>
     </comment>
+    <comment ref="AT212" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 10:00:15 
+最终涨停: 13:20:48 
+开板次数: 8</t>
+      </text>
+    </comment>
     <comment ref="K213" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -8062,6 +8121,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AT214" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 14:24:25 
+最终涨停: 14:26:07 
+开板次数: 1</t>
+      </text>
+    </comment>
     <comment ref="AP215" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -8398,12 +8465,116 @@
 开板次数: 2</t>
       </text>
     </comment>
+    <comment ref="AT223" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:08 
+最终涨停: 09:31:08 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AS224" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:55:39 
 最终涨停: 14:19:54 
 开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AT224" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:39:36 
+最终涨停: 10:08:15 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AQ225" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:37:15 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AT225" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 09:39:39 
+最终涨停: 09:39:39 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AS226" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AT226" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:18 
+最终涨停: 09:51:54 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AQ227" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 14:27:19 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AT227" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:54:11 
+最终涨停: 13:54:11 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AS228" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:56:14 
+最终涨停: 09:56:14 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AT228" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 13:47:51 
+开板次数: 13</t>
+      </text>
+    </comment>
+    <comment ref="AS229" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:45:50 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AT229" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:31:57 
+最终涨停: 09:31:57 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AT230" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:00:06 
+最终涨停: 14:00:06 
+开板次数: 0</t>
       </text>
     </comment>
   </commentList>
@@ -8699,7 +8870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT224"/>
+  <dimension ref="A1:AU230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -8755,6 +8926,7 @@
     <col width="12" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="12" customWidth="1" min="45" max="45"/>
+    <col width="12" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -9025,6 +9197,12 @@
 星期三</t>
         </is>
       </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-05
+星期四</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -9240,6 +9418,11 @@
       <c r="AS2" s="8" t="inlineStr">
         <is>
           <t>1.11%</t>
+        </is>
+      </c>
+      <c r="AT2" s="8" t="inlineStr">
+        <is>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9644,12 @@
           <t>185.04</t>
         </is>
       </c>
-      <c r="AT3" s="10" t="n"/>
+      <c r="AT3" s="12" t="inlineStr">
+        <is>
+          <t>208.48</t>
+        </is>
+      </c>
+      <c r="AU3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
@@ -9644,6 +9832,11 @@
           <t>-6.04%</t>
         </is>
       </c>
+      <c r="AT4" s="17" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
@@ -9866,6 +10059,11 @@
           <t>-1.15%</t>
         </is>
       </c>
+      <c r="AT5" s="17" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
@@ -10155,6 +10353,11 @@
           <t>-3.53%</t>
         </is>
       </c>
+      <c r="AT7" s="17" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
@@ -10473,6 +10676,11 @@
           <t>-0.42%</t>
         </is>
       </c>
+      <c r="AT11" s="17" t="inlineStr">
+        <is>
+          <t>-4.30%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
@@ -10700,6 +10908,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AT12" s="17" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="inlineStr">
@@ -11111,6 +11324,11 @@
           <t>-4.52%</t>
         </is>
       </c>
+      <c r="AT15" s="17" t="inlineStr">
+        <is>
+          <t>-5.56%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="inlineStr">
@@ -11183,6 +11401,11 @@
           <t>0.40%</t>
         </is>
       </c>
+      <c r="AT16" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="inlineStr">
@@ -11335,6 +11558,11 @@
           <t>-0.36%</t>
         </is>
       </c>
+      <c r="AT17" s="17" t="inlineStr">
+        <is>
+          <t>-6.50%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="inlineStr">
@@ -11512,6 +11740,11 @@
           <t>0.05%</t>
         </is>
       </c>
+      <c r="AT18" s="17" t="inlineStr">
+        <is>
+          <t>-2.09%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="inlineStr">
@@ -11519,7 +11752,7 @@
           <t>603169</t>
         </is>
       </c>
-      <c r="B19" s="35" t="inlineStr">
+      <c r="B19" s="56" t="inlineStr">
         <is>
           <t>[可控核聚变+氢能源+能源化工装备]</t>
         </is>
@@ -11544,7 +11777,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="G19" s="56" t="inlineStr">
+      <c r="G19" s="57" t="inlineStr">
         <is>
           <t>-7.95%</t>
         </is>
@@ -11554,7 +11787,7 @@
           <t>3.98%</t>
         </is>
       </c>
-      <c r="I19" s="57" t="inlineStr">
+      <c r="I19" s="58" t="inlineStr">
         <is>
           <t>7.76%</t>
         </is>
@@ -11634,7 +11867,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AQ19" s="58" t="inlineStr">
+      <c r="AQ19" s="59" t="inlineStr">
         <is>
           <t>-7.67%</t>
         </is>
@@ -11647,6 +11880,11 @@
       <c r="AS19" s="17" t="inlineStr">
         <is>
           <t>-1.95%</t>
+        </is>
+      </c>
+      <c r="AT19" s="17" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11899,7 @@
           <t>[资产注入预期+获赔4702万+新能源+江苏国资]</t>
         </is>
       </c>
-      <c r="C20" s="59" t="inlineStr">
+      <c r="C20" s="60" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -11701,7 +11939,7 @@
           <t>1.20%</t>
         </is>
       </c>
-      <c r="K20" s="60" t="inlineStr">
+      <c r="K20" s="61" t="inlineStr">
         <is>
           <t>-7.37%</t>
         </is>
@@ -11804,6 +12042,11 @@
       <c r="AS20" s="17" t="inlineStr">
         <is>
           <t>-0.68%</t>
+        </is>
+      </c>
+      <c r="AT20" s="17" t="inlineStr">
+        <is>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -11813,7 +12056,7 @@
           <t>002084</t>
         </is>
       </c>
-      <c r="B21" s="61" t="inlineStr">
+      <c r="B21" s="62" t="inlineStr">
         <is>
           <t>[智能家居+空气能热泵+一带一路]</t>
         </is>
@@ -11863,7 +12106,7 @@
           <t>-10.08%</t>
         </is>
       </c>
-      <c r="L21" s="62" t="inlineStr">
+      <c r="L21" s="63" t="inlineStr">
         <is>
           <t>-7.25%</t>
         </is>
@@ -11945,7 +12188,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="J22" s="63" t="inlineStr">
+      <c r="J22" s="64" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
@@ -11955,7 +12198,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="L22" s="64" t="inlineStr">
+      <c r="L22" s="65" t="inlineStr">
         <is>
           <t>-7.32%</t>
         </is>
@@ -12209,7 +12452,7 @@
           <t>-2.17%</t>
         </is>
       </c>
-      <c r="K24" s="65" t="inlineStr">
+      <c r="K24" s="66" t="inlineStr">
         <is>
           <t>-7.94%</t>
         </is>
@@ -12252,6 +12495,11 @@
       <c r="AS24" s="17" t="inlineStr">
         <is>
           <t>-3.26%</t>
+        </is>
+      </c>
+      <c r="AT24" s="17" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12509,7 @@
           <t>600540</t>
         </is>
       </c>
-      <c r="B25" s="61" t="inlineStr">
+      <c r="B25" s="62" t="inlineStr">
         <is>
           <t>[新疆棉+物流+一带一路+新疆国资]</t>
         </is>
@@ -12353,7 +12601,7 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B26" s="61" t="inlineStr">
+      <c r="B26" s="62" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -12448,7 +12696,7 @@
           <t>-6.93%</t>
         </is>
       </c>
-      <c r="U26" s="66" t="inlineStr">
+      <c r="U26" s="67" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -12555,12 +12803,12 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B27" s="67" t="inlineStr">
+      <c r="B27" s="68" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C27" s="68" t="inlineStr">
+      <c r="C27" s="69" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -12625,17 +12873,17 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="P27" s="69" t="inlineStr">
+      <c r="P27" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="Q27" s="69" t="inlineStr">
+      <c r="Q27" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="R27" s="69" t="inlineStr">
+      <c r="R27" s="70" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -12645,7 +12893,7 @@
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="T27" s="69" t="inlineStr">
+      <c r="T27" s="70" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -12675,7 +12923,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="Z27" s="69" t="inlineStr">
+      <c r="Z27" s="70" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -12685,7 +12933,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AB27" s="70" t="inlineStr">
+      <c r="AB27" s="71" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -12700,7 +12948,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AE27" s="69" t="inlineStr">
+      <c r="AE27" s="70" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -12740,7 +12988,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AM27" s="71" t="inlineStr">
+      <c r="AM27" s="72" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -12768,6 +13016,11 @@
       <c r="AS27" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT27" s="17" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
         </is>
       </c>
     </row>
@@ -12847,7 +13100,7 @@
           <t>-4.08%</t>
         </is>
       </c>
-      <c r="P28" s="72" t="inlineStr">
+      <c r="P28" s="73" t="inlineStr">
         <is>
           <t>-8.12%</t>
         </is>
@@ -12857,7 +13110,7 @@
           <t>2.96%</t>
         </is>
       </c>
-      <c r="R28" s="73" t="inlineStr">
+      <c r="R28" s="74" t="inlineStr">
         <is>
           <t>-8.66%</t>
         </is>
@@ -12867,7 +13120,7 @@
           <t>2.11%</t>
         </is>
       </c>
-      <c r="T28" s="60" t="inlineStr">
+      <c r="T28" s="61" t="inlineStr">
         <is>
           <t>-7.37%</t>
         </is>
@@ -12964,7 +13217,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="J29" s="74" t="inlineStr">
+      <c r="J29" s="75" t="inlineStr">
         <is>
           <t>-9.25%</t>
         </is>
@@ -13007,6 +13260,11 @@
       <c r="AS29" s="19" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AT29" s="17" t="inlineStr">
+        <is>
+          <t>-5.56%</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13376,7 @@
           <t>3.50%</t>
         </is>
       </c>
-      <c r="F31" s="75" t="inlineStr">
+      <c r="F31" s="76" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
@@ -13185,7 +13443,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B32" s="61" t="inlineStr">
+      <c r="B32" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -13285,7 +13543,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="V32" s="76" t="inlineStr">
+      <c r="V32" s="77" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -13403,6 +13661,11 @@
       <c r="AS32" s="17" t="inlineStr">
         <is>
           <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="AT32" s="17" t="inlineStr">
+        <is>
+          <t>-3.55%</t>
         </is>
       </c>
     </row>
@@ -13412,7 +13675,7 @@
           <t>002800</t>
         </is>
       </c>
-      <c r="B33" s="61" t="inlineStr">
+      <c r="B33" s="62" t="inlineStr">
         <is>
           <t>[物流+统一大市场+新疆]</t>
         </is>
@@ -13678,7 +13941,7 @@
           <t>300892</t>
         </is>
       </c>
-      <c r="B36" s="77" t="inlineStr">
+      <c r="B36" s="78" t="inlineStr">
         <is>
           <t>[乳业+进口食品+零售]</t>
         </is>
@@ -13703,7 +13966,7 @@
           <t>3.32%</t>
         </is>
       </c>
-      <c r="G36" s="78" t="inlineStr">
+      <c r="G36" s="79" t="inlineStr">
         <is>
           <t>-9.28%</t>
         </is>
@@ -13748,7 +14011,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="P36" s="79" t="inlineStr">
+      <c r="P36" s="80" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -13758,12 +14021,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="R36" s="80" t="inlineStr">
+      <c r="R36" s="81" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
       </c>
-      <c r="S36" s="81" t="inlineStr">
+      <c r="S36" s="82" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -13850,7 +14113,7 @@
           <t>-2.80%</t>
         </is>
       </c>
-      <c r="K37" s="82" t="inlineStr">
+      <c r="K37" s="83" t="inlineStr">
         <is>
           <t>-7.45%</t>
         </is>
@@ -13892,7 +14155,7 @@
           <t>000759</t>
         </is>
       </c>
-      <c r="B38" s="61" t="inlineStr">
+      <c r="B38" s="62" t="inlineStr">
         <is>
           <t>[免税店+商业零售+胖东来指导交流+湖北国资]</t>
         </is>
@@ -14025,7 +14288,7 @@
           <t>002570</t>
         </is>
       </c>
-      <c r="B39" s="61" t="inlineStr">
+      <c r="B39" s="62" t="inlineStr">
         <is>
           <t>[婴幼儿奶粉+跨境电商]</t>
         </is>
@@ -14178,7 +14441,7 @@
           <t>600180</t>
         </is>
       </c>
-      <c r="B40" s="61" t="inlineStr">
+      <c r="B40" s="62" t="inlineStr">
         <is>
           <t>[大豆产业链+大宗商品供应链+一带一路]</t>
         </is>
@@ -14266,7 +14529,7 @@
           <t>603709</t>
         </is>
       </c>
-      <c r="B41" s="77" t="inlineStr">
+      <c r="B41" s="78" t="inlineStr">
         <is>
           <t>[沙发+电商+新零售]</t>
         </is>
@@ -14390,7 +14653,7 @@
           <t>-3.33%</t>
         </is>
       </c>
-      <c r="H42" s="83" t="inlineStr">
+      <c r="H42" s="84" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
@@ -14415,12 +14678,12 @@
           <t>1.32%</t>
         </is>
       </c>
-      <c r="M42" s="84" t="inlineStr">
+      <c r="M42" s="85" t="inlineStr">
         <is>
           <t>-8.64%</t>
         </is>
       </c>
-      <c r="N42" s="85" t="inlineStr">
+      <c r="N42" s="86" t="inlineStr">
         <is>
           <t>8.47%</t>
         </is>
@@ -14440,7 +14703,7 @@
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="R42" s="86" t="inlineStr">
+      <c r="R42" s="87" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
@@ -14475,7 +14738,7 @@
           <t>-2.78%</t>
         </is>
       </c>
-      <c r="AK42" s="87" t="inlineStr">
+      <c r="AK42" s="88" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -14513,7 +14776,7 @@
           <t>-4.27%</t>
         </is>
       </c>
-      <c r="F43" s="88" t="inlineStr">
+      <c r="F43" s="89" t="inlineStr">
         <is>
           <t>-7.10%</t>
         </is>
@@ -14523,7 +14786,7 @@
           <t>-19.97%</t>
         </is>
       </c>
-      <c r="H43" s="89" t="inlineStr">
+      <c r="H43" s="90" t="inlineStr">
         <is>
           <t>9.09%</t>
         </is>
@@ -14625,7 +14888,7 @@
           <t>301066</t>
         </is>
       </c>
-      <c r="B44" s="77" t="inlineStr">
+      <c r="B44" s="78" t="inlineStr">
         <is>
           <t>[离境退税+丝绸+电商+AI智能体]</t>
         </is>
@@ -14726,7 +14989,7 @@
           <t>5.01%</t>
         </is>
       </c>
-      <c r="AF44" s="90" t="inlineStr">
+      <c r="AF44" s="91" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -14758,7 +15021,7 @@
           <t>872351</t>
         </is>
       </c>
-      <c r="B45" s="61" t="inlineStr">
+      <c r="B45" s="62" t="inlineStr">
         <is>
           <t>[统一大市场+国际物流]</t>
         </is>
@@ -14799,7 +15062,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="K45" s="91" t="inlineStr">
+      <c r="K45" s="92" t="inlineStr">
         <is>
           <t>-8.81%</t>
         </is>
@@ -14819,7 +15082,7 @@
           <t>14.24%</t>
         </is>
       </c>
-      <c r="O45" s="92" t="inlineStr">
+      <c r="O45" s="93" t="inlineStr">
         <is>
           <t>-7.03%</t>
         </is>
@@ -14938,12 +15201,12 @@
           <t>3.53%</t>
         </is>
       </c>
-      <c r="M46" s="93" t="inlineStr">
+      <c r="M46" s="94" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="N46" s="92" t="inlineStr">
+      <c r="N46" s="93" t="inlineStr">
         <is>
           <t>-7.04%</t>
         </is>
@@ -15072,7 +15335,7 @@
           <t>-10.09%</t>
         </is>
       </c>
-      <c r="M47" s="94" t="inlineStr">
+      <c r="M47" s="95" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -15114,7 +15377,7 @@
           <t>600697</t>
         </is>
       </c>
-      <c r="B48" s="61" t="inlineStr">
+      <c r="B48" s="62" t="inlineStr">
         <is>
           <t>[免税店+零售+中俄贸易+国企]</t>
         </is>
@@ -15490,7 +15753,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="R51" s="95" t="inlineStr">
+      <c r="R51" s="96" t="inlineStr">
         <is>
           <t>-9.18%</t>
         </is>
@@ -15527,7 +15790,7 @@
           <t>002640</t>
         </is>
       </c>
-      <c r="B52" s="61" t="inlineStr">
+      <c r="B52" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+欧美用户]</t>
         </is>
@@ -15585,7 +15848,7 @@
           <t>1.62%</t>
         </is>
       </c>
-      <c r="P52" s="96" t="inlineStr">
+      <c r="P52" s="97" t="inlineStr">
         <is>
           <t>-8.22%</t>
         </is>
@@ -15605,7 +15868,7 @@
           <t>2.15%</t>
         </is>
       </c>
-      <c r="T52" s="97" t="inlineStr">
+      <c r="T52" s="98" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
@@ -15615,12 +15878,12 @@
           <t>-0.75%</t>
         </is>
       </c>
-      <c r="V52" s="98" t="inlineStr">
+      <c r="V52" s="99" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="W52" s="99" t="inlineStr">
+      <c r="W52" s="100" t="inlineStr">
         <is>
           <t>-9.11%</t>
         </is>
@@ -15650,7 +15913,7 @@
           <t>-5.61%</t>
         </is>
       </c>
-      <c r="AC52" s="100" t="inlineStr">
+      <c r="AC52" s="101" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
@@ -15712,7 +15975,7 @@
           <t>600303</t>
         </is>
       </c>
-      <c r="B53" s="101" t="inlineStr">
+      <c r="B53" s="102" t="inlineStr">
         <is>
           <t>[申请撤销其他风险警示+军工+商用车+氢能源]</t>
         </is>
@@ -15951,7 +16214,7 @@
           <t>-10.07%</t>
         </is>
       </c>
-      <c r="X54" s="102" t="inlineStr">
+      <c r="X54" s="103" t="inlineStr">
         <is>
           <t>-9.34%</t>
         </is>
@@ -16014,6 +16277,11 @@
       <c r="AS54" s="17" t="inlineStr">
         <is>
           <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="AT54" s="17" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
         </is>
       </c>
     </row>
@@ -16148,7 +16416,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="K56" s="103" t="inlineStr">
+      <c r="K56" s="104" t="inlineStr">
         <is>
           <t>7.64%</t>
         </is>
@@ -16208,7 +16476,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="W56" s="104" t="inlineStr">
+      <c r="W56" s="105" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
@@ -16253,7 +16521,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AF56" s="105" t="inlineStr">
+      <c r="AF56" s="106" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -16298,7 +16566,7 @@
           <t>-2.30%</t>
         </is>
       </c>
-      <c r="AO56" s="106" t="inlineStr">
+      <c r="AO56" s="107" t="inlineStr">
         <is>
           <t>-7.63%</t>
         </is>
@@ -16315,7 +16583,7 @@
           <t>601083</t>
         </is>
       </c>
-      <c r="B57" s="61" t="inlineStr">
+      <c r="B57" s="62" t="inlineStr">
         <is>
           <t>[航运+上海国资]</t>
         </is>
@@ -16419,7 +16687,7 @@
           <t>-0.31%</t>
         </is>
       </c>
-      <c r="AI57" s="107" t="inlineStr">
+      <c r="AI57" s="108" t="inlineStr">
         <is>
           <t>-8.17%</t>
         </is>
@@ -16567,6 +16835,11 @@
       <c r="AS58" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT58" s="18" t="inlineStr">
+        <is>
+          <t>-9.95%</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16914,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="S59" s="108" t="inlineStr">
+      <c r="S59" s="109" t="inlineStr">
         <is>
           <t>-8.21%</t>
         </is>
@@ -16787,7 +17060,7 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="U60" s="109" t="inlineStr">
+      <c r="U60" s="110" t="inlineStr">
         <is>
           <t>7.15%</t>
         </is>
@@ -16900,6 +17173,11 @@
       <c r="AS60" s="17" t="inlineStr">
         <is>
           <t>6.21%</t>
+        </is>
+      </c>
+      <c r="AT60" s="17" t="inlineStr">
+        <is>
+          <t>-5.54%</t>
         </is>
       </c>
     </row>
@@ -16909,7 +17187,7 @@
           <t>605188</t>
         </is>
       </c>
-      <c r="B61" s="77" t="inlineStr">
+      <c r="B61" s="78" t="inlineStr">
         <is>
           <t>[零售+生鲜食品+智能物流]</t>
         </is>
@@ -17071,7 +17349,12 @@
       </c>
       <c r="AS61" s="17" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>5.46%</t>
+        </is>
+      </c>
+      <c r="AT61" s="63" t="inlineStr">
+        <is>
+          <t>-7.24%</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17364,7 @@
           <t>001368</t>
         </is>
       </c>
-      <c r="B62" s="61" t="inlineStr">
+      <c r="B62" s="62" t="inlineStr">
         <is>
           <t>[一带一路+体育户外+三胎+外销]</t>
         </is>
@@ -17282,7 +17565,7 @@
           <t>002098</t>
         </is>
       </c>
-      <c r="B64" s="61" t="inlineStr">
+      <c r="B64" s="62" t="inlineStr">
         <is>
           <t>[跨境支付+跨境电商+敦煌网+拉链]</t>
         </is>
@@ -17368,7 +17651,7 @@
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="X64" s="110" t="inlineStr">
+      <c r="X64" s="111" t="inlineStr">
         <is>
           <t>-8.19%</t>
         </is>
@@ -17410,7 +17693,7 @@
           <t>002165</t>
         </is>
       </c>
-      <c r="B65" s="61" t="inlineStr">
+      <c r="B65" s="62" t="inlineStr">
         <is>
           <t>[环氧丙烷衍生品+光刻胶+出海]</t>
         </is>
@@ -17544,7 +17827,7 @@
           <t>5.77%</t>
         </is>
       </c>
-      <c r="AF65" s="111" t="inlineStr">
+      <c r="AF65" s="112" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -17569,7 +17852,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AK65" s="112" t="inlineStr">
+      <c r="AK65" s="113" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -17599,7 +17882,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AQ65" s="113" t="inlineStr">
+      <c r="AQ65" s="114" t="inlineStr">
         <is>
           <t>-7.93%</t>
         </is>
@@ -17616,7 +17899,7 @@
           <t>002719</t>
         </is>
       </c>
-      <c r="B66" s="77" t="inlineStr">
+      <c r="B66" s="78" t="inlineStr">
         <is>
           <t>[饮料乳品+新疆振兴+新零售]</t>
         </is>
@@ -17692,7 +17975,7 @@
           <t>-6.92%</t>
         </is>
       </c>
-      <c r="V66" s="114" t="inlineStr">
+      <c r="V66" s="115" t="inlineStr">
         <is>
           <t>-8.41%</t>
         </is>
@@ -17835,7 +18118,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="W67" s="112" t="inlineStr">
+      <c r="W67" s="113" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -17857,7 +18140,7 @@
           <t>603128</t>
         </is>
       </c>
-      <c r="B68" s="61" t="inlineStr">
+      <c r="B68" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+敦煌网合作+物流+国企改革]</t>
         </is>
@@ -17918,7 +18201,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="S68" s="115" t="inlineStr">
+      <c r="S68" s="116" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -18111,7 +18394,7 @@
           <t>603696</t>
         </is>
       </c>
-      <c r="B70" s="77" t="inlineStr">
+      <c r="B70" s="78" t="inlineStr">
         <is>
           <t>[地天板+调味品+新零售+年报增长]</t>
         </is>
@@ -18187,7 +18470,7 @@
           <t>-0.20%</t>
         </is>
       </c>
-      <c r="V70" s="116" t="inlineStr">
+      <c r="V70" s="117" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
@@ -18229,7 +18512,7 @@
           <t>000025</t>
         </is>
       </c>
-      <c r="B71" s="67" t="inlineStr">
+      <c r="B71" s="68" t="inlineStr">
         <is>
           <t>[黄金珠宝+水贝+深圳国资+年报增长]</t>
         </is>
@@ -18286,7 +18569,7 @@
           <t>-3.98%</t>
         </is>
       </c>
-      <c r="S71" s="94" t="inlineStr">
+      <c r="S71" s="95" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -18323,7 +18606,7 @@
           <t>000965</t>
         </is>
       </c>
-      <c r="B72" s="101" t="inlineStr">
+      <c r="B72" s="102" t="inlineStr">
         <is>
           <t>[房地产+大飞机+天津国企]</t>
         </is>
@@ -18344,7 +18627,7 @@
         </is>
       </c>
       <c r="J72" s="17" t="n"/>
-      <c r="K72" s="117" t="inlineStr">
+      <c r="K72" s="118" t="inlineStr">
         <is>
           <t>-9.48%</t>
         </is>
@@ -18409,7 +18692,7 @@
           <t>-9.93%</t>
         </is>
       </c>
-      <c r="X72" s="118" t="inlineStr">
+      <c r="X72" s="119" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -18666,6 +18949,11 @@
       <c r="AS73" s="17" t="inlineStr">
         <is>
           <t>-4.52%</t>
+        </is>
+      </c>
+      <c r="AT73" s="17" t="inlineStr">
+        <is>
+          <t>-5.56%</t>
         </is>
       </c>
     </row>
@@ -18871,6 +19159,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AT74" s="17" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="13" t="inlineStr">
@@ -18883,7 +19176,7 @@
           <t>[产品涨价+环氧丙烷+混凝土外加剂]</t>
         </is>
       </c>
-      <c r="C75" s="119" t="inlineStr">
+      <c r="C75" s="120" t="inlineStr">
         <is>
           <t>红墙股份</t>
         </is>
@@ -18986,7 +19279,7 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AD75" s="69" t="inlineStr">
+      <c r="AD75" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
@@ -19001,12 +19294,12 @@
           <t>-3.41%</t>
         </is>
       </c>
-      <c r="AG75" s="69" t="inlineStr">
+      <c r="AG75" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="AH75" s="97" t="inlineStr">
+      <c r="AH75" s="98" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
@@ -19053,7 +19346,7 @@
           <t>600794</t>
         </is>
       </c>
-      <c r="B76" s="120" t="inlineStr">
+      <c r="B76" s="78" t="inlineStr">
         <is>
           <t>[智慧物流+数字货币+电子商务+国企]</t>
         </is>
@@ -19203,6 +19496,11 @@
       <c r="AS76" s="17" t="inlineStr">
         <is>
           <t>-5.13%</t>
+        </is>
+      </c>
+      <c r="AT76" s="17" t="inlineStr">
+        <is>
+          <t>-2.16%</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19605,7 @@
           <t>001316</t>
         </is>
       </c>
-      <c r="B78" s="101" t="inlineStr">
+      <c r="B78" s="102" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -19370,7 +19668,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="U78" s="80" t="inlineStr">
+      <c r="U78" s="81" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
@@ -19472,7 +19770,7 @@
           <t>002251</t>
         </is>
       </c>
-      <c r="B79" s="77" t="inlineStr">
+      <c r="B79" s="78" t="inlineStr">
         <is>
           <t>[零售+摘帽+一季报增长+年报扭亏]</t>
         </is>
@@ -19587,7 +19885,7 @@
           <t>003003</t>
         </is>
       </c>
-      <c r="B80" s="61" t="inlineStr">
+      <c r="B80" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+可降解塑料+快递包装]</t>
         </is>
@@ -19698,7 +19996,7 @@
           <t>600865</t>
         </is>
       </c>
-      <c r="B81" s="77" t="inlineStr">
+      <c r="B81" s="78" t="inlineStr">
         <is>
           <t>[年报净利增长+零售+杭州]</t>
         </is>
@@ -19910,7 +20208,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B83" s="61" t="inlineStr">
+      <c r="B83" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -19986,7 +20284,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="V83" s="76" t="inlineStr">
+      <c r="V83" s="77" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -20104,6 +20402,11 @@
       <c r="AS83" s="17" t="inlineStr">
         <is>
           <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="AT83" s="17" t="inlineStr">
+        <is>
+          <t>-3.55%</t>
         </is>
       </c>
     </row>
@@ -20113,7 +20416,7 @@
           <t>002537</t>
         </is>
       </c>
-      <c r="B84" s="120" t="inlineStr">
+      <c r="B84" s="37" t="inlineStr">
         <is>
           <t>[第三方支付（业务拟转让）+汽车零部件]</t>
         </is>
@@ -20234,6 +20537,11 @@
       <c r="AS84" s="127" t="inlineStr">
         <is>
           <t>-7.31%</t>
+        </is>
+      </c>
+      <c r="AT84" s="17" t="inlineStr">
+        <is>
+          <t>2.47%</t>
         </is>
       </c>
     </row>
@@ -20378,7 +20686,7 @@
           <t>-2.52%</t>
         </is>
       </c>
-      <c r="AO85" s="97" t="inlineStr">
+      <c r="AO85" s="98" t="inlineStr">
         <is>
           <t>-7.00%</t>
         </is>
@@ -20401,6 +20709,11 @@
       <c r="AS85" s="17" t="inlineStr">
         <is>
           <t>2.49%</t>
+        </is>
+      </c>
+      <c r="AT85" s="17" t="inlineStr">
+        <is>
+          <t>3.59%</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20723,7 @@
           <t>300542</t>
         </is>
       </c>
-      <c r="B86" s="61" t="inlineStr">
+      <c r="B86" s="62" t="inlineStr">
         <is>
           <t>[拟收购天一恩华+跨境支付+华为]</t>
         </is>
@@ -20460,7 +20773,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="T86" s="98" t="inlineStr">
+      <c r="T86" s="99" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
@@ -20507,7 +20820,7 @@
           <t>000632</t>
         </is>
       </c>
-      <c r="B87" s="61" t="inlineStr">
+      <c r="B87" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+创投+福建国企]</t>
         </is>
@@ -20899,7 +21212,7 @@
           <t>002095</t>
         </is>
       </c>
-      <c r="B90" s="61" t="inlineStr">
+      <c r="B90" s="62" t="inlineStr">
         <is>
           <t>[跨境电商+数据要素]</t>
         </is>
@@ -21002,7 +21315,7 @@
           <t>601956</t>
         </is>
       </c>
-      <c r="B91" s="61" t="inlineStr">
+      <c r="B91" s="62" t="inlineStr">
         <is>
           <t>[人形机器人+蜜雪冰城供应商+跨境电商]</t>
         </is>
@@ -21144,6 +21457,11 @@
           <t>-0.72%</t>
         </is>
       </c>
+      <c r="AT91" s="17" t="inlineStr">
+        <is>
+          <t>-1.45%</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="13" t="inlineStr">
@@ -21270,7 +21588,7 @@
           <t>600828</t>
         </is>
       </c>
-      <c r="B93" s="77" t="inlineStr">
+      <c r="B93" s="78" t="inlineStr">
         <is>
           <t>[零售+首店经济+即时零售]</t>
         </is>
@@ -21428,7 +21746,7 @@
           <t>000565</t>
         </is>
       </c>
-      <c r="B94" s="101" t="inlineStr">
+      <c r="B94" s="102" t="inlineStr">
         <is>
           <t>[涂料制造+氢能源+军工+重庆国资]</t>
         </is>
@@ -21507,7 +21825,7 @@
           <t>6.16%</t>
         </is>
       </c>
-      <c r="AC94" s="87" t="inlineStr">
+      <c r="AC94" s="88" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -21590,6 +21908,11 @@
       <c r="AS94" s="19" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AT94" s="17" t="inlineStr">
+        <is>
+          <t>-6.99%</t>
         </is>
       </c>
     </row>
@@ -21763,7 +22086,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="Y96" s="100" t="inlineStr">
+      <c r="Y96" s="101" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
@@ -21823,7 +22146,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AQ96" s="115" t="inlineStr">
+      <c r="AQ96" s="116" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -21836,6 +22159,11 @@
       <c r="AS96" s="17" t="inlineStr">
         <is>
           <t>0.67%</t>
+        </is>
+      </c>
+      <c r="AT96" s="17" t="inlineStr">
+        <is>
+          <t>3.24%</t>
         </is>
       </c>
     </row>
@@ -22015,6 +22343,11 @@
       <c r="AS97" s="17" t="inlineStr">
         <is>
           <t>3.87%</t>
+        </is>
+      </c>
+      <c r="AT97" s="17" t="inlineStr">
+        <is>
+          <t>1.41%</t>
         </is>
       </c>
     </row>
@@ -22314,6 +22647,11 @@
       <c r="AS99" s="19" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AT99" s="17" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
         </is>
       </c>
     </row>
@@ -22691,7 +23029,7 @@
           <t>603030</t>
         </is>
       </c>
-      <c r="B103" s="61" t="inlineStr">
+      <c r="B103" s="62" t="inlineStr">
         <is>
           <t>[机器人+出海+建筑装饰+业绩改善]</t>
         </is>
@@ -22812,6 +23150,11 @@
           <t>0.69%</t>
         </is>
       </c>
+      <c r="AT103" s="17" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="13" t="inlineStr">
@@ -22819,7 +23162,7 @@
           <t>603040</t>
         </is>
       </c>
-      <c r="B104" s="61" t="inlineStr">
+      <c r="B104" s="62" t="inlineStr">
         <is>
           <t>[一季报增长+滚珠丝杠+汽车零部件+外销]</t>
         </is>
@@ -22890,7 +23233,7 @@
           <t>-4.49%</t>
         </is>
       </c>
-      <c r="AC104" s="93" t="inlineStr">
+      <c r="AC104" s="94" t="inlineStr">
         <is>
           <t>7.57%</t>
         </is>
@@ -23173,12 +23516,12 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B107" s="67" t="inlineStr">
+      <c r="B107" s="68" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C107" s="68" t="inlineStr">
+      <c r="C107" s="69" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -23231,23 +23574,23 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="P107" s="69" t="inlineStr">
+      <c r="P107" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="Q107" s="69" t="inlineStr">
+      <c r="Q107" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="R107" s="69" t="inlineStr">
+      <c r="R107" s="70" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
       <c r="S107" s="17" t="n"/>
-      <c r="T107" s="69" t="inlineStr">
+      <c r="T107" s="70" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -23277,7 +23620,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="Z107" s="69" t="inlineStr">
+      <c r="Z107" s="70" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -23287,7 +23630,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AB107" s="70" t="inlineStr">
+      <c r="AB107" s="71" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -23302,7 +23645,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AE107" s="69" t="inlineStr">
+      <c r="AE107" s="70" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -23342,7 +23685,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AM107" s="71" t="inlineStr">
+      <c r="AM107" s="72" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -23370,6 +23713,11 @@
       <c r="AS107" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT107" s="17" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
         </is>
       </c>
     </row>
@@ -23379,7 +23727,7 @@
           <t>000965</t>
         </is>
       </c>
-      <c r="B108" s="101" t="inlineStr">
+      <c r="B108" s="102" t="inlineStr">
         <is>
           <t>[房地产+大飞机+天津国企]</t>
         </is>
@@ -23449,7 +23797,7 @@
           <t>-9.93%</t>
         </is>
       </c>
-      <c r="X108" s="118" t="inlineStr">
+      <c r="X108" s="119" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -23511,7 +23859,7 @@
           <t>001316</t>
         </is>
       </c>
-      <c r="B109" s="101" t="inlineStr">
+      <c r="B109" s="102" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -23558,7 +23906,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="U109" s="80" t="inlineStr">
+      <c r="U109" s="81" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
@@ -23660,7 +24008,7 @@
           <t>002471</t>
         </is>
       </c>
-      <c r="B110" s="101" t="inlineStr">
+      <c r="B110" s="102" t="inlineStr">
         <is>
           <t>[曾研发外骨骼机器人用电缆+军工+电线电缆+低空经济]</t>
         </is>
@@ -23789,12 +24137,12 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AM110" s="69" t="inlineStr">
+      <c r="AM110" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="AN110" s="69" t="inlineStr">
+      <c r="AN110" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
@@ -23804,7 +24152,7 @@
           <t>-3.33%</t>
         </is>
       </c>
-      <c r="AP110" s="69" t="inlineStr">
+      <c r="AP110" s="70" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -23822,6 +24170,11 @@
       <c r="AS110" s="17" t="inlineStr">
         <is>
           <t>0.72%</t>
+        </is>
+      </c>
+      <c r="AT110" s="17" t="inlineStr">
+        <is>
+          <t>3.41%</t>
         </is>
       </c>
     </row>
@@ -23964,7 +24317,7 @@
           <t>600592</t>
         </is>
       </c>
-      <c r="B112" s="101" t="inlineStr">
+      <c r="B112" s="102" t="inlineStr">
         <is>
           <t>[人形机器人+大飞机+军工+国企]</t>
         </is>
@@ -24060,7 +24413,7 @@
           <t>4.92%</t>
         </is>
       </c>
-      <c r="AH112" s="90" t="inlineStr">
+      <c r="AH112" s="91" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -24250,7 +24603,7 @@
           <t>-1.30%</t>
         </is>
       </c>
-      <c r="AB114" s="73" t="inlineStr">
+      <c r="AB114" s="74" t="inlineStr">
         <is>
           <t>-8.66%</t>
         </is>
@@ -24362,7 +24715,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AB115" s="105" t="inlineStr">
+      <c r="AB115" s="106" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -24409,7 +24762,7 @@
           <t>600448</t>
         </is>
       </c>
-      <c r="B116" s="61" t="inlineStr">
+      <c r="B116" s="62" t="inlineStr">
         <is>
           <t>[纺织制造+高外销+国企改革]</t>
         </is>
@@ -24506,7 +24859,7 @@
           <t>2.73%</t>
         </is>
       </c>
-      <c r="AI116" s="105" t="inlineStr">
+      <c r="AI116" s="106" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -24516,7 +24869,7 @@
           <t>-5.95%</t>
         </is>
       </c>
-      <c r="AK116" s="90" t="inlineStr">
+      <c r="AK116" s="91" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -24533,7 +24886,7 @@
           <t>603610</t>
         </is>
       </c>
-      <c r="B117" s="61" t="inlineStr">
+      <c r="B117" s="62" t="inlineStr">
         <is>
           <t>[脑机接口+智能电动床+鸿蒙+外销]</t>
         </is>
@@ -24606,7 +24959,7 @@
           <t>2.91%</t>
         </is>
       </c>
-      <c r="AE117" s="118" t="inlineStr">
+      <c r="AE117" s="119" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -24643,7 +24996,7 @@
           <t>603657</t>
         </is>
       </c>
-      <c r="B118" s="77" t="inlineStr">
+      <c r="B118" s="78" t="inlineStr">
         <is>
           <t>[扫地机器人+家电+一季报扭亏]</t>
         </is>
@@ -24755,6 +25108,11 @@
           <t>0.37%</t>
         </is>
       </c>
+      <c r="AT118" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="13" t="inlineStr">
@@ -24762,7 +25120,7 @@
           <t>300095</t>
         </is>
       </c>
-      <c r="B119" s="101" t="inlineStr">
+      <c r="B119" s="102" t="inlineStr">
         <is>
           <t>[航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造]</t>
         </is>
@@ -24867,7 +25225,7 @@
           <t>300581</t>
         </is>
       </c>
-      <c r="B120" s="101" t="inlineStr">
+      <c r="B120" s="102" t="inlineStr">
         <is>
           <t>[航空装备+军工+无人机]</t>
         </is>
@@ -24929,7 +25287,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AB120" s="93" t="inlineStr">
+      <c r="AB120" s="94" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
@@ -24939,7 +25297,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AD120" s="91" t="inlineStr">
+      <c r="AD120" s="92" t="inlineStr">
         <is>
           <t>-8.80%</t>
         </is>
@@ -24949,7 +25307,7 @@
           <t>-4.07%</t>
         </is>
       </c>
-      <c r="AF120" s="63" t="inlineStr">
+      <c r="AF120" s="64" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
@@ -24986,7 +25344,7 @@
           <t>002190</t>
         </is>
       </c>
-      <c r="B121" s="101" t="inlineStr">
+      <c r="B121" s="102" t="inlineStr">
         <is>
           <t>[成飞概念+军工+汽车零部件+国企改革]</t>
         </is>
@@ -25228,7 +25586,7 @@
           <t>002651</t>
         </is>
       </c>
-      <c r="B123" s="101" t="inlineStr">
+      <c r="B123" s="102" t="inlineStr">
         <is>
           <t>[军工+航空零部件+粉磨系统+机器人]</t>
         </is>
@@ -25368,7 +25726,7 @@
           <t>002977</t>
         </is>
       </c>
-      <c r="B124" s="101" t="inlineStr">
+      <c r="B124" s="102" t="inlineStr">
         <is>
           <t>[军工+卫星通信+雷达+一季报增长]</t>
         </is>
@@ -25553,7 +25911,7 @@
           <t>4.96%</t>
         </is>
       </c>
-      <c r="AE125" s="105" t="inlineStr">
+      <c r="AE125" s="106" t="inlineStr">
         <is>
           <t>-7.60%</t>
         </is>
@@ -25595,7 +25953,7 @@
           <t>002290</t>
         </is>
       </c>
-      <c r="B126" s="77" t="inlineStr">
+      <c r="B126" s="78" t="inlineStr">
         <is>
           <t>[算力+DeepSeek概念+家电零部件]</t>
         </is>
@@ -25700,6 +26058,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AT126" s="17" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="13" t="inlineStr">
@@ -25819,7 +26182,7 @@
           <t>302132</t>
         </is>
       </c>
-      <c r="B128" s="101" t="inlineStr">
+      <c r="B128" s="102" t="inlineStr">
         <is>
           <t>[航空装备+军贸+无人机+人形机器人]</t>
         </is>
@@ -25904,7 +26267,7 @@
           <t>1.30%</t>
         </is>
       </c>
-      <c r="AI128" s="113" t="inlineStr">
+      <c r="AI128" s="114" t="inlineStr">
         <is>
           <t>-7.92%</t>
         </is>
@@ -25926,7 +26289,7 @@
           <t>688552</t>
         </is>
       </c>
-      <c r="B129" s="101" t="inlineStr">
+      <c r="B129" s="102" t="inlineStr">
         <is>
           <t>[军工+一季报增长+低空经济+央企]</t>
         </is>
@@ -26033,7 +26396,7 @@
           <t>873169</t>
         </is>
       </c>
-      <c r="B130" s="101" t="inlineStr">
+      <c r="B130" s="102" t="inlineStr">
         <is>
           <t>[航空航天+轨道交通+一季报增长]</t>
         </is>
@@ -26319,7 +26682,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AG132" s="92" t="inlineStr">
+      <c r="AG132" s="93" t="inlineStr">
         <is>
           <t>-7.03%</t>
         </is>
@@ -26382,6 +26745,11 @@
       <c r="AS132" s="17" t="inlineStr">
         <is>
           <t>5.99%</t>
+        </is>
+      </c>
+      <c r="AT132" s="158" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
         </is>
       </c>
     </row>
@@ -26502,7 +26870,7 @@
           <t>-5.99%</t>
         </is>
       </c>
-      <c r="AO133" s="158" t="inlineStr">
+      <c r="AO133" s="159" t="inlineStr">
         <is>
           <t>-7.39%</t>
         </is>
@@ -26605,7 +26973,7 @@
           <t>5.55%</t>
         </is>
       </c>
-      <c r="AI134" s="159" t="inlineStr">
+      <c r="AI134" s="160" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -26625,7 +26993,7 @@
           <t>-5.26%</t>
         </is>
       </c>
-      <c r="AM134" s="160" t="inlineStr">
+      <c r="AM134" s="161" t="inlineStr">
         <is>
           <t>8.13%</t>
         </is>
@@ -26637,12 +27005,12 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B135" s="67" t="inlineStr">
+      <c r="B135" s="68" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C135" s="68" t="inlineStr">
+      <c r="C135" s="69" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -26695,23 +27063,23 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="P135" s="69" t="inlineStr">
+      <c r="P135" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="Q135" s="69" t="inlineStr">
+      <c r="Q135" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="R135" s="69" t="inlineStr">
+      <c r="R135" s="70" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
       <c r="S135" s="17" t="n"/>
-      <c r="T135" s="69" t="inlineStr">
+      <c r="T135" s="70" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -26721,7 +27089,7 @@
       <c r="W135" s="17" t="n"/>
       <c r="X135" s="17" t="n"/>
       <c r="Y135" s="17" t="n"/>
-      <c r="Z135" s="69" t="inlineStr">
+      <c r="Z135" s="70" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -26731,7 +27099,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AB135" s="70" t="inlineStr">
+      <c r="AB135" s="71" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -26746,7 +27114,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AE135" s="69" t="inlineStr">
+      <c r="AE135" s="70" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -26786,7 +27154,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AM135" s="71" t="inlineStr">
+      <c r="AM135" s="72" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -26814,6 +27182,11 @@
       <c r="AS135" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT135" s="17" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
         </is>
       </c>
     </row>
@@ -26823,7 +27196,7 @@
           <t>000565</t>
         </is>
       </c>
-      <c r="B136" s="101" t="inlineStr">
+      <c r="B136" s="102" t="inlineStr">
         <is>
           <t>[涂料制造+氢能源+军工+重庆国资]</t>
         </is>
@@ -26890,7 +27263,7 @@
           <t>6.16%</t>
         </is>
       </c>
-      <c r="AC136" s="87" t="inlineStr">
+      <c r="AC136" s="88" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -26973,6 +27346,11 @@
       <c r="AS136" s="19" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AT136" s="17" t="inlineStr">
+        <is>
+          <t>-6.99%</t>
         </is>
       </c>
     </row>
@@ -27178,12 +27556,12 @@
           <t>-6.39%</t>
         </is>
       </c>
-      <c r="AK138" s="161" t="inlineStr">
+      <c r="AK138" s="162" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
       </c>
-      <c r="AL138" s="86" t="inlineStr">
+      <c r="AL138" s="87" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
@@ -27221,6 +27599,11 @@
       <c r="AS138" s="17" t="inlineStr">
         <is>
           <t>0.72%</t>
+        </is>
+      </c>
+      <c r="AT138" s="17" t="inlineStr">
+        <is>
+          <t>-3.09%</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27613,7 @@
           <t>603488</t>
         </is>
       </c>
-      <c r="B139" s="101" t="inlineStr">
+      <c r="B139" s="102" t="inlineStr">
         <is>
           <t>[军工信息化+电梯]</t>
         </is>
@@ -27292,7 +27675,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AF139" s="162" t="inlineStr">
+      <c r="AF139" s="163" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -27339,7 +27722,7 @@
           <t>002040</t>
         </is>
       </c>
-      <c r="B140" s="61" t="inlineStr">
+      <c r="B140" s="62" t="inlineStr">
         <is>
           <t>[地天板+港口+统一大市场+国企改革]</t>
         </is>
@@ -27434,7 +27817,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AK140" s="163" t="inlineStr">
+      <c r="AK140" s="164" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
@@ -27641,6 +28024,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AT141" s="17" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="13" t="inlineStr">
@@ -27648,7 +28036,7 @@
           <t>002909</t>
         </is>
       </c>
-      <c r="B142" s="61" t="inlineStr">
+      <c r="B142" s="62" t="inlineStr">
         <is>
           <t>[集装箱用产品+涂料+有机硅胶粘剂+跨境电商]</t>
         </is>
@@ -27767,7 +28155,7 @@
           <t>600798</t>
         </is>
       </c>
-      <c r="B143" s="61" t="inlineStr">
+      <c r="B143" s="62" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -27895,7 +28283,7 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B144" s="61" t="inlineStr">
+      <c r="B144" s="62" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -28051,7 +28439,7 @@
           <t>601022</t>
         </is>
       </c>
-      <c r="B145" s="61" t="inlineStr">
+      <c r="B145" s="62" t="inlineStr">
         <is>
           <t>[航运+海洋+浙江国资]</t>
         </is>
@@ -28129,7 +28517,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AJ145" s="164" t="inlineStr">
+      <c r="AJ145" s="165" t="inlineStr">
         <is>
           <t>-9.00%</t>
         </is>
@@ -28166,7 +28554,7 @@
           <t>605138</t>
         </is>
       </c>
-      <c r="B146" s="61" t="inlineStr">
+      <c r="B146" s="62" t="inlineStr">
         <is>
           <t>[纺织服装+外销]</t>
         </is>
@@ -28362,7 +28750,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AF147" s="105" t="inlineStr">
+      <c r="AF147" s="106" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -28407,7 +28795,7 @@
           <t>-2.30%</t>
         </is>
       </c>
-      <c r="AO147" s="106" t="inlineStr">
+      <c r="AO147" s="107" t="inlineStr">
         <is>
           <t>-7.63%</t>
         </is>
@@ -28501,7 +28889,7 @@
           <t>-3.51%</t>
         </is>
       </c>
-      <c r="AI148" s="102" t="inlineStr">
+      <c r="AI148" s="103" t="inlineStr">
         <is>
           <t>-9.35%</t>
         </is>
@@ -28654,7 +29042,7 @@
           <t>000420</t>
         </is>
       </c>
-      <c r="B150" s="101" t="inlineStr">
+      <c r="B150" s="102" t="inlineStr">
         <is>
           <t>[涨价+碳纤维+军工应用+国企改革]</t>
         </is>
@@ -28723,7 +29111,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AI150" s="161" t="inlineStr">
+      <c r="AI150" s="162" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -28870,7 +29258,7 @@
           <t>-10.01%</t>
         </is>
       </c>
-      <c r="AP151" s="97" t="inlineStr">
+      <c r="AP151" s="98" t="inlineStr">
         <is>
           <t>-7.00%</t>
         </is>
@@ -28888,6 +29276,11 @@
       <c r="AS151" s="17" t="inlineStr">
         <is>
           <t>1.00%</t>
+        </is>
+      </c>
+      <c r="AT151" s="17" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
         </is>
       </c>
     </row>
@@ -28897,7 +29290,7 @@
           <t>002811</t>
         </is>
       </c>
-      <c r="B152" s="67" t="inlineStr">
+      <c r="B152" s="68" t="inlineStr">
         <is>
           <t>[AI设计+IP+室内设计+小红书]</t>
         </is>
@@ -29261,7 +29654,7 @@
           <t>603630</t>
         </is>
       </c>
-      <c r="B155" s="77" t="inlineStr">
+      <c r="B155" s="78" t="inlineStr">
         <is>
           <t>[日化用品+护肤品+AI数智平台+电子商务]</t>
         </is>
@@ -29386,7 +29779,7 @@
           <t>605136</t>
         </is>
       </c>
-      <c r="B156" s="77" t="inlineStr">
+      <c r="B156" s="78" t="inlineStr">
         <is>
           <t>[化妆品+麦角硫因（业绩收入占比小）+电商]</t>
         </is>
@@ -29510,6 +29903,11 @@
           <t>-1.83%</t>
         </is>
       </c>
+      <c r="AT156" s="17" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="13" t="inlineStr">
@@ -29517,7 +29915,7 @@
           <t>300963</t>
         </is>
       </c>
-      <c r="B157" s="37" t="inlineStr">
+      <c r="B157" s="56" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -29564,7 +29962,7 @@
       <c r="Z157" s="17" t="n"/>
       <c r="AA157" s="17" t="n"/>
       <c r="AB157" s="17" t="n"/>
-      <c r="AC157" s="165" t="inlineStr">
+      <c r="AC157" s="166" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
@@ -29599,7 +29997,7 @@
           <t>6.45%</t>
         </is>
       </c>
-      <c r="AJ157" s="166" t="inlineStr">
+      <c r="AJ157" s="167" t="inlineStr">
         <is>
           <t>-8.86%</t>
         </is>
@@ -29647,6 +30045,11 @@
       <c r="AS157" s="17" t="inlineStr">
         <is>
           <t>1.16%</t>
+        </is>
+      </c>
+      <c r="AT157" s="17" t="inlineStr">
+        <is>
+          <t>-4.72%</t>
         </is>
       </c>
     </row>
@@ -29732,7 +30135,7 @@
           <t>-0.77%</t>
         </is>
       </c>
-      <c r="AL158" s="74" t="inlineStr">
+      <c r="AL158" s="75" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -29769,7 +30172,7 @@
           <t>002510</t>
         </is>
       </c>
-      <c r="B159" s="101" t="inlineStr">
+      <c r="B159" s="102" t="inlineStr">
         <is>
           <t>[拟购东实股份50%股权+大飞机+汽车零部件+特斯拉]</t>
         </is>
@@ -29962,7 +30365,7 @@
           <t>2.69%</t>
         </is>
       </c>
-      <c r="AK160" s="167" t="inlineStr">
+      <c r="AK160" s="168" t="inlineStr">
         <is>
           <t>-9.45%</t>
         </is>
@@ -29992,7 +30395,7 @@
           <t>2.31%</t>
         </is>
       </c>
-      <c r="AQ160" s="111" t="inlineStr">
+      <c r="AQ160" s="112" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -30004,7 +30407,7 @@
           <t>002735</t>
         </is>
       </c>
-      <c r="B161" s="101" t="inlineStr">
+      <c r="B161" s="102" t="inlineStr">
         <is>
           <t>[可控核聚变+军工+塑料包装]</t>
         </is>
@@ -30058,7 +30461,7 @@
           <t>0.85%</t>
         </is>
       </c>
-      <c r="AF161" s="168" t="inlineStr">
+      <c r="AF161" s="169" t="inlineStr">
         <is>
           <t>7.61%</t>
         </is>
@@ -30126,6 +30529,11 @@
       <c r="AS161" s="17" t="inlineStr">
         <is>
           <t>-3.95%</t>
+        </is>
+      </c>
+      <c r="AT161" s="17" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
         </is>
       </c>
     </row>
@@ -30248,7 +30656,7 @@
           <t>600468</t>
         </is>
       </c>
-      <c r="B163" s="37" t="inlineStr">
+      <c r="B163" s="56" t="inlineStr">
         <is>
           <t>[可控核聚变+超导+电网设备+国企]</t>
         </is>
@@ -30364,6 +30772,11 @@
           <t>0.91%</t>
         </is>
       </c>
+      <c r="AT163" s="46" t="inlineStr">
+        <is>
+          <t>-7.07%</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="13" t="inlineStr">
@@ -30472,7 +30885,7 @@
           <t>1.77%</t>
         </is>
       </c>
-      <c r="AQ164" s="56" t="inlineStr">
+      <c r="AQ164" s="57" t="inlineStr">
         <is>
           <t>-7.95%</t>
         </is>
@@ -30485,6 +30898,11 @@
       <c r="AS164" s="17" t="inlineStr">
         <is>
           <t>-1.97%</t>
+        </is>
+      </c>
+      <c r="AT164" s="17" t="inlineStr">
+        <is>
+          <t>-2.35%</t>
         </is>
       </c>
     </row>
@@ -30494,7 +30912,7 @@
           <t>301335</t>
         </is>
       </c>
-      <c r="B165" s="61" t="inlineStr">
+      <c r="B165" s="62" t="inlineStr">
         <is>
           <t>[资产重组+宠物经济+跨境电商]</t>
         </is>
@@ -30564,7 +30982,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AJ165" s="169" t="inlineStr">
+      <c r="AJ165" s="170" t="inlineStr">
         <is>
           <t>-8.27%</t>
         </is>
@@ -30589,7 +31007,7 @@
           <t>-2.15%</t>
         </is>
       </c>
-      <c r="AO165" s="74" t="inlineStr">
+      <c r="AO165" s="75" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -30734,7 +31152,7 @@
           <t>835174</t>
         </is>
       </c>
-      <c r="B167" s="61" t="inlineStr">
+      <c r="B167" s="62" t="inlineStr">
         <is>
           <t>[重大资产重组+基建+一带一路]</t>
         </is>
@@ -30805,12 +31223,12 @@
           <t>-12.01%</t>
         </is>
       </c>
-      <c r="AK167" s="170" t="inlineStr">
+      <c r="AK167" s="171" t="inlineStr">
         <is>
           <t>-9.16%</t>
         </is>
       </c>
-      <c r="AL167" s="66" t="inlineStr">
+      <c r="AL167" s="67" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -30852,7 +31270,7 @@
           <t>[重大资产重组+固态电池+硅基负极+包装印刷]</t>
         </is>
       </c>
-      <c r="C168" s="25" t="inlineStr">
+      <c r="C168" s="49" t="inlineStr">
         <is>
           <t>滨海能源</t>
         </is>
@@ -30959,6 +31377,11 @@
           <t>-2.52%</t>
         </is>
       </c>
+      <c r="AT168" s="50" t="inlineStr">
+        <is>
+          <t>8板</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="13" t="inlineStr">
@@ -31184,7 +31607,7 @@
           <t>2.41%</t>
         </is>
       </c>
-      <c r="AP170" s="171" t="inlineStr">
+      <c r="AP170" s="172" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
@@ -31202,6 +31625,11 @@
       <c r="AS170" s="17" t="inlineStr">
         <is>
           <t>-3.85%</t>
+        </is>
+      </c>
+      <c r="AT170" s="17" t="inlineStr">
+        <is>
+          <t>1.33%</t>
         </is>
       </c>
     </row>
@@ -31339,6 +31767,11 @@
           <t>-0.36%</t>
         </is>
       </c>
+      <c r="AT171" s="17" t="inlineStr">
+        <is>
+          <t>-6.50%</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="13" t="inlineStr">
@@ -31346,7 +31779,7 @@
           <t>600137</t>
         </is>
       </c>
-      <c r="B172" s="77" t="inlineStr">
+      <c r="B172" s="78" t="inlineStr">
         <is>
           <t>[服装家纺+电子商务]</t>
         </is>
@@ -31546,7 +31979,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AM173" s="172" t="inlineStr">
+      <c r="AM173" s="173" t="inlineStr">
         <is>
           <t>-9.36%</t>
         </is>
@@ -31659,7 +32092,7 @@
           <t>-9.97%</t>
         </is>
       </c>
-      <c r="AL174" s="173" t="inlineStr">
+      <c r="AL174" s="174" t="inlineStr">
         <is>
           <t>-9.43%</t>
         </is>
@@ -31692,6 +32125,11 @@
       <c r="AR174" s="17" t="inlineStr">
         <is>
           <t>0.15%</t>
+        </is>
+      </c>
+      <c r="AT174" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -31819,6 +32257,11 @@
       <c r="AS175" s="17" t="inlineStr">
         <is>
           <t>2.45%</t>
+        </is>
+      </c>
+      <c r="AT175" s="17" t="inlineStr">
+        <is>
+          <t>-5.07%</t>
         </is>
       </c>
     </row>
@@ -31900,7 +32343,7 @@
           <t>-17.76%</t>
         </is>
       </c>
-      <c r="AL176" s="174" t="inlineStr">
+      <c r="AL176" s="175" t="inlineStr">
         <is>
           <t>-7.13%</t>
         </is>
@@ -31915,7 +32358,7 @@
           <t>-0.55%</t>
         </is>
       </c>
-      <c r="AO176" s="175" t="inlineStr">
+      <c r="AO176" s="176" t="inlineStr">
         <is>
           <t>-7.22%</t>
         </is>
@@ -32043,7 +32486,7 @@
           <t>0.07%</t>
         </is>
       </c>
-      <c r="AQ177" s="176" t="inlineStr">
+      <c r="AQ177" s="177" t="inlineStr">
         <is>
           <t>-7.57%</t>
         </is>
@@ -32065,7 +32508,7 @@
           <t>603900</t>
         </is>
       </c>
-      <c r="B178" s="67" t="inlineStr">
+      <c r="B178" s="68" t="inlineStr">
         <is>
           <t>[艺术黄金+珠宝首饰+IP经济]</t>
         </is>
@@ -32174,7 +32617,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AQ178" s="80" t="inlineStr">
+      <c r="AQ178" s="81" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -32187,6 +32630,11 @@
       <c r="AS178" s="27" t="inlineStr">
         <is>
           <t>6板</t>
+        </is>
+      </c>
+      <c r="AT178" s="18" t="inlineStr">
+        <is>
+          <t>-9.97%</t>
         </is>
       </c>
     </row>
@@ -32300,6 +32748,11 @@
           <t>-0.46%</t>
         </is>
       </c>
+      <c r="AT179" s="17" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="13" t="inlineStr">
@@ -32395,7 +32848,7 @@
           <t>-2.56%</t>
         </is>
       </c>
-      <c r="AP180" s="177" t="inlineStr">
+      <c r="AP180" s="178" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
@@ -32413,6 +32866,11 @@
       <c r="AS180" s="17" t="inlineStr">
         <is>
           <t>4.85%</t>
+        </is>
+      </c>
+      <c r="AT180" s="17" t="inlineStr">
+        <is>
+          <t>-3.30%</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32963,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AO181" s="94" t="inlineStr">
+      <c r="AO181" s="95" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -32528,6 +32986,11 @@
       <c r="AS181" s="17" t="inlineStr">
         <is>
           <t>0.84%</t>
+        </is>
+      </c>
+      <c r="AT181" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -32537,7 +33000,7 @@
           <t>603607</t>
         </is>
       </c>
-      <c r="B182" s="67" t="inlineStr">
+      <c r="B182" s="68" t="inlineStr">
         <is>
           <t>[IP经济+激光防伪包装材料+一季报增长]</t>
         </is>
@@ -32643,6 +33106,11 @@
       <c r="AS182" s="17" t="inlineStr">
         <is>
           <t>2.02%</t>
+        </is>
+      </c>
+      <c r="AT182" s="17" t="inlineStr">
+        <is>
+          <t>-5.95%</t>
         </is>
       </c>
     </row>
@@ -32754,6 +33222,11 @@
       <c r="AS183" s="17" t="inlineStr">
         <is>
           <t>3.29%</t>
+        </is>
+      </c>
+      <c r="AT183" s="17" t="inlineStr">
+        <is>
+          <t>-6.11%</t>
         </is>
       </c>
     </row>
@@ -32863,6 +33336,11 @@
           <t>2.86%</t>
         </is>
       </c>
+      <c r="AT184" s="17" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="13" t="inlineStr">
@@ -32965,9 +33443,14 @@
           <t>-7.17%</t>
         </is>
       </c>
-      <c r="AS185" s="17" t="inlineStr">
-        <is>
-          <t>停牌</t>
+      <c r="AS185" s="125" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="AT185" s="45" t="inlineStr">
+        <is>
+          <t>-7.42%</t>
         </is>
       </c>
     </row>
@@ -32977,7 +33460,7 @@
           <t>301137</t>
         </is>
       </c>
-      <c r="B186" s="37" t="inlineStr">
+      <c r="B186" s="56" t="inlineStr">
         <is>
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
@@ -33077,6 +33560,11 @@
           <t>-4.56%</t>
         </is>
       </c>
+      <c r="AT186" s="17" t="inlineStr">
+        <is>
+          <t>-3.56%</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="13" t="inlineStr">
@@ -33084,7 +33572,7 @@
           <t>000561</t>
         </is>
       </c>
-      <c r="B187" s="101" t="inlineStr">
+      <c r="B187" s="102" t="inlineStr">
         <is>
           <t>[军工+资产重组+低空防御系统+国企改革]</t>
         </is>
@@ -33155,7 +33643,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AO187" s="81" t="inlineStr">
+      <c r="AO187" s="82" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -33165,7 +33653,7 @@
           <t>-2.32%</t>
         </is>
       </c>
-      <c r="AQ187" s="81" t="inlineStr">
+      <c r="AQ187" s="82" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -33178,6 +33666,11 @@
       <c r="AS187" s="17" t="inlineStr">
         <is>
           <t>-1.74%</t>
+        </is>
+      </c>
+      <c r="AT187" s="17" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
         </is>
       </c>
     </row>
@@ -33187,7 +33680,7 @@
           <t>002366</t>
         </is>
       </c>
-      <c r="B188" s="37" t="inlineStr">
+      <c r="B188" s="56" t="inlineStr">
         <is>
           <t>[可控核聚变+国企]</t>
         </is>
@@ -33283,6 +33776,11 @@
           <t>5.23%</t>
         </is>
       </c>
+      <c r="AT188" s="17" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="13" t="inlineStr">
@@ -33290,7 +33788,7 @@
           <t>603681</t>
         </is>
       </c>
-      <c r="B189" s="61" t="inlineStr">
+      <c r="B189" s="62" t="inlineStr">
         <is>
           <t>[汽车膜+胶粘解决方案+AI智能体+外销]</t>
         </is>
@@ -33371,7 +33869,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AQ189" s="178" t="inlineStr">
+      <c r="AQ189" s="179" t="inlineStr">
         <is>
           <t>-8.13%</t>
         </is>
@@ -33384,6 +33882,11 @@
       <c r="AS189" s="17" t="inlineStr">
         <is>
           <t>-2.63%</t>
+        </is>
+      </c>
+      <c r="AT189" s="17" t="inlineStr">
+        <is>
+          <t>-3.08%</t>
         </is>
       </c>
     </row>
@@ -33489,6 +33992,11 @@
           <t>0.93%</t>
         </is>
       </c>
+      <c r="AT190" s="112" t="inlineStr">
+        <is>
+          <t>-7.91%</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="13" t="inlineStr">
@@ -33596,6 +34104,11 @@
           <t>-4.10%</t>
         </is>
       </c>
+      <c r="AT191" s="17" t="inlineStr">
+        <is>
+          <t>-2.78%</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="13" t="inlineStr">
@@ -33603,7 +34116,7 @@
           <t>002639</t>
         </is>
       </c>
-      <c r="B192" s="37" t="inlineStr">
+      <c r="B192" s="56" t="inlineStr">
         <is>
           <t>[可控核聚变+数据中心+热能动力]</t>
         </is>
@@ -33703,6 +34216,11 @@
           <t>5.46%</t>
         </is>
       </c>
+      <c r="AT192" s="180" t="inlineStr">
+        <is>
+          <t>7.31%</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="13" t="inlineStr">
@@ -33710,7 +34228,7 @@
           <t>600192</t>
         </is>
       </c>
-      <c r="B193" s="37" t="inlineStr">
+      <c r="B193" s="56" t="inlineStr">
         <is>
           <t>[核电+输配电设备+国企改革]</t>
         </is>
@@ -33806,6 +34324,11 @@
           <t>-5.50%</t>
         </is>
       </c>
+      <c r="AT193" s="17" t="inlineStr">
+        <is>
+          <t>-1.64%</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="13" t="inlineStr">
@@ -33876,7 +34399,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AK194" s="179" t="inlineStr">
+      <c r="AK194" s="181" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
@@ -33919,6 +34442,11 @@
       <c r="AS194" s="17" t="inlineStr">
         <is>
           <t>-0.51%</t>
+        </is>
+      </c>
+      <c r="AT194" s="17" t="inlineStr">
+        <is>
+          <t>-4.08%</t>
         </is>
       </c>
     </row>
@@ -33928,7 +34456,7 @@
           <t>603577</t>
         </is>
       </c>
-      <c r="B195" s="37" t="inlineStr">
+      <c r="B195" s="56" t="inlineStr">
         <is>
           <t>[核电+输电线路铁塔+海工装备]</t>
         </is>
@@ -34020,6 +34548,11 @@
           <t>-4.44%</t>
         </is>
       </c>
+      <c r="AT195" s="63" t="inlineStr">
+        <is>
+          <t>-7.25%</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="13" t="inlineStr">
@@ -34027,7 +34560,7 @@
           <t>605388</t>
         </is>
       </c>
-      <c r="B196" s="61" t="inlineStr">
+      <c r="B196" s="62" t="inlineStr">
         <is>
           <t>[地天板+益生菌+跨境电商]</t>
         </is>
@@ -34117,6 +34650,11 @@
       <c r="AS196" s="17" t="inlineStr">
         <is>
           <t>1.34%</t>
+        </is>
+      </c>
+      <c r="AT196" s="17" t="inlineStr">
+        <is>
+          <t>5.50%</t>
         </is>
       </c>
     </row>
@@ -34214,6 +34752,11 @@
           <t>-1.95%</t>
         </is>
       </c>
+      <c r="AT197" s="17" t="inlineStr">
+        <is>
+          <t>-4.26%</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="13" t="inlineStr">
@@ -34308,9 +34851,14 @@
           <t>6.01%</t>
         </is>
       </c>
-      <c r="AS198" s="180" t="inlineStr">
+      <c r="AS198" s="182" t="inlineStr">
         <is>
           <t>-8.23%</t>
+        </is>
+      </c>
+      <c r="AT198" s="17" t="inlineStr">
+        <is>
+          <t>-3.34%</t>
         </is>
       </c>
     </row>
@@ -34418,6 +34966,11 @@
       <c r="AS199" s="17" t="inlineStr">
         <is>
           <t>-6.04%</t>
+        </is>
+      </c>
+      <c r="AT199" s="17" t="inlineStr">
+        <is>
+          <t>0.50%</t>
         </is>
       </c>
     </row>
@@ -34515,6 +35068,11 @@
           <t>-3.19%</t>
         </is>
       </c>
+      <c r="AT200" s="183" t="inlineStr">
+        <is>
+          <t>-8.76%</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="13" t="inlineStr">
@@ -34522,7 +35080,7 @@
           <t>603065</t>
         </is>
       </c>
-      <c r="B201" s="61" t="inlineStr">
+      <c r="B201" s="62" t="inlineStr">
         <is>
           <t>[受阻胺光稳定剂+高分子材料防老化助剂+外销]</t>
         </is>
@@ -34618,6 +35176,11 @@
           <t>-2.17%</t>
         </is>
       </c>
+      <c r="AT201" s="17" t="inlineStr">
+        <is>
+          <t>-6.03%</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="13" t="inlineStr">
@@ -34625,7 +35188,7 @@
           <t>603076</t>
         </is>
       </c>
-      <c r="B202" s="61" t="inlineStr">
+      <c r="B202" s="62" t="inlineStr">
         <is>
           <t>[精酿啤酒+一季报增长+一带一路]</t>
         </is>
@@ -34702,7 +35265,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AQ202" s="91" t="inlineStr">
+      <c r="AQ202" s="92" t="inlineStr">
         <is>
           <t>-8.81%</t>
         </is>
@@ -34715,6 +35278,11 @@
       <c r="AS202" s="16" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AT202" s="17" t="inlineStr">
+        <is>
+          <t>3.44%</t>
         </is>
       </c>
     </row>
@@ -34724,7 +35292,7 @@
           <t>603518</t>
         </is>
       </c>
-      <c r="B203" s="67" t="inlineStr">
+      <c r="B203" s="68" t="inlineStr">
         <is>
           <t>[IP经济+服装行业+回购注销]</t>
         </is>
@@ -34812,6 +35380,11 @@
           <t>6.73%</t>
         </is>
       </c>
+      <c r="AT203" s="40" t="inlineStr">
+        <is>
+          <t>9.66%</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="13" t="inlineStr">
@@ -34824,7 +35397,7 @@
           <t>[资产注入预期+获赔4702万+新能源+江苏国资]</t>
         </is>
       </c>
-      <c r="C204" s="59" t="inlineStr">
+      <c r="C204" s="60" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -34923,6 +35496,11 @@
           <t>-0.68%</t>
         </is>
       </c>
+      <c r="AT204" s="17" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="13" t="inlineStr">
@@ -34930,7 +35508,7 @@
           <t>300804</t>
         </is>
       </c>
-      <c r="B205" s="61" t="inlineStr">
+      <c r="B205" s="62" t="inlineStr">
         <is>
           <t>[农药+杀虫剂+氯氰菊酯+外销]</t>
         </is>
@@ -34988,7 +35566,7 @@
           <t>-0.38%</t>
         </is>
       </c>
-      <c r="AN205" s="181" t="inlineStr">
+      <c r="AN205" s="184" t="inlineStr">
         <is>
           <t>7.99%</t>
         </is>
@@ -35016,6 +35594,11 @@
       <c r="AS205" s="18" t="inlineStr">
         <is>
           <t>-13.16%</t>
+        </is>
+      </c>
+      <c r="AT205" s="40" t="inlineStr">
+        <is>
+          <t>15.52%</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35666,7 @@
           <t>-0.41%</t>
         </is>
       </c>
-      <c r="AN206" s="182" t="inlineStr">
+      <c r="AN206" s="185" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
@@ -35098,7 +35681,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AQ206" s="183" t="inlineStr">
+      <c r="AQ206" s="186" t="inlineStr">
         <is>
           <t>-7.77%</t>
         </is>
@@ -35111,6 +35694,11 @@
       <c r="AS206" s="17" t="inlineStr">
         <is>
           <t>-2.91%</t>
+        </is>
+      </c>
+      <c r="AT206" s="17" t="inlineStr">
+        <is>
+          <t>-1.59%</t>
         </is>
       </c>
     </row>
@@ -35120,7 +35708,7 @@
           <t>002177</t>
         </is>
       </c>
-      <c r="B207" s="120" t="inlineStr">
+      <c r="B207" s="37" t="inlineStr">
         <is>
           <t>[曾涉及数字货币+金融服务+ATM+产业园运营]</t>
         </is>
@@ -35210,6 +35798,11 @@
       <c r="AS207" s="16" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AT207" s="17" t="inlineStr">
+        <is>
+          <t>5.74%</t>
         </is>
       </c>
     </row>
@@ -35298,9 +35891,14 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AS208" s="184" t="inlineStr">
+      <c r="AS208" s="187" t="inlineStr">
         <is>
           <t>7.51%</t>
+        </is>
+      </c>
+      <c r="AT208" s="16" t="inlineStr">
+        <is>
+          <t>5板</t>
         </is>
       </c>
     </row>
@@ -35354,7 +35952,7 @@
       <c r="AI209" s="17" t="n"/>
       <c r="AJ209" s="17" t="n"/>
       <c r="AK209" s="17" t="n"/>
-      <c r="AL209" s="71" t="inlineStr">
+      <c r="AL209" s="72" t="inlineStr">
         <is>
           <t>8.05%</t>
         </is>
@@ -35392,6 +35990,11 @@
       <c r="AS209" s="18" t="inlineStr">
         <is>
           <t>-9.81%</t>
+        </is>
+      </c>
+      <c r="AT209" s="17" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
         </is>
       </c>
     </row>
@@ -35401,7 +36004,7 @@
           <t>301024</t>
         </is>
       </c>
-      <c r="B210" s="120" t="inlineStr">
+      <c r="B210" s="37" t="inlineStr">
         <is>
           <t>[RWA+蚂蚁合作+建筑绿能]</t>
         </is>
@@ -35485,6 +36088,11 @@
           <t>-10.81%</t>
         </is>
       </c>
+      <c r="AT210" s="17" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="13" t="inlineStr">
@@ -35551,7 +36159,7 @@
           <t>-4.93%</t>
         </is>
       </c>
-      <c r="AO211" s="185" t="inlineStr">
+      <c r="AO211" s="188" t="inlineStr">
         <is>
           <t>8.61%</t>
         </is>
@@ -35574,6 +36182,11 @@
       <c r="AS211" s="17" t="inlineStr">
         <is>
           <t>3.11%</t>
+        </is>
+      </c>
+      <c r="AT211" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
         </is>
       </c>
     </row>
@@ -35583,12 +36196,12 @@
           <t>002104</t>
         </is>
       </c>
-      <c r="B212" s="120" t="inlineStr">
+      <c r="B212" s="37" t="inlineStr">
         <is>
           <t>[数字货币+区块链+eSIM技术]</t>
         </is>
       </c>
-      <c r="C212" s="33" t="inlineStr">
+      <c r="C212" s="15" t="inlineStr">
         <is>
           <t>恒宝股份</t>
         </is>
@@ -35671,6 +36284,11 @@
           <t>-2.04%</t>
         </is>
       </c>
+      <c r="AT212" s="26" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="13" t="inlineStr">
@@ -35678,7 +36296,7 @@
           <t>002537</t>
         </is>
       </c>
-      <c r="B213" s="120" t="inlineStr">
+      <c r="B213" s="37" t="inlineStr">
         <is>
           <t>[第三方支付（业务拟转让）+汽车零部件]</t>
         </is>
@@ -35782,6 +36400,11 @@
           <t>-7.31%</t>
         </is>
       </c>
+      <c r="AT213" s="17" t="inlineStr">
+        <is>
+          <t>2.47%</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="13" t="inlineStr">
@@ -35789,12 +36412,12 @@
           <t>603123</t>
         </is>
       </c>
-      <c r="B214" s="120" t="inlineStr">
-        <is>
-          <t>[数字人民币+第三方支付+国企改革]</t>
-        </is>
-      </c>
-      <c r="C214" s="33" t="inlineStr">
+      <c r="B214" s="37" t="inlineStr">
+        <is>
+          <t>[数字人民币+AI支付+地方国企+亏损收窄]</t>
+        </is>
+      </c>
+      <c r="C214" s="15" t="inlineStr">
         <is>
           <t>翠微股份</t>
         </is>
@@ -35846,7 +36469,7 @@
       <c r="AJ214" s="17" t="n"/>
       <c r="AK214" s="17" t="n"/>
       <c r="AL214" s="17" t="n"/>
-      <c r="AM214" s="186" t="inlineStr">
+      <c r="AM214" s="189" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -35879,6 +36502,11 @@
       <c r="AS214" s="17" t="inlineStr">
         <is>
           <t>4.12%</t>
+        </is>
+      </c>
+      <c r="AT214" s="26" t="inlineStr">
+        <is>
+          <t>4板</t>
         </is>
       </c>
     </row>
@@ -35888,7 +36516,7 @@
           <t>605005</t>
         </is>
       </c>
-      <c r="B215" s="77" t="inlineStr">
+      <c r="B215" s="78" t="inlineStr">
         <is>
           <t>[无人驾驶+汽车电子+家电]</t>
         </is>
@@ -35968,6 +36596,11 @@
           <t>4板</t>
         </is>
       </c>
+      <c r="AT215" s="17" t="inlineStr">
+        <is>
+          <t>-5.75%</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="13" t="inlineStr">
@@ -35975,7 +36608,7 @@
           <t>603900</t>
         </is>
       </c>
-      <c r="B216" s="67" t="inlineStr">
+      <c r="B216" s="68" t="inlineStr">
         <is>
           <t>[艺术黄金+珠宝首饰+IP经济]</t>
         </is>
@@ -36068,7 +36701,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AQ216" s="80" t="inlineStr">
+      <c r="AQ216" s="81" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -36081,6 +36714,11 @@
       <c r="AS216" s="27" t="inlineStr">
         <is>
           <t>6板</t>
+        </is>
+      </c>
+      <c r="AT216" s="18" t="inlineStr">
+        <is>
+          <t>-9.97%</t>
         </is>
       </c>
     </row>
@@ -36151,7 +36789,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AQ217" s="187" t="inlineStr">
+      <c r="AQ217" s="190" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
@@ -36164,6 +36802,11 @@
       <c r="AS217" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT217" s="18" t="inlineStr">
+        <is>
+          <t>-9.50%</t>
         </is>
       </c>
     </row>
@@ -36249,6 +36892,11 @@
           <t>3板</t>
         </is>
       </c>
+      <c r="AT218" s="17" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="13" t="inlineStr">
@@ -36340,6 +36988,11 @@
           <t>3板</t>
         </is>
       </c>
+      <c r="AT219" s="17" t="inlineStr">
+        <is>
+          <t>-2.12%</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="13" t="inlineStr">
@@ -36347,12 +37000,12 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B220" s="67" t="inlineStr">
+      <c r="B220" s="68" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C220" s="68" t="inlineStr">
+      <c r="C220" s="69" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -36405,23 +37058,23 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="P220" s="69" t="inlineStr">
+      <c r="P220" s="70" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="Q220" s="69" t="inlineStr">
+      <c r="Q220" s="70" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="R220" s="69" t="inlineStr">
+      <c r="R220" s="70" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
       <c r="S220" s="17" t="n"/>
-      <c r="T220" s="69" t="inlineStr">
+      <c r="T220" s="70" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -36431,7 +37084,7 @@
       <c r="W220" s="17" t="n"/>
       <c r="X220" s="17" t="n"/>
       <c r="Y220" s="17" t="n"/>
-      <c r="Z220" s="69" t="inlineStr">
+      <c r="Z220" s="70" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -36440,7 +37093,7 @@
       <c r="AB220" s="17" t="n"/>
       <c r="AC220" s="17" t="n"/>
       <c r="AD220" s="17" t="n"/>
-      <c r="AE220" s="69" t="inlineStr">
+      <c r="AE220" s="70" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -36481,6 +37134,11 @@
       <c r="AS220" s="23" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AT220" s="17" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
         </is>
       </c>
     </row>
@@ -36570,6 +37228,11 @@
           <t>3板</t>
         </is>
       </c>
+      <c r="AT221" s="17" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="13" t="inlineStr">
@@ -36673,6 +37336,11 @@
           <t>3板</t>
         </is>
       </c>
+      <c r="AT222" s="18" t="inlineStr">
+        <is>
+          <t>-9.95%</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="13" t="inlineStr">
@@ -36680,12 +37348,12 @@
           <t>605099</t>
         </is>
       </c>
-      <c r="B223" s="67" t="inlineStr">
+      <c r="B223" s="68" t="inlineStr">
         <is>
           <t>[足球概念+体育产业+业绩增长+高股息]</t>
         </is>
       </c>
-      <c r="C223" s="33" t="inlineStr">
+      <c r="C223" s="15" t="inlineStr">
         <is>
           <t>共创草坪</t>
         </is>
@@ -36756,6 +37424,11 @@
           <t>3板</t>
         </is>
       </c>
+      <c r="AT223" s="26" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="13" t="inlineStr">
@@ -36843,6 +37516,523 @@
           <t>2板</t>
         </is>
       </c>
+      <c r="AT224" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="13" t="inlineStr">
+        <is>
+          <t>002878</t>
+        </is>
+      </c>
+      <c r="B225" s="68" t="inlineStr">
+        <is>
+          <t>[数字文创资产+Web3.0+IP经济]</t>
+        </is>
+      </c>
+      <c r="C225" s="33" t="inlineStr">
+        <is>
+          <t>元隆雅图</t>
+        </is>
+      </c>
+      <c r="D225" s="17" t="n"/>
+      <c r="E225" s="17" t="n"/>
+      <c r="F225" s="17" t="n"/>
+      <c r="G225" s="17" t="n"/>
+      <c r="H225" s="17" t="n"/>
+      <c r="I225" s="17" t="n"/>
+      <c r="J225" s="17" t="n"/>
+      <c r="K225" s="17" t="n"/>
+      <c r="L225" s="17" t="n"/>
+      <c r="M225" s="17" t="n"/>
+      <c r="N225" s="17" t="n"/>
+      <c r="O225" s="17" t="n"/>
+      <c r="P225" s="17" t="n"/>
+      <c r="Q225" s="17" t="n"/>
+      <c r="R225" s="17" t="n"/>
+      <c r="S225" s="17" t="n"/>
+      <c r="T225" s="17" t="n"/>
+      <c r="U225" s="17" t="n"/>
+      <c r="V225" s="17" t="n"/>
+      <c r="W225" s="17" t="n"/>
+      <c r="X225" s="17" t="n"/>
+      <c r="Y225" s="17" t="n"/>
+      <c r="Z225" s="17" t="n"/>
+      <c r="AA225" s="17" t="n"/>
+      <c r="AB225" s="17" t="n"/>
+      <c r="AC225" s="17" t="n"/>
+      <c r="AD225" s="17" t="n"/>
+      <c r="AE225" s="17" t="n"/>
+      <c r="AF225" s="17" t="n"/>
+      <c r="AG225" s="17" t="n"/>
+      <c r="AH225" s="17" t="n"/>
+      <c r="AI225" s="17" t="n"/>
+      <c r="AJ225" s="17" t="n"/>
+      <c r="AK225" s="17" t="n"/>
+      <c r="AL225" s="17" t="n"/>
+      <c r="AM225" s="17" t="n"/>
+      <c r="AN225" s="17" t="n"/>
+      <c r="AO225" s="17" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
+      </c>
+      <c r="AP225" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AQ225" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AR225" s="17" t="inlineStr">
+        <is>
+          <t>-4.54%</t>
+        </is>
+      </c>
+      <c r="AS225" s="95" t="inlineStr">
+        <is>
+          <t>-7.71%</t>
+        </is>
+      </c>
+      <c r="AT225" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="13" t="inlineStr">
+        <is>
+          <t>002951</t>
+        </is>
+      </c>
+      <c r="B226" s="37" t="inlineStr">
+        <is>
+          <t>[储能+超级电容器+摘帽]</t>
+        </is>
+      </c>
+      <c r="C226" s="33" t="inlineStr">
+        <is>
+          <t>金时科技</t>
+        </is>
+      </c>
+      <c r="D226" s="17" t="n"/>
+      <c r="E226" s="17" t="n"/>
+      <c r="F226" s="17" t="n"/>
+      <c r="G226" s="17" t="n"/>
+      <c r="H226" s="17" t="n"/>
+      <c r="I226" s="17" t="n"/>
+      <c r="J226" s="17" t="n"/>
+      <c r="K226" s="17" t="n"/>
+      <c r="L226" s="17" t="n"/>
+      <c r="M226" s="17" t="n"/>
+      <c r="N226" s="17" t="n"/>
+      <c r="O226" s="17" t="n"/>
+      <c r="P226" s="17" t="n"/>
+      <c r="Q226" s="17" t="n"/>
+      <c r="R226" s="17" t="n"/>
+      <c r="S226" s="17" t="n"/>
+      <c r="T226" s="17" t="n"/>
+      <c r="U226" s="17" t="n"/>
+      <c r="V226" s="17" t="n"/>
+      <c r="W226" s="17" t="n"/>
+      <c r="X226" s="17" t="n"/>
+      <c r="Y226" s="17" t="n"/>
+      <c r="Z226" s="17" t="n"/>
+      <c r="AA226" s="17" t="n"/>
+      <c r="AB226" s="17" t="n"/>
+      <c r="AC226" s="17" t="n"/>
+      <c r="AD226" s="17" t="n"/>
+      <c r="AE226" s="17" t="n"/>
+      <c r="AF226" s="17" t="n"/>
+      <c r="AG226" s="17" t="n"/>
+      <c r="AH226" s="17" t="n"/>
+      <c r="AI226" s="17" t="n"/>
+      <c r="AJ226" s="17" t="n"/>
+      <c r="AK226" s="17" t="n"/>
+      <c r="AL226" s="17" t="n"/>
+      <c r="AM226" s="17" t="n"/>
+      <c r="AN226" s="17" t="n"/>
+      <c r="AO226" s="17" t="inlineStr">
+        <is>
+          <t>-4.18%</t>
+        </is>
+      </c>
+      <c r="AP226" s="17" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="AQ226" s="17" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="AR226" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AS226" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AT226" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="13" t="inlineStr">
+        <is>
+          <t>600551</t>
+        </is>
+      </c>
+      <c r="B227" s="37" t="inlineStr">
+        <is>
+          <t>[参股京东金融+出版+课后服务+国企改革]</t>
+        </is>
+      </c>
+      <c r="C227" s="33" t="inlineStr">
+        <is>
+          <t>时代出版</t>
+        </is>
+      </c>
+      <c r="D227" s="17" t="n"/>
+      <c r="E227" s="17" t="n"/>
+      <c r="F227" s="17" t="n"/>
+      <c r="G227" s="17" t="n"/>
+      <c r="H227" s="17" t="n"/>
+      <c r="I227" s="17" t="n"/>
+      <c r="J227" s="17" t="n"/>
+      <c r="K227" s="17" t="n"/>
+      <c r="L227" s="17" t="n"/>
+      <c r="M227" s="17" t="n"/>
+      <c r="N227" s="17" t="n"/>
+      <c r="O227" s="17" t="n"/>
+      <c r="P227" s="17" t="n"/>
+      <c r="Q227" s="17" t="n"/>
+      <c r="R227" s="17" t="n"/>
+      <c r="S227" s="17" t="n"/>
+      <c r="T227" s="17" t="n"/>
+      <c r="U227" s="17" t="n"/>
+      <c r="V227" s="17" t="n"/>
+      <c r="W227" s="17" t="n"/>
+      <c r="X227" s="17" t="n"/>
+      <c r="Y227" s="17" t="n"/>
+      <c r="Z227" s="17" t="n"/>
+      <c r="AA227" s="17" t="n"/>
+      <c r="AB227" s="17" t="n"/>
+      <c r="AC227" s="17" t="n"/>
+      <c r="AD227" s="17" t="n"/>
+      <c r="AE227" s="17" t="n"/>
+      <c r="AF227" s="17" t="n"/>
+      <c r="AG227" s="17" t="n"/>
+      <c r="AH227" s="17" t="n"/>
+      <c r="AI227" s="17" t="n"/>
+      <c r="AJ227" s="17" t="n"/>
+      <c r="AK227" s="17" t="n"/>
+      <c r="AL227" s="17" t="n"/>
+      <c r="AM227" s="17" t="n"/>
+      <c r="AN227" s="17" t="n"/>
+      <c r="AO227" s="17" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="AP227" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AQ227" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AR227" s="80" t="inlineStr">
+        <is>
+          <t>-8.09%</t>
+        </is>
+      </c>
+      <c r="AS227" s="17" t="inlineStr">
+        <is>
+          <t>-3.57%</t>
+        </is>
+      </c>
+      <c r="AT227" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="13" t="inlineStr">
+        <is>
+          <t>603093</t>
+        </is>
+      </c>
+      <c r="B228" s="37" t="inlineStr">
+        <is>
+          <t>[期货经纪+风险管理+H股上市+股份回购]</t>
+        </is>
+      </c>
+      <c r="C228" s="33" t="inlineStr">
+        <is>
+          <t>南华期货</t>
+        </is>
+      </c>
+      <c r="D228" s="17" t="n"/>
+      <c r="E228" s="17" t="n"/>
+      <c r="F228" s="17" t="n"/>
+      <c r="G228" s="17" t="n"/>
+      <c r="H228" s="17" t="n"/>
+      <c r="I228" s="17" t="n"/>
+      <c r="J228" s="17" t="n"/>
+      <c r="K228" s="17" t="n"/>
+      <c r="L228" s="17" t="n"/>
+      <c r="M228" s="17" t="n"/>
+      <c r="N228" s="17" t="n"/>
+      <c r="O228" s="17" t="n"/>
+      <c r="P228" s="17" t="n"/>
+      <c r="Q228" s="17" t="n"/>
+      <c r="R228" s="17" t="n"/>
+      <c r="S228" s="17" t="n"/>
+      <c r="T228" s="17" t="n"/>
+      <c r="U228" s="17" t="n"/>
+      <c r="V228" s="17" t="n"/>
+      <c r="W228" s="17" t="n"/>
+      <c r="X228" s="17" t="n"/>
+      <c r="Y228" s="17" t="n"/>
+      <c r="Z228" s="17" t="n"/>
+      <c r="AA228" s="17" t="n"/>
+      <c r="AB228" s="17" t="n"/>
+      <c r="AC228" s="17" t="n"/>
+      <c r="AD228" s="17" t="n"/>
+      <c r="AE228" s="17" t="n"/>
+      <c r="AF228" s="17" t="n"/>
+      <c r="AG228" s="17" t="n"/>
+      <c r="AH228" s="17" t="n"/>
+      <c r="AI228" s="17" t="n"/>
+      <c r="AJ228" s="17" t="n"/>
+      <c r="AK228" s="17" t="n"/>
+      <c r="AL228" s="17" t="n"/>
+      <c r="AM228" s="17" t="n"/>
+      <c r="AN228" s="17" t="n"/>
+      <c r="AO228" s="17" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="AP228" s="17" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="AQ228" s="17" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="AR228" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AS228" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AT228" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="13" t="inlineStr">
+        <is>
+          <t>603226</t>
+        </is>
+      </c>
+      <c r="B229" s="37" t="inlineStr">
+        <is>
+          <t>[股权转让+实控人变更+木地板+智能家居]</t>
+        </is>
+      </c>
+      <c r="C229" s="33" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="D229" s="17" t="n"/>
+      <c r="E229" s="17" t="n"/>
+      <c r="F229" s="17" t="n"/>
+      <c r="G229" s="17" t="n"/>
+      <c r="H229" s="17" t="n"/>
+      <c r="I229" s="17" t="n"/>
+      <c r="J229" s="17" t="n"/>
+      <c r="K229" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="L229" s="17" t="n"/>
+      <c r="M229" s="17" t="n"/>
+      <c r="N229" s="17" t="n"/>
+      <c r="O229" s="17" t="n"/>
+      <c r="P229" s="17" t="n"/>
+      <c r="Q229" s="17" t="n"/>
+      <c r="R229" s="17" t="n"/>
+      <c r="S229" s="17" t="n"/>
+      <c r="T229" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="U229" s="17" t="n"/>
+      <c r="V229" s="17" t="n"/>
+      <c r="W229" s="17" t="n"/>
+      <c r="X229" s="17" t="n"/>
+      <c r="Y229" s="17" t="n"/>
+      <c r="Z229" s="17" t="n"/>
+      <c r="AA229" s="17" t="n"/>
+      <c r="AB229" s="17" t="n"/>
+      <c r="AC229" s="17" t="n"/>
+      <c r="AD229" s="17" t="n"/>
+      <c r="AE229" s="17" t="n"/>
+      <c r="AF229" s="17" t="n"/>
+      <c r="AG229" s="17" t="n"/>
+      <c r="AH229" s="17" t="n"/>
+      <c r="AI229" s="17" t="n"/>
+      <c r="AJ229" s="17" t="n"/>
+      <c r="AK229" s="17" t="n"/>
+      <c r="AL229" s="17" t="n"/>
+      <c r="AM229" s="17" t="n"/>
+      <c r="AN229" s="17" t="n"/>
+      <c r="AO229" s="17" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
+      <c r="AP229" s="17" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
+      </c>
+      <c r="AQ229" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AR229" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="AS229" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AT229" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="13" t="inlineStr">
+        <is>
+          <t>300368</t>
+        </is>
+      </c>
+      <c r="B230" s="37" t="inlineStr">
+        <is>
+          <t>[摘帽+金融科技+智能制造+国企改革]</t>
+        </is>
+      </c>
+      <c r="C230" s="33" t="inlineStr">
+        <is>
+          <t>汇金股份*</t>
+        </is>
+      </c>
+      <c r="D230" s="17" t="n"/>
+      <c r="E230" s="17" t="n"/>
+      <c r="F230" s="17" t="n"/>
+      <c r="G230" s="17" t="n"/>
+      <c r="H230" s="17" t="n"/>
+      <c r="I230" s="17" t="n"/>
+      <c r="J230" s="17" t="n"/>
+      <c r="K230" s="17" t="n"/>
+      <c r="L230" s="17" t="n"/>
+      <c r="M230" s="17" t="n"/>
+      <c r="N230" s="17" t="n"/>
+      <c r="O230" s="17" t="n"/>
+      <c r="P230" s="17" t="n"/>
+      <c r="Q230" s="17" t="n"/>
+      <c r="R230" s="17" t="n"/>
+      <c r="S230" s="17" t="n"/>
+      <c r="T230" s="17" t="n"/>
+      <c r="U230" s="17" t="n"/>
+      <c r="V230" s="17" t="n"/>
+      <c r="W230" s="17" t="n"/>
+      <c r="X230" s="17" t="n"/>
+      <c r="Y230" s="17" t="n"/>
+      <c r="Z230" s="17" t="n"/>
+      <c r="AA230" s="17" t="n"/>
+      <c r="AB230" s="17" t="n"/>
+      <c r="AC230" s="17" t="n"/>
+      <c r="AD230" s="17" t="n"/>
+      <c r="AE230" s="17" t="n"/>
+      <c r="AF230" s="17" t="n"/>
+      <c r="AG230" s="17" t="n"/>
+      <c r="AH230" s="17" t="n"/>
+      <c r="AI230" s="17" t="n"/>
+      <c r="AJ230" s="17" t="n"/>
+      <c r="AK230" s="17" t="n"/>
+      <c r="AL230" s="17" t="n"/>
+      <c r="AM230" s="17" t="n"/>
+      <c r="AN230" s="17" t="n"/>
+      <c r="AO230" s="17" t="inlineStr">
+        <is>
+          <t>-4.08%</t>
+        </is>
+      </c>
+      <c r="AP230" s="19" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AQ230" s="17" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="AR230" s="17" t="inlineStr">
+        <is>
+          <t>-2.31%</t>
+        </is>
+      </c>
+      <c r="AS230" s="19" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AT230" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36869,426 +38059,426 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="188" t="inlineStr">
+      <c r="A1" s="191" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="189" t="n"/>
+      <c r="B1" s="192" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="190" t="inlineStr">
+      <c r="A2" s="193" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="190" t="inlineStr">
+      <c r="B2" s="193" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="191" t="inlineStr">
-        <is>
-          <t>新消费</t>
-        </is>
-      </c>
-      <c r="B3" s="189" t="n">
-        <v>16</v>
+      <c r="A3" s="194" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B3" s="192" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="192" t="inlineStr">
-        <is>
-          <t>稳定币</t>
-        </is>
-      </c>
-      <c r="B4" s="189" t="n">
-        <v>8</v>
+      <c r="A4" s="195" t="inlineStr">
+        <is>
+          <t>跨境</t>
+        </is>
+      </c>
+      <c r="B4" s="192" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="193" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B5" s="189" t="n">
-        <v>25</v>
+      <c r="A5" s="196" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B5" s="192" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="194" t="inlineStr">
-        <is>
-          <t>跨境</t>
-        </is>
-      </c>
-      <c r="B6" s="189" t="n">
-        <v>50</v>
+      <c r="A6" s="197" t="inlineStr">
+        <is>
+          <t>传统消费</t>
+        </is>
+      </c>
+      <c r="B6" s="192" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="195" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B7" s="189" t="n">
-        <v>29</v>
+      <c r="A7" s="198" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B7" s="192" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="196" t="inlineStr">
-        <is>
-          <t>传统消费</t>
-        </is>
-      </c>
-      <c r="B8" s="189" t="n">
-        <v>28</v>
+      <c r="A8" s="199" t="inlineStr">
+        <is>
+          <t>新能源</t>
+        </is>
+      </c>
+      <c r="B8" s="192" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="197" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B9" s="189" t="n">
-        <v>23</v>
+      <c r="A9" s="200" t="inlineStr">
+        <is>
+          <t>化工</t>
+        </is>
+      </c>
+      <c r="B9" s="192" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="198" t="inlineStr">
-        <is>
-          <t>新能源</t>
-        </is>
-      </c>
-      <c r="B10" s="189" t="n">
-        <v>21</v>
+      <c r="A10" s="201" t="inlineStr">
+        <is>
+          <t>新消费</t>
+        </is>
+      </c>
+      <c r="B10" s="192" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="199" t="inlineStr">
-        <is>
-          <t>化工</t>
-        </is>
-      </c>
-      <c r="B11" s="189" t="n">
-        <v>19</v>
+      <c r="A11" s="202" t="inlineStr">
+        <is>
+          <t>核聚变</t>
+        </is>
+      </c>
+      <c r="B11" s="192" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="190" t="inlineStr">
+      <c r="A12" s="193" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="189" t="n"/>
+      <c r="B12" s="192" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="189" t="inlineStr">
-        <is>
-          <t>核聚变</t>
-        </is>
-      </c>
-      <c r="B13" s="189" t="n">
-        <v>16</v>
+      <c r="A13" s="192" t="inlineStr">
+        <is>
+          <t>无人经济</t>
+        </is>
+      </c>
+      <c r="B13" s="192" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="189" t="inlineStr">
-        <is>
-          <t>无人经济</t>
-        </is>
-      </c>
-      <c r="B14" s="189" t="n">
+      <c r="A14" s="192" t="inlineStr">
+        <is>
+          <t>AI大模型</t>
+        </is>
+      </c>
+      <c r="B14" s="192" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="189" t="inlineStr">
-        <is>
-          <t>AI大模型</t>
-        </is>
-      </c>
-      <c r="B15" s="189" t="n">
-        <v>14</v>
+      <c r="A15" s="192" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+      <c r="B15" s="192" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="189" t="inlineStr">
-        <is>
-          <t>汽车</t>
-        </is>
-      </c>
-      <c r="B16" s="189" t="n">
-        <v>12</v>
+      <c r="A16" s="192" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="B16" s="192" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="189" t="inlineStr">
-        <is>
-          <t>半导体</t>
-        </is>
-      </c>
-      <c r="B17" s="189" t="n">
+      <c r="A17" s="192" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+      <c r="B17" s="192" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="189" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-      <c r="B18" s="189" t="n">
-        <v>10</v>
+      <c r="A18" s="192" t="inlineStr">
+        <is>
+          <t>重组</t>
+        </is>
+      </c>
+      <c r="B18" s="192" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="189" t="inlineStr">
-        <is>
-          <t>重组</t>
-        </is>
-      </c>
-      <c r="B19" s="189" t="n">
-        <v>9</v>
+      <c r="A19" s="192" t="inlineStr">
+        <is>
+          <t>稳定币</t>
+        </is>
+      </c>
+      <c r="B19" s="192" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="189" t="inlineStr">
+      <c r="A20" s="192" t="inlineStr">
         <is>
           <t>AI算力</t>
         </is>
       </c>
-      <c r="B20" s="189" t="n">
+      <c r="B20" s="192" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="189" t="inlineStr">
+      <c r="A21" s="192" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B21" s="189" t="n">
+      <c r="B21" s="192" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="189" t="inlineStr">
+      <c r="A22" s="192" t="inlineStr">
         <is>
           <t>新型材料</t>
         </is>
       </c>
-      <c r="B22" s="189" t="n">
+      <c r="B22" s="192" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="189" t="inlineStr">
+      <c r="A23" s="192" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B23" s="189" t="n">
+      <c r="B23" s="192" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="189" t="inlineStr">
+      <c r="A24" s="192" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="189" t="n">
-        <v>6</v>
+      <c r="B24" s="192" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="189" t="inlineStr">
+      <c r="A25" s="192" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B25" s="189" t="n">
+      <c r="B25" s="192" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="189" t="inlineStr">
+      <c r="A26" s="192" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="189" t="n">
+      <c r="B26" s="192" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="189" t="inlineStr">
+      <c r="A27" s="192" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="189" t="n">
+      <c r="B27" s="192" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="189" t="inlineStr">
+      <c r="A28" s="192" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B28" s="189" t="n">
-        <v>2</v>
+      <c r="B28" s="192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="189" t="inlineStr">
+      <c r="A29" s="192" t="inlineStr">
         <is>
           <t>小米概念</t>
         </is>
       </c>
-      <c r="B29" s="189" t="n">
+      <c r="B29" s="192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="190" t="inlineStr">
+      <c r="A30" s="193" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B30" s="189" t="n"/>
+      <c r="B30" s="192" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="189" t="inlineStr">
+      <c r="A31" s="192" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B31" s="189" t="n">
+      <c r="B31" s="192" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="189" t="inlineStr">
+      <c r="A32" s="192" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B32" s="189" t="n">
-        <v>9</v>
+      <c r="B32" s="192" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="189" t="inlineStr">
+      <c r="A33" s="192" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B33" s="189" t="n">
-        <v>55</v>
+      <c r="B33" s="192" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="200" t="inlineStr">
+      <c r="A34" s="203" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B34" s="189" t="n"/>
+      <c r="B34" s="192" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="190" t="inlineStr">
+      <c r="A35" s="193" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B35" s="189" t="n"/>
+      <c r="B35" s="192" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="201" t="inlineStr">
+      <c r="A36" s="204" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B36" s="189" t="n"/>
+      <c r="B36" s="192" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="202" t="inlineStr">
+      <c r="A37" s="205" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B37" s="189" t="n"/>
+      <c r="B37" s="192" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="203" t="inlineStr">
+      <c r="A38" s="206" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B38" s="189" t="n"/>
+      <c r="B38" s="192" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="204" t="inlineStr">
+      <c r="A39" s="207" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B39" s="189" t="n"/>
+      <c r="B39" s="192" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="205" t="inlineStr">
+      <c r="A40" s="208" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B40" s="189" t="n"/>
+      <c r="B40" s="192" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="206" t="inlineStr">
+      <c r="A41" s="209" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B41" s="189" t="n"/>
+      <c r="B41" s="192" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="190" t="inlineStr">
+      <c r="A42" s="193" t="inlineStr">
         <is>
           <t>重复入选颜色</t>
         </is>
       </c>
-      <c r="B42" s="189" t="n"/>
+      <c r="B42" s="192" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="207" t="inlineStr">
+      <c r="A43" s="210" t="inlineStr">
         <is>
           <t>2次入选</t>
         </is>
       </c>
-      <c r="B43" s="189" t="n"/>
+      <c r="B43" s="192" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="208" t="inlineStr">
+      <c r="A44" s="211" t="inlineStr">
         <is>
           <t>3次入选</t>
         </is>
       </c>
-      <c r="B44" s="189" t="n"/>
+      <c r="B44" s="192" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="209" t="inlineStr">
+      <c r="A45" s="212" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B45" s="189" t="n"/>
+      <c r="B45" s="192" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -51,7 +51,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="224">
+  <fills count="221">
     <fill>
       <patternFill/>
     </fill>
@@ -817,12 +817,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AAFFAA"/>
-        <bgColor rgb="00AAFFAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0094FF94"/>
         <bgColor rgb="0094FF94"/>
       </patternFill>
@@ -1033,12 +1027,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E8FFE8"/>
         <bgColor rgb="00E8FFE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0080FF80"/>
-        <bgColor rgb="0080FF80"/>
       </patternFill>
     </fill>
     <fill>
@@ -1277,12 +1265,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF2C"/>
-        <bgColor rgb="00FFFF2C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFF56"/>
         <bgColor rgb="00FFFF56"/>
       </patternFill>
@@ -1393,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1794,10 +1776,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1874,11 +1856,11 @@
     <xf numFmtId="0" fontId="0" fillId="159" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="160" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="161" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="162" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2054,15 +2036,6 @@
     <xf numFmtId="0" fontId="0" fillId="219" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="220" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="221" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="222" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,15 +2050,15 @@
     <xf numFmtId="0" fontId="0" fillId="123" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="223" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="220" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="129" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="161" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="160" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="77" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -10952,7 +10925,7 @@
       </c>
       <c r="Z4" s="17" t="inlineStr">
         <is>
-          <t>4.36%</t>
+          <t>4.36%[3.7]</t>
         </is>
       </c>
       <c r="AA4" s="17" t="inlineStr">
@@ -11054,12 +11027,12 @@
       </c>
       <c r="D5" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[8.5]</t>
         </is>
       </c>
       <c r="E5" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.9]</t>
         </is>
       </c>
       <c r="F5" s="17" t="inlineStr">
@@ -11289,44 +11262,44 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
-        <is>
-          <t>-9.99%</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="inlineStr">
-        <is>
-          <t>-9.98%</t>
-        </is>
-      </c>
-      <c r="G6" s="18" t="inlineStr">
-        <is>
-          <t>-9.98%</t>
-        </is>
-      </c>
-      <c r="H6" s="18" t="inlineStr">
-        <is>
-          <t>-9.58%</t>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="G6" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="I6" s="17" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="J6" s="17" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="L6" s="17" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11406,7 @@
       </c>
       <c r="U7" s="17" t="inlineStr">
         <is>
-          <t>-0.48%</t>
+          <t>-0.48%[2.8]</t>
         </is>
       </c>
       <c r="V7" s="17" t="inlineStr">
@@ -11652,7 +11625,7 @@
       </c>
       <c r="E9" s="18" t="inlineStr">
         <is>
-          <t>-9.91%</t>
+          <t>-9.91%[3.2]</t>
         </is>
       </c>
       <c r="F9" s="18" t="inlineStr">
@@ -11801,7 +11774,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.1]</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -11851,7 +11824,7 @@
       </c>
       <c r="AM11" s="17" t="inlineStr">
         <is>
-          <t>-5.95%</t>
+          <t>-5.95%[3.9]</t>
         </is>
       </c>
       <c r="AN11" s="17" t="inlineStr">
@@ -11913,7 +11886,7 @@
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>6.76%[3.1]</t>
         </is>
       </c>
       <c r="F12" s="23" t="inlineStr">
@@ -11998,7 +11971,7 @@
       </c>
       <c r="AF12" s="17" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>5.89%[2.9]</t>
         </is>
       </c>
       <c r="AG12" s="17" t="inlineStr">
@@ -12658,12 +12631,12 @@
       </c>
       <c r="E17" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-2.58%[4.3]</t>
         </is>
       </c>
       <c r="G17" s="18" t="inlineStr">
@@ -12728,12 +12701,12 @@
       </c>
       <c r="W17" s="17" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>1.78%[3.2]</t>
         </is>
       </c>
       <c r="X17" s="17" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>5.23%[2.9]</t>
         </is>
       </c>
       <c r="Y17" s="17" t="inlineStr">
@@ -12800,12 +12773,12 @@
       </c>
       <c r="G18" s="17" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.32%[8.5]</t>
         </is>
       </c>
       <c r="H18" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.3]</t>
         </is>
       </c>
       <c r="I18" s="40" t="inlineStr">
@@ -12850,12 +12823,12 @@
       </c>
       <c r="AF18" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="AG18" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.3]</t>
         </is>
       </c>
       <c r="AH18" s="17" t="inlineStr">
@@ -13007,7 +12980,7 @@
       </c>
       <c r="S19" s="17" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.79%[3.5]</t>
         </is>
       </c>
       <c r="T19" s="18" t="inlineStr">
@@ -13047,7 +13020,7 @@
       </c>
       <c r="AP19" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.2]</t>
         </is>
       </c>
       <c r="AQ19" s="17" t="inlineStr">
@@ -13114,12 +13087,12 @@
       </c>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[24.8]</t>
         </is>
       </c>
       <c r="I20" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[2.8]</t>
         </is>
       </c>
       <c r="J20" s="17" t="inlineStr">
@@ -13321,7 +13294,7 @@
       </c>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-3.38%[4.3]</t>
         </is>
       </c>
       <c r="F21" s="23" t="inlineStr">
@@ -13376,7 +13349,7 @@
       </c>
       <c r="AU21" s="17" t="inlineStr">
         <is>
-          <t>-3.17%</t>
+          <t>-3.17%[5.3]</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13648,7 @@
       </c>
       <c r="AJ23" s="17" t="inlineStr">
         <is>
-          <t>1.87%</t>
+          <t>1.87%[2.8]</t>
         </is>
       </c>
       <c r="AK23" s="17" t="inlineStr">
@@ -13705,7 +13678,7 @@
       </c>
       <c r="AP23" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.2]</t>
         </is>
       </c>
       <c r="AQ23" s="18" t="inlineStr">
@@ -13854,12 +13827,12 @@
       </c>
       <c r="F25" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.4]</t>
         </is>
       </c>
       <c r="G25" s="67" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>8.42%[3.4]</t>
         </is>
       </c>
       <c r="H25" s="17" t="inlineStr">
@@ -14031,12 +14004,12 @@
       </c>
       <c r="F26" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[7.1]</t>
         </is>
       </c>
       <c r="G26" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.0]</t>
         </is>
       </c>
       <c r="H26" s="26" t="inlineStr">
@@ -14051,12 +14024,12 @@
       </c>
       <c r="J26" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[2.9]</t>
         </is>
       </c>
       <c r="K26" s="18" t="inlineStr">
         <is>
-          <t>-10.08%</t>
+          <t>-10.08%[3.0]</t>
         </is>
       </c>
       <c r="L26" s="68" t="inlineStr">
@@ -14143,7 +14116,7 @@
       </c>
       <c r="J27" s="69" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>7.59%[14.4]</t>
         </is>
       </c>
       <c r="K27" s="18" t="inlineStr">
@@ -14188,7 +14161,7 @@
       </c>
       <c r="AF27" s="17" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>3.50%[2.7]</t>
         </is>
       </c>
       <c r="AG27" s="17" t="inlineStr">
@@ -14402,24 +14375,24 @@
       </c>
       <c r="F29" s="19" t="inlineStr">
         <is>
+          <t>首板*[10.5]</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
+        <is>
+          <t>-3.33%[4.9]</t>
+        </is>
+      </c>
+      <c r="H29" s="73" t="inlineStr">
+        <is>
+          <t>7.45%</t>
+        </is>
+      </c>
+      <c r="I29" s="19" t="inlineStr">
+        <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>-3.33%</t>
-        </is>
-      </c>
-      <c r="H29" s="73" t="inlineStr">
-        <is>
-          <t>7.45%</t>
-        </is>
-      </c>
-      <c r="I29" s="19" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
       <c r="J29" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -14467,7 +14440,7 @@
       </c>
       <c r="AE29" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.5]</t>
         </is>
       </c>
       <c r="AF29" s="17" t="inlineStr">
@@ -14594,7 +14567,7 @@
       </c>
       <c r="AF30" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.9]</t>
         </is>
       </c>
       <c r="AG30" s="17" t="inlineStr">
@@ -14666,12 +14639,12 @@
       </c>
       <c r="F31" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[7.3]</t>
         </is>
       </c>
       <c r="G31" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.9]</t>
         </is>
       </c>
       <c r="H31" s="23" t="inlineStr">
@@ -14691,12 +14664,12 @@
       </c>
       <c r="K31" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[4.3]</t>
         </is>
       </c>
       <c r="L31" s="17" t="inlineStr">
         <is>
-          <t>-3.94%</t>
+          <t>-3.94%[3.4]</t>
         </is>
       </c>
       <c r="M31" s="18" t="inlineStr">
@@ -14868,17 +14841,17 @@
       </c>
       <c r="F32" s="17" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>4.97%[2.8]</t>
         </is>
       </c>
       <c r="G32" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[8.8]</t>
         </is>
       </c>
       <c r="H32" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.3]</t>
         </is>
       </c>
       <c r="I32" s="40" t="inlineStr">
@@ -14950,12 +14923,12 @@
       </c>
       <c r="F33" s="79" t="inlineStr">
         <is>
-          <t>7.25%</t>
+          <t>7.25%[3.4]</t>
         </is>
       </c>
       <c r="G33" s="19" t="inlineStr">
         <is>
-          <t>首板**</t>
+          <t>首板**[6.0]</t>
         </is>
       </c>
       <c r="H33" s="22" t="inlineStr">
@@ -15119,7 +15092,7 @@
       </c>
       <c r="G35" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.6]</t>
         </is>
       </c>
       <c r="H35" s="23" t="inlineStr">
@@ -15169,12 +15142,12 @@
       </c>
       <c r="AQ35" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[7.7]</t>
         </is>
       </c>
       <c r="AR35" s="17" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.88%[3.5]</t>
         </is>
       </c>
       <c r="AS35" s="17" t="inlineStr">
@@ -15221,7 +15194,7 @@
       </c>
       <c r="F36" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.1]</t>
         </is>
       </c>
       <c r="G36" s="22" t="inlineStr">
@@ -15241,17 +15214,17 @@
       </c>
       <c r="J36" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[6.2]</t>
         </is>
       </c>
       <c r="K36" s="18" t="inlineStr">
         <is>
-          <t>-9.92%</t>
+          <t>-9.92%[2.6]</t>
         </is>
       </c>
       <c r="L36" s="17" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>5.33%[2.6]</t>
         </is>
       </c>
       <c r="M36" s="17" t="inlineStr">
@@ -15318,7 +15291,7 @@
       </c>
       <c r="G37" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.7]</t>
         </is>
       </c>
       <c r="H37" s="23" t="inlineStr">
@@ -15343,12 +15316,12 @@
       </c>
       <c r="L37" s="28" t="inlineStr">
         <is>
-          <t>7板</t>
+          <t>7板[5.1]</t>
         </is>
       </c>
       <c r="M37" s="17" t="inlineStr">
         <is>
-          <t>-6.03%</t>
+          <t>-6.03%[4.9]</t>
         </is>
       </c>
       <c r="N37" s="61" t="inlineStr">
@@ -15555,12 +15528,12 @@
       </c>
       <c r="H38" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[6.2]</t>
         </is>
       </c>
       <c r="I38" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.6]</t>
         </is>
       </c>
       <c r="J38" s="89" t="inlineStr">
@@ -15605,12 +15578,12 @@
       </c>
       <c r="AS38" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.2]</t>
         </is>
       </c>
       <c r="AT38" s="17" t="inlineStr">
         <is>
-          <t>-5.56%</t>
+          <t>-5.56%[4.1]</t>
         </is>
       </c>
       <c r="AU38" s="17" t="inlineStr">
@@ -15647,12 +15620,12 @@
       </c>
       <c r="F39" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.2]</t>
         </is>
       </c>
       <c r="G39" s="17" t="inlineStr">
         <is>
-          <t>-4.10%</t>
+          <t>-4.10%[3.6]</t>
         </is>
       </c>
       <c r="H39" s="22" t="inlineStr">
@@ -16106,22 +16079,22 @@
       </c>
       <c r="F41" s="17" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>2.30%[3.0]</t>
         </is>
       </c>
       <c r="G41" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[9.3]</t>
         </is>
       </c>
       <c r="H41" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.3]</t>
         </is>
       </c>
       <c r="I41" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="J41" s="17" t="inlineStr">
@@ -16193,12 +16166,12 @@
       </c>
       <c r="F42" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.8]</t>
         </is>
       </c>
       <c r="G42" s="17" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>1.57%[2.9]</t>
         </is>
       </c>
       <c r="H42" s="22" t="inlineStr">
@@ -16290,7 +16263,7 @@
       </c>
       <c r="I43" s="95" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>7.99%[2.6]</t>
         </is>
       </c>
       <c r="J43" s="96" t="inlineStr">
@@ -16357,12 +16330,12 @@
       </c>
       <c r="F44" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.1]</t>
         </is>
       </c>
       <c r="G44" s="17" t="inlineStr">
         <is>
-          <t>-4.13%</t>
+          <t>-4.13%[4.2]</t>
         </is>
       </c>
       <c r="H44" s="22" t="inlineStr">
@@ -16382,7 +16355,7 @@
       </c>
       <c r="K44" s="17" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>1.65%[3.5]</t>
         </is>
       </c>
       <c r="L44" s="18" t="inlineStr">
@@ -16449,17 +16422,17 @@
       </c>
       <c r="F45" s="17" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>2.57%[3.3]</t>
         </is>
       </c>
       <c r="G45" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[9.6]</t>
         </is>
       </c>
       <c r="H45" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.6]</t>
         </is>
       </c>
       <c r="I45" s="23" t="inlineStr">
@@ -16469,7 +16442,7 @@
       </c>
       <c r="J45" s="17" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>4.27%[2.6]</t>
         </is>
       </c>
       <c r="K45" s="18" t="inlineStr">
@@ -16541,22 +16514,22 @@
       </c>
       <c r="G46" s="17" t="inlineStr">
         <is>
-          <t>-3.61%</t>
+          <t>-3.61%[4.8]</t>
         </is>
       </c>
       <c r="H46" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="I46" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="J46" s="17" t="inlineStr">
         <is>
-          <t>-0.55%</t>
+          <t>-0.55%[2.6]</t>
         </is>
       </c>
       <c r="K46" s="17" t="inlineStr">
@@ -16775,7 +16748,7 @@
       </c>
       <c r="I48" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.5]</t>
         </is>
       </c>
       <c r="J48" s="23" t="inlineStr">
@@ -16850,7 +16823,7 @@
       </c>
       <c r="AJ48" s="17" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.88%[2.5]</t>
         </is>
       </c>
       <c r="AK48" s="17" t="inlineStr">
@@ -16932,12 +16905,12 @@
       </c>
       <c r="I49" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.7]</t>
         </is>
       </c>
       <c r="J49" s="40" t="inlineStr">
         <is>
-          <t>15.92%</t>
+          <t>15.92%[2.8]</t>
         </is>
       </c>
       <c r="K49" s="18" t="inlineStr">
@@ -17049,22 +17022,22 @@
       </c>
       <c r="G50" s="18" t="inlineStr">
         <is>
-          <t>-13.26%</t>
+          <t>-13.26%[2.9]</t>
         </is>
       </c>
       <c r="H50" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.6]</t>
         </is>
       </c>
       <c r="I50" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[6.3]</t>
         </is>
       </c>
       <c r="J50" s="17" t="inlineStr">
         <is>
-          <t>-2.80%</t>
+          <t>-2.80%[2.7]</t>
         </is>
       </c>
       <c r="K50" s="101" t="inlineStr">
@@ -17136,7 +17109,7 @@
       </c>
       <c r="G51" s="18" t="inlineStr">
         <is>
-          <t>-20.00%</t>
+          <t>-20.00%[2.8]</t>
         </is>
       </c>
       <c r="H51" s="17" t="inlineStr">
@@ -17146,7 +17119,7 @@
       </c>
       <c r="I51" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.6]</t>
         </is>
       </c>
       <c r="J51" s="17" t="inlineStr">
@@ -17218,12 +17191,12 @@
       </c>
       <c r="G52" s="17" t="inlineStr">
         <is>
-          <t>-2.59%</t>
+          <t>-2.59%[3.5]</t>
         </is>
       </c>
       <c r="H52" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.8]</t>
         </is>
       </c>
       <c r="I52" s="22" t="inlineStr">
@@ -17238,7 +17211,7 @@
       </c>
       <c r="K52" s="17" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>4.90%[5.7]</t>
         </is>
       </c>
       <c r="L52" s="17" t="inlineStr">
@@ -17335,7 +17308,7 @@
       </c>
       <c r="M53" s="18" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>-10.00%[13.3]</t>
         </is>
       </c>
       <c r="N53" s="18" t="inlineStr">
@@ -17417,7 +17390,7 @@
       </c>
       <c r="J54" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.6]</t>
         </is>
       </c>
       <c r="K54" s="17" t="inlineStr">
@@ -17616,7 +17589,7 @@
       </c>
       <c r="G56" s="18" t="inlineStr">
         <is>
-          <t>-19.15%</t>
+          <t>-19.15%[3.1]</t>
         </is>
       </c>
       <c r="H56" s="17" t="inlineStr">
@@ -17626,62 +17599,62 @@
       </c>
       <c r="I56" s="19" t="inlineStr">
         <is>
+          <t>首板*[3.2]</t>
+        </is>
+      </c>
+      <c r="J56" s="22" t="inlineStr">
+        <is>
+          <t>2板[5.3]</t>
+        </is>
+      </c>
+      <c r="K56" s="18" t="inlineStr">
+        <is>
+          <t>-10.19%</t>
+        </is>
+      </c>
+      <c r="L56" s="17" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
+      <c r="M56" s="17" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="N56" s="17" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="O56" s="17" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="P56" s="17" t="inlineStr">
+        <is>
+          <t>-4.77%</t>
+        </is>
+      </c>
+      <c r="Q56" s="17" t="inlineStr">
+        <is>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="R56" s="17" t="inlineStr">
+        <is>
+          <t>-1.64%</t>
+        </is>
+      </c>
+      <c r="AB56" s="19" t="inlineStr">
+        <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="J56" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="K56" s="18" t="inlineStr">
-        <is>
-          <t>-10.19%</t>
-        </is>
-      </c>
-      <c r="L56" s="17" t="inlineStr">
-        <is>
-          <t>1.99%</t>
-        </is>
-      </c>
-      <c r="M56" s="17" t="inlineStr">
-        <is>
-          <t>-4.31%</t>
-        </is>
-      </c>
-      <c r="N56" s="17" t="inlineStr">
-        <is>
-          <t>5.63%</t>
-        </is>
-      </c>
-      <c r="O56" s="17" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="P56" s="17" t="inlineStr">
-        <is>
-          <t>-4.77%</t>
-        </is>
-      </c>
-      <c r="Q56" s="17" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
-      <c r="R56" s="17" t="inlineStr">
-        <is>
-          <t>-1.64%</t>
-        </is>
-      </c>
-      <c r="AB56" s="19" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
       <c r="AC56" s="17" t="inlineStr">
         <is>
-          <t>-1.55%</t>
+          <t>-1.55%[2.6]</t>
         </is>
       </c>
       <c r="AD56" s="17" t="inlineStr">
@@ -17835,12 +17808,12 @@
       </c>
       <c r="F58" s="19" t="inlineStr">
         <is>
-          <t>首板**</t>
+          <t>首板**[6.9]</t>
         </is>
       </c>
       <c r="G58" s="17" t="inlineStr">
         <is>
-          <t>3.12%</t>
+          <t>3.12%[3.5]</t>
         </is>
       </c>
       <c r="H58" s="40" t="inlineStr">
@@ -17987,7 +17960,7 @@
       </c>
       <c r="K59" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="L59" s="17" t="inlineStr">
@@ -18037,7 +18010,7 @@
       </c>
       <c r="Y59" s="17" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>2.20%[3.6]</t>
         </is>
       </c>
       <c r="Z59" s="17" t="inlineStr">
@@ -18114,7 +18087,7 @@
       </c>
       <c r="J60" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.3]</t>
         </is>
       </c>
       <c r="K60" s="23" t="inlineStr">
@@ -18124,7 +18097,7 @@
       </c>
       <c r="L60" s="18" t="inlineStr">
         <is>
-          <t>-10.09%</t>
+          <t>-10.09%[2.7]</t>
         </is>
       </c>
       <c r="M60" s="107" t="inlineStr">
@@ -18191,12 +18164,12 @@
       </c>
       <c r="H61" s="17" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>5.47%[3.6]</t>
         </is>
       </c>
       <c r="I61" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.2]</t>
         </is>
       </c>
       <c r="J61" s="22" t="inlineStr">
@@ -18206,12 +18179,12 @@
       </c>
       <c r="K61" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="L61" s="17" t="inlineStr">
         <is>
-          <t>-6.38%</t>
+          <t>-6.38%[2.7]</t>
         </is>
       </c>
       <c r="M61" s="17" t="inlineStr">
@@ -18283,7 +18256,7 @@
       </c>
       <c r="F62" s="17" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>5.58%[3.1]</t>
         </is>
       </c>
       <c r="G62" s="18" t="inlineStr">
@@ -18303,12 +18276,12 @@
       </c>
       <c r="J62" s="17" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>2.69%[3.5]</t>
         </is>
       </c>
       <c r="K62" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.9]</t>
         </is>
       </c>
       <c r="L62" s="17" t="inlineStr">
@@ -18395,7 +18368,7 @@
       </c>
       <c r="K63" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="L63" s="23" t="inlineStr">
@@ -18405,7 +18378,7 @@
       </c>
       <c r="M63" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[6.9]</t>
         </is>
       </c>
       <c r="N63" s="16" t="inlineStr">
@@ -18415,7 +18388,7 @@
       </c>
       <c r="O63" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[2.6]</t>
         </is>
       </c>
       <c r="P63" s="18" t="inlineStr">
@@ -18507,7 +18480,7 @@
       </c>
       <c r="L64" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.2]</t>
         </is>
       </c>
       <c r="M64" s="17" t="inlineStr">
@@ -18542,7 +18515,7 @@
       </c>
       <c r="S64" s="17" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>2.15%[3.4]</t>
         </is>
       </c>
       <c r="T64" s="110" t="inlineStr">
@@ -18664,12 +18637,12 @@
       </c>
       <c r="F65" s="17" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>3.67%[2.9]</t>
         </is>
       </c>
       <c r="G65" s="17" t="inlineStr">
         <is>
-          <t>-0.93%</t>
+          <t>-0.93%[3.6]</t>
         </is>
       </c>
       <c r="H65" s="17" t="inlineStr">
@@ -18776,12 +18749,12 @@
       </c>
       <c r="L66" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[7.4]</t>
         </is>
       </c>
       <c r="M66" s="18" t="inlineStr">
         <is>
-          <t>-9.98%</t>
+          <t>-9.98%[2.7]</t>
         </is>
       </c>
       <c r="N66" s="17" t="inlineStr">
@@ -18898,12 +18871,12 @@
       </c>
       <c r="N67" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[6.8]</t>
         </is>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.29%[13.2]</t>
         </is>
       </c>
       <c r="P67" s="17" t="inlineStr">
@@ -18913,7 +18886,7 @@
       </c>
       <c r="Q67" s="17" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>1.02%[2.8]</t>
         </is>
       </c>
       <c r="R67" s="17" t="inlineStr">
@@ -19167,12 +19140,12 @@
       </c>
       <c r="M69" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[5.2]</t>
         </is>
       </c>
       <c r="N69" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[4.6]</t>
         </is>
       </c>
       <c r="O69" s="17" t="inlineStr">
@@ -19658,12 +19631,12 @@
       </c>
       <c r="M72" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.7]</t>
         </is>
       </c>
       <c r="N72" s="17" t="inlineStr">
         <is>
-          <t>-5.70%</t>
+          <t>-5.70%[4.3]</t>
         </is>
       </c>
       <c r="O72" s="26" t="inlineStr">
@@ -19820,7 +19793,7 @@
       </c>
       <c r="K73" s="17" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>-2.72%[6.1]</t>
         </is>
       </c>
       <c r="L73" s="17" t="inlineStr">
@@ -19875,12 +19848,12 @@
       </c>
       <c r="AE73" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.2]</t>
         </is>
       </c>
       <c r="AF73" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.7]</t>
         </is>
       </c>
       <c r="AG73" s="29" t="inlineStr">
@@ -19947,102 +19920,102 @@
       </c>
       <c r="H74" s="17" t="inlineStr">
         <is>
+          <t>-0.72%</t>
+        </is>
+      </c>
+      <c r="I74" s="17" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="J74" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="K74" s="17" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="L74" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="M74" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="N74" s="17" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="O74" s="26" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="P74" s="17" t="inlineStr">
+        <is>
+          <t>-1.97%</t>
+        </is>
+      </c>
+      <c r="Q74" s="17" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="R74" s="17" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="S74" s="17" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="T74" s="17" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="U74" s="17" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="V74" s="17" t="inlineStr">
+        <is>
+          <t>-4.95%</t>
+        </is>
+      </c>
+      <c r="W74" s="17" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="AQ74" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AR74" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AS74" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AT74" s="17" t="inlineStr">
+        <is>
           <t>停牌</t>
-        </is>
-      </c>
-      <c r="I74" s="17" t="inlineStr">
-        <is>
-          <t>停牌</t>
-        </is>
-      </c>
-      <c r="J74" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="K74" s="17" t="inlineStr">
-        <is>
-          <t>停牌</t>
-        </is>
-      </c>
-      <c r="L74" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="M74" s="23" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="N74" s="17" t="inlineStr">
-        <is>
-          <t>-0.41%</t>
-        </is>
-      </c>
-      <c r="O74" s="26" t="inlineStr">
-        <is>
-          <t>4板</t>
-        </is>
-      </c>
-      <c r="P74" s="17" t="inlineStr">
-        <is>
-          <t>-1.97%</t>
-        </is>
-      </c>
-      <c r="Q74" s="17" t="inlineStr">
-        <is>
-          <t>-1.01%</t>
-        </is>
-      </c>
-      <c r="R74" s="17" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="S74" s="17" t="inlineStr">
-        <is>
-          <t>2.19%</t>
-        </is>
-      </c>
-      <c r="T74" s="17" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="U74" s="17" t="inlineStr">
-        <is>
-          <t>1.68%</t>
-        </is>
-      </c>
-      <c r="V74" s="17" t="inlineStr">
-        <is>
-          <t>-4.95%</t>
-        </is>
-      </c>
-      <c r="W74" s="17" t="inlineStr">
-        <is>
-          <t>1.73%</t>
-        </is>
-      </c>
-      <c r="AQ74" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AR74" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AS74" s="23" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="AT74" s="18" t="inlineStr">
-        <is>
-          <t>-9.95%</t>
         </is>
       </c>
       <c r="AU74" s="26" t="inlineStr">
@@ -20104,7 +20077,7 @@
       </c>
       <c r="O75" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.9]</t>
         </is>
       </c>
       <c r="P75" s="17" t="inlineStr">
@@ -20276,12 +20249,12 @@
       </c>
       <c r="H76" s="123" t="inlineStr">
         <is>
-          <t>7.28%</t>
+          <t>7.28%[3.0]</t>
         </is>
       </c>
       <c r="I76" s="17" t="inlineStr">
         <is>
-          <t>4.79%</t>
+          <t>4.79%[3.1]</t>
         </is>
       </c>
       <c r="J76" s="17" t="inlineStr">
@@ -20610,17 +20583,17 @@
       </c>
       <c r="L78" s="40" t="inlineStr">
         <is>
-          <t>12.96%</t>
+          <t>12.96%[4.3]</t>
         </is>
       </c>
       <c r="M78" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.9]</t>
         </is>
       </c>
       <c r="N78" s="17" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.88%[3.0]</t>
         </is>
       </c>
       <c r="O78" s="17" t="inlineStr">
@@ -20707,12 +20680,12 @@
       </c>
       <c r="O79" s="17" t="inlineStr">
         <is>
-          <t>-1.24%</t>
+          <t>-1.24%[21.3]</t>
         </is>
       </c>
       <c r="P79" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[4.2]</t>
         </is>
       </c>
       <c r="Q79" s="17" t="inlineStr">
@@ -21016,7 +20989,7 @@
       </c>
       <c r="J81" s="17" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>3.55%[2.6]</t>
         </is>
       </c>
       <c r="K81" s="17" t="inlineStr">
@@ -21041,7 +21014,7 @@
       </c>
       <c r="O81" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.8]</t>
         </is>
       </c>
       <c r="P81" s="18" t="inlineStr">
@@ -21183,12 +21156,12 @@
       </c>
       <c r="M82" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.5]</t>
         </is>
       </c>
       <c r="N82" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.7]</t>
         </is>
       </c>
       <c r="O82" s="23" t="inlineStr">
@@ -21305,12 +21278,12 @@
       </c>
       <c r="N83" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.9]</t>
         </is>
       </c>
       <c r="O83" s="17" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>3.93%[3.8]</t>
         </is>
       </c>
       <c r="P83" s="17" t="inlineStr">
@@ -21382,7 +21355,7 @@
       </c>
       <c r="M84" s="18" t="inlineStr">
         <is>
-          <t>-9.94%</t>
+          <t>-9.94%[3.0]</t>
         </is>
       </c>
       <c r="N84" s="17" t="inlineStr">
@@ -21397,7 +21370,7 @@
       </c>
       <c r="P84" s="17" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>1.97%[2.8]</t>
         </is>
       </c>
       <c r="Q84" s="17" t="inlineStr">
@@ -21474,12 +21447,12 @@
       </c>
       <c r="N85" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="O85" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="P85" s="26" t="inlineStr">
@@ -21571,7 +21544,7 @@
       </c>
       <c r="M86" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="N86" s="22" t="inlineStr">
@@ -21586,7 +21559,7 @@
       </c>
       <c r="P86" s="17" t="inlineStr">
         <is>
-          <t>2.64%</t>
+          <t>2.64%[8.0]</t>
         </is>
       </c>
       <c r="Q86" s="18" t="inlineStr">
@@ -21698,12 +21671,12 @@
       </c>
       <c r="N87" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.1]</t>
         </is>
       </c>
       <c r="O87" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="P87" s="18" t="inlineStr">
@@ -21825,7 +21798,7 @@
       </c>
       <c r="M88" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.8]</t>
         </is>
       </c>
       <c r="N88" s="22" t="inlineStr">
@@ -21845,12 +21818,12 @@
       </c>
       <c r="Q88" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[6.9]</t>
         </is>
       </c>
       <c r="R88" s="17" t="inlineStr">
         <is>
-          <t>4.47%</t>
+          <t>4.47%[4.5]</t>
         </is>
       </c>
       <c r="S88" s="17" t="inlineStr">
@@ -22029,12 +22002,12 @@
       </c>
       <c r="O90" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.9]</t>
         </is>
       </c>
       <c r="P90" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.3]</t>
         </is>
       </c>
       <c r="Q90" s="17" t="inlineStr">
@@ -22101,7 +22074,7 @@
       </c>
       <c r="J91" s="49" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>9.09%[4.3]</t>
         </is>
       </c>
       <c r="K91" s="134" t="inlineStr">
@@ -22547,22 +22520,22 @@
       </c>
       <c r="K94" s="17" t="inlineStr">
         <is>
-          <t>-1.91%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="L94" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="M94" s="17" t="inlineStr">
         <is>
-          <t>3.61%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="N94" s="17" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="O94" s="19" t="inlineStr">
@@ -22587,42 +22560,42 @@
       </c>
       <c r="S94" s="17" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="T94" s="17" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="U94" s="18" t="inlineStr">
         <is>
-          <t>-9.93%</t>
+          <t>-9.98%</t>
         </is>
       </c>
       <c r="V94" s="18" t="inlineStr">
         <is>
-          <t>-10.08%</t>
+          <t>-10.13%</t>
         </is>
       </c>
       <c r="W94" s="18" t="inlineStr">
         <is>
-          <t>-9.94%</t>
+          <t>-10.00%</t>
         </is>
       </c>
       <c r="X94" s="17" t="inlineStr">
         <is>
-          <t>-6.57%</t>
+          <t>-6.62%</t>
         </is>
       </c>
       <c r="Y94" s="17" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>3.29%</t>
         </is>
       </c>
       <c r="Z94" s="17" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="AE94" s="19" t="inlineStr">
@@ -22632,7 +22605,7 @@
       </c>
       <c r="AF94" s="17" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="AG94" s="17" t="inlineStr">
@@ -22642,32 +22615,32 @@
       </c>
       <c r="AH94" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AI94" s="17" t="inlineStr">
         <is>
-          <t>-3.13%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AJ94" s="17" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AK94" s="17" t="inlineStr">
         <is>
-          <t>-4.55%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AL94" s="17" t="inlineStr">
         <is>
-          <t>-3.10%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AM94" s="17" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AR94" s="19" t="inlineStr">
@@ -22677,17 +22650,17 @@
       </c>
       <c r="AS94" s="17" t="inlineStr">
         <is>
-          <t>-5.13%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AT94" s="17" t="inlineStr">
         <is>
-          <t>-2.16%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AU94" s="17" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -22734,12 +22707,12 @@
       </c>
       <c r="P95" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[5.9]</t>
         </is>
       </c>
       <c r="Q95" s="17" t="inlineStr">
         <is>
-          <t>3.81%</t>
+          <t>3.81%[3.7]</t>
         </is>
       </c>
       <c r="R95" s="17" t="inlineStr">
@@ -22816,12 +22789,12 @@
       </c>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[24.8]</t>
         </is>
       </c>
       <c r="I96" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[2.8]</t>
         </is>
       </c>
       <c r="L96" s="28" t="inlineStr">
@@ -23028,12 +23001,12 @@
       </c>
       <c r="P97" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.9]</t>
         </is>
       </c>
       <c r="Q97" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.7]</t>
         </is>
       </c>
       <c r="R97" s="26" t="inlineStr">
@@ -23185,12 +23158,12 @@
       </c>
       <c r="N98" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.2]</t>
         </is>
       </c>
       <c r="O98" s="17" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>1.93%[2.7]</t>
         </is>
       </c>
       <c r="P98" s="17" t="inlineStr">
@@ -23292,7 +23265,7 @@
       </c>
       <c r="R99" s="17" t="inlineStr">
         <is>
-          <t>4.03%</t>
+          <t>4.03%[6.2]</t>
         </is>
       </c>
       <c r="S99" s="17" t="inlineStr">
@@ -23492,44 +23465,44 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="V100" s="140" t="inlineStr">
-        <is>
-          <t>-8.29%</t>
+      <c r="V100" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="W100" s="17" t="inlineStr">
         <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="X100" s="18" t="inlineStr">
-        <is>
-          <t>-10.01%</t>
-        </is>
-      </c>
-      <c r="Y100" s="54" t="inlineStr">
-        <is>
-          <t>-7.42%</t>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="X100" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
+      <c r="Y100" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="Z100" s="17" t="inlineStr">
         <is>
-          <t>1.92%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AA100" s="17" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AB100" s="17" t="inlineStr">
         <is>
-          <t>-5.22%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AC100" s="17" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23534,7 @@
       </c>
       <c r="N101" s="17" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>3.00%[2.6]</t>
         </is>
       </c>
       <c r="O101" s="17" t="inlineStr">
@@ -23581,7 +23554,7 @@
       </c>
       <c r="R101" s="17" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.31%[2.8]</t>
         </is>
       </c>
       <c r="S101" s="17" t="inlineStr">
@@ -23626,7 +23599,7 @@
       </c>
       <c r="AB101" s="17" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.47%[3.1]</t>
         </is>
       </c>
       <c r="AC101" s="17" t="inlineStr">
@@ -23688,7 +23661,7 @@
       </c>
       <c r="I102" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.7]</t>
         </is>
       </c>
       <c r="L102" s="17" t="inlineStr">
@@ -23813,7 +23786,7 @@
           <t>-0.24%</t>
         </is>
       </c>
-      <c r="S103" s="141" t="inlineStr">
+      <c r="S103" s="140" t="inlineStr">
         <is>
           <t>-8.61%</t>
         </is>
@@ -23860,7 +23833,7 @@
           <t>[注射液获临床试验批准+创新药+血友病治疗药物]</t>
         </is>
       </c>
-      <c r="C104" s="142" t="inlineStr">
+      <c r="C104" s="141" t="inlineStr">
         <is>
           <t>舒泰神*</t>
         </is>
@@ -24024,7 +23997,7 @@
       </c>
       <c r="N105" s="17" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>1.33%[2.6]</t>
         </is>
       </c>
       <c r="O105" s="19" t="inlineStr">
@@ -24047,7 +24020,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="S105" s="143" t="inlineStr">
+      <c r="S105" s="142" t="inlineStr">
         <is>
           <t>-8.49%</t>
         </is>
@@ -24062,7 +24035,7 @@
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="V105" s="144" t="inlineStr">
+      <c r="V105" s="143" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -24094,7 +24067,7 @@
       </c>
       <c r="AB105" s="17" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-1.48%[2.7]</t>
         </is>
       </c>
       <c r="AC105" s="17" t="inlineStr">
@@ -24171,7 +24144,7 @@
       </c>
       <c r="M106" s="17" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>5.98%[3.6]</t>
         </is>
       </c>
       <c r="N106" s="17" t="inlineStr">
@@ -24201,7 +24174,7 @@
       </c>
       <c r="S106" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.3]</t>
         </is>
       </c>
       <c r="T106" s="16" t="inlineStr">
@@ -24211,7 +24184,7 @@
       </c>
       <c r="U106" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[5.6]</t>
         </is>
       </c>
       <c r="V106" s="18" t="inlineStr">
@@ -24301,9 +24274,9 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="S107" s="145" t="inlineStr">
-        <is>
-          <t>-8.70%</t>
+      <c r="S107" s="144" t="inlineStr">
+        <is>
+          <t>-8.70%[3.9]</t>
         </is>
       </c>
       <c r="T107" s="17" t="inlineStr">
@@ -24311,7 +24284,7 @@
           <t>-6.00%</t>
         </is>
       </c>
-      <c r="U107" s="146" t="inlineStr">
+      <c r="U107" s="145" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -24380,7 +24353,7 @@
       </c>
       <c r="Q108" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.7]</t>
         </is>
       </c>
       <c r="R108" s="23" t="inlineStr">
@@ -24467,7 +24440,7 @@
       </c>
       <c r="F109" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.2]</t>
         </is>
       </c>
       <c r="H109" s="22" t="inlineStr">
@@ -24684,107 +24657,107 @@
       </c>
       <c r="K110" s="22" t="inlineStr">
         <is>
+          <t>2板[3.4]</t>
+        </is>
+      </c>
+      <c r="M110" s="17" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
+      <c r="N110" s="17" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="O110" s="17" t="inlineStr">
+        <is>
+          <t>-5.05%</t>
+        </is>
+      </c>
+      <c r="P110" s="17" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="Q110" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="R110" s="22" t="inlineStr">
+        <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="M110" s="17" t="inlineStr">
-        <is>
-          <t>-2.45%</t>
-        </is>
-      </c>
-      <c r="N110" s="17" t="inlineStr">
-        <is>
-          <t>2.67%</t>
-        </is>
-      </c>
-      <c r="O110" s="17" t="inlineStr">
-        <is>
-          <t>-5.05%</t>
-        </is>
-      </c>
-      <c r="P110" s="17" t="inlineStr">
-        <is>
-          <t>-1.29%</t>
-        </is>
-      </c>
-      <c r="Q110" s="19" t="inlineStr">
+      <c r="S110" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="T110" s="26" t="inlineStr">
+        <is>
+          <t>4板[9.5]</t>
+        </is>
+      </c>
+      <c r="U110" s="17" t="inlineStr">
+        <is>
+          <t>0.22%[3.0]</t>
+        </is>
+      </c>
+      <c r="V110" s="18" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
+        </is>
+      </c>
+      <c r="W110" s="18" t="inlineStr">
+        <is>
+          <t>-10.04%</t>
+        </is>
+      </c>
+      <c r="X110" s="17" t="inlineStr">
+        <is>
+          <t>-4.27%</t>
+        </is>
+      </c>
+      <c r="Y110" s="17" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="Z110" s="17" t="inlineStr">
+        <is>
+          <t>-2.08%</t>
+        </is>
+      </c>
+      <c r="AA110" s="17" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="AB110" s="17" t="inlineStr">
+        <is>
+          <t>-2.21%</t>
+        </is>
+      </c>
+      <c r="AP110" s="19" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="R110" s="22" t="inlineStr">
+      <c r="AQ110" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="S110" s="23" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="T110" s="26" t="inlineStr">
-        <is>
-          <t>4板</t>
-        </is>
-      </c>
-      <c r="U110" s="17" t="inlineStr">
-        <is>
-          <t>0.22%</t>
-        </is>
-      </c>
-      <c r="V110" s="18" t="inlineStr">
-        <is>
-          <t>-10.03%</t>
-        </is>
-      </c>
-      <c r="W110" s="18" t="inlineStr">
-        <is>
-          <t>-10.04%</t>
-        </is>
-      </c>
-      <c r="X110" s="17" t="inlineStr">
-        <is>
-          <t>-4.27%</t>
-        </is>
-      </c>
-      <c r="Y110" s="17" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
-      <c r="Z110" s="17" t="inlineStr">
-        <is>
-          <t>-2.08%</t>
-        </is>
-      </c>
-      <c r="AA110" s="17" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="AB110" s="17" t="inlineStr">
-        <is>
-          <t>-2.21%</t>
-        </is>
-      </c>
-      <c r="AP110" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AQ110" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
       <c r="AR110" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="AS110" s="147" t="inlineStr">
-        <is>
-          <t>-7.31%</t>
+          <t>3板[3.0]</t>
+        </is>
+      </c>
+      <c r="AS110" s="146" t="inlineStr">
+        <is>
+          <t>-7.31%[2.6]</t>
         </is>
       </c>
       <c r="AT110" s="17" t="inlineStr">
@@ -24826,7 +24799,7 @@
       </c>
       <c r="L111" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.2]</t>
         </is>
       </c>
       <c r="M111" s="17" t="inlineStr">
@@ -24861,7 +24834,7 @@
       </c>
       <c r="S111" s="17" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>2.15%[3.4]</t>
         </is>
       </c>
       <c r="T111" s="110" t="inlineStr">
@@ -25018,7 +24991,7 @@
       </c>
       <c r="S112" s="17" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.79%[3.5]</t>
         </is>
       </c>
       <c r="T112" s="18" t="inlineStr">
@@ -25058,7 +25031,7 @@
       </c>
       <c r="AP112" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.2]</t>
         </is>
       </c>
       <c r="AQ112" s="17" t="inlineStr">
@@ -25140,7 +25113,7 @@
       </c>
       <c r="T113" s="111" t="inlineStr">
         <is>
-          <t>8.35%</t>
+          <t>8.35%[8.8]</t>
         </is>
       </c>
       <c r="U113" s="18" t="inlineStr">
@@ -25163,7 +25136,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="Y113" s="148" t="inlineStr">
+      <c r="Y113" s="147" t="inlineStr">
         <is>
           <t>7.67%</t>
         </is>
@@ -25222,7 +25195,7 @@
       </c>
       <c r="R114" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.7]</t>
         </is>
       </c>
       <c r="S114" s="125" t="inlineStr">
@@ -25267,12 +25240,12 @@
       </c>
       <c r="AP114" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.7]</t>
         </is>
       </c>
       <c r="AQ114" s="17" t="inlineStr">
         <is>
-          <t>3.41%</t>
+          <t>3.41%[2.9]</t>
         </is>
       </c>
       <c r="AR114" s="17" t="inlineStr">
@@ -25344,12 +25317,12 @@
       </c>
       <c r="T115" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[11.2]</t>
         </is>
       </c>
       <c r="U115" s="17" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>2.12%[3.5]</t>
         </is>
       </c>
       <c r="V115" s="17" t="inlineStr">
@@ -25496,22 +25469,22 @@
       </c>
       <c r="R116" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.4]</t>
         </is>
       </c>
       <c r="S116" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.6]</t>
         </is>
       </c>
       <c r="T116" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.9]</t>
         </is>
       </c>
       <c r="U116" s="17" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>2.44%[3.8]</t>
         </is>
       </c>
       <c r="V116" s="17" t="inlineStr">
@@ -25539,7 +25512,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AA116" s="149" t="inlineStr">
+      <c r="AA116" s="148" t="inlineStr">
         <is>
           <t>-8.99%</t>
         </is>
@@ -25663,7 +25636,7 @@
       </c>
       <c r="T117" s="40" t="inlineStr">
         <is>
-          <t>16.88%</t>
+          <t>16.88%[2.9]</t>
         </is>
       </c>
       <c r="U117" s="17" t="inlineStr">
@@ -25730,7 +25703,7 @@
       </c>
       <c r="P118" s="17" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>4.12%[3.6]</t>
         </is>
       </c>
       <c r="Q118" s="17" t="inlineStr">
@@ -25755,7 +25728,7 @@
       </c>
       <c r="U118" s="17" t="inlineStr">
         <is>
-          <t>-6.94%</t>
+          <t>-6.94%[4.8]</t>
         </is>
       </c>
       <c r="V118" s="18" t="inlineStr">
@@ -25885,7 +25858,7 @@
           <t>0.38%</t>
         </is>
       </c>
-      <c r="X119" s="150" t="inlineStr">
+      <c r="X119" s="149" t="inlineStr">
         <is>
           <t>7.04%</t>
         </is>
@@ -25905,7 +25878,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AB119" s="151" t="inlineStr">
+      <c r="AB119" s="150" t="inlineStr">
         <is>
           <t>-8.38%</t>
         </is>
@@ -25962,12 +25935,12 @@
           <t>-2.04%</t>
         </is>
       </c>
-      <c r="V120" s="152" t="inlineStr">
+      <c r="V120" s="151" t="inlineStr">
         <is>
           <t>-8.71%</t>
         </is>
       </c>
-      <c r="W120" s="153" t="inlineStr">
+      <c r="W120" s="152" t="inlineStr">
         <is>
           <t>-7.78%</t>
         </is>
@@ -26061,7 +26034,7 @@
       </c>
       <c r="O121" s="17" t="inlineStr">
         <is>
-          <t>4.74%</t>
+          <t>4.74%[3.3]</t>
         </is>
       </c>
       <c r="P121" s="17" t="inlineStr">
@@ -26101,12 +26074,12 @@
       </c>
       <c r="W121" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.00%[13.2]</t>
         </is>
       </c>
       <c r="X121" s="18" t="inlineStr">
         <is>
-          <t>-10.03%</t>
+          <t>-10.03%[2.6]</t>
         </is>
       </c>
       <c r="Y121" s="17" t="inlineStr">
@@ -26114,7 +26087,7 @@
           <t>-5.94%</t>
         </is>
       </c>
-      <c r="Z121" s="154" t="inlineStr">
+      <c r="Z121" s="153" t="inlineStr">
         <is>
           <t>8.53%</t>
         </is>
@@ -26146,7 +26119,7 @@
       </c>
       <c r="AL121" s="17" t="inlineStr">
         <is>
-          <t>3.91%</t>
+          <t>3.91%[2.7]</t>
         </is>
       </c>
       <c r="AM121" s="17" t="inlineStr">
@@ -26251,7 +26224,7 @@
           <t>1.14%</t>
         </is>
       </c>
-      <c r="V122" s="155" t="inlineStr">
+      <c r="V122" s="154" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -26266,7 +26239,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Y122" s="156" t="inlineStr">
+      <c r="Y122" s="155" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -26286,7 +26259,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AC122" s="157" t="inlineStr">
+      <c r="AC122" s="156" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -26355,17 +26328,17 @@
       </c>
       <c r="R123" s="17" t="inlineStr">
         <is>
-          <t>4.07%</t>
+          <t>4.07%[2.8]</t>
         </is>
       </c>
       <c r="S123" s="17" t="inlineStr">
         <is>
-          <t>6.51%</t>
+          <t>6.51%[2.8]</t>
         </is>
       </c>
       <c r="T123" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.6]</t>
         </is>
       </c>
       <c r="U123" s="17" t="inlineStr">
@@ -26457,12 +26430,12 @@
       </c>
       <c r="R124" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.1]</t>
         </is>
       </c>
       <c r="S124" s="17" t="inlineStr">
         <is>
-          <t>-4.64%</t>
+          <t>-4.64%[3.3]</t>
         </is>
       </c>
       <c r="T124" s="17" t="inlineStr">
@@ -26539,7 +26512,7 @@
       </c>
       <c r="M125" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.6]</t>
         </is>
       </c>
       <c r="P125" s="17" t="inlineStr">
@@ -26808,7 +26781,7 @@
       </c>
       <c r="W127" s="17" t="inlineStr">
         <is>
-          <t>5.36%</t>
+          <t>5.36%[9.9]</t>
         </is>
       </c>
       <c r="X127" s="18" t="inlineStr">
@@ -26925,12 +26898,12 @@
       </c>
       <c r="W128" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[4.2]</t>
         </is>
       </c>
       <c r="X128" s="17" t="inlineStr">
         <is>
-          <t>-2.47%</t>
+          <t>-2.47%[3.0]</t>
         </is>
       </c>
       <c r="Y128" s="17" t="inlineStr">
@@ -27057,7 +27030,7 @@
       </c>
       <c r="U129" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.1]</t>
         </is>
       </c>
       <c r="V129" s="17" t="inlineStr">
@@ -27139,12 +27112,12 @@
       </c>
       <c r="U130" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.4]</t>
         </is>
       </c>
       <c r="V130" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.1]</t>
         </is>
       </c>
       <c r="W130" s="23" t="inlineStr">
@@ -27154,12 +27127,12 @@
       </c>
       <c r="X130" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[5.6]</t>
         </is>
       </c>
       <c r="Y130" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[2.6]</t>
         </is>
       </c>
       <c r="Z130" s="27" t="inlineStr">
@@ -27311,7 +27284,7 @@
       </c>
       <c r="T131" s="17" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.21%[2.6]</t>
         </is>
       </c>
       <c r="U131" s="19" t="inlineStr">
@@ -27326,17 +27299,17 @@
       </c>
       <c r="W131" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.4]</t>
         </is>
       </c>
       <c r="X131" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.5]</t>
         </is>
       </c>
       <c r="Y131" s="113" t="inlineStr">
         <is>
-          <t>8.31%</t>
+          <t>8.31%[4.7]</t>
         </is>
       </c>
       <c r="Z131" s="17" t="inlineStr">
@@ -27448,7 +27421,7 @@
       </c>
       <c r="S132" s="17" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>3.25%[2.8]</t>
         </is>
       </c>
       <c r="T132" s="17" t="inlineStr">
@@ -27463,7 +27436,7 @@
       </c>
       <c r="V132" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.5]</t>
         </is>
       </c>
       <c r="W132" s="17" t="inlineStr">
@@ -27588,7 +27561,7 @@
           <t>-3.71%</t>
         </is>
       </c>
-      <c r="Y133" s="158" t="inlineStr">
+      <c r="Y133" s="157" t="inlineStr">
         <is>
           <t>-7.73%</t>
         </is>
@@ -27603,7 +27576,7 @@
           <t>15.60%</t>
         </is>
       </c>
-      <c r="AB133" s="159" t="inlineStr">
+      <c r="AB133" s="158" t="inlineStr">
         <is>
           <t>-8.43%</t>
         </is>
@@ -27652,7 +27625,7 @@
       </c>
       <c r="U134" s="17" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>2.16%[3.8]</t>
         </is>
       </c>
       <c r="V134" s="17" t="inlineStr">
@@ -27847,7 +27820,7 @@
           <t>-4.06%</t>
         </is>
       </c>
-      <c r="AO135" s="160" t="inlineStr">
+      <c r="AO135" s="159" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -27909,9 +27882,9 @@
           <t>4.40%</t>
         </is>
       </c>
-      <c r="T136" s="161" t="inlineStr">
-        <is>
-          <t>9.16%</t>
+      <c r="T136" s="160" t="inlineStr">
+        <is>
+          <t>9.16%[2.8]</t>
         </is>
       </c>
       <c r="U136" s="17" t="inlineStr">
@@ -27926,7 +27899,7 @@
       </c>
       <c r="W136" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.1]</t>
         </is>
       </c>
       <c r="X136" s="40" t="inlineStr">
@@ -27954,7 +27927,7 @@
           <t>-5.16%</t>
         </is>
       </c>
-      <c r="AC136" s="162" t="inlineStr">
+      <c r="AC136" s="161" t="inlineStr">
         <is>
           <t>7.44%</t>
         </is>
@@ -28066,7 +28039,7 @@
           <t>-3.17%</t>
         </is>
       </c>
-      <c r="AE137" s="163" t="inlineStr">
+      <c r="AE137" s="162" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
@@ -28115,17 +28088,17 @@
       </c>
       <c r="X138" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[6.0]</t>
         </is>
       </c>
       <c r="Y138" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.7]</t>
         </is>
       </c>
       <c r="Z138" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[2.6]</t>
         </is>
       </c>
       <c r="AA138" s="18" t="inlineStr">
@@ -28212,12 +28185,12 @@
       </c>
       <c r="X139" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.8]</t>
         </is>
       </c>
       <c r="Y139" s="17" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>5.42%[2.9]</t>
         </is>
       </c>
       <c r="Z139" s="17" t="inlineStr">
@@ -28230,7 +28203,7 @@
           <t>1.88%</t>
         </is>
       </c>
-      <c r="AB139" s="164" t="inlineStr">
+      <c r="AB139" s="163" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -28471,75 +28444,75 @@
       </c>
       <c r="V141" s="19" t="inlineStr">
         <is>
+          <t>首板[4.7]</t>
+        </is>
+      </c>
+      <c r="W141" s="22" t="inlineStr">
+        <is>
+          <t>2板[2.8]</t>
+        </is>
+      </c>
+      <c r="X141" s="17" t="inlineStr">
+        <is>
+          <t>5.46%[4.3]</t>
+        </is>
+      </c>
+      <c r="Y141" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="Z141" s="17" t="inlineStr">
+        <is>
+          <t>6.62%</t>
+        </is>
+      </c>
+      <c r="AA141" s="17" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
+      <c r="AB141" s="164" t="inlineStr">
+        <is>
+          <t>-8.88%</t>
+        </is>
+      </c>
+      <c r="AC141" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="W141" s="22" t="inlineStr">
+      <c r="AD141" s="17" t="inlineStr">
+        <is>
+          <t>-2.95%</t>
+        </is>
+      </c>
+      <c r="AE141" s="17" t="inlineStr">
+        <is>
+          <t>6.30%</t>
+        </is>
+      </c>
+      <c r="AF141" s="17" t="inlineStr">
+        <is>
+          <t>-6.13%</t>
+        </is>
+      </c>
+      <c r="AG141" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AH141" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="X141" s="17" t="inlineStr">
-        <is>
-          <t>5.46%</t>
-        </is>
-      </c>
-      <c r="Y141" s="23" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="Z141" s="17" t="inlineStr">
-        <is>
-          <t>6.62%</t>
-        </is>
-      </c>
-      <c r="AA141" s="17" t="inlineStr">
-        <is>
-          <t>-5.21%</t>
-        </is>
-      </c>
-      <c r="AB141" s="165" t="inlineStr">
-        <is>
-          <t>-8.88%</t>
-        </is>
-      </c>
-      <c r="AC141" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AD141" s="17" t="inlineStr">
-        <is>
-          <t>-2.95%</t>
-        </is>
-      </c>
-      <c r="AE141" s="17" t="inlineStr">
-        <is>
-          <t>6.30%</t>
-        </is>
-      </c>
-      <c r="AF141" s="17" t="inlineStr">
-        <is>
-          <t>-6.13%</t>
-        </is>
-      </c>
-      <c r="AG141" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AH141" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
       <c r="AI141" s="17" t="inlineStr">
         <is>
           <t>6.12%</t>
         </is>
       </c>
-      <c r="AJ141" s="166" t="inlineStr">
+      <c r="AJ141" s="165" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -28608,7 +28581,7 @@
       </c>
       <c r="W142" s="18" t="inlineStr">
         <is>
-          <t>-9.67%</t>
+          <t>-9.67%[4.4]</t>
         </is>
       </c>
       <c r="X142" s="41" t="inlineStr">
@@ -28636,7 +28609,7 @@
           <t>9.62%</t>
         </is>
       </c>
-      <c r="AC142" s="167" t="inlineStr">
+      <c r="AC142" s="166" t="inlineStr">
         <is>
           <t>-7.18%</t>
         </is>
@@ -28720,12 +28693,12 @@
       </c>
       <c r="Y143" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[6.0]</t>
         </is>
       </c>
       <c r="Z143" s="17" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>1.32%[3.5]</t>
         </is>
       </c>
       <c r="AA143" s="18" t="inlineStr">
@@ -28797,7 +28770,7 @@
       </c>
       <c r="W144" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.6]</t>
         </is>
       </c>
       <c r="X144" s="22" t="inlineStr">
@@ -28812,12 +28785,12 @@
       </c>
       <c r="Z144" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.9]</t>
         </is>
       </c>
       <c r="AA144" s="18" t="inlineStr">
         <is>
-          <t>-10.03%</t>
+          <t>-10.03%[3.5]</t>
         </is>
       </c>
       <c r="AB144" s="17" t="inlineStr">
@@ -28857,12 +28830,12 @@
       </c>
       <c r="AP144" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.6]</t>
         </is>
       </c>
       <c r="AQ144" s="17" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>3.26%[3.5]</t>
         </is>
       </c>
       <c r="AR144" s="17" t="inlineStr">
@@ -28904,7 +28877,7 @@
       </c>
       <c r="T145" s="17" t="inlineStr">
         <is>
-          <t>2.90%</t>
+          <t>2.90%[2.7]</t>
         </is>
       </c>
       <c r="U145" s="17" t="inlineStr">
@@ -28924,7 +28897,7 @@
       </c>
       <c r="X145" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.6]</t>
         </is>
       </c>
       <c r="Y145" s="23" t="inlineStr">
@@ -28934,7 +28907,7 @@
       </c>
       <c r="Z145" s="139" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>7.39%[3.0]</t>
         </is>
       </c>
       <c r="AA145" s="17" t="inlineStr">
@@ -29046,12 +29019,12 @@
       </c>
       <c r="W146" s="17" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>2.81%[11.1]</t>
         </is>
       </c>
       <c r="X146" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.1]</t>
         </is>
       </c>
       <c r="Y146" s="23" t="inlineStr">
@@ -29061,10 +29034,10 @@
       </c>
       <c r="Z146" s="17" t="inlineStr">
         <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="AA146" s="168" t="inlineStr">
+          <t>0.65%[3.5]</t>
+        </is>
+      </c>
+      <c r="AA146" s="167" t="inlineStr">
         <is>
           <t>-8.82%</t>
         </is>
@@ -29143,7 +29116,7 @@
       </c>
       <c r="Y147" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.6]</t>
         </is>
       </c>
       <c r="Z147" s="17" t="inlineStr">
@@ -29198,56 +29171,56 @@
           <t>[曾研发外骨骼机器人用电缆+军工+电线电缆+低空经济]</t>
         </is>
       </c>
-      <c r="C148" s="169" t="inlineStr">
+      <c r="C148" s="168" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
+          <t>首板[4.4]</t>
+        </is>
+      </c>
+      <c r="F148" s="22" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="L148" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="F148" s="22" t="inlineStr">
+      <c r="T148" s="17" t="inlineStr">
+        <is>
+          <t>-3.39%</t>
+        </is>
+      </c>
+      <c r="U148" s="17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="V148" s="17" t="inlineStr">
+        <is>
+          <t>-4.56%</t>
+        </is>
+      </c>
+      <c r="W148" s="17" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="X148" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="Y148" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="L148" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="T148" s="17" t="inlineStr">
-        <is>
-          <t>-3.39%</t>
-        </is>
-      </c>
-      <c r="U148" s="17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="V148" s="17" t="inlineStr">
-        <is>
-          <t>-4.56%</t>
-        </is>
-      </c>
-      <c r="W148" s="17" t="inlineStr">
-        <is>
-          <t>-0.74%</t>
-        </is>
-      </c>
-      <c r="X148" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="Y148" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
       <c r="Z148" s="23" t="inlineStr">
         <is>
           <t>3板</t>
@@ -29255,12 +29228,12 @@
       </c>
       <c r="AA148" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[6.1]</t>
         </is>
       </c>
       <c r="AB148" s="17" t="inlineStr">
         <is>
-          <t>-4.80%</t>
+          <t>-4.80%[7.3]</t>
         </is>
       </c>
       <c r="AC148" s="16" t="inlineStr">
@@ -29278,7 +29251,7 @@
           <t>-6.19%</t>
         </is>
       </c>
-      <c r="AF148" s="165" t="inlineStr">
+      <c r="AF148" s="164" t="inlineStr">
         <is>
           <t>-8.88%</t>
         </is>
@@ -29402,17 +29375,17 @@
       </c>
       <c r="Y149" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.2]</t>
         </is>
       </c>
       <c r="Z149" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.3]</t>
         </is>
       </c>
       <c r="AA149" s="17" t="inlineStr">
         <is>
-          <t>-1.30%</t>
+          <t>-1.30%[5.8]</t>
         </is>
       </c>
       <c r="AB149" s="72" t="inlineStr">
@@ -29649,22 +29622,22 @@
           <t>1.71%</t>
         </is>
       </c>
-      <c r="X151" s="170" t="inlineStr">
-        <is>
-          <t>8.89%</t>
+      <c r="X151" s="169" t="inlineStr">
+        <is>
+          <t>8.89%[3.4]</t>
         </is>
       </c>
       <c r="Y151" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="Z151" s="171" t="inlineStr">
-        <is>
-          <t>8.46%</t>
-        </is>
-      </c>
-      <c r="AA151" s="172" t="inlineStr">
+          <t>首板*[3.0]</t>
+        </is>
+      </c>
+      <c r="Z151" s="170" t="inlineStr">
+        <is>
+          <t>8.46%[3.8]</t>
+        </is>
+      </c>
+      <c r="AA151" s="171" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
@@ -29684,7 +29657,7 @@
           <t>-2.23%</t>
         </is>
       </c>
-      <c r="AE151" s="173" t="inlineStr">
+      <c r="AE151" s="172" t="inlineStr">
         <is>
           <t>7.48%</t>
         </is>
@@ -29810,7 +29783,7 @@
       </c>
       <c r="G153" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.7]</t>
         </is>
       </c>
       <c r="H153" s="23" t="inlineStr">
@@ -29835,7 +29808,7 @@
       </c>
       <c r="L153" s="28" t="inlineStr">
         <is>
-          <t>7板</t>
+          <t>7板[5.1]</t>
         </is>
       </c>
       <c r="N153" s="61" t="inlineStr">
@@ -30167,7 +30140,7 @@
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="V155" s="144" t="inlineStr">
+      <c r="V155" s="143" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -30199,7 +30172,7 @@
       </c>
       <c r="AB155" s="17" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-1.48%[2.7]</t>
         </is>
       </c>
       <c r="AC155" s="17" t="inlineStr">
@@ -30306,15 +30279,15 @@
       </c>
       <c r="Z156" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[7.2]</t>
         </is>
       </c>
       <c r="AA156" s="17" t="inlineStr">
         <is>
-          <t>-4.29%</t>
-        </is>
-      </c>
-      <c r="AB156" s="166" t="inlineStr">
+          <t>-4.29%[5.4]</t>
+        </is>
+      </c>
+      <c r="AB156" s="165" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -30359,12 +30332,12 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AK156" s="174" t="inlineStr">
+      <c r="AK156" s="173" t="inlineStr">
         <is>
           <t>7.30%</t>
         </is>
       </c>
-      <c r="AL156" s="175" t="inlineStr">
+      <c r="AL156" s="174" t="inlineStr">
         <is>
           <t>-7.43%</t>
         </is>
@@ -30485,17 +30458,17 @@
       </c>
       <c r="F158" s="19" t="inlineStr">
         <is>
+          <t>首板[3.1]</t>
+        </is>
+      </c>
+      <c r="M158" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="M158" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="T158" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.7]</t>
         </is>
       </c>
       <c r="U158" s="17" t="inlineStr">
@@ -30592,7 +30565,7 @@
       </c>
       <c r="V159" s="17" t="inlineStr">
         <is>
-          <t>6.40%</t>
+          <t>6.40%[2.9]</t>
         </is>
       </c>
       <c r="W159" s="17" t="inlineStr">
@@ -30617,7 +30590,7 @@
       </c>
       <c r="AA159" s="17" t="inlineStr">
         <is>
-          <t>-2.64%</t>
+          <t>-2.64%[3.6]</t>
         </is>
       </c>
       <c r="AB159" s="17" t="inlineStr">
@@ -30699,7 +30672,7 @@
       </c>
       <c r="O160" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.8]</t>
         </is>
       </c>
       <c r="U160" s="17" t="inlineStr">
@@ -30724,7 +30697,7 @@
       </c>
       <c r="Y160" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.7]</t>
         </is>
       </c>
       <c r="Z160" s="22" t="inlineStr">
@@ -30734,7 +30707,7 @@
       </c>
       <c r="AA160" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[5.2]</t>
         </is>
       </c>
       <c r="AB160" s="26" t="inlineStr">
@@ -30744,7 +30717,7 @@
       </c>
       <c r="AC160" s="17" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>4.06%[3.0]</t>
         </is>
       </c>
       <c r="AD160" s="16" t="inlineStr">
@@ -30757,7 +30730,7 @@
           <t>6.43%</t>
         </is>
       </c>
-      <c r="AF160" s="161" t="inlineStr">
+      <c r="AF160" s="160" t="inlineStr">
         <is>
           <t>9.17%</t>
         </is>
@@ -30787,7 +30760,7 @@
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AL160" s="176" t="inlineStr">
+      <c r="AL160" s="175" t="inlineStr">
         <is>
           <t>-7.35%</t>
         </is>
@@ -30816,22 +30789,22 @@
       </c>
       <c r="U161" s="17" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="V161" s="17" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="W161" s="17" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="X161" s="17" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="Y161" s="19" t="inlineStr">
@@ -30864,9 +30837,9 @@
           <t>-4.80%</t>
         </is>
       </c>
-      <c r="AE161" s="177" t="inlineStr">
-        <is>
-          <t>-8.91%</t>
+      <c r="AE161" s="36" t="inlineStr">
+        <is>
+          <t>-8.93%</t>
         </is>
       </c>
       <c r="AF161" s="17" t="inlineStr">
@@ -30881,7 +30854,7 @@
       </c>
       <c r="AH161" s="17" t="inlineStr">
         <is>
-          <t>-3.62%</t>
+          <t>-3.63%</t>
         </is>
       </c>
       <c r="AI161" s="17" t="inlineStr">
@@ -30891,7 +30864,7 @@
       </c>
       <c r="AJ161" s="17" t="inlineStr">
         <is>
-          <t>-4.37%</t>
+          <t>-4.38%</t>
         </is>
       </c>
       <c r="AK161" s="17" t="inlineStr">
@@ -30904,9 +30877,9 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AU161" s="17" t="inlineStr">
-        <is>
-          <t>停牌</t>
+      <c r="AU161" s="79" t="inlineStr">
+        <is>
+          <t>7.24%</t>
         </is>
       </c>
     </row>
@@ -30953,17 +30926,17 @@
       </c>
       <c r="Z162" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[13.0]</t>
         </is>
       </c>
       <c r="AA162" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.8]</t>
         </is>
       </c>
       <c r="AB162" s="17" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.10%[3.7]</t>
         </is>
       </c>
       <c r="AC162" s="40" t="inlineStr">
@@ -31020,7 +30993,7 @@
       </c>
       <c r="I163" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.5]</t>
         </is>
       </c>
       <c r="U163" s="17" t="inlineStr">
@@ -31050,12 +31023,12 @@
       </c>
       <c r="Z163" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[8.0]</t>
         </is>
       </c>
       <c r="AA163" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.6]</t>
         </is>
       </c>
       <c r="AB163" s="106" t="inlineStr">
@@ -31170,44 +31143,44 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AB164" s="118" t="inlineStr">
-        <is>
-          <t>-7.59%</t>
+      <c r="AB164" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AC164" s="17" t="inlineStr">
         <is>
-          <t>-4.72%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AD164" s="17" t="inlineStr">
         <is>
-          <t>-5.82%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AE164" s="17" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AF164" s="17" t="inlineStr">
         <is>
-          <t>-4.56%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AG164" s="17" t="inlineStr">
         <is>
-          <t>-0.48%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AH164" s="17" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AI164" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -31249,7 +31222,7 @@
       </c>
       <c r="Z165" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[9.7]</t>
         </is>
       </c>
       <c r="AA165" s="23" t="inlineStr">
@@ -31259,7 +31232,7 @@
       </c>
       <c r="AB165" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[4.2]</t>
         </is>
       </c>
       <c r="AC165" s="17" t="inlineStr">
@@ -31341,12 +31314,12 @@
       </c>
       <c r="Z166" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.8]</t>
         </is>
       </c>
       <c r="AA166" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.8]</t>
         </is>
       </c>
       <c r="AB166" s="23" t="inlineStr">
@@ -31371,7 +31344,7 @@
       </c>
       <c r="AF166" s="28" t="inlineStr">
         <is>
-          <t>7板</t>
+          <t>7板[2.6]</t>
         </is>
       </c>
       <c r="AG166" s="61" t="inlineStr">
@@ -31384,7 +31357,7 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AI166" s="178" t="inlineStr">
+      <c r="AI166" s="176" t="inlineStr">
         <is>
           <t>7.65%</t>
         </is>
@@ -31399,7 +31372,7 @@
           <t>-4.97%</t>
         </is>
       </c>
-      <c r="AL166" s="164" t="inlineStr">
+      <c r="AL166" s="163" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -31468,17 +31441,17 @@
       </c>
       <c r="Z167" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.1]</t>
         </is>
       </c>
       <c r="AA167" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.9]</t>
         </is>
       </c>
       <c r="AB167" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.0]</t>
         </is>
       </c>
       <c r="AC167" s="26" t="inlineStr">
@@ -31496,7 +31469,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AF167" s="179" t="inlineStr">
+      <c r="AF167" s="177" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
@@ -31521,7 +31494,7 @@
           <t>-3.42%</t>
         </is>
       </c>
-      <c r="AK167" s="180" t="inlineStr">
+      <c r="AK167" s="178" t="inlineStr">
         <is>
           <t>8.49%</t>
         </is>
@@ -31570,7 +31543,7 @@
       </c>
       <c r="V168" s="17" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>3.27%[2.8]</t>
         </is>
       </c>
       <c r="W168" s="17" t="inlineStr">
@@ -31590,12 +31563,12 @@
       </c>
       <c r="Z168" s="40" t="inlineStr">
         <is>
-          <t>17.05%</t>
+          <t>17.05%[6.3]</t>
         </is>
       </c>
       <c r="AA168" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.2]</t>
         </is>
       </c>
       <c r="AB168" s="17" t="inlineStr">
@@ -31608,7 +31581,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AD168" s="175" t="inlineStr">
+      <c r="AD168" s="174" t="inlineStr">
         <is>
           <t>-7.43%</t>
         </is>
@@ -31685,19 +31658,19 @@
           <t>2.22%</t>
         </is>
       </c>
-      <c r="Z169" s="181" t="inlineStr">
-        <is>
-          <t>9.13%</t>
+      <c r="Z169" s="179" t="inlineStr">
+        <is>
+          <t>9.13%[5.7]</t>
         </is>
       </c>
       <c r="AA169" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.5]</t>
         </is>
       </c>
       <c r="AB169" s="40" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>11.11%[3.3]</t>
         </is>
       </c>
       <c r="AC169" s="22" t="inlineStr">
@@ -31715,7 +31688,7 @@
           <t>-2.69%</t>
         </is>
       </c>
-      <c r="AF169" s="182" t="inlineStr">
+      <c r="AF169" s="180" t="inlineStr">
         <is>
           <t>-8.56%</t>
         </is>
@@ -31784,17 +31757,17 @@
       </c>
       <c r="Z170" s="40" t="inlineStr">
         <is>
-          <t>10.40%</t>
+          <t>10.40%[5.5]</t>
         </is>
       </c>
       <c r="AA170" s="19" t="inlineStr">
         <is>
-          <t>首板**</t>
+          <t>首板**[4.9]</t>
         </is>
       </c>
       <c r="AB170" s="40" t="inlineStr">
         <is>
-          <t>17.45%</t>
+          <t>17.45%[2.6]</t>
         </is>
       </c>
       <c r="AC170" s="22" t="inlineStr">
@@ -31802,7 +31775,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AD170" s="174" t="inlineStr">
+      <c r="AD170" s="173" t="inlineStr">
         <is>
           <t>7.30%</t>
         </is>
@@ -31866,7 +31839,7 @@
       </c>
       <c r="W171" s="17" t="inlineStr">
         <is>
-          <t>6.12%</t>
+          <t>6.12%[2.9]</t>
         </is>
       </c>
       <c r="X171" s="17" t="inlineStr">
@@ -31879,14 +31852,14 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="Z171" s="183" t="inlineStr">
-        <is>
-          <t>7.41%</t>
+      <c r="Z171" s="181" t="inlineStr">
+        <is>
+          <t>7.41%[3.3]</t>
         </is>
       </c>
       <c r="AA171" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.9]</t>
         </is>
       </c>
       <c r="AB171" s="18" t="inlineStr">
@@ -31956,7 +31929,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="V172" s="155" t="inlineStr">
+      <c r="V172" s="154" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -31971,7 +31944,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Y172" s="156" t="inlineStr">
+      <c r="Y172" s="155" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -31991,7 +31964,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AC172" s="157" t="inlineStr">
+      <c r="AC172" s="156" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -32070,12 +32043,12 @@
       </c>
       <c r="AA173" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.3]</t>
         </is>
       </c>
       <c r="AB173" s="40" t="inlineStr">
         <is>
-          <t>19.82%</t>
+          <t>19.82%[4.9]</t>
         </is>
       </c>
       <c r="AC173" s="17" t="inlineStr">
@@ -32172,7 +32145,7 @@
       </c>
       <c r="AB174" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[13.5]</t>
         </is>
       </c>
       <c r="AC174" s="17" t="inlineStr">
@@ -32254,7 +32227,7 @@
       </c>
       <c r="AA175" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.9]</t>
         </is>
       </c>
       <c r="AB175" s="23" t="inlineStr">
@@ -32269,7 +32242,7 @@
       </c>
       <c r="AD175" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[2.6]</t>
         </is>
       </c>
       <c r="AE175" s="17" t="inlineStr">
@@ -32277,7 +32250,7 @@
           <t>-5.05%</t>
         </is>
       </c>
-      <c r="AF175" s="184" t="inlineStr">
+      <c r="AF175" s="182" t="inlineStr">
         <is>
           <t>-9.41%</t>
         </is>
@@ -32366,12 +32339,12 @@
       </c>
       <c r="AC176" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.8]</t>
         </is>
       </c>
       <c r="AD176" s="17" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>4.96%[3.3]</t>
         </is>
       </c>
       <c r="AE176" s="118" t="inlineStr">
@@ -32384,7 +32357,7 @@
           <t>-3.44%</t>
         </is>
       </c>
-      <c r="AG176" s="185" t="inlineStr">
+      <c r="AG176" s="183" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
@@ -32404,7 +32377,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="AK176" s="144" t="inlineStr">
+      <c r="AK176" s="143" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -32443,7 +32416,7 @@
       </c>
       <c r="AA177" s="17" t="inlineStr">
         <is>
-          <t>-6.53%</t>
+          <t>-6.53%[5.3]</t>
         </is>
       </c>
       <c r="AB177" s="17" t="inlineStr">
@@ -32503,7 +32476,7 @@
       </c>
       <c r="AT177" s="17" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.47%[2.6]</t>
         </is>
       </c>
       <c r="AU177" s="17" t="inlineStr">
@@ -32530,7 +32503,7 @@
       </c>
       <c r="X178" s="17" t="inlineStr">
         <is>
-          <t>3.20%</t>
+          <t>3.20%[3.6]</t>
         </is>
       </c>
       <c r="Y178" s="19" t="inlineStr">
@@ -32545,10 +32518,10 @@
       </c>
       <c r="AA178" s="17" t="inlineStr">
         <is>
-          <t>5.68%</t>
-        </is>
-      </c>
-      <c r="AB178" s="186" t="inlineStr">
+          <t>5.68%[4.2]</t>
+        </is>
+      </c>
+      <c r="AB178" s="184" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -32622,7 +32595,7 @@
       </c>
       <c r="X179" s="40" t="inlineStr">
         <is>
-          <t>12.58%</t>
+          <t>12.58%[2.6]</t>
         </is>
       </c>
       <c r="Y179" s="17" t="inlineStr">
@@ -32675,7 +32648,7 @@
           <t>5.55%</t>
         </is>
       </c>
-      <c r="AI179" s="187" t="inlineStr">
+      <c r="AI179" s="185" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -32695,7 +32668,7 @@
           <t>-5.26%</t>
         </is>
       </c>
-      <c r="AM179" s="188" t="inlineStr">
+      <c r="AM179" s="186" t="inlineStr">
         <is>
           <t>8.13%</t>
         </is>
@@ -32744,12 +32717,12 @@
       </c>
       <c r="AC180" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.4]</t>
         </is>
       </c>
       <c r="AD180" s="17" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.26%[2.6]</t>
         </is>
       </c>
       <c r="AE180" s="17" t="inlineStr">
@@ -32772,7 +32745,7 @@
           <t>2.12%</t>
         </is>
       </c>
-      <c r="AI180" s="187" t="inlineStr">
+      <c r="AI180" s="185" t="inlineStr">
         <is>
           <t>-7.20%</t>
         </is>
@@ -32816,17 +32789,17 @@
       </c>
       <c r="AA181" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.4]</t>
         </is>
       </c>
       <c r="AB181" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AC181" s="189" t="inlineStr">
-        <is>
-          <t>-7.49%</t>
+          <t>2板[3.4]</t>
+        </is>
+      </c>
+      <c r="AC181" s="187" t="inlineStr">
+        <is>
+          <t>-7.49%[2.8]</t>
         </is>
       </c>
       <c r="AD181" s="23" t="inlineStr">
@@ -32923,12 +32896,12 @@
       </c>
       <c r="AE182" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[8.6]</t>
         </is>
       </c>
       <c r="AF182" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.9]</t>
         </is>
       </c>
       <c r="AG182" s="105" t="inlineStr">
@@ -32996,7 +32969,7 @@
           <t>5.99%</t>
         </is>
       </c>
-      <c r="AT182" s="190" t="inlineStr">
+      <c r="AT182" s="188" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -33035,7 +33008,7 @@
       </c>
       <c r="AA183" s="17" t="inlineStr">
         <is>
-          <t>3.96%</t>
+          <t>3.96%[4.3]</t>
         </is>
       </c>
       <c r="AB183" s="19" t="inlineStr">
@@ -33055,7 +33028,7 @@
       </c>
       <c r="AE183" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.4]</t>
         </is>
       </c>
       <c r="AF183" s="16" t="inlineStr">
@@ -33103,7 +33076,7 @@
           <t>-5.99%</t>
         </is>
       </c>
-      <c r="AO183" s="191" t="inlineStr">
+      <c r="AO183" s="189" t="inlineStr">
         <is>
           <t>-7.39%</t>
         </is>
@@ -33162,12 +33135,12 @@
       </c>
       <c r="AD184" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.6]</t>
         </is>
       </c>
       <c r="AE184" s="17" t="inlineStr">
         <is>
-          <t>3.07%</t>
+          <t>3.07%[3.3]</t>
         </is>
       </c>
       <c r="AF184" s="92" t="inlineStr">
@@ -33229,7 +33202,7 @@
       </c>
       <c r="G185" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.7]</t>
         </is>
       </c>
       <c r="H185" s="23" t="inlineStr">
@@ -33254,7 +33227,7 @@
       </c>
       <c r="L185" s="28" t="inlineStr">
         <is>
-          <t>7板</t>
+          <t>7板[5.1]</t>
         </is>
       </c>
       <c r="N185" s="61" t="inlineStr">
@@ -33411,12 +33384,12 @@
       </c>
       <c r="U186" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.4]</t>
         </is>
       </c>
       <c r="V186" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.1]</t>
         </is>
       </c>
       <c r="W186" s="23" t="inlineStr">
@@ -33426,12 +33399,12 @@
       </c>
       <c r="X186" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[5.6]</t>
         </is>
       </c>
       <c r="Y186" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[2.6]</t>
         </is>
       </c>
       <c r="Z186" s="27" t="inlineStr">
@@ -33578,22 +33551,22 @@
       </c>
       <c r="AC187" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.9]</t>
         </is>
       </c>
       <c r="AD187" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[7.1]</t>
         </is>
       </c>
       <c r="AE187" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.8]</t>
         </is>
       </c>
       <c r="AF187" s="17" t="inlineStr">
         <is>
-          <t>-3.87%</t>
+          <t>-3.87%[3.4]</t>
         </is>
       </c>
       <c r="AG187" s="18" t="inlineStr">
@@ -33665,7 +33638,7 @@
       </c>
       <c r="AC188" s="17" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>6.21%[7.1]</t>
         </is>
       </c>
       <c r="AD188" s="22" t="inlineStr">
@@ -33703,7 +33676,7 @@
           <t>-6.39%</t>
         </is>
       </c>
-      <c r="AK188" s="192" t="inlineStr">
+      <c r="AK188" s="190" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -33782,12 +33755,12 @@
       </c>
       <c r="AA189" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.0]</t>
         </is>
       </c>
       <c r="AB189" s="17" t="inlineStr">
         <is>
-          <t>-6.12%</t>
+          <t>-6.12%[3.4]</t>
         </is>
       </c>
       <c r="AC189" s="22" t="inlineStr">
@@ -33797,7 +33770,7 @@
       </c>
       <c r="AD189" s="17" t="inlineStr">
         <is>
-          <t>-1.05%</t>
+          <t>-1.05%[2.8]</t>
         </is>
       </c>
       <c r="AE189" s="23" t="inlineStr">
@@ -33805,7 +33778,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AF189" s="193" t="inlineStr">
+      <c r="AF189" s="191" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -33917,7 +33890,7 @@
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="AJ190" s="194" t="inlineStr">
+      <c r="AJ190" s="192" t="inlineStr">
         <is>
           <t>-7.08%</t>
         </is>
@@ -33956,17 +33929,17 @@
       </c>
       <c r="I191" s="19" t="inlineStr">
         <is>
+          <t>首板[4.3]</t>
+        </is>
+      </c>
+      <c r="N191" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="N191" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="O191" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.0]</t>
         </is>
       </c>
       <c r="Z191" s="17" t="inlineStr">
@@ -33991,12 +33964,12 @@
       </c>
       <c r="AD191" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.2]</t>
         </is>
       </c>
       <c r="AE191" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.1]</t>
         </is>
       </c>
       <c r="AF191" s="23" t="inlineStr">
@@ -34006,7 +33979,7 @@
       </c>
       <c r="AG191" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[2.8]</t>
         </is>
       </c>
       <c r="AH191" s="16" t="inlineStr">
@@ -34016,7 +33989,7 @@
       </c>
       <c r="AI191" s="17" t="inlineStr">
         <is>
-          <t>6.49%</t>
+          <t>6.49%[2.9]</t>
         </is>
       </c>
       <c r="AJ191" s="27" t="inlineStr">
@@ -34044,7 +34017,7 @@
           <t>2.71%</t>
         </is>
       </c>
-      <c r="AO191" s="147" t="inlineStr">
+      <c r="AO191" s="146" t="inlineStr">
         <is>
           <t>-7.31%</t>
         </is>
@@ -34083,7 +34056,7 @@
       </c>
       <c r="F192" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.2]</t>
         </is>
       </c>
       <c r="H192" s="22" t="inlineStr">
@@ -34539,44 +34512,44 @@
       </c>
       <c r="I195" s="19" t="inlineStr">
         <is>
+          <t>首板[3.0]</t>
+        </is>
+      </c>
+      <c r="J195" s="22" t="inlineStr">
+        <is>
+          <t>2板[2.5]</t>
+        </is>
+      </c>
+      <c r="Z195" s="17" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="AA195" s="17" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
+      <c r="AB195" s="17" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="AC195" s="17" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
+      <c r="AD195" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="J195" s="22" t="inlineStr">
+      <c r="AE195" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="Z195" s="17" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-      <c r="AA195" s="17" t="inlineStr">
-        <is>
-          <t>2.36%</t>
-        </is>
-      </c>
-      <c r="AB195" s="17" t="inlineStr">
-        <is>
-          <t>-1.98%</t>
-        </is>
-      </c>
-      <c r="AC195" s="17" t="inlineStr">
-        <is>
-          <t>2.69%</t>
-        </is>
-      </c>
-      <c r="AD195" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AE195" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
       <c r="AF195" s="23" t="inlineStr">
         <is>
           <t>3板</t>
@@ -34584,17 +34557,17 @@
       </c>
       <c r="AG195" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[5.9]</t>
         </is>
       </c>
       <c r="AH195" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[2.7]</t>
         </is>
       </c>
       <c r="AI195" s="20" t="inlineStr">
         <is>
-          <t>-8.11%</t>
+          <t>-8.11%[3.9]</t>
         </is>
       </c>
       <c r="AJ195" s="17" t="inlineStr">
@@ -34651,12 +34624,12 @@
       </c>
       <c r="F196" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[7.3]</t>
         </is>
       </c>
       <c r="G196" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.9]</t>
         </is>
       </c>
       <c r="H196" s="23" t="inlineStr">
@@ -34676,7 +34649,7 @@
       </c>
       <c r="K196" s="27" t="inlineStr">
         <is>
-          <t>6板</t>
+          <t>6板[4.3]</t>
         </is>
       </c>
       <c r="N196" s="28" t="inlineStr">
@@ -34798,7 +34771,7 @@
       </c>
       <c r="Z197" s="17" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>2.55%[3.0]</t>
         </is>
       </c>
       <c r="AA197" s="17" t="inlineStr">
@@ -34818,7 +34791,7 @@
       </c>
       <c r="AD197" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.6]</t>
         </is>
       </c>
       <c r="AE197" s="22" t="inlineStr">
@@ -34833,7 +34806,7 @@
       </c>
       <c r="AG197" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.8]</t>
         </is>
       </c>
       <c r="AH197" s="17" t="inlineStr">
@@ -34846,7 +34819,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AJ197" s="195" t="inlineStr">
+      <c r="AJ197" s="193" t="inlineStr">
         <is>
           <t>-9.00%</t>
         </is>
@@ -34895,14 +34868,14 @@
       </c>
       <c r="F198" s="19" t="inlineStr">
         <is>
+          <t>首板*[10.5]</t>
+        </is>
+      </c>
+      <c r="I198" s="19" t="inlineStr">
+        <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="I198" s="19" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
       <c r="J198" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -34935,7 +34908,7 @@
       </c>
       <c r="AE198" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.5]</t>
         </is>
       </c>
       <c r="AF198" s="17" t="inlineStr">
@@ -35022,15 +34995,15 @@
       </c>
       <c r="AD199" s="40" t="inlineStr">
         <is>
-          <t>23.54%</t>
+          <t>23.54%[4.5]</t>
         </is>
       </c>
       <c r="AE199" s="19" t="inlineStr">
         <is>
-          <t>首板**</t>
-        </is>
-      </c>
-      <c r="AF199" s="196" t="inlineStr">
+          <t>首板**[2.7]</t>
+        </is>
+      </c>
+      <c r="AF199" s="194" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
@@ -35060,7 +35033,7 @@
           <t>0.37%</t>
         </is>
       </c>
-      <c r="AL199" s="190" t="inlineStr">
+      <c r="AL199" s="188" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -35089,29 +35062,29 @@
       </c>
       <c r="N200" s="19" t="inlineStr">
         <is>
+          <t>首板[2.7]</t>
+        </is>
+      </c>
+      <c r="AA200" s="17" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="AB200" s="17" t="inlineStr">
+        <is>
+          <t>-0.69%</t>
+        </is>
+      </c>
+      <c r="AC200" s="17" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="AD200" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AA200" s="17" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="AB200" s="17" t="inlineStr">
-        <is>
-          <t>-0.69%</t>
-        </is>
-      </c>
-      <c r="AC200" s="17" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="AD200" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AE200" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -35124,12 +35097,12 @@
       </c>
       <c r="AG200" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[13.4]</t>
         </is>
       </c>
       <c r="AH200" s="18" t="inlineStr">
         <is>
-          <t>-10.04%</t>
+          <t>-10.04%[3.4]</t>
         </is>
       </c>
       <c r="AI200" s="29" t="inlineStr">
@@ -35201,12 +35174,12 @@
       </c>
       <c r="AA201" s="17" t="inlineStr">
         <is>
-          <t>-0.96%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AB201" s="17" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AC201" s="17" t="inlineStr">
@@ -35229,34 +35202,34 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AG201" s="54" t="inlineStr">
-        <is>
-          <t>-7.42%</t>
+      <c r="AG201" s="101" t="inlineStr">
+        <is>
+          <t>-7.46%</t>
         </is>
       </c>
       <c r="AH201" s="17" t="inlineStr">
         <is>
-          <t>-5.47%</t>
+          <t>-5.51%</t>
         </is>
       </c>
       <c r="AI201" s="17" t="inlineStr">
         <is>
-          <t>-2.69%</t>
+          <t>-2.71%</t>
         </is>
       </c>
       <c r="AJ201" s="17" t="inlineStr">
         <is>
-          <t>-4.01%</t>
+          <t>-4.04%</t>
         </is>
       </c>
       <c r="AK201" s="17" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AL201" s="17" t="inlineStr">
         <is>
-          <t>-1.88%</t>
+          <t>-1.89%</t>
         </is>
       </c>
       <c r="AM201" s="17" t="inlineStr">
@@ -35266,7 +35239,7 @@
       </c>
       <c r="AN201" s="17" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -35288,7 +35261,7 @@
       </c>
       <c r="S202" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.4]</t>
         </is>
       </c>
       <c r="AA202" s="17" t="inlineStr">
@@ -35313,7 +35286,7 @@
       </c>
       <c r="AE202" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.4]</t>
         </is>
       </c>
       <c r="AF202" s="22" t="inlineStr">
@@ -35323,7 +35296,7 @@
       </c>
       <c r="AG202" s="17" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>1.55%[3.8]</t>
         </is>
       </c>
       <c r="AH202" s="23" t="inlineStr">
@@ -35331,7 +35304,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AI202" s="192" t="inlineStr">
+      <c r="AI202" s="190" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -35420,7 +35393,7 @@
       </c>
       <c r="AG203" s="17" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>3.83%[18.8]</t>
         </is>
       </c>
       <c r="AH203" s="23" t="inlineStr">
@@ -35440,12 +35413,12 @@
       </c>
       <c r="AK203" s="40" t="inlineStr">
         <is>
-          <t>9.77%</t>
+          <t>9.77%[5.2]</t>
         </is>
       </c>
       <c r="AL203" s="18" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>-9.96%[2.9]</t>
         </is>
       </c>
       <c r="AM203" s="18" t="inlineStr">
@@ -35517,12 +35490,12 @@
       </c>
       <c r="AE204" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.7]</t>
         </is>
       </c>
       <c r="AF204" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.8]</t>
         </is>
       </c>
       <c r="AG204" s="17" t="inlineStr">
@@ -35584,17 +35557,17 @@
       </c>
       <c r="Y205" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.0]</t>
         </is>
       </c>
       <c r="Z205" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.8]</t>
         </is>
       </c>
       <c r="AA205" s="17" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>-1.39%[3.3]</t>
         </is>
       </c>
       <c r="AB205" s="17" t="inlineStr">
@@ -35711,12 +35684,12 @@
       </c>
       <c r="AF206" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[6.5]</t>
         </is>
       </c>
       <c r="AG206" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.5]</t>
         </is>
       </c>
       <c r="AH206" s="17" t="inlineStr">
@@ -35818,7 +35791,7 @@
       </c>
       <c r="AF207" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.9]</t>
         </is>
       </c>
       <c r="AG207" s="17" t="inlineStr">
@@ -35905,12 +35878,12 @@
       </c>
       <c r="AF208" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[8.9]</t>
         </is>
       </c>
       <c r="AG208" s="99" t="inlineStr">
         <is>
-          <t>-7.34%</t>
+          <t>-7.34%[2.8]</t>
         </is>
       </c>
       <c r="AH208" s="40" t="inlineStr">
@@ -35992,12 +35965,12 @@
       </c>
       <c r="AF209" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[10.8]</t>
         </is>
       </c>
       <c r="AG209" s="17" t="inlineStr">
         <is>
-          <t>-2.35%</t>
+          <t>-2.35%[4.1]</t>
         </is>
       </c>
       <c r="AH209" s="17" t="inlineStr">
@@ -36054,34 +36027,34 @@
       </c>
       <c r="AA210" s="19" t="inlineStr">
         <is>
+          <t>首板[3.1]</t>
+        </is>
+      </c>
+      <c r="AB210" s="17" t="inlineStr">
+        <is>
+          <t>0.54%[5.7]</t>
+        </is>
+      </c>
+      <c r="AC210" s="17" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="AD210" s="17" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
+      </c>
+      <c r="AE210" s="17" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="AF210" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AB210" s="17" t="inlineStr">
-        <is>
-          <t>0.54%</t>
-        </is>
-      </c>
-      <c r="AC210" s="17" t="inlineStr">
-        <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="AD210" s="17" t="inlineStr">
-        <is>
-          <t>0.26%</t>
-        </is>
-      </c>
-      <c r="AE210" s="17" t="inlineStr">
-        <is>
-          <t>-1.18%</t>
-        </is>
-      </c>
-      <c r="AF210" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AG210" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -36097,7 +36070,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AJ210" s="197" t="inlineStr">
+      <c r="AJ210" s="195" t="inlineStr">
         <is>
           <t>-8.34%</t>
         </is>
@@ -36171,12 +36144,12 @@
       </c>
       <c r="AG211" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[8.0]</t>
         </is>
       </c>
       <c r="AH211" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.1]</t>
         </is>
       </c>
       <c r="AI211" s="26" t="inlineStr">
@@ -36263,7 +36236,7 @@
       </c>
       <c r="H212" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.3]</t>
         </is>
       </c>
       <c r="AB212" s="17" t="inlineStr">
@@ -36288,12 +36261,12 @@
       </c>
       <c r="AF212" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="AG212" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.3]</t>
         </is>
       </c>
       <c r="AH212" s="17" t="inlineStr">
@@ -36420,7 +36393,7 @@
       </c>
       <c r="AH213" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[5.5]</t>
         </is>
       </c>
       <c r="AI213" s="26" t="inlineStr">
@@ -36430,7 +36403,7 @@
       </c>
       <c r="AJ213" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.0]</t>
         </is>
       </c>
       <c r="AK213" s="17" t="inlineStr">
@@ -36639,12 +36612,12 @@
       </c>
       <c r="AE215" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.4]</t>
         </is>
       </c>
       <c r="AF215" s="17" t="inlineStr">
         <is>
-          <t>-2.71%</t>
+          <t>-2.71%[5.1]</t>
         </is>
       </c>
       <c r="AG215" s="22" t="inlineStr">
@@ -36657,7 +36630,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AI215" s="186" t="inlineStr">
+      <c r="AI215" s="184" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -36746,7 +36719,7 @@
       </c>
       <c r="AA216" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.3]</t>
         </is>
       </c>
       <c r="AC216" s="17" t="inlineStr">
@@ -36838,7 +36811,7 @@
       </c>
       <c r="E217" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.4]</t>
         </is>
       </c>
       <c r="Q217" s="19" t="inlineStr">
@@ -36965,7 +36938,7 @@
       </c>
       <c r="AG218" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.4]</t>
         </is>
       </c>
       <c r="AH218" s="22" t="inlineStr">
@@ -36985,7 +36958,7 @@
       </c>
       <c r="AK218" s="17" t="inlineStr">
         <is>
-          <t>-2.83%</t>
+          <t>-2.83%[9.5]</t>
         </is>
       </c>
       <c r="AL218" s="18" t="inlineStr">
@@ -37060,9 +37033,9 @@
           <t>0.85%</t>
         </is>
       </c>
-      <c r="AF219" s="198" t="inlineStr">
-        <is>
-          <t>7.61%</t>
+      <c r="AF219" s="196" t="inlineStr">
+        <is>
+          <t>7.61%[3.4]</t>
         </is>
       </c>
       <c r="AG219" s="19" t="inlineStr">
@@ -37082,7 +37055,7 @@
       </c>
       <c r="AJ219" s="17" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>2.69%[2.8]</t>
         </is>
       </c>
       <c r="AK219" s="26" t="inlineStr">
@@ -37326,7 +37299,7 @@
       </c>
       <c r="AH221" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[5.4]</t>
         </is>
       </c>
       <c r="AI221" s="22" t="inlineStr">
@@ -37336,7 +37309,7 @@
       </c>
       <c r="AJ221" s="17" t="inlineStr">
         <is>
-          <t>-4.79%</t>
+          <t>-4.79%[5.7]</t>
         </is>
       </c>
       <c r="AK221" s="82" t="inlineStr">
@@ -37413,45 +37386,45 @@
       </c>
       <c r="T222" s="19" t="inlineStr">
         <is>
+          <t>首板*[3.0]</t>
+        </is>
+      </c>
+      <c r="AC222" s="17" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="AD222" s="17" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="AE222" s="17" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
+      </c>
+      <c r="AF222" s="17" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="AG222" s="40" t="inlineStr">
+        <is>
+          <t>15.30%</t>
+        </is>
+      </c>
+      <c r="AH222" s="19" t="inlineStr">
+        <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AC222" s="17" t="inlineStr">
-        <is>
-          <t>1.56%</t>
-        </is>
-      </c>
-      <c r="AD222" s="17" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="AE222" s="17" t="inlineStr">
-        <is>
-          <t>-0.92%</t>
-        </is>
-      </c>
-      <c r="AF222" s="17" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
-      <c r="AG222" s="40" t="inlineStr">
-        <is>
-          <t>15.30%</t>
-        </is>
-      </c>
-      <c r="AH222" s="19" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
       <c r="AI222" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="AJ222" s="199" t="inlineStr">
+      <c r="AJ222" s="197" t="inlineStr">
         <is>
           <t>-8.27%</t>
         </is>
@@ -37535,7 +37508,7 @@
       </c>
       <c r="AH223" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[7.4]</t>
         </is>
       </c>
       <c r="AI223" s="22" t="inlineStr">
@@ -37550,7 +37523,7 @@
       </c>
       <c r="AK223" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.5]</t>
         </is>
       </c>
       <c r="AL223" s="17" t="inlineStr">
@@ -37620,7 +37593,7 @@
           <t>5.67%</t>
         </is>
       </c>
-      <c r="AD224" s="200" t="inlineStr">
+      <c r="AD224" s="198" t="inlineStr">
         <is>
           <t>8.11%</t>
         </is>
@@ -37724,7 +37697,7 @@
       </c>
       <c r="AH225" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.1]</t>
         </is>
       </c>
       <c r="AI225" s="23" t="inlineStr">
@@ -37816,15 +37789,15 @@
       </c>
       <c r="AI226" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[11.2]</t>
         </is>
       </c>
       <c r="AJ226" s="17" t="inlineStr">
         <is>
-          <t>2.69%</t>
-        </is>
-      </c>
-      <c r="AK226" s="201" t="inlineStr">
+          <t>2.69%[4.6]</t>
+        </is>
+      </c>
+      <c r="AK226" s="199" t="inlineStr">
         <is>
           <t>-9.45%</t>
         </is>
@@ -37893,7 +37866,7 @@
       </c>
       <c r="AG227" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[7.5]</t>
         </is>
       </c>
       <c r="AH227" s="22" t="inlineStr">
@@ -37908,7 +37881,7 @@
       </c>
       <c r="AJ227" s="17" t="inlineStr">
         <is>
-          <t>-5.36%</t>
+          <t>-5.36%[4.7]</t>
         </is>
       </c>
       <c r="AK227" s="18" t="inlineStr">
@@ -37985,7 +37958,7 @@
       </c>
       <c r="AH228" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[6.5]</t>
         </is>
       </c>
       <c r="AI228" s="23" t="inlineStr">
@@ -37995,7 +37968,7 @@
       </c>
       <c r="AJ228" s="17" t="inlineStr">
         <is>
-          <t>-1.31%</t>
+          <t>-1.31%[4.0]</t>
         </is>
       </c>
       <c r="AK228" s="18" t="inlineStr">
@@ -38077,7 +38050,7 @@
       </c>
       <c r="F229" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.4]</t>
         </is>
       </c>
       <c r="U229" s="19" t="inlineStr">
@@ -38204,25 +38177,25 @@
       </c>
       <c r="AG230" s="17" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>2.24%[2.6]</t>
         </is>
       </c>
       <c r="AH230" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.5]</t>
         </is>
       </c>
       <c r="AI230" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="AJ230" s="17" t="inlineStr">
         <is>
-          <t>3.08%</t>
-        </is>
-      </c>
-      <c r="AK230" s="160" t="inlineStr">
+          <t>3.08%[3.7]</t>
+        </is>
+      </c>
+      <c r="AK230" s="159" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -38296,34 +38269,34 @@
       </c>
       <c r="Z231" s="19" t="inlineStr">
         <is>
+          <t>首板[4.2]</t>
+        </is>
+      </c>
+      <c r="AD231" s="17" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="AE231" s="17" t="inlineStr">
+        <is>
+          <t>-0.91%</t>
+        </is>
+      </c>
+      <c r="AF231" s="17" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="AG231" s="17" t="inlineStr">
+        <is>
+          <t>3.27%</t>
+        </is>
+      </c>
+      <c r="AH231" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AD231" s="17" t="inlineStr">
-        <is>
-          <t>0.30%</t>
-        </is>
-      </c>
-      <c r="AE231" s="17" t="inlineStr">
-        <is>
-          <t>-0.91%</t>
-        </is>
-      </c>
-      <c r="AF231" s="17" t="inlineStr">
-        <is>
-          <t>-1.83%</t>
-        </is>
-      </c>
-      <c r="AG231" s="17" t="inlineStr">
-        <is>
-          <t>3.27%</t>
-        </is>
-      </c>
-      <c r="AH231" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AI231" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -38336,10 +38309,10 @@
       </c>
       <c r="AK231" s="18" t="inlineStr">
         <is>
-          <t>-9.97%</t>
-        </is>
-      </c>
-      <c r="AL231" s="202" t="inlineStr">
+          <t>-9.97%[3.7]</t>
+        </is>
+      </c>
+      <c r="AL231" s="200" t="inlineStr">
         <is>
           <t>-9.43%</t>
         </is>
@@ -38376,7 +38349,7 @@
       </c>
       <c r="AT231" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.7]</t>
         </is>
       </c>
       <c r="AU231" s="20" t="inlineStr">
@@ -38423,12 +38396,12 @@
       </c>
       <c r="AH232" s="19" t="inlineStr">
         <is>
-          <t>首板**</t>
+          <t>首板**[9.0]</t>
         </is>
       </c>
       <c r="AI232" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.3]</t>
         </is>
       </c>
       <c r="AJ232" s="18" t="inlineStr">
@@ -38436,7 +38409,7 @@
           <t>-12.01%</t>
         </is>
       </c>
-      <c r="AK232" s="203" t="inlineStr">
+      <c r="AK232" s="201" t="inlineStr">
         <is>
           <t>-9.16%</t>
         </is>
@@ -38528,7 +38501,7 @@
           <t>-17.76%</t>
         </is>
       </c>
-      <c r="AL233" s="204" t="inlineStr">
+      <c r="AL233" s="202" t="inlineStr">
         <is>
           <t>-7.13%</t>
         </is>
@@ -38543,7 +38516,7 @@
           <t>-0.55%</t>
         </is>
       </c>
-      <c r="AO233" s="205" t="inlineStr">
+      <c r="AO233" s="203" t="inlineStr">
         <is>
           <t>-7.22%</t>
         </is>
@@ -38632,7 +38605,7 @@
       </c>
       <c r="AM234" s="17" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>3.26%[2.5]</t>
         </is>
       </c>
       <c r="AN234" s="17" t="inlineStr">
@@ -38684,7 +38657,7 @@
       </c>
       <c r="M235" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.6]</t>
         </is>
       </c>
       <c r="AD235" s="17" t="inlineStr">
@@ -38714,7 +38687,7 @@
       </c>
       <c r="AI235" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.7]</t>
         </is>
       </c>
       <c r="AJ235" s="17" t="inlineStr">
@@ -38901,7 +38874,7 @@
           <t>-0.78%</t>
         </is>
       </c>
-      <c r="AG237" s="206" t="inlineStr">
+      <c r="AG237" s="204" t="inlineStr">
         <is>
           <t>8.55%</t>
         </is>
@@ -38918,7 +38891,7 @@
       </c>
       <c r="AJ237" s="40" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>9.52%[2.5]</t>
         </is>
       </c>
       <c r="AK237" s="99" t="inlineStr">
@@ -39030,12 +39003,12 @@
       </c>
       <c r="AL238" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[31.7]</t>
         </is>
       </c>
       <c r="AM238" s="17" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.13%[6.0]</t>
         </is>
       </c>
       <c r="AN238" s="18" t="inlineStr">
@@ -39112,7 +39085,7 @@
       </c>
       <c r="AH239" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.4]</t>
         </is>
       </c>
       <c r="AI239" s="22" t="inlineStr">
@@ -39122,7 +39095,7 @@
       </c>
       <c r="AJ239" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[5.1]</t>
         </is>
       </c>
       <c r="AK239" s="26" t="inlineStr">
@@ -39132,7 +39105,7 @@
       </c>
       <c r="AL239" s="18" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>-10.00%[2.6]</t>
         </is>
       </c>
       <c r="AM239" s="16" t="inlineStr">
@@ -39150,7 +39123,7 @@
           <t>2.41%</t>
         </is>
       </c>
-      <c r="AP239" s="207" t="inlineStr">
+      <c r="AP239" s="205" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
@@ -39214,7 +39187,7 @@
       </c>
       <c r="AH240" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.2]</t>
         </is>
       </c>
       <c r="AI240" s="22" t="inlineStr">
@@ -39234,7 +39207,7 @@
       </c>
       <c r="AL240" s="18" t="inlineStr">
         <is>
-          <t>-9.91%</t>
+          <t>-9.91%[5.6]</t>
         </is>
       </c>
       <c r="AM240" s="18" t="inlineStr">
@@ -39311,12 +39284,12 @@
       </c>
       <c r="AH241" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.5]</t>
         </is>
       </c>
       <c r="AI241" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.1]</t>
         </is>
       </c>
       <c r="AJ241" s="23" t="inlineStr">
@@ -39326,7 +39299,7 @@
       </c>
       <c r="AK241" s="17" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.15%[5.8]</t>
         </is>
       </c>
       <c r="AL241" s="18" t="inlineStr">
@@ -39334,7 +39307,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AM241" s="208" t="inlineStr">
+      <c r="AM241" s="206" t="inlineStr">
         <is>
           <t>-9.36%</t>
         </is>
@@ -39520,7 +39493,7 @@
       </c>
       <c r="AI243" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.3]</t>
         </is>
       </c>
       <c r="AJ243" s="22" t="inlineStr">
@@ -39530,7 +39503,7 @@
       </c>
       <c r="AK243" s="17" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>1.43%[3.8]</t>
         </is>
       </c>
       <c r="AL243" s="23" t="inlineStr">
@@ -39553,7 +39526,7 @@
           <t>-2.56%</t>
         </is>
       </c>
-      <c r="AP243" s="172" t="inlineStr">
+      <c r="AP243" s="171" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
@@ -39622,7 +39595,7 @@
       </c>
       <c r="O244" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.9]</t>
         </is>
       </c>
       <c r="Q244" s="16" t="inlineStr">
@@ -39759,7 +39732,7 @@
       </c>
       <c r="Y245" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.3]</t>
         </is>
       </c>
       <c r="AE245" s="17" t="inlineStr">
@@ -39871,12 +39844,12 @@
       </c>
       <c r="AF246" s="40" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>10.81%[7.2]</t>
         </is>
       </c>
       <c r="AG246" s="17" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>6.72%[4.2]</t>
         </is>
       </c>
       <c r="AH246" s="17" t="inlineStr">
@@ -39961,7 +39934,7 @@
           <t>[注射液获临床试验批准+创新药+血友病治疗药物]</t>
         </is>
       </c>
-      <c r="C247" s="142" t="inlineStr">
+      <c r="C247" s="141" t="inlineStr">
         <is>
           <t>舒泰神*</t>
         </is>
@@ -40105,10 +40078,10 @@
       </c>
       <c r="AJ248" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AK248" s="209" t="inlineStr">
+          <t>首板*[2.6]</t>
+        </is>
+      </c>
+      <c r="AK248" s="207" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -40170,7 +40143,7 @@
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AF249" s="157" t="inlineStr">
+      <c r="AF249" s="156" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -40274,12 +40247,12 @@
       </c>
       <c r="AJ250" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.1]</t>
         </is>
       </c>
       <c r="AK250" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.7]</t>
         </is>
       </c>
       <c r="AL250" s="17" t="inlineStr">
@@ -40309,15 +40282,15 @@
       </c>
       <c r="AQ250" s="17" t="inlineStr">
         <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="AR250" s="167" t="inlineStr">
+          <t>2.51%[2.7]</t>
+        </is>
+      </c>
+      <c r="AR250" s="166" t="inlineStr">
         <is>
           <t>-7.17%</t>
         </is>
       </c>
-      <c r="AS250" s="145" t="inlineStr">
+      <c r="AS250" s="144" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -40351,12 +40324,12 @@
       </c>
       <c r="M251" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.1]</t>
         </is>
       </c>
       <c r="AF251" s="17" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.22%[2.8]</t>
         </is>
       </c>
       <c r="AG251" s="17" t="inlineStr">
@@ -40478,12 +40451,12 @@
       </c>
       <c r="AK252" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[10.1]</t>
         </is>
       </c>
       <c r="AL252" s="17" t="inlineStr">
         <is>
-          <t>-2.30%</t>
+          <t>-2.30%[2.8]</t>
         </is>
       </c>
       <c r="AM252" s="17" t="inlineStr">
@@ -40565,17 +40538,17 @@
       </c>
       <c r="AJ253" s="17" t="inlineStr">
         <is>
-          <t>4.41%</t>
+          <t>4.41%[3.6]</t>
         </is>
       </c>
       <c r="AK253" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.8]</t>
         </is>
       </c>
       <c r="AL253" s="40" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>11.45%[3.0]</t>
         </is>
       </c>
       <c r="AM253" s="103" t="inlineStr">
@@ -40583,7 +40556,7 @@
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AN253" s="210" t="inlineStr">
+      <c r="AN253" s="208" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -40598,7 +40571,7 @@
           <t>-3.12%</t>
         </is>
       </c>
-      <c r="AQ253" s="211" t="inlineStr">
+      <c r="AQ253" s="209" t="inlineStr">
         <is>
           <t>-8.26%</t>
         </is>
@@ -40642,7 +40615,7 @@
       </c>
       <c r="AI254" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.1]</t>
         </is>
       </c>
       <c r="AJ254" s="22" t="inlineStr">
@@ -40652,7 +40625,7 @@
       </c>
       <c r="AK254" s="17" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.52%[4.5]</t>
         </is>
       </c>
       <c r="AL254" s="23" t="inlineStr">
@@ -40724,22 +40697,22 @@
       </c>
       <c r="AG255" s="17" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>2.84%</t>
         </is>
       </c>
       <c r="AH255" s="17" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="AI255" s="17" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="AJ255" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.4]</t>
         </is>
       </c>
       <c r="AK255" s="22" t="inlineStr">
@@ -40749,7 +40722,7 @@
       </c>
       <c r="AL255" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.3]</t>
         </is>
       </c>
       <c r="AM255" s="26" t="inlineStr">
@@ -40762,19 +40735,19 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AO255" s="107" t="inlineStr">
-        <is>
-          <t>-7.72%</t>
+      <c r="AO255" s="91" t="inlineStr">
+        <is>
+          <t>-7.82%[4.5]</t>
         </is>
       </c>
       <c r="AP255" s="18" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>-10.14%</t>
         </is>
       </c>
       <c r="AQ255" s="18" t="inlineStr">
         <is>
-          <t>-9.51%</t>
+          <t>-9.66%</t>
         </is>
       </c>
       <c r="AR255" s="17" t="inlineStr">
@@ -40784,7 +40757,7 @@
       </c>
       <c r="AS255" s="17" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="AT255" s="17" t="inlineStr">
@@ -40794,7 +40767,7 @@
       </c>
       <c r="AU255" s="17" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -40841,12 +40814,12 @@
       </c>
       <c r="AL256" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[6.7]</t>
         </is>
       </c>
       <c r="AM256" s="17" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>2.51%[3.6]</t>
         </is>
       </c>
       <c r="AN256" s="23" t="inlineStr">
@@ -40948,7 +40921,7 @@
       </c>
       <c r="AO257" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[18.6]</t>
         </is>
       </c>
       <c r="AP257" s="27" t="inlineStr">
@@ -40958,7 +40931,7 @@
       </c>
       <c r="AQ257" s="18" t="inlineStr">
         <is>
-          <t>-10.04%</t>
+          <t>-10.04%[2.7]</t>
         </is>
       </c>
       <c r="AR257" s="17" t="inlineStr">
@@ -40976,7 +40949,7 @@
           <t>4.89%</t>
         </is>
       </c>
-      <c r="AU257" s="212" t="inlineStr">
+      <c r="AU257" s="210" t="inlineStr">
         <is>
           <t>-8.37%</t>
         </is>
@@ -41035,7 +41008,7 @@
       </c>
       <c r="AN258" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.7]</t>
         </is>
       </c>
       <c r="AO258" s="17" t="inlineStr">
@@ -41097,12 +41070,12 @@
       </c>
       <c r="AH259" s="40" t="inlineStr">
         <is>
-          <t>11.56%</t>
+          <t>11.56%[7.5]</t>
         </is>
       </c>
       <c r="AI259" s="17" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>2.20%[2.8]</t>
         </is>
       </c>
       <c r="AJ259" s="17" t="inlineStr">
@@ -41122,7 +41095,7 @@
       </c>
       <c r="AM259" s="17" t="inlineStr">
         <is>
-          <t>6.37%</t>
+          <t>6.37%[2.5]</t>
         </is>
       </c>
       <c r="AN259" s="17" t="inlineStr">
@@ -41197,7 +41170,7 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="AK260" s="187" t="inlineStr">
+      <c r="AK260" s="185" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -41363,7 +41336,7 @@
       </c>
       <c r="M262" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.7]</t>
         </is>
       </c>
       <c r="O262" s="26" t="inlineStr">
@@ -41391,12 +41364,12 @@
           <t>4.46%</t>
         </is>
       </c>
-      <c r="AJ262" s="213" t="inlineStr">
+      <c r="AJ262" s="211" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
       </c>
-      <c r="AK262" s="146" t="inlineStr">
+      <c r="AK262" s="145" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -41505,12 +41478,12 @@
       </c>
       <c r="AO263" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[4.2]</t>
         </is>
       </c>
       <c r="AP263" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.9]</t>
         </is>
       </c>
       <c r="AQ263" s="18" t="inlineStr">
@@ -41597,7 +41570,7 @@
       </c>
       <c r="AN264" s="17" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>1.88%[2.5]</t>
         </is>
       </c>
       <c r="AO264" s="23" t="inlineStr">
@@ -41625,7 +41598,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AT264" s="214" t="inlineStr">
+      <c r="AT264" s="212" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
@@ -41679,12 +41652,12 @@
       </c>
       <c r="AM265" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[8.7]</t>
         </is>
       </c>
       <c r="AN265" s="17" t="inlineStr">
         <is>
-          <t>-4.38%</t>
+          <t>-4.38%[2.9]</t>
         </is>
       </c>
       <c r="AO265" s="17" t="inlineStr">
@@ -41749,9 +41722,9 @@
           <t>1.56%</t>
         </is>
       </c>
-      <c r="AJ266" s="215" t="inlineStr">
-        <is>
-          <t>8.87%</t>
+      <c r="AJ266" s="213" t="inlineStr">
+        <is>
+          <t>8.87%[3.2]</t>
         </is>
       </c>
       <c r="AK266" s="17" t="inlineStr">
@@ -41828,7 +41801,7 @@
       </c>
       <c r="AC267" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.1]</t>
         </is>
       </c>
       <c r="AH267" s="40" t="inlineStr">
@@ -41851,7 +41824,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="AL267" s="193" t="inlineStr">
+      <c r="AL267" s="191" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -41940,12 +41913,12 @@
       </c>
       <c r="AM268" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.1]</t>
         </is>
       </c>
       <c r="AN268" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.6]</t>
         </is>
       </c>
       <c r="AO268" s="18" t="inlineStr">
@@ -41958,7 +41931,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AQ268" s="216" t="inlineStr">
+      <c r="AQ268" s="214" t="inlineStr">
         <is>
           <t>-8.13%</t>
         </is>
@@ -42012,7 +41985,7 @@
       </c>
       <c r="AI269" s="17" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>5.56%[2.5]</t>
         </is>
       </c>
       <c r="AJ269" s="19" t="inlineStr">
@@ -42052,12 +42025,12 @@
       </c>
       <c r="AQ269" s="17" t="inlineStr">
         <is>
-          <t>-2.52%</t>
+          <t>-2.52%[18.7]</t>
         </is>
       </c>
       <c r="AR269" s="18" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>-9.96%[2.5]</t>
         </is>
       </c>
       <c r="AS269" s="17" t="inlineStr">
@@ -42094,12 +42067,12 @@
       </c>
       <c r="D270" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[8.5]</t>
         </is>
       </c>
       <c r="E270" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.9]</t>
         </is>
       </c>
       <c r="G270" s="27" t="inlineStr">
@@ -42231,7 +42204,7 @@
       </c>
       <c r="AI271" s="17" t="inlineStr">
         <is>
-          <t>5.91%</t>
+          <t>6.06%</t>
         </is>
       </c>
       <c r="AJ271" s="19" t="inlineStr">
@@ -42239,14 +42212,14 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AK271" s="217" t="inlineStr">
-        <is>
-          <t>9.35%</t>
+      <c r="AK271" s="40" t="inlineStr">
+        <is>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="AL271" s="17" t="inlineStr">
         <is>
-          <t>-5.28%</t>
+          <t>-5.38%</t>
         </is>
       </c>
       <c r="AM271" s="19" t="inlineStr">
@@ -42266,7 +42239,7 @@
       </c>
       <c r="AP271" s="17" t="inlineStr">
         <is>
-          <t>2.48%</t>
+          <t>2.52%</t>
         </is>
       </c>
       <c r="AQ271" s="17" t="inlineStr">
@@ -42276,22 +42249,22 @@
       </c>
       <c r="AR271" s="17" t="inlineStr">
         <is>
-          <t>-6.77%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AS271" s="17" t="inlineStr">
         <is>
-          <t>-0.51%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AT271" s="17" t="inlineStr">
         <is>
-          <t>-4.08%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AU271" s="17" t="inlineStr">
         <is>
-          <t>-1.03%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -42323,7 +42296,7 @@
       </c>
       <c r="AK272" s="17" t="inlineStr">
         <is>
-          <t>5.02%</t>
+          <t>5.02%[4.5]</t>
         </is>
       </c>
       <c r="AL272" s="17" t="inlineStr">
@@ -42333,7 +42306,7 @@
       </c>
       <c r="AM272" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.1]</t>
         </is>
       </c>
       <c r="AN272" s="22" t="inlineStr">
@@ -42343,7 +42316,7 @@
       </c>
       <c r="AO272" s="40" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>11.69%[3.0]</t>
         </is>
       </c>
       <c r="AP272" s="17" t="inlineStr">
@@ -42420,12 +42393,12 @@
       </c>
       <c r="AN273" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AO273" s="218" t="inlineStr">
-        <is>
-          <t>8.71%</t>
+          <t>首板*[8.6]</t>
+        </is>
+      </c>
+      <c r="AO273" s="215" t="inlineStr">
+        <is>
+          <t>8.71%[6.2]</t>
         </is>
       </c>
       <c r="AP273" s="17" t="inlineStr">
@@ -42433,7 +42406,7 @@
           <t>-6.85%</t>
         </is>
       </c>
-      <c r="AQ273" s="209" t="inlineStr">
+      <c r="AQ273" s="207" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -42480,7 +42453,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AI274" s="219" t="inlineStr">
+      <c r="AI274" s="216" t="inlineStr">
         <is>
           <t>7.79%</t>
         </is>
@@ -42490,7 +42463,7 @@
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="AK274" s="213" t="inlineStr">
+      <c r="AK274" s="211" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
@@ -42589,17 +42562,17 @@
       </c>
       <c r="AN275" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[8.5]</t>
         </is>
       </c>
       <c r="AO275" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.8]</t>
         </is>
       </c>
       <c r="AP275" s="17" t="inlineStr">
         <is>
-          <t>-2.70%</t>
+          <t>-2.70%[3.7]</t>
         </is>
       </c>
       <c r="AQ275" s="139" t="inlineStr">
@@ -42661,7 +42634,7 @@
       </c>
       <c r="AM276" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.9]</t>
         </is>
       </c>
       <c r="AN276" s="22" t="inlineStr">
@@ -42671,12 +42644,12 @@
       </c>
       <c r="AO276" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[6.5]</t>
         </is>
       </c>
       <c r="AP276" s="17" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>4.24%[3.3]</t>
         </is>
       </c>
       <c r="AQ276" s="17" t="inlineStr">
@@ -42758,12 +42731,12 @@
       </c>
       <c r="AQ277" s="17" t="inlineStr">
         <is>
-          <t>-5.48%</t>
+          <t>-5.48%[10.1]</t>
         </is>
       </c>
       <c r="AR277" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[2.8]</t>
         </is>
       </c>
       <c r="AS277" s="17" t="inlineStr">
@@ -42800,37 +42773,37 @@
       </c>
       <c r="R278" s="19" t="inlineStr">
         <is>
+          <t>首板[2.9]</t>
+        </is>
+      </c>
+      <c r="AJ278" s="17" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="AK278" s="17" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="AL278" s="17" t="inlineStr">
+        <is>
+          <t>3.77%[3.1]</t>
+        </is>
+      </c>
+      <c r="AM278" s="17" t="inlineStr">
+        <is>
+          <t>-3.02%</t>
+        </is>
+      </c>
+      <c r="AN278" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AJ278" s="17" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="AK278" s="17" t="inlineStr">
-        <is>
-          <t>-1.96%</t>
-        </is>
-      </c>
-      <c r="AL278" s="17" t="inlineStr">
-        <is>
-          <t>3.77%</t>
-        </is>
-      </c>
-      <c r="AM278" s="17" t="inlineStr">
-        <is>
-          <t>-3.02%</t>
-        </is>
-      </c>
-      <c r="AN278" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AO278" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.8]</t>
         </is>
       </c>
       <c r="AP278" s="23" t="inlineStr">
@@ -42845,10 +42818,10 @@
       </c>
       <c r="AR278" s="17" t="inlineStr">
         <is>
-          <t>6.01%</t>
-        </is>
-      </c>
-      <c r="AS278" s="220" t="inlineStr">
+          <t>6.01%[2.7]</t>
+        </is>
+      </c>
+      <c r="AS278" s="217" t="inlineStr">
         <is>
           <t>-8.23%</t>
         </is>
@@ -42979,7 +42952,7 @@
       </c>
       <c r="AK280" s="17" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.80%[3.3]</t>
         </is>
       </c>
       <c r="AL280" s="17" t="inlineStr">
@@ -42989,12 +42962,12 @@
       </c>
       <c r="AM280" s="17" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>6.92%[3.8]</t>
         </is>
       </c>
       <c r="AN280" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.6]</t>
         </is>
       </c>
       <c r="AO280" s="22" t="inlineStr">
@@ -43014,7 +42987,7 @@
       </c>
       <c r="AR280" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[3.0]</t>
         </is>
       </c>
       <c r="AS280" s="17" t="inlineStr">
@@ -43022,7 +42995,7 @@
           <t>-3.19%</t>
         </is>
       </c>
-      <c r="AT280" s="221" t="inlineStr">
+      <c r="AT280" s="218" t="inlineStr">
         <is>
           <t>-8.76%</t>
         </is>
@@ -43071,12 +43044,12 @@
       </c>
       <c r="AN281" s="95" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>7.99%[3.6]</t>
         </is>
       </c>
       <c r="AO281" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[5.1]</t>
         </is>
       </c>
       <c r="AP281" s="22" t="inlineStr">
@@ -43146,14 +43119,14 @@
           <t>-0.41%</t>
         </is>
       </c>
-      <c r="AN282" s="222" t="inlineStr">
+      <c r="AN282" s="219" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
       <c r="AO282" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.6]</t>
         </is>
       </c>
       <c r="AP282" s="22" t="inlineStr">
@@ -43161,7 +43134,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AQ282" s="223" t="inlineStr">
+      <c r="AQ282" s="220" t="inlineStr">
         <is>
           <t>-7.77%</t>
         </is>
@@ -43312,7 +43285,7 @@
       </c>
       <c r="AQ284" s="17" t="inlineStr">
         <is>
-          <t>-2.35%</t>
+          <t>-2.35%[9.0]</t>
         </is>
       </c>
       <c r="AR284" s="18" t="inlineStr">
@@ -43379,12 +43352,12 @@
       </c>
       <c r="AN285" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.6]</t>
         </is>
       </c>
       <c r="AO285" s="17" t="inlineStr">
         <is>
-          <t>-4.68%</t>
+          <t>-4.68%[2.9]</t>
         </is>
       </c>
       <c r="AP285" s="23" t="inlineStr">
@@ -43441,12 +43414,12 @@
       </c>
       <c r="AK286" s="17" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="AL286" s="17" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>1.06%</t>
         </is>
       </c>
       <c r="AM286" s="19" t="inlineStr">
@@ -43456,12 +43429,12 @@
       </c>
       <c r="AN286" s="17" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>3.82%[3.6]</t>
         </is>
       </c>
       <c r="AO286" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.5]</t>
         </is>
       </c>
       <c r="AP286" s="23" t="inlineStr">
@@ -43469,9 +43442,9 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AQ286" s="104" t="inlineStr">
-        <is>
-          <t>-8.81%</t>
+      <c r="AQ286" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AR286" s="26" t="inlineStr">
@@ -43486,12 +43459,12 @@
       </c>
       <c r="AT286" s="17" t="inlineStr">
         <is>
-          <t>3.44%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AU286" s="17" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -43533,12 +43506,12 @@
       </c>
       <c r="AO287" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.2]</t>
         </is>
       </c>
       <c r="AP287" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.8]</t>
         </is>
       </c>
       <c r="AQ287" s="17" t="inlineStr">
@@ -43561,7 +43534,7 @@
           <t>9.66%</t>
         </is>
       </c>
-      <c r="AU287" s="224" t="inlineStr">
+      <c r="AU287" s="221" t="inlineStr">
         <is>
           <t>-7.54%</t>
         </is>
@@ -43630,7 +43603,7 @@
       </c>
       <c r="AP288" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.2]</t>
         </is>
       </c>
       <c r="AQ288" s="18" t="inlineStr">
@@ -43677,7 +43650,7 @@
       </c>
       <c r="F289" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.2]</t>
         </is>
       </c>
       <c r="H289" s="22" t="inlineStr">
@@ -43804,34 +43777,34 @@
       </c>
       <c r="P290" s="19" t="inlineStr">
         <is>
+          <t>首板[2.9]</t>
+        </is>
+      </c>
+      <c r="AK290" s="17" t="inlineStr">
+        <is>
+          <t>3.77%[4.6]</t>
+        </is>
+      </c>
+      <c r="AL290" s="17" t="inlineStr">
+        <is>
+          <t>-5.45%</t>
+        </is>
+      </c>
+      <c r="AM290" s="17" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="AN290" s="17" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="AO290" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AK290" s="17" t="inlineStr">
-        <is>
-          <t>3.77%</t>
-        </is>
-      </c>
-      <c r="AL290" s="17" t="inlineStr">
-        <is>
-          <t>-5.45%</t>
-        </is>
-      </c>
-      <c r="AM290" s="17" t="inlineStr">
-        <is>
-          <t>1.92%</t>
-        </is>
-      </c>
-      <c r="AN290" s="17" t="inlineStr">
-        <is>
-          <t>-0.21%</t>
-        </is>
-      </c>
-      <c r="AO290" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AP290" s="22" t="inlineStr">
         <is>
           <t>2板</t>
@@ -43849,7 +43822,7 @@
       </c>
       <c r="AS290" s="16" t="inlineStr">
         <is>
-          <t>5板</t>
+          <t>5板[4.9]</t>
         </is>
       </c>
       <c r="AT290" s="17" t="inlineStr">
@@ -43886,7 +43859,7 @@
       </c>
       <c r="AL291" s="17" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>4.58%[3.6]</t>
         </is>
       </c>
       <c r="AM291" s="17" t="inlineStr">
@@ -43901,7 +43874,7 @@
       </c>
       <c r="AO291" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.7]</t>
         </is>
       </c>
       <c r="AP291" s="22" t="inlineStr">
@@ -43919,7 +43892,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AS291" s="225" t="inlineStr">
+      <c r="AS291" s="222" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
@@ -43958,7 +43931,7 @@
       </c>
       <c r="G292" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.7]</t>
         </is>
       </c>
       <c r="H292" s="23" t="inlineStr">
@@ -43983,7 +43956,7 @@
       </c>
       <c r="L292" s="28" t="inlineStr">
         <is>
-          <t>7板</t>
+          <t>7板[5.1]</t>
         </is>
       </c>
       <c r="N292" s="61" t="inlineStr">
@@ -44100,12 +44073,12 @@
       </c>
       <c r="AK293" s="17" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>6.08%[2.9]</t>
         </is>
       </c>
       <c r="AL293" s="88" t="inlineStr">
         <is>
-          <t>8.05%</t>
+          <t>8.05%[2.6]</t>
         </is>
       </c>
       <c r="AM293" s="17" t="inlineStr">
@@ -44130,7 +44103,7 @@
       </c>
       <c r="AQ293" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="AR293" s="40" t="inlineStr">
@@ -44202,7 +44175,7 @@
       </c>
       <c r="AQ294" s="17" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.27%[3.1]</t>
         </is>
       </c>
       <c r="AR294" s="17" t="inlineStr">
@@ -44269,7 +44242,7 @@
       </c>
       <c r="AP295" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.6]</t>
         </is>
       </c>
       <c r="AQ295" s="22" t="inlineStr">
@@ -44279,7 +44252,7 @@
       </c>
       <c r="AR295" s="40" t="inlineStr">
         <is>
-          <t>13.70%</t>
+          <t>13.70%[4.5]</t>
         </is>
       </c>
       <c r="AS295" s="18" t="inlineStr">
@@ -44326,7 +44299,7 @@
       </c>
       <c r="AM296" s="40" t="inlineStr">
         <is>
-          <t>11.33%</t>
+          <t>11.33%[2.8]</t>
         </is>
       </c>
       <c r="AN296" s="17" t="inlineStr">
@@ -44381,7 +44354,7 @@
           <t>[注射液获临床试验批准+创新药+血友病治疗药物]</t>
         </is>
       </c>
-      <c r="C297" s="142" t="inlineStr">
+      <c r="C297" s="141" t="inlineStr">
         <is>
           <t>舒泰神*</t>
         </is>
@@ -44495,12 +44468,12 @@
       </c>
       <c r="AP298" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AQ298" s="226" t="inlineStr">
-        <is>
-          <t>7.27%</t>
+          <t>首板*[3.3]</t>
+        </is>
+      </c>
+      <c r="AQ298" s="223" t="inlineStr">
+        <is>
+          <t>7.27%[3.2]</t>
         </is>
       </c>
       <c r="AR298" s="40" t="inlineStr">
@@ -44518,7 +44491,7 @@
           <t>10.74%</t>
         </is>
       </c>
-      <c r="AU298" s="224" t="inlineStr">
+      <c r="AU298" s="221" t="inlineStr">
         <is>
           <t>-7.55%</t>
         </is>
@@ -44542,7 +44515,7 @@
       </c>
       <c r="AK299" s="17" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>1.53%[4.0]</t>
         </is>
       </c>
       <c r="AL299" s="17" t="inlineStr">
@@ -44567,12 +44540,12 @@
       </c>
       <c r="AP299" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.5]</t>
         </is>
       </c>
       <c r="AQ299" s="40" t="inlineStr">
         <is>
-          <t>13.22%</t>
+          <t>13.22%[3.0]</t>
         </is>
       </c>
       <c r="AR299" s="17" t="inlineStr">
@@ -44614,7 +44587,7 @@
       </c>
       <c r="R300" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.7]</t>
         </is>
       </c>
       <c r="AK300" s="17" t="inlineStr">
@@ -44644,12 +44617,12 @@
       </c>
       <c r="AP300" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[3.7]</t>
         </is>
       </c>
       <c r="AQ300" s="17" t="inlineStr">
         <is>
-          <t>3.41%</t>
+          <t>3.41%[2.9]</t>
         </is>
       </c>
       <c r="AR300" s="17" t="inlineStr">
@@ -44711,17 +44684,17 @@
       </c>
       <c r="AO301" s="17" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>5.94%[5.2]</t>
         </is>
       </c>
       <c r="AP301" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[7.1]</t>
         </is>
       </c>
       <c r="AQ301" s="17" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>4.73%[4.6]</t>
         </is>
       </c>
       <c r="AR301" s="17" t="inlineStr">
@@ -44840,14 +44813,14 @@
       </c>
       <c r="E303" s="19" t="inlineStr">
         <is>
+          <t>首板[2.6]</t>
+        </is>
+      </c>
+      <c r="U303" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="U303" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AL303" s="17" t="inlineStr">
         <is>
           <t>-1.93%</t>
@@ -44870,12 +44843,12 @@
       </c>
       <c r="AP303" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[5.1]</t>
         </is>
       </c>
       <c r="AQ303" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.2]</t>
         </is>
       </c>
       <c r="AR303" s="23" t="inlineStr">
@@ -44885,7 +44858,7 @@
       </c>
       <c r="AS303" s="17" t="inlineStr">
         <is>
-          <t>-2.04%</t>
+          <t>-2.04%[2.5]</t>
         </is>
       </c>
       <c r="AT303" s="26" t="inlineStr">
@@ -44922,67 +44895,67 @@
       </c>
       <c r="K304" s="22" t="inlineStr">
         <is>
+          <t>2板[3.4]</t>
+        </is>
+      </c>
+      <c r="Q304" s="19" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="R304" s="22" t="inlineStr">
+        <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="Q304" s="19" t="inlineStr">
+      <c r="S304" s="23" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="T304" s="26" t="inlineStr">
+        <is>
+          <t>4板[9.5]</t>
+        </is>
+      </c>
+      <c r="AL304" s="17" t="inlineStr">
+        <is>
+          <t>-4.09%</t>
+        </is>
+      </c>
+      <c r="AM304" s="17" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="AN304" s="17" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="AO304" s="17" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="AP304" s="19" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="R304" s="22" t="inlineStr">
+      <c r="AQ304" s="22" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="S304" s="23" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="T304" s="26" t="inlineStr">
-        <is>
-          <t>4板</t>
-        </is>
-      </c>
-      <c r="AL304" s="17" t="inlineStr">
-        <is>
-          <t>-4.09%</t>
-        </is>
-      </c>
-      <c r="AM304" s="17" t="inlineStr">
-        <is>
-          <t>1.83%</t>
-        </is>
-      </c>
-      <c r="AN304" s="17" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="AO304" s="17" t="inlineStr">
-        <is>
-          <t>1.62%</t>
-        </is>
-      </c>
-      <c r="AP304" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AQ304" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
       <c r="AR304" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="AS304" s="147" t="inlineStr">
-        <is>
-          <t>-7.31%</t>
+          <t>3板[3.0]</t>
+        </is>
+      </c>
+      <c r="AS304" s="146" t="inlineStr">
+        <is>
+          <t>-7.31%[2.6]</t>
         </is>
       </c>
       <c r="AT304" s="17" t="inlineStr">
@@ -45032,7 +45005,7 @@
           <t>-3.05%</t>
         </is>
       </c>
-      <c r="AM305" s="210" t="inlineStr">
+      <c r="AM305" s="208" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -45064,7 +45037,7 @@
       </c>
       <c r="AS305" s="17" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>4.12%[3.4]</t>
         </is>
       </c>
       <c r="AT305" s="26" t="inlineStr">
@@ -45072,7 +45045,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AU305" s="227" t="inlineStr">
+      <c r="AU305" s="224" t="inlineStr">
         <is>
           <t>-7.83%</t>
         </is>
@@ -45111,12 +45084,12 @@
       </c>
       <c r="AN306" s="17" t="inlineStr">
         <is>
-          <t>6.17%</t>
+          <t>6.17%[2.5]</t>
         </is>
       </c>
       <c r="AO306" s="17" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.62%[2.7]</t>
         </is>
       </c>
       <c r="AP306" s="19" t="inlineStr">
@@ -45178,7 +45151,7 @@
       </c>
       <c r="AO307" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[7.6]</t>
         </is>
       </c>
       <c r="AP307" s="22" t="inlineStr">
@@ -45188,7 +45161,7 @@
       </c>
       <c r="AQ307" s="17" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>2.51%[9.0]</t>
         </is>
       </c>
       <c r="AR307" s="23" t="inlineStr">
@@ -45245,17 +45218,17 @@
       </c>
       <c r="H308" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[3.3]</t>
         </is>
       </c>
       <c r="AF308" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="AG308" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.3]</t>
         </is>
       </c>
       <c r="AJ308" s="23" t="inlineStr">
@@ -45327,7 +45300,7 @@
       </c>
       <c r="AJ309" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[6.3]</t>
         </is>
       </c>
       <c r="AM309" s="17" t="inlineStr">
@@ -45352,12 +45325,12 @@
       </c>
       <c r="AQ309" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[3.7]</t>
         </is>
       </c>
       <c r="AR309" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.1]</t>
         </is>
       </c>
       <c r="AS309" s="23" t="inlineStr">
@@ -45394,42 +45367,42 @@
       </c>
       <c r="L310" s="19" t="inlineStr">
         <is>
+          <t>首板*[2.9]</t>
+        </is>
+      </c>
+      <c r="AM310" s="17" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="AN310" s="17" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="AO310" s="17" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="AP310" s="17" t="inlineStr">
+        <is>
+          <t>5.35%[3.4]</t>
+        </is>
+      </c>
+      <c r="AQ310" s="40" t="inlineStr">
+        <is>
+          <t>12.06%[4.6]</t>
+        </is>
+      </c>
+      <c r="AR310" s="19" t="inlineStr">
+        <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AM310" s="17" t="inlineStr">
-        <is>
-          <t>0.07%</t>
-        </is>
-      </c>
-      <c r="AN310" s="17" t="inlineStr">
-        <is>
-          <t>0.55%</t>
-        </is>
-      </c>
-      <c r="AO310" s="17" t="inlineStr">
-        <is>
-          <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="AP310" s="17" t="inlineStr">
-        <is>
-          <t>5.35%</t>
-        </is>
-      </c>
-      <c r="AQ310" s="40" t="inlineStr">
-        <is>
-          <t>12.06%</t>
-        </is>
-      </c>
-      <c r="AR310" s="19" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
       <c r="AS310" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.8]</t>
         </is>
       </c>
       <c r="AT310" s="23" t="inlineStr">
@@ -45437,7 +45410,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AU310" s="228" t="inlineStr">
+      <c r="AU310" s="225" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
@@ -45461,12 +45434,12 @@
       </c>
       <c r="M311" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[4.6]</t>
         </is>
       </c>
       <c r="AI311" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[2.7]</t>
         </is>
       </c>
       <c r="AM311" s="17" t="inlineStr">
@@ -45615,7 +45588,7 @@
       </c>
       <c r="Y313" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.3]</t>
         </is>
       </c>
       <c r="AI313" s="19" t="inlineStr">
@@ -45710,9 +45683,9 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AQ314" s="229" t="inlineStr">
-        <is>
-          <t>7.02%</t>
+      <c r="AQ314" s="226" t="inlineStr">
+        <is>
+          <t>7.02%[11.0]</t>
         </is>
       </c>
       <c r="AR314" s="18" t="inlineStr">
@@ -45722,7 +45695,7 @@
       </c>
       <c r="AS314" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.5]</t>
         </is>
       </c>
       <c r="AT314" s="18" t="inlineStr">
@@ -45774,17 +45747,17 @@
       </c>
       <c r="AR315" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.9]</t>
         </is>
       </c>
       <c r="AS315" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[7.3]</t>
         </is>
       </c>
       <c r="AT315" s="17" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>3.56%[2.7]</t>
         </is>
       </c>
       <c r="AU315" s="17" t="inlineStr">
@@ -45816,12 +45789,12 @@
       </c>
       <c r="AB316" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.5]</t>
         </is>
       </c>
       <c r="AN316" s="17" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>5.52%[3.0]</t>
         </is>
       </c>
       <c r="AO316" s="19" t="inlineStr">
@@ -45831,12 +45804,12 @@
       </c>
       <c r="AP316" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[5.7]</t>
         </is>
       </c>
       <c r="AQ316" s="18" t="inlineStr">
         <is>
-          <t>-9.73%</t>
+          <t>-9.73%[3.0]</t>
         </is>
       </c>
       <c r="AR316" s="17" t="inlineStr">
@@ -45903,17 +45876,17 @@
       </c>
       <c r="AN317" s="17" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AO317" s="17" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AP317" s="17" t="inlineStr">
         <is>
-          <t>2.29%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AQ317" s="19" t="inlineStr">
@@ -45931,9 +45904,9 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AT317" s="18" t="inlineStr">
-        <is>
-          <t>-9.95%</t>
+      <c r="AT317" s="17" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AU317" s="26" t="inlineStr">
@@ -45975,7 +45948,7 @@
       </c>
       <c r="AQ318" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.9]</t>
         </is>
       </c>
       <c r="AR318" s="22" t="inlineStr">
@@ -45985,7 +45958,7 @@
       </c>
       <c r="AS318" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[2.9]</t>
         </is>
       </c>
       <c r="AT318" s="26" t="inlineStr">
@@ -46099,7 +46072,7 @@
       </c>
       <c r="AR320" s="17" t="inlineStr">
         <is>
-          <t>-4.54%</t>
+          <t>-4.54%[3.0]</t>
         </is>
       </c>
       <c r="AS320" s="107" t="inlineStr">
@@ -46161,12 +46134,12 @@
       </c>
       <c r="AT321" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[4.4]</t>
         </is>
       </c>
       <c r="AU321" s="26" t="inlineStr">
         <is>
-          <t>4板</t>
+          <t>4板[2.6]</t>
         </is>
       </c>
     </row>
@@ -46193,17 +46166,17 @@
       </c>
       <c r="AP322" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.4]</t>
         </is>
       </c>
       <c r="AQ322" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[9.3]</t>
         </is>
       </c>
       <c r="AR322" s="98" t="inlineStr">
         <is>
-          <t>-8.09%</t>
+          <t>-8.09%[2.6]</t>
         </is>
       </c>
       <c r="AS322" s="17" t="inlineStr">
@@ -46250,7 +46223,7 @@
       </c>
       <c r="AQ323" s="17" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>5.17%[5.0]</t>
         </is>
       </c>
       <c r="AR323" s="19" t="inlineStr">
@@ -46260,7 +46233,7 @@
       </c>
       <c r="AS323" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[2.6]</t>
         </is>
       </c>
       <c r="AT323" s="23" t="inlineStr">
@@ -46268,9 +46241,9 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AU323" s="230" t="inlineStr">
-        <is>
-          <t>7.97%</t>
+      <c r="AU323" s="227" t="inlineStr">
+        <is>
+          <t>7.97%[2.7]</t>
         </is>
       </c>
     </row>
@@ -46312,7 +46285,7 @@
       </c>
       <c r="AQ324" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[2.7]</t>
         </is>
       </c>
       <c r="AR324" s="17" t="inlineStr">
@@ -46322,7 +46295,7 @@
       </c>
       <c r="AS324" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[3.5]</t>
         </is>
       </c>
       <c r="AT324" s="23" t="inlineStr">
@@ -46384,7 +46357,7 @@
       </c>
       <c r="AU325" s="17" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>4.73%[3.3]</t>
         </is>
       </c>
     </row>
@@ -46416,22 +46389,22 @@
       </c>
       <c r="AO326" s="17" t="inlineStr">
         <is>
-          <t>-1.82%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AP326" s="17" t="inlineStr">
         <is>
-          <t>3.87%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AQ326" s="17" t="inlineStr">
         <is>
-          <t>-3.07%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AR326" s="17" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>停牌</t>
         </is>
       </c>
       <c r="AS326" s="19" t="inlineStr">
@@ -46468,47 +46441,47 @@
       </c>
       <c r="P327" s="19" t="inlineStr">
         <is>
+          <t>首板[4.5]</t>
+        </is>
+      </c>
+      <c r="Q327" s="22" t="inlineStr">
+        <is>
+          <t>2板[3.7]</t>
+        </is>
+      </c>
+      <c r="AO327" s="17" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="AP327" s="17" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="AQ327" s="17" t="inlineStr">
+        <is>
+          <t>-1.97%</t>
+        </is>
+      </c>
+      <c r="AR327" s="17" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="AS327" s="19" t="inlineStr">
+        <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="Q327" s="22" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AO327" s="17" t="inlineStr">
-        <is>
-          <t>-0.71%</t>
-        </is>
-      </c>
-      <c r="AP327" s="17" t="inlineStr">
-        <is>
-          <t>2.45%</t>
-        </is>
-      </c>
-      <c r="AQ327" s="17" t="inlineStr">
-        <is>
-          <t>-1.97%</t>
-        </is>
-      </c>
-      <c r="AR327" s="17" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="AS327" s="19" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
       <c r="AT327" s="22" t="inlineStr">
         <is>
-          <t>2板</t>
+          <t>2板[4.7]</t>
         </is>
       </c>
       <c r="AU327" s="23" t="inlineStr">
         <is>
-          <t>3板</t>
+          <t>3板[3.5]</t>
         </is>
       </c>
     </row>
@@ -46607,12 +46580,12 @@
       </c>
       <c r="AT329" s="19" t="inlineStr">
         <is>
-          <t>首板*</t>
+          <t>首板*[5.9]</t>
         </is>
       </c>
       <c r="AU329" s="40" t="inlineStr">
         <is>
-          <t>11.06%</t>
+          <t>11.06%[4.3]</t>
         </is>
       </c>
     </row>
@@ -46681,7 +46654,7 @@
       </c>
       <c r="Z331" s="19" t="inlineStr">
         <is>
-          <t>首板</t>
+          <t>首板[4.3]</t>
         </is>
       </c>
       <c r="AP331" s="17" t="inlineStr">
@@ -46797,436 +46770,436 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="231" t="inlineStr">
+      <c r="A1" s="228" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="232" t="n"/>
+      <c r="B1" s="229" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="233" t="inlineStr">
+      <c r="A2" s="230" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="233" t="inlineStr">
+      <c r="B2" s="230" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="234" t="inlineStr">
+      <c r="A3" s="231" t="inlineStr">
         <is>
           <t>跨境</t>
         </is>
       </c>
-      <c r="B3" s="232" t="n">
+      <c r="B3" s="229" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="235" t="inlineStr">
+      <c r="A4" s="232" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B4" s="232" t="n">
+      <c r="B4" s="229" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="236" t="inlineStr">
+      <c r="A5" s="233" t="inlineStr">
         <is>
           <t>传统消费</t>
         </is>
       </c>
-      <c r="B5" s="232" t="n">
+      <c r="B5" s="229" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="237" t="inlineStr">
+      <c r="A6" s="234" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B6" s="232" t="n">
+      <c r="B6" s="229" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="238" t="inlineStr">
+      <c r="A7" s="235" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B7" s="232" t="n">
+      <c r="B7" s="229" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="239" t="inlineStr">
+      <c r="A8" s="236" t="inlineStr">
         <is>
           <t>新能源</t>
         </is>
       </c>
-      <c r="B8" s="232" t="n">
+      <c r="B8" s="229" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="240" t="inlineStr">
+      <c r="A9" s="237" t="inlineStr">
         <is>
           <t>AI大模型</t>
         </is>
       </c>
-      <c r="B9" s="232" t="n">
+      <c r="B9" s="229" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="241" t="inlineStr">
+      <c r="A10" s="238" t="inlineStr">
         <is>
           <t>化工</t>
         </is>
       </c>
-      <c r="B10" s="232" t="n">
+      <c r="B10" s="229" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="242" t="inlineStr">
+      <c r="A11" s="239" t="inlineStr">
         <is>
           <t>新消费</t>
         </is>
       </c>
-      <c r="B11" s="232" t="n">
+      <c r="B11" s="229" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="233" t="inlineStr">
+      <c r="A12" s="230" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="232" t="n"/>
+      <c r="B12" s="229" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="232" t="inlineStr">
+      <c r="A13" s="229" t="inlineStr">
         <is>
           <t>半导体</t>
         </is>
       </c>
-      <c r="B13" s="232" t="n">
+      <c r="B13" s="229" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="232" t="inlineStr">
+      <c r="A14" s="229" t="inlineStr">
         <is>
           <t>核聚变</t>
         </is>
       </c>
-      <c r="B14" s="232" t="n">
+      <c r="B14" s="229" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="232" t="inlineStr">
+      <c r="A15" s="229" t="inlineStr">
         <is>
           <t>无人经济</t>
         </is>
       </c>
-      <c r="B15" s="232" t="n">
+      <c r="B15" s="229" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="232" t="inlineStr">
+      <c r="A16" s="229" t="inlineStr">
         <is>
           <t>稳定币</t>
         </is>
       </c>
-      <c r="B16" s="232" t="n">
+      <c r="B16" s="229" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="232" t="inlineStr">
+      <c r="A17" s="229" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B17" s="232" t="n">
+      <c r="B17" s="229" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="232" t="inlineStr">
+      <c r="A18" s="229" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B18" s="232" t="n">
+      <c r="B18" s="229" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="232" t="inlineStr">
+      <c r="A19" s="229" t="inlineStr">
         <is>
           <t>AI算力</t>
         </is>
       </c>
-      <c r="B19" s="232" t="n">
+      <c r="B19" s="229" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="232" t="inlineStr">
+      <c r="A20" s="229" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B20" s="232" t="n">
+      <c r="B20" s="229" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="232" t="inlineStr">
+      <c r="A21" s="229" t="inlineStr">
         <is>
           <t>重组</t>
         </is>
       </c>
-      <c r="B21" s="232" t="n">
+      <c r="B21" s="229" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="232" t="inlineStr">
+      <c r="A22" s="229" t="inlineStr">
         <is>
           <t>新型材料</t>
         </is>
       </c>
-      <c r="B22" s="232" t="n">
+      <c r="B22" s="229" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="232" t="inlineStr">
+      <c r="A23" s="229" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B23" s="232" t="n">
+      <c r="B23" s="229" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="232" t="inlineStr">
+      <c r="A24" s="229" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="232" t="n">
+      <c r="B24" s="229" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="232" t="inlineStr">
+      <c r="A25" s="229" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B25" s="232" t="n">
+      <c r="B25" s="229" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="232" t="inlineStr">
+      <c r="A26" s="229" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="232" t="n">
+      <c r="B26" s="229" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="232" t="inlineStr">
+      <c r="A27" s="229" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="232" t="n">
+      <c r="B27" s="229" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="232" t="inlineStr">
+      <c r="A28" s="229" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B28" s="232" t="n">
+      <c r="B28" s="229" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="232" t="inlineStr">
+      <c r="A29" s="229" t="inlineStr">
         <is>
           <t>旅游</t>
         </is>
       </c>
-      <c r="B29" s="232" t="n">
+      <c r="B29" s="229" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="232" t="inlineStr">
+      <c r="A30" s="229" t="inlineStr">
         <is>
           <t>小米概念</t>
         </is>
       </c>
-      <c r="B30" s="232" t="n">
+      <c r="B30" s="229" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="233" t="inlineStr">
+      <c r="A31" s="230" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B31" s="232" t="n"/>
+      <c r="B31" s="229" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="232" t="inlineStr">
+      <c r="A32" s="229" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B32" s="232" t="n">
+      <c r="B32" s="229" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="232" t="inlineStr">
+      <c r="A33" s="229" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B33" s="232" t="n">
+      <c r="B33" s="229" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="232" t="inlineStr">
+      <c r="A34" s="229" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B34" s="232" t="n">
+      <c r="B34" s="229" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="243" t="inlineStr">
+      <c r="A35" s="240" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B35" s="232" t="n"/>
+      <c r="B35" s="229" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="233" t="inlineStr">
+      <c r="A36" s="230" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B36" s="232" t="n"/>
+      <c r="B36" s="229" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="244" t="inlineStr">
+      <c r="A37" s="241" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B37" s="232" t="n"/>
+      <c r="B37" s="229" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="245" t="inlineStr">
+      <c r="A38" s="242" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B38" s="232" t="n"/>
+      <c r="B38" s="229" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="246" t="inlineStr">
+      <c r="A39" s="243" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B39" s="232" t="n"/>
+      <c r="B39" s="229" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="247" t="inlineStr">
+      <c r="A40" s="244" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B40" s="232" t="n"/>
+      <c r="B40" s="229" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="248" t="inlineStr">
+      <c r="A41" s="245" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B41" s="232" t="n"/>
+      <c r="B41" s="229" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="249" t="inlineStr">
+      <c r="A42" s="246" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B42" s="232" t="n"/>
+      <c r="B42" s="229" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="233" t="inlineStr">
+      <c r="A43" s="230" t="inlineStr">
         <is>
           <t>重复入选颜色</t>
         </is>
       </c>
-      <c r="B43" s="232" t="n"/>
+      <c r="B43" s="229" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="250" t="inlineStr">
+      <c r="A44" s="247" t="inlineStr">
         <is>
           <t>2次入选</t>
         </is>
       </c>
-      <c r="B44" s="232" t="n"/>
+      <c r="B44" s="229" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="251" t="inlineStr">
+      <c r="A45" s="248" t="inlineStr">
         <is>
           <t>3次入选</t>
         </is>
       </c>
-      <c r="B45" s="232" t="n"/>
+      <c r="B45" s="229" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="252" t="inlineStr">
+      <c r="A46" s="249" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B46" s="232" t="n"/>
+      <c r="B46" s="229" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -51,7 +51,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="229">
+  <fills count="233">
     <fill>
       <patternFill/>
     </fill>
@@ -95,7 +95,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006AD15A"/>
+        <fgColor rgb="00FFCE30"/>
       </patternFill>
     </fill>
     <fill>
@@ -153,7 +153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009966FF"/>
+        <fgColor rgb="0045B5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -216,11 +216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDA0DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="007FFF7F"/>
         <bgColor rgb="007FFF7F"/>
       </patternFill>
@@ -265,6 +260,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF75"/>
         <bgColor rgb="00FFFF75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDA0DD"/>
       </patternFill>
     </fill>
     <fill>
@@ -539,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCE30"/>
+        <fgColor rgb="006AD15A"/>
       </patternFill>
     </fill>
     <fill>
@@ -700,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045B5FF"/>
+        <fgColor rgb="009966FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -859,6 +859,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="008EFF8E"/>
+        <bgColor rgb="008EFF8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="009CFF9C"/>
         <bgColor rgb="009CFF9C"/>
       </patternFill>
@@ -867,12 +873,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00EEFFEE"/>
         <bgColor rgb="00EEFFEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008EFF8E"/>
-        <bgColor rgb="008EFF8E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1242,6 +1242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="006DFF6D"/>
+        <bgColor rgb="006DFF6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0074FF74"/>
         <bgColor rgb="0074FF74"/>
       </patternFill>
@@ -1274,6 +1280,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00A4FFA4"/>
         <bgColor rgb="00A4FFA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF58"/>
+        <bgColor rgb="00FFFF58"/>
       </patternFill>
     </fill>
     <fill>
@@ -1356,6 +1368,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF47"/>
+        <bgColor rgb="00FFFF47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFFB7"/>
         <bgColor rgb="00FFFFB7"/>
       </patternFill>
@@ -1382,6 +1400,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF88"/>
         <bgColor rgb="00FFFF88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF44"/>
+        <bgColor rgb="00FFFF44"/>
       </patternFill>
     </fill>
     <fill>
@@ -1423,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1520,19 +1544,19 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1547,8 +1571,8 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2111,6 +2135,18 @@
     <xf numFmtId="0" fontId="0" fillId="226" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="228" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="230" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,14 +2154,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="54" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="85" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="66" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="133" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="227" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2133,7 +2169,7 @@
     <xf numFmtId="0" fontId="7" fillId="169" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="228" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="232" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3833,6 +3869,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AX73" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 10:47:55 
+最终涨停: 14:52:31 
+开板次数: 11</t>
+      </text>
+    </comment>
     <comment ref="N74" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -6473,6 +6517,14 @@
 开板次数: 6</t>
       </text>
     </comment>
+    <comment ref="AX181" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:40:44 
+最终涨停: 13:28:44 
+开板次数: 2</t>
+      </text>
+    </comment>
     <comment ref="AD182" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -6761,6 +6813,14 @@
 开板次数: 4</t>
       </text>
     </comment>
+    <comment ref="AX187" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:26:08 
+最终涨停: 14:53:59 
+开板次数: 20</t>
+      </text>
+    </comment>
     <comment ref="AD188" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -9617,6 +9677,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AX314" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 10:47:55 
+最终涨停: 14:52:31 
+开板次数: 11</t>
+      </text>
+    </comment>
     <comment ref="AS315" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9657,6 +9725,14 @@
 开板次数: 6</t>
       </text>
     </comment>
+    <comment ref="AX315" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 
+首次涨停: 09:31:02 
+最终涨停: 13:32:17 
+开板次数: 3</t>
+      </text>
+    </comment>
     <comment ref="AT316" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9817,6 +9893,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AX324" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:31:42 
+最终涨停: 14:30:27 
+开板次数: 23</t>
+      </text>
+    </comment>
     <comment ref="R325" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9889,6 +9973,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AX329" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AM330" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -10038,6 +10130,126 @@
         <t>3天3板 
 首次涨停: 13:31:48 
 最终涨停: 14:53:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AW337" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:27 
+最终涨停: 09:35:42 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AX337" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:30:15 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AW338" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AX338" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:42:15 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AW339" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:42 
+最终涨停: 09:30:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AX339" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:49 
+最终涨停: 09:58:49 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AD340" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE340" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF340" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:03 
+最终涨停: 09:49:12 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AG340" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 10:39:13 
+最终涨停: 14:23:55 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AJ340" authorId="0" shapeId="0">
+      <text>
+        <t>8天6板 
+首次涨停: 13:43:52 
+最终涨停: 13:43:52 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AM340" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 10:01:43 
+最终涨停: 10:01:43 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AN340" authorId="0" shapeId="0">
+      <text>
+        <t>12天8板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AO340" authorId="0" shapeId="0">
+      <text>
+        <t>13天9板 
+首次涨停: 09:44:22 
+最终涨停: 10:24:10 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AX340" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:40:44 
+最终涨停: 13:28:44 
 开板次数: 2</t>
       </text>
     </comment>
@@ -10334,7 +10546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX336"/>
+  <dimension ref="A1:AY343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -10394,6 +10606,7 @@
     <col width="12" customWidth="1" min="47" max="47"/>
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
+    <col width="12" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -10687,6 +10900,12 @@
 星期一</t>
         </is>
       </c>
+      <c r="AX1" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-10
+星期二</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="4" t="inlineStr">
@@ -10917,6 +11136,11 @@
       <c r="AW2" s="9" t="inlineStr">
         <is>
           <t>1.07%</t>
+        </is>
+      </c>
+      <c r="AX2" s="7" t="inlineStr">
+        <is>
+          <t>-1.17%</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11378,12 @@
           <t>202.83</t>
         </is>
       </c>
-      <c r="AX3" s="11" t="n"/>
+      <c r="AX3" s="13" t="inlineStr">
+        <is>
+          <t>237.69</t>
+        </is>
+      </c>
+      <c r="AY3" s="11" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -11357,6 +11586,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX4" s="19" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -11913,6 +12147,11 @@
           <t>1.56%</t>
         </is>
       </c>
+      <c r="AX7" s="19" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
@@ -11987,7 +12226,7 @@
           <t>002132</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
+      <c r="B9" s="38" t="inlineStr">
         <is>
           <t>[黄金概念+采矿许可+有机硅]</t>
         </is>
@@ -12022,7 +12261,7 @@
           <t>-9.88%</t>
         </is>
       </c>
-      <c r="I9" s="41" t="inlineStr">
+      <c r="I9" s="40" t="inlineStr">
         <is>
           <t>-8.06%</t>
         </is>
@@ -12084,7 +12323,7 @@
           <t>300871</t>
         </is>
       </c>
-      <c r="B10" s="40" t="inlineStr">
+      <c r="B10" s="38" t="inlineStr">
         <is>
           <t>[兽用药品+泰乐菌素涨价+中药]</t>
         </is>
@@ -12094,7 +12333,7 @@
           <t>回盛生物*</t>
         </is>
       </c>
-      <c r="D10" s="42" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>101.64%</t>
         </is>
@@ -12104,22 +12343,22 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="F10" s="43" t="inlineStr">
+      <c r="F10" s="42" t="inlineStr">
         <is>
           <t>8.15%</t>
         </is>
       </c>
-      <c r="G10" s="44" t="inlineStr">
+      <c r="G10" s="43" t="inlineStr">
         <is>
           <t>19.83%</t>
         </is>
       </c>
-      <c r="H10" s="45" t="inlineStr">
+      <c r="H10" s="44" t="inlineStr">
         <is>
           <t>-7.69%</t>
         </is>
       </c>
-      <c r="I10" s="46" t="inlineStr">
+      <c r="I10" s="45" t="inlineStr">
         <is>
           <t>7.77%</t>
         </is>
@@ -12139,7 +12378,7 @@
           <t>0.97%</t>
         </is>
       </c>
-      <c r="M10" s="47" t="inlineStr">
+      <c r="M10" s="46" t="inlineStr">
         <is>
           <t>8.25%</t>
         </is>
@@ -12151,7 +12390,7 @@
           <t>301075</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
+      <c r="B11" s="38" t="inlineStr">
         <is>
           <t>[血浆代用品+小微盘股]</t>
         </is>
@@ -12176,7 +12415,7 @@
           <t>-1.02%[2.5]</t>
         </is>
       </c>
-      <c r="G11" s="44" t="inlineStr">
+      <c r="G11" s="43" t="inlineStr">
         <is>
           <t>9.67%</t>
         </is>
@@ -12263,7 +12502,7 @@
           <t>603169</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
+      <c r="B12" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+氢能源+能源化工装备]</t>
         </is>
@@ -12411,6 +12650,11 @@
       <c r="AW12" s="19" t="inlineStr">
         <is>
           <t>2.98%</t>
+        </is>
+      </c>
+      <c r="AX12" s="19" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12664,7 @@
           <t>300963</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
+      <c r="B13" s="47" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -12637,7 +12881,7 @@
           <t>301256</t>
         </is>
       </c>
-      <c r="B14" s="40" t="inlineStr">
+      <c r="B14" s="38" t="inlineStr">
         <is>
           <t>[化学原料+电子化学品]</t>
         </is>
@@ -12697,7 +12941,7 @@
           <t>3.44%</t>
         </is>
       </c>
-      <c r="N14" s="44" t="inlineStr">
+      <c r="N14" s="43" t="inlineStr">
         <is>
           <t>10.58%</t>
         </is>
@@ -12724,7 +12968,7 @@
           <t>002427</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
+      <c r="B15" s="38" t="inlineStr">
         <is>
           <t>[超高分子量聚乙烯纤维+涤纶+陕西国资]</t>
         </is>
@@ -12962,6 +13206,11 @@
       <c r="AW15" s="19" t="inlineStr">
         <is>
           <t>4.00%</t>
+        </is>
+      </c>
+      <c r="AX15" s="19" t="inlineStr">
+        <is>
+          <t>-2.50%</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13292,7 @@
           <t>603985</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
+      <c r="B17" s="38" t="inlineStr">
         <is>
           <t>[算力租赁+风电+国企]</t>
         </is>
@@ -13220,7 +13469,7 @@
           <t>4板[3.3]</t>
         </is>
       </c>
-      <c r="J18" s="44" t="inlineStr">
+      <c r="J18" s="43" t="inlineStr">
         <is>
           <t>10.02%</t>
         </is>
@@ -13343,6 +13592,11 @@
       <c r="AW18" s="19" t="inlineStr">
         <is>
           <t>2.92%</t>
+        </is>
+      </c>
+      <c r="AX18" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -13502,6 +13756,11 @@
           <t>1.13%</t>
         </is>
       </c>
+      <c r="AX19" s="19" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="inlineStr">
@@ -13509,7 +13768,7 @@
           <t>001212</t>
         </is>
       </c>
-      <c r="B20" s="40" t="inlineStr">
+      <c r="B20" s="38" t="inlineStr">
         <is>
           <t>[星空科技入主+半导体装备]</t>
         </is>
@@ -13732,6 +13991,11 @@
       <c r="AW20" s="19" t="inlineStr">
         <is>
           <t>2.53%</t>
+        </is>
+      </c>
+      <c r="AX20" s="19" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
         </is>
       </c>
     </row>
@@ -13826,6 +14090,11 @@
           <t>0.68%</t>
         </is>
       </c>
+      <c r="AX21" s="19" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="inlineStr">
@@ -13833,7 +14102,7 @@
           <t>601069</t>
         </is>
       </c>
-      <c r="B22" s="40" t="inlineStr">
+      <c r="B22" s="38" t="inlineStr">
         <is>
           <t>[黄金+锰]</t>
         </is>
@@ -14021,6 +14290,11 @@
       <c r="AW22" s="19" t="inlineStr">
         <is>
           <t>-1.35%</t>
+        </is>
+      </c>
+      <c r="AX22" s="19" t="inlineStr">
+        <is>
+          <t>1.53%</t>
         </is>
       </c>
     </row>
@@ -14200,6 +14474,11 @@
           <t>0.35%</t>
         </is>
       </c>
+      <c r="AX23" s="19" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="inlineStr">
@@ -14387,6 +14666,11 @@
           <t>-2.09%</t>
         </is>
       </c>
+      <c r="AX24" s="19" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="inlineStr">
@@ -14546,7 +14830,7 @@
           <t>301156</t>
         </is>
       </c>
-      <c r="B26" s="40" t="inlineStr">
+      <c r="B26" s="38" t="inlineStr">
         <is>
           <t>[酶解蛋白产品+饲料添加剂+宠物经济]</t>
         </is>
@@ -14561,7 +14845,7 @@
           <t>34.00%</t>
         </is>
       </c>
-      <c r="E26" s="44" t="inlineStr">
+      <c r="E26" s="43" t="inlineStr">
         <is>
           <t>13.12%</t>
         </is>
@@ -14586,7 +14870,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="J26" s="44" t="inlineStr">
+      <c r="J26" s="43" t="inlineStr">
         <is>
           <t>16.99%</t>
         </is>
@@ -14641,7 +14925,7 @@
           <t>-2.59%</t>
         </is>
       </c>
-      <c r="AJ26" s="44" t="inlineStr">
+      <c r="AJ26" s="43" t="inlineStr">
         <is>
           <t>13.81%</t>
         </is>
@@ -14775,7 +15059,7 @@
           <t>002688</t>
         </is>
       </c>
-      <c r="B28" s="40" t="inlineStr">
+      <c r="B28" s="38" t="inlineStr">
         <is>
           <t>[适时调高美国市场产品售价+兽药+动物保健品]</t>
         </is>
@@ -14912,7 +15196,7 @@
           <t>300189</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
+      <c r="B29" s="38" t="inlineStr">
         <is>
           <t>[农业种植+水产养殖+海南]</t>
         </is>
@@ -14952,7 +15236,7 @@
           <t>2板[3.3]</t>
         </is>
       </c>
-      <c r="J29" s="44" t="inlineStr">
+      <c r="J29" s="43" t="inlineStr">
         <is>
           <t>9.67%[2.2]</t>
         </is>
@@ -14999,7 +15283,7 @@
           <t>831087</t>
         </is>
       </c>
-      <c r="B30" s="40" t="inlineStr">
+      <c r="B30" s="38" t="inlineStr">
         <is>
           <t>[种业+国企]</t>
         </is>
@@ -15091,7 +15375,7 @@
           <t>300967</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr">
+      <c r="B31" s="38" t="inlineStr">
         <is>
           <t>[养鸡+鸡产品销售实现量价齐升]</t>
         </is>
@@ -15126,7 +15410,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="I31" s="44" t="inlineStr">
+      <c r="I31" s="43" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
@@ -15151,7 +15435,7 @@
           <t>1.38%</t>
         </is>
       </c>
-      <c r="N31" s="44" t="inlineStr">
+      <c r="N31" s="43" t="inlineStr">
         <is>
           <t>10.05%</t>
         </is>
@@ -15173,7 +15457,7 @@
           <t>002982</t>
         </is>
       </c>
-      <c r="B32" s="40" t="inlineStr">
+      <c r="B32" s="38" t="inlineStr">
         <is>
           <t>[养鸡+猪肉+预制菜]</t>
         </is>
@@ -15281,6 +15565,11 @@
       <c r="AW32" s="19" t="inlineStr">
         <is>
           <t>1.62%</t>
+        </is>
+      </c>
+      <c r="AX32" s="19" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
         </is>
       </c>
     </row>
@@ -15587,6 +15876,11 @@
           <t>2.06%</t>
         </is>
       </c>
+      <c r="AX34" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="inlineStr">
@@ -15594,7 +15888,7 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B35" s="40" t="inlineStr">
+      <c r="B35" s="38" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
@@ -15827,6 +16121,11 @@
       <c r="AW35" s="19" t="inlineStr">
         <is>
           <t>4.59%</t>
+        </is>
+      </c>
+      <c r="AX35" s="19" t="inlineStr">
+        <is>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -15836,7 +16135,7 @@
           <t>603221</t>
         </is>
       </c>
-      <c r="B36" s="40" t="inlineStr">
+      <c r="B36" s="38" t="inlineStr">
         <is>
           <t>[弹性地板+美国工厂+年报预增]</t>
         </is>
@@ -15939,6 +16238,11 @@
       <c r="AW36" s="19" t="inlineStr">
         <is>
           <t>0.70%</t>
+        </is>
+      </c>
+      <c r="AX36" s="19" t="inlineStr">
+        <is>
+          <t>-2.34%</t>
         </is>
       </c>
     </row>
@@ -16188,6 +16492,11 @@
           <t>2.98%</t>
         </is>
       </c>
+      <c r="AX37" s="19" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="inlineStr">
@@ -16210,7 +16519,7 @@
           <t>25.31%</t>
         </is>
       </c>
-      <c r="E38" s="44" t="inlineStr">
+      <c r="E38" s="43" t="inlineStr">
         <is>
           <t>10.02%</t>
         </is>
@@ -16422,7 +16731,7 @@
           <t>600598</t>
         </is>
       </c>
-      <c r="B39" s="40" t="inlineStr">
+      <c r="B39" s="38" t="inlineStr">
         <is>
           <t>[农业种植+土地流转+国企改革]</t>
         </is>
@@ -16785,7 +17094,7 @@
           <t>600371</t>
         </is>
       </c>
-      <c r="B43" s="40" t="inlineStr">
+      <c r="B43" s="38" t="inlineStr">
         <is>
           <t>[农业种植+玉米+转基因+万向系]</t>
         </is>
@@ -16877,7 +17186,7 @@
           <t>000066</t>
         </is>
       </c>
-      <c r="B44" s="40" t="inlineStr">
+      <c r="B44" s="38" t="inlineStr">
         <is>
           <t>[中国电子旗下企业+芯片+信创]</t>
         </is>
@@ -17318,7 +17627,7 @@
           <t>2板[3.7]</t>
         </is>
       </c>
-      <c r="K47" s="44" t="inlineStr">
+      <c r="K47" s="43" t="inlineStr">
         <is>
           <t>15.92%[2.8]</t>
         </is>
@@ -17338,7 +17647,7 @@
           <t>-3.44%</t>
         </is>
       </c>
-      <c r="O47" s="44" t="inlineStr">
+      <c r="O47" s="43" t="inlineStr">
         <is>
           <t>10.09%</t>
         </is>
@@ -17405,7 +17714,7 @@
           <t>301058</t>
         </is>
       </c>
-      <c r="B48" s="40" t="inlineStr">
+      <c r="B48" s="38" t="inlineStr">
         <is>
           <t>[粮食+仓储物流+中字头+国企]</t>
         </is>
@@ -17497,7 +17806,7 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B49" s="40" t="inlineStr">
+      <c r="B49" s="38" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
@@ -18017,7 +18326,7 @@
           <t>300995</t>
         </is>
       </c>
-      <c r="B54" s="40" t="inlineStr">
+      <c r="B54" s="38" t="inlineStr">
         <is>
           <t>[高性能高分子复合材料+碳纤维+婴儿车]</t>
         </is>
@@ -18145,6 +18454,11 @@
       <c r="AW54" s="21" t="inlineStr">
         <is>
           <t>首板*[2.4]</t>
+        </is>
+      </c>
+      <c r="AX54" s="19" t="inlineStr">
+        <is>
+          <t>-3.81%[2.6]</t>
         </is>
       </c>
     </row>
@@ -18398,7 +18712,7 @@
           <t>华光源海**</t>
         </is>
       </c>
-      <c r="D57" s="42" t="inlineStr">
+      <c r="D57" s="41" t="inlineStr">
         <is>
           <t>115.67%</t>
         </is>
@@ -18418,7 +18732,7 @@
           <t>3.12%[3.5]</t>
         </is>
       </c>
-      <c r="I57" s="44" t="inlineStr">
+      <c r="I57" s="43" t="inlineStr">
         <is>
           <t>11.40%</t>
         </is>
@@ -18448,7 +18762,7 @@
           <t>-11.81%</t>
         </is>
       </c>
-      <c r="O57" s="44" t="inlineStr">
+      <c r="O57" s="43" t="inlineStr">
         <is>
           <t>14.24%</t>
         </is>
@@ -18468,7 +18782,7 @@
           <t>-0.92%</t>
         </is>
       </c>
-      <c r="S57" s="44" t="inlineStr">
+      <c r="S57" s="43" t="inlineStr">
         <is>
           <t>12.99%</t>
         </is>
@@ -18525,7 +18839,7 @@
           <t>000016</t>
         </is>
       </c>
-      <c r="B58" s="40" t="inlineStr">
+      <c r="B58" s="38" t="inlineStr">
         <is>
           <t>[控股股东拟变更+半导体+消费电子+央企国企改革]</t>
         </is>
@@ -18662,7 +18976,7 @@
           <t>002133</t>
         </is>
       </c>
-      <c r="B59" s="40" t="inlineStr">
+      <c r="B59" s="38" t="inlineStr">
         <is>
           <t>[房地产+农业种植+物业管理+回购]</t>
         </is>
@@ -19143,6 +19457,11 @@
           <t>首板[2.6]</t>
         </is>
       </c>
+      <c r="AX62" s="19" t="inlineStr">
+        <is>
+          <t>3.18%[2.4]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="inlineStr">
@@ -19150,7 +19469,7 @@
           <t>300661</t>
         </is>
       </c>
-      <c r="B63" s="40" t="inlineStr">
+      <c r="B63" s="38" t="inlineStr">
         <is>
           <t>[模拟芯片+电源管理芯片+年报预增]</t>
         </is>
@@ -19242,7 +19561,7 @@
           <t>000626</t>
         </is>
       </c>
-      <c r="B64" s="40" t="inlineStr">
+      <c r="B64" s="38" t="inlineStr">
         <is>
           <t>[豆油+大宗商品贸易+供销社]</t>
         </is>
@@ -19359,7 +19678,7 @@
           <t>001234</t>
         </is>
       </c>
-      <c r="B65" s="40" t="inlineStr">
+      <c r="B65" s="38" t="inlineStr">
         <is>
           <t>[针织服装+安踏合作+三胎]</t>
         </is>
@@ -19613,7 +19932,7 @@
           <t>000062</t>
         </is>
       </c>
-      <c r="B67" s="40" t="inlineStr">
+      <c r="B67" s="38" t="inlineStr">
         <is>
           <t>[华为海思概念+电子元器件分销+消费电子]</t>
         </is>
@@ -19633,7 +19952,7 @@
           <t>-10.02%</t>
         </is>
       </c>
-      <c r="I67" s="45" t="inlineStr">
+      <c r="I67" s="44" t="inlineStr">
         <is>
           <t>-7.70%</t>
         </is>
@@ -19750,7 +20069,7 @@
           <t>600249</t>
         </is>
       </c>
-      <c r="B68" s="40" t="inlineStr">
+      <c r="B68" s="38" t="inlineStr">
         <is>
           <t>[牙膏+国企+年报增长]</t>
         </is>
@@ -19957,7 +20276,7 @@
           <t>0.65%</t>
         </is>
       </c>
-      <c r="Z69" s="47" t="inlineStr">
+      <c r="Z69" s="46" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
@@ -20027,7 +20346,7 @@
           <t>3.03%</t>
         </is>
       </c>
-      <c r="AN69" s="44" t="inlineStr">
+      <c r="AN69" s="43" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
@@ -20054,7 +20373,7 @@
           <t>300963</t>
         </is>
       </c>
-      <c r="B70" s="40" t="inlineStr">
+      <c r="B70" s="47" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -20436,6 +20755,11 @@
           <t>-2.48%</t>
         </is>
       </c>
+      <c r="AX71" s="19" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="inlineStr">
@@ -20587,7 +20911,7 @@
       </c>
       <c r="B73" s="38" t="inlineStr">
         <is>
-          <t>[物流无人机+不饱和聚酯树脂+摘帽]</t>
+          <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
       </c>
       <c r="C73" s="16" t="inlineStr">
@@ -20713,6 +21037,11 @@
       <c r="AW73" s="19" t="inlineStr">
         <is>
           <t>3.71%</t>
+        </is>
+      </c>
+      <c r="AX73" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
         </is>
       </c>
     </row>
@@ -20722,7 +21051,7 @@
           <t>600644</t>
         </is>
       </c>
-      <c r="B74" s="40" t="inlineStr">
+      <c r="B74" s="38" t="inlineStr">
         <is>
           <t>[电力+光储]</t>
         </is>
@@ -20930,6 +21259,11 @@
       <c r="AW74" s="19" t="inlineStr">
         <is>
           <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="AX74" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -21111,7 +21445,7 @@
           <t>-0.13%</t>
         </is>
       </c>
-      <c r="M76" s="44" t="inlineStr">
+      <c r="M76" s="43" t="inlineStr">
         <is>
           <t>12.96%[4.3]</t>
         </is>
@@ -21168,7 +21502,7 @@
           <t>002564</t>
         </is>
       </c>
-      <c r="B77" s="40" t="inlineStr">
+      <c r="B77" s="38" t="inlineStr">
         <is>
           <t>[摘帽+高端装备+业绩增长+上海国企改革]</t>
         </is>
@@ -21480,6 +21814,11 @@
           <t>4.18%</t>
         </is>
       </c>
+      <c r="AX78" s="19" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="14" t="inlineStr">
@@ -22040,7 +22379,7 @@
           <t>001395</t>
         </is>
       </c>
-      <c r="B83" s="40" t="inlineStr">
+      <c r="B83" s="38" t="inlineStr">
         <is>
           <t>[一季报增长+次新股+人造板+碳纤维]</t>
         </is>
@@ -22411,7 +22750,7 @@
           <t>003020</t>
         </is>
       </c>
-      <c r="B86" s="40" t="inlineStr">
+      <c r="B86" s="38" t="inlineStr">
         <is>
           <t>[ADHD治疗药物+化学制药]</t>
         </is>
@@ -22513,7 +22852,7 @@
           <t>603188</t>
         </is>
       </c>
-      <c r="B87" s="40" t="inlineStr">
+      <c r="B87" s="38" t="inlineStr">
         <is>
           <t>[农药+染料+实控人变更为武进国资办]</t>
         </is>
@@ -22732,7 +23071,7 @@
           <t>000025</t>
         </is>
       </c>
-      <c r="B89" s="40" t="inlineStr">
+      <c r="B89" s="38" t="inlineStr">
         <is>
           <t>[黄金珠宝+水贝+深圳国资+年报增长]</t>
         </is>
@@ -23068,7 +23407,7 @@
           <t>002427</t>
         </is>
       </c>
-      <c r="B92" s="40" t="inlineStr">
+      <c r="B92" s="38" t="inlineStr">
         <is>
           <t>[超高分子量聚乙烯纤维+涤纶+陕西国资]</t>
         </is>
@@ -23281,6 +23620,11 @@
       <c r="AW92" s="19" t="inlineStr">
         <is>
           <t>4.00%</t>
+        </is>
+      </c>
+      <c r="AX92" s="19" t="inlineStr">
+        <is>
+          <t>-2.50%</t>
         </is>
       </c>
     </row>
@@ -23382,7 +23726,7 @@
           <t>001212</t>
         </is>
       </c>
-      <c r="B94" s="40" t="inlineStr">
+      <c r="B94" s="38" t="inlineStr">
         <is>
           <t>[星空科技入主+半导体装备]</t>
         </is>
@@ -23595,6 +23939,11 @@
       <c r="AW94" s="19" t="inlineStr">
         <is>
           <t>2.53%</t>
+        </is>
+      </c>
+      <c r="AX94" s="19" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
         </is>
       </c>
     </row>
@@ -23941,6 +24290,11 @@
           <t>-1.08%</t>
         </is>
       </c>
+      <c r="AX96" s="19" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="inlineStr">
@@ -24040,7 +24394,7 @@
           <t>002194</t>
         </is>
       </c>
-      <c r="B98" s="40" t="inlineStr">
+      <c r="B98" s="38" t="inlineStr">
         <is>
           <t>[5G+华为+卫星通信]</t>
         </is>
@@ -24511,7 +24865,7 @@
           <t>-3.44%</t>
         </is>
       </c>
-      <c r="O101" s="44" t="inlineStr">
+      <c r="O101" s="43" t="inlineStr">
         <is>
           <t>10.09%</t>
         </is>
@@ -24578,7 +24932,7 @@
           <t>300139</t>
         </is>
       </c>
-      <c r="B102" s="40" t="inlineStr">
+      <c r="B102" s="38" t="inlineStr">
         <is>
           <t>[黄金概念+业绩增长+芯片概念]</t>
         </is>
@@ -24705,7 +25059,7 @@
           <t>3.72%</t>
         </is>
       </c>
-      <c r="Q103" s="44" t="inlineStr">
+      <c r="Q103" s="43" t="inlineStr">
         <is>
           <t>12.24%[2.5]</t>
         </is>
@@ -24725,7 +25079,7 @@
           <t>-2.70%</t>
         </is>
       </c>
-      <c r="U103" s="44" t="inlineStr">
+      <c r="U103" s="43" t="inlineStr">
         <is>
           <t>10.45%</t>
         </is>
@@ -24765,7 +25119,7 @@
           <t>4.45%[2.5]</t>
         </is>
       </c>
-      <c r="AM103" s="44" t="inlineStr">
+      <c r="AM103" s="43" t="inlineStr">
         <is>
           <t>11.77%</t>
         </is>
@@ -24775,7 +25129,7 @@
           <t>4.72%</t>
         </is>
       </c>
-      <c r="AO103" s="44" t="inlineStr">
+      <c r="AO103" s="43" t="inlineStr">
         <is>
           <t>10.98%</t>
         </is>
@@ -24790,12 +25144,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AR103" s="44" t="inlineStr">
+      <c r="AR103" s="43" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="AS103" s="44" t="inlineStr">
+      <c r="AS103" s="43" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
@@ -24818,6 +25172,11 @@
       <c r="AW103" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX103" s="149" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
         </is>
       </c>
     </row>
@@ -24877,7 +25236,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T104" s="149" t="inlineStr">
+      <c r="T104" s="150" t="inlineStr">
         <is>
           <t>-8.49%</t>
         </is>
@@ -24892,7 +25251,7 @@
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W104" s="150" t="inlineStr">
+      <c r="W104" s="151" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -25141,7 +25500,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T106" s="151" t="inlineStr">
+      <c r="T106" s="149" t="inlineStr">
         <is>
           <t>-8.70%[3.9]</t>
         </is>
@@ -25188,7 +25547,7 @@
           <t>603351</t>
         </is>
       </c>
-      <c r="B107" s="40" t="inlineStr">
+      <c r="B107" s="38" t="inlineStr">
         <is>
           <t>[业绩增长+药用辅料+润滑油+国际贸易影响小]</t>
         </is>
@@ -25515,6 +25874,11 @@
           <t>2.98%</t>
         </is>
       </c>
+      <c r="AX108" s="19" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="14" t="inlineStr">
@@ -25662,6 +26026,11 @@
           <t>4.74%</t>
         </is>
       </c>
+      <c r="AX109" s="19" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="14" t="inlineStr">
@@ -25839,6 +26208,11 @@
           <t>首板[2.6]</t>
         </is>
       </c>
+      <c r="AX110" s="19" t="inlineStr">
+        <is>
+          <t>3.18%[2.4]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="inlineStr">
@@ -25971,6 +26345,11 @@
           <t>1.13%</t>
         </is>
       </c>
+      <c r="AX111" s="19" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="14" t="inlineStr">
@@ -26110,7 +26489,7 @@
           <t>2.56%</t>
         </is>
       </c>
-      <c r="R113" s="44" t="inlineStr">
+      <c r="R113" s="43" t="inlineStr">
         <is>
           <t>13.24%</t>
         </is>
@@ -26193,6 +26572,11 @@
       <c r="AW113" s="19" t="inlineStr">
         <is>
           <t>2.33%</t>
+        </is>
+      </c>
+      <c r="AX113" s="19" t="inlineStr">
+        <is>
+          <t>-2.03%</t>
         </is>
       </c>
     </row>
@@ -26202,7 +26586,7 @@
           <t>603086</t>
         </is>
       </c>
-      <c r="B114" s="40" t="inlineStr">
+      <c r="B114" s="38" t="inlineStr">
         <is>
           <t>[一季报增长+烯草酮+农药+大豆]</t>
         </is>
@@ -26576,7 +26960,7 @@
           <t>首板*[2.4]</t>
         </is>
       </c>
-      <c r="U116" s="44" t="inlineStr">
+      <c r="U116" s="43" t="inlineStr">
         <is>
           <t>16.88%[2.9]</t>
         </is>
@@ -27111,7 +27495,7 @@
           <t>301076</t>
         </is>
       </c>
-      <c r="B121" s="40" t="inlineStr">
+      <c r="B121" s="38" t="inlineStr">
         <is>
           <t>[DFBP（PEEK材料核心原料）+芳香族酮类+一季报增长]</t>
         </is>
@@ -27161,7 +27545,7 @@
           <t>-4.59%</t>
         </is>
       </c>
-      <c r="W121" s="44" t="inlineStr">
+      <c r="W121" s="43" t="inlineStr">
         <is>
           <t>12.38%</t>
         </is>
@@ -27465,6 +27849,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX123" s="19" t="inlineStr">
+        <is>
+          <t>1.36%[3.1]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="inlineStr">
@@ -27716,7 +28105,7 @@
           <t>600744</t>
         </is>
       </c>
-      <c r="B126" s="40" t="inlineStr">
+      <c r="B126" s="38" t="inlineStr">
         <is>
           <t>[电力+一季报增长+央企]</t>
         </is>
@@ -27990,7 +28379,7 @@
           <t>300040</t>
         </is>
       </c>
-      <c r="B128" s="40" t="inlineStr">
+      <c r="B128" s="38" t="inlineStr">
         <is>
           <t>[电力+华为超充+数据中心]</t>
         </is>
@@ -28257,6 +28646,11 @@
           <t>2.79%</t>
         </is>
       </c>
+      <c r="AX129" s="19" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="inlineStr">
@@ -28264,7 +28658,7 @@
           <t>002229</t>
         </is>
       </c>
-      <c r="B130" s="40" t="inlineStr">
+      <c r="B130" s="38" t="inlineStr">
         <is>
           <t>[一季报同比扭亏为盈+算力+彩票+无实控人]</t>
         </is>
@@ -28412,6 +28806,11 @@
       <c r="AW130" s="19" t="inlineStr">
         <is>
           <t>1.51%</t>
+        </is>
+      </c>
+      <c r="AX130" s="19" t="inlineStr">
+        <is>
+          <t>-4.29%</t>
         </is>
       </c>
     </row>
@@ -28533,7 +28932,7 @@
           <t>301209</t>
         </is>
       </c>
-      <c r="B132" s="40" t="inlineStr">
+      <c r="B132" s="38" t="inlineStr">
         <is>
           <t>[染料+有机颜料+一季报增长]</t>
         </is>
@@ -28543,7 +28942,7 @@
           <t>联合化学*</t>
         </is>
       </c>
-      <c r="D132" s="42" t="inlineStr">
+      <c r="D132" s="41" t="inlineStr">
         <is>
           <t>106.53%</t>
         </is>
@@ -28568,7 +28967,7 @@
           <t>6.79%</t>
         </is>
       </c>
-      <c r="U132" s="44" t="inlineStr">
+      <c r="U132" s="43" t="inlineStr">
         <is>
           <t>14.34%</t>
         </is>
@@ -28583,7 +28982,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="X132" s="44" t="inlineStr">
+      <c r="X132" s="43" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
@@ -28603,7 +29002,7 @@
           <t>6.47%</t>
         </is>
       </c>
-      <c r="AB132" s="44" t="inlineStr">
+      <c r="AB132" s="43" t="inlineStr">
         <is>
           <t>15.60%</t>
         </is>
@@ -28902,6 +29301,11 @@
           <t>-0.78%</t>
         </is>
       </c>
+      <c r="AX134" s="19" t="inlineStr">
+        <is>
+          <t>-4.08%</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="14" t="inlineStr">
@@ -28954,7 +29358,7 @@
           <t>首板*[3.1]</t>
         </is>
       </c>
-      <c r="Y135" s="44" t="inlineStr">
+      <c r="Y135" s="43" t="inlineStr">
         <is>
           <t>17.07%[2.4]</t>
         </is>
@@ -28989,12 +29393,12 @@
           <t>-3.16%</t>
         </is>
       </c>
-      <c r="AF135" s="44" t="inlineStr">
+      <c r="AF135" s="43" t="inlineStr">
         <is>
           <t>12.98%</t>
         </is>
       </c>
-      <c r="AG135" s="44" t="inlineStr">
+      <c r="AG135" s="43" t="inlineStr">
         <is>
           <t>14.63%</t>
         </is>
@@ -29004,7 +29408,7 @@
           <t>-4.98%</t>
         </is>
       </c>
-      <c r="AI135" s="44" t="inlineStr">
+      <c r="AI135" s="43" t="inlineStr">
         <is>
           <t>13.47%</t>
         </is>
@@ -29016,7 +29420,7 @@
           <t>300548</t>
         </is>
       </c>
-      <c r="B136" s="40" t="inlineStr">
+      <c r="B136" s="38" t="inlineStr">
         <is>
           <t>[一季报增长+光模块+高速铜缆]</t>
         </is>
@@ -29302,7 +29706,7 @@
           <t>002427</t>
         </is>
       </c>
-      <c r="B139" s="40" t="inlineStr">
+      <c r="B139" s="38" t="inlineStr">
         <is>
           <t>[超高分子量聚乙烯纤维+涤纶+陕西国资]</t>
         </is>
@@ -29490,6 +29894,11 @@
       <c r="AW139" s="19" t="inlineStr">
         <is>
           <t>4.00%</t>
+        </is>
+      </c>
+      <c r="AX139" s="19" t="inlineStr">
+        <is>
+          <t>-2.50%</t>
         </is>
       </c>
     </row>
@@ -29499,7 +29908,7 @@
           <t>600281</t>
         </is>
       </c>
-      <c r="B140" s="40" t="inlineStr">
+      <c r="B140" s="38" t="inlineStr">
         <is>
           <t>[稀土永磁+贵金属回收+山西国资+一季报同比扭亏]</t>
         </is>
@@ -29636,7 +30045,7 @@
           <t>600396</t>
         </is>
       </c>
-      <c r="B141" s="40" t="inlineStr">
+      <c r="B141" s="38" t="inlineStr">
         <is>
           <t>[电力+央企+一季报净利增长+海上风电]</t>
         </is>
@@ -29671,7 +30080,7 @@
           <t>-9.67%[4.4]</t>
         </is>
       </c>
-      <c r="Y141" s="45" t="inlineStr">
+      <c r="Y141" s="44" t="inlineStr">
         <is>
           <t>-7.69%</t>
         </is>
@@ -29691,7 +30100,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AC141" s="44" t="inlineStr">
+      <c r="AC141" s="43" t="inlineStr">
         <is>
           <t>9.62%</t>
         </is>
@@ -29960,6 +30369,11 @@
           <t>2.11%</t>
         </is>
       </c>
+      <c r="AX143" s="19" t="inlineStr">
+        <is>
+          <t>-1.38%</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="14" t="inlineStr">
@@ -30099,7 +30513,7 @@
           <t>603586</t>
         </is>
       </c>
-      <c r="B145" s="40" t="inlineStr">
+      <c r="B145" s="38" t="inlineStr">
         <is>
           <t>[汽车制动零部件+海外市场拓展+一季报增长]</t>
         </is>
@@ -30191,7 +30605,7 @@
           <t>000158</t>
         </is>
       </c>
-      <c r="B146" s="40" t="inlineStr">
+      <c r="B146" s="38" t="inlineStr">
         <is>
           <t>[华为+国企+一季报增长]</t>
         </is>
@@ -30380,7 +30794,7 @@
           <t>300963</t>
         </is>
       </c>
-      <c r="B148" s="40" t="inlineStr">
+      <c r="B148" s="47" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -30547,7 +30961,7 @@
           <t>300047</t>
         </is>
       </c>
-      <c r="B149" s="40" t="inlineStr">
+      <c r="B149" s="38" t="inlineStr">
         <is>
           <t>[华为总经销商+拟收购金华威剩余45%股权]</t>
         </is>
@@ -30669,7 +31083,7 @@
           <t>-2.35%</t>
         </is>
       </c>
-      <c r="X150" s="44" t="inlineStr">
+      <c r="X150" s="43" t="inlineStr">
         <is>
           <t>10.70%</t>
         </is>
@@ -30731,7 +31145,7 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B151" s="40" t="inlineStr">
+      <c r="B151" s="38" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
@@ -30944,6 +31358,11 @@
       <c r="AW151" s="19" t="inlineStr">
         <is>
           <t>4.59%</t>
+        </is>
+      </c>
+      <c r="AX151" s="19" t="inlineStr">
+        <is>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -31125,7 +31544,7 @@
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W153" s="150" t="inlineStr">
+      <c r="W153" s="151" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -31392,6 +31811,11 @@
           <t>13板</t>
         </is>
       </c>
+      <c r="AX154" s="19" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="14" t="inlineStr">
@@ -31959,7 +32383,7 @@
           <t>603657</t>
         </is>
       </c>
-      <c r="B160" s="94" t="inlineStr">
+      <c r="B160" s="15" t="inlineStr">
         <is>
           <t>[扫地机器人+家电+一季报扭亏]</t>
         </is>
@@ -32077,6 +32501,11 @@
       <c r="AW160" s="19" t="inlineStr">
         <is>
           <t>2.41%</t>
+        </is>
+      </c>
+      <c r="AX160" s="19" t="inlineStr">
+        <is>
+          <t>3.51%</t>
         </is>
       </c>
     </row>
@@ -32141,7 +32570,7 @@
           <t>0.10%[3.7]</t>
         </is>
       </c>
-      <c r="AD161" s="44" t="inlineStr">
+      <c r="AD161" s="43" t="inlineStr">
         <is>
           <t>9.64%</t>
         </is>
@@ -32295,7 +32724,7 @@
           <t>002490</t>
         </is>
       </c>
-      <c r="B163" s="40" t="inlineStr">
+      <c r="B163" s="38" t="inlineStr">
         <is>
           <t>[摘帽+AH两地上市+调入港股通]</t>
         </is>
@@ -32756,6 +33185,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX166" s="19" t="inlineStr">
+        <is>
+          <t>-5.67%</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="14" t="inlineStr">
@@ -32798,7 +33232,7 @@
           <t>0.82%</t>
         </is>
       </c>
-      <c r="AA167" s="44" t="inlineStr">
+      <c r="AA167" s="43" t="inlineStr">
         <is>
           <t>17.05%[6.3]</t>
         </is>
@@ -32910,7 +33344,7 @@
           <t>首板*[4.5]</t>
         </is>
       </c>
-      <c r="AC168" s="44" t="inlineStr">
+      <c r="AC168" s="43" t="inlineStr">
         <is>
           <t>11.11%[3.3]</t>
         </is>
@@ -33002,7 +33436,7 @@
           <t>6.35%</t>
         </is>
       </c>
-      <c r="AA169" s="44" t="inlineStr">
+      <c r="AA169" s="43" t="inlineStr">
         <is>
           <t>10.40%[5.5]</t>
         </is>
@@ -33012,7 +33446,7 @@
           <t>首板**[4.9]</t>
         </is>
       </c>
-      <c r="AC169" s="44" t="inlineStr">
+      <c r="AC169" s="43" t="inlineStr">
         <is>
           <t>17.45%[2.6]</t>
         </is>
@@ -33069,7 +33503,7 @@
           <t>300032</t>
         </is>
       </c>
-      <c r="B170" s="40" t="inlineStr">
+      <c r="B170" s="38" t="inlineStr">
         <is>
           <t>[消费电子+马达+华为概念+一季报增长]</t>
         </is>
@@ -33263,7 +33697,7 @@
           <t>301317</t>
         </is>
       </c>
-      <c r="B172" s="40" t="inlineStr">
+      <c r="B172" s="38" t="inlineStr">
         <is>
           <t>[压缩机+空气动力设备+中俄贸易]</t>
         </is>
@@ -33308,7 +33742,7 @@
           <t>首板*[4.3]</t>
         </is>
       </c>
-      <c r="AC172" s="44" t="inlineStr">
+      <c r="AC172" s="43" t="inlineStr">
         <is>
           <t>19.82%[4.9]</t>
         </is>
@@ -33370,7 +33804,7 @@
           <t>002338</t>
         </is>
       </c>
-      <c r="B173" s="40" t="inlineStr">
+      <c r="B173" s="38" t="inlineStr">
         <is>
           <t>[签订2.97亿元光学系统研制合同+大股东长春光机所]</t>
         </is>
@@ -33654,7 +34088,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="AL175" s="150" t="inlineStr">
+      <c r="AL175" s="151" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -33771,6 +34205,11 @@
           <t>1.26%</t>
         </is>
       </c>
+      <c r="AX176" s="19" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="14" t="inlineStr">
@@ -33778,7 +34217,7 @@
           <t>002514</t>
         </is>
       </c>
-      <c r="B177" s="40" t="inlineStr">
+      <c r="B177" s="38" t="inlineStr">
         <is>
           <t>[钙钛矿电池+液冷超充+华为+设立半导体合资公司]</t>
         </is>
@@ -33875,7 +34314,7 @@
           <t>300946</t>
         </is>
       </c>
-      <c r="B178" s="40" t="inlineStr">
+      <c r="B178" s="38" t="inlineStr">
         <is>
           <t>[拟6935.66万元收购德国SMS公司+智能数控装备]</t>
         </is>
@@ -33890,7 +34329,7 @@
           <t>72.05%</t>
         </is>
       </c>
-      <c r="Y178" s="44" t="inlineStr">
+      <c r="Y178" s="43" t="inlineStr">
         <is>
           <t>12.58%[2.6]</t>
         </is>
@@ -33905,7 +34344,7 @@
           <t>-3.27%</t>
         </is>
       </c>
-      <c r="AB178" s="44" t="inlineStr">
+      <c r="AB178" s="43" t="inlineStr">
         <is>
           <t>15.78%</t>
         </is>
@@ -33935,7 +34374,7 @@
           <t>2.01%[2.4]</t>
         </is>
       </c>
-      <c r="AH178" s="44" t="inlineStr">
+      <c r="AH178" s="43" t="inlineStr">
         <is>
           <t>11.14%</t>
         </is>
@@ -34161,7 +34600,7 @@
           <t>603332</t>
         </is>
       </c>
-      <c r="B181" s="40" t="inlineStr">
+      <c r="B181" s="38" t="inlineStr">
         <is>
           <t>[涤纶+化学纤维+部分产品涨价]</t>
         </is>
@@ -34294,6 +34733,11 @@
       <c r="AW181" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AX181" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
         </is>
       </c>
     </row>
@@ -34512,7 +34956,7 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B184" s="40" t="inlineStr">
+      <c r="B184" s="38" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
@@ -34700,6 +35144,11 @@
       <c r="AW184" s="19" t="inlineStr">
         <is>
           <t>4.59%</t>
+        </is>
+      </c>
+      <c r="AX184" s="19" t="inlineStr">
+        <is>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -34719,7 +35168,7 @@
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D185" s="42" t="inlineStr">
+      <c r="D185" s="41" t="inlineStr">
         <is>
           <t>124.42%</t>
         </is>
@@ -34862,6 +35311,11 @@
       <c r="AW185" s="19" t="inlineStr">
         <is>
           <t>2.79%</t>
+        </is>
+      </c>
+      <c r="AX185" s="19" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
         </is>
       </c>
     </row>
@@ -34963,9 +35417,9 @@
           <t>600530</t>
         </is>
       </c>
-      <c r="B187" s="35" t="inlineStr">
-        <is>
-          <t>[益生菌+保健品+养老概念+电子商务]</t>
+      <c r="B187" s="38" t="inlineStr">
+        <is>
+          <t>[保健品+宠物经济+控股权变更]</t>
         </is>
       </c>
       <c r="C187" s="16" t="inlineStr">
@@ -35091,6 +35545,11 @@
       <c r="AW187" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AX187" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
         </is>
       </c>
     </row>
@@ -35414,6 +35873,11 @@
           <t>1.58%</t>
         </is>
       </c>
+      <c r="AX190" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="14" t="inlineStr">
@@ -35591,6 +36055,11 @@
           <t>2.98%</t>
         </is>
       </c>
+      <c r="AX191" s="19" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="14" t="inlineStr">
@@ -35598,7 +36067,7 @@
           <t>002427</t>
         </is>
       </c>
-      <c r="B192" s="40" t="inlineStr">
+      <c r="B192" s="38" t="inlineStr">
         <is>
           <t>[超高分子量聚乙烯纤维+涤纶+陕西国资]</t>
         </is>
@@ -35766,6 +36235,11 @@
       <c r="AW192" s="19" t="inlineStr">
         <is>
           <t>4.00%</t>
+        </is>
+      </c>
+      <c r="AX192" s="19" t="inlineStr">
+        <is>
+          <t>-2.50%</t>
         </is>
       </c>
     </row>
@@ -35875,7 +36349,7 @@
           <t>3.03%</t>
         </is>
       </c>
-      <c r="AN193" s="44" t="inlineStr">
+      <c r="AN193" s="43" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
@@ -36012,6 +36486,11 @@
           <t>4.47%</t>
         </is>
       </c>
+      <c r="AX194" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.5]</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="14" t="inlineStr">
@@ -36164,6 +36643,11 @@
           <t>2.06%</t>
         </is>
       </c>
+      <c r="AX195" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="14" t="inlineStr">
@@ -36266,6 +36750,11 @@
           <t>-4.13%</t>
         </is>
       </c>
+      <c r="AX196" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.7]</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="14" t="inlineStr">
@@ -36273,7 +36762,7 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B197" s="40" t="inlineStr">
+      <c r="B197" s="38" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
@@ -36382,10 +36871,10 @@
       </c>
       <c r="B198" s="75" t="inlineStr">
         <is>
-          <t>[航运+干散货运输+出海]</t>
-        </is>
-      </c>
-      <c r="C198" s="36" t="inlineStr">
+          <t>[航运+战略合作+出海]</t>
+        </is>
+      </c>
+      <c r="C198" s="64" t="inlineStr">
         <is>
           <t>国航远洋**</t>
         </is>
@@ -36415,12 +36904,12 @@
           <t>-1.59%</t>
         </is>
       </c>
-      <c r="AD198" s="44" t="inlineStr">
+      <c r="AD198" s="43" t="inlineStr">
         <is>
           <t>12.76%[2.5]</t>
         </is>
       </c>
-      <c r="AE198" s="44" t="inlineStr">
+      <c r="AE198" s="43" t="inlineStr">
         <is>
           <t>23.54%[4.5]</t>
         </is>
@@ -36468,6 +36957,11 @@
       <c r="AN198" s="19" t="inlineStr">
         <is>
           <t>1.49%</t>
+        </is>
+      </c>
+      <c r="AX198" s="21" t="inlineStr">
+        <is>
+          <t>首板**[3.4]</t>
         </is>
       </c>
     </row>
@@ -36793,7 +37287,7 @@
           <t>600770</t>
         </is>
       </c>
-      <c r="B202" s="40" t="inlineStr">
+      <c r="B202" s="38" t="inlineStr">
         <is>
           <t>[拟取得吉莱微控制权+功率半导体]</t>
         </is>
@@ -36858,7 +37352,7 @@
           <t>5板[0.2]</t>
         </is>
       </c>
-      <c r="AL202" s="44" t="inlineStr">
+      <c r="AL202" s="43" t="inlineStr">
         <is>
           <t>9.77%[5.2]</t>
         </is>
@@ -37201,7 +37695,7 @@
           <t>301156</t>
         </is>
       </c>
-      <c r="B206" s="40" t="inlineStr">
+      <c r="B206" s="38" t="inlineStr">
         <is>
           <t>[酶解蛋白产品+饲料添加剂+宠物经济]</t>
         </is>
@@ -37271,7 +37765,7 @@
           <t>-2.59%</t>
         </is>
       </c>
-      <c r="AJ206" s="44" t="inlineStr">
+      <c r="AJ206" s="43" t="inlineStr">
         <is>
           <t>13.81%</t>
         </is>
@@ -37358,7 +37852,7 @@
           <t>-7.34%[2.8]</t>
         </is>
       </c>
-      <c r="AI207" s="44" t="inlineStr">
+      <c r="AI207" s="43" t="inlineStr">
         <is>
           <t>12.31%</t>
         </is>
@@ -37836,6 +38330,11 @@
           <t>2.92%</t>
         </is>
       </c>
+      <c r="AX211" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="14" t="inlineStr">
@@ -37965,7 +38464,7 @@
           <t>300963</t>
         </is>
       </c>
-      <c r="B213" s="40" t="inlineStr">
+      <c r="B213" s="47" t="inlineStr">
         <is>
           <t>[核电+海工装备+焊材]</t>
         </is>
@@ -38097,7 +38596,7 @@
           <t>002136</t>
         </is>
       </c>
-      <c r="B214" s="38" t="inlineStr">
+      <c r="B214" s="26" t="inlineStr">
         <is>
           <t>[钛白粉+锂电池+化工]</t>
         </is>
@@ -38423,7 +38922,7 @@
           <t>002510</t>
         </is>
       </c>
-      <c r="B217" s="121" t="inlineStr">
+      <c r="B217" s="26" t="inlineStr">
         <is>
           <t>[拟购东实股份50%股权+大飞机+汽车零部件+特斯拉]</t>
         </is>
@@ -38650,6 +39149,11 @@
           <t>4.26%</t>
         </is>
       </c>
+      <c r="AX218" s="19" t="inlineStr">
+        <is>
+          <t>-4.43%</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="14" t="inlineStr">
@@ -38802,6 +39306,11 @@
           <t>4.18%</t>
         </is>
       </c>
+      <c r="AX219" s="19" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="14" t="inlineStr">
@@ -38809,7 +39318,7 @@
           <t>300069</t>
         </is>
       </c>
-      <c r="B220" s="40" t="inlineStr">
+      <c r="B220" s="38" t="inlineStr">
         <is>
           <t>[拟购买海德利森100%股权+电网设备]</t>
         </is>
@@ -38966,7 +39475,7 @@
           <t>3.88%</t>
         </is>
       </c>
-      <c r="AH221" s="44" t="inlineStr">
+      <c r="AH221" s="43" t="inlineStr">
         <is>
           <t>15.30%[2.3]</t>
         </is>
@@ -39098,7 +39607,7 @@
           <t>-6.57%</t>
         </is>
       </c>
-      <c r="AO222" s="44" t="inlineStr">
+      <c r="AO222" s="43" t="inlineStr">
         <is>
           <t>15.31%</t>
         </is>
@@ -39108,7 +39617,7 @@
           <t>-8.32%</t>
         </is>
       </c>
-      <c r="AQ222" s="44" t="inlineStr">
+      <c r="AQ222" s="43" t="inlineStr">
         <is>
           <t>12.41%</t>
         </is>
@@ -39175,7 +39684,7 @@
           <t>-4.20%</t>
         </is>
       </c>
-      <c r="AH223" s="44" t="inlineStr">
+      <c r="AH223" s="43" t="inlineStr">
         <is>
           <t>10.20%</t>
         </is>
@@ -39322,6 +39831,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX224" s="19" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="14" t="inlineStr">
@@ -39421,7 +39935,7 @@
           <t>002813</t>
         </is>
       </c>
-      <c r="B226" s="40" t="inlineStr">
+      <c r="B226" s="38" t="inlineStr">
         <is>
           <t>[智能座舱+汽车电子]</t>
         </is>
@@ -39513,7 +40027,7 @@
           <t>600468</t>
         </is>
       </c>
-      <c r="B227" s="40" t="inlineStr">
+      <c r="B227" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+超导+电网设备+国企]</t>
         </is>
@@ -39621,6 +40135,11 @@
       <c r="AW227" s="67" t="inlineStr">
         <is>
           <t>9板</t>
+        </is>
+      </c>
+      <c r="AX227" s="43" t="inlineStr">
+        <is>
+          <t>10.06%</t>
         </is>
       </c>
     </row>
@@ -39745,6 +40264,11 @@
           <t>-2.09%</t>
         </is>
       </c>
+      <c r="AX228" s="19" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="14" t="inlineStr">
@@ -39752,7 +40276,7 @@
           <t>600550</t>
         </is>
       </c>
-      <c r="B229" s="40" t="inlineStr">
+      <c r="B229" s="38" t="inlineStr">
         <is>
           <t>[一季报增长+控股股东变更+央企改革+输变电设备]</t>
         </is>
@@ -39869,7 +40393,7 @@
           <t>600698</t>
         </is>
       </c>
-      <c r="B230" s="40" t="inlineStr">
+      <c r="B230" s="38" t="inlineStr">
         <is>
           <t>[兵装重组概念+汽车零部件+柴油机增压器]</t>
         </is>
@@ -39977,6 +40501,11 @@
       <c r="AW230" s="19" t="inlineStr">
         <is>
           <t>-0.58%</t>
+        </is>
+      </c>
+      <c r="AX230" s="19" t="inlineStr">
+        <is>
+          <t>-1.89%</t>
         </is>
       </c>
     </row>
@@ -40138,7 +40667,7 @@
           <t>-7.13%</t>
         </is>
       </c>
-      <c r="AN232" s="44" t="inlineStr">
+      <c r="AN232" s="43" t="inlineStr">
         <is>
           <t>16.16%</t>
         </is>
@@ -40153,7 +40682,7 @@
           <t>-7.22%</t>
         </is>
       </c>
-      <c r="AQ232" s="44" t="inlineStr">
+      <c r="AQ232" s="43" t="inlineStr">
         <is>
           <t>15.59%</t>
         </is>
@@ -40175,7 +40704,7 @@
           <t>301316</t>
         </is>
       </c>
-      <c r="B233" s="40" t="inlineStr">
+      <c r="B233" s="38" t="inlineStr">
         <is>
           <t>[拟购买宝德计算67.91%股份]</t>
         </is>
@@ -40379,7 +40908,7 @@
           <t>300945</t>
         </is>
       </c>
-      <c r="B235" s="40" t="inlineStr">
+      <c r="B235" s="38" t="inlineStr">
         <is>
           <t>[黄金+珠宝+IP经济]</t>
         </is>
@@ -40424,7 +40953,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AK235" s="44" t="inlineStr">
+      <c r="AK235" s="43" t="inlineStr">
         <is>
           <t>9.52%[2.5]</t>
         </is>
@@ -40469,7 +40998,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AT235" s="44" t="inlineStr">
+      <c r="AT235" s="43" t="inlineStr">
         <is>
           <t>17.01%</t>
         </is>
@@ -40487,6 +41016,11 @@
       <c r="AW235" s="19" t="inlineStr">
         <is>
           <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AX235" s="161" t="inlineStr">
+        <is>
+          <t>9.28%</t>
         </is>
       </c>
     </row>
@@ -40601,6 +41135,11 @@
           <t>1.82%</t>
         </is>
       </c>
+      <c r="AX236" s="213" t="inlineStr">
+        <is>
+          <t>-9.20%</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="14" t="inlineStr">
@@ -40608,7 +41147,7 @@
           <t>002431</t>
         </is>
       </c>
-      <c r="B237" s="40" t="inlineStr">
+      <c r="B237" s="38" t="inlineStr">
         <is>
           <t>[超聚变借壳猜想（河南国资）+高标准农田建设+城市更新]</t>
         </is>
@@ -40678,7 +41217,7 @@
           <t>2.41%</t>
         </is>
       </c>
-      <c r="AQ237" s="213" t="inlineStr">
+      <c r="AQ237" s="214" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
@@ -40711,6 +41250,11 @@
       <c r="AW237" s="19" t="inlineStr">
         <is>
           <t>0.71%</t>
+        </is>
+      </c>
+      <c r="AX237" s="19" t="inlineStr">
+        <is>
+          <t>-4.21%</t>
         </is>
       </c>
     </row>
@@ -40817,7 +41361,7 @@
           <t>600463</t>
         </is>
       </c>
-      <c r="B239" s="40" t="inlineStr">
+      <c r="B239" s="38" t="inlineStr">
         <is>
           <t>[曾拟重组+临空型园区+园区开发+北京国资]</t>
         </is>
@@ -40877,7 +41421,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AN239" s="214" t="inlineStr">
+      <c r="AN239" s="215" t="inlineStr">
         <is>
           <t>-9.36%</t>
         </is>
@@ -41141,6 +41685,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX241" s="19" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="14" t="inlineStr">
@@ -41148,7 +41697,7 @@
           <t>600644</t>
         </is>
       </c>
-      <c r="B242" s="40" t="inlineStr">
+      <c r="B242" s="38" t="inlineStr">
         <is>
           <t>[电力+光储]</t>
         </is>
@@ -41291,6 +41840,11 @@
       <c r="AW242" s="19" t="inlineStr">
         <is>
           <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="AX242" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -41320,7 +41874,7 @@
           <t>-1.41%</t>
         </is>
       </c>
-      <c r="AG243" s="44" t="inlineStr">
+      <c r="AG243" s="43" t="inlineStr">
         <is>
           <t>10.81%[7.2]</t>
         </is>
@@ -41403,6 +41957,11 @@
       <c r="AW243" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AX243" s="19" t="inlineStr">
+        <is>
+          <t>2.95%</t>
         </is>
       </c>
     </row>
@@ -41467,7 +42026,7 @@
           <t>4.45%[2.5]</t>
         </is>
       </c>
-      <c r="AM244" s="44" t="inlineStr">
+      <c r="AM244" s="43" t="inlineStr">
         <is>
           <t>11.77%</t>
         </is>
@@ -41477,7 +42036,7 @@
           <t>4.72%</t>
         </is>
       </c>
-      <c r="AO244" s="44" t="inlineStr">
+      <c r="AO244" s="43" t="inlineStr">
         <is>
           <t>10.98%</t>
         </is>
@@ -41492,12 +42051,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AR244" s="44" t="inlineStr">
+      <c r="AR244" s="43" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="AS244" s="44" t="inlineStr">
+      <c r="AS244" s="43" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
@@ -41520,6 +42079,11 @@
       <c r="AW244" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX244" s="149" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
         </is>
       </c>
     </row>
@@ -41579,7 +42143,7 @@
           <t>首板*[2.6]</t>
         </is>
       </c>
-      <c r="AL245" s="215" t="inlineStr">
+      <c r="AL245" s="216" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -41718,7 +42282,7 @@
           <t>603900</t>
         </is>
       </c>
-      <c r="B247" s="40" t="inlineStr">
+      <c r="B247" s="38" t="inlineStr">
         <is>
           <t>[艺术黄金+珠宝首饰+IP经济]</t>
         </is>
@@ -41836,6 +42400,11 @@
       <c r="AW247" s="19" t="inlineStr">
         <is>
           <t>5.68%</t>
+        </is>
+      </c>
+      <c r="AX247" s="19" t="inlineStr">
+        <is>
+          <t>1.02%</t>
         </is>
       </c>
     </row>
@@ -41845,7 +42414,7 @@
           <t>603607</t>
         </is>
       </c>
-      <c r="B248" s="40" t="inlineStr">
+      <c r="B248" s="38" t="inlineStr">
         <is>
           <t>[IP经济+激光防伪包装材料+一季报增长]</t>
         </is>
@@ -41862,7 +42431,7 @@
       </c>
       <c r="N248" s="21" t="inlineStr">
         <is>
-          <t>首板[3.1]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="AG248" s="19" t="inlineStr">
@@ -42099,7 +42668,7 @@
           <t>首板*[4.8]</t>
         </is>
       </c>
-      <c r="AM250" s="44" t="inlineStr">
+      <c r="AM250" s="43" t="inlineStr">
         <is>
           <t>11.45%[3.0]</t>
         </is>
@@ -42109,7 +42678,7 @@
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AO250" s="216" t="inlineStr">
+      <c r="AO250" s="217" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -42124,7 +42693,7 @@
           <t>-3.12%</t>
         </is>
       </c>
-      <c r="AR250" s="217" t="inlineStr">
+      <c r="AR250" s="218" t="inlineStr">
         <is>
           <t>-8.26%</t>
         </is>
@@ -42238,7 +42807,7 @@
           <t>603192</t>
         </is>
       </c>
-      <c r="B252" s="40" t="inlineStr">
+      <c r="B252" s="38" t="inlineStr">
         <is>
           <t>[聚氨酯材料+下游运用广泛]</t>
         </is>
@@ -42532,7 +43101,7 @@
           <t>4.89%</t>
         </is>
       </c>
-      <c r="AV254" s="218" t="inlineStr">
+      <c r="AV254" s="219" t="inlineStr">
         <is>
           <t>-8.37%</t>
         </is>
@@ -42540,6 +43109,11 @@
       <c r="AW254" s="19" t="inlineStr">
         <is>
           <t>6.82%</t>
+        </is>
+      </c>
+      <c r="AX254" s="19" t="inlineStr">
+        <is>
+          <t>5.74%</t>
         </is>
       </c>
     </row>
@@ -42549,7 +43123,7 @@
           <t>301137</t>
         </is>
       </c>
-      <c r="B255" s="40" t="inlineStr">
+      <c r="B255" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
@@ -42642,6 +43216,11 @@
       <c r="AW255" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX255" s="220" t="inlineStr">
+        <is>
+          <t>8.69%</t>
         </is>
       </c>
     </row>
@@ -42651,7 +43230,7 @@
           <t>300121</t>
         </is>
       </c>
-      <c r="B256" s="40" t="inlineStr">
+      <c r="B256" s="38" t="inlineStr">
         <is>
           <t>[光刻胶+并购重组+回购]</t>
         </is>
@@ -42671,7 +43250,7 @@
           <t>0.26%</t>
         </is>
       </c>
-      <c r="AI256" s="44" t="inlineStr">
+      <c r="AI256" s="43" t="inlineStr">
         <is>
           <t>11.56%[7.5]</t>
         </is>
@@ -42793,7 +43372,7 @@
           <t>-5.95%</t>
         </is>
       </c>
-      <c r="AO257" s="44" t="inlineStr">
+      <c r="AO257" s="43" t="inlineStr">
         <is>
           <t>14.12%</t>
         </is>
@@ -42813,7 +43392,7 @@
           <t>0.76%</t>
         </is>
       </c>
-      <c r="AS257" s="44" t="inlineStr">
+      <c r="AS257" s="43" t="inlineStr">
         <is>
           <t>11.01%</t>
         </is>
@@ -42835,7 +43414,7 @@
           <t>301501</t>
         </is>
       </c>
-      <c r="B258" s="40" t="inlineStr">
+      <c r="B258" s="38" t="inlineStr">
         <is>
           <t>[次新+可降解塑料+泰国工厂投产]</t>
         </is>
@@ -42997,7 +43576,7 @@
           <t>-7.17%</t>
         </is>
       </c>
-      <c r="AT259" s="151" t="inlineStr">
+      <c r="AT259" s="149" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -43015,6 +43594,11 @@
       <c r="AW259" s="19" t="inlineStr">
         <is>
           <t>1.09%</t>
+        </is>
+      </c>
+      <c r="AX259" s="19" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
         </is>
       </c>
     </row>
@@ -43079,7 +43663,7 @@
           <t>4.46%</t>
         </is>
       </c>
-      <c r="AK260" s="219" t="inlineStr">
+      <c r="AK260" s="221" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
@@ -43142,6 +43726,11 @@
       <c r="AW260" s="19" t="inlineStr">
         <is>
           <t>-2.48%</t>
+        </is>
+      </c>
+      <c r="AX260" s="19" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
         </is>
       </c>
     </row>
@@ -43151,7 +43740,7 @@
           <t>002366</t>
         </is>
       </c>
-      <c r="B261" s="40" t="inlineStr">
+      <c r="B261" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+国企]</t>
         </is>
@@ -43239,6 +43828,11 @@
       <c r="AW261" s="19" t="inlineStr">
         <is>
           <t>6.15%</t>
+        </is>
+      </c>
+      <c r="AX261" s="19" t="inlineStr">
+        <is>
+          <t>-2.21%</t>
         </is>
       </c>
     </row>
@@ -43248,7 +43842,7 @@
           <t>002639</t>
         </is>
       </c>
-      <c r="B262" s="40" t="inlineStr">
+      <c r="B262" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+数据中心+热能动力]</t>
         </is>
@@ -43333,7 +43927,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU262" s="220" t="inlineStr">
+      <c r="AU262" s="222" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
@@ -43346,6 +43940,11 @@
       <c r="AW262" s="19" t="inlineStr">
         <is>
           <t>1.47%</t>
+        </is>
+      </c>
+      <c r="AX262" s="159" t="inlineStr">
+        <is>
+          <t>-7.79%</t>
         </is>
       </c>
     </row>
@@ -43380,7 +43979,7 @@
           <t>1.56%</t>
         </is>
       </c>
-      <c r="AK263" s="221" t="inlineStr">
+      <c r="AK263" s="223" t="inlineStr">
         <is>
           <t>8.87%[3.2]</t>
         </is>
@@ -43410,7 +44009,7 @@
           <t>6.93%</t>
         </is>
       </c>
-      <c r="AQ263" s="44" t="inlineStr">
+      <c r="AQ263" s="43" t="inlineStr">
         <is>
           <t>9.80%</t>
         </is>
@@ -43457,7 +44056,7 @@
           <t>中邮科技*</t>
         </is>
       </c>
-      <c r="D264" s="42" t="inlineStr">
+      <c r="D264" s="41" t="inlineStr">
         <is>
           <t>101.02%</t>
         </is>
@@ -43467,7 +44066,7 @@
           <t>首板*[3.1]</t>
         </is>
       </c>
-      <c r="AI264" s="44" t="inlineStr">
+      <c r="AI264" s="43" t="inlineStr">
         <is>
           <t>11.33%</t>
         </is>
@@ -43477,7 +44076,7 @@
           <t>5.56%</t>
         </is>
       </c>
-      <c r="AK264" s="44" t="inlineStr">
+      <c r="AK264" s="43" t="inlineStr">
         <is>
           <t>18.18%</t>
         </is>
@@ -43507,7 +44106,7 @@
           <t>5.44%</t>
         </is>
       </c>
-      <c r="AQ264" s="44" t="inlineStr">
+      <c r="AQ264" s="43" t="inlineStr">
         <is>
           <t>14.69%</t>
         </is>
@@ -43599,7 +44198,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AR265" s="222" t="inlineStr">
+      <c r="AR265" s="224" t="inlineStr">
         <is>
           <t>-8.13%</t>
         </is>
@@ -43627,6 +44226,11 @@
       <c r="AW265" s="19" t="inlineStr">
         <is>
           <t>4.01%</t>
+        </is>
+      </c>
+      <c r="AX265" s="19" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
         </is>
       </c>
     </row>
@@ -43731,6 +44335,11 @@
           <t>1.36%</t>
         </is>
       </c>
+      <c r="AX266" s="19" t="inlineStr">
+        <is>
+          <t>-1.35%</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="14" t="inlineStr">
@@ -43865,7 +44474,7 @@
           <t>601579</t>
         </is>
       </c>
-      <c r="B268" s="40" t="inlineStr">
+      <c r="B268" s="38" t="inlineStr">
         <is>
           <t>[黄酒+高端化、年轻化+产品提价]</t>
         </is>
@@ -43910,7 +44519,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL268" s="223" t="inlineStr">
+      <c r="AL268" s="225" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
@@ -43968,6 +44577,11 @@
       <c r="AW268" s="19" t="inlineStr">
         <is>
           <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="AX268" s="19" t="inlineStr">
+        <is>
+          <t>-1.04%</t>
         </is>
       </c>
     </row>
@@ -44022,7 +44636,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AP269" s="44" t="inlineStr">
+      <c r="AP269" s="43" t="inlineStr">
         <is>
           <t>11.69%[3.0]</t>
         </is>
@@ -44114,7 +44728,7 @@
           <t>首板*[8.6]</t>
         </is>
       </c>
-      <c r="AP270" s="224" t="inlineStr">
+      <c r="AP270" s="226" t="inlineStr">
         <is>
           <t>8.71%[6.2]</t>
         </is>
@@ -44124,7 +44738,7 @@
           <t>-6.85%</t>
         </is>
       </c>
-      <c r="AR270" s="215" t="inlineStr">
+      <c r="AR270" s="216" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -44181,7 +44795,7 @@
           <t>首板*[2.2]</t>
         </is>
       </c>
-      <c r="AJ271" s="225" t="inlineStr">
+      <c r="AJ271" s="227" t="inlineStr">
         <is>
           <t>7.79%</t>
         </is>
@@ -44191,7 +44805,7 @@
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="AL271" s="219" t="inlineStr">
+      <c r="AL271" s="221" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
@@ -44258,7 +44872,7 @@
           <t>600192</t>
         </is>
       </c>
-      <c r="B272" s="40" t="inlineStr">
+      <c r="B272" s="47" t="inlineStr">
         <is>
           <t>[核电+输配电设备+国企改革]</t>
         </is>
@@ -44341,6 +44955,11 @@
       <c r="AW272" s="19" t="inlineStr">
         <is>
           <t>0.92%</t>
+        </is>
+      </c>
+      <c r="AX272" s="19" t="inlineStr">
+        <is>
+          <t>1.69%</t>
         </is>
       </c>
     </row>
@@ -44350,7 +44969,7 @@
           <t>603577</t>
         </is>
       </c>
-      <c r="B273" s="40" t="inlineStr">
+      <c r="B273" s="47" t="inlineStr">
         <is>
           <t>[核电+输电线路铁塔+海工装备]</t>
         </is>
@@ -44428,6 +45047,11 @@
       <c r="AW273" s="19" t="inlineStr">
         <is>
           <t>1.58%</t>
+        </is>
+      </c>
+      <c r="AX273" s="19" t="inlineStr">
+        <is>
+          <t>-2.38%</t>
         </is>
       </c>
     </row>
@@ -44517,6 +45141,11 @@
           <t>6板</t>
         </is>
       </c>
+      <c r="AX274" s="19" t="inlineStr">
+        <is>
+          <t>-4.56%</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="14" t="inlineStr">
@@ -44589,7 +45218,7 @@
           <t>6.01%[2.7]</t>
         </is>
       </c>
-      <c r="AT275" s="226" t="inlineStr">
+      <c r="AT275" s="228" t="inlineStr">
         <is>
           <t>-8.23%</t>
         </is>
@@ -44607,6 +45236,11 @@
       <c r="AW275" s="19" t="inlineStr">
         <is>
           <t>1.11%</t>
+        </is>
+      </c>
+      <c r="AX275" s="19" t="inlineStr">
+        <is>
+          <t>-2.13%</t>
         </is>
       </c>
     </row>
@@ -44711,6 +45345,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AX276" s="19" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="14" t="inlineStr">
@@ -44718,7 +45357,7 @@
           <t>603056</t>
         </is>
       </c>
-      <c r="B277" s="40" t="inlineStr">
+      <c r="B277" s="38" t="inlineStr">
         <is>
           <t>[智能物流+京东增持+年报增长]</t>
         </is>
@@ -44783,7 +45422,7 @@
           <t>-3.19%[2.4]</t>
         </is>
       </c>
-      <c r="AU277" s="227" t="inlineStr">
+      <c r="AU277" s="229" t="inlineStr">
         <is>
           <t>-8.76%</t>
         </is>
@@ -44795,7 +45434,12 @@
       </c>
       <c r="AW277" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="AX277" s="19" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
         </is>
       </c>
     </row>
@@ -44870,7 +45514,7 @@
           <t>-13.16%</t>
         </is>
       </c>
-      <c r="AU278" s="44" t="inlineStr">
+      <c r="AU278" s="43" t="inlineStr">
         <is>
           <t>15.52%</t>
         </is>
@@ -44883,6 +45527,11 @@
       <c r="AW278" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX278" s="20" t="inlineStr">
+        <is>
+          <t>-10.32%</t>
         </is>
       </c>
     </row>
@@ -44927,7 +45576,7 @@
           <t>-0.41%</t>
         </is>
       </c>
-      <c r="AO279" s="228" t="inlineStr">
+      <c r="AO279" s="230" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
@@ -44942,7 +45591,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR279" s="229" t="inlineStr">
+      <c r="AR279" s="231" t="inlineStr">
         <is>
           <t>-7.77%</t>
         </is>
@@ -44970,6 +45619,11 @@
       <c r="AW279" s="19" t="inlineStr">
         <is>
           <t>1.51%</t>
+        </is>
+      </c>
+      <c r="AX279" s="19" t="inlineStr">
+        <is>
+          <t>-2.20%</t>
         </is>
       </c>
     </row>
@@ -44979,7 +45633,7 @@
           <t>300740</t>
         </is>
       </c>
-      <c r="B280" s="40" t="inlineStr">
+      <c r="B280" s="38" t="inlineStr">
         <is>
           <t>[高端护肤+SPA合作]</t>
         </is>
@@ -45034,12 +45688,12 @@
           <t>-2.29%</t>
         </is>
       </c>
-      <c r="AS280" s="44" t="inlineStr">
+      <c r="AS280" s="43" t="inlineStr">
         <is>
           <t>12.74%</t>
         </is>
       </c>
-      <c r="AT280" s="44" t="inlineStr">
+      <c r="AT280" s="43" t="inlineStr">
         <is>
           <t>11.97%</t>
         </is>
@@ -45057,6 +45711,11 @@
       <c r="AW280" s="19" t="inlineStr">
         <is>
           <t>4.22%</t>
+        </is>
+      </c>
+      <c r="AX280" s="19" t="inlineStr">
+        <is>
+          <t>5.71%</t>
         </is>
       </c>
     </row>
@@ -45141,6 +45800,11 @@
           <t>2.94%</t>
         </is>
       </c>
+      <c r="AX281" s="19" t="inlineStr">
+        <is>
+          <t>-1.78%</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="14" t="inlineStr">
@@ -45233,6 +45897,11 @@
           <t>1.93%</t>
         </is>
       </c>
+      <c r="AX282" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="14" t="inlineStr">
@@ -45320,6 +45989,11 @@
           <t>6.97%</t>
         </is>
       </c>
+      <c r="AX283" s="110" t="inlineStr">
+        <is>
+          <t>-8.81%</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="14" t="inlineStr">
@@ -45327,7 +46001,7 @@
           <t>603518</t>
         </is>
       </c>
-      <c r="B284" s="40" t="inlineStr">
+      <c r="B284" s="38" t="inlineStr">
         <is>
           <t>[IP经济+服装行业+回购注销]</t>
         </is>
@@ -45387,12 +46061,12 @@
           <t>6.73%</t>
         </is>
       </c>
-      <c r="AU284" s="44" t="inlineStr">
+      <c r="AU284" s="43" t="inlineStr">
         <is>
           <t>9.66%</t>
         </is>
       </c>
-      <c r="AV284" s="230" t="inlineStr">
+      <c r="AV284" s="232" t="inlineStr">
         <is>
           <t>-7.54%</t>
         </is>
@@ -45400,6 +46074,11 @@
       <c r="AW284" s="19" t="inlineStr">
         <is>
           <t>-4.85%</t>
+        </is>
+      </c>
+      <c r="AX284" s="19" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -45504,6 +46183,11 @@
           <t>0.35%</t>
         </is>
       </c>
+      <c r="AX285" s="19" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="14" t="inlineStr">
@@ -45636,6 +46320,11 @@
           <t>2.98%</t>
         </is>
       </c>
+      <c r="AX286" s="19" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="14" t="inlineStr">
@@ -45728,6 +46417,11 @@
           <t>4.71%</t>
         </is>
       </c>
+      <c r="AX287" s="19" t="inlineStr">
+        <is>
+          <t>-5.96%</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="14" t="inlineStr">
@@ -45790,7 +46484,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AT288" s="231" t="inlineStr">
+      <c r="AT288" s="233" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
@@ -45808,6 +46502,11 @@
       <c r="AW288" s="29" t="inlineStr">
         <is>
           <t>6板[0.4]</t>
+        </is>
+      </c>
+      <c r="AX288" s="19" t="inlineStr">
+        <is>
+          <t>5.11%</t>
         </is>
       </c>
     </row>
@@ -45817,7 +46516,7 @@
           <t>601086</t>
         </is>
       </c>
-      <c r="B289" s="40" t="inlineStr">
+      <c r="B289" s="38" t="inlineStr">
         <is>
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
@@ -45965,6 +46664,11 @@
       <c r="AW289" s="19" t="inlineStr">
         <is>
           <t>4.59%</t>
+        </is>
+      </c>
+      <c r="AX289" s="19" t="inlineStr">
+        <is>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -46024,7 +46728,7 @@
           <t>2板[2.8]</t>
         </is>
       </c>
-      <c r="AS290" s="44" t="inlineStr">
+      <c r="AS290" s="43" t="inlineStr">
         <is>
           <t>13.15%</t>
         </is>
@@ -46047,6 +46751,11 @@
       <c r="AW290" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX290" s="19" t="inlineStr">
+        <is>
+          <t>1.97%</t>
         </is>
       </c>
     </row>
@@ -46131,6 +46840,11 @@
           <t>6.05%</t>
         </is>
       </c>
+      <c r="AX291" s="234" t="inlineStr">
+        <is>
+          <t>8.94%</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="14" t="inlineStr">
@@ -46188,7 +46902,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AS292" s="44" t="inlineStr">
+      <c r="AS292" s="43" t="inlineStr">
         <is>
           <t>13.70%[4.5]</t>
         </is>
@@ -46211,6 +46925,11 @@
       <c r="AW292" s="19" t="inlineStr">
         <is>
           <t>5.03%</t>
+        </is>
+      </c>
+      <c r="AX292" s="19" t="inlineStr">
+        <is>
+          <t>-2.58%</t>
         </is>
       </c>
     </row>
@@ -46230,7 +46949,7 @@
           <t>舒泰神*</t>
         </is>
       </c>
-      <c r="D293" s="42" t="inlineStr">
+      <c r="D293" s="41" t="inlineStr">
         <is>
           <t>111.96%</t>
         </is>
@@ -46250,7 +46969,7 @@
           <t>4.45%[2.5]</t>
         </is>
       </c>
-      <c r="AM293" s="44" t="inlineStr">
+      <c r="AM293" s="43" t="inlineStr">
         <is>
           <t>11.77%</t>
         </is>
@@ -46260,7 +46979,7 @@
           <t>4.72%</t>
         </is>
       </c>
-      <c r="AO293" s="44" t="inlineStr">
+      <c r="AO293" s="43" t="inlineStr">
         <is>
           <t>10.98%</t>
         </is>
@@ -46275,12 +46994,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AR293" s="44" t="inlineStr">
+      <c r="AR293" s="43" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="AS293" s="44" t="inlineStr">
+      <c r="AS293" s="43" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
@@ -46303,6 +47022,11 @@
       <c r="AW293" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX293" s="149" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
         </is>
       </c>
     </row>
@@ -46357,12 +47081,12 @@
           <t>首板*[3.3]</t>
         </is>
       </c>
-      <c r="AR294" s="232" t="inlineStr">
+      <c r="AR294" s="235" t="inlineStr">
         <is>
           <t>7.27%[3.2]</t>
         </is>
       </c>
-      <c r="AS294" s="44" t="inlineStr">
+      <c r="AS294" s="43" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
@@ -46372,12 +47096,12 @@
           <t>-1.46%</t>
         </is>
       </c>
-      <c r="AU294" s="44" t="inlineStr">
+      <c r="AU294" s="43" t="inlineStr">
         <is>
           <t>10.74%</t>
         </is>
       </c>
-      <c r="AV294" s="230" t="inlineStr">
+      <c r="AV294" s="232" t="inlineStr">
         <is>
           <t>-7.55%</t>
         </is>
@@ -46385,6 +47109,11 @@
       <c r="AW294" s="19" t="inlineStr">
         <is>
           <t>0.91%</t>
+        </is>
+      </c>
+      <c r="AX294" s="19" t="inlineStr">
+        <is>
+          <t>1.80%</t>
         </is>
       </c>
     </row>
@@ -46439,7 +47168,7 @@
           <t>首板*[3.5]</t>
         </is>
       </c>
-      <c r="AR295" s="44" t="inlineStr">
+      <c r="AR295" s="43" t="inlineStr">
         <is>
           <t>13.22%[3.0]</t>
         </is>
@@ -46454,7 +47183,7 @@
           <t>-1.03%</t>
         </is>
       </c>
-      <c r="AU295" s="44" t="inlineStr">
+      <c r="AU295" s="43" t="inlineStr">
         <is>
           <t>16.88%</t>
         </is>
@@ -46467,6 +47196,11 @@
       <c r="AW295" s="19" t="inlineStr">
         <is>
           <t>6.50%</t>
+        </is>
+      </c>
+      <c r="AX295" s="19" t="inlineStr">
+        <is>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -46556,6 +47290,11 @@
           <t>2.33%</t>
         </is>
       </c>
+      <c r="AX296" s="19" t="inlineStr">
+        <is>
+          <t>-2.03%</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="14" t="inlineStr">
@@ -46618,7 +47357,7 @@
           <t>-3.90%</t>
         </is>
       </c>
-      <c r="AT297" s="44" t="inlineStr">
+      <c r="AT297" s="43" t="inlineStr">
         <is>
           <t>12.49%</t>
         </is>
@@ -46636,6 +47375,11 @@
       <c r="AW297" s="19" t="inlineStr">
         <is>
           <t>3.37%</t>
+        </is>
+      </c>
+      <c r="AX297" s="19" t="inlineStr">
+        <is>
+          <t>-5.95%</t>
         </is>
       </c>
     </row>
@@ -46645,7 +47389,7 @@
           <t>301082</t>
         </is>
       </c>
-      <c r="B298" s="40" t="inlineStr">
+      <c r="B298" s="47" t="inlineStr">
         <is>
           <t>[核电概念+防火电缆+矿物绝缘加热]</t>
         </is>
@@ -46675,7 +47419,7 @@
           <t>3.66%</t>
         </is>
       </c>
-      <c r="AN298" s="44" t="inlineStr">
+      <c r="AN298" s="43" t="inlineStr">
         <is>
           <t>13.25%</t>
         </is>
@@ -46685,7 +47429,7 @@
           <t>-3.98%</t>
         </is>
       </c>
-      <c r="AP298" s="44" t="inlineStr">
+      <c r="AP298" s="43" t="inlineStr">
         <is>
           <t>13.13%</t>
         </is>
@@ -46723,6 +47467,11 @@
       <c r="AW298" s="119" t="inlineStr">
         <is>
           <t>7.63%</t>
+        </is>
+      </c>
+      <c r="AX298" s="19" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
         </is>
       </c>
     </row>
@@ -46812,6 +47561,11 @@
           <t>5板</t>
         </is>
       </c>
+      <c r="AX299" s="99" t="inlineStr">
+        <is>
+          <t>-8.09%</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="14" t="inlineStr">
@@ -46919,6 +47673,11 @@
           <t>4.74%</t>
         </is>
       </c>
+      <c r="AX300" s="19" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="14" t="inlineStr">
@@ -46961,7 +47720,7 @@
           <t>-3.05%</t>
         </is>
       </c>
-      <c r="AN301" s="216" t="inlineStr">
+      <c r="AN301" s="217" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -47001,7 +47760,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AV301" s="233" t="inlineStr">
+      <c r="AV301" s="236" t="inlineStr">
         <is>
           <t>-7.83%</t>
         </is>
@@ -47009,6 +47768,11 @@
       <c r="AW301" s="19" t="inlineStr">
         <is>
           <t>-2.07%</t>
+        </is>
+      </c>
+      <c r="AX301" s="19" t="inlineStr">
+        <is>
+          <t>-5.23%</t>
         </is>
       </c>
     </row>
@@ -47093,6 +47857,11 @@
           <t>0.51%</t>
         </is>
       </c>
+      <c r="AX302" s="19" t="inlineStr">
+        <is>
+          <t>-2.42%</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="14" t="inlineStr">
@@ -47120,7 +47889,7 @@
           <t>-0.54%</t>
         </is>
       </c>
-      <c r="AN303" s="44" t="inlineStr">
+      <c r="AN303" s="43" t="inlineStr">
         <is>
           <t>11.33%[2.8]</t>
         </is>
@@ -47168,6 +47937,11 @@
       <c r="AW303" s="28" t="inlineStr">
         <is>
           <t>4板</t>
+        </is>
+      </c>
+      <c r="AX303" s="20" t="inlineStr">
+        <is>
+          <t>-12.94%</t>
         </is>
       </c>
     </row>
@@ -47242,6 +48016,11 @@
           <t>-3.75%</t>
         </is>
       </c>
+      <c r="AX304" s="19" t="inlineStr">
+        <is>
+          <t>-4.00%</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="14" t="inlineStr">
@@ -47349,6 +48128,11 @@
           <t>2.92%</t>
         </is>
       </c>
+      <c r="AX305" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="14" t="inlineStr">
@@ -47426,6 +48210,11 @@
           <t>-2.26%</t>
         </is>
       </c>
+      <c r="AX306" s="19" t="inlineStr">
+        <is>
+          <t>-6.27%</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="14" t="inlineStr">
@@ -47433,7 +48222,7 @@
           <t>300651</t>
         </is>
       </c>
-      <c r="B307" s="40" t="inlineStr">
+      <c r="B307" s="38" t="inlineStr">
         <is>
           <t>[足球器材+消费服务转型]</t>
         </is>
@@ -47473,7 +48262,7 @@
           <t>5.35%[3.4]</t>
         </is>
       </c>
-      <c r="AR307" s="44" t="inlineStr">
+      <c r="AR307" s="43" t="inlineStr">
         <is>
           <t>12.06%[4.6]</t>
         </is>
@@ -47493,14 +48282,19 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV307" s="234" t="inlineStr">
+      <c r="AV307" s="237" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="AW307" s="44" t="inlineStr">
+      <c r="AW307" s="43" t="inlineStr">
         <is>
           <t>15.31%</t>
+        </is>
+      </c>
+      <c r="AX307" s="113" t="inlineStr">
+        <is>
+          <t>-7.72%</t>
         </is>
       </c>
     </row>
@@ -47540,12 +48334,12 @@
           <t>2.94%</t>
         </is>
       </c>
-      <c r="AO308" s="44" t="inlineStr">
+      <c r="AO308" s="43" t="inlineStr">
         <is>
           <t>14.42%</t>
         </is>
       </c>
-      <c r="AP308" s="44" t="inlineStr">
+      <c r="AP308" s="43" t="inlineStr">
         <is>
           <t>11.00%</t>
         </is>
@@ -47580,9 +48374,14 @@
           <t>-4.07%</t>
         </is>
       </c>
-      <c r="AW308" s="44" t="inlineStr">
+      <c r="AW308" s="43" t="inlineStr">
         <is>
           <t>12.34%</t>
+        </is>
+      </c>
+      <c r="AX308" s="19" t="inlineStr">
+        <is>
+          <t>-4.63%</t>
         </is>
       </c>
     </row>
@@ -47592,7 +48391,7 @@
           <t>300945</t>
         </is>
       </c>
-      <c r="B309" s="40" t="inlineStr">
+      <c r="B309" s="38" t="inlineStr">
         <is>
           <t>[黄金+珠宝+IP经济]</t>
         </is>
@@ -47642,7 +48441,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AT309" s="44" t="inlineStr">
+      <c r="AT309" s="43" t="inlineStr">
         <is>
           <t>17.01%</t>
         </is>
@@ -47660,6 +48459,11 @@
       <c r="AW309" s="19" t="inlineStr">
         <is>
           <t>4.28%</t>
+        </is>
+      </c>
+      <c r="AX309" s="161" t="inlineStr">
+        <is>
+          <t>9.28%</t>
         </is>
       </c>
     </row>
@@ -47669,7 +48473,7 @@
           <t>603900</t>
         </is>
       </c>
-      <c r="B310" s="40" t="inlineStr">
+      <c r="B310" s="38" t="inlineStr">
         <is>
           <t>[艺术黄金+珠宝首饰+IP经济]</t>
         </is>
@@ -47767,6 +48571,11 @@
       <c r="AW310" s="19" t="inlineStr">
         <is>
           <t>5.68%</t>
+        </is>
+      </c>
+      <c r="AX310" s="19" t="inlineStr">
+        <is>
+          <t>1.02%</t>
         </is>
       </c>
     </row>
@@ -47776,7 +48585,7 @@
           <t>000826</t>
         </is>
       </c>
-      <c r="B311" s="40" t="inlineStr">
+      <c r="B311" s="38" t="inlineStr">
         <is>
           <t>[无人驾驶+数字环卫]</t>
         </is>
@@ -47806,7 +48615,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR311" s="235" t="inlineStr">
+      <c r="AR311" s="238" t="inlineStr">
         <is>
           <t>7.02%[11.0]</t>
         </is>
@@ -47834,6 +48643,11 @@
       <c r="AW311" s="19" t="inlineStr">
         <is>
           <t>-0.46%</t>
+        </is>
+      </c>
+      <c r="AX311" s="19" t="inlineStr">
+        <is>
+          <t>5.58%</t>
         </is>
       </c>
     </row>
@@ -47903,6 +48717,11 @@
           <t>6.87%</t>
         </is>
       </c>
+      <c r="AX312" s="20" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="14" t="inlineStr">
@@ -47980,6 +48799,11 @@
           <t>4.56%</t>
         </is>
       </c>
+      <c r="AX313" s="19" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="14" t="inlineStr">
@@ -47989,7 +48813,7 @@
       </c>
       <c r="B314" s="38" t="inlineStr">
         <is>
-          <t>[物流无人机+不饱和聚酯树脂+摘帽]</t>
+          <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
       </c>
       <c r="C314" s="16" t="inlineStr">
@@ -48070,6 +48894,11 @@
       <c r="AW314" s="19" t="inlineStr">
         <is>
           <t>3.71%</t>
+        </is>
+      </c>
+      <c r="AX314" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
         </is>
       </c>
     </row>
@@ -48079,7 +48908,7 @@
           <t>605099</t>
         </is>
       </c>
-      <c r="B315" s="40" t="inlineStr">
+      <c r="B315" s="38" t="inlineStr">
         <is>
           <t>[足球概念+体育产业+人造草坪]</t>
         </is>
@@ -48137,6 +48966,11 @@
       <c r="AW315" s="29" t="inlineStr">
         <is>
           <t>6板</t>
+        </is>
+      </c>
+      <c r="AX315" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
         </is>
       </c>
     </row>
@@ -48146,7 +48980,7 @@
           <t>002345</t>
         </is>
       </c>
-      <c r="B316" s="40" t="inlineStr">
+      <c r="B316" s="38" t="inlineStr">
         <is>
           <t>[H股发行+黄金+IP联名]</t>
         </is>
@@ -48214,6 +49048,11 @@
       <c r="AW316" s="19" t="inlineStr">
         <is>
           <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="AX316" s="19" t="inlineStr">
+        <is>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -48278,9 +49117,14 @@
           <t>6.16%[2.5]</t>
         </is>
       </c>
-      <c r="AW317" s="44" t="inlineStr">
+      <c r="AW317" s="43" t="inlineStr">
         <is>
           <t>20.00%</t>
+        </is>
+      </c>
+      <c r="AX317" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
         </is>
       </c>
     </row>
@@ -48290,7 +49134,7 @@
           <t>002878</t>
         </is>
       </c>
-      <c r="B318" s="40" t="inlineStr">
+      <c r="B318" s="38" t="inlineStr">
         <is>
           <t>[数字文创资产+Web3.0+IP经济]</t>
         </is>
@@ -48343,6 +49187,11 @@
       <c r="AW318" s="28" t="inlineStr">
         <is>
           <t>4板</t>
+        </is>
+      </c>
+      <c r="AX318" s="19" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
         </is>
       </c>
     </row>
@@ -48352,7 +49201,7 @@
           <t>002951</t>
         </is>
       </c>
-      <c r="B319" s="40" t="inlineStr">
+      <c r="B319" s="38" t="inlineStr">
         <is>
           <t>[蚂蚁数科合作+储能+超级电容器+摘帽]</t>
         </is>
@@ -48405,6 +49254,11 @@
       <c r="AW319" s="18" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AX319" s="43" t="inlineStr">
+        <is>
+          <t>9.65%[2.5]</t>
         </is>
       </c>
     </row>
@@ -48414,7 +49268,7 @@
           <t>600551</t>
         </is>
       </c>
-      <c r="B320" s="40" t="inlineStr">
+      <c r="B320" s="38" t="inlineStr">
         <is>
           <t>[参股京东金融+出版+课后服务+国企改革]</t>
         </is>
@@ -48467,6 +49321,11 @@
       <c r="AW320" s="19" t="inlineStr">
         <is>
           <t>2.66%</t>
+        </is>
+      </c>
+      <c r="AX320" s="19" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
         </is>
       </c>
     </row>
@@ -48476,7 +49335,7 @@
           <t>603093</t>
         </is>
       </c>
-      <c r="B321" s="40" t="inlineStr">
+      <c r="B321" s="38" t="inlineStr">
         <is>
           <t>[期货经纪+风险管理+H股上市+股份回购]</t>
         </is>
@@ -48521,7 +49380,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV321" s="236" t="inlineStr">
+      <c r="AV321" s="239" t="inlineStr">
         <is>
           <t>7.97%[2.7]</t>
         </is>
@@ -48529,6 +49388,11 @@
       <c r="AW321" s="28" t="inlineStr">
         <is>
           <t>4板</t>
+        </is>
+      </c>
+      <c r="AX321" s="19" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
         </is>
       </c>
     </row>
@@ -48538,7 +49402,7 @@
           <t>603226</t>
         </is>
       </c>
-      <c r="B322" s="40" t="inlineStr">
+      <c r="B322" s="38" t="inlineStr">
         <is>
           <t>[股权转让+实控人变更+木地板+智能家居]</t>
         </is>
@@ -48598,9 +49462,14 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AW322" s="44" t="inlineStr">
+      <c r="AW322" s="43" t="inlineStr">
         <is>
           <t>9.97%[2.8]</t>
+        </is>
+      </c>
+      <c r="AX322" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -48610,7 +49479,7 @@
           <t>000533</t>
         </is>
       </c>
-      <c r="B323" s="40" t="inlineStr">
+      <c r="B323" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+数据中心+输配电设备]</t>
         </is>
@@ -48663,6 +49532,11 @@
       <c r="AW323" s="19" t="inlineStr">
         <is>
           <t>-2.68%</t>
+        </is>
+      </c>
+      <c r="AX323" s="19" t="inlineStr">
+        <is>
+          <t>5.26%</t>
         </is>
       </c>
     </row>
@@ -48677,7 +49551,7 @@
           <t>[智慧新能源+存储+华为概念+信创]</t>
         </is>
       </c>
-      <c r="C324" s="36" t="inlineStr">
+      <c r="C324" s="16" t="inlineStr">
         <is>
           <t>中电鑫龙</t>
         </is>
@@ -48735,6 +49609,11 @@
       <c r="AW324" s="19" t="inlineStr">
         <is>
           <t>-3.40%[4.8]</t>
+        </is>
+      </c>
+      <c r="AX324" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
         </is>
       </c>
     </row>
@@ -48744,7 +49623,7 @@
           <t>603042</t>
         </is>
       </c>
-      <c r="B325" s="40" t="inlineStr">
+      <c r="B325" s="38" t="inlineStr">
         <is>
           <t>[铜缆高速连接+光通信]</t>
         </is>
@@ -48807,6 +49686,11 @@
       <c r="AW325" s="19" t="inlineStr">
         <is>
           <t>4.45%</t>
+        </is>
+      </c>
+      <c r="AX325" s="19" t="inlineStr">
+        <is>
+          <t>-5.79%</t>
         </is>
       </c>
     </row>
@@ -48846,7 +49730,7 @@
           <t>4.91%</t>
         </is>
       </c>
-      <c r="AS326" s="44" t="inlineStr">
+      <c r="AS326" s="43" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
@@ -48869,6 +49753,11 @@
       <c r="AW326" s="19" t="inlineStr">
         <is>
           <t>1.75%</t>
+        </is>
+      </c>
+      <c r="AX326" s="19" t="inlineStr">
+        <is>
+          <t>-6.18%</t>
         </is>
       </c>
     </row>
@@ -48878,7 +49767,7 @@
           <t>301306</t>
         </is>
       </c>
-      <c r="B327" s="40" t="inlineStr">
+      <c r="B327" s="38" t="inlineStr">
         <is>
           <t>[商业航天+军用检测+季报亏损收窄]</t>
         </is>
@@ -48923,7 +49812,7 @@
           <t>首板*[5.9]</t>
         </is>
       </c>
-      <c r="AV327" s="44" t="inlineStr">
+      <c r="AV327" s="43" t="inlineStr">
         <is>
           <t>11.06%[4.3]</t>
         </is>
@@ -48931,6 +49820,11 @@
       <c r="AW327" s="19" t="inlineStr">
         <is>
           <t>-3.31%</t>
+        </is>
+      </c>
+      <c r="AX327" s="19" t="inlineStr">
+        <is>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -48940,7 +49834,7 @@
           <t>000889</t>
         </is>
       </c>
-      <c r="B328" s="40" t="inlineStr">
+      <c r="B328" s="38" t="inlineStr">
         <is>
           <t>[摘帽+信息智能传输+通信网络维护]</t>
         </is>
@@ -48988,6 +49882,11 @@
       <c r="AW328" s="28" t="inlineStr">
         <is>
           <t>4板</t>
+        </is>
+      </c>
+      <c r="AX328" s="19" t="inlineStr">
+        <is>
+          <t>3.54%[7.0]</t>
         </is>
       </c>
     </row>
@@ -49052,6 +49951,11 @@
           <t>4板[0.2]</t>
         </is>
       </c>
+      <c r="AX329" s="18" t="inlineStr">
+        <is>
+          <t>5板[5.5]</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="14" t="inlineStr">
@@ -49119,6 +50023,11 @@
           <t>2板</t>
         </is>
       </c>
+      <c r="AX330" s="19" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="14" t="inlineStr">
@@ -49246,6 +50155,11 @@
           <t>13板</t>
         </is>
       </c>
+      <c r="AX331" s="19" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="14" t="inlineStr">
@@ -49278,7 +50192,7 @@
           <t>2板[2.8]</t>
         </is>
       </c>
-      <c r="AS332" s="44" t="inlineStr">
+      <c r="AS332" s="43" t="inlineStr">
         <is>
           <t>13.15%</t>
         </is>
@@ -49301,6 +50215,11 @@
       <c r="AW332" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX332" s="19" t="inlineStr">
+        <is>
+          <t>1.97%</t>
         </is>
       </c>
     </row>
@@ -49320,7 +50239,7 @@
           <t>广康生化*</t>
         </is>
       </c>
-      <c r="D333" s="42" t="inlineStr">
+      <c r="D333" s="41" t="inlineStr">
         <is>
           <t>113.72%</t>
         </is>
@@ -49350,7 +50269,7 @@
           <t>-13.16%</t>
         </is>
       </c>
-      <c r="AU333" s="44" t="inlineStr">
+      <c r="AU333" s="43" t="inlineStr">
         <is>
           <t>15.52%</t>
         </is>
@@ -49363,6 +50282,11 @@
       <c r="AW333" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX333" s="20" t="inlineStr">
+        <is>
+          <t>-10.32%</t>
         </is>
       </c>
     </row>
@@ -49372,7 +50296,7 @@
           <t>301137</t>
         </is>
       </c>
-      <c r="B334" s="40" t="inlineStr">
+      <c r="B334" s="47" t="inlineStr">
         <is>
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
@@ -49430,6 +50354,11 @@
       <c r="AW334" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX334" s="220" t="inlineStr">
+        <is>
+          <t>8.69%</t>
         </is>
       </c>
     </row>
@@ -49449,7 +50378,7 @@
           <t>舒泰神*</t>
         </is>
       </c>
-      <c r="D335" s="42" t="inlineStr">
+      <c r="D335" s="41" t="inlineStr">
         <is>
           <t>139.48%</t>
         </is>
@@ -49469,12 +50398,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AR335" s="44" t="inlineStr">
+      <c r="AR335" s="43" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="AS335" s="44" t="inlineStr">
+      <c r="AS335" s="43" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
@@ -49497,6 +50426,11 @@
       <c r="AW335" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX335" s="149" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
         </is>
       </c>
     </row>
@@ -49516,7 +50450,7 @@
           <t>常山药业*</t>
         </is>
       </c>
-      <c r="D336" s="42" t="inlineStr">
+      <c r="D336" s="41" t="inlineStr">
         <is>
           <t>102.68%</t>
         </is>
@@ -49546,7 +50480,7 @@
           <t>-1.28%</t>
         </is>
       </c>
-      <c r="AV336" s="44" t="inlineStr">
+      <c r="AV336" s="43" t="inlineStr">
         <is>
           <t>15.12%</t>
         </is>
@@ -49554,6 +50488,435 @@
       <c r="AW336" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX336" s="19" t="inlineStr">
+        <is>
+          <t>-3.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="14" t="inlineStr">
+        <is>
+          <t>002940</t>
+        </is>
+      </c>
+      <c r="B337" s="35" t="inlineStr">
+        <is>
+          <t>[NHKC-1+创新药+仿制药+宠物经济]</t>
+        </is>
+      </c>
+      <c r="C337" s="36" t="inlineStr">
+        <is>
+          <t>昂利康</t>
+        </is>
+      </c>
+      <c r="D337" s="17" t="inlineStr">
+        <is>
+          <t>66.48%</t>
+        </is>
+      </c>
+      <c r="AS337" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AT337" s="19" t="inlineStr">
+        <is>
+          <t>1.63%[3.7]</t>
+        </is>
+      </c>
+      <c r="AU337" s="19" t="inlineStr">
+        <is>
+          <t>5.94%</t>
+        </is>
+      </c>
+      <c r="AV337" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AW337" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AX337" s="25" t="inlineStr">
+        <is>
+          <t>3板[0.4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="14" t="inlineStr">
+        <is>
+          <t>600232</t>
+        </is>
+      </c>
+      <c r="B338" s="26" t="inlineStr">
+        <is>
+          <t>[注塑机+纺织机械+锂电池+越南投资]</t>
+        </is>
+      </c>
+      <c r="C338" s="36" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
+      <c r="D338" s="17" t="inlineStr">
+        <is>
+          <t>40.51%</t>
+        </is>
+      </c>
+      <c r="AS338" s="19" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="AT338" s="19" t="inlineStr">
+        <is>
+          <t>1.58%</t>
+        </is>
+      </c>
+      <c r="AU338" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AV338" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.0]</t>
+        </is>
+      </c>
+      <c r="AW338" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AX338" s="25" t="inlineStr">
+        <is>
+          <t>3板[12.9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="14" t="inlineStr">
+        <is>
+          <t>603032</t>
+        </is>
+      </c>
+      <c r="B339" s="26" t="inlineStr">
+        <is>
+          <t>[固态电池+锂电池模具+减速器]</t>
+        </is>
+      </c>
+      <c r="C339" s="36" t="inlineStr">
+        <is>
+          <t>德新科技</t>
+        </is>
+      </c>
+      <c r="D339" s="34" t="inlineStr">
+        <is>
+          <t>29.42%</t>
+        </is>
+      </c>
+      <c r="AS339" s="19" t="inlineStr">
+        <is>
+          <t>-0.22%</t>
+        </is>
+      </c>
+      <c r="AT339" s="19" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="AU339" s="19" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="AV339" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.2]</t>
+        </is>
+      </c>
+      <c r="AW339" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AX339" s="25" t="inlineStr">
+        <is>
+          <t>3板[6.4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="14" t="inlineStr">
+        <is>
+          <t>603332</t>
+        </is>
+      </c>
+      <c r="B340" s="38" t="inlineStr">
+        <is>
+          <t>[涤纶+化学纤维+部分产品涨价]</t>
+        </is>
+      </c>
+      <c r="C340" s="65" t="inlineStr">
+        <is>
+          <t>苏州龙杰</t>
+        </is>
+      </c>
+      <c r="D340" s="61" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AC340" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.3]</t>
+        </is>
+      </c>
+      <c r="AD340" s="24" t="inlineStr">
+        <is>
+          <t>2板[0.3]</t>
+        </is>
+      </c>
+      <c r="AE340" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AF340" s="28" t="inlineStr">
+        <is>
+          <t>4板[8.6]</t>
+        </is>
+      </c>
+      <c r="AG340" s="18" t="inlineStr">
+        <is>
+          <t>5板[3.9]</t>
+        </is>
+      </c>
+      <c r="AJ340" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
+        </is>
+      </c>
+      <c r="AM340" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
+        </is>
+      </c>
+      <c r="AN340" s="66" t="inlineStr">
+        <is>
+          <t>8板[0.2]</t>
+        </is>
+      </c>
+      <c r="AO340" s="67" t="inlineStr">
+        <is>
+          <t>9板</t>
+        </is>
+      </c>
+      <c r="AS340" s="19" t="inlineStr">
+        <is>
+          <t>-5.82%</t>
+        </is>
+      </c>
+      <c r="AT340" s="19" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="AU340" s="196" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
+        </is>
+      </c>
+      <c r="AV340" s="19" t="inlineStr">
+        <is>
+          <t>-4.92%</t>
+        </is>
+      </c>
+      <c r="AW340" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX340" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="14" t="inlineStr">
+        <is>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="B341" s="35" t="inlineStr">
+        <is>
+          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+        </is>
+      </c>
+      <c r="C341" s="36" t="inlineStr">
+        <is>
+          <t>赛升药业*</t>
+        </is>
+      </c>
+      <c r="D341" s="34" t="inlineStr">
+        <is>
+          <t>32.57%</t>
+        </is>
+      </c>
+      <c r="AS341" s="19" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="AT341" s="19" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
+        </is>
+      </c>
+      <c r="AU341" s="19" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="AV341" s="19" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="AW341" s="19" t="inlineStr">
+        <is>
+          <t>6.08%</t>
+        </is>
+      </c>
+      <c r="AX341" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="14" t="inlineStr">
+        <is>
+          <t>300886</t>
+        </is>
+      </c>
+      <c r="B342" s="63" t="inlineStr">
+        <is>
+          <t>[内酯系列香料+外销+产能释放]</t>
+        </is>
+      </c>
+      <c r="C342" s="36" t="inlineStr">
+        <is>
+          <t>华业香料*</t>
+        </is>
+      </c>
+      <c r="D342" s="34" t="inlineStr">
+        <is>
+          <t>31.60%</t>
+        </is>
+      </c>
+      <c r="AG342" s="21" t="inlineStr">
+        <is>
+          <t>首板*[6.8]</t>
+        </is>
+      </c>
+      <c r="AS342" s="19" t="inlineStr">
+        <is>
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="AT342" s="240" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="AU342" s="170" t="inlineStr">
+        <is>
+          <t>-7.02%</t>
+        </is>
+      </c>
+      <c r="AV342" s="19" t="inlineStr">
+        <is>
+          <t>5.32%</t>
+        </is>
+      </c>
+      <c r="AW342" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="AX342" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="14" t="inlineStr">
+        <is>
+          <t>833171</t>
+        </is>
+      </c>
+      <c r="B343" s="75" t="inlineStr">
+        <is>
+          <t>[航运+战略合作+出海]</t>
+        </is>
+      </c>
+      <c r="C343" s="64" t="inlineStr">
+        <is>
+          <t>国航远洋**</t>
+        </is>
+      </c>
+      <c r="D343" s="34" t="inlineStr">
+        <is>
+          <t>28.53%</t>
+        </is>
+      </c>
+      <c r="J343" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.3]</t>
+        </is>
+      </c>
+      <c r="AF343" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.7]</t>
+        </is>
+      </c>
+      <c r="AS343" s="19" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="AT343" s="19" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="AU343" s="19" t="inlineStr">
+        <is>
+          <t>-3.99%</t>
+        </is>
+      </c>
+      <c r="AV343" s="19" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="AW343" s="19" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="AX343" s="21" t="inlineStr">
+        <is>
+          <t>首板**[3.4]</t>
         </is>
       </c>
     </row>
@@ -49582,436 +50945,436 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="237" t="inlineStr">
+      <c r="A1" s="241" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="238" t="n"/>
+      <c r="B1" s="242" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="239" t="inlineStr">
+      <c r="A2" s="243" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="239" t="inlineStr">
+      <c r="B2" s="243" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="240" t="inlineStr">
+      <c r="A3" s="244" t="inlineStr">
         <is>
           <t>跨境贸易</t>
         </is>
       </c>
-      <c r="B3" s="238" t="n">
-        <v>68</v>
+      <c r="B3" s="242" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="241" t="inlineStr">
+      <c r="A4" s="245" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B4" s="238" t="n">
-        <v>43</v>
+      <c r="B4" s="242" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="242" t="inlineStr">
-        <is>
-          <t>传统消费</t>
-        </is>
-      </c>
-      <c r="B5" s="238" t="n">
-        <v>38</v>
+      <c r="A5" s="246" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B5" s="242" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="243" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B6" s="238" t="n">
-        <v>36</v>
+      <c r="A6" s="247" t="inlineStr">
+        <is>
+          <t>传统消费</t>
+        </is>
+      </c>
+      <c r="B6" s="242" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="244" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B7" s="238" t="n">
-        <v>34</v>
+      <c r="A7" s="248" t="inlineStr">
+        <is>
+          <t>新能源</t>
+        </is>
+      </c>
+      <c r="B7" s="242" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="245" t="inlineStr">
-        <is>
-          <t>新能源</t>
-        </is>
-      </c>
-      <c r="B8" s="238" t="n">
-        <v>33</v>
+      <c r="A8" s="249" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B8" s="242" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="246" t="inlineStr">
+      <c r="A9" s="250" t="inlineStr">
         <is>
           <t>港口航运</t>
         </is>
       </c>
-      <c r="B9" s="238" t="n">
-        <v>30</v>
+      <c r="B9" s="242" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="247" t="inlineStr">
+      <c r="A10" s="251" t="inlineStr">
         <is>
           <t>AI大模型</t>
         </is>
       </c>
-      <c r="B10" s="238" t="n">
+      <c r="B10" s="242" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="248" t="inlineStr">
-        <is>
-          <t>化工</t>
-        </is>
-      </c>
-      <c r="B11" s="238" t="n">
-        <v>25</v>
+      <c r="A11" s="252" t="inlineStr">
+        <is>
+          <t>核聚变</t>
+        </is>
+      </c>
+      <c r="B11" s="242" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="239" t="inlineStr">
+      <c r="A12" s="243" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="238" t="n"/>
+      <c r="B12" s="242" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="238" t="inlineStr">
-        <is>
-          <t>核聚变</t>
-        </is>
-      </c>
-      <c r="B13" s="238" t="n">
+      <c r="A13" s="242" t="inlineStr">
+        <is>
+          <t>化工</t>
+        </is>
+      </c>
+      <c r="B13" s="242" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="238" t="inlineStr">
+      <c r="A14" s="242" t="inlineStr">
         <is>
           <t>半导体</t>
         </is>
       </c>
-      <c r="B14" s="238" t="n">
+      <c r="B14" s="242" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="238" t="inlineStr">
+      <c r="A15" s="242" t="inlineStr">
         <is>
           <t>新消费</t>
         </is>
       </c>
-      <c r="B15" s="238" t="n">
+      <c r="B15" s="242" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="238" t="inlineStr">
+      <c r="A16" s="242" t="inlineStr">
         <is>
           <t>无人经济</t>
         </is>
       </c>
-      <c r="B16" s="238" t="n">
+      <c r="B16" s="242" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="238" t="inlineStr">
+      <c r="A17" s="242" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B17" s="238" t="n">
+      <c r="B17" s="242" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="238" t="inlineStr">
+      <c r="A18" s="242" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B18" s="238" t="n">
+      <c r="B18" s="242" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="238" t="inlineStr">
+      <c r="A19" s="242" t="inlineStr">
         <is>
           <t>AI算力</t>
         </is>
       </c>
-      <c r="B19" s="238" t="n">
+      <c r="B19" s="242" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="238" t="inlineStr">
+      <c r="A20" s="242" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B20" s="238" t="n">
+      <c r="B20" s="242" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="238" t="inlineStr">
-        <is>
-          <t>重组</t>
-        </is>
-      </c>
-      <c r="B21" s="238" t="n">
+      <c r="A21" s="242" t="inlineStr">
+        <is>
+          <t>新型材料</t>
+        </is>
+      </c>
+      <c r="B21" s="242" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="238" t="inlineStr">
-        <is>
-          <t>新型材料</t>
-        </is>
-      </c>
-      <c r="B22" s="238" t="n">
-        <v>11</v>
+      <c r="A22" s="242" t="inlineStr">
+        <is>
+          <t>重组</t>
+        </is>
+      </c>
+      <c r="B22" s="242" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="238" t="inlineStr">
+      <c r="A23" s="242" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B23" s="238" t="n">
+      <c r="B23" s="242" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="238" t="inlineStr">
+      <c r="A24" s="242" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="238" t="n">
+      <c r="B24" s="242" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="238" t="inlineStr">
+      <c r="A25" s="242" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B25" s="238" t="n">
+      <c r="B25" s="242" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="238" t="inlineStr">
+      <c r="A26" s="242" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="238" t="n">
+      <c r="B26" s="242" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="238" t="inlineStr">
+      <c r="A27" s="242" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="238" t="n">
+      <c r="B27" s="242" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="238" t="inlineStr">
-        <is>
-          <t>金融</t>
-        </is>
-      </c>
-      <c r="B28" s="238" t="n">
+      <c r="A28" s="242" t="inlineStr">
+        <is>
+          <t>体育产业</t>
+        </is>
+      </c>
+      <c r="B28" s="242" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="238" t="inlineStr">
-        <is>
-          <t>体育产业</t>
-        </is>
-      </c>
-      <c r="B29" s="238" t="n">
-        <v>4</v>
+      <c r="A29" s="242" t="inlineStr">
+        <is>
+          <t>金融</t>
+        </is>
+      </c>
+      <c r="B29" s="242" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="238" t="inlineStr">
+      <c r="A30" s="242" t="inlineStr">
         <is>
           <t>小米概念</t>
         </is>
       </c>
-      <c r="B30" s="238" t="n">
+      <c r="B30" s="242" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="239" t="inlineStr">
+      <c r="A31" s="243" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B31" s="238" t="n"/>
+      <c r="B31" s="242" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="238" t="inlineStr">
+      <c r="A32" s="242" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B32" s="238" t="n">
+      <c r="B32" s="242" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="238" t="inlineStr">
+      <c r="A33" s="242" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B33" s="238" t="n">
-        <v>13</v>
+      <c r="B33" s="242" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="238" t="inlineStr">
+      <c r="A34" s="242" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B34" s="238" t="n">
+      <c r="B34" s="242" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="249" t="inlineStr">
+      <c r="A35" s="253" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B35" s="238" t="n"/>
+      <c r="B35" s="242" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="239" t="inlineStr">
+      <c r="A36" s="243" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B36" s="238" t="n"/>
+      <c r="B36" s="242" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="250" t="inlineStr">
+      <c r="A37" s="254" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B37" s="238" t="n"/>
+      <c r="B37" s="242" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="251" t="inlineStr">
+      <c r="A38" s="255" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B38" s="238" t="n"/>
+      <c r="B38" s="242" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="252" t="inlineStr">
+      <c r="A39" s="256" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B39" s="238" t="n"/>
+      <c r="B39" s="242" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="253" t="inlineStr">
+      <c r="A40" s="257" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B40" s="238" t="n"/>
+      <c r="B40" s="242" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="254" t="inlineStr">
+      <c r="A41" s="258" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B41" s="238" t="n"/>
+      <c r="B41" s="242" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="255" t="inlineStr">
+      <c r="A42" s="259" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B42" s="238" t="n"/>
+      <c r="B42" s="242" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="239" t="inlineStr">
+      <c r="A43" s="243" t="inlineStr">
         <is>
           <t>重复入选颜色</t>
         </is>
       </c>
-      <c r="B43" s="238" t="n"/>
+      <c r="B43" s="242" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="256" t="inlineStr">
+      <c r="A44" s="260" t="inlineStr">
         <is>
           <t>2次入选</t>
         </is>
       </c>
-      <c r="B44" s="238" t="n"/>
+      <c r="B44" s="242" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="257" t="inlineStr">
+      <c r="A45" s="261" t="inlineStr">
         <is>
           <t>3次入选</t>
         </is>
       </c>
-      <c r="B45" s="238" t="n"/>
+      <c r="B45" s="242" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="258" t="inlineStr">
+      <c r="A46" s="262" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B46" s="238" t="n"/>
+      <c r="B46" s="242" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -51,7 +51,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="233">
+  <fills count="236">
     <fill>
       <patternFill/>
     </fill>
@@ -427,11 +427,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF66B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00EFFFEF"/>
         <bgColor rgb="00EFFFEF"/>
       </patternFill>
@@ -582,6 +577,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="00B2FFB2"/>
         <bgColor rgb="00B2FFB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF66B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -737,6 +737,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00B1FFB1"/>
         <bgColor rgb="00B1FFB1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2FFA2"/>
+        <bgColor rgb="00A2FFA2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1260,6 +1266,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0099FF99"/>
+        <bgColor rgb="0099FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0079FF79"/>
         <bgColor rgb="0079FF79"/>
       </patternFill>
@@ -1404,6 +1416,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF42"/>
+        <bgColor rgb="00FFFF42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF44"/>
         <bgColor rgb="00FFFF44"/>
       </patternFill>
@@ -1447,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1651,8 +1669,8 @@
     <xf numFmtId="0" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1678,13 +1696,13 @@
     <xf numFmtId="0" fontId="0" fillId="74" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="76" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="77" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="78" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1703,13 +1721,13 @@
     <xf numFmtId="0" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1727,8 +1745,8 @@
     <xf numFmtId="0" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1826,10 +1844,10 @@
     <xf numFmtId="0" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1853,14 +1871,14 @@
     <xf numFmtId="0" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1961,11 +1979,11 @@
     <xf numFmtId="0" fontId="0" fillId="168" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="169" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="170" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="171" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2147,6 +2165,15 @@
     <xf numFmtId="0" fontId="0" fillId="230" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="232" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,21 +2182,21 @@
     <xf numFmtId="0" fontId="7" fillId="54" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="234" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="169" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="170" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="75" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="232" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6525,6 +6552,14 @@
 开板次数: 2</t>
       </text>
     </comment>
+    <comment ref="AY181" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AD182" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9765,6 +9800,14 @@
 开板次数: 4</t>
       </text>
     </comment>
+    <comment ref="AY318" authorId="0" shapeId="0">
+      <text>
+        <t>9天5板 
+首次涨停: 13:36:09 
+最终涨停: 13:36:09 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AT319" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9981,6 +10024,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AY329" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AM330" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -10101,7 +10152,23 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AR332" authorId="0" shapeId="0">
+    <comment ref="AW332" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY332" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 10:03:15 
+最终涨停: 14:29:09 
+开板次数: 5</t>
+      </text>
+    </comment>
+    <comment ref="AR333" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 10:03:12 
@@ -10109,7 +10176,7 @@
 开板次数: 14</t>
       </text>
     </comment>
-    <comment ref="AQ333" authorId="0" shapeId="0">
+    <comment ref="AQ334" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 10:24:15 
@@ -10117,7 +10184,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AN334" authorId="0" shapeId="0">
+    <comment ref="AN335" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:35:45 
@@ -10125,7 +10192,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AO334" authorId="0" shapeId="0">
+    <comment ref="AO335" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 13:31:48 
@@ -10133,7 +10200,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AW337" authorId="0" shapeId="0">
+    <comment ref="AW338" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:30:27 
@@ -10141,7 +10208,7 @@
 开板次数: 3</t>
       </text>
     </comment>
-    <comment ref="AX337" authorId="0" shapeId="0">
+    <comment ref="AX338" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:00 
@@ -10149,7 +10216,15 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="AW338" authorId="0" shapeId="0">
+    <comment ref="AY338" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:30:39 
+最终涨停: 14:49:12 
+开板次数: 47</t>
+      </text>
+    </comment>
+    <comment ref="AW339" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:00 
@@ -10157,7 +10232,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AX338" authorId="0" shapeId="0">
+    <comment ref="AX339" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:00 
@@ -10165,7 +10240,15 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AW339" authorId="0" shapeId="0">
+    <comment ref="AY339" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 13:56:40 
+最终涨停: 14:50:01 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AW340" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:30:42 
@@ -10173,7 +10256,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AX339" authorId="0" shapeId="0">
+    <comment ref="AX340" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:30:49 
@@ -10181,7 +10264,23 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="AD340" authorId="0" shapeId="0">
+    <comment ref="AX341" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:44:54 
+最终涨停: 14:11:24 
+开板次数: 20</t>
+      </text>
+    </comment>
+    <comment ref="AY341" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:30:21 
+最终涨停: 09:41:21 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AD342" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10189,7 +10288,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AE340" authorId="0" shapeId="0">
+    <comment ref="AE342" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:03 
@@ -10197,7 +10296,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AF340" authorId="0" shapeId="0">
+    <comment ref="AF342" authorId="0" shapeId="0">
       <text>
         <t>4天4板 
 首次涨停: 09:25:03 
@@ -10205,7 +10304,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AG340" authorId="0" shapeId="0">
+    <comment ref="AG342" authorId="0" shapeId="0">
       <text>
         <t>5天5板 
 首次涨停: 10:39:13 
@@ -10213,7 +10312,7 @@
 开板次数: 12</t>
       </text>
     </comment>
-    <comment ref="AJ340" authorId="0" shapeId="0">
+    <comment ref="AJ342" authorId="0" shapeId="0">
       <text>
         <t>8天6板 
 首次涨停: 13:43:52 
@@ -10221,7 +10320,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AM340" authorId="0" shapeId="0">
+    <comment ref="AM342" authorId="0" shapeId="0">
       <text>
         <t>11天7板 
 首次涨停: 10:01:43 
@@ -10229,7 +10328,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AN340" authorId="0" shapeId="0">
+    <comment ref="AN342" authorId="0" shapeId="0">
       <text>
         <t>12天8板 
 首次涨停: 09:25:02 
@@ -10237,7 +10336,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AO340" authorId="0" shapeId="0">
+    <comment ref="AO342" authorId="0" shapeId="0">
       <text>
         <t>13天9板 
 首次涨停: 09:44:22 
@@ -10245,12 +10344,44 @@
 开板次数: 6</t>
       </text>
     </comment>
-    <comment ref="AX340" authorId="0" shapeId="0">
+    <comment ref="AX342" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:40:44 
 最终涨停: 13:28:44 
 开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AY342" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:25:00 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY343" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:48:21 
+最终涨停: 10:48:21 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AX348" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY348" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:31:06 
+开板次数: 1</t>
       </text>
     </comment>
   </commentList>
@@ -10546,7 +10677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY343"/>
+  <dimension ref="A1:AZ348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -10607,6 +10738,7 @@
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
+    <col width="12" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -10906,6 +11038,12 @@
 星期二</t>
         </is>
       </c>
+      <c r="AY1" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-11
+星期三</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="4" t="inlineStr">
@@ -11141,6 +11279,11 @@
       <c r="AX2" s="7" t="inlineStr">
         <is>
           <t>-1.17%</t>
+        </is>
+      </c>
+      <c r="AY2" s="9" t="inlineStr">
+        <is>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11526,12 @@
           <t>237.69</t>
         </is>
       </c>
-      <c r="AY3" s="11" t="n"/>
+      <c r="AY3" s="13" t="inlineStr">
+        <is>
+          <t>208.46</t>
+        </is>
+      </c>
+      <c r="AZ3" s="11" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -11591,6 +11739,11 @@
           <t>-0.53%</t>
         </is>
       </c>
+      <c r="AY4" s="19" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -12152,6 +12305,11 @@
           <t>-0.64%</t>
         </is>
       </c>
+      <c r="AY7" s="19" t="inlineStr">
+        <is>
+          <t>-6.31%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
@@ -12323,7 +12481,7 @@
           <t>300871</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
+      <c r="B10" s="35" t="inlineStr">
         <is>
           <t>[兽用药品+泰乐菌素涨价+中药]</t>
         </is>
@@ -12657,6 +12815,11 @@
           <t>-2.05%</t>
         </is>
       </c>
+      <c r="AY12" s="19" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -13213,6 +13376,11 @@
           <t>-2.50%</t>
         </is>
       </c>
+      <c r="AY15" s="19" t="inlineStr">
+        <is>
+          <t>-3.85%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="inlineStr">
@@ -13285,6 +13453,11 @@
           <t>2.13%</t>
         </is>
       </c>
+      <c r="AY16" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="inlineStr">
@@ -13599,6 +13772,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AY18" s="19" t="inlineStr">
+        <is>
+          <t>-6.89%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="inlineStr">
@@ -13761,6 +13939,11 @@
           <t>-1.92%</t>
         </is>
       </c>
+      <c r="AY19" s="19" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="inlineStr">
@@ -13998,6 +14181,11 @@
           <t>-2.23%</t>
         </is>
       </c>
+      <c r="AY20" s="19" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="inlineStr">
@@ -14095,6 +14283,11 @@
           <t>-1.76%</t>
         </is>
       </c>
+      <c r="AY21" s="19" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="inlineStr">
@@ -14297,6 +14490,11 @@
           <t>1.53%</t>
         </is>
       </c>
+      <c r="AY22" s="19" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="inlineStr">
@@ -14479,6 +14677,11 @@
           <t>4.86%</t>
         </is>
       </c>
+      <c r="AY23" s="19" t="inlineStr">
+        <is>
+          <t>-3.76%</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="inlineStr">
@@ -14671,6 +14874,11 @@
           <t>3.06%</t>
         </is>
       </c>
+      <c r="AY24" s="19" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="inlineStr">
@@ -14962,7 +15170,7 @@
           <t>002084</t>
         </is>
       </c>
-      <c r="B27" s="75" t="inlineStr">
+      <c r="B27" s="63" t="inlineStr">
         <is>
           <t>[智能家居+空气能热泵+一带一路]</t>
         </is>
@@ -15017,7 +15225,7 @@
           <t>-10.08%[3.0]</t>
         </is>
       </c>
-      <c r="M27" s="76" t="inlineStr">
+      <c r="M27" s="75" t="inlineStr">
         <is>
           <t>-7.25%</t>
         </is>
@@ -15104,7 +15312,7 @@
           <t>5板[0.2]</t>
         </is>
       </c>
-      <c r="K28" s="77" t="inlineStr">
+      <c r="K28" s="76" t="inlineStr">
         <is>
           <t>7.59%[14.4]</t>
         </is>
@@ -15114,7 +15322,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="M28" s="78" t="inlineStr">
+      <c r="M28" s="77" t="inlineStr">
         <is>
           <t>-7.32%</t>
         </is>
@@ -15308,7 +15516,7 @@
           <t>3.50%</t>
         </is>
       </c>
-      <c r="G30" s="79" t="inlineStr">
+      <c r="G30" s="78" t="inlineStr">
         <is>
           <t>7.25%[3.4]</t>
         </is>
@@ -15400,7 +15608,7 @@
           <t>3.09%</t>
         </is>
       </c>
-      <c r="G31" s="80" t="inlineStr">
+      <c r="G31" s="79" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
@@ -15425,7 +15633,7 @@
           <t>-4.24%</t>
         </is>
       </c>
-      <c r="L31" s="81" t="inlineStr">
+      <c r="L31" s="80" t="inlineStr">
         <is>
           <t>-8.59%</t>
         </is>
@@ -15440,7 +15648,7 @@
           <t>10.05%</t>
         </is>
       </c>
-      <c r="O31" s="82" t="inlineStr">
+      <c r="O31" s="81" t="inlineStr">
         <is>
           <t>-8.84%</t>
         </is>
@@ -15507,7 +15715,7 @@
           <t>-2.17%</t>
         </is>
       </c>
-      <c r="L32" s="83" t="inlineStr">
+      <c r="L32" s="82" t="inlineStr">
         <is>
           <t>-7.94%</t>
         </is>
@@ -15570,6 +15778,11 @@
       <c r="AX32" s="19" t="inlineStr">
         <is>
           <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="AY32" s="19" t="inlineStr">
+        <is>
+          <t>2.89%</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15792,7 @@
           <t>600540</t>
         </is>
       </c>
-      <c r="B33" s="75" t="inlineStr">
+      <c r="B33" s="63" t="inlineStr">
         <is>
           <t>[新疆棉+物流+一带一路+新疆国资]</t>
         </is>
@@ -15676,7 +15889,7 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B34" s="75" t="inlineStr">
+      <c r="B34" s="63" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -15776,7 +15989,7 @@
           <t>-6.93%</t>
         </is>
       </c>
-      <c r="V34" s="84" t="inlineStr">
+      <c r="V34" s="83" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -15879,6 +16092,11 @@
       <c r="AX34" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AY34" s="19" t="inlineStr">
+        <is>
+          <t>1.84%[2.3]</t>
         </is>
       </c>
     </row>
@@ -15893,7 +16111,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C35" s="85" t="inlineStr">
+      <c r="C35" s="84" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -15963,17 +16181,17 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="Q35" s="86" t="inlineStr">
+      <c r="Q35" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R35" s="86" t="inlineStr">
+      <c r="R35" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S35" s="86" t="inlineStr">
+      <c r="S35" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -15983,7 +16201,7 @@
           <t>-9.96%[0.2]</t>
         </is>
       </c>
-      <c r="U35" s="86" t="inlineStr">
+      <c r="U35" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -16013,7 +16231,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AA35" s="86" t="inlineStr">
+      <c r="AA35" s="85" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -16023,7 +16241,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC35" s="87" t="inlineStr">
+      <c r="AC35" s="86" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -16038,7 +16256,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF35" s="86" t="inlineStr">
+      <c r="AF35" s="85" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -16078,7 +16296,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN35" s="88" t="inlineStr">
+      <c r="AN35" s="87" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -16126,6 +16344,11 @@
       <c r="AX35" s="19" t="inlineStr">
         <is>
           <t>1.60%</t>
+        </is>
+      </c>
+      <c r="AY35" s="19" t="inlineStr">
+        <is>
+          <t>-4.59%</t>
         </is>
       </c>
     </row>
@@ -16180,7 +16403,7 @@
           <t>4板[3.6]</t>
         </is>
       </c>
-      <c r="K36" s="89" t="inlineStr">
+      <c r="K36" s="88" t="inlineStr">
         <is>
           <t>-9.25%</t>
         </is>
@@ -16243,6 +16466,11 @@
       <c r="AX36" s="19" t="inlineStr">
         <is>
           <t>-2.34%</t>
+        </is>
+      </c>
+      <c r="AY36" s="19" t="inlineStr">
+        <is>
+          <t>0.44%</t>
         </is>
       </c>
     </row>
@@ -16357,7 +16585,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="W37" s="90" t="inlineStr">
+      <c r="W37" s="89" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -16495,6 +16723,11 @@
       <c r="AX37" s="19" t="inlineStr">
         <is>
           <t>3.41%</t>
+        </is>
+      </c>
+      <c r="AY37" s="19" t="inlineStr">
+        <is>
+          <t>-6.29%</t>
         </is>
       </c>
     </row>
@@ -16504,7 +16737,7 @@
           <t>002165</t>
         </is>
       </c>
-      <c r="B38" s="75" t="inlineStr">
+      <c r="B38" s="63" t="inlineStr">
         <is>
           <t>[环氧丙烷衍生品+光刻胶+出海]</t>
         </is>
@@ -16534,7 +16767,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="H38" s="91" t="inlineStr">
+      <c r="H38" s="90" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -16659,7 +16892,7 @@
           <t>5.77%</t>
         </is>
       </c>
-      <c r="AG38" s="92" t="inlineStr">
+      <c r="AG38" s="91" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -16684,7 +16917,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL38" s="81" t="inlineStr">
+      <c r="AL38" s="80" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -16714,7 +16947,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AR38" s="93" t="inlineStr">
+      <c r="AR38" s="92" t="inlineStr">
         <is>
           <t>-7.93%</t>
         </is>
@@ -16823,7 +17056,7 @@
           <t>601933</t>
         </is>
       </c>
-      <c r="B40" s="94" t="inlineStr">
+      <c r="B40" s="93" t="inlineStr">
         <is>
           <t>[今年将完成超200家门店调改+零售]</t>
         </is>
@@ -16910,7 +17143,7 @@
           <t>301078</t>
         </is>
       </c>
-      <c r="B41" s="94" t="inlineStr">
+      <c r="B41" s="93" t="inlineStr">
         <is>
           <t>[母婴零售+电商+一季报预增]</t>
         </is>
@@ -16920,7 +17153,7 @@
           <t>孩子王*</t>
         </is>
       </c>
-      <c r="D41" s="95" t="inlineStr">
+      <c r="D41" s="94" t="inlineStr">
         <is>
           <t>-12.97%</t>
         </is>
@@ -16950,12 +17183,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="J41" s="96" t="inlineStr">
+      <c r="J41" s="95" t="inlineStr">
         <is>
           <t>7.99%[2.6]</t>
         </is>
       </c>
-      <c r="K41" s="97" t="inlineStr">
+      <c r="K41" s="96" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
@@ -16997,7 +17230,7 @@
           <t>002800</t>
         </is>
       </c>
-      <c r="B42" s="75" t="inlineStr">
+      <c r="B42" s="63" t="inlineStr">
         <is>
           <t>[物流+统一大市场+新疆]</t>
         </is>
@@ -17278,7 +17511,7 @@
           <t>000759</t>
         </is>
       </c>
-      <c r="B45" s="94" t="inlineStr">
+      <c r="B45" s="63" t="inlineStr">
         <is>
           <t>[免税店+商业零售+胖东来指导交流+湖北国资]</t>
         </is>
@@ -17288,7 +17521,7 @@
           <t>中百集团</t>
         </is>
       </c>
-      <c r="D45" s="95" t="inlineStr">
+      <c r="D45" s="94" t="inlineStr">
         <is>
           <t>-0.60%</t>
         </is>
@@ -17582,7 +17815,7 @@
           <t>300892</t>
         </is>
       </c>
-      <c r="B47" s="94" t="inlineStr">
+      <c r="B47" s="93" t="inlineStr">
         <is>
           <t>[乳业+进口食品+零售]</t>
         </is>
@@ -17612,7 +17845,7 @@
           <t>3.32%</t>
         </is>
       </c>
-      <c r="H47" s="98" t="inlineStr">
+      <c r="H47" s="97" t="inlineStr">
         <is>
           <t>-9.28%</t>
         </is>
@@ -17657,7 +17890,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="Q47" s="99" t="inlineStr">
+      <c r="Q47" s="98" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -17667,12 +17900,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="S47" s="100" t="inlineStr">
+      <c r="S47" s="99" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
       </c>
-      <c r="T47" s="101" t="inlineStr">
+      <c r="T47" s="100" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -17714,7 +17947,7 @@
           <t>301058</t>
         </is>
       </c>
-      <c r="B48" s="38" t="inlineStr">
+      <c r="B48" s="101" t="inlineStr">
         <is>
           <t>[粮食+仓储物流+中字头+国企]</t>
         </is>
@@ -17806,7 +18039,7 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B49" s="38" t="inlineStr">
+      <c r="B49" s="101" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
@@ -17958,7 +18191,7 @@
           <t>国民技术*</t>
         </is>
       </c>
-      <c r="D50" s="95" t="inlineStr">
+      <c r="D50" s="94" t="inlineStr">
         <is>
           <t>-3.63%</t>
         </is>
@@ -18040,7 +18273,7 @@
           <t>600180</t>
         </is>
       </c>
-      <c r="B51" s="75" t="inlineStr">
+      <c r="B51" s="63" t="inlineStr">
         <is>
           <t>[大豆产业链+大宗商品供应链+一带一路]</t>
         </is>
@@ -18132,7 +18365,7 @@
           <t>603709</t>
         </is>
       </c>
-      <c r="B52" s="94" t="inlineStr">
+      <c r="B52" s="93" t="inlineStr">
         <is>
           <t>[沙发+电商+新零售]</t>
         </is>
@@ -18142,7 +18375,7 @@
           <t>中源家居</t>
         </is>
       </c>
-      <c r="D52" s="95" t="inlineStr">
+      <c r="D52" s="94" t="inlineStr">
         <is>
           <t>-3.04%</t>
         </is>
@@ -18244,7 +18477,7 @@
           <t>万马股份</t>
         </is>
       </c>
-      <c r="D53" s="95" t="inlineStr">
+      <c r="D53" s="94" t="inlineStr">
         <is>
           <t>-2.14%</t>
         </is>
@@ -18461,6 +18694,11 @@
           <t>-3.81%[2.6]</t>
         </is>
       </c>
+      <c r="AY54" s="19" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="inlineStr">
@@ -18468,7 +18706,7 @@
           <t>301066</t>
         </is>
       </c>
-      <c r="B55" s="94" t="inlineStr">
+      <c r="B55" s="93" t="inlineStr">
         <is>
           <t>[离境退税+丝绸+电商+AI智能体]</t>
         </is>
@@ -18702,7 +18940,7 @@
           <t>872351</t>
         </is>
       </c>
-      <c r="B57" s="75" t="inlineStr">
+      <c r="B57" s="63" t="inlineStr">
         <is>
           <t>[统一大市场+国际物流]</t>
         </is>
@@ -19068,7 +19306,7 @@
           <t>600697</t>
         </is>
       </c>
-      <c r="B60" s="94" t="inlineStr">
+      <c r="B60" s="63" t="inlineStr">
         <is>
           <t>[免税店+零售+中俄贸易+国企]</t>
         </is>
@@ -19175,7 +19413,7 @@
           <t>000582</t>
         </is>
       </c>
-      <c r="B61" s="75" t="inlineStr">
+      <c r="B61" s="63" t="inlineStr">
         <is>
           <t>[一带一路+港口航运+统一大市场+国企]</t>
         </is>
@@ -19277,7 +19515,7 @@
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D62" s="95" t="inlineStr">
+      <c r="D62" s="94" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -19460,6 +19698,11 @@
       <c r="AX62" s="19" t="inlineStr">
         <is>
           <t>3.18%[2.4]</t>
+        </is>
+      </c>
+      <c r="AY62" s="19" t="inlineStr">
+        <is>
+          <t>0.77%</t>
         </is>
       </c>
     </row>
@@ -19778,6 +20021,11 @@
           <t>0.41%</t>
         </is>
       </c>
+      <c r="AY65" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="inlineStr">
@@ -20181,7 +20429,7 @@
           <t>中毅达</t>
         </is>
       </c>
-      <c r="D69" s="95" t="inlineStr">
+      <c r="D69" s="94" t="inlineStr">
         <is>
           <t>-16.14%</t>
         </is>
@@ -20760,6 +21008,11 @@
           <t>-1.19%</t>
         </is>
       </c>
+      <c r="AY71" s="19" t="inlineStr">
+        <is>
+          <t>-2.40%</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="inlineStr">
@@ -20767,7 +21020,7 @@
           <t>601083</t>
         </is>
       </c>
-      <c r="B72" s="75" t="inlineStr">
+      <c r="B72" s="63" t="inlineStr">
         <is>
           <t>[航运+上海国资]</t>
         </is>
@@ -20909,7 +21162,7 @@
           <t>603879</t>
         </is>
       </c>
-      <c r="B73" s="38" t="inlineStr">
+      <c r="B73" s="101" t="inlineStr">
         <is>
           <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
@@ -21042,6 +21295,11 @@
       <c r="AX73" s="18" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AY73" s="129" t="inlineStr">
+        <is>
+          <t>-8.40%</t>
         </is>
       </c>
     </row>
@@ -21131,7 +21389,7 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="V74" s="129" t="inlineStr">
+      <c r="V74" s="130" t="inlineStr">
         <is>
           <t>7.15%</t>
         </is>
@@ -21264,6 +21522,11 @@
       <c r="AX74" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AY74" s="19" t="inlineStr">
+        <is>
+          <t>-6.56%</t>
         </is>
       </c>
     </row>
@@ -21338,7 +21601,7 @@
           <t>4.53%</t>
         </is>
       </c>
-      <c r="S75" s="130" t="inlineStr">
+      <c r="S75" s="131" t="inlineStr">
         <is>
           <t>-8.74%</t>
         </is>
@@ -21388,12 +21651,12 @@
           <t>-1.27%</t>
         </is>
       </c>
-      <c r="AO75" s="131" t="inlineStr">
+      <c r="AO75" s="132" t="inlineStr">
         <is>
           <t>8.30%</t>
         </is>
       </c>
-      <c r="AP75" s="132" t="inlineStr">
+      <c r="AP75" s="133" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -21567,7 +21830,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="T77" s="133" t="inlineStr">
+      <c r="T77" s="134" t="inlineStr">
         <is>
           <t>-8.21%</t>
         </is>
@@ -21634,7 +21897,7 @@
           <t>605188</t>
         </is>
       </c>
-      <c r="B78" s="94" t="inlineStr">
+      <c r="B78" s="93" t="inlineStr">
         <is>
           <t>[零售+生鲜食品+智能物流]</t>
         </is>
@@ -21799,7 +22062,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU78" s="76" t="inlineStr">
+      <c r="AU78" s="75" t="inlineStr">
         <is>
           <t>-7.24%</t>
         </is>
@@ -21826,7 +22089,7 @@
           <t>002165</t>
         </is>
       </c>
-      <c r="B79" s="75" t="inlineStr">
+      <c r="B79" s="63" t="inlineStr">
         <is>
           <t>[环氧丙烷衍生品+光刻胶+出海]</t>
         </is>
@@ -21836,7 +22099,7 @@
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D79" s="134" t="inlineStr">
+      <c r="D79" s="135" t="inlineStr">
         <is>
           <t>79.74%</t>
         </is>
@@ -21966,7 +22229,7 @@
           <t>5.77%</t>
         </is>
       </c>
-      <c r="AG79" s="92" t="inlineStr">
+      <c r="AG79" s="91" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -21991,7 +22254,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL79" s="81" t="inlineStr">
+      <c r="AL79" s="80" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -22021,7 +22284,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AR79" s="93" t="inlineStr">
+      <c r="AR79" s="92" t="inlineStr">
         <is>
           <t>-7.93%</t>
         </is>
@@ -22053,7 +22316,7 @@
           <t>27.02%</t>
         </is>
       </c>
-      <c r="J80" s="135" t="inlineStr">
+      <c r="J80" s="136" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
@@ -22103,7 +22366,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="T80" s="136" t="inlineStr">
+      <c r="T80" s="137" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -22195,7 +22458,7 @@
           <t>300941</t>
         </is>
       </c>
-      <c r="B81" s="63" t="inlineStr">
+      <c r="B81" s="35" t="inlineStr">
         <is>
           <t>[电子支付+AI医疗+数字人民币]</t>
         </is>
@@ -22571,7 +22834,7 @@
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="Y84" s="137" t="inlineStr">
+      <c r="Y84" s="138" t="inlineStr">
         <is>
           <t>-8.19%</t>
         </is>
@@ -22613,7 +22876,7 @@
           <t>002719</t>
         </is>
       </c>
-      <c r="B85" s="94" t="inlineStr">
+      <c r="B85" s="93" t="inlineStr">
         <is>
           <t>[饮料乳品+新疆振兴+新零售]</t>
         </is>
@@ -22688,7 +22951,7 @@
           <t>-6.92%</t>
         </is>
       </c>
-      <c r="W85" s="138" t="inlineStr">
+      <c r="W85" s="139" t="inlineStr">
         <is>
           <t>-8.41%</t>
         </is>
@@ -22750,7 +23013,7 @@
           <t>003020</t>
         </is>
       </c>
-      <c r="B86" s="38" t="inlineStr">
+      <c r="B86" s="35" t="inlineStr">
         <is>
           <t>[ADHD治疗药物+化学制药]</t>
         </is>
@@ -22830,7 +23093,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="X86" s="81" t="inlineStr">
+      <c r="X86" s="80" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -22954,7 +23217,7 @@
           <t>603696</t>
         </is>
       </c>
-      <c r="B88" s="94" t="inlineStr">
+      <c r="B88" s="93" t="inlineStr">
         <is>
           <t>[地天板+调味品+新零售+年报增长]</t>
         </is>
@@ -23029,7 +23292,7 @@
           <t>-0.20%</t>
         </is>
       </c>
-      <c r="W88" s="139" t="inlineStr">
+      <c r="W88" s="140" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
@@ -23183,7 +23446,7 @@
           <t>29.91%</t>
         </is>
       </c>
-      <c r="K90" s="140" t="inlineStr">
+      <c r="K90" s="141" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
@@ -23280,7 +23543,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="L91" s="141" t="inlineStr">
+      <c r="L91" s="142" t="inlineStr">
         <is>
           <t>-9.48%</t>
         </is>
@@ -23345,7 +23608,7 @@
           <t>-9.93%[0.3]</t>
         </is>
       </c>
-      <c r="Y91" s="142" t="inlineStr">
+      <c r="Y91" s="143" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -23627,6 +23890,11 @@
           <t>-2.50%</t>
         </is>
       </c>
+      <c r="AY92" s="19" t="inlineStr">
+        <is>
+          <t>-3.85%</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="inlineStr">
@@ -23634,7 +23902,7 @@
           <t>300322</t>
         </is>
       </c>
-      <c r="B93" s="143" t="inlineStr">
+      <c r="B93" s="144" t="inlineStr">
         <is>
           <t>[一季报预增+卫星导航+AI眼镜+消费电子]</t>
         </is>
@@ -23946,6 +24214,11 @@
           <t>-2.23%</t>
         </is>
       </c>
+      <c r="AY94" s="19" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="inlineStr">
@@ -23958,7 +24231,7 @@
           <t>[产品涨价+环氧丙烷+混凝土外加剂]</t>
         </is>
       </c>
-      <c r="C95" s="144" t="inlineStr">
+      <c r="C95" s="145" t="inlineStr">
         <is>
           <t>红墙股份</t>
         </is>
@@ -24058,7 +24331,7 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AE95" s="86" t="inlineStr">
+      <c r="AE95" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
@@ -24073,7 +24346,7 @@
           <t>-3.41%</t>
         </is>
       </c>
-      <c r="AH95" s="86" t="inlineStr">
+      <c r="AH95" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
@@ -24125,7 +24398,7 @@
           <t>600794</t>
         </is>
       </c>
-      <c r="B96" s="63" t="inlineStr">
+      <c r="B96" s="93" t="inlineStr">
         <is>
           <t>[智慧物流+数字货币+电子商务+国企]</t>
         </is>
@@ -24293,6 +24566,11 @@
       <c r="AX96" s="19" t="inlineStr">
         <is>
           <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="AY96" s="19" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
         </is>
       </c>
     </row>
@@ -24302,7 +24580,7 @@
           <t>603110</t>
         </is>
       </c>
-      <c r="B97" s="143" t="inlineStr">
+      <c r="B97" s="144" t="inlineStr">
         <is>
           <t>[MCP+东方超算+PCB电子油墨]</t>
         </is>
@@ -24352,7 +24630,7 @@
           <t>1.60%</t>
         </is>
       </c>
-      <c r="T97" s="145" t="inlineStr">
+      <c r="T97" s="146" t="inlineStr">
         <is>
           <t>-7.64%</t>
         </is>
@@ -24509,7 +24787,7 @@
           <t>-2.11%</t>
         </is>
       </c>
-      <c r="AI98" s="146" t="inlineStr">
+      <c r="AI98" s="147" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -24576,7 +24854,7 @@
           <t>002251</t>
         </is>
       </c>
-      <c r="B99" s="94" t="inlineStr">
+      <c r="B99" s="93" t="inlineStr">
         <is>
           <t>[零售+摘帽+一季报增长+年报扭亏]</t>
         </is>
@@ -24646,7 +24924,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="W99" s="147" t="inlineStr">
+      <c r="W99" s="148" t="inlineStr">
         <is>
           <t>-8.29%</t>
         </is>
@@ -24693,7 +24971,7 @@
           <t>002583</t>
         </is>
       </c>
-      <c r="B100" s="75" t="inlineStr">
+      <c r="B100" s="63" t="inlineStr">
         <is>
           <t>[6G+对讲机终端+一带一路]</t>
         </is>
@@ -24830,7 +25108,7 @@
           <t>300892</t>
         </is>
       </c>
-      <c r="B101" s="94" t="inlineStr">
+      <c r="B101" s="93" t="inlineStr">
         <is>
           <t>[乳业+进口食品+零售]</t>
         </is>
@@ -24875,7 +25153,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="Q101" s="99" t="inlineStr">
+      <c r="Q101" s="98" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -24885,12 +25163,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="S101" s="100" t="inlineStr">
+      <c r="S101" s="99" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
       </c>
-      <c r="T101" s="101" t="inlineStr">
+      <c r="T101" s="100" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -24982,7 +25260,7 @@
           <t>-0.24%</t>
         </is>
       </c>
-      <c r="T102" s="148" t="inlineStr">
+      <c r="T102" s="149" t="inlineStr">
         <is>
           <t>-8.61%</t>
         </is>
@@ -25174,9 +25452,14 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX103" s="149" t="inlineStr">
+      <c r="AX103" s="150" t="inlineStr">
         <is>
           <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="AY103" s="19" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25519,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T104" s="150" t="inlineStr">
+      <c r="T104" s="151" t="inlineStr">
         <is>
           <t>-8.49%</t>
         </is>
@@ -25246,12 +25529,12 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="V104" s="100" t="inlineStr">
+      <c r="V104" s="99" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W104" s="151" t="inlineStr">
+      <c r="W104" s="152" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -25339,6 +25622,11 @@
       <c r="AN104" s="19" t="inlineStr">
         <is>
           <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="AY104" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -25455,7 +25743,7 @@
           <t>600865</t>
         </is>
       </c>
-      <c r="B106" s="94" t="inlineStr">
+      <c r="B106" s="93" t="inlineStr">
         <is>
           <t>[年报净利增长+零售+杭州]</t>
         </is>
@@ -25500,7 +25788,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T106" s="149" t="inlineStr">
+      <c r="T106" s="150" t="inlineStr">
         <is>
           <t>-8.70%[3.9]</t>
         </is>
@@ -25510,7 +25798,7 @@
           <t>-6.00%</t>
         </is>
       </c>
-      <c r="V106" s="152" t="inlineStr">
+      <c r="V106" s="153" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -25739,7 +26027,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="W108" s="90" t="inlineStr">
+      <c r="W108" s="89" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -25877,6 +26165,11 @@
       <c r="AX108" s="19" t="inlineStr">
         <is>
           <t>3.41%</t>
+        </is>
+      </c>
+      <c r="AY108" s="19" t="inlineStr">
+        <is>
+          <t>-6.29%</t>
         </is>
       </c>
     </row>
@@ -25886,7 +26179,7 @@
           <t>002537</t>
         </is>
       </c>
-      <c r="B109" s="63" t="inlineStr">
+      <c r="B109" s="38" t="inlineStr">
         <is>
           <t>[第三方支付（业务拟转让）+汽车零部件]</t>
         </is>
@@ -26006,7 +26299,7 @@
           <t>3板[3.0]</t>
         </is>
       </c>
-      <c r="AT109" s="153" t="inlineStr">
+      <c r="AT109" s="154" t="inlineStr">
         <is>
           <t>-7.31%[2.6]</t>
         </is>
@@ -26016,7 +26309,7 @@
           <t>2.47%</t>
         </is>
       </c>
-      <c r="AV109" s="91" t="inlineStr">
+      <c r="AV109" s="90" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -26029,6 +26322,11 @@
       <c r="AX109" s="19" t="inlineStr">
         <is>
           <t>0.36%</t>
+        </is>
+      </c>
+      <c r="AY109" s="19" t="inlineStr">
+        <is>
+          <t>-3.32%</t>
         </is>
       </c>
     </row>
@@ -26213,6 +26511,11 @@
           <t>3.18%[2.4]</t>
         </is>
       </c>
+      <c r="AY110" s="19" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="inlineStr">
@@ -26350,6 +26653,11 @@
           <t>-1.92%</t>
         </is>
       </c>
+      <c r="AY111" s="19" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="14" t="inlineStr">
@@ -26432,7 +26740,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="Z112" s="154" t="inlineStr">
+      <c r="Z112" s="155" t="inlineStr">
         <is>
           <t>7.67%</t>
         </is>
@@ -26464,7 +26772,7 @@
           <t>拉卡拉*</t>
         </is>
       </c>
-      <c r="D113" s="134" t="inlineStr">
+      <c r="D113" s="135" t="inlineStr">
         <is>
           <t>74.05%</t>
         </is>
@@ -26499,7 +26807,7 @@
           <t>首板*[2.7]</t>
         </is>
       </c>
-      <c r="T113" s="131" t="inlineStr">
+      <c r="T113" s="132" t="inlineStr">
         <is>
           <t>8.30%[2.3]</t>
         </is>
@@ -26577,6 +26885,11 @@
       <c r="AX113" s="19" t="inlineStr">
         <is>
           <t>-2.03%</t>
+        </is>
+      </c>
+      <c r="AY113" s="19" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
         </is>
       </c>
     </row>
@@ -26833,7 +27146,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AB115" s="155" t="inlineStr">
+      <c r="AB115" s="156" t="inlineStr">
         <is>
           <t>-8.99%</t>
         </is>
@@ -26873,7 +27186,7 @@
           <t>6.03%</t>
         </is>
       </c>
-      <c r="AJ115" s="132" t="inlineStr">
+      <c r="AJ115" s="133" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -27194,7 +27507,7 @@
           <t>0.38%</t>
         </is>
       </c>
-      <c r="Y118" s="156" t="inlineStr">
+      <c r="Y118" s="157" t="inlineStr">
         <is>
           <t>7.04%</t>
         </is>
@@ -27214,7 +27527,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AC118" s="157" t="inlineStr">
+      <c r="AC118" s="158" t="inlineStr">
         <is>
           <t>-8.38%</t>
         </is>
@@ -27276,12 +27589,12 @@
           <t>-2.04%</t>
         </is>
       </c>
-      <c r="W119" s="158" t="inlineStr">
+      <c r="W119" s="159" t="inlineStr">
         <is>
           <t>-8.71%</t>
         </is>
       </c>
-      <c r="X119" s="159" t="inlineStr">
+      <c r="X119" s="160" t="inlineStr">
         <is>
           <t>-7.78%</t>
         </is>
@@ -27418,7 +27731,7 @@
           <t>1.14%</t>
         </is>
       </c>
-      <c r="W120" s="160" t="inlineStr">
+      <c r="W120" s="161" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -27433,7 +27746,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Z120" s="161" t="inlineStr">
+      <c r="Z120" s="162" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -27453,7 +27766,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AD120" s="162" t="inlineStr">
+      <c r="AD120" s="163" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -27764,7 +28077,7 @@
           <t>-5.94%</t>
         </is>
       </c>
-      <c r="AA123" s="163" t="inlineStr">
+      <c r="AA123" s="164" t="inlineStr">
         <is>
           <t>8.53%</t>
         </is>
@@ -27852,6 +28165,11 @@
       <c r="AX123" s="19" t="inlineStr">
         <is>
           <t>1.36%[3.1]</t>
+        </is>
+      </c>
+      <c r="AY123" s="19" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
         </is>
       </c>
     </row>
@@ -27926,7 +28244,7 @@
           <t>-10.06%</t>
         </is>
       </c>
-      <c r="Y124" s="81" t="inlineStr">
+      <c r="Y124" s="80" t="inlineStr">
         <is>
           <t>-8.59%</t>
         </is>
@@ -28222,7 +28540,7 @@
           <t>600828</t>
         </is>
       </c>
-      <c r="B127" s="94" t="inlineStr">
+      <c r="B127" s="93" t="inlineStr">
         <is>
           <t>[零售+首店经济+即时零售]</t>
         </is>
@@ -28651,6 +28969,11 @@
           <t>-2.51%</t>
         </is>
       </c>
+      <c r="AY129" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="inlineStr">
@@ -28778,7 +29101,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AR130" s="136" t="inlineStr">
+      <c r="AR130" s="137" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -28811,6 +29134,11 @@
       <c r="AX130" s="19" t="inlineStr">
         <is>
           <t>-4.29%</t>
+        </is>
+      </c>
+      <c r="AY130" s="19" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
         </is>
       </c>
     </row>
@@ -28992,7 +29320,7 @@
           <t>-3.71%</t>
         </is>
       </c>
-      <c r="Z132" s="164" t="inlineStr">
+      <c r="Z132" s="165" t="inlineStr">
         <is>
           <t>-7.73%</t>
         </is>
@@ -29007,7 +29335,7 @@
           <t>15.60%</t>
         </is>
       </c>
-      <c r="AC132" s="165" t="inlineStr">
+      <c r="AC132" s="166" t="inlineStr">
         <is>
           <t>-8.43%</t>
         </is>
@@ -29121,7 +29449,7 @@
           <t>603359</t>
         </is>
       </c>
-      <c r="B134" s="143" t="inlineStr">
+      <c r="B134" s="144" t="inlineStr">
         <is>
           <t>[参股迪洛斯10%股权+AI初创公司]</t>
         </is>
@@ -29261,7 +29589,7 @@
           <t>-4.06%</t>
         </is>
       </c>
-      <c r="AP134" s="166" t="inlineStr">
+      <c r="AP134" s="167" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -29304,6 +29632,11 @@
       <c r="AX134" s="19" t="inlineStr">
         <is>
           <t>-4.08%</t>
+        </is>
+      </c>
+      <c r="AY134" s="19" t="inlineStr">
+        <is>
+          <t>-2.88%</t>
         </is>
       </c>
     </row>
@@ -29338,7 +29671,7 @@
           <t>4.40%</t>
         </is>
       </c>
-      <c r="U135" s="167" t="inlineStr">
+      <c r="U135" s="168" t="inlineStr">
         <is>
           <t>9.16%[2.8]</t>
         </is>
@@ -29383,7 +29716,7 @@
           <t>-5.16%</t>
         </is>
       </c>
-      <c r="AD135" s="168" t="inlineStr">
+      <c r="AD135" s="169" t="inlineStr">
         <is>
           <t>7.44%</t>
         </is>
@@ -29500,7 +29833,7 @@
           <t>-3.17%</t>
         </is>
       </c>
-      <c r="AF136" s="169" t="inlineStr">
+      <c r="AF136" s="170" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
@@ -29674,7 +30007,7 @@
           <t>1.88%</t>
         </is>
       </c>
-      <c r="AC138" s="170" t="inlineStr">
+      <c r="AC138" s="171" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -29901,6 +30234,11 @@
           <t>-2.50%</t>
         </is>
       </c>
+      <c r="AY139" s="19" t="inlineStr">
+        <is>
+          <t>-3.85%</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="14" t="inlineStr">
@@ -29963,7 +30301,7 @@
           <t>-5.21%</t>
         </is>
       </c>
-      <c r="AC140" s="171" t="inlineStr">
+      <c r="AC140" s="172" t="inlineStr">
         <is>
           <t>-8.88%</t>
         </is>
@@ -30003,7 +30341,7 @@
           <t>6.12%</t>
         </is>
       </c>
-      <c r="AK140" s="172" t="inlineStr">
+      <c r="AK140" s="173" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -30036,6 +30374,11 @@
       <c r="AQ140" s="19" t="inlineStr">
         <is>
           <t>-2.26%</t>
+        </is>
+      </c>
+      <c r="AY140" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -30105,7 +30448,7 @@
           <t>9.62%</t>
         </is>
       </c>
-      <c r="AD141" s="173" t="inlineStr">
+      <c r="AD141" s="174" t="inlineStr">
         <is>
           <t>-7.18%</t>
         </is>
@@ -30244,7 +30587,7 @@
           <t>603030</t>
         </is>
       </c>
-      <c r="B143" s="15" t="inlineStr">
+      <c r="B143" s="63" t="inlineStr">
         <is>
           <t>[机器人+出海+建筑装饰+业绩改善]</t>
         </is>
@@ -30372,6 +30715,11 @@
       <c r="AX143" s="19" t="inlineStr">
         <is>
           <t>-1.38%</t>
+        </is>
+      </c>
+      <c r="AY143" s="19" t="inlineStr">
+        <is>
+          <t>-0.35%</t>
         </is>
       </c>
     </row>
@@ -30426,7 +30774,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AA144" s="146" t="inlineStr">
+      <c r="AA144" s="147" t="inlineStr">
         <is>
           <t>7.39%[3.0]</t>
         </is>
@@ -30563,7 +30911,7 @@
           <t>0.65%[3.5]</t>
         </is>
       </c>
-      <c r="AB145" s="174" t="inlineStr">
+      <c r="AB145" s="175" t="inlineStr">
         <is>
           <t>-8.82%</t>
         </is>
@@ -30596,6 +30944,11 @@
       <c r="AH145" s="19" t="inlineStr">
         <is>
           <t>3.33%</t>
+        </is>
+      </c>
+      <c r="AY145" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -30996,7 +31349,7 @@
           <t>1.71%</t>
         </is>
       </c>
-      <c r="Y149" s="175" t="inlineStr">
+      <c r="Y149" s="176" t="inlineStr">
         <is>
           <t>8.89%[3.4]</t>
         </is>
@@ -31006,12 +31359,12 @@
           <t>首板*[3.0]</t>
         </is>
       </c>
-      <c r="AA149" s="176" t="inlineStr">
+      <c r="AA149" s="177" t="inlineStr">
         <is>
           <t>8.46%[3.8]</t>
         </is>
       </c>
-      <c r="AB149" s="177" t="inlineStr">
+      <c r="AB149" s="178" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
@@ -31031,7 +31384,7 @@
           <t>-2.23%</t>
         </is>
       </c>
-      <c r="AF149" s="178" t="inlineStr">
+      <c r="AF149" s="179" t="inlineStr">
         <is>
           <t>7.48%</t>
         </is>
@@ -31150,7 +31503,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C151" s="85" t="inlineStr">
+      <c r="C151" s="84" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -31205,22 +31558,22 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="Q151" s="86" t="inlineStr">
+      <c r="Q151" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R151" s="86" t="inlineStr">
+      <c r="R151" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S151" s="86" t="inlineStr">
+      <c r="S151" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U151" s="86" t="inlineStr">
+      <c r="U151" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -31250,7 +31603,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AA151" s="86" t="inlineStr">
+      <c r="AA151" s="85" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -31260,7 +31613,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC151" s="87" t="inlineStr">
+      <c r="AC151" s="86" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -31275,7 +31628,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF151" s="86" t="inlineStr">
+      <c r="AF151" s="85" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -31315,7 +31668,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN151" s="88" t="inlineStr">
+      <c r="AN151" s="87" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -31363,6 +31716,11 @@
       <c r="AX151" s="19" t="inlineStr">
         <is>
           <t>1.60%</t>
+        </is>
+      </c>
+      <c r="AY151" s="19" t="inlineStr">
+        <is>
+          <t>-4.59%</t>
         </is>
       </c>
     </row>
@@ -31437,7 +31795,7 @@
           <t>-9.93%[0.3]</t>
         </is>
       </c>
-      <c r="Y152" s="142" t="inlineStr">
+      <c r="Y152" s="143" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -31539,12 +31897,12 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="V153" s="100" t="inlineStr">
+      <c r="V153" s="99" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W153" s="151" t="inlineStr">
+      <c r="W153" s="152" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -31632,6 +31990,11 @@
       <c r="AN153" s="19" t="inlineStr">
         <is>
           <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="AY153" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -31646,7 +32009,7 @@
           <t>[曾研发外骨骼机器人用电缆+军工+电线电缆+低空经济]</t>
         </is>
       </c>
-      <c r="C154" s="179" t="inlineStr">
+      <c r="C154" s="180" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
@@ -31726,7 +32089,7 @@
           <t>-6.19%</t>
         </is>
       </c>
-      <c r="AG154" s="171" t="inlineStr">
+      <c r="AG154" s="172" t="inlineStr">
         <is>
           <t>-8.88%</t>
         </is>
@@ -31761,12 +32124,12 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AN154" s="86" t="inlineStr">
+      <c r="AN154" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="AO154" s="86" t="inlineStr">
+      <c r="AO154" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
@@ -31776,7 +32139,7 @@
           <t>-3.33%</t>
         </is>
       </c>
-      <c r="AQ154" s="86" t="inlineStr">
+      <c r="AQ154" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -31806,7 +32169,7 @@
           <t>-1.56%</t>
         </is>
       </c>
-      <c r="AW154" s="86" t="inlineStr">
+      <c r="AW154" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -31814,6 +32177,11 @@
       <c r="AX154" s="19" t="inlineStr">
         <is>
           <t>0.64%</t>
+        </is>
+      </c>
+      <c r="AY154" s="20" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
         </is>
       </c>
     </row>
@@ -31878,7 +32246,7 @@
           <t>-4.29%[5.4]</t>
         </is>
       </c>
-      <c r="AC155" s="172" t="inlineStr">
+      <c r="AC155" s="173" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -31923,12 +32291,12 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AL155" s="180" t="inlineStr">
+      <c r="AL155" s="181" t="inlineStr">
         <is>
           <t>7.30%</t>
         </is>
       </c>
-      <c r="AM155" s="181" t="inlineStr">
+      <c r="AM155" s="182" t="inlineStr">
         <is>
           <t>-7.43%</t>
         </is>
@@ -32142,6 +32510,11 @@
           <t>0.62%</t>
         </is>
       </c>
+      <c r="AY157" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="14" t="inlineStr">
@@ -32341,7 +32714,7 @@
           <t>6.43%</t>
         </is>
       </c>
-      <c r="AG159" s="167" t="inlineStr">
+      <c r="AG159" s="168" t="inlineStr">
         <is>
           <t>9.17%</t>
         </is>
@@ -32371,7 +32744,7 @@
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AM159" s="182" t="inlineStr">
+      <c r="AM159" s="183" t="inlineStr">
         <is>
           <t>-7.35%</t>
         </is>
@@ -32453,7 +32826,7 @@
           <t>-4.80%[2.3]</t>
         </is>
       </c>
-      <c r="AF160" s="183" t="inlineStr">
+      <c r="AF160" s="184" t="inlineStr">
         <is>
           <t>-8.91%</t>
         </is>
@@ -32493,7 +32866,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AV160" s="79" t="inlineStr">
+      <c r="AV160" s="78" t="inlineStr">
         <is>
           <t>7.24%</t>
         </is>
@@ -32506,6 +32879,11 @@
       <c r="AX160" s="19" t="inlineStr">
         <is>
           <t>3.51%</t>
+        </is>
+      </c>
+      <c r="AY160" s="19" t="inlineStr">
+        <is>
+          <t>6.00%</t>
         </is>
       </c>
     </row>
@@ -32687,7 +33065,7 @@
           <t>-4.07%</t>
         </is>
       </c>
-      <c r="AG162" s="77" t="inlineStr">
+      <c r="AG162" s="76" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
@@ -32702,7 +33080,7 @@
           <t>-4.11%</t>
         </is>
       </c>
-      <c r="AJ162" s="82" t="inlineStr">
+      <c r="AJ162" s="81" t="inlineStr">
         <is>
           <t>-8.83%</t>
         </is>
@@ -32891,7 +33269,7 @@
           <t>2.91%</t>
         </is>
       </c>
-      <c r="AF164" s="142" t="inlineStr">
+      <c r="AF164" s="143" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -33008,7 +33386,7 @@
           <t>9板[2.4]</t>
         </is>
       </c>
-      <c r="AJ165" s="184" t="inlineStr">
+      <c r="AJ165" s="185" t="inlineStr">
         <is>
           <t>7.65%[2.4]</t>
         </is>
@@ -33023,7 +33401,7 @@
           <t>-4.97%</t>
         </is>
       </c>
-      <c r="AM165" s="170" t="inlineStr">
+      <c r="AM165" s="171" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -33125,7 +33503,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AG166" s="185" t="inlineStr">
+      <c r="AG166" s="186" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
@@ -33150,7 +33528,7 @@
           <t>-3.42%</t>
         </is>
       </c>
-      <c r="AL166" s="186" t="inlineStr">
+      <c r="AL166" s="187" t="inlineStr">
         <is>
           <t>8.49%</t>
         </is>
@@ -33188,6 +33566,11 @@
       <c r="AX166" s="19" t="inlineStr">
         <is>
           <t>-5.67%</t>
+        </is>
+      </c>
+      <c r="AY166" s="19" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
         </is>
       </c>
     </row>
@@ -33252,7 +33635,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AE167" s="181" t="inlineStr">
+      <c r="AE167" s="182" t="inlineStr">
         <is>
           <t>-7.43%</t>
         </is>
@@ -33277,7 +33660,7 @@
           <t>1.30%</t>
         </is>
       </c>
-      <c r="AJ167" s="93" t="inlineStr">
+      <c r="AJ167" s="92" t="inlineStr">
         <is>
           <t>-7.92%</t>
         </is>
@@ -33334,7 +33717,7 @@
           <t>2.22%</t>
         </is>
       </c>
-      <c r="AA168" s="187" t="inlineStr">
+      <c r="AA168" s="188" t="inlineStr">
         <is>
           <t>9.13%[5.7]</t>
         </is>
@@ -33364,7 +33747,7 @@
           <t>-2.69%</t>
         </is>
       </c>
-      <c r="AG168" s="188" t="inlineStr">
+      <c r="AG168" s="189" t="inlineStr">
         <is>
           <t>-8.56%</t>
         </is>
@@ -33456,7 +33839,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AE169" s="180" t="inlineStr">
+      <c r="AE169" s="181" t="inlineStr">
         <is>
           <t>7.30%</t>
         </is>
@@ -33538,7 +33921,7 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="AA170" s="189" t="inlineStr">
+      <c r="AA170" s="190" t="inlineStr">
         <is>
           <t>7.41%[3.3]</t>
         </is>
@@ -33620,7 +34003,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="W171" s="160" t="inlineStr">
+      <c r="W171" s="161" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -33635,7 +34018,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Z171" s="161" t="inlineStr">
+      <c r="Z171" s="162" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -33655,7 +34038,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AD171" s="162" t="inlineStr">
+      <c r="AD171" s="163" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -33757,7 +34140,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AF172" s="97" t="inlineStr">
+      <c r="AF172" s="96" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
@@ -33956,7 +34339,7 @@
           <t>-5.05%</t>
         </is>
       </c>
-      <c r="AG174" s="190" t="inlineStr">
+      <c r="AG174" s="191" t="inlineStr">
         <is>
           <t>-9.41%</t>
         </is>
@@ -34068,7 +34451,7 @@
           <t>-3.44%</t>
         </is>
       </c>
-      <c r="AH175" s="191" t="inlineStr">
+      <c r="AH175" s="192" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
@@ -34088,7 +34471,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="AL175" s="151" t="inlineStr">
+      <c r="AL175" s="152" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -34100,7 +34483,7 @@
           <t>002290</t>
         </is>
       </c>
-      <c r="B176" s="94" t="inlineStr">
+      <c r="B176" s="93" t="inlineStr">
         <is>
           <t>[算力+DeepSeek概念+家电零部件]</t>
         </is>
@@ -34208,6 +34591,11 @@
       <c r="AX176" s="19" t="inlineStr">
         <is>
           <t>3.70%</t>
+        </is>
+      </c>
+      <c r="AY176" s="19" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
         </is>
       </c>
     </row>
@@ -34252,7 +34640,7 @@
           <t>5.68%[4.2]</t>
         </is>
       </c>
-      <c r="AC177" s="192" t="inlineStr">
+      <c r="AC177" s="193" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -34324,7 +34712,7 @@
           <t>恒而达*</t>
         </is>
       </c>
-      <c r="D178" s="134" t="inlineStr">
+      <c r="D178" s="135" t="inlineStr">
         <is>
           <t>72.05%</t>
         </is>
@@ -34384,7 +34772,7 @@
           <t>5.55%</t>
         </is>
       </c>
-      <c r="AJ178" s="193" t="inlineStr">
+      <c r="AJ178" s="194" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -34404,7 +34792,7 @@
           <t>-5.26%</t>
         </is>
       </c>
-      <c r="AN178" s="194" t="inlineStr">
+      <c r="AN178" s="195" t="inlineStr">
         <is>
           <t>8.13%</t>
         </is>
@@ -34486,7 +34874,7 @@
           <t>2.12%</t>
         </is>
       </c>
-      <c r="AJ179" s="193" t="inlineStr">
+      <c r="AJ179" s="194" t="inlineStr">
         <is>
           <t>-7.20%</t>
         </is>
@@ -34543,7 +34931,7 @@
           <t>2板[3.4]</t>
         </is>
       </c>
-      <c r="AD180" s="195" t="inlineStr">
+      <c r="AD180" s="196" t="inlineStr">
         <is>
           <t>-7.49%[2.8]</t>
         </is>
@@ -34602,7 +34990,7 @@
       </c>
       <c r="B181" s="38" t="inlineStr">
         <is>
-          <t>[涤纶+化学纤维+部分产品涨价]</t>
+          <t>[涤纶+产品涨价+一季报增长]</t>
         </is>
       </c>
       <c r="C181" s="65" t="inlineStr">
@@ -34720,7 +35108,7 @@
           <t>5.99%</t>
         </is>
       </c>
-      <c r="AU181" s="196" t="inlineStr">
+      <c r="AU181" s="197" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -34738,6 +35126,11 @@
       <c r="AX181" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AY181" s="25" t="inlineStr">
+        <is>
+          <t>3板[0.1]</t>
         </is>
       </c>
     </row>
@@ -34842,7 +35235,7 @@
           <t>-5.99%</t>
         </is>
       </c>
-      <c r="AP182" s="197" t="inlineStr">
+      <c r="AP182" s="198" t="inlineStr">
         <is>
           <t>-7.39%</t>
         </is>
@@ -34864,7 +35257,7 @@
           <t>300840</t>
         </is>
       </c>
-      <c r="B183" s="143" t="inlineStr">
+      <c r="B183" s="144" t="inlineStr">
         <is>
           <t>[AI智能体+服装定制+外贸]</t>
         </is>
@@ -34914,7 +35307,7 @@
           <t>3.07%[3.3]</t>
         </is>
       </c>
-      <c r="AG183" s="92" t="inlineStr">
+      <c r="AG183" s="91" t="inlineStr">
         <is>
           <t>-7.91%</t>
         </is>
@@ -34961,7 +35354,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C184" s="85" t="inlineStr">
+      <c r="C184" s="84" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -35016,27 +35409,27 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="Q184" s="86" t="inlineStr">
+      <c r="Q184" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R184" s="86" t="inlineStr">
+      <c r="R184" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S184" s="86" t="inlineStr">
+      <c r="S184" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U184" s="86" t="inlineStr">
+      <c r="U184" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
       </c>
-      <c r="AA184" s="86" t="inlineStr">
+      <c r="AA184" s="85" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -35046,7 +35439,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC184" s="87" t="inlineStr">
+      <c r="AC184" s="86" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -35061,7 +35454,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF184" s="86" t="inlineStr">
+      <c r="AF184" s="85" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -35101,7 +35494,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN184" s="88" t="inlineStr">
+      <c r="AN184" s="87" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -35149,6 +35542,11 @@
       <c r="AX184" s="19" t="inlineStr">
         <is>
           <t>1.60%</t>
+        </is>
+      </c>
+      <c r="AY184" s="19" t="inlineStr">
+        <is>
+          <t>-4.59%</t>
         </is>
       </c>
     </row>
@@ -35318,6 +35716,11 @@
           <t>-2.51%</t>
         </is>
       </c>
+      <c r="AY185" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="14" t="inlineStr">
@@ -35487,7 +35890,7 @@
           <t>-6.39%</t>
         </is>
       </c>
-      <c r="AL187" s="198" t="inlineStr">
+      <c r="AL187" s="199" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -35550,6 +35953,11 @@
       <c r="AX187" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AY187" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
         </is>
       </c>
     </row>
@@ -35604,7 +36012,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AG188" s="199" t="inlineStr">
+      <c r="AG188" s="200" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -35721,7 +36129,7 @@
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="AK189" s="200" t="inlineStr">
+      <c r="AK189" s="201" t="inlineStr">
         <is>
           <t>-7.08%</t>
         </is>
@@ -35748,7 +36156,7 @@
           <t>002040</t>
         </is>
       </c>
-      <c r="B190" s="75" t="inlineStr">
+      <c r="B190" s="63" t="inlineStr">
         <is>
           <t>[地天板+港口+统一大市场+国企改革]</t>
         </is>
@@ -35833,7 +36241,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AL190" s="140" t="inlineStr">
+      <c r="AL190" s="141" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
@@ -35853,7 +36261,7 @@
           <t>2.71%</t>
         </is>
       </c>
-      <c r="AP190" s="153" t="inlineStr">
+      <c r="AP190" s="154" t="inlineStr">
         <is>
           <t>-7.31%</t>
         </is>
@@ -35876,6 +36284,11 @@
       <c r="AX190" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AY190" s="19" t="inlineStr">
+        <is>
+          <t>6.24%[2.5]</t>
         </is>
       </c>
     </row>
@@ -35895,7 +36308,7 @@
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D191" s="95" t="inlineStr">
+      <c r="D191" s="94" t="inlineStr">
         <is>
           <t>-5.58%</t>
         </is>
@@ -36058,6 +36471,11 @@
       <c r="AX191" s="19" t="inlineStr">
         <is>
           <t>3.41%</t>
+        </is>
+      </c>
+      <c r="AY191" s="19" t="inlineStr">
+        <is>
+          <t>-6.29%</t>
         </is>
       </c>
     </row>
@@ -36077,7 +36495,7 @@
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D192" s="95" t="inlineStr">
+      <c r="D192" s="94" t="inlineStr">
         <is>
           <t>-6.02%</t>
         </is>
@@ -36240,6 +36658,11 @@
       <c r="AX192" s="19" t="inlineStr">
         <is>
           <t>-2.50%</t>
+        </is>
+      </c>
+      <c r="AY192" s="19" t="inlineStr">
+        <is>
+          <t>-3.85%</t>
         </is>
       </c>
     </row>
@@ -36376,7 +36799,7 @@
           <t>600798</t>
         </is>
       </c>
-      <c r="B194" s="75" t="inlineStr">
+      <c r="B194" s="63" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -36461,7 +36884,7 @@
           <t>-4.77%</t>
         </is>
       </c>
-      <c r="AM194" s="82" t="inlineStr">
+      <c r="AM194" s="81" t="inlineStr">
         <is>
           <t>-8.83%</t>
         </is>
@@ -36489,6 +36912,11 @@
       <c r="AX194" s="21" t="inlineStr">
         <is>
           <t>首板[2.5]</t>
+        </is>
+      </c>
+      <c r="AY194" s="19" t="inlineStr">
+        <is>
+          <t>4.81%[3.1]</t>
         </is>
       </c>
     </row>
@@ -36498,7 +36926,7 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B195" s="75" t="inlineStr">
+      <c r="B195" s="63" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -36646,6 +37074,11 @@
       <c r="AX195" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AY195" s="19" t="inlineStr">
+        <is>
+          <t>1.84%[2.3]</t>
         </is>
       </c>
     </row>
@@ -36655,7 +37088,7 @@
           <t>601022</t>
         </is>
       </c>
-      <c r="B196" s="75" t="inlineStr">
+      <c r="B196" s="63" t="inlineStr">
         <is>
           <t>[航运+海洋+浙江国资]</t>
         </is>
@@ -36720,7 +37153,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AK196" s="201" t="inlineStr">
+      <c r="AK196" s="202" t="inlineStr">
         <is>
           <t>-9.00%</t>
         </is>
@@ -36753,6 +37186,11 @@
       <c r="AX196" s="21" t="inlineStr">
         <is>
           <t>首板[2.7]</t>
+        </is>
+      </c>
+      <c r="AY196" s="19" t="inlineStr">
+        <is>
+          <t>-1.50%[2.6]</t>
         </is>
       </c>
     </row>
@@ -36762,7 +37200,7 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B197" s="38" t="inlineStr">
+      <c r="B197" s="101" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
@@ -36869,7 +37307,7 @@
           <t>833171</t>
         </is>
       </c>
-      <c r="B198" s="75" t="inlineStr">
+      <c r="B198" s="63" t="inlineStr">
         <is>
           <t>[航运+战略合作+出海]</t>
         </is>
@@ -36879,7 +37317,7 @@
           <t>国航远洋**</t>
         </is>
       </c>
-      <c r="D198" s="134" t="inlineStr">
+      <c r="D198" s="135" t="inlineStr">
         <is>
           <t>71.29%</t>
         </is>
@@ -36919,7 +37357,7 @@
           <t>首板**[2.7]</t>
         </is>
       </c>
-      <c r="AG198" s="202" t="inlineStr">
+      <c r="AG198" s="203" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
@@ -36949,7 +37387,7 @@
           <t>0.37%</t>
         </is>
       </c>
-      <c r="AM198" s="196" t="inlineStr">
+      <c r="AM198" s="197" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -36962,6 +37400,11 @@
       <c r="AX198" s="21" t="inlineStr">
         <is>
           <t>首板**[3.4]</t>
+        </is>
+      </c>
+      <c r="AY198" s="19" t="inlineStr">
+        <is>
+          <t>-6.68%</t>
         </is>
       </c>
     </row>
@@ -37240,7 +37683,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AJ201" s="198" t="inlineStr">
+      <c r="AJ201" s="199" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -37399,7 +37842,7 @@
           <t>601866</t>
         </is>
       </c>
-      <c r="B203" s="75" t="inlineStr">
+      <c r="B203" s="63" t="inlineStr">
         <is>
           <t>[航运物流+中字头]</t>
         </is>
@@ -37847,7 +38290,7 @@
           <t>首板*[8.9]</t>
         </is>
       </c>
-      <c r="AH207" s="100" t="inlineStr">
+      <c r="AH207" s="99" t="inlineStr">
         <is>
           <t>-7.34%[2.8]</t>
         </is>
@@ -38046,7 +38489,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AK209" s="203" t="inlineStr">
+      <c r="AK209" s="204" t="inlineStr">
         <is>
           <t>-8.34%</t>
         </is>
@@ -38083,7 +38526,7 @@
           <t>002811</t>
         </is>
       </c>
-      <c r="B210" s="143" t="inlineStr">
+      <c r="B210" s="144" t="inlineStr">
         <is>
           <t>[AI设计+IP+室内设计+小红书]</t>
         </is>
@@ -38335,6 +38778,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AY211" s="19" t="inlineStr">
+        <is>
+          <t>-6.89%</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="14" t="inlineStr">
@@ -38342,7 +38790,7 @@
           <t>605136</t>
         </is>
       </c>
-      <c r="B212" s="94" t="inlineStr">
+      <c r="B212" s="93" t="inlineStr">
         <is>
           <t>[化妆品+麦角硫因（业绩收入占比小）+电商]</t>
         </is>
@@ -38641,7 +39089,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AJ214" s="192" t="inlineStr">
+      <c r="AJ214" s="193" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -38713,7 +39161,7 @@
           <t>002819</t>
         </is>
       </c>
-      <c r="B215" s="143" t="inlineStr">
+      <c r="B215" s="144" t="inlineStr">
         <is>
           <t>[北京玄戒+中科系+鸿蒙概念+脑机接口]</t>
         </is>
@@ -38815,7 +39263,7 @@
           <t>603630</t>
         </is>
       </c>
-      <c r="B216" s="94" t="inlineStr">
+      <c r="B216" s="93" t="inlineStr">
         <is>
           <t>[日化用品+护肤品+AI数智平台+电子商务]</t>
         </is>
@@ -39064,7 +39512,7 @@
           <t>0.85%[2.5]</t>
         </is>
       </c>
-      <c r="AG218" s="204" t="inlineStr">
+      <c r="AG218" s="205" t="inlineStr">
         <is>
           <t>7.61%[3.4]</t>
         </is>
@@ -39152,6 +39600,11 @@
       <c r="AX218" s="19" t="inlineStr">
         <is>
           <t>-4.43%</t>
+        </is>
+      </c>
+      <c r="AY218" s="19" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
         </is>
       </c>
     </row>
@@ -39161,7 +39614,7 @@
           <t>605188</t>
         </is>
       </c>
-      <c r="B219" s="94" t="inlineStr">
+      <c r="B219" s="93" t="inlineStr">
         <is>
           <t>[零售+生鲜食品+智能物流]</t>
         </is>
@@ -39291,7 +39744,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU219" s="76" t="inlineStr">
+      <c r="AU219" s="75" t="inlineStr">
         <is>
           <t>-7.24%</t>
         </is>
@@ -39373,7 +39826,7 @@
           <t>-4.79%[5.7]</t>
         </is>
       </c>
-      <c r="AL220" s="82" t="inlineStr">
+      <c r="AL220" s="81" t="inlineStr">
         <is>
           <t>-8.84%</t>
         </is>
@@ -39490,7 +39943,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AK221" s="205" t="inlineStr">
+      <c r="AK221" s="206" t="inlineStr">
         <is>
           <t>-8.27%</t>
         </is>
@@ -39515,7 +39968,7 @@
           <t>-2.15%</t>
         </is>
       </c>
-      <c r="AP221" s="89" t="inlineStr">
+      <c r="AP221" s="88" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -39669,7 +40122,7 @@
           <t>5.67%</t>
         </is>
       </c>
-      <c r="AE223" s="206" t="inlineStr">
+      <c r="AE223" s="207" t="inlineStr">
         <is>
           <t>8.11%</t>
         </is>
@@ -39719,12 +40172,12 @@
           <t>-1.27%</t>
         </is>
       </c>
-      <c r="AO223" s="131" t="inlineStr">
+      <c r="AO223" s="132" t="inlineStr">
         <is>
           <t>8.30%</t>
         </is>
       </c>
-      <c r="AP223" s="132" t="inlineStr">
+      <c r="AP223" s="133" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -39796,7 +40249,7 @@
           <t>-0.77%</t>
         </is>
       </c>
-      <c r="AM224" s="89" t="inlineStr">
+      <c r="AM224" s="88" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -39834,6 +40287,11 @@
       <c r="AX224" s="19" t="inlineStr">
         <is>
           <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="AY224" s="19" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
         </is>
       </c>
     </row>
@@ -39893,7 +40351,7 @@
           <t>2.69%[4.6]</t>
         </is>
       </c>
-      <c r="AL225" s="207" t="inlineStr">
+      <c r="AL225" s="208" t="inlineStr">
         <is>
           <t>-9.45%</t>
         </is>
@@ -39923,7 +40381,7 @@
           <t>2.31%</t>
         </is>
       </c>
-      <c r="AR225" s="92" t="inlineStr">
+      <c r="AR225" s="91" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -40142,6 +40600,11 @@
           <t>10.06%</t>
         </is>
       </c>
+      <c r="AY227" s="20" t="inlineStr">
+        <is>
+          <t>-9.87%</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="14" t="inlineStr">
@@ -40269,6 +40732,11 @@
           <t>3.06%</t>
         </is>
       </c>
+      <c r="AY228" s="19" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="14" t="inlineStr">
@@ -40331,7 +40799,7 @@
           <t>3.08%[3.7]</t>
         </is>
       </c>
-      <c r="AL229" s="166" t="inlineStr">
+      <c r="AL229" s="167" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -40453,7 +40921,7 @@
           <t>-9.97%[3.7]</t>
         </is>
       </c>
-      <c r="AM230" s="208" t="inlineStr">
+      <c r="AM230" s="209" t="inlineStr">
         <is>
           <t>-9.43%</t>
         </is>
@@ -40506,6 +40974,11 @@
       <c r="AX230" s="19" t="inlineStr">
         <is>
           <t>-1.89%</t>
+        </is>
+      </c>
+      <c r="AY230" s="19" t="inlineStr">
+        <is>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -40515,7 +40988,7 @@
           <t>835174</t>
         </is>
       </c>
-      <c r="B231" s="75" t="inlineStr">
+      <c r="B231" s="63" t="inlineStr">
         <is>
           <t>[重大资产重组+基建+一带一路]</t>
         </is>
@@ -40565,12 +41038,12 @@
           <t>-12.01%</t>
         </is>
       </c>
-      <c r="AL231" s="209" t="inlineStr">
+      <c r="AL231" s="210" t="inlineStr">
         <is>
           <t>-9.16%</t>
         </is>
       </c>
-      <c r="AM231" s="84" t="inlineStr">
+      <c r="AM231" s="83" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -40662,7 +41135,7 @@
           <t>-17.76%</t>
         </is>
       </c>
-      <c r="AM232" s="210" t="inlineStr">
+      <c r="AM232" s="211" t="inlineStr">
         <is>
           <t>-7.13%</t>
         </is>
@@ -40677,7 +41150,7 @@
           <t>-0.55%</t>
         </is>
       </c>
-      <c r="AP232" s="211" t="inlineStr">
+      <c r="AP232" s="212" t="inlineStr">
         <is>
           <t>-7.22%</t>
         </is>
@@ -40938,7 +41411,7 @@
           <t>-0.78%</t>
         </is>
       </c>
-      <c r="AH235" s="212" t="inlineStr">
+      <c r="AH235" s="213" t="inlineStr">
         <is>
           <t>8.55%</t>
         </is>
@@ -40958,7 +41431,7 @@
           <t>9.52%[2.5]</t>
         </is>
       </c>
-      <c r="AL235" s="100" t="inlineStr">
+      <c r="AL235" s="99" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
@@ -41018,9 +41491,14 @@
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AX235" s="161" t="inlineStr">
+      <c r="AX235" s="162" t="inlineStr">
         <is>
           <t>9.28%</t>
+        </is>
+      </c>
+      <c r="AY235" s="19" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
         </is>
       </c>
     </row>
@@ -41135,9 +41613,14 @@
           <t>1.82%</t>
         </is>
       </c>
-      <c r="AX236" s="213" t="inlineStr">
+      <c r="AX236" s="214" t="inlineStr">
         <is>
           <t>-9.20%</t>
+        </is>
+      </c>
+      <c r="AY236" s="19" t="inlineStr">
+        <is>
+          <t>-4.08%</t>
         </is>
       </c>
     </row>
@@ -41217,7 +41700,7 @@
           <t>2.41%</t>
         </is>
       </c>
-      <c r="AQ237" s="214" t="inlineStr">
+      <c r="AQ237" s="215" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
@@ -41255,6 +41738,11 @@
       <c r="AX237" s="19" t="inlineStr">
         <is>
           <t>-4.21%</t>
+        </is>
+      </c>
+      <c r="AY237" s="19" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
         </is>
       </c>
     </row>
@@ -41264,7 +41752,7 @@
           <t>600137</t>
         </is>
       </c>
-      <c r="B238" s="94" t="inlineStr">
+      <c r="B238" s="93" t="inlineStr">
         <is>
           <t>[服装家纺+电子商务]</t>
         </is>
@@ -41421,7 +41909,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AN239" s="215" t="inlineStr">
+      <c r="AN239" s="216" t="inlineStr">
         <is>
           <t>-9.36%</t>
         </is>
@@ -41650,7 +42138,7 @@
           <t>-2.56%</t>
         </is>
       </c>
-      <c r="AQ241" s="177" t="inlineStr">
+      <c r="AQ241" s="178" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
@@ -41688,6 +42176,11 @@
       <c r="AX241" s="19" t="inlineStr">
         <is>
           <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AY241" s="217" t="inlineStr">
+        <is>
+          <t>-8.54%</t>
         </is>
       </c>
     </row>
@@ -41847,6 +42340,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AY242" s="19" t="inlineStr">
+        <is>
+          <t>-6.56%</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="14" t="inlineStr">
@@ -41964,6 +42462,11 @@
           <t>2.95%</t>
         </is>
       </c>
+      <c r="AY243" s="20" t="inlineStr">
+        <is>
+          <t>-9.51%</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="14" t="inlineStr">
@@ -42081,9 +42584,14 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX244" s="149" t="inlineStr">
+      <c r="AX244" s="150" t="inlineStr">
         <is>
           <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="AY244" s="19" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
         </is>
       </c>
     </row>
@@ -42143,7 +42651,7 @@
           <t>首板*[2.6]</t>
         </is>
       </c>
-      <c r="AL245" s="216" t="inlineStr">
+      <c r="AL245" s="218" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -42210,7 +42718,7 @@
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AG246" s="162" t="inlineStr">
+      <c r="AG246" s="163" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -42372,7 +42880,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AR247" s="100" t="inlineStr">
+      <c r="AR247" s="99" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -42405,6 +42913,11 @@
       <c r="AX247" s="19" t="inlineStr">
         <is>
           <t>1.02%</t>
+        </is>
+      </c>
+      <c r="AY247" s="19" t="inlineStr">
+        <is>
+          <t>3.29%</t>
         </is>
       </c>
     </row>
@@ -42526,7 +43039,7 @@
           <t>300418</t>
         </is>
       </c>
-      <c r="B249" s="143" t="inlineStr">
+      <c r="B249" s="144" t="inlineStr">
         <is>
           <t>[发布天工超级智能体+AI应用]</t>
         </is>
@@ -42678,7 +43191,7 @@
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AO250" s="217" t="inlineStr">
+      <c r="AO250" s="219" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -42693,7 +43206,7 @@
           <t>-3.12%</t>
         </is>
       </c>
-      <c r="AR250" s="218" t="inlineStr">
+      <c r="AR250" s="220" t="inlineStr">
         <is>
           <t>-8.26%</t>
         </is>
@@ -42969,7 +43482,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AP253" s="101" t="inlineStr">
+      <c r="AP253" s="100" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -42979,7 +43492,7 @@
           <t>-2.32%</t>
         </is>
       </c>
-      <c r="AR253" s="101" t="inlineStr">
+      <c r="AR253" s="100" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -43101,7 +43614,7 @@
           <t>4.89%</t>
         </is>
       </c>
-      <c r="AV254" s="219" t="inlineStr">
+      <c r="AV254" s="221" t="inlineStr">
         <is>
           <t>-8.37%</t>
         </is>
@@ -43114,6 +43627,11 @@
       <c r="AX254" s="19" t="inlineStr">
         <is>
           <t>5.74%</t>
+        </is>
+      </c>
+      <c r="AY254" s="20" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
         </is>
       </c>
     </row>
@@ -43218,9 +43736,14 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX255" s="220" t="inlineStr">
+      <c r="AX255" s="222" t="inlineStr">
         <is>
           <t>8.69%</t>
+        </is>
+      </c>
+      <c r="AY255" s="19" t="inlineStr">
+        <is>
+          <t>-6.50%</t>
         </is>
       </c>
     </row>
@@ -43357,7 +43880,7 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="AL257" s="193" t="inlineStr">
+      <c r="AL257" s="194" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -43571,12 +44094,12 @@
           <t>2.51%[2.7]</t>
         </is>
       </c>
-      <c r="AS259" s="173" t="inlineStr">
+      <c r="AS259" s="174" t="inlineStr">
         <is>
           <t>-7.17%</t>
         </is>
       </c>
-      <c r="AT259" s="149" t="inlineStr">
+      <c r="AT259" s="150" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -43599,6 +44122,11 @@
       <c r="AX259" s="19" t="inlineStr">
         <is>
           <t>-0.58%</t>
+        </is>
+      </c>
+      <c r="AY259" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -43663,12 +44191,12 @@
           <t>4.46%</t>
         </is>
       </c>
-      <c r="AK260" s="221" t="inlineStr">
+      <c r="AK260" s="223" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
       </c>
-      <c r="AL260" s="152" t="inlineStr">
+      <c r="AL260" s="153" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -43731,6 +44259,11 @@
       <c r="AX260" s="19" t="inlineStr">
         <is>
           <t>-1.19%</t>
+        </is>
+      </c>
+      <c r="AY260" s="19" t="inlineStr">
+        <is>
+          <t>-2.40%</t>
         </is>
       </c>
     </row>
@@ -43835,6 +44368,11 @@
           <t>-2.21%</t>
         </is>
       </c>
+      <c r="AY261" s="19" t="inlineStr">
+        <is>
+          <t>-4.51%</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="14" t="inlineStr">
@@ -43927,7 +44465,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU262" s="222" t="inlineStr">
+      <c r="AU262" s="224" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
@@ -43942,7 +44480,7 @@
           <t>1.47%</t>
         </is>
       </c>
-      <c r="AX262" s="159" t="inlineStr">
+      <c r="AX262" s="160" t="inlineStr">
         <is>
           <t>-7.79%</t>
         </is>
@@ -43979,7 +44517,7 @@
           <t>1.56%</t>
         </is>
       </c>
-      <c r="AK263" s="223" t="inlineStr">
+      <c r="AK263" s="225" t="inlineStr">
         <is>
           <t>8.87%[3.2]</t>
         </is>
@@ -44046,7 +44584,7 @@
           <t>688648</t>
         </is>
       </c>
-      <c r="B264" s="15" t="inlineStr">
+      <c r="B264" s="101" t="inlineStr">
         <is>
           <t>[智能无人车+智能物流系统+机器视觉+央企]</t>
         </is>
@@ -44086,7 +44624,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="AM264" s="199" t="inlineStr">
+      <c r="AM264" s="200" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -44198,7 +44736,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AR265" s="224" t="inlineStr">
+      <c r="AR265" s="226" t="inlineStr">
         <is>
           <t>-8.13%</t>
         </is>
@@ -44231,6 +44769,11 @@
       <c r="AX265" s="19" t="inlineStr">
         <is>
           <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="AY265" s="19" t="inlineStr">
+        <is>
+          <t>-3.14%</t>
         </is>
       </c>
     </row>
@@ -44340,6 +44883,11 @@
           <t>-1.35%</t>
         </is>
       </c>
+      <c r="AY266" s="19" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="14" t="inlineStr">
@@ -44519,7 +45067,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL268" s="225" t="inlineStr">
+      <c r="AL268" s="227" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
@@ -44661,7 +45209,7 @@
           <t>0.93%[0.4]</t>
         </is>
       </c>
-      <c r="AU269" s="92" t="inlineStr">
+      <c r="AU269" s="91" t="inlineStr">
         <is>
           <t>-7.91%</t>
         </is>
@@ -44728,7 +45276,7 @@
           <t>首板*[8.6]</t>
         </is>
       </c>
-      <c r="AP270" s="226" t="inlineStr">
+      <c r="AP270" s="228" t="inlineStr">
         <is>
           <t>8.71%[6.2]</t>
         </is>
@@ -44738,7 +45286,7 @@
           <t>-6.85%</t>
         </is>
       </c>
-      <c r="AR270" s="216" t="inlineStr">
+      <c r="AR270" s="218" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -44795,7 +45343,7 @@
           <t>首板*[2.2]</t>
         </is>
       </c>
-      <c r="AJ271" s="227" t="inlineStr">
+      <c r="AJ271" s="229" t="inlineStr">
         <is>
           <t>7.79%</t>
         </is>
@@ -44805,7 +45353,7 @@
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="AL271" s="221" t="inlineStr">
+      <c r="AL271" s="223" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
@@ -44927,7 +45475,7 @@
           <t>-2.70%[3.7]</t>
         </is>
       </c>
-      <c r="AR272" s="146" t="inlineStr">
+      <c r="AR272" s="147" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -45034,12 +45582,12 @@
           <t>-4.44%</t>
         </is>
       </c>
-      <c r="AU273" s="76" t="inlineStr">
+      <c r="AU273" s="75" t="inlineStr">
         <is>
           <t>-7.25%</t>
         </is>
       </c>
-      <c r="AV273" s="137" t="inlineStr">
+      <c r="AV273" s="138" t="inlineStr">
         <is>
           <t>-8.20%</t>
         </is>
@@ -45146,6 +45694,11 @@
           <t>-4.56%</t>
         </is>
       </c>
+      <c r="AY274" s="20" t="inlineStr">
+        <is>
+          <t>-10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="14" t="inlineStr">
@@ -45153,7 +45706,7 @@
           <t>002907</t>
         </is>
       </c>
-      <c r="B275" s="35" t="inlineStr">
+      <c r="B275" s="38" t="inlineStr">
         <is>
           <t>[大健康消费品+平消片获再注册批件+中成药]</t>
         </is>
@@ -45218,7 +45771,7 @@
           <t>6.01%[2.7]</t>
         </is>
       </c>
-      <c r="AT275" s="228" t="inlineStr">
+      <c r="AT275" s="230" t="inlineStr">
         <is>
           <t>-8.23%</t>
         </is>
@@ -45241,6 +45794,11 @@
       <c r="AX275" s="19" t="inlineStr">
         <is>
           <t>-2.13%</t>
+        </is>
+      </c>
+      <c r="AY275" s="19" t="inlineStr">
+        <is>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -45290,7 +45848,7 @@
           <t>4.18%</t>
         </is>
       </c>
-      <c r="AM276" s="146" t="inlineStr">
+      <c r="AM276" s="147" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -45348,6 +45906,11 @@
       <c r="AX276" s="19" t="inlineStr">
         <is>
           <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="AY276" s="19" t="inlineStr">
+        <is>
+          <t>0.38%</t>
         </is>
       </c>
     </row>
@@ -45357,7 +45920,7 @@
           <t>603056</t>
         </is>
       </c>
-      <c r="B277" s="38" t="inlineStr">
+      <c r="B277" s="101" t="inlineStr">
         <is>
           <t>[智能物流+京东增持+年报增长]</t>
         </is>
@@ -45422,7 +45985,7 @@
           <t>-3.19%[2.4]</t>
         </is>
       </c>
-      <c r="AU277" s="229" t="inlineStr">
+      <c r="AU277" s="231" t="inlineStr">
         <is>
           <t>-8.76%</t>
         </is>
@@ -45440,6 +46003,11 @@
       <c r="AX277" s="19" t="inlineStr">
         <is>
           <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="AY277" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -45484,7 +46052,7 @@
           <t>-0.38%</t>
         </is>
       </c>
-      <c r="AO278" s="96" t="inlineStr">
+      <c r="AO278" s="95" t="inlineStr">
         <is>
           <t>7.99%[3.6]</t>
         </is>
@@ -45532,6 +46100,11 @@
       <c r="AX278" s="20" t="inlineStr">
         <is>
           <t>-10.32%</t>
+        </is>
+      </c>
+      <c r="AY278" s="43" t="inlineStr">
+        <is>
+          <t>18.88%</t>
         </is>
       </c>
     </row>
@@ -45541,7 +46114,7 @@
           <t>300815</t>
         </is>
       </c>
-      <c r="B279" s="143" t="inlineStr">
+      <c r="B279" s="101" t="inlineStr">
         <is>
           <t>[无人驾驶扫路机器人+城市服务运营商+AI大模型]</t>
         </is>
@@ -45576,7 +46149,7 @@
           <t>-0.41%</t>
         </is>
       </c>
-      <c r="AO279" s="230" t="inlineStr">
+      <c r="AO279" s="232" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
@@ -45591,7 +46164,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR279" s="231" t="inlineStr">
+      <c r="AR279" s="233" t="inlineStr">
         <is>
           <t>-7.77%</t>
         </is>
@@ -45624,6 +46197,11 @@
       <c r="AX279" s="19" t="inlineStr">
         <is>
           <t>-2.20%</t>
+        </is>
+      </c>
+      <c r="AY279" s="19" t="inlineStr">
+        <is>
+          <t>-0.05%</t>
         </is>
       </c>
     </row>
@@ -45805,6 +46383,11 @@
           <t>-1.78%</t>
         </is>
       </c>
+      <c r="AY281" s="19" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="14" t="inlineStr">
@@ -45902,6 +46485,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AY282" s="19" t="inlineStr">
+        <is>
+          <t>1.31%[2.2]</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="14" t="inlineStr">
@@ -45909,7 +46497,7 @@
           <t>603076</t>
         </is>
       </c>
-      <c r="B283" s="75" t="inlineStr">
+      <c r="B283" s="63" t="inlineStr">
         <is>
           <t>[精酿啤酒+一季报增长+一带一路]</t>
         </is>
@@ -45992,6 +46580,11 @@
       <c r="AX283" s="110" t="inlineStr">
         <is>
           <t>-8.81%</t>
+        </is>
+      </c>
+      <c r="AY283" s="19" t="inlineStr">
+        <is>
+          <t>-3.89%</t>
         </is>
       </c>
     </row>
@@ -46066,7 +46659,7 @@
           <t>9.66%</t>
         </is>
       </c>
-      <c r="AV284" s="232" t="inlineStr">
+      <c r="AV284" s="234" t="inlineStr">
         <is>
           <t>-7.54%</t>
         </is>
@@ -46079,6 +46672,11 @@
       <c r="AX284" s="19" t="inlineStr">
         <is>
           <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="AY284" s="19" t="inlineStr">
+        <is>
+          <t>1.95%</t>
         </is>
       </c>
     </row>
@@ -46188,6 +46786,11 @@
           <t>4.86%</t>
         </is>
       </c>
+      <c r="AY285" s="19" t="inlineStr">
+        <is>
+          <t>-3.76%</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="14" t="inlineStr">
@@ -46325,6 +46928,11 @@
           <t>3.41%</t>
         </is>
       </c>
+      <c r="AY286" s="19" t="inlineStr">
+        <is>
+          <t>-6.29%</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="14" t="inlineStr">
@@ -46332,7 +46940,7 @@
           <t>002177</t>
         </is>
       </c>
-      <c r="B287" s="63" t="inlineStr">
+      <c r="B287" s="38" t="inlineStr">
         <is>
           <t>[曾涉及数字货币+金融服务+ATM+产业园运营]</t>
         </is>
@@ -46420,6 +47028,11 @@
       <c r="AX287" s="19" t="inlineStr">
         <is>
           <t>-5.96%</t>
+        </is>
+      </c>
+      <c r="AY287" s="19" t="inlineStr">
+        <is>
+          <t>-2.98%</t>
         </is>
       </c>
     </row>
@@ -46484,7 +47097,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AT288" s="233" t="inlineStr">
+      <c r="AT288" s="235" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
@@ -46507,6 +47120,11 @@
       <c r="AX288" s="19" t="inlineStr">
         <is>
           <t>5.11%</t>
+        </is>
+      </c>
+      <c r="AY288" s="20" t="inlineStr">
+        <is>
+          <t>-10.00%</t>
         </is>
       </c>
     </row>
@@ -46521,7 +47139,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C289" s="85" t="inlineStr">
+      <c r="C289" s="84" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -46576,32 +47194,32 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="Q289" s="86" t="inlineStr">
+      <c r="Q289" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R289" s="86" t="inlineStr">
+      <c r="R289" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S289" s="86" t="inlineStr">
+      <c r="S289" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U289" s="86" t="inlineStr">
+      <c r="U289" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
       </c>
-      <c r="AA289" s="86" t="inlineStr">
+      <c r="AA289" s="85" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
       </c>
-      <c r="AF289" s="86" t="inlineStr">
+      <c r="AF289" s="85" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -46616,7 +47234,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN289" s="88" t="inlineStr">
+      <c r="AN289" s="87" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -46669,6 +47287,11 @@
       <c r="AX289" s="19" t="inlineStr">
         <is>
           <t>1.60%</t>
+        </is>
+      </c>
+      <c r="AY289" s="19" t="inlineStr">
+        <is>
+          <t>-4.59%</t>
         </is>
       </c>
     </row>
@@ -46698,7 +47321,7 @@
           <t>6.08%[2.9]</t>
         </is>
       </c>
-      <c r="AM290" s="88" t="inlineStr">
+      <c r="AM290" s="87" t="inlineStr">
         <is>
           <t>8.05%[2.6]</t>
         </is>
@@ -46756,6 +47379,11 @@
       <c r="AX290" s="19" t="inlineStr">
         <is>
           <t>1.97%</t>
+        </is>
+      </c>
+      <c r="AY290" s="19" t="inlineStr">
+        <is>
+          <t>-2.53%</t>
         </is>
       </c>
     </row>
@@ -46765,7 +47393,7 @@
           <t>300368</t>
         </is>
       </c>
-      <c r="B291" s="63" t="inlineStr">
+      <c r="B291" s="38" t="inlineStr">
         <is>
           <t>[摘帽+金融科技+智能制造+国企改革]</t>
         </is>
@@ -46840,9 +47468,14 @@
           <t>6.05%</t>
         </is>
       </c>
-      <c r="AX291" s="234" t="inlineStr">
+      <c r="AX291" s="236" t="inlineStr">
         <is>
           <t>8.94%</t>
+        </is>
+      </c>
+      <c r="AY291" s="20" t="inlineStr">
+        <is>
+          <t>-9.69%</t>
         </is>
       </c>
     </row>
@@ -46852,7 +47485,7 @@
           <t>301024</t>
         </is>
       </c>
-      <c r="B292" s="63" t="inlineStr">
+      <c r="B292" s="38" t="inlineStr">
         <is>
           <t>[RWA+蚂蚁合作+建筑绿能]</t>
         </is>
@@ -46930,6 +47563,11 @@
       <c r="AX292" s="19" t="inlineStr">
         <is>
           <t>-2.58%</t>
+        </is>
+      </c>
+      <c r="AY292" s="19" t="inlineStr">
+        <is>
+          <t>-4.89%</t>
         </is>
       </c>
     </row>
@@ -47024,9 +47662,14 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX293" s="149" t="inlineStr">
+      <c r="AX293" s="150" t="inlineStr">
         <is>
           <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="AY293" s="19" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
         </is>
       </c>
     </row>
@@ -47081,7 +47724,7 @@
           <t>首板*[3.3]</t>
         </is>
       </c>
-      <c r="AR294" s="235" t="inlineStr">
+      <c r="AR294" s="237" t="inlineStr">
         <is>
           <t>7.27%[3.2]</t>
         </is>
@@ -47101,7 +47744,7 @@
           <t>10.74%</t>
         </is>
       </c>
-      <c r="AV294" s="232" t="inlineStr">
+      <c r="AV294" s="234" t="inlineStr">
         <is>
           <t>-7.55%</t>
         </is>
@@ -47114,6 +47757,11 @@
       <c r="AX294" s="19" t="inlineStr">
         <is>
           <t>1.80%</t>
+        </is>
+      </c>
+      <c r="AY294" s="19" t="inlineStr">
+        <is>
+          <t>4.56%</t>
         </is>
       </c>
     </row>
@@ -47123,7 +47771,7 @@
           <t>300546</t>
         </is>
       </c>
-      <c r="B295" s="63" t="inlineStr">
+      <c r="B295" s="38" t="inlineStr">
         <is>
           <t>[数字货币+可信身份技术+智慧交通]</t>
         </is>
@@ -47201,6 +47849,11 @@
       <c r="AX295" s="19" t="inlineStr">
         <is>
           <t>0.97%</t>
+        </is>
+      </c>
+      <c r="AY295" s="43" t="inlineStr">
+        <is>
+          <t>14.77%</t>
         </is>
       </c>
     </row>
@@ -47295,6 +47948,11 @@
           <t>-2.03%</t>
         </is>
       </c>
+      <c r="AY296" s="19" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="14" t="inlineStr">
@@ -47302,7 +47960,7 @@
           <t>300872</t>
         </is>
       </c>
-      <c r="B297" s="63" t="inlineStr">
+      <c r="B297" s="38" t="inlineStr">
         <is>
           <t>[金融科技+银行IT解决方案]</t>
         </is>
@@ -47380,6 +48038,11 @@
       <c r="AX297" s="19" t="inlineStr">
         <is>
           <t>-5.95%</t>
+        </is>
+      </c>
+      <c r="AY297" s="19" t="inlineStr">
+        <is>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -47474,6 +48137,11 @@
           <t>-0.68%</t>
         </is>
       </c>
+      <c r="AY298" s="19" t="inlineStr">
+        <is>
+          <t>-4.18%</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="14" t="inlineStr">
@@ -47481,7 +48149,7 @@
           <t>002104</t>
         </is>
       </c>
-      <c r="B299" s="63" t="inlineStr">
+      <c r="B299" s="38" t="inlineStr">
         <is>
           <t>[数字货币+区块链+eSIM技术]</t>
         </is>
@@ -47561,9 +48229,14 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AX299" s="99" t="inlineStr">
+      <c r="AX299" s="98" t="inlineStr">
         <is>
           <t>-8.09%</t>
+        </is>
+      </c>
+      <c r="AY299" s="19" t="inlineStr">
+        <is>
+          <t>3.68%</t>
         </is>
       </c>
     </row>
@@ -47573,7 +48246,7 @@
           <t>002537</t>
         </is>
       </c>
-      <c r="B300" s="63" t="inlineStr">
+      <c r="B300" s="38" t="inlineStr">
         <is>
           <t>[第三方支付（业务拟转让）+汽车零部件]</t>
         </is>
@@ -47653,7 +48326,7 @@
           <t>3板[3.0]</t>
         </is>
       </c>
-      <c r="AT300" s="153" t="inlineStr">
+      <c r="AT300" s="154" t="inlineStr">
         <is>
           <t>-7.31%[2.6]</t>
         </is>
@@ -47663,7 +48336,7 @@
           <t>2.47%</t>
         </is>
       </c>
-      <c r="AV300" s="91" t="inlineStr">
+      <c r="AV300" s="90" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -47676,6 +48349,11 @@
       <c r="AX300" s="19" t="inlineStr">
         <is>
           <t>0.36%</t>
+        </is>
+      </c>
+      <c r="AY300" s="19" t="inlineStr">
+        <is>
+          <t>-3.32%</t>
         </is>
       </c>
     </row>
@@ -47685,7 +48363,7 @@
           <t>603123</t>
         </is>
       </c>
-      <c r="B301" s="63" t="inlineStr">
+      <c r="B301" s="144" t="inlineStr">
         <is>
           <t>[数字人民币+AI支付+地方国企+亏损收窄]</t>
         </is>
@@ -47720,7 +48398,7 @@
           <t>-3.05%</t>
         </is>
       </c>
-      <c r="AN301" s="217" t="inlineStr">
+      <c r="AN301" s="219" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -47760,7 +48438,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AV301" s="236" t="inlineStr">
+      <c r="AV301" s="238" t="inlineStr">
         <is>
           <t>-7.83%</t>
         </is>
@@ -47773,6 +48451,11 @@
       <c r="AX301" s="19" t="inlineStr">
         <is>
           <t>-5.23%</t>
+        </is>
+      </c>
+      <c r="AY301" s="19" t="inlineStr">
+        <is>
+          <t>2.89%</t>
         </is>
       </c>
     </row>
@@ -47862,6 +48545,11 @@
           <t>-2.42%</t>
         </is>
       </c>
+      <c r="AY302" s="19" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="14" t="inlineStr">
@@ -47879,7 +48567,7 @@
           <t>路桥信息**</t>
         </is>
       </c>
-      <c r="D303" s="134" t="inlineStr">
+      <c r="D303" s="135" t="inlineStr">
         <is>
           <t>86.99%</t>
         </is>
@@ -47899,7 +48587,7 @@
           <t>-4.93%</t>
         </is>
       </c>
-      <c r="AP303" s="97" t="inlineStr">
+      <c r="AP303" s="96" t="inlineStr">
         <is>
           <t>8.61%</t>
         </is>
@@ -47942,6 +48630,11 @@
       <c r="AX303" s="20" t="inlineStr">
         <is>
           <t>-12.94%</t>
+        </is>
+      </c>
+      <c r="AY303" s="43" t="inlineStr">
+        <is>
+          <t>11.95%</t>
         </is>
       </c>
     </row>
@@ -47951,7 +48644,7 @@
           <t>605005</t>
         </is>
       </c>
-      <c r="B304" s="94" t="inlineStr">
+      <c r="B304" s="93" t="inlineStr">
         <is>
           <t>[无人驾驶+汽车电子+家电]</t>
         </is>
@@ -48019,6 +48712,11 @@
       <c r="AX304" s="19" t="inlineStr">
         <is>
           <t>-4.00%</t>
+        </is>
+      </c>
+      <c r="AY304" s="19" t="inlineStr">
+        <is>
+          <t>1.27%</t>
         </is>
       </c>
     </row>
@@ -48133,6 +48831,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AY305" s="19" t="inlineStr">
+        <is>
+          <t>-6.89%</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="14" t="inlineStr">
@@ -48140,7 +48843,7 @@
           <t>603017</t>
         </is>
       </c>
-      <c r="B306" s="143" t="inlineStr">
+      <c r="B306" s="144" t="inlineStr">
         <is>
           <t>[商业航天+低空经济+建筑设计+多模态AI]</t>
         </is>
@@ -48213,6 +48916,11 @@
       <c r="AX306" s="19" t="inlineStr">
         <is>
           <t>-6.27%</t>
+        </is>
+      </c>
+      <c r="AY306" s="20" t="inlineStr">
+        <is>
+          <t>-9.94%</t>
         </is>
       </c>
     </row>
@@ -48282,7 +48990,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV307" s="237" t="inlineStr">
+      <c r="AV307" s="239" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
@@ -48295,6 +49003,11 @@
       <c r="AX307" s="113" t="inlineStr">
         <is>
           <t>-7.72%</t>
+        </is>
+      </c>
+      <c r="AY307" s="19" t="inlineStr">
+        <is>
+          <t>-2.61%</t>
         </is>
       </c>
     </row>
@@ -48384,6 +49097,11 @@
           <t>-4.63%</t>
         </is>
       </c>
+      <c r="AY308" s="43" t="inlineStr">
+        <is>
+          <t>13.60%</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="14" t="inlineStr">
@@ -48461,9 +49179,14 @@
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AX309" s="161" t="inlineStr">
+      <c r="AX309" s="162" t="inlineStr">
         <is>
           <t>9.28%</t>
+        </is>
+      </c>
+      <c r="AY309" s="19" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
         </is>
       </c>
     </row>
@@ -48543,7 +49266,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AR310" s="100" t="inlineStr">
+      <c r="AR310" s="99" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -48576,6 +49299,11 @@
       <c r="AX310" s="19" t="inlineStr">
         <is>
           <t>1.02%</t>
+        </is>
+      </c>
+      <c r="AY310" s="19" t="inlineStr">
+        <is>
+          <t>3.29%</t>
         </is>
       </c>
     </row>
@@ -48585,7 +49313,7 @@
           <t>000826</t>
         </is>
       </c>
-      <c r="B311" s="38" t="inlineStr">
+      <c r="B311" s="101" t="inlineStr">
         <is>
           <t>[无人驾驶+数字环卫]</t>
         </is>
@@ -48615,7 +49343,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR311" s="238" t="inlineStr">
+      <c r="AR311" s="240" t="inlineStr">
         <is>
           <t>7.02%[11.0]</t>
         </is>
@@ -48648,6 +49376,11 @@
       <c r="AX311" s="19" t="inlineStr">
         <is>
           <t>5.58%</t>
+        </is>
+      </c>
+      <c r="AY311" s="19" t="inlineStr">
+        <is>
+          <t>-2.64%</t>
         </is>
       </c>
     </row>
@@ -48722,6 +49455,11 @@
           <t>-10.03%</t>
         </is>
       </c>
+      <c r="AY312" s="197" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="14" t="inlineStr">
@@ -48804,6 +49542,11 @@
           <t>1.23%</t>
         </is>
       </c>
+      <c r="AY313" s="19" t="inlineStr">
+        <is>
+          <t>-2.15%</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="14" t="inlineStr">
@@ -48811,7 +49554,7 @@
           <t>603879</t>
         </is>
       </c>
-      <c r="B314" s="38" t="inlineStr">
+      <c r="B314" s="101" t="inlineStr">
         <is>
           <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
@@ -48899,6 +49642,11 @@
       <c r="AX314" s="18" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AY314" s="129" t="inlineStr">
+        <is>
+          <t>-8.40%</t>
         </is>
       </c>
     </row>
@@ -48973,6 +49721,11 @@
           <t>7板</t>
         </is>
       </c>
+      <c r="AY315" s="19" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="14" t="inlineStr">
@@ -49005,7 +49758,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AO316" s="140" t="inlineStr">
+      <c r="AO316" s="141" t="inlineStr">
         <is>
           <t>7.20%</t>
         </is>
@@ -49053,6 +49806,11 @@
       <c r="AX316" s="19" t="inlineStr">
         <is>
           <t>0.62%</t>
+        </is>
+      </c>
+      <c r="AY316" s="19" t="inlineStr">
+        <is>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -49127,6 +49885,11 @@
           <t>首板*</t>
         </is>
       </c>
+      <c r="AY317" s="19" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="14" t="inlineStr">
@@ -49136,7 +49899,7 @@
       </c>
       <c r="B318" s="38" t="inlineStr">
         <is>
-          <t>[数字文创资产+Web3.0+IP经济]</t>
+          <t>[数字文创资产+IP文创+Web3.0技术]</t>
         </is>
       </c>
       <c r="C318" s="16" t="inlineStr">
@@ -49192,6 +49955,11 @@
       <c r="AX318" s="19" t="inlineStr">
         <is>
           <t>-2.45%</t>
+        </is>
+      </c>
+      <c r="AY318" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
         </is>
       </c>
     </row>
@@ -49261,6 +50029,11 @@
           <t>9.65%[2.5]</t>
         </is>
       </c>
+      <c r="AY319" s="20" t="inlineStr">
+        <is>
+          <t>-10.01%</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="14" t="inlineStr">
@@ -49298,7 +50071,7 @@
           <t>2板[9.3]</t>
         </is>
       </c>
-      <c r="AS320" s="99" t="inlineStr">
+      <c r="AS320" s="98" t="inlineStr">
         <is>
           <t>-8.09%[2.6]</t>
         </is>
@@ -49326,6 +50099,11 @@
       <c r="AX320" s="19" t="inlineStr">
         <is>
           <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AY320" s="19" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
         </is>
       </c>
     </row>
@@ -49380,7 +50158,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV321" s="239" t="inlineStr">
+      <c r="AV321" s="241" t="inlineStr">
         <is>
           <t>7.97%[2.7]</t>
         </is>
@@ -49393,6 +50171,11 @@
       <c r="AX321" s="19" t="inlineStr">
         <is>
           <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="AY321" s="19" t="inlineStr">
+        <is>
+          <t>2.34%</t>
         </is>
       </c>
     </row>
@@ -49472,6 +50255,11 @@
           <t>停牌</t>
         </is>
       </c>
+      <c r="AY322" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="14" t="inlineStr">
@@ -49539,6 +50327,11 @@
           <t>5.26%</t>
         </is>
       </c>
+      <c r="AY323" s="39" t="inlineStr">
+        <is>
+          <t>-8.93%</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="14" t="inlineStr">
@@ -49616,6 +50409,11 @@
           <t>4板</t>
         </is>
       </c>
+      <c r="AY324" s="148" t="inlineStr">
+        <is>
+          <t>-8.28%</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="14" t="inlineStr">
@@ -49693,6 +50491,11 @@
           <t>-5.79%</t>
         </is>
       </c>
+      <c r="AY325" s="20" t="inlineStr">
+        <is>
+          <t>-9.69%</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="14" t="inlineStr">
@@ -49760,6 +50563,11 @@
           <t>-6.18%</t>
         </is>
       </c>
+      <c r="AY326" s="19" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="14" t="inlineStr">
@@ -49827,6 +50635,11 @@
           <t>0.62%</t>
         </is>
       </c>
+      <c r="AY327" s="19" t="inlineStr">
+        <is>
+          <t>4.94%</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="14" t="inlineStr">
@@ -49889,6 +50702,11 @@
           <t>3.54%[7.0]</t>
         </is>
       </c>
+      <c r="AY328" s="148" t="inlineStr">
+        <is>
+          <t>-8.29%</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="14" t="inlineStr">
@@ -49901,7 +50719,7 @@
           <t>[控制权变更+糖尿病首仿药]</t>
         </is>
       </c>
-      <c r="C329" s="16" t="inlineStr">
+      <c r="C329" s="27" t="inlineStr">
         <is>
           <t>易明医药</t>
         </is>
@@ -49954,6 +50772,11 @@
       <c r="AX329" s="18" t="inlineStr">
         <is>
           <t>5板[5.5]</t>
+        </is>
+      </c>
+      <c r="AY329" s="29" t="inlineStr">
+        <is>
+          <t>6板[3.6]</t>
         </is>
       </c>
     </row>
@@ -50028,6 +50851,11 @@
           <t>2.95%</t>
         </is>
       </c>
+      <c r="AY330" s="20" t="inlineStr">
+        <is>
+          <t>-9.51%</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="14" t="inlineStr">
@@ -50040,7 +50868,7 @@
           <t>[曾研发外骨骼机器人用电缆+军工+电线电缆+低空经济]</t>
         </is>
       </c>
-      <c r="C331" s="179" t="inlineStr">
+      <c r="C331" s="180" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
@@ -50110,17 +50938,17 @@
           <t>9板</t>
         </is>
       </c>
-      <c r="AN331" s="86" t="inlineStr">
+      <c r="AN331" s="85" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="AO331" s="86" t="inlineStr">
+      <c r="AO331" s="85" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="AQ331" s="86" t="inlineStr">
+      <c r="AQ331" s="85" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -50150,7 +50978,7 @@
           <t>-1.56%</t>
         </is>
       </c>
-      <c r="AW331" s="86" t="inlineStr">
+      <c r="AW331" s="85" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -50158,125 +50986,125 @@
       <c r="AX331" s="19" t="inlineStr">
         <is>
           <t>0.64%</t>
+        </is>
+      </c>
+      <c r="AY331" s="20" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="14" t="inlineStr">
         <is>
-          <t>300149</t>
-        </is>
-      </c>
-      <c r="B332" s="35" t="inlineStr">
-        <is>
-          <t>[CRO+创新药+细胞免疫治疗]</t>
-        </is>
-      </c>
-      <c r="C332" s="64" t="inlineStr">
-        <is>
-          <t>睿智医药*</t>
-        </is>
-      </c>
-      <c r="D332" s="17" t="inlineStr">
-        <is>
-          <t>65.48%</t>
-        </is>
-      </c>
-      <c r="AQ332" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AR332" s="24" t="inlineStr">
-        <is>
-          <t>2板[2.8]</t>
-        </is>
-      </c>
-      <c r="AS332" s="43" t="inlineStr">
-        <is>
-          <t>13.15%</t>
-        </is>
-      </c>
-      <c r="AT332" s="20" t="inlineStr">
-        <is>
-          <t>-9.81%</t>
+          <t>003040</t>
+        </is>
+      </c>
+      <c r="B332" s="63" t="inlineStr">
+        <is>
+          <t>[数字人民币+跨境支付]</t>
+        </is>
+      </c>
+      <c r="C332" s="36" t="inlineStr">
+        <is>
+          <t>楚天龙</t>
+        </is>
+      </c>
+      <c r="D332" s="34" t="inlineStr">
+        <is>
+          <t>35.60%</t>
+        </is>
+      </c>
+      <c r="AR332" s="19" t="inlineStr">
+        <is>
+          <t>1.80%[3.0]</t>
+        </is>
+      </c>
+      <c r="AS332" s="19" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="AT332" s="19" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
         </is>
       </c>
       <c r="AU332" s="19" t="inlineStr">
         <is>
-          <t>-3.05%</t>
-        </is>
-      </c>
-      <c r="AV332" s="19" t="inlineStr">
-        <is>
-          <t>-4.43%</t>
-        </is>
-      </c>
-      <c r="AW332" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="AV332" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AW332" s="24" t="inlineStr">
+        <is>
+          <t>2板[0.1]</t>
         </is>
       </c>
       <c r="AX332" s="19" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>1.81%[5.1]</t>
+        </is>
+      </c>
+      <c r="AY332" s="25" t="inlineStr">
+        <is>
+          <t>3板[2.8]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="14" t="inlineStr">
         <is>
-          <t>300804</t>
-        </is>
-      </c>
-      <c r="B333" s="63" t="inlineStr">
-        <is>
-          <t>[农药+杀虫剂+氯氰菊酯+外销]</t>
+          <t>300149</t>
+        </is>
+      </c>
+      <c r="B333" s="35" t="inlineStr">
+        <is>
+          <t>[CRO+创新药+细胞免疫治疗]</t>
         </is>
       </c>
       <c r="C333" s="64" t="inlineStr">
         <is>
-          <t>广康生化*</t>
-        </is>
-      </c>
-      <c r="D333" s="41" t="inlineStr">
-        <is>
-          <t>113.72%</t>
-        </is>
-      </c>
-      <c r="AP333" s="21" t="inlineStr">
-        <is>
-          <t>首板*[5.1]</t>
-        </is>
-      </c>
-      <c r="AQ333" s="24" t="inlineStr">
-        <is>
-          <t>2板[2.4]</t>
-        </is>
-      </c>
-      <c r="AR333" s="19" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="AS333" s="19" t="inlineStr">
-        <is>
-          <t>5.75%</t>
+          <t>睿智医药*</t>
+        </is>
+      </c>
+      <c r="D333" s="17" t="inlineStr">
+        <is>
+          <t>65.48%</t>
+        </is>
+      </c>
+      <c r="AQ333" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AR333" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.8]</t>
+        </is>
+      </c>
+      <c r="AS333" s="43" t="inlineStr">
+        <is>
+          <t>13.15%</t>
         </is>
       </c>
       <c r="AT333" s="20" t="inlineStr">
         <is>
-          <t>-13.16%</t>
-        </is>
-      </c>
-      <c r="AU333" s="43" t="inlineStr">
-        <is>
-          <t>15.52%</t>
+          <t>-9.81%</t>
+        </is>
+      </c>
+      <c r="AU333" s="19" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
         </is>
       </c>
       <c r="AV333" s="19" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>-4.43%</t>
         </is>
       </c>
       <c r="AW333" s="21" t="inlineStr">
@@ -50284,205 +51112,225 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX333" s="20" t="inlineStr">
-        <is>
-          <t>-10.32%</t>
+      <c r="AX333" s="19" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="AY333" s="19" t="inlineStr">
+        <is>
+          <t>-2.53%</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="14" t="inlineStr">
         <is>
-          <t>301137</t>
-        </is>
-      </c>
-      <c r="B334" s="47" t="inlineStr">
-        <is>
-          <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
+          <t>300804</t>
+        </is>
+      </c>
+      <c r="B334" s="63" t="inlineStr">
+        <is>
+          <t>[农药+杀虫剂+氯氰菊酯+外销]</t>
         </is>
       </c>
       <c r="C334" s="64" t="inlineStr">
         <is>
-          <t>哈焊华通*</t>
-        </is>
-      </c>
-      <c r="D334" s="17" t="inlineStr">
-        <is>
-          <t>66.31%</t>
-        </is>
-      </c>
-      <c r="AM334" s="21" t="inlineStr">
+          <t>广康生化*</t>
+        </is>
+      </c>
+      <c r="D334" s="41" t="inlineStr">
+        <is>
+          <t>113.72%</t>
+        </is>
+      </c>
+      <c r="AP334" s="21" t="inlineStr">
+        <is>
+          <t>首板*[5.1]</t>
+        </is>
+      </c>
+      <c r="AQ334" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.4]</t>
+        </is>
+      </c>
+      <c r="AR334" s="19" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="AS334" s="19" t="inlineStr">
+        <is>
+          <t>5.75%</t>
+        </is>
+      </c>
+      <c r="AT334" s="20" t="inlineStr">
+        <is>
+          <t>-13.16%</t>
+        </is>
+      </c>
+      <c r="AU334" s="43" t="inlineStr">
+        <is>
+          <t>15.52%</t>
+        </is>
+      </c>
+      <c r="AV334" s="19" t="inlineStr">
+        <is>
+          <t>5.42%</t>
+        </is>
+      </c>
+      <c r="AW334" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AN334" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AO334" s="25" t="inlineStr">
-        <is>
-          <t>3板[2.7]</t>
-        </is>
-      </c>
-      <c r="AR334" s="20" t="inlineStr">
-        <is>
-          <t>-11.71%</t>
-        </is>
-      </c>
-      <c r="AS334" s="19" t="inlineStr">
-        <is>
-          <t>1.64%</t>
-        </is>
-      </c>
-      <c r="AT334" s="19" t="inlineStr">
-        <is>
-          <t>-4.56%</t>
-        </is>
-      </c>
-      <c r="AU334" s="19" t="inlineStr">
-        <is>
-          <t>-3.56%</t>
-        </is>
-      </c>
-      <c r="AV334" s="19" t="inlineStr">
-        <is>
-          <t>-0.34%</t>
-        </is>
-      </c>
-      <c r="AW334" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AX334" s="220" t="inlineStr">
-        <is>
-          <t>8.69%</t>
+      <c r="AX334" s="20" t="inlineStr">
+        <is>
+          <t>-10.32%</t>
+        </is>
+      </c>
+      <c r="AY334" s="43" t="inlineStr">
+        <is>
+          <t>18.88%</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="14" t="inlineStr">
         <is>
-          <t>300204</t>
-        </is>
-      </c>
-      <c r="B335" s="35" t="inlineStr">
-        <is>
-          <t>[创新药+STSP-0601+优先审评]</t>
-        </is>
-      </c>
-      <c r="C335" s="51" t="inlineStr">
-        <is>
-          <t>舒泰神*</t>
-        </is>
-      </c>
-      <c r="D335" s="41" t="inlineStr">
-        <is>
-          <t>139.48%</t>
-        </is>
-      </c>
-      <c r="R335" s="21" t="inlineStr">
+          <t>301137</t>
+        </is>
+      </c>
+      <c r="B335" s="47" t="inlineStr">
+        <is>
+          <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
+        </is>
+      </c>
+      <c r="C335" s="64" t="inlineStr">
+        <is>
+          <t>哈焊华通*</t>
+        </is>
+      </c>
+      <c r="D335" s="17" t="inlineStr">
+        <is>
+          <t>66.31%</t>
+        </is>
+      </c>
+      <c r="AM335" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AK335" s="21" t="inlineStr">
+      <c r="AN335" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AO335" s="25" t="inlineStr">
+        <is>
+          <t>3板[2.7]</t>
+        </is>
+      </c>
+      <c r="AR335" s="20" t="inlineStr">
+        <is>
+          <t>-11.71%</t>
+        </is>
+      </c>
+      <c r="AS335" s="19" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
+      </c>
+      <c r="AT335" s="19" t="inlineStr">
+        <is>
+          <t>-4.56%</t>
+        </is>
+      </c>
+      <c r="AU335" s="19" t="inlineStr">
+        <is>
+          <t>-3.56%</t>
+        </is>
+      </c>
+      <c r="AV335" s="19" t="inlineStr">
+        <is>
+          <t>-0.34%</t>
+        </is>
+      </c>
+      <c r="AW335" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AQ335" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AR335" s="43" t="inlineStr">
-        <is>
-          <t>15.02%</t>
-        </is>
-      </c>
-      <c r="AS335" s="43" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="AT335" s="19" t="inlineStr">
-        <is>
-          <t>-3.18%</t>
-        </is>
-      </c>
-      <c r="AU335" s="19" t="inlineStr">
-        <is>
-          <t>-0.94%</t>
-        </is>
-      </c>
-      <c r="AV335" s="19" t="inlineStr">
-        <is>
-          <t>-4.52%</t>
-        </is>
-      </c>
-      <c r="AW335" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AX335" s="149" t="inlineStr">
-        <is>
-          <t>-8.70%</t>
+      <c r="AX335" s="222" t="inlineStr">
+        <is>
+          <t>8.69%</t>
+        </is>
+      </c>
+      <c r="AY335" s="19" t="inlineStr">
+        <is>
+          <t>-6.50%</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="14" t="inlineStr">
         <is>
-          <t>300255</t>
+          <t>300204</t>
         </is>
       </c>
       <c r="B336" s="35" t="inlineStr">
         <is>
-          <t>[减肥药+创新药]</t>
-        </is>
-      </c>
-      <c r="C336" s="36" t="inlineStr">
-        <is>
-          <t>常山药业*</t>
+          <t>[创新药+STSP-0601+优先审评]</t>
+        </is>
+      </c>
+      <c r="C336" s="51" t="inlineStr">
+        <is>
+          <t>舒泰神*</t>
         </is>
       </c>
       <c r="D336" s="41" t="inlineStr">
         <is>
-          <t>102.68%</t>
-        </is>
-      </c>
-      <c r="AA336" s="21" t="inlineStr">
-        <is>
-          <t>首板*[4.7]</t>
-        </is>
-      </c>
-      <c r="AR336" s="19" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="AS336" s="19" t="inlineStr">
-        <is>
-          <t>4.25%</t>
+          <t>139.48%</t>
+        </is>
+      </c>
+      <c r="R336" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AK336" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AQ336" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AR336" s="43" t="inlineStr">
+        <is>
+          <t>15.02%</t>
+        </is>
+      </c>
+      <c r="AS336" s="43" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="AT336" s="19" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-3.18%</t>
         </is>
       </c>
       <c r="AU336" s="19" t="inlineStr">
         <is>
-          <t>-1.28%</t>
-        </is>
-      </c>
-      <c r="AV336" s="43" t="inlineStr">
-        <is>
-          <t>15.12%</t>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="AV336" s="19" t="inlineStr">
+        <is>
+          <t>-4.52%</t>
         </is>
       </c>
       <c r="AW336" s="21" t="inlineStr">
@@ -50490,103 +51338,123 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX336" s="19" t="inlineStr">
-        <is>
-          <t>-3.15%</t>
+      <c r="AX336" s="150" t="inlineStr">
+        <is>
+          <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="AY336" s="19" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="14" t="inlineStr">
         <is>
-          <t>002940</t>
+          <t>300255</t>
         </is>
       </c>
       <c r="B337" s="35" t="inlineStr">
         <is>
-          <t>[NHKC-1+创新药+仿制药+宠物经济]</t>
+          <t>[减肥药+创新药]</t>
         </is>
       </c>
       <c r="C337" s="36" t="inlineStr">
         <is>
-          <t>昂利康</t>
-        </is>
-      </c>
-      <c r="D337" s="17" t="inlineStr">
-        <is>
-          <t>66.48%</t>
-        </is>
-      </c>
-      <c r="AS337" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
+          <t>常山药业*</t>
+        </is>
+      </c>
+      <c r="D337" s="41" t="inlineStr">
+        <is>
+          <t>102.68%</t>
+        </is>
+      </c>
+      <c r="AA337" s="21" t="inlineStr">
+        <is>
+          <t>首板*[4.7]</t>
+        </is>
+      </c>
+      <c r="AR337" s="19" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="AS337" s="19" t="inlineStr">
+        <is>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="AT337" s="19" t="inlineStr">
         <is>
-          <t>1.63%[3.7]</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="AU337" s="19" t="inlineStr">
         <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="AV337" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AW337" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AX337" s="25" t="inlineStr">
-        <is>
-          <t>3板[0.4]</t>
+          <t>-1.28%</t>
+        </is>
+      </c>
+      <c r="AV337" s="43" t="inlineStr">
+        <is>
+          <t>15.12%</t>
+        </is>
+      </c>
+      <c r="AW337" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AX337" s="19" t="inlineStr">
+        <is>
+          <t>-3.15%</t>
+        </is>
+      </c>
+      <c r="AY337" s="19" t="inlineStr">
+        <is>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="14" t="inlineStr">
         <is>
-          <t>600232</t>
-        </is>
-      </c>
-      <c r="B338" s="26" t="inlineStr">
-        <is>
-          <t>[注塑机+纺织机械+锂电池+越南投资]</t>
-        </is>
-      </c>
-      <c r="C338" s="36" t="inlineStr">
-        <is>
-          <t>金鹰股份</t>
+          <t>002940</t>
+        </is>
+      </c>
+      <c r="B338" s="35" t="inlineStr">
+        <is>
+          <t>[NHKC-1+创新药+仿制药+宠物经济]</t>
+        </is>
+      </c>
+      <c r="C338" s="16" t="inlineStr">
+        <is>
+          <t>昂利康</t>
         </is>
       </c>
       <c r="D338" s="17" t="inlineStr">
         <is>
-          <t>40.51%</t>
-        </is>
-      </c>
-      <c r="AS338" s="19" t="inlineStr">
-        <is>
-          <t>0.53%</t>
+          <t>66.48%</t>
+        </is>
+      </c>
+      <c r="AS338" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
       <c r="AT338" s="19" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>1.63%[3.7]</t>
         </is>
       </c>
       <c r="AU338" s="19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="AV338" s="21" t="inlineStr">
         <is>
-          <t>首板[3.0]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="AW338" s="24" t="inlineStr">
@@ -50596,49 +51464,54 @@
       </c>
       <c r="AX338" s="25" t="inlineStr">
         <is>
-          <t>3板[12.9]</t>
+          <t>3板[0.4]</t>
+        </is>
+      </c>
+      <c r="AY338" s="28" t="inlineStr">
+        <is>
+          <t>4板[2.6]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="14" t="inlineStr">
         <is>
-          <t>603032</t>
+          <t>600232</t>
         </is>
       </c>
       <c r="B339" s="26" t="inlineStr">
         <is>
-          <t>[固态电池+锂电池模具+减速器]</t>
-        </is>
-      </c>
-      <c r="C339" s="36" t="inlineStr">
-        <is>
-          <t>德新科技</t>
-        </is>
-      </c>
-      <c r="D339" s="34" t="inlineStr">
-        <is>
-          <t>29.42%</t>
+          <t>[注塑机+纺织机械+锂电池+越南投资]</t>
+        </is>
+      </c>
+      <c r="C339" s="16" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
+      <c r="D339" s="17" t="inlineStr">
+        <is>
+          <t>40.51%</t>
         </is>
       </c>
       <c r="AS339" s="19" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="AT339" s="19" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="AU339" s="19" t="inlineStr">
         <is>
-          <t>-1.56%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="AV339" s="21" t="inlineStr">
         <is>
-          <t>首板[3.2]</t>
+          <t>首板[3.0]</t>
         </is>
       </c>
       <c r="AW339" s="24" t="inlineStr">
@@ -50648,275 +51521,580 @@
       </c>
       <c r="AX339" s="25" t="inlineStr">
         <is>
-          <t>3板[6.4]</t>
+          <t>3板[12.9]</t>
+        </is>
+      </c>
+      <c r="AY339" s="28" t="inlineStr">
+        <is>
+          <t>4板[4.8]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="14" t="inlineStr">
         <is>
-          <t>603332</t>
-        </is>
-      </c>
-      <c r="B340" s="38" t="inlineStr">
-        <is>
-          <t>[涤纶+化学纤维+部分产品涨价]</t>
-        </is>
-      </c>
-      <c r="C340" s="65" t="inlineStr">
-        <is>
-          <t>苏州龙杰</t>
-        </is>
-      </c>
-      <c r="D340" s="61" t="inlineStr">
-        <is>
-          <t>0.17%</t>
-        </is>
-      </c>
-      <c r="AC340" s="21" t="inlineStr">
-        <is>
-          <t>首板[2.3]</t>
-        </is>
-      </c>
-      <c r="AD340" s="24" t="inlineStr">
-        <is>
-          <t>2板[0.3]</t>
-        </is>
-      </c>
-      <c r="AE340" s="25" t="inlineStr">
-        <is>
-          <t>3板</t>
-        </is>
-      </c>
-      <c r="AF340" s="28" t="inlineStr">
-        <is>
-          <t>4板[8.6]</t>
-        </is>
-      </c>
-      <c r="AG340" s="18" t="inlineStr">
-        <is>
-          <t>5板[3.9]</t>
-        </is>
-      </c>
-      <c r="AJ340" s="29" t="inlineStr">
-        <is>
-          <t>6板</t>
-        </is>
-      </c>
-      <c r="AM340" s="30" t="inlineStr">
-        <is>
-          <t>7板</t>
-        </is>
-      </c>
-      <c r="AN340" s="66" t="inlineStr">
-        <is>
-          <t>8板[0.2]</t>
-        </is>
-      </c>
-      <c r="AO340" s="67" t="inlineStr">
-        <is>
-          <t>9板</t>
+          <t>603032</t>
+        </is>
+      </c>
+      <c r="B340" s="26" t="inlineStr">
+        <is>
+          <t>[固态电池+锂电池模具+减速器]</t>
+        </is>
+      </c>
+      <c r="C340" s="36" t="inlineStr">
+        <is>
+          <t>德新科技</t>
+        </is>
+      </c>
+      <c r="D340" s="34" t="inlineStr">
+        <is>
+          <t>29.42%</t>
         </is>
       </c>
       <c r="AS340" s="19" t="inlineStr">
         <is>
-          <t>-5.82%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="AT340" s="19" t="inlineStr">
         <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="AU340" s="196" t="inlineStr">
-        <is>
-          <t>-7.89%</t>
-        </is>
-      </c>
-      <c r="AV340" s="19" t="inlineStr">
-        <is>
-          <t>-4.92%</t>
-        </is>
-      </c>
-      <c r="AW340" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AX340" s="24" t="inlineStr">
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="AU340" s="19" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="AV340" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.2]</t>
+        </is>
+      </c>
+      <c r="AW340" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AX340" s="25" t="inlineStr">
+        <is>
+          <t>3板[6.4]</t>
+        </is>
+      </c>
+      <c r="AY340" s="19" t="inlineStr">
+        <is>
+          <t>3.85%[4.3]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="14" t="inlineStr">
         <is>
-          <t>300485</t>
-        </is>
-      </c>
-      <c r="B341" s="35" t="inlineStr">
-        <is>
-          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="B341" s="144" t="inlineStr">
+        <is>
+          <t>[AI营销+体育产业+报业传媒+广州国企]</t>
         </is>
       </c>
       <c r="C341" s="36" t="inlineStr">
         <is>
-          <t>赛升药业*</t>
+          <t>粤传媒</t>
         </is>
       </c>
       <c r="D341" s="34" t="inlineStr">
         <is>
-          <t>32.57%</t>
+          <t>36.18%</t>
         </is>
       </c>
       <c r="AS341" s="19" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>6.86%[5.2]</t>
         </is>
       </c>
       <c r="AT341" s="19" t="inlineStr">
         <is>
-          <t>-2.05%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="AU341" s="19" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="AV341" s="19" t="inlineStr">
         <is>
-          <t>-1.18%</t>
-        </is>
-      </c>
-      <c r="AW341" s="19" t="inlineStr">
-        <is>
-          <t>6.08%</t>
-        </is>
-      </c>
-      <c r="AX341" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
+          <t>-2.88%</t>
+        </is>
+      </c>
+      <c r="AW341" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX341" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AY341" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="14" t="inlineStr">
         <is>
-          <t>300886</t>
-        </is>
-      </c>
-      <c r="B342" s="63" t="inlineStr">
-        <is>
-          <t>[内酯系列香料+外销+产能释放]</t>
-        </is>
-      </c>
-      <c r="C342" s="36" t="inlineStr">
-        <is>
-          <t>华业香料*</t>
-        </is>
-      </c>
-      <c r="D342" s="34" t="inlineStr">
-        <is>
-          <t>31.60%</t>
-        </is>
-      </c>
-      <c r="AG342" s="21" t="inlineStr">
-        <is>
-          <t>首板*[6.8]</t>
+          <t>603332</t>
+        </is>
+      </c>
+      <c r="B342" s="38" t="inlineStr">
+        <is>
+          <t>[涤纶+产品涨价+一季报增长]</t>
+        </is>
+      </c>
+      <c r="C342" s="65" t="inlineStr">
+        <is>
+          <t>苏州龙杰</t>
+        </is>
+      </c>
+      <c r="D342" s="61" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AC342" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.3]</t>
+        </is>
+      </c>
+      <c r="AD342" s="24" t="inlineStr">
+        <is>
+          <t>2板[0.3]</t>
+        </is>
+      </c>
+      <c r="AE342" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AF342" s="28" t="inlineStr">
+        <is>
+          <t>4板[8.6]</t>
+        </is>
+      </c>
+      <c r="AG342" s="18" t="inlineStr">
+        <is>
+          <t>5板[3.9]</t>
+        </is>
+      </c>
+      <c r="AJ342" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
+        </is>
+      </c>
+      <c r="AM342" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
+        </is>
+      </c>
+      <c r="AN342" s="66" t="inlineStr">
+        <is>
+          <t>8板[0.2]</t>
+        </is>
+      </c>
+      <c r="AO342" s="67" t="inlineStr">
+        <is>
+          <t>9板</t>
         </is>
       </c>
       <c r="AS342" s="19" t="inlineStr">
         <is>
-          <t>2.73%</t>
-        </is>
-      </c>
-      <c r="AT342" s="240" t="inlineStr">
-        <is>
-          <t>8.98%</t>
-        </is>
-      </c>
-      <c r="AU342" s="170" t="inlineStr">
-        <is>
-          <t>-7.02%</t>
+          <t>-5.82%</t>
+        </is>
+      </c>
+      <c r="AT342" s="19" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="AU342" s="197" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
         </is>
       </c>
       <c r="AV342" s="19" t="inlineStr">
         <is>
-          <t>5.32%</t>
-        </is>
-      </c>
-      <c r="AW342" s="19" t="inlineStr">
-        <is>
-          <t>2.11%</t>
-        </is>
-      </c>
-      <c r="AX342" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
+          <t>-4.92%</t>
+        </is>
+      </c>
+      <c r="AW342" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX342" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AY342" s="25" t="inlineStr">
+        <is>
+          <t>3板[0.1]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="14" t="inlineStr">
         <is>
+          <t>301141</t>
+        </is>
+      </c>
+      <c r="B343" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+一季报增长+机器人概念]</t>
+        </is>
+      </c>
+      <c r="C343" s="36" t="inlineStr">
+        <is>
+          <t>中科磁业*</t>
+        </is>
+      </c>
+      <c r="D343" s="17" t="inlineStr">
+        <is>
+          <t>47.47%</t>
+        </is>
+      </c>
+      <c r="AS343" s="19" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="AT343" s="242" t="inlineStr">
+        <is>
+          <t>9.02%[6.9]</t>
+        </is>
+      </c>
+      <c r="AU343" s="19" t="inlineStr">
+        <is>
+          <t>0.41%[2.7]</t>
+        </is>
+      </c>
+      <c r="AV343" s="19" t="inlineStr">
+        <is>
+          <t>-2.98%</t>
+        </is>
+      </c>
+      <c r="AW343" s="43" t="inlineStr">
+        <is>
+          <t>13.49%[2.8]</t>
+        </is>
+      </c>
+      <c r="AX343" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AY343" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="14" t="inlineStr">
+        <is>
+          <t>300299</t>
+        </is>
+      </c>
+      <c r="B344" s="144" t="inlineStr">
+        <is>
+          <t>[参股《长安的荔枝》出品方+游戏+AI宠物]</t>
+        </is>
+      </c>
+      <c r="C344" s="36" t="inlineStr">
+        <is>
+          <t>富春股份*</t>
+        </is>
+      </c>
+      <c r="D344" s="34" t="inlineStr">
+        <is>
+          <t>34.06%</t>
+        </is>
+      </c>
+      <c r="AS344" s="19" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="AT344" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="AU344" s="19" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="AV344" s="19" t="inlineStr">
+        <is>
+          <t>-2.16%</t>
+        </is>
+      </c>
+      <c r="AW344" s="19" t="inlineStr">
+        <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="AX344" s="21" t="inlineStr">
+        <is>
+          <t>首板*[4.5]</t>
+        </is>
+      </c>
+      <c r="AY344" s="43" t="inlineStr">
+        <is>
+          <t>9.89%[2.7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="14" t="inlineStr">
+        <is>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="B345" s="35" t="inlineStr">
+        <is>
+          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+        </is>
+      </c>
+      <c r="C345" s="36" t="inlineStr">
+        <is>
+          <t>赛升药业*</t>
+        </is>
+      </c>
+      <c r="D345" s="34" t="inlineStr">
+        <is>
+          <t>32.57%</t>
+        </is>
+      </c>
+      <c r="AS345" s="19" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="AT345" s="19" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
+        </is>
+      </c>
+      <c r="AU345" s="19" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="AV345" s="19" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="AW345" s="19" t="inlineStr">
+        <is>
+          <t>6.08%</t>
+        </is>
+      </c>
+      <c r="AX345" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AY345" s="19" t="inlineStr">
+        <is>
+          <t>2.90%[2.9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="14" t="inlineStr">
+        <is>
+          <t>300886</t>
+        </is>
+      </c>
+      <c r="B346" s="63" t="inlineStr">
+        <is>
+          <t>[内酯系列香料+外销+产能释放]</t>
+        </is>
+      </c>
+      <c r="C346" s="36" t="inlineStr">
+        <is>
+          <t>华业香料*</t>
+        </is>
+      </c>
+      <c r="D346" s="34" t="inlineStr">
+        <is>
+          <t>31.60%</t>
+        </is>
+      </c>
+      <c r="AG346" s="21" t="inlineStr">
+        <is>
+          <t>首板*[6.8]</t>
+        </is>
+      </c>
+      <c r="AS346" s="19" t="inlineStr">
+        <is>
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="AT346" s="243" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="AU346" s="171" t="inlineStr">
+        <is>
+          <t>-7.02%</t>
+        </is>
+      </c>
+      <c r="AV346" s="19" t="inlineStr">
+        <is>
+          <t>5.32%</t>
+        </is>
+      </c>
+      <c r="AW346" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="AX346" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AY346" s="19" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="14" t="inlineStr">
+        <is>
           <t>833171</t>
         </is>
       </c>
-      <c r="B343" s="75" t="inlineStr">
+      <c r="B347" s="63" t="inlineStr">
         <is>
           <t>[航运+战略合作+出海]</t>
         </is>
       </c>
-      <c r="C343" s="64" t="inlineStr">
+      <c r="C347" s="64" t="inlineStr">
         <is>
           <t>国航远洋**</t>
         </is>
       </c>
-      <c r="D343" s="34" t="inlineStr">
+      <c r="D347" s="34" t="inlineStr">
         <is>
           <t>28.53%</t>
         </is>
       </c>
-      <c r="J343" s="21" t="inlineStr">
+      <c r="J347" s="21" t="inlineStr">
         <is>
           <t>首板**[2.3]</t>
         </is>
       </c>
-      <c r="AF343" s="21" t="inlineStr">
+      <c r="AF347" s="21" t="inlineStr">
         <is>
           <t>首板**[2.7]</t>
         </is>
       </c>
-      <c r="AS343" s="19" t="inlineStr">
+      <c r="AS347" s="19" t="inlineStr">
         <is>
           <t>-0.89%</t>
         </is>
       </c>
-      <c r="AT343" s="19" t="inlineStr">
+      <c r="AT347" s="19" t="inlineStr">
         <is>
           <t>0.40%</t>
         </is>
       </c>
-      <c r="AU343" s="19" t="inlineStr">
+      <c r="AU347" s="19" t="inlineStr">
         <is>
           <t>-3.99%</t>
         </is>
       </c>
-      <c r="AV343" s="19" t="inlineStr">
+      <c r="AV347" s="19" t="inlineStr">
         <is>
           <t>1.66%</t>
         </is>
       </c>
-      <c r="AW343" s="19" t="inlineStr">
+      <c r="AW347" s="19" t="inlineStr">
         <is>
           <t>2.45%</t>
         </is>
       </c>
-      <c r="AX343" s="21" t="inlineStr">
+      <c r="AX347" s="21" t="inlineStr">
         <is>
           <t>首板**[3.4]</t>
+        </is>
+      </c>
+      <c r="AY347" s="19" t="inlineStr">
+        <is>
+          <t>-6.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="14" t="inlineStr">
+        <is>
+          <t>600980</t>
+        </is>
+      </c>
+      <c r="B348" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+机器人+央企]</t>
+        </is>
+      </c>
+      <c r="C348" s="36" t="inlineStr">
+        <is>
+          <t>北矿科技</t>
+        </is>
+      </c>
+      <c r="D348" s="34" t="inlineStr">
+        <is>
+          <t>33.43%</t>
+        </is>
+      </c>
+      <c r="AT348" s="19" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="AU348" s="19" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="AV348" s="19" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="AW348" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX348" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AY348" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
         </is>
       </c>
     </row>
@@ -50945,436 +52123,436 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="241" t="inlineStr">
+      <c r="A1" s="244" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="242" t="n"/>
+      <c r="B1" s="245" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="243" t="inlineStr">
+      <c r="A2" s="246" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="243" t="inlineStr">
+      <c r="B2" s="246" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="244" t="inlineStr">
-        <is>
-          <t>跨境贸易</t>
-        </is>
-      </c>
-      <c r="B3" s="242" t="n">
-        <v>69</v>
+      <c r="A3" s="247" t="inlineStr">
+        <is>
+          <t>港口航运</t>
+        </is>
+      </c>
+      <c r="B3" s="245" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="245" t="inlineStr">
+      <c r="A4" s="248" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B4" s="242" t="n">
-        <v>44</v>
+      <c r="B4" s="245" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="246" t="inlineStr">
+      <c r="A5" s="249" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B5" s="242" t="n">
-        <v>37</v>
+      <c r="B5" s="245" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="247" t="inlineStr">
+      <c r="A6" s="250" t="inlineStr">
         <is>
           <t>传统消费</t>
         </is>
       </c>
-      <c r="B6" s="242" t="n">
+      <c r="B6" s="245" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="248" t="inlineStr">
+      <c r="A7" s="251" t="inlineStr">
         <is>
           <t>新能源</t>
         </is>
       </c>
-      <c r="B7" s="242" t="n">
+      <c r="B7" s="245" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="249" t="inlineStr">
+      <c r="A8" s="252" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B8" s="242" t="n">
+      <c r="B8" s="245" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="250" t="inlineStr">
-        <is>
-          <t>港口航运</t>
-        </is>
-      </c>
-      <c r="B9" s="242" t="n">
-        <v>32</v>
+      <c r="A9" s="253" t="inlineStr">
+        <is>
+          <t>无人经济</t>
+        </is>
+      </c>
+      <c r="B9" s="245" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="251" t="inlineStr">
+      <c r="A10" s="254" t="inlineStr">
         <is>
           <t>AI大模型</t>
         </is>
       </c>
-      <c r="B10" s="242" t="n">
-        <v>28</v>
+      <c r="B10" s="245" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="252" t="inlineStr">
+      <c r="A11" s="255" t="inlineStr">
         <is>
           <t>核聚变</t>
         </is>
       </c>
-      <c r="B11" s="242" t="n">
+      <c r="B11" s="245" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="243" t="inlineStr">
+      <c r="A12" s="246" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="242" t="n"/>
+      <c r="B12" s="245" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="242" t="inlineStr">
+      <c r="A13" s="245" t="inlineStr">
         <is>
           <t>化工</t>
         </is>
       </c>
-      <c r="B13" s="242" t="n">
+      <c r="B13" s="245" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="242" t="inlineStr">
+      <c r="A14" s="245" t="inlineStr">
         <is>
           <t>半导体</t>
         </is>
       </c>
-      <c r="B14" s="242" t="n">
+      <c r="B14" s="245" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="242" t="inlineStr">
-        <is>
-          <t>新消费</t>
-        </is>
-      </c>
-      <c r="B15" s="242" t="n">
-        <v>19</v>
+      <c r="A15" s="245" t="inlineStr">
+        <is>
+          <t>数字经济</t>
+        </is>
+      </c>
+      <c r="B15" s="245" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="242" t="inlineStr">
-        <is>
-          <t>无人经济</t>
-        </is>
-      </c>
-      <c r="B16" s="242" t="n">
+      <c r="A16" s="245" t="inlineStr">
+        <is>
+          <t>新消费</t>
+        </is>
+      </c>
+      <c r="B16" s="245" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="242" t="inlineStr">
+      <c r="A17" s="245" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B17" s="242" t="n">
+      <c r="B17" s="245" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="242" t="inlineStr">
+      <c r="A18" s="245" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B18" s="242" t="n">
+      <c r="B18" s="245" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="242" t="inlineStr">
+      <c r="A19" s="245" t="inlineStr">
         <is>
           <t>AI算力</t>
         </is>
       </c>
-      <c r="B19" s="242" t="n">
+      <c r="B19" s="245" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="242" t="inlineStr">
+      <c r="A20" s="245" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B20" s="242" t="n">
+      <c r="B20" s="245" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="242" t="inlineStr">
+      <c r="A21" s="245" t="inlineStr">
         <is>
           <t>新型材料</t>
         </is>
       </c>
-      <c r="B21" s="242" t="n">
+      <c r="B21" s="245" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="242" t="inlineStr">
+      <c r="A22" s="245" t="inlineStr">
         <is>
           <t>重组</t>
         </is>
       </c>
-      <c r="B22" s="242" t="n">
+      <c r="B22" s="245" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="242" t="inlineStr">
+      <c r="A23" s="245" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B23" s="242" t="n">
+      <c r="B23" s="245" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="242" t="inlineStr">
+      <c r="A24" s="245" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="242" t="n">
+      <c r="B24" s="245" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="242" t="inlineStr">
+      <c r="A25" s="245" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B25" s="242" t="n">
+      <c r="B25" s="245" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="242" t="inlineStr">
+      <c r="A26" s="245" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="242" t="n">
+      <c r="B26" s="245" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="242" t="inlineStr">
+      <c r="A27" s="245" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="242" t="n">
+      <c r="B27" s="245" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="242" t="inlineStr">
+      <c r="A28" s="245" t="inlineStr">
         <is>
           <t>体育产业</t>
         </is>
       </c>
-      <c r="B28" s="242" t="n">
-        <v>5</v>
+      <c r="B28" s="245" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="242" t="inlineStr">
+      <c r="A29" s="245" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B29" s="242" t="n">
+      <c r="B29" s="245" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="242" t="inlineStr">
+      <c r="A30" s="245" t="inlineStr">
         <is>
           <t>小米概念</t>
         </is>
       </c>
-      <c r="B30" s="242" t="n">
+      <c r="B30" s="245" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="243" t="inlineStr">
+      <c r="A31" s="246" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B31" s="242" t="n"/>
+      <c r="B31" s="245" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="242" t="inlineStr">
+      <c r="A32" s="245" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B32" s="242" t="n">
-        <v>40</v>
+      <c r="B32" s="245" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="242" t="inlineStr">
+      <c r="A33" s="245" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B33" s="242" t="n">
+      <c r="B33" s="245" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="242" t="inlineStr">
+      <c r="A34" s="245" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B34" s="242" t="n">
-        <v>69</v>
+      <c r="B34" s="245" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="253" t="inlineStr">
+      <c r="A35" s="256" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B35" s="242" t="n"/>
+      <c r="B35" s="245" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="243" t="inlineStr">
+      <c r="A36" s="246" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B36" s="242" t="n"/>
+      <c r="B36" s="245" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="254" t="inlineStr">
+      <c r="A37" s="257" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B37" s="242" t="n"/>
+      <c r="B37" s="245" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="255" t="inlineStr">
+      <c r="A38" s="258" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B38" s="242" t="n"/>
+      <c r="B38" s="245" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="256" t="inlineStr">
+      <c r="A39" s="259" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B39" s="242" t="n"/>
+      <c r="B39" s="245" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="257" t="inlineStr">
+      <c r="A40" s="260" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B40" s="242" t="n"/>
+      <c r="B40" s="245" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="258" t="inlineStr">
+      <c r="A41" s="261" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B41" s="242" t="n"/>
+      <c r="B41" s="245" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="259" t="inlineStr">
+      <c r="A42" s="262" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B42" s="242" t="n"/>
+      <c r="B42" s="245" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="243" t="inlineStr">
+      <c r="A43" s="246" t="inlineStr">
         <is>
           <t>重复入选颜色</t>
         </is>
       </c>
-      <c r="B43" s="242" t="n"/>
+      <c r="B43" s="245" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="260" t="inlineStr">
+      <c r="A44" s="263" t="inlineStr">
         <is>
           <t>2次入选</t>
         </is>
       </c>
-      <c r="B44" s="242" t="n"/>
+      <c r="B44" s="245" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="261" t="inlineStr">
+      <c r="A45" s="264" t="inlineStr">
         <is>
           <t>3次入选</t>
         </is>
       </c>
-      <c r="B45" s="242" t="n"/>
+      <c r="B45" s="245" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="262" t="inlineStr">
+      <c r="A46" s="265" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B46" s="242" t="n"/>
+      <c r="B46" s="245" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -51,7 +51,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="236">
+  <fills count="238">
     <fill>
       <patternFill/>
     </fill>
@@ -153,7 +153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0045B5FF"/>
+        <fgColor rgb="006AD15A"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006AD15A"/>
+        <fgColor rgb="0045B5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1410,8 +1410,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF5E"/>
+        <bgColor rgb="00FFFF5E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF88"/>
         <bgColor rgb="00FFFF88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF44"/>
+        <bgColor rgb="00FFFF44"/>
       </patternFill>
     </fill>
     <fill>
@@ -1422,8 +1434,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF44"/>
-        <bgColor rgb="00FFFF44"/>
+        <fgColor rgb="00FFFF79"/>
+        <bgColor rgb="00FFFF79"/>
       </patternFill>
     </fill>
     <fill>
@@ -1465,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1532,7 +1544,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1721,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2174,6 +2186,12 @@
     <xf numFmtId="0" fontId="0" fillId="233" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="234" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2182,13 +2200,13 @@
     <xf numFmtId="0" fontId="7" fillId="54" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="84" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="92" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="234" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="236" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2196,7 +2214,7 @@
     <xf numFmtId="0" fontId="7" fillId="170" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="75" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="235" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5544,6 +5562,14 @@
 开板次数: 4</t>
       </text>
     </comment>
+    <comment ref="AZ140" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:39:01 
+开板次数: 3</t>
+      </text>
+    </comment>
     <comment ref="W141" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -6048,6 +6074,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AZ157" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:25:13 
+最终涨停: 10:25:13 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AA158" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -6856,6 +6890,14 @@
 开板次数: 20</t>
       </text>
     </comment>
+    <comment ref="AZ187" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:39:15 
+最终涨停: 09:39:15 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AD188" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -9808,6 +9850,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AZ318" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 
+首次涨停: 09:34:30 
+最终涨停: 09:35:18 
+开板次数: 2</t>
+      </text>
+    </comment>
     <comment ref="AT319" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9880,6 +9930,14 @@
 开板次数: 1</t>
       </text>
     </comment>
+    <comment ref="AZ321" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 
+首次涨停: 09:32:17 
+最终涨停: 09:32:50 
+开板次数: 1</t>
+      </text>
+    </comment>
     <comment ref="AT322" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -10032,6 +10090,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="AZ329" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 
+首次涨停: 11:16:30 
+最终涨停: 11:16:30 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AM330" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
@@ -10280,7 +10346,15 @@
 开板次数: 4</t>
       </text>
     </comment>
-    <comment ref="AD342" authorId="0" shapeId="0">
+    <comment ref="AZ341" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:31:24 
+最终涨停: 13:23:06 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AX342" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10288,7 +10362,31 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AE342" authorId="0" shapeId="0">
+    <comment ref="AY342" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:00 
+最终涨停: 09:31:06 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AZ342" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD343" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:01 
+最终涨停: 09:25:01 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AE343" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:03 
@@ -10296,7 +10394,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AF342" authorId="0" shapeId="0">
+    <comment ref="AF343" authorId="0" shapeId="0">
       <text>
         <t>4天4板 
 首次涨停: 09:25:03 
@@ -10304,7 +10402,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AG342" authorId="0" shapeId="0">
+    <comment ref="AG343" authorId="0" shapeId="0">
       <text>
         <t>5天5板 
 首次涨停: 10:39:13 
@@ -10312,7 +10410,7 @@
 开板次数: 12</t>
       </text>
     </comment>
-    <comment ref="AJ342" authorId="0" shapeId="0">
+    <comment ref="AJ343" authorId="0" shapeId="0">
       <text>
         <t>8天6板 
 首次涨停: 13:43:52 
@@ -10320,7 +10418,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AM342" authorId="0" shapeId="0">
+    <comment ref="AM343" authorId="0" shapeId="0">
       <text>
         <t>11天7板 
 首次涨停: 10:01:43 
@@ -10328,7 +10426,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AN342" authorId="0" shapeId="0">
+    <comment ref="AN343" authorId="0" shapeId="0">
       <text>
         <t>12天8板 
 首次涨停: 09:25:02 
@@ -10336,7 +10434,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AO342" authorId="0" shapeId="0">
+    <comment ref="AO343" authorId="0" shapeId="0">
       <text>
         <t>13天9板 
 首次涨停: 09:44:22 
@@ -10344,7 +10442,7 @@
 开板次数: 6</t>
       </text>
     </comment>
-    <comment ref="AX342" authorId="0" shapeId="0">
+    <comment ref="AX343" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:40:44 
@@ -10352,7 +10450,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AY342" authorId="0" shapeId="0">
+    <comment ref="AY343" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:00 
@@ -10360,7 +10458,15 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY343" authorId="0" shapeId="0">
+    <comment ref="AZ344" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 14:23:30 
+最终涨停: 14:23:30 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY345" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 10:48:21 
@@ -10368,7 +10474,95 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AX348" authorId="0" shapeId="0">
+    <comment ref="AZ349" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:31:21 
+最终涨停: 14:35:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AY350" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 13:00:53 
+最终涨停: 13:19:35 
+开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="AZ350" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:42:02 
+最终涨停: 10:26:53 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AE351" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 
+首次涨停: 09:40:22 
+最终涨停: 09:40:22 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AF351" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 09:47:45 
+开板次数: 6</t>
+      </text>
+    </comment>
+    <comment ref="AG351" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 
+首次涨停: 09:31:35 
+最终涨停: 10:14:20 
+开板次数: 12</t>
+      </text>
+    </comment>
+    <comment ref="AI351" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 
+首次涨停: 13:06:13 
+最终涨停: 13:10:13 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AX351" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 10:26:08 
+最终涨停: 14:53:59 
+开板次数: 20</t>
+      </text>
+    </comment>
+    <comment ref="AZ351" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:39:15 
+最终涨停: 09:39:15 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY352" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AZ352" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AY353" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10376,12 +10570,52 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY348" authorId="0" shapeId="0">
+    <comment ref="AZ353" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
-首次涨停: 09:25:00 
-最终涨停: 09:31:06 
+首次涨停: 09:34:53 
+最终涨停: 14:44:44 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="X354" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:38:05 
+最终涨停: 09:39:35 
 开板次数: 1</t>
+      </text>
+    </comment>
+    <comment ref="Z354" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 09:37:39 
+最终涨停: 09:42:36 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="AI354" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:44:04 
+最终涨停: 09:58:13 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="AZ354" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:39:01 
+开板次数: 3</t>
+      </text>
+    </comment>
+    <comment ref="AZ355" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 11:07:26 
+最终涨停: 11:07:26 
+开板次数: 0</t>
       </text>
     </comment>
   </commentList>
@@ -10677,7 +10911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ348"/>
+  <dimension ref="A1:BA356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -10739,6 +10973,7 @@
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
+    <col width="12" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -11044,6 +11279,12 @@
 星期三</t>
         </is>
       </c>
+      <c r="AZ1" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-12
+星期四</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="4" t="inlineStr">
@@ -11284,6 +11525,11 @@
       <c r="AY2" s="9" t="inlineStr">
         <is>
           <t>1.21%</t>
+        </is>
+      </c>
+      <c r="AZ2" s="6" t="inlineStr">
+        <is>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11777,12 @@
           <t>208.46</t>
         </is>
       </c>
-      <c r="AZ3" s="11" t="n"/>
+      <c r="AZ3" s="13" t="inlineStr">
+        <is>
+          <t>214.02</t>
+        </is>
+      </c>
+      <c r="BA3" s="11" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -11744,6 +11995,11 @@
           <t>0.38%</t>
         </is>
       </c>
+      <c r="AZ4" s="19" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -12310,6 +12566,11 @@
           <t>-6.31%</t>
         </is>
       </c>
+      <c r="AZ7" s="19" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
@@ -13381,6 +13642,11 @@
           <t>-3.85%</t>
         </is>
       </c>
+      <c r="AZ15" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="inlineStr">
@@ -13458,6 +13724,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ16" s="19" t="inlineStr">
+        <is>
+          <t>4.40%[2.8]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="inlineStr">
@@ -13777,6 +14048,11 @@
           <t>-6.89%</t>
         </is>
       </c>
+      <c r="AZ18" s="19" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="inlineStr">
@@ -14186,6 +14462,11 @@
           <t>-1.06%</t>
         </is>
       </c>
+      <c r="AZ20" s="19" t="inlineStr">
+        <is>
+          <t>2.31%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="inlineStr">
@@ -14288,6 +14569,11 @@
           <t>0.41%</t>
         </is>
       </c>
+      <c r="AZ21" s="19" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="inlineStr">
@@ -14495,6 +14781,11 @@
           <t>-0.99%</t>
         </is>
       </c>
+      <c r="AZ22" s="19" t="inlineStr">
+        <is>
+          <t>2.31%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="inlineStr">
@@ -14879,6 +15170,11 @@
           <t>-2.63%</t>
         </is>
       </c>
+      <c r="AZ24" s="19" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="inlineStr">
@@ -15785,6 +16081,11 @@
           <t>2.89%</t>
         </is>
       </c>
+      <c r="AZ32" s="19" t="inlineStr">
+        <is>
+          <t>-0.30%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="inlineStr">
@@ -16099,6 +16400,11 @@
           <t>1.84%[2.3]</t>
         </is>
       </c>
+      <c r="AZ34" s="71" t="inlineStr">
+        <is>
+          <t>-7.36%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="inlineStr">
@@ -16133,22 +16439,22 @@
       </c>
       <c r="G35" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="H35" s="24" t="inlineStr">
         <is>
-          <t>2板[5.7]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="I35" s="25" t="inlineStr">
         <is>
-          <t>3板[0.3]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="J35" s="28" t="inlineStr">
         <is>
-          <t>4板[0.2]</t>
+          <t>4板</t>
         </is>
       </c>
       <c r="K35" s="18" t="inlineStr">
@@ -16158,12 +16464,12 @@
       </c>
       <c r="L35" s="29" t="inlineStr">
         <is>
-          <t>6板[0.3]</t>
+          <t>6板</t>
         </is>
       </c>
       <c r="M35" s="30" t="inlineStr">
         <is>
-          <t>7板[5.1]</t>
+          <t>7板</t>
         </is>
       </c>
       <c r="N35" s="19" t="inlineStr">
@@ -16173,7 +16479,7 @@
       </c>
       <c r="O35" s="66" t="inlineStr">
         <is>
-          <t>8板[2.2]</t>
+          <t>8板</t>
         </is>
       </c>
       <c r="P35" s="67" t="inlineStr">
@@ -16349,6 +16655,11 @@
       <c r="AY35" s="19" t="inlineStr">
         <is>
           <t>-4.59%</t>
+        </is>
+      </c>
+      <c r="AZ35" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -16473,6 +16784,11 @@
           <t>0.44%</t>
         </is>
       </c>
+      <c r="AZ36" s="19" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="inlineStr">
@@ -18699,6 +19015,11 @@
           <t>5.73%</t>
         </is>
       </c>
+      <c r="AZ54" s="19" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="inlineStr">
@@ -19705,6 +20026,11 @@
           <t>0.77%</t>
         </is>
       </c>
+      <c r="AZ62" s="19" t="inlineStr">
+        <is>
+          <t>-2.68%</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="inlineStr">
@@ -20026,6 +20352,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ65" s="19" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="inlineStr">
@@ -21013,6 +21344,11 @@
           <t>-2.40%</t>
         </is>
       </c>
+      <c r="AZ71" s="19" t="inlineStr">
+        <is>
+          <t>-2.64%</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="inlineStr">
@@ -21302,6 +21638,11 @@
           <t>-8.40%</t>
         </is>
       </c>
+      <c r="AZ73" s="19" t="inlineStr">
+        <is>
+          <t>-6.36%</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="inlineStr">
@@ -21529,6 +21870,11 @@
           <t>-6.56%</t>
         </is>
       </c>
+      <c r="AZ74" s="19" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="inlineStr">
@@ -23895,6 +24241,11 @@
           <t>-3.85%</t>
         </is>
       </c>
+      <c r="AZ92" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="inlineStr">
@@ -24219,6 +24570,11 @@
           <t>-1.06%</t>
         </is>
       </c>
+      <c r="AZ94" s="19" t="inlineStr">
+        <is>
+          <t>2.31%</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="inlineStr">
@@ -24573,6 +24929,11 @@
           <t>-1.76%</t>
         </is>
       </c>
+      <c r="AZ96" s="19" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="inlineStr">
@@ -25462,6 +25823,11 @@
           <t>-2.01%</t>
         </is>
       </c>
+      <c r="AZ103" s="43" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="inlineStr">
@@ -25629,6 +25995,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ104" s="19" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="14" t="inlineStr">
@@ -26329,6 +26700,11 @@
           <t>-3.32%</t>
         </is>
       </c>
+      <c r="AZ109" s="19" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="14" t="inlineStr">
@@ -26516,6 +26892,11 @@
           <t>0.77%</t>
         </is>
       </c>
+      <c r="AZ110" s="19" t="inlineStr">
+        <is>
+          <t>-2.68%</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="inlineStr">
@@ -28172,6 +28553,11 @@
           <t>-1.60%</t>
         </is>
       </c>
+      <c r="AZ123" s="19" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="inlineStr">
@@ -28974,6 +29360,11 @@
           <t>-1.44%</t>
         </is>
       </c>
+      <c r="AZ129" s="19" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="inlineStr">
@@ -29639,6 +30030,11 @@
           <t>-2.88%</t>
         </is>
       </c>
+      <c r="AZ134" s="19" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="14" t="inlineStr">
@@ -30239,6 +30635,11 @@
           <t>-3.85%</t>
         </is>
       </c>
+      <c r="AZ139" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="14" t="inlineStr">
@@ -30251,7 +30652,7 @@
           <t>[稀土永磁+贵金属回收+山西国资+一季报同比扭亏]</t>
         </is>
       </c>
-      <c r="C140" s="36" t="inlineStr">
+      <c r="C140" s="64" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
@@ -30379,6 +30780,11 @@
       <c r="AY140" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="AZ140" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
         </is>
       </c>
     </row>
@@ -30766,7 +31172,7 @@
       </c>
       <c r="Y144" s="24" t="inlineStr">
         <is>
-          <t>2板[2.6]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="Z144" s="25" t="inlineStr">
@@ -30951,6 +31357,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ145" s="19" t="inlineStr">
+        <is>
+          <t>3.20%[6.5]</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="14" t="inlineStr">
@@ -31515,22 +31926,22 @@
       </c>
       <c r="G151" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="H151" s="24" t="inlineStr">
         <is>
-          <t>2板[5.7]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="I151" s="25" t="inlineStr">
         <is>
-          <t>3板[0.3]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="J151" s="28" t="inlineStr">
         <is>
-          <t>4板[0.2]</t>
+          <t>4板</t>
         </is>
       </c>
       <c r="K151" s="18" t="inlineStr">
@@ -31540,17 +31951,17 @@
       </c>
       <c r="L151" s="29" t="inlineStr">
         <is>
-          <t>6板[0.3]</t>
+          <t>6板</t>
         </is>
       </c>
       <c r="M151" s="30" t="inlineStr">
         <is>
-          <t>7板[5.1]</t>
+          <t>7板</t>
         </is>
       </c>
       <c r="O151" s="66" t="inlineStr">
         <is>
-          <t>8板[2.2]</t>
+          <t>8板</t>
         </is>
       </c>
       <c r="P151" s="67" t="inlineStr">
@@ -31721,6 +32132,11 @@
       <c r="AY151" s="19" t="inlineStr">
         <is>
           <t>-4.59%</t>
+        </is>
+      </c>
+      <c r="AZ151" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -31997,6 +32413,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ153" s="19" t="inlineStr">
+        <is>
+          <t>-1.05%</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="14" t="inlineStr">
@@ -32184,6 +32605,11 @@
           <t>-10.03%</t>
         </is>
       </c>
+      <c r="AZ154" s="19" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="14" t="inlineStr">
@@ -32515,6 +32941,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ157" s="24" t="inlineStr">
+        <is>
+          <t>2板[5.0]</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="14" t="inlineStr">
@@ -32886,6 +33317,11 @@
           <t>6.00%</t>
         </is>
       </c>
+      <c r="AZ160" s="19" t="inlineStr">
+        <is>
+          <t>6.68%</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="14" t="inlineStr">
@@ -33573,6 +34009,11 @@
           <t>-1.66%</t>
         </is>
       </c>
+      <c r="AZ166" s="19" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="14" t="inlineStr">
@@ -33826,7 +34267,7 @@
       </c>
       <c r="AB169" s="21" t="inlineStr">
         <is>
-          <t>首板**[4.9]</t>
+          <t>首板**</t>
         </is>
       </c>
       <c r="AC169" s="43" t="inlineStr">
@@ -34598,6 +35039,11 @@
           <t>-3.49%</t>
         </is>
       </c>
+      <c r="AZ176" s="19" t="inlineStr">
+        <is>
+          <t>-3.64%</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="14" t="inlineStr">
@@ -35020,12 +35466,12 @@
       </c>
       <c r="AC181" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="AD181" s="24" t="inlineStr">
         <is>
-          <t>2板[0.3]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="AE181" s="25" t="inlineStr">
@@ -35035,12 +35481,12 @@
       </c>
       <c r="AF181" s="28" t="inlineStr">
         <is>
-          <t>4板[8.6]</t>
+          <t>4板</t>
         </is>
       </c>
       <c r="AG181" s="18" t="inlineStr">
         <is>
-          <t>5板[3.9]</t>
+          <t>5板</t>
         </is>
       </c>
       <c r="AH181" s="111" t="inlineStr">
@@ -35131,6 +35577,11 @@
       <c r="AY181" s="25" t="inlineStr">
         <is>
           <t>3板[0.1]</t>
+        </is>
+      </c>
+      <c r="AZ181" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -35366,22 +35817,22 @@
       </c>
       <c r="G184" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="H184" s="24" t="inlineStr">
         <is>
-          <t>2板[5.7]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="I184" s="25" t="inlineStr">
         <is>
-          <t>3板[0.3]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="J184" s="28" t="inlineStr">
         <is>
-          <t>4板[0.2]</t>
+          <t>4板</t>
         </is>
       </c>
       <c r="K184" s="18" t="inlineStr">
@@ -35391,17 +35842,17 @@
       </c>
       <c r="L184" s="29" t="inlineStr">
         <is>
-          <t>6板[0.3]</t>
+          <t>6板</t>
         </is>
       </c>
       <c r="M184" s="30" t="inlineStr">
         <is>
-          <t>7板[5.1]</t>
+          <t>7板</t>
         </is>
       </c>
       <c r="O184" s="66" t="inlineStr">
         <is>
-          <t>8板[2.2]</t>
+          <t>8板</t>
         </is>
       </c>
       <c r="P184" s="67" t="inlineStr">
@@ -35547,6 +35998,11 @@
       <c r="AY184" s="19" t="inlineStr">
         <is>
           <t>-4.59%</t>
+        </is>
+      </c>
+      <c r="AZ184" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -35721,6 +36177,11 @@
           <t>-1.44%</t>
         </is>
       </c>
+      <c r="AZ185" s="19" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="14" t="inlineStr">
@@ -35960,6 +36421,11 @@
           <t>2.11%</t>
         </is>
       </c>
+      <c r="AZ187" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="14" t="inlineStr">
@@ -36291,6 +36757,11 @@
           <t>6.24%[2.5]</t>
         </is>
       </c>
+      <c r="AZ190" s="19" t="inlineStr">
+        <is>
+          <t>-5.55%</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="14" t="inlineStr">
@@ -36665,6 +37136,11 @@
           <t>-3.85%</t>
         </is>
       </c>
+      <c r="AZ192" s="19" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="14" t="inlineStr">
@@ -36919,6 +37395,11 @@
           <t>4.81%[3.1]</t>
         </is>
       </c>
+      <c r="AZ194" s="19" t="inlineStr">
+        <is>
+          <t>-5.73%</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="14" t="inlineStr">
@@ -37081,6 +37562,11 @@
           <t>1.84%[2.3]</t>
         </is>
       </c>
+      <c r="AZ195" s="71" t="inlineStr">
+        <is>
+          <t>-7.36%</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="14" t="inlineStr">
@@ -37193,6 +37679,11 @@
           <t>-1.50%[2.6]</t>
         </is>
       </c>
+      <c r="AZ196" s="19" t="inlineStr">
+        <is>
+          <t>-4.86%</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="14" t="inlineStr">
@@ -37407,6 +37898,11 @@
           <t>-6.68%</t>
         </is>
       </c>
+      <c r="AZ198" s="19" t="inlineStr">
+        <is>
+          <t>-4.77%</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="14" t="inlineStr">
@@ -38783,6 +39279,11 @@
           <t>-6.89%</t>
         </is>
       </c>
+      <c r="AZ211" s="19" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="14" t="inlineStr">
@@ -39363,6 +39864,11 @@
           <t>-1.11%</t>
         </is>
       </c>
+      <c r="AZ216" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="14" t="inlineStr">
@@ -40294,6 +40800,11 @@
           <t>-1.51%</t>
         </is>
       </c>
+      <c r="AZ224" s="19" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="14" t="inlineStr">
@@ -40605,6 +41116,11 @@
           <t>-9.87%</t>
         </is>
       </c>
+      <c r="AZ227" s="19" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="14" t="inlineStr">
@@ -40737,6 +41253,11 @@
           <t>-2.63%</t>
         </is>
       </c>
+      <c r="AZ228" s="19" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="14" t="inlineStr">
@@ -40981,6 +41502,11 @@
           <t>1.63%</t>
         </is>
       </c>
+      <c r="AZ230" s="19" t="inlineStr">
+        <is>
+          <t>-1.17%</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="14" t="inlineStr">
@@ -41501,6 +42027,11 @@
           <t>-2.77%</t>
         </is>
       </c>
+      <c r="AZ235" s="19" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="14" t="inlineStr">
@@ -41623,6 +42154,11 @@
           <t>-4.08%</t>
         </is>
       </c>
+      <c r="AZ236" s="19" t="inlineStr">
+        <is>
+          <t>-4.54%</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="14" t="inlineStr">
@@ -41745,6 +42281,11 @@
           <t>-1.47%</t>
         </is>
       </c>
+      <c r="AZ237" s="19" t="inlineStr">
+        <is>
+          <t>-3.35%</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="14" t="inlineStr">
@@ -42183,6 +42724,11 @@
           <t>-8.54%</t>
         </is>
       </c>
+      <c r="AZ241" s="19" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="14" t="inlineStr">
@@ -42345,6 +42891,11 @@
           <t>-6.56%</t>
         </is>
       </c>
+      <c r="AZ242" s="19" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="14" t="inlineStr">
@@ -42467,6 +43018,11 @@
           <t>-9.51%</t>
         </is>
       </c>
+      <c r="AZ243" s="19" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="14" t="inlineStr">
@@ -42594,6 +43150,11 @@
           <t>-2.01%</t>
         </is>
       </c>
+      <c r="AZ244" s="43" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="14" t="inlineStr">
@@ -42703,7 +43264,7 @@
           <t>[固态电池+次新股]</t>
         </is>
       </c>
-      <c r="C246" s="36" t="inlineStr">
+      <c r="C246" s="64" t="inlineStr">
         <is>
           <t>宏工科技*</t>
         </is>
@@ -42781,6 +43342,11 @@
       <c r="AS246" s="19" t="inlineStr">
         <is>
           <t>1.76%</t>
+        </is>
+      </c>
+      <c r="AZ246" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
         </is>
       </c>
     </row>
@@ -42920,6 +43486,11 @@
           <t>3.29%</t>
         </is>
       </c>
+      <c r="AZ247" s="19" t="inlineStr">
+        <is>
+          <t>5.96%</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="14" t="inlineStr">
@@ -43313,6 +43884,11 @@
           <t>-2.29%</t>
         </is>
       </c>
+      <c r="AZ251" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="14" t="inlineStr">
@@ -43746,6 +44322,11 @@
           <t>-6.50%</t>
         </is>
       </c>
+      <c r="AZ255" s="19" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="14" t="inlineStr">
@@ -44129,6 +44710,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="AZ259" s="19" t="inlineStr">
+        <is>
+          <t>-4.48%</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="14" t="inlineStr">
@@ -44266,6 +44852,11 @@
           <t>-2.40%</t>
         </is>
       </c>
+      <c r="AZ260" s="19" t="inlineStr">
+        <is>
+          <t>-2.64%</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="14" t="inlineStr">
@@ -44373,6 +44964,11 @@
           <t>-4.51%</t>
         </is>
       </c>
+      <c r="AZ261" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="14" t="inlineStr">
@@ -44776,6 +45372,11 @@
           <t>-3.14%</t>
         </is>
       </c>
+      <c r="AZ265" s="19" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="14" t="inlineStr">
@@ -45699,6 +46300,11 @@
           <t>-10.00%</t>
         </is>
       </c>
+      <c r="AZ274" s="19" t="inlineStr">
+        <is>
+          <t>-4.83%</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="14" t="inlineStr">
@@ -45801,6 +46407,11 @@
           <t>0.11%</t>
         </is>
       </c>
+      <c r="AZ275" s="19" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="14" t="inlineStr">
@@ -45913,6 +46524,11 @@
           <t>0.38%</t>
         </is>
       </c>
+      <c r="AZ276" s="19" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="14" t="inlineStr">
@@ -46007,7 +46623,12 @@
       </c>
       <c r="AY277" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-0.34%</t>
+        </is>
+      </c>
+      <c r="AZ277" s="19" t="inlineStr">
+        <is>
+          <t>0.46%</t>
         </is>
       </c>
     </row>
@@ -46107,6 +46728,11 @@
           <t>18.88%</t>
         </is>
       </c>
+      <c r="AZ278" s="19" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="14" t="inlineStr">
@@ -46490,6 +47116,11 @@
           <t>1.31%[2.2]</t>
         </is>
       </c>
+      <c r="AZ282" s="19" t="inlineStr">
+        <is>
+          <t>-3.99%</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="14" t="inlineStr">
@@ -46587,6 +47218,11 @@
           <t>-3.89%</t>
         </is>
       </c>
+      <c r="AZ283" s="19" t="inlineStr">
+        <is>
+          <t>-5.77%</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="14" t="inlineStr">
@@ -46679,6 +47315,11 @@
           <t>1.95%</t>
         </is>
       </c>
+      <c r="AZ284" s="19" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="14" t="inlineStr">
@@ -47035,6 +47676,11 @@
           <t>-2.98%</t>
         </is>
       </c>
+      <c r="AZ287" s="19" t="inlineStr">
+        <is>
+          <t>-4.27%</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="14" t="inlineStr">
@@ -47127,6 +47773,11 @@
           <t>-10.00%</t>
         </is>
       </c>
+      <c r="AZ288" s="19" t="inlineStr">
+        <is>
+          <t>-3.38%</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="14" t="inlineStr">
@@ -47151,22 +47802,22 @@
       </c>
       <c r="G289" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="H289" s="24" t="inlineStr">
         <is>
-          <t>2板[5.7]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="I289" s="25" t="inlineStr">
         <is>
-          <t>3板[0.3]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="J289" s="28" t="inlineStr">
         <is>
-          <t>4板[0.2]</t>
+          <t>4板</t>
         </is>
       </c>
       <c r="K289" s="18" t="inlineStr">
@@ -47176,17 +47827,17 @@
       </c>
       <c r="L289" s="29" t="inlineStr">
         <is>
-          <t>6板[0.3]</t>
+          <t>6板</t>
         </is>
       </c>
       <c r="M289" s="30" t="inlineStr">
         <is>
-          <t>7板[5.1]</t>
+          <t>7板</t>
         </is>
       </c>
       <c r="O289" s="66" t="inlineStr">
         <is>
-          <t>8板[2.2]</t>
+          <t>8板</t>
         </is>
       </c>
       <c r="P289" s="67" t="inlineStr">
@@ -47292,6 +47943,11 @@
       <c r="AY289" s="19" t="inlineStr">
         <is>
           <t>-4.59%</t>
+        </is>
+      </c>
+      <c r="AZ289" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -47386,6 +48042,11 @@
           <t>-2.53%</t>
         </is>
       </c>
+      <c r="AZ290" s="43" t="inlineStr">
+        <is>
+          <t>11.31%</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="14" t="inlineStr">
@@ -47478,6 +48139,11 @@
           <t>-9.69%</t>
         </is>
       </c>
+      <c r="AZ291" s="167" t="inlineStr">
+        <is>
+          <t>-7.53%</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="14" t="inlineStr">
@@ -47570,6 +48236,11 @@
           <t>-4.89%</t>
         </is>
       </c>
+      <c r="AZ292" s="19" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="14" t="inlineStr">
@@ -47672,6 +48343,11 @@
           <t>-2.01%</t>
         </is>
       </c>
+      <c r="AZ293" s="43" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="14" t="inlineStr">
@@ -48239,6 +48915,11 @@
           <t>3.68%</t>
         </is>
       </c>
+      <c r="AZ299" s="19" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="14" t="inlineStr">
@@ -48356,6 +49037,11 @@
           <t>-3.32%</t>
         </is>
       </c>
+      <c r="AZ300" s="19" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="14" t="inlineStr">
@@ -48458,6 +49144,11 @@
           <t>2.89%</t>
         </is>
       </c>
+      <c r="AZ301" s="19" t="inlineStr">
+        <is>
+          <t>-5.29%</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="14" t="inlineStr">
@@ -48550,6 +49241,11 @@
           <t>1.90%</t>
         </is>
       </c>
+      <c r="AZ302" s="19" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="14" t="inlineStr">
@@ -48637,6 +49333,11 @@
           <t>11.95%</t>
         </is>
       </c>
+      <c r="AZ303" s="43" t="inlineStr">
+        <is>
+          <t>11.14%</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="14" t="inlineStr">
@@ -48719,6 +49420,11 @@
           <t>1.27%</t>
         </is>
       </c>
+      <c r="AZ304" s="19" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="14" t="inlineStr">
@@ -48836,6 +49542,11 @@
           <t>-6.89%</t>
         </is>
       </c>
+      <c r="AZ305" s="19" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="14" t="inlineStr">
@@ -48923,6 +49634,11 @@
           <t>-9.94%</t>
         </is>
       </c>
+      <c r="AZ306" s="19" t="inlineStr">
+        <is>
+          <t>-1.95%</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="14" t="inlineStr">
@@ -49010,6 +49726,11 @@
           <t>-2.61%</t>
         </is>
       </c>
+      <c r="AZ307" s="19" t="inlineStr">
+        <is>
+          <t>6.54%</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="14" t="inlineStr">
@@ -49102,6 +49823,11 @@
           <t>13.60%</t>
         </is>
       </c>
+      <c r="AZ308" s="19" t="inlineStr">
+        <is>
+          <t>-2.05%</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="14" t="inlineStr">
@@ -49189,6 +49915,11 @@
           <t>-2.77%</t>
         </is>
       </c>
+      <c r="AZ309" s="19" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="14" t="inlineStr">
@@ -49306,6 +50037,11 @@
           <t>3.29%</t>
         </is>
       </c>
+      <c r="AZ310" s="19" t="inlineStr">
+        <is>
+          <t>5.96%</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="14" t="inlineStr">
@@ -49383,6 +50119,11 @@
           <t>-2.64%</t>
         </is>
       </c>
+      <c r="AZ311" s="19" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="14" t="inlineStr">
@@ -49460,6 +50201,11 @@
           <t>-7.89%</t>
         </is>
       </c>
+      <c r="AZ312" s="19" t="inlineStr">
+        <is>
+          <t>3.54%</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="14" t="inlineStr">
@@ -49547,6 +50293,11 @@
           <t>-2.15%</t>
         </is>
       </c>
+      <c r="AZ313" s="19" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="14" t="inlineStr">
@@ -49649,6 +50400,11 @@
           <t>-8.40%</t>
         </is>
       </c>
+      <c r="AZ314" s="19" t="inlineStr">
+        <is>
+          <t>-6.36%</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="14" t="inlineStr">
@@ -49726,6 +50482,11 @@
           <t>0.97%</t>
         </is>
       </c>
+      <c r="AZ315" s="19" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="14" t="inlineStr">
@@ -49813,6 +50574,11 @@
           <t>0.96%</t>
         </is>
       </c>
+      <c r="AZ316" s="241" t="inlineStr">
+        <is>
+          <t>8.60%</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="14" t="inlineStr">
@@ -49890,6 +50656,11 @@
           <t>-1.91%</t>
         </is>
       </c>
+      <c r="AZ317" s="19" t="inlineStr">
+        <is>
+          <t>-4.70%</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="14" t="inlineStr">
@@ -49899,10 +50670,10 @@
       </c>
       <c r="B318" s="38" t="inlineStr">
         <is>
-          <t>[数字文创资产+IP文创+Web3.0技术]</t>
-        </is>
-      </c>
-      <c r="C318" s="16" t="inlineStr">
+          <t>[泡泡玛特合作+IP文创+数字文创资产+Web3.0技术]</t>
+        </is>
+      </c>
+      <c r="C318" s="27" t="inlineStr">
         <is>
           <t>元隆雅图</t>
         </is>
@@ -49960,6 +50731,11 @@
       <c r="AY318" s="18" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="AZ318" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
         </is>
       </c>
     </row>
@@ -50034,6 +50810,11 @@
           <t>-10.01%</t>
         </is>
       </c>
+      <c r="AZ319" s="19" t="inlineStr">
+        <is>
+          <t>-5.23%</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="14" t="inlineStr">
@@ -50106,6 +50887,11 @@
           <t>-1.60%</t>
         </is>
       </c>
+      <c r="AZ320" s="19" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="14" t="inlineStr">
@@ -50158,7 +50944,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV321" s="241" t="inlineStr">
+      <c r="AV321" s="242" t="inlineStr">
         <is>
           <t>7.97%[2.7]</t>
         </is>
@@ -50176,6 +50962,11 @@
       <c r="AY321" s="19" t="inlineStr">
         <is>
           <t>2.34%</t>
+        </is>
+      </c>
+      <c r="AZ321" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
         </is>
       </c>
     </row>
@@ -50260,6 +51051,11 @@
           <t>停牌</t>
         </is>
       </c>
+      <c r="AZ322" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="14" t="inlineStr">
@@ -50332,6 +51128,11 @@
           <t>-8.93%</t>
         </is>
       </c>
+      <c r="AZ323" s="19" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="14" t="inlineStr">
@@ -50414,6 +51215,11 @@
           <t>-8.28%</t>
         </is>
       </c>
+      <c r="AZ324" s="19" t="inlineStr">
+        <is>
+          <t>-6.71%</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="14" t="inlineStr">
@@ -50496,6 +51302,11 @@
           <t>-9.69%</t>
         </is>
       </c>
+      <c r="AZ325" s="19" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="14" t="inlineStr">
@@ -50568,6 +51379,11 @@
           <t>1.83%</t>
         </is>
       </c>
+      <c r="AZ326" s="19" t="inlineStr">
+        <is>
+          <t>-5.87%</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="14" t="inlineStr">
@@ -50640,6 +51456,11 @@
           <t>4.94%</t>
         </is>
       </c>
+      <c r="AZ327" s="19" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="14" t="inlineStr">
@@ -50707,6 +51528,11 @@
           <t>-8.29%</t>
         </is>
       </c>
+      <c r="AZ328" s="19" t="inlineStr">
+        <is>
+          <t>-3.72%</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="14" t="inlineStr">
@@ -50716,7 +51542,7 @@
       </c>
       <c r="B329" s="35" t="inlineStr">
         <is>
-          <t>[控制权变更+糖尿病首仿药]</t>
+          <t>[控制权变更+糖尿病首仿药+年报增长]</t>
         </is>
       </c>
       <c r="C329" s="27" t="inlineStr">
@@ -50777,6 +51603,11 @@
       <c r="AY329" s="29" t="inlineStr">
         <is>
           <t>6板[3.6]</t>
+        </is>
+      </c>
+      <c r="AZ329" s="30" t="inlineStr">
+        <is>
+          <t>7板[16.1]</t>
         </is>
       </c>
     </row>
@@ -50856,6 +51687,11 @@
           <t>-9.51%</t>
         </is>
       </c>
+      <c r="AZ330" s="19" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="14" t="inlineStr">
@@ -50993,6 +51829,11 @@
           <t>-10.03%</t>
         </is>
       </c>
+      <c r="AZ331" s="19" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="14" t="inlineStr">
@@ -51055,6 +51896,11 @@
           <t>3板[2.8]</t>
         </is>
       </c>
+      <c r="AZ332" s="19" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="14" t="inlineStr">
@@ -51122,6 +51968,11 @@
           <t>-2.53%</t>
         </is>
       </c>
+      <c r="AZ333" s="43" t="inlineStr">
+        <is>
+          <t>11.31%</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="14" t="inlineStr">
@@ -51194,6 +52045,11 @@
           <t>18.88%</t>
         </is>
       </c>
+      <c r="AZ334" s="19" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="14" t="inlineStr">
@@ -51271,6 +52127,11 @@
           <t>-6.50%</t>
         </is>
       </c>
+      <c r="AZ335" s="19" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="14" t="inlineStr">
@@ -51348,6 +52209,11 @@
           <t>-2.01%</t>
         </is>
       </c>
+      <c r="AZ336" s="43" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="14" t="inlineStr">
@@ -51415,6 +52281,11 @@
           <t>0.20%</t>
         </is>
       </c>
+      <c r="AZ337" s="19" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="14" t="inlineStr">
@@ -51472,6 +52343,11 @@
           <t>4板[2.6]</t>
         </is>
       </c>
+      <c r="AZ338" s="19" t="inlineStr">
+        <is>
+          <t>3.79%</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="14" t="inlineStr">
@@ -51529,6 +52405,11 @@
           <t>4板[4.8]</t>
         </is>
       </c>
+      <c r="AZ339" s="19" t="inlineStr">
+        <is>
+          <t>-1.65%[2.2]</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="14" t="inlineStr">
@@ -51586,6 +52467,11 @@
           <t>3.85%[4.3]</t>
         </is>
       </c>
+      <c r="AZ340" s="19" t="inlineStr">
+        <is>
+          <t>-4.48%</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="14" t="inlineStr">
@@ -51598,7 +52484,7 @@
           <t>[AI营销+体育产业+报业传媒+广州国企]</t>
         </is>
       </c>
-      <c r="C341" s="36" t="inlineStr">
+      <c r="C341" s="16" t="inlineStr">
         <is>
           <t>粤传媒</t>
         </is>
@@ -51641,269 +52527,294 @@
       <c r="AY341" s="25" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="AZ341" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="14" t="inlineStr">
         <is>
-          <t>603332</t>
-        </is>
-      </c>
-      <c r="B342" s="38" t="inlineStr">
-        <is>
-          <t>[涤纶+产品涨价+一季报增长]</t>
-        </is>
-      </c>
-      <c r="C342" s="65" t="inlineStr">
-        <is>
-          <t>苏州龙杰</t>
-        </is>
-      </c>
-      <c r="D342" s="61" t="inlineStr">
-        <is>
-          <t>0.17%</t>
-        </is>
-      </c>
-      <c r="AC342" s="21" t="inlineStr">
-        <is>
-          <t>首板[2.3]</t>
-        </is>
-      </c>
-      <c r="AD342" s="24" t="inlineStr">
-        <is>
-          <t>2板[0.3]</t>
-        </is>
-      </c>
-      <c r="AE342" s="25" t="inlineStr">
+          <t>600980</t>
+        </is>
+      </c>
+      <c r="B342" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+机器人+央企]</t>
+        </is>
+      </c>
+      <c r="C342" s="16" t="inlineStr">
+        <is>
+          <t>北矿科技</t>
+        </is>
+      </c>
+      <c r="D342" s="34" t="inlineStr">
+        <is>
+          <t>22.37%</t>
+        </is>
+      </c>
+      <c r="AS342" s="19" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="AT342" s="19" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="AU342" s="19" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="AV342" s="19" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="AW342" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX342" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AY342" s="25" t="inlineStr">
         <is>
           <t>3板</t>
         </is>
       </c>
-      <c r="AF342" s="28" t="inlineStr">
-        <is>
-          <t>4板[8.6]</t>
-        </is>
-      </c>
-      <c r="AG342" s="18" t="inlineStr">
-        <is>
-          <t>5板[3.9]</t>
-        </is>
-      </c>
-      <c r="AJ342" s="29" t="inlineStr">
-        <is>
-          <t>6板</t>
-        </is>
-      </c>
-      <c r="AM342" s="30" t="inlineStr">
-        <is>
-          <t>7板</t>
-        </is>
-      </c>
-      <c r="AN342" s="66" t="inlineStr">
-        <is>
-          <t>8板[0.2]</t>
-        </is>
-      </c>
-      <c r="AO342" s="67" t="inlineStr">
-        <is>
-          <t>9板</t>
-        </is>
-      </c>
-      <c r="AS342" s="19" t="inlineStr">
-        <is>
-          <t>-5.82%</t>
-        </is>
-      </c>
-      <c r="AT342" s="19" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="AU342" s="197" t="inlineStr">
-        <is>
-          <t>-7.89%</t>
-        </is>
-      </c>
-      <c r="AV342" s="19" t="inlineStr">
-        <is>
-          <t>-4.92%</t>
-        </is>
-      </c>
-      <c r="AW342" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AX342" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AY342" s="25" t="inlineStr">
-        <is>
-          <t>3板[0.1]</t>
+      <c r="AZ342" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="14" t="inlineStr">
         <is>
-          <t>301141</t>
-        </is>
-      </c>
-      <c r="B343" s="15" t="inlineStr">
-        <is>
-          <t>[稀土永磁+一季报增长+机器人概念]</t>
-        </is>
-      </c>
-      <c r="C343" s="36" t="inlineStr">
-        <is>
-          <t>中科磁业*</t>
-        </is>
-      </c>
-      <c r="D343" s="17" t="inlineStr">
-        <is>
-          <t>47.47%</t>
+          <t>603332</t>
+        </is>
+      </c>
+      <c r="B343" s="38" t="inlineStr">
+        <is>
+          <t>[涤纶+产品涨价+一季报增长]</t>
+        </is>
+      </c>
+      <c r="C343" s="65" t="inlineStr">
+        <is>
+          <t>苏州龙杰</t>
+        </is>
+      </c>
+      <c r="D343" s="61" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AC343" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AD343" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AE343" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AF343" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="AG343" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
+        </is>
+      </c>
+      <c r="AJ343" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
+        </is>
+      </c>
+      <c r="AM343" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
+        </is>
+      </c>
+      <c r="AN343" s="66" t="inlineStr">
+        <is>
+          <t>8板[0.2]</t>
+        </is>
+      </c>
+      <c r="AO343" s="67" t="inlineStr">
+        <is>
+          <t>9板</t>
         </is>
       </c>
       <c r="AS343" s="19" t="inlineStr">
         <is>
-          <t>2.42%</t>
-        </is>
-      </c>
-      <c r="AT343" s="242" t="inlineStr">
-        <is>
-          <t>9.02%[6.9]</t>
-        </is>
-      </c>
-      <c r="AU343" s="19" t="inlineStr">
-        <is>
-          <t>0.41%[2.7]</t>
+          <t>-5.82%</t>
+        </is>
+      </c>
+      <c r="AT343" s="19" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="AU343" s="197" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
         </is>
       </c>
       <c r="AV343" s="19" t="inlineStr">
         <is>
-          <t>-2.98%</t>
-        </is>
-      </c>
-      <c r="AW343" s="43" t="inlineStr">
-        <is>
-          <t>13.49%[2.8]</t>
-        </is>
-      </c>
-      <c r="AX343" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AY343" s="24" t="inlineStr">
+          <t>-4.92%</t>
+        </is>
+      </c>
+      <c r="AW343" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX343" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AY343" s="25" t="inlineStr">
+        <is>
+          <t>3板[0.1]</t>
+        </is>
+      </c>
+      <c r="AZ343" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="14" t="inlineStr">
         <is>
-          <t>300299</t>
-        </is>
-      </c>
-      <c r="B344" s="144" t="inlineStr">
-        <is>
-          <t>[参股《长安的荔枝》出品方+游戏+AI宠物]</t>
+          <t>300886</t>
+        </is>
+      </c>
+      <c r="B344" s="63" t="inlineStr">
+        <is>
+          <t>[烟草概念+香料+一季报增长+外销]</t>
         </is>
       </c>
       <c r="C344" s="36" t="inlineStr">
         <is>
-          <t>富春股份*</t>
+          <t>华业香料*</t>
         </is>
       </c>
       <c r="D344" s="34" t="inlineStr">
         <is>
-          <t>34.06%</t>
+          <t>31.60%</t>
+        </is>
+      </c>
+      <c r="AG344" s="21" t="inlineStr">
+        <is>
+          <t>首板*[6.8]</t>
         </is>
       </c>
       <c r="AS344" s="19" t="inlineStr">
         <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="AT344" s="19" t="inlineStr">
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="AT344" s="243" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="AU344" s="171" t="inlineStr">
+        <is>
+          <t>-7.02%</t>
+        </is>
+      </c>
+      <c r="AV344" s="19" t="inlineStr">
+        <is>
+          <t>5.32%</t>
+        </is>
+      </c>
+      <c r="AW344" s="19" t="inlineStr">
         <is>
           <t>2.11%</t>
         </is>
       </c>
-      <c r="AU344" s="19" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
-      <c r="AV344" s="19" t="inlineStr">
-        <is>
-          <t>-2.16%</t>
-        </is>
-      </c>
-      <c r="AW344" s="19" t="inlineStr">
-        <is>
-          <t>5.05%</t>
-        </is>
-      </c>
       <c r="AX344" s="21" t="inlineStr">
         <is>
-          <t>首板*[4.5]</t>
-        </is>
-      </c>
-      <c r="AY344" s="43" t="inlineStr">
-        <is>
-          <t>9.89%[2.7]</t>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AY344" s="19" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
+      <c r="AZ344" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="14" t="inlineStr">
         <is>
-          <t>300485</t>
-        </is>
-      </c>
-      <c r="B345" s="35" t="inlineStr">
-        <is>
-          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+          <t>301141</t>
+        </is>
+      </c>
+      <c r="B345" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+一季报增长+机器人概念]</t>
         </is>
       </c>
       <c r="C345" s="36" t="inlineStr">
         <is>
-          <t>赛升药业*</t>
-        </is>
-      </c>
-      <c r="D345" s="34" t="inlineStr">
-        <is>
-          <t>32.57%</t>
+          <t>中科磁业*</t>
+        </is>
+      </c>
+      <c r="D345" s="17" t="inlineStr">
+        <is>
+          <t>47.47%</t>
         </is>
       </c>
       <c r="AS345" s="19" t="inlineStr">
         <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="AT345" s="19" t="inlineStr">
-        <is>
-          <t>-2.05%</t>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="AT345" s="244" t="inlineStr">
+        <is>
+          <t>9.02%[6.9]</t>
         </is>
       </c>
       <c r="AU345" s="19" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>0.41%[2.7]</t>
         </is>
       </c>
       <c r="AV345" s="19" t="inlineStr">
         <is>
-          <t>-1.18%</t>
-        </is>
-      </c>
-      <c r="AW345" s="19" t="inlineStr">
-        <is>
-          <t>6.08%</t>
+          <t>-2.98%</t>
+        </is>
+      </c>
+      <c r="AW345" s="43" t="inlineStr">
+        <is>
+          <t>13.49%[2.8]</t>
         </is>
       </c>
       <c r="AX345" s="21" t="inlineStr">
@@ -51911,190 +52822,716 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AY345" s="19" t="inlineStr">
-        <is>
-          <t>2.90%[2.9]</t>
+      <c r="AY345" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AZ345" s="19" t="inlineStr">
+        <is>
+          <t>3.20%</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="14" t="inlineStr">
         <is>
-          <t>300886</t>
-        </is>
-      </c>
-      <c r="B346" s="63" t="inlineStr">
-        <is>
-          <t>[内酯系列香料+外销+产能释放]</t>
+          <t>300299</t>
+        </is>
+      </c>
+      <c r="B346" s="144" t="inlineStr">
+        <is>
+          <t>[参股《长安的荔枝》出品方+游戏+AI宠物]</t>
         </is>
       </c>
       <c r="C346" s="36" t="inlineStr">
         <is>
-          <t>华业香料*</t>
+          <t>富春股份*</t>
         </is>
       </c>
       <c r="D346" s="34" t="inlineStr">
         <is>
-          <t>31.60%</t>
-        </is>
-      </c>
-      <c r="AG346" s="21" t="inlineStr">
-        <is>
-          <t>首板*[6.8]</t>
+          <t>34.06%</t>
         </is>
       </c>
       <c r="AS346" s="19" t="inlineStr">
         <is>
-          <t>2.73%</t>
-        </is>
-      </c>
-      <c r="AT346" s="243" t="inlineStr">
-        <is>
-          <t>8.98%</t>
-        </is>
-      </c>
-      <c r="AU346" s="171" t="inlineStr">
-        <is>
-          <t>-7.02%</t>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="AT346" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="AU346" s="19" t="inlineStr">
+        <is>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="AV346" s="19" t="inlineStr">
         <is>
-          <t>5.32%</t>
+          <t>-2.16%</t>
         </is>
       </c>
       <c r="AW346" s="19" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="AX346" s="21" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AY346" s="19" t="inlineStr">
-        <is>
-          <t>-2.63%</t>
+          <t>首板*[4.5]</t>
+        </is>
+      </c>
+      <c r="AY346" s="43" t="inlineStr">
+        <is>
+          <t>9.89%[2.7]</t>
+        </is>
+      </c>
+      <c r="AZ346" s="19" t="inlineStr">
+        <is>
+          <t>-6.49%</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="14" t="inlineStr">
         <is>
-          <t>833171</t>
-        </is>
-      </c>
-      <c r="B347" s="63" t="inlineStr">
-        <is>
-          <t>[航运+战略合作+出海]</t>
-        </is>
-      </c>
-      <c r="C347" s="64" t="inlineStr">
-        <is>
-          <t>国航远洋**</t>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="B347" s="35" t="inlineStr">
+        <is>
+          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+        </is>
+      </c>
+      <c r="C347" s="36" t="inlineStr">
+        <is>
+          <t>赛升药业*</t>
         </is>
       </c>
       <c r="D347" s="34" t="inlineStr">
         <is>
-          <t>28.53%</t>
-        </is>
-      </c>
-      <c r="J347" s="21" t="inlineStr">
-        <is>
-          <t>首板**[2.3]</t>
-        </is>
-      </c>
-      <c r="AF347" s="21" t="inlineStr">
-        <is>
-          <t>首板**[2.7]</t>
+          <t>32.57%</t>
         </is>
       </c>
       <c r="AS347" s="19" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="AT347" s="19" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>-2.05%</t>
         </is>
       </c>
       <c r="AU347" s="19" t="inlineStr">
         <is>
-          <t>-3.99%</t>
+          <t>-3.33%</t>
         </is>
       </c>
       <c r="AV347" s="19" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="AW347" s="19" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AX347" s="21" t="inlineStr">
         <is>
-          <t>首板**[3.4]</t>
+          <t>首板*</t>
         </is>
       </c>
       <c r="AY347" s="19" t="inlineStr">
         <is>
-          <t>-6.68%</t>
+          <t>2.90%[2.9]</t>
+        </is>
+      </c>
+      <c r="AZ347" s="19" t="inlineStr">
+        <is>
+          <t>-3.50%</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="14" t="inlineStr">
         <is>
-          <t>600980</t>
-        </is>
-      </c>
-      <c r="B348" s="15" t="inlineStr">
-        <is>
-          <t>[稀土永磁+机器人+央企]</t>
-        </is>
-      </c>
-      <c r="C348" s="36" t="inlineStr">
-        <is>
-          <t>北矿科技</t>
+          <t>833171</t>
+        </is>
+      </c>
+      <c r="B348" s="63" t="inlineStr">
+        <is>
+          <t>[航运+战略合作+出海]</t>
+        </is>
+      </c>
+      <c r="C348" s="64" t="inlineStr">
+        <is>
+          <t>国航远洋**</t>
         </is>
       </c>
       <c r="D348" s="34" t="inlineStr">
         <is>
-          <t>33.43%</t>
+          <t>28.53%</t>
+        </is>
+      </c>
+      <c r="J348" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.3]</t>
+        </is>
+      </c>
+      <c r="AF348" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.7]</t>
+        </is>
+      </c>
+      <c r="AS348" s="19" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="AT348" s="19" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="AU348" s="19" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-3.99%</t>
         </is>
       </c>
       <c r="AV348" s="19" t="inlineStr">
         <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="AW348" s="19" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="AX348" s="21" t="inlineStr">
+        <is>
+          <t>首板**[3.4]</t>
+        </is>
+      </c>
+      <c r="AY348" s="19" t="inlineStr">
+        <is>
+          <t>-6.68%</t>
+        </is>
+      </c>
+      <c r="AZ348" s="19" t="inlineStr">
+        <is>
+          <t>-4.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="14" t="inlineStr">
+        <is>
+          <t>301110</t>
+        </is>
+      </c>
+      <c r="B349" s="93" t="inlineStr">
+        <is>
+          <t>[泡泡玛特代运营服务商+电商+AI智能体]</t>
+        </is>
+      </c>
+      <c r="C349" s="36" t="inlineStr">
+        <is>
+          <t>青木科技*</t>
+        </is>
+      </c>
+      <c r="D349" s="34" t="inlineStr">
+        <is>
+          <t>28.27%</t>
+        </is>
+      </c>
+      <c r="AT349" s="19" t="inlineStr">
+        <is>
+          <t>5.76%</t>
+        </is>
+      </c>
+      <c r="AU349" s="19" t="inlineStr">
+        <is>
+          <t>-0.86%</t>
+        </is>
+      </c>
+      <c r="AV349" s="19" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
+      </c>
+      <c r="AW349" s="19" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="AX349" s="19" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="AY349" s="21" t="inlineStr">
+        <is>
+          <t>首板*[5.2]</t>
+        </is>
+      </c>
+      <c r="AZ349" s="24" t="inlineStr">
+        <is>
+          <t>2板[3.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="14" t="inlineStr">
+        <is>
+          <t>600250</t>
+        </is>
+      </c>
+      <c r="B350" s="38" t="inlineStr">
+        <is>
+          <t>[南京旅游+低空经济+国企]</t>
+        </is>
+      </c>
+      <c r="C350" s="36" t="inlineStr">
+        <is>
+          <t>南京商旅</t>
+        </is>
+      </c>
+      <c r="D350" s="17" t="inlineStr">
+        <is>
+          <t>60.91%</t>
+        </is>
+      </c>
+      <c r="P350" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AS350" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.9]</t>
+        </is>
+      </c>
+      <c r="AU350" s="19" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="AV350" s="19" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="AW350" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX350" s="19" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="AY350" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AZ350" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="14" t="inlineStr">
+        <is>
+          <t>600530</t>
+        </is>
+      </c>
+      <c r="B351" s="38" t="inlineStr">
+        <is>
+          <t>[保健品+宠物经济+控股权变更]</t>
+        </is>
+      </c>
+      <c r="C351" s="16" t="inlineStr">
+        <is>
+          <t>交大昂立</t>
+        </is>
+      </c>
+      <c r="D351" s="61" t="inlineStr">
+        <is>
+          <t>18.95%</t>
+        </is>
+      </c>
+      <c r="AC351" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AE351" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AF351" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AG351" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="AI351" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
+        </is>
+      </c>
+      <c r="AO351" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AS351" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AU351" s="19" t="inlineStr">
+        <is>
+          <t>-3.09%</t>
+        </is>
+      </c>
+      <c r="AV351" s="19" t="inlineStr">
+        <is>
+          <t>-3.68%</t>
+        </is>
+      </c>
+      <c r="AW351" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX351" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AY351" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="AZ351" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="14" t="inlineStr">
+        <is>
+          <t>603139</t>
+        </is>
+      </c>
+      <c r="B352" s="38" t="inlineStr">
+        <is>
+          <t>[中药+创新驱动+控制权变更]</t>
+        </is>
+      </c>
+      <c r="C352" s="36" t="inlineStr">
+        <is>
+          <t>康惠制药</t>
+        </is>
+      </c>
+      <c r="D352" s="17" t="inlineStr">
+        <is>
+          <t>40.48%</t>
+        </is>
+      </c>
+      <c r="M352" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AU352" s="19" t="inlineStr">
+        <is>
+          <t>-2.17%</t>
+        </is>
+      </c>
+      <c r="AV352" s="19" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="AW352" s="19" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="AX352" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AY352" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AZ352" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="14" t="inlineStr">
+        <is>
+          <t>603787</t>
+        </is>
+      </c>
+      <c r="B353" s="38" t="inlineStr">
+        <is>
+          <t>[电动两轮车+职业培训+海外产能布局]</t>
+        </is>
+      </c>
+      <c r="C353" s="36" t="inlineStr">
+        <is>
+          <t>新日股份</t>
+        </is>
+      </c>
+      <c r="D353" s="34" t="inlineStr">
+        <is>
+          <t>33.28%</t>
+        </is>
+      </c>
+      <c r="AU353" s="19" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
+      <c r="AV353" s="19" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="AW353" s="19" t="inlineStr">
+        <is>
           <t>0.35%</t>
         </is>
       </c>
-      <c r="AW348" s="21" t="inlineStr">
+      <c r="AX353" s="21" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AX348" s="24" t="inlineStr">
+      <c r="AY353" s="24" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="AY348" s="25" t="inlineStr">
+      <c r="AZ353" s="25" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="14" t="inlineStr">
+        <is>
+          <t>600281</t>
+        </is>
+      </c>
+      <c r="B354" s="38" t="inlineStr">
+        <is>
+          <t>[稀土永磁+贵金属回收+山西国资+一季报同比扭亏]</t>
+        </is>
+      </c>
+      <c r="C354" s="64" t="inlineStr">
+        <is>
+          <t>华阳新材</t>
+        </is>
+      </c>
+      <c r="D354" s="34" t="inlineStr">
+        <is>
+          <t>26.44%</t>
+        </is>
+      </c>
+      <c r="W354" s="21" t="inlineStr">
+        <is>
+          <t>首板[4.7]</t>
+        </is>
+      </c>
+      <c r="X354" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.8]</t>
+        </is>
+      </c>
+      <c r="Z354" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AD354" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AH354" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AI354" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AU354" s="19" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="AV354" s="19" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="AW354" s="245" t="inlineStr">
+        <is>
+          <t>8.20%[2.2]</t>
+        </is>
+      </c>
+      <c r="AX354" s="19" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
+        </is>
+      </c>
+      <c r="AY354" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AZ354" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="14" t="inlineStr">
+        <is>
+          <t>600366</t>
+        </is>
+      </c>
+      <c r="B355" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+人形机器人+新能源汽车]</t>
+        </is>
+      </c>
+      <c r="C355" s="36" t="inlineStr">
+        <is>
+          <t>宁波韵升</t>
+        </is>
+      </c>
+      <c r="D355" s="34" t="inlineStr">
+        <is>
+          <t>32.29%</t>
+        </is>
+      </c>
+      <c r="AU355" s="19" t="inlineStr">
+        <is>
+          <t>4.23%[3.7]</t>
+        </is>
+      </c>
+      <c r="AV355" s="19" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="AW355" s="19" t="inlineStr">
+        <is>
+          <t>4.10%</t>
+        </is>
+      </c>
+      <c r="AX355" s="19" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="AY355" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.9]</t>
+        </is>
+      </c>
+      <c r="AZ355" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="14" t="inlineStr">
+        <is>
+          <t>301662</t>
+        </is>
+      </c>
+      <c r="B356" s="26" t="inlineStr">
+        <is>
+          <t>[固态电池+次新股]</t>
+        </is>
+      </c>
+      <c r="C356" s="64" t="inlineStr">
+        <is>
+          <t>宏工科技*</t>
+        </is>
+      </c>
+      <c r="D356" s="61" t="inlineStr">
+        <is>
+          <t>12.11%</t>
+        </is>
+      </c>
+      <c r="AK356" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AU356" s="19" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="AV356" s="19" t="inlineStr">
+        <is>
+          <t>5.87%</t>
+        </is>
+      </c>
+      <c r="AW356" s="19" t="inlineStr">
+        <is>
+          <t>5.12%</t>
+        </is>
+      </c>
+      <c r="AX356" s="19" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="AY356" s="19" t="inlineStr">
+        <is>
+          <t>-4.28%</t>
+        </is>
+      </c>
+      <c r="AZ356" s="21" t="inlineStr">
+        <is>
+          <t>首板*</t>
         </is>
       </c>
     </row>
@@ -52110,7 +53547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52123,436 +53560,446 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="244" t="inlineStr">
+      <c r="A1" s="246" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="245" t="n"/>
+      <c r="B1" s="247" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="246" t="inlineStr">
+      <c r="A2" s="248" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="246" t="inlineStr">
+      <c r="B2" s="248" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="247" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>港口航运</t>
         </is>
       </c>
-      <c r="B3" s="245" t="n">
+      <c r="B3" s="247" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="248" t="inlineStr">
+      <c r="A4" s="250" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B4" s="245" t="n">
+      <c r="B4" s="247" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="249" t="inlineStr">
+      <c r="A5" s="251" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B5" s="245" t="n">
-        <v>39</v>
+      <c r="B5" s="247" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="250" t="inlineStr">
-        <is>
-          <t>传统消费</t>
-        </is>
-      </c>
-      <c r="B6" s="245" t="n">
-        <v>37</v>
+      <c r="A6" s="252" t="inlineStr">
+        <is>
+          <t>新能源</t>
+        </is>
+      </c>
+      <c r="B6" s="247" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="251" t="inlineStr">
-        <is>
-          <t>新能源</t>
-        </is>
-      </c>
-      <c r="B7" s="245" t="n">
-        <v>36</v>
+      <c r="A7" s="253" t="inlineStr">
+        <is>
+          <t>传统消费</t>
+        </is>
+      </c>
+      <c r="B7" s="247" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="252" t="inlineStr">
+      <c r="A8" s="254" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B8" s="245" t="n">
+      <c r="B8" s="247" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="253" t="inlineStr">
+      <c r="A9" s="255" t="inlineStr">
         <is>
           <t>无人经济</t>
         </is>
       </c>
-      <c r="B9" s="245" t="n">
+      <c r="B9" s="247" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="254" t="inlineStr">
+      <c r="A10" s="256" t="inlineStr">
         <is>
           <t>AI大模型</t>
         </is>
       </c>
-      <c r="B10" s="245" t="n">
-        <v>29</v>
+      <c r="B10" s="247" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="255" t="inlineStr">
+      <c r="A11" s="257" t="inlineStr">
         <is>
           <t>核聚变</t>
         </is>
       </c>
-      <c r="B11" s="245" t="n">
+      <c r="B11" s="247" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="246" t="inlineStr">
+      <c r="A12" s="248" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="245" t="n"/>
+      <c r="B12" s="247" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="245" t="inlineStr">
+      <c r="A13" s="247" t="inlineStr">
         <is>
           <t>化工</t>
         </is>
       </c>
-      <c r="B13" s="245" t="n">
+      <c r="B13" s="247" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="245" t="inlineStr">
+      <c r="A14" s="247" t="inlineStr">
         <is>
           <t>半导体</t>
         </is>
       </c>
-      <c r="B14" s="245" t="n">
+      <c r="B14" s="247" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="245" t="inlineStr">
-        <is>
-          <t>数字经济</t>
-        </is>
-      </c>
-      <c r="B15" s="245" t="n">
-        <v>20</v>
+      <c r="A15" s="247" t="inlineStr">
+        <is>
+          <t>新消费</t>
+        </is>
+      </c>
+      <c r="B15" s="247" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="245" t="inlineStr">
-        <is>
-          <t>新消费</t>
-        </is>
-      </c>
-      <c r="B16" s="245" t="n">
-        <v>19</v>
+      <c r="A16" s="247" t="inlineStr">
+        <is>
+          <t>数字经济</t>
+        </is>
+      </c>
+      <c r="B16" s="247" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="245" t="inlineStr">
+      <c r="A17" s="247" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B17" s="245" t="n">
+      <c r="B17" s="247" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="245" t="inlineStr">
+      <c r="A18" s="247" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B18" s="245" t="n">
+      <c r="B18" s="247" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="245" t="inlineStr">
-        <is>
-          <t>AI算力</t>
-        </is>
-      </c>
-      <c r="B19" s="245" t="n">
-        <v>12</v>
+      <c r="A19" s="247" t="inlineStr">
+        <is>
+          <t>新型材料</t>
+        </is>
+      </c>
+      <c r="B19" s="247" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="245" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="B20" s="245" t="n">
-        <v>12</v>
+      <c r="A20" s="247" t="inlineStr">
+        <is>
+          <t>重组</t>
+        </is>
+      </c>
+      <c r="B20" s="247" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="245" t="inlineStr">
-        <is>
-          <t>新型材料</t>
-        </is>
-      </c>
-      <c r="B21" s="245" t="n">
+      <c r="A21" s="247" t="inlineStr">
+        <is>
+          <t>AI算力</t>
+        </is>
+      </c>
+      <c r="B21" s="247" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="245" t="inlineStr">
-        <is>
-          <t>重组</t>
-        </is>
-      </c>
-      <c r="B22" s="245" t="n">
+      <c r="A22" s="247" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+      <c r="B22" s="247" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="245" t="inlineStr">
+      <c r="A23" s="247" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B23" s="245" t="n">
+      <c r="B23" s="247" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="245" t="inlineStr">
+      <c r="A24" s="247" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="245" t="n">
+      <c r="B24" s="247" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="245" t="inlineStr">
+      <c r="A25" s="247" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B25" s="245" t="n">
+      <c r="B25" s="247" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="245" t="inlineStr">
+      <c r="A26" s="247" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="245" t="n">
+      <c r="B26" s="247" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="245" t="inlineStr">
+      <c r="A27" s="247" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="245" t="n">
-        <v>8</v>
+      <c r="B27" s="247" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="245" t="inlineStr">
+      <c r="A28" s="247" t="inlineStr">
         <is>
           <t>体育产业</t>
         </is>
       </c>
-      <c r="B28" s="245" t="n">
+      <c r="B28" s="247" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="245" t="inlineStr">
+      <c r="A29" s="247" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B29" s="245" t="n">
+      <c r="B29" s="247" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="245" t="inlineStr">
-        <is>
-          <t>小米概念</t>
-        </is>
-      </c>
-      <c r="B30" s="245" t="n">
+      <c r="A30" s="247" t="inlineStr">
+        <is>
+          <t>旅游</t>
+        </is>
+      </c>
+      <c r="B30" s="247" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="246" t="inlineStr">
-        <is>
-          <t>排除的概念</t>
-        </is>
-      </c>
-      <c r="B31" s="245" t="n"/>
+      <c r="A31" s="247" t="inlineStr">
+        <is>
+          <t>小米概念</t>
+        </is>
+      </c>
+      <c r="B31" s="247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="245" t="inlineStr">
-        <is>
-          <t>业绩增长</t>
-        </is>
-      </c>
-      <c r="B32" s="245" t="n">
-        <v>44</v>
-      </c>
+      <c r="A32" s="248" t="inlineStr">
+        <is>
+          <t>排除的概念</t>
+        </is>
+      </c>
+      <c r="B32" s="247" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="245" t="inlineStr">
-        <is>
-          <t>扭亏为盈</t>
-        </is>
-      </c>
-      <c r="B33" s="245" t="n">
-        <v>16</v>
+      <c r="A33" s="247" t="inlineStr">
+        <is>
+          <t>业绩增长</t>
+        </is>
+      </c>
+      <c r="B33" s="247" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="245" t="inlineStr">
-        <is>
-          <t>国企</t>
-        </is>
-      </c>
-      <c r="B34" s="245" t="n">
-        <v>71</v>
+      <c r="A34" s="247" t="inlineStr">
+        <is>
+          <t>扭亏为盈</t>
+        </is>
+      </c>
+      <c r="B34" s="247" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="256" t="inlineStr">
-        <is>
-          <t>多次上榜</t>
-        </is>
-      </c>
-      <c r="B35" s="245" t="n"/>
+      <c r="A35" s="247" t="inlineStr">
+        <is>
+          <t>国企</t>
+        </is>
+      </c>
+      <c r="B35" s="247" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="246" t="inlineStr">
-        <is>
-          <t>高板数颜色</t>
-        </is>
-      </c>
-      <c r="B36" s="245" t="n"/>
+      <c r="A36" s="258" t="inlineStr">
+        <is>
+          <t>多次上榜</t>
+        </is>
+      </c>
+      <c r="B36" s="247" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="257" t="inlineStr">
-        <is>
-          <t>4板</t>
-        </is>
-      </c>
-      <c r="B37" s="245" t="n"/>
+      <c r="A37" s="248" t="inlineStr">
+        <is>
+          <t>高板数颜色</t>
+        </is>
+      </c>
+      <c r="B37" s="247" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="258" t="inlineStr">
-        <is>
-          <t>6板</t>
-        </is>
-      </c>
-      <c r="B38" s="245" t="n"/>
+      <c r="A38" s="259" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="B38" s="247" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="259" t="inlineStr">
-        <is>
-          <t>8板</t>
-        </is>
-      </c>
-      <c r="B39" s="245" t="n"/>
+      <c r="A39" s="260" t="inlineStr">
+        <is>
+          <t>6板</t>
+        </is>
+      </c>
+      <c r="B39" s="247" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="260" t="inlineStr">
-        <is>
-          <t>10板</t>
-        </is>
-      </c>
-      <c r="B40" s="245" t="n"/>
+      <c r="A40" s="261" t="inlineStr">
+        <is>
+          <t>8板</t>
+        </is>
+      </c>
+      <c r="B40" s="247" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="261" t="inlineStr">
-        <is>
-          <t>12板</t>
-        </is>
-      </c>
-      <c r="B41" s="245" t="n"/>
+      <c r="A41" s="262" t="inlineStr">
+        <is>
+          <t>10板</t>
+        </is>
+      </c>
+      <c r="B41" s="247" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="262" t="inlineStr">
-        <is>
-          <t>14板及以上</t>
-        </is>
-      </c>
-      <c r="B42" s="245" t="n"/>
+      <c r="A42" s="263" t="inlineStr">
+        <is>
+          <t>12板</t>
+        </is>
+      </c>
+      <c r="B42" s="247" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="246" t="inlineStr">
-        <is>
-          <t>重复入选颜色</t>
-        </is>
-      </c>
-      <c r="B43" s="245" t="n"/>
+      <c r="A43" s="264" t="inlineStr">
+        <is>
+          <t>14板及以上</t>
+        </is>
+      </c>
+      <c r="B43" s="247" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="263" t="inlineStr">
-        <is>
-          <t>2次入选</t>
-        </is>
-      </c>
-      <c r="B44" s="245" t="n"/>
+      <c r="A44" s="248" t="inlineStr">
+        <is>
+          <t>重复入选颜色</t>
+        </is>
+      </c>
+      <c r="B44" s="247" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="264" t="inlineStr">
-        <is>
-          <t>3次入选</t>
-        </is>
-      </c>
-      <c r="B45" s="245" t="n"/>
+      <c r="A45" s="265" t="inlineStr">
+        <is>
+          <t>2次入选</t>
+        </is>
+      </c>
+      <c r="B45" s="247" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="265" t="inlineStr">
+      <c r="A46" s="266" t="inlineStr">
+        <is>
+          <t>3次入选</t>
+        </is>
+      </c>
+      <c r="B46" s="247" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="267" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B46" s="245" t="n"/>
+      <c r="B47" s="247" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/ladder_analysis.xlsx
+++ b/excel/ladder_analysis.xlsx
@@ -51,7 +51,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="238">
+  <fills count="245">
     <fill>
       <patternFill/>
     </fill>
@@ -354,6 +354,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ECFFEC"/>
         <bgColor rgb="00ECFFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FFF4"/>
+        <bgColor rgb="00F4FFF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -871,6 +877,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC6"/>
+        <bgColor rgb="00FFFFC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="009CFF9C"/>
         <bgColor rgb="009CFF9C"/>
       </patternFill>
@@ -903,12 +915,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="007BFF7B"/>
         <bgColor rgb="007BFF7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFC6"/>
-        <bgColor rgb="00FFFFC6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1005,12 +1011,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00A8FFA8"/>
         <bgColor rgb="00A8FFA8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FFF4"/>
-        <bgColor rgb="00F4FFF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1118,6 +1118,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF73"/>
         <bgColor rgb="00FFFF73"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BFF9B"/>
+        <bgColor rgb="009BFF9B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1344,6 +1350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D7FFD7"/>
+        <bgColor rgb="00D7FFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ADFFAD"/>
         <bgColor rgb="00ADFFAD"/>
       </patternFill>
@@ -1370,6 +1382,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DBFFDB"/>
         <bgColor rgb="00DBFFDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAFFCA"/>
+        <bgColor rgb="00CAFFCA"/>
       </patternFill>
     </fill>
     <fill>
@@ -1410,6 +1428,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F6FFF6"/>
+        <bgColor rgb="00F6FFF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF5E"/>
         <bgColor rgb="00FFFF5E"/>
       </patternFill>
@@ -1428,8 +1452,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0071FF71"/>
+        <bgColor rgb="0071FF71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF42"/>
         <bgColor rgb="00FFFF42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8E"/>
+        <bgColor rgb="00FFFF8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0061FF61"/>
+        <bgColor rgb="0061FF61"/>
       </patternFill>
     </fill>
     <fill>
@@ -1477,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1649,20 +1691,20 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="58" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="59" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1708,13 +1750,13 @@
     <xf numFmtId="0" fontId="0" fillId="74" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="76" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="77" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="78" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1733,13 +1775,13 @@
     <xf numFmtId="0" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1757,11 +1799,11 @@
     <xf numFmtId="0" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1817,13 +1859,13 @@
     <xf numFmtId="0" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1859,10 +1901,10 @@
     <xf numFmtId="0" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1886,14 +1928,14 @@
     <xf numFmtId="0" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2192,29 +2234,50 @@
     <xf numFmtId="0" fontId="0" fillId="235" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="236" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="238" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="240" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="241" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="242" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="54" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="55" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="84" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="112" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="85" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="113" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="236" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="243" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="170" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="76" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="170" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="75" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="244" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5570,6 +5633,14 @@
 开板次数: 3</t>
       </text>
     </comment>
+    <comment ref="BA140" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:40:08 
+最终涨停: 13:34:38 
+开板次数: 9</t>
+      </text>
+    </comment>
     <comment ref="W141" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9858,6 +9929,14 @@
 开板次数: 2</t>
       </text>
     </comment>
+    <comment ref="BA318" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 
+首次涨停: 14:53:30 
+最终涨停: 14:53:30 
+开板次数: 0</t>
+      </text>
+    </comment>
     <comment ref="AT319" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -9890,6 +9969,14 @@
 开板次数: 0</t>
       </text>
     </comment>
+    <comment ref="BA319" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 
+首次涨停: 11:25:03 
+最终涨停: 14:56:15 
+开板次数: 2</t>
+      </text>
+    </comment>
     <comment ref="AR320" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
@@ -10333,12 +10420,28 @@
     <comment ref="AX341" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
+首次涨停: 09:25:00 
+最终涨停: 11:03:42 
+开板次数: 4</t>
+      </text>
+    </comment>
+    <comment ref="BA341" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 
+首次涨停: 13:58:51 
+最终涨停: 13:58:51 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AX342" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
 首次涨停: 09:44:54 
 最终涨停: 14:11:24 
 开板次数: 20</t>
       </text>
     </comment>
-    <comment ref="AY341" authorId="0" shapeId="0">
+    <comment ref="AY342" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:30:21 
@@ -10346,7 +10449,7 @@
 开板次数: 4</t>
       </text>
     </comment>
-    <comment ref="AZ341" authorId="0" shapeId="0">
+    <comment ref="AZ342" authorId="0" shapeId="0">
       <text>
         <t>4天4板 
 首次涨停: 09:31:24 
@@ -10354,7 +10457,7 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="AX342" authorId="0" shapeId="0">
+    <comment ref="AX343" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10362,7 +10465,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY342" authorId="0" shapeId="0">
+    <comment ref="AY343" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:00 
@@ -10370,7 +10473,7 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="AZ342" authorId="0" shapeId="0">
+    <comment ref="AZ343" authorId="0" shapeId="0">
       <text>
         <t>4天4板 
 首次涨停: 09:25:01 
@@ -10378,7 +10481,15 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AD343" authorId="0" shapeId="0">
+    <comment ref="BA343" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 
+首次涨停: 09:25:03 
+最终涨停: 09:25:03 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD344" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10386,7 +10497,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AE343" authorId="0" shapeId="0">
+    <comment ref="AE344" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:03 
@@ -10394,7 +10505,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AF343" authorId="0" shapeId="0">
+    <comment ref="AF344" authorId="0" shapeId="0">
       <text>
         <t>4天4板 
 首次涨停: 09:25:03 
@@ -10402,7 +10513,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AG343" authorId="0" shapeId="0">
+    <comment ref="AG344" authorId="0" shapeId="0">
       <text>
         <t>5天5板 
 首次涨停: 10:39:13 
@@ -10410,7 +10521,7 @@
 开板次数: 12</t>
       </text>
     </comment>
-    <comment ref="AJ343" authorId="0" shapeId="0">
+    <comment ref="AJ344" authorId="0" shapeId="0">
       <text>
         <t>8天6板 
 首次涨停: 13:43:52 
@@ -10418,7 +10529,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AM343" authorId="0" shapeId="0">
+    <comment ref="AM344" authorId="0" shapeId="0">
       <text>
         <t>11天7板 
 首次涨停: 10:01:43 
@@ -10426,7 +10537,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AN343" authorId="0" shapeId="0">
+    <comment ref="AN344" authorId="0" shapeId="0">
       <text>
         <t>12天8板 
 首次涨停: 09:25:02 
@@ -10434,7 +10545,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AO343" authorId="0" shapeId="0">
+    <comment ref="AO344" authorId="0" shapeId="0">
       <text>
         <t>13天9板 
 首次涨停: 09:44:22 
@@ -10442,7 +10553,7 @@
 开板次数: 6</t>
       </text>
     </comment>
-    <comment ref="AX343" authorId="0" shapeId="0">
+    <comment ref="AX344" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:40:44 
@@ -10450,7 +10561,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AY343" authorId="0" shapeId="0">
+    <comment ref="AY344" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:00 
@@ -10458,7 +10569,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AZ344" authorId="0" shapeId="0">
+    <comment ref="AZ345" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
 首次涨停: 14:23:30 
@@ -10466,7 +10577,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY345" authorId="0" shapeId="0">
+    <comment ref="AY346" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 10:48:21 
@@ -10474,7 +10585,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AZ349" authorId="0" shapeId="0">
+    <comment ref="AZ350" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 14:31:21 
@@ -10482,7 +10593,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AY350" authorId="0" shapeId="0">
+    <comment ref="AY351" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
 首次涨停: 13:00:53 
@@ -10490,7 +10601,7 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="AZ350" authorId="0" shapeId="0">
+    <comment ref="AZ351" authorId="0" shapeId="0">
       <text>
         <t>4天3板 
 首次涨停: 09:42:02 
@@ -10498,7 +10609,7 @@
 开板次数: 3</t>
       </text>
     </comment>
-    <comment ref="AE351" authorId="0" shapeId="0">
+    <comment ref="AE352" authorId="0" shapeId="0">
       <text>
         <t>3天2板 
 首次涨停: 09:40:22 
@@ -10506,7 +10617,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AF351" authorId="0" shapeId="0">
+    <comment ref="AF352" authorId="0" shapeId="0">
       <text>
         <t>4天3板 
 首次涨停: 09:37:39 
@@ -10514,7 +10625,7 @@
 开板次数: 6</t>
       </text>
     </comment>
-    <comment ref="AG351" authorId="0" shapeId="0">
+    <comment ref="AG352" authorId="0" shapeId="0">
       <text>
         <t>5天4板 
 首次涨停: 09:31:35 
@@ -10522,7 +10633,7 @@
 开板次数: 12</t>
       </text>
     </comment>
-    <comment ref="AI351" authorId="0" shapeId="0">
+    <comment ref="AI352" authorId="0" shapeId="0">
       <text>
         <t>7天5板 
 首次涨停: 13:06:13 
@@ -10530,7 +10641,7 @@
 开板次数: 4</t>
       </text>
     </comment>
-    <comment ref="AX351" authorId="0" shapeId="0">
+    <comment ref="AX352" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 10:26:08 
@@ -10538,7 +10649,7 @@
 开板次数: 20</t>
       </text>
     </comment>
-    <comment ref="AZ351" authorId="0" shapeId="0">
+    <comment ref="AZ352" authorId="0" shapeId="0">
       <text>
         <t>4天3板 
 首次涨停: 09:39:15 
@@ -10546,7 +10657,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY352" authorId="0" shapeId="0">
+    <comment ref="AY353" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:03 
@@ -10554,7 +10665,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AZ352" authorId="0" shapeId="0">
+    <comment ref="AZ353" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:25:02 
@@ -10562,7 +10673,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AY353" authorId="0" shapeId="0">
+    <comment ref="AY354" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:01 
@@ -10570,7 +10681,7 @@
 开板次数: 0</t>
       </text>
     </comment>
-    <comment ref="AZ353" authorId="0" shapeId="0">
+    <comment ref="AZ354" authorId="0" shapeId="0">
       <text>
         <t>3天3板 
 首次涨停: 09:34:53 
@@ -10578,7 +10689,23 @@
 开板次数: 4</t>
       </text>
     </comment>
-    <comment ref="X354" authorId="0" shapeId="0">
+    <comment ref="AZ355" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:30:15 
+最终涨停: 09:45:12 
+开板次数: 2</t>
+      </text>
+    </comment>
+    <comment ref="BA355" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:41:42 
+最终涨停: 09:41:42 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="X356" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:38:05 
@@ -10586,7 +10713,7 @@
 开板次数: 1</t>
       </text>
     </comment>
-    <comment ref="Z354" authorId="0" shapeId="0">
+    <comment ref="Z356" authorId="0" shapeId="0">
       <text>
         <t>4天3板 
 首次涨停: 09:37:39 
@@ -10594,7 +10721,7 @@
 开板次数: 2</t>
       </text>
     </comment>
-    <comment ref="AI354" authorId="0" shapeId="0">
+    <comment ref="AI356" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:44:04 
@@ -10602,7 +10729,7 @@
 开板次数: 4</t>
       </text>
     </comment>
-    <comment ref="AZ354" authorId="0" shapeId="0">
+    <comment ref="AZ356" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 09:25:02 
@@ -10610,11 +10737,51 @@
 开板次数: 3</t>
       </text>
     </comment>
-    <comment ref="AZ355" authorId="0" shapeId="0">
+    <comment ref="BA356" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:40:08 
+最终涨停: 13:34:38 
+开板次数: 9</t>
+      </text>
+    </comment>
+    <comment ref="AZ357" authorId="0" shapeId="0">
       <text>
         <t>2天2板 
 首次涨停: 11:07:26 
 最终涨停: 11:07:26 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AZ359" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="BA359" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 
+首次涨停: 09:25:02 
+最终涨停: 09:25:02 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AB360" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 
+首次涨停: 14:43:41 
+最终涨停: 14:43:41 
+开板次数: 0</t>
+      </text>
+    </comment>
+    <comment ref="AD360" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 
+首次涨停: 14:41:15 
+最终涨停: 14:41:15 
 开板次数: 0</t>
       </text>
     </comment>
@@ -10911,7 +11078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA356"/>
+  <dimension ref="A1:BB361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -10974,6 +11141,7 @@
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -11285,6 +11453,12 @@
 星期四</t>
         </is>
       </c>
+      <c r="BA1" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13
+星期五</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="4" t="inlineStr">
@@ -11530,6 +11704,11 @@
       <c r="AZ2" s="6" t="inlineStr">
         <is>
           <t>0.26%</t>
+        </is>
+      </c>
+      <c r="BA2" s="7" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11961,12 @@
           <t>214.02</t>
         </is>
       </c>
-      <c r="BA3" s="11" t="n"/>
+      <c r="BA3" s="13" t="inlineStr">
+        <is>
+          <t>241.78</t>
+        </is>
+      </c>
+      <c r="BB3" s="11" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -12000,6 +12184,11 @@
           <t>4.82%</t>
         </is>
       </c>
+      <c r="BA4" s="19" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -12309,6 +12498,11 @@
           <t>2.61%</t>
         </is>
       </c>
+      <c r="BA6" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="inlineStr">
@@ -12571,6 +12765,11 @@
           <t>0.41%</t>
         </is>
       </c>
+      <c r="BA7" s="19" t="inlineStr">
+        <is>
+          <t>-4.38%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
@@ -13647,6 +13846,11 @@
           <t>-1.44%</t>
         </is>
       </c>
+      <c r="BA15" s="19" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="inlineStr">
@@ -13729,6 +13933,11 @@
           <t>4.40%[2.8]</t>
         </is>
       </c>
+      <c r="BA16" s="19" t="inlineStr">
+        <is>
+          <t>-3.95%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="inlineStr">
@@ -14053,6 +14262,11 @@
           <t>3.92%</t>
         </is>
       </c>
+      <c r="BA18" s="63" t="inlineStr">
+        <is>
+          <t>-7.18%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="inlineStr">
@@ -14060,12 +14274,12 @@
           <t>600571</t>
         </is>
       </c>
-      <c r="B19" s="63" t="inlineStr">
+      <c r="B19" s="64" t="inlineStr">
         <is>
           <t>[跨境支付+金融科技+AI智能体+此前因Pika大涨]</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="C19" s="65" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
@@ -14232,7 +14446,7 @@
           <t>[星空科技入主+半导体装备]</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="C20" s="66" t="inlineStr">
         <is>
           <t>中旗新材</t>
         </is>
@@ -14307,12 +14521,12 @@
           <t>-5.78%</t>
         </is>
       </c>
-      <c r="R20" s="66" t="inlineStr">
+      <c r="R20" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="S20" s="67" t="inlineStr">
+      <c r="S20" s="68" t="inlineStr">
         <is>
           <t>9板[0.4]</t>
         </is>
@@ -14342,7 +14556,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="Y20" s="68" t="inlineStr">
+      <c r="Y20" s="69" t="inlineStr">
         <is>
           <t>-8.48%</t>
         </is>
@@ -14387,7 +14601,7 @@
           <t>1.02%</t>
         </is>
       </c>
-      <c r="AH20" s="69" t="inlineStr">
+      <c r="AH20" s="70" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
@@ -14574,6 +14788,11 @@
           <t>-0.96%</t>
         </is>
       </c>
+      <c r="BA21" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="inlineStr">
@@ -14671,7 +14890,7 @@
           <t>5.63%</t>
         </is>
       </c>
-      <c r="T22" s="70" t="inlineStr">
+      <c r="T22" s="71" t="inlineStr">
         <is>
           <t>-7.51%</t>
         </is>
@@ -14784,6 +15003,11 @@
       <c r="AZ22" s="19" t="inlineStr">
         <is>
           <t>2.31%</t>
+        </is>
+      </c>
+      <c r="BA22" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -14798,7 +15022,7 @@
           <t>[资产注入预期+获赔4702万+新能源+江苏国资]</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="C23" s="65" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -14843,7 +15067,7 @@
           <t>1.20%</t>
         </is>
       </c>
-      <c r="L23" s="71" t="inlineStr">
+      <c r="L23" s="72" t="inlineStr">
         <is>
           <t>-7.37%</t>
         </is>
@@ -14985,7 +15209,7 @@
           <t>[并购重组+电力+光伏]</t>
         </is>
       </c>
-      <c r="C24" s="64" t="inlineStr">
+      <c r="C24" s="65" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
@@ -15010,7 +15234,7 @@
           <t>2板[3.4]</t>
         </is>
       </c>
-      <c r="H24" s="72" t="inlineStr">
+      <c r="H24" s="73" t="inlineStr">
         <is>
           <t>8.42%[3.4]</t>
         </is>
@@ -15173,6 +15397,11 @@
       <c r="AZ24" s="19" t="inlineStr">
         <is>
           <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="BA24" s="19" t="inlineStr">
+        <is>
+          <t>-4.62%</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15486,7 @@
           <t>-4.08%</t>
         </is>
       </c>
-      <c r="Q25" s="73" t="inlineStr">
+      <c r="Q25" s="74" t="inlineStr">
         <is>
           <t>-8.12%</t>
         </is>
@@ -15267,7 +15496,7 @@
           <t>2.96%</t>
         </is>
       </c>
-      <c r="S25" s="74" t="inlineStr">
+      <c r="S25" s="75" t="inlineStr">
         <is>
           <t>-8.66%</t>
         </is>
@@ -15277,7 +15506,7 @@
           <t>2.11%</t>
         </is>
       </c>
-      <c r="U25" s="71" t="inlineStr">
+      <c r="U25" s="72" t="inlineStr">
         <is>
           <t>-7.37%</t>
         </is>
@@ -15339,7 +15568,7 @@
           <t>[酶解蛋白产品+饲料添加剂+宠物经济]</t>
         </is>
       </c>
-      <c r="C26" s="64" t="inlineStr">
+      <c r="C26" s="65" t="inlineStr">
         <is>
           <t>美农生物*</t>
         </is>
@@ -15466,7 +15695,7 @@
           <t>002084</t>
         </is>
       </c>
-      <c r="B27" s="63" t="inlineStr">
+      <c r="B27" s="64" t="inlineStr">
         <is>
           <t>[智能家居+空气能热泵+一带一路]</t>
         </is>
@@ -15521,7 +15750,7 @@
           <t>-10.08%[3.0]</t>
         </is>
       </c>
-      <c r="M27" s="75" t="inlineStr">
+      <c r="M27" s="76" t="inlineStr">
         <is>
           <t>-7.25%</t>
         </is>
@@ -15608,7 +15837,7 @@
           <t>5板[0.2]</t>
         </is>
       </c>
-      <c r="K28" s="76" t="inlineStr">
+      <c r="K28" s="77" t="inlineStr">
         <is>
           <t>7.59%[14.4]</t>
         </is>
@@ -15618,7 +15847,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="M28" s="77" t="inlineStr">
+      <c r="M28" s="78" t="inlineStr">
         <is>
           <t>-7.32%</t>
         </is>
@@ -15812,7 +16041,7 @@
           <t>3.50%</t>
         </is>
       </c>
-      <c r="G30" s="78" t="inlineStr">
+      <c r="G30" s="79" t="inlineStr">
         <is>
           <t>7.25%[3.4]</t>
         </is>
@@ -15904,7 +16133,7 @@
           <t>3.09%</t>
         </is>
       </c>
-      <c r="G31" s="79" t="inlineStr">
+      <c r="G31" s="80" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
@@ -15929,7 +16158,7 @@
           <t>-4.24%</t>
         </is>
       </c>
-      <c r="L31" s="80" t="inlineStr">
+      <c r="L31" s="81" t="inlineStr">
         <is>
           <t>-8.59%</t>
         </is>
@@ -15944,7 +16173,7 @@
           <t>10.05%</t>
         </is>
       </c>
-      <c r="O31" s="81" t="inlineStr">
+      <c r="O31" s="82" t="inlineStr">
         <is>
           <t>-8.84%</t>
         </is>
@@ -16011,7 +16240,7 @@
           <t>-2.17%</t>
         </is>
       </c>
-      <c r="L32" s="82" t="inlineStr">
+      <c r="L32" s="83" t="inlineStr">
         <is>
           <t>-7.94%</t>
         </is>
@@ -16093,7 +16322,7 @@
           <t>600540</t>
         </is>
       </c>
-      <c r="B33" s="63" t="inlineStr">
+      <c r="B33" s="64" t="inlineStr">
         <is>
           <t>[新疆棉+物流+一带一路+新疆国资]</t>
         </is>
@@ -16190,12 +16419,12 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B34" s="63" t="inlineStr">
+      <c r="B34" s="64" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="C34" s="66" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
@@ -16275,12 +16504,12 @@
           <t>-3.25%</t>
         </is>
       </c>
-      <c r="S34" s="66" t="inlineStr">
+      <c r="S34" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="T34" s="67" t="inlineStr">
+      <c r="T34" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -16290,7 +16519,7 @@
           <t>-6.93%</t>
         </is>
       </c>
-      <c r="V34" s="83" t="inlineStr">
+      <c r="V34" s="84" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -16400,9 +16629,14 @@
           <t>1.84%[2.3]</t>
         </is>
       </c>
-      <c r="AZ34" s="71" t="inlineStr">
+      <c r="AZ34" s="72" t="inlineStr">
         <is>
           <t>-7.36%</t>
+        </is>
+      </c>
+      <c r="BA34" s="19" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
         </is>
       </c>
     </row>
@@ -16417,7 +16651,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C35" s="84" t="inlineStr">
+      <c r="C35" s="85" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -16477,27 +16711,27 @@
           <t>-6.03%[4.9]</t>
         </is>
       </c>
-      <c r="O35" s="66" t="inlineStr">
+      <c r="O35" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="P35" s="67" t="inlineStr">
+      <c r="P35" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="Q35" s="85" t="inlineStr">
+      <c r="Q35" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R35" s="85" t="inlineStr">
+      <c r="R35" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S35" s="85" t="inlineStr">
+      <c r="S35" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -16507,7 +16741,7 @@
           <t>-9.96%[0.2]</t>
         </is>
       </c>
-      <c r="U35" s="85" t="inlineStr">
+      <c r="U35" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -16537,7 +16771,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AA35" s="85" t="inlineStr">
+      <c r="AA35" s="86" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -16547,7 +16781,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC35" s="86" t="inlineStr">
+      <c r="AC35" s="87" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -16562,7 +16796,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF35" s="85" t="inlineStr">
+      <c r="AF35" s="86" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -16602,7 +16836,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN35" s="87" t="inlineStr">
+      <c r="AN35" s="88" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -16659,7 +16893,12 @@
       </c>
       <c r="AZ35" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="BA35" s="19" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16935,7 @@
       </c>
       <c r="G36" s="21" t="inlineStr">
         <is>
-          <t>首板[2.5]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="H36" s="24" t="inlineStr">
@@ -16706,15 +16945,15 @@
       </c>
       <c r="I36" s="25" t="inlineStr">
         <is>
-          <t>3板[6.2]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="J36" s="28" t="inlineStr">
         <is>
-          <t>4板[3.6]</t>
-        </is>
-      </c>
-      <c r="K36" s="88" t="inlineStr">
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="K36" s="89" t="inlineStr">
         <is>
           <t>-9.25%</t>
         </is>
@@ -16787,6 +17026,11 @@
       <c r="AZ36" s="19" t="inlineStr">
         <is>
           <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="BA36" s="19" t="inlineStr">
+        <is>
+          <t>停牌</t>
         </is>
       </c>
     </row>
@@ -16796,7 +17040,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B37" s="63" t="inlineStr">
+      <c r="B37" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -16901,7 +17145,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="W37" s="89" t="inlineStr">
+      <c r="W37" s="90" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -17053,7 +17297,7 @@
           <t>002165</t>
         </is>
       </c>
-      <c r="B38" s="63" t="inlineStr">
+      <c r="B38" s="64" t="inlineStr">
         <is>
           <t>[环氧丙烷衍生品+光刻胶+出海]</t>
         </is>
@@ -17083,7 +17327,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="H38" s="90" t="inlineStr">
+      <c r="H38" s="91" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -17208,7 +17452,7 @@
           <t>5.77%</t>
         </is>
       </c>
-      <c r="AG38" s="91" t="inlineStr">
+      <c r="AG38" s="92" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -17233,7 +17477,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL38" s="80" t="inlineStr">
+      <c r="AL38" s="81" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -17263,7 +17507,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AR38" s="92" t="inlineStr">
+      <c r="AR38" s="93" t="inlineStr">
         <is>
           <t>-7.93%</t>
         </is>
@@ -17372,7 +17616,7 @@
           <t>601933</t>
         </is>
       </c>
-      <c r="B40" s="93" t="inlineStr">
+      <c r="B40" s="94" t="inlineStr">
         <is>
           <t>[今年将完成超200家门店调改+零售]</t>
         </is>
@@ -17459,7 +17703,7 @@
           <t>301078</t>
         </is>
       </c>
-      <c r="B41" s="93" t="inlineStr">
+      <c r="B41" s="94" t="inlineStr">
         <is>
           <t>[母婴零售+电商+一季报预增]</t>
         </is>
@@ -17469,7 +17713,7 @@
           <t>孩子王*</t>
         </is>
       </c>
-      <c r="D41" s="94" t="inlineStr">
+      <c r="D41" s="95" t="inlineStr">
         <is>
           <t>-12.97%</t>
         </is>
@@ -17499,12 +17743,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="J41" s="95" t="inlineStr">
+      <c r="J41" s="96" t="inlineStr">
         <is>
           <t>7.99%[2.6]</t>
         </is>
       </c>
-      <c r="K41" s="96" t="inlineStr">
+      <c r="K41" s="97" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
@@ -17546,7 +17790,7 @@
           <t>002800</t>
         </is>
       </c>
-      <c r="B42" s="63" t="inlineStr">
+      <c r="B42" s="64" t="inlineStr">
         <is>
           <t>[物流+统一大市场+新疆]</t>
         </is>
@@ -17827,7 +18071,7 @@
           <t>000759</t>
         </is>
       </c>
-      <c r="B45" s="63" t="inlineStr">
+      <c r="B45" s="64" t="inlineStr">
         <is>
           <t>[免税店+商业零售+胖东来指导交流+湖北国资]</t>
         </is>
@@ -17837,7 +18081,7 @@
           <t>中百集团</t>
         </is>
       </c>
-      <c r="D45" s="94" t="inlineStr">
+      <c r="D45" s="95" t="inlineStr">
         <is>
           <t>-0.60%</t>
         </is>
@@ -17969,7 +18213,7 @@
           <t>002570</t>
         </is>
       </c>
-      <c r="B46" s="63" t="inlineStr">
+      <c r="B46" s="64" t="inlineStr">
         <is>
           <t>[婴幼儿奶粉+跨境电商]</t>
         </is>
@@ -18131,12 +18375,12 @@
           <t>300892</t>
         </is>
       </c>
-      <c r="B47" s="93" t="inlineStr">
+      <c r="B47" s="94" t="inlineStr">
         <is>
           <t>[乳业+进口食品+零售]</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="C47" s="65" t="inlineStr">
         <is>
           <t>品渥食品*</t>
         </is>
@@ -18161,7 +18405,7 @@
           <t>3.32%</t>
         </is>
       </c>
-      <c r="H47" s="97" t="inlineStr">
+      <c r="H47" s="98" t="inlineStr">
         <is>
           <t>-9.28%</t>
         </is>
@@ -18206,7 +18450,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="Q47" s="98" t="inlineStr">
+      <c r="Q47" s="99" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -18216,12 +18460,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="S47" s="99" t="inlineStr">
+      <c r="S47" s="100" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
       </c>
-      <c r="T47" s="100" t="inlineStr">
+      <c r="T47" s="101" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -18263,7 +18507,7 @@
           <t>301058</t>
         </is>
       </c>
-      <c r="B48" s="101" t="inlineStr">
+      <c r="B48" s="102" t="inlineStr">
         <is>
           <t>[粮食+仓储物流+中字头+国企]</t>
         </is>
@@ -18313,7 +18557,7 @@
           <t>-2.80%[2.7]</t>
         </is>
       </c>
-      <c r="L48" s="102" t="inlineStr">
+      <c r="L48" s="103" t="inlineStr">
         <is>
           <t>-7.45%</t>
         </is>
@@ -18355,12 +18599,12 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B49" s="101" t="inlineStr">
+      <c r="B49" s="102" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="C49" s="65" t="inlineStr">
         <is>
           <t>飞力达*</t>
         </is>
@@ -18390,7 +18634,7 @@
           <t>-3.33%[4.9]</t>
         </is>
       </c>
-      <c r="I49" s="103" t="inlineStr">
+      <c r="I49" s="104" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
@@ -18415,12 +18659,12 @@
           <t>1.32%</t>
         </is>
       </c>
-      <c r="N49" s="104" t="inlineStr">
+      <c r="N49" s="105" t="inlineStr">
         <is>
           <t>-8.64%</t>
         </is>
       </c>
-      <c r="O49" s="105" t="inlineStr">
+      <c r="O49" s="106" t="inlineStr">
         <is>
           <t>8.47%</t>
         </is>
@@ -18440,7 +18684,7 @@
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="S49" s="106" t="inlineStr">
+      <c r="S49" s="107" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
@@ -18475,7 +18719,7 @@
           <t>-2.78%</t>
         </is>
       </c>
-      <c r="AL49" s="107" t="inlineStr">
+      <c r="AL49" s="108" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -18507,7 +18751,7 @@
           <t>国民技术*</t>
         </is>
       </c>
-      <c r="D50" s="94" t="inlineStr">
+      <c r="D50" s="95" t="inlineStr">
         <is>
           <t>-3.63%</t>
         </is>
@@ -18589,7 +18833,7 @@
           <t>600180</t>
         </is>
       </c>
-      <c r="B51" s="63" t="inlineStr">
+      <c r="B51" s="64" t="inlineStr">
         <is>
           <t>[大豆产业链+大宗商品供应链+一带一路]</t>
         </is>
@@ -18681,7 +18925,7 @@
           <t>603709</t>
         </is>
       </c>
-      <c r="B52" s="93" t="inlineStr">
+      <c r="B52" s="94" t="inlineStr">
         <is>
           <t>[沙发+电商+新零售]</t>
         </is>
@@ -18691,7 +18935,7 @@
           <t>中源家居</t>
         </is>
       </c>
-      <c r="D52" s="94" t="inlineStr">
+      <c r="D52" s="95" t="inlineStr">
         <is>
           <t>-3.04%</t>
         </is>
@@ -18793,7 +19037,7 @@
           <t>万马股份</t>
         </is>
       </c>
-      <c r="D53" s="94" t="inlineStr">
+      <c r="D53" s="95" t="inlineStr">
         <is>
           <t>-2.14%</t>
         </is>
@@ -18895,7 +19139,7 @@
           <t>-4.27%</t>
         </is>
       </c>
-      <c r="G54" s="108" t="inlineStr">
+      <c r="G54" s="109" t="inlineStr">
         <is>
           <t>-7.10%</t>
         </is>
@@ -19018,6 +19262,11 @@
       <c r="AZ54" s="19" t="inlineStr">
         <is>
           <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="BA54" s="19" t="inlineStr">
+        <is>
+          <t>-6.77%</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19276,7 @@
           <t>301066</t>
         </is>
       </c>
-      <c r="B55" s="93" t="inlineStr">
+      <c r="B55" s="94" t="inlineStr">
         <is>
           <t>[离境退税+丝绸+电商+AI智能体]</t>
         </is>
@@ -19132,7 +19381,7 @@
           <t>5.01%</t>
         </is>
       </c>
-      <c r="AG55" s="109" t="inlineStr">
+      <c r="AG55" s="110" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -19261,7 +19510,7 @@
           <t>872351</t>
         </is>
       </c>
-      <c r="B57" s="63" t="inlineStr">
+      <c r="B57" s="64" t="inlineStr">
         <is>
           <t>[统一大市场+国际物流]</t>
         </is>
@@ -19306,7 +19555,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="L57" s="110" t="inlineStr">
+      <c r="L57" s="111" t="inlineStr">
         <is>
           <t>-8.81%</t>
         </is>
@@ -19326,7 +19575,7 @@
           <t>14.24%</t>
         </is>
       </c>
-      <c r="P57" s="111" t="inlineStr">
+      <c r="P57" s="112" t="inlineStr">
         <is>
           <t>-7.03%</t>
         </is>
@@ -19448,12 +19697,12 @@
           <t>3.53%[2.5]</t>
         </is>
       </c>
-      <c r="N58" s="112" t="inlineStr">
+      <c r="N58" s="113" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="O58" s="111" t="inlineStr">
+      <c r="O58" s="112" t="inlineStr">
         <is>
           <t>-7.04%</t>
         </is>
@@ -19585,7 +19834,7 @@
           <t>-10.09%[2.7]</t>
         </is>
       </c>
-      <c r="N59" s="113" t="inlineStr">
+      <c r="N59" s="114" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -19627,7 +19876,7 @@
           <t>600697</t>
         </is>
       </c>
-      <c r="B60" s="63" t="inlineStr">
+      <c r="B60" s="64" t="inlineStr">
         <is>
           <t>[免税店+零售+中俄贸易+国企]</t>
         </is>
@@ -19734,7 +19983,7 @@
           <t>000582</t>
         </is>
       </c>
-      <c r="B61" s="63" t="inlineStr">
+      <c r="B61" s="64" t="inlineStr">
         <is>
           <t>[一带一路+港口航运+统一大市场+国企]</t>
         </is>
@@ -19826,17 +20075,17 @@
           <t>002640</t>
         </is>
       </c>
-      <c r="B62" s="63" t="inlineStr">
+      <c r="B62" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+欧美用户]</t>
         </is>
       </c>
-      <c r="C62" s="64" t="inlineStr">
+      <c r="C62" s="65" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D62" s="94" t="inlineStr">
+      <c r="D62" s="95" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -19891,7 +20140,7 @@
           <t>1.62%</t>
         </is>
       </c>
-      <c r="Q62" s="114" t="inlineStr">
+      <c r="Q62" s="115" t="inlineStr">
         <is>
           <t>-8.22%</t>
         </is>
@@ -19911,7 +20160,7 @@
           <t>2.15%[3.4]</t>
         </is>
       </c>
-      <c r="U62" s="115" t="inlineStr">
+      <c r="U62" s="116" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
@@ -19921,12 +20170,12 @@
           <t>-0.75%</t>
         </is>
       </c>
-      <c r="W62" s="116" t="inlineStr">
+      <c r="W62" s="117" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="X62" s="117" t="inlineStr">
+      <c r="X62" s="118" t="inlineStr">
         <is>
           <t>-9.11%</t>
         </is>
@@ -19956,7 +20205,7 @@
           <t>-5.61%</t>
         </is>
       </c>
-      <c r="AD62" s="118" t="inlineStr">
+      <c r="AD62" s="119" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
@@ -20029,6 +20278,11 @@
       <c r="AZ62" s="19" t="inlineStr">
         <is>
           <t>-2.68%</t>
+        </is>
+      </c>
+      <c r="BA62" s="19" t="inlineStr">
+        <is>
+          <t>-5.30%</t>
         </is>
       </c>
     </row>
@@ -20068,7 +20322,7 @@
           <t>-1.41%</t>
         </is>
       </c>
-      <c r="J63" s="119" t="inlineStr">
+      <c r="J63" s="120" t="inlineStr">
         <is>
           <t>7.63%</t>
         </is>
@@ -20317,7 +20571,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="S65" s="120" t="inlineStr">
+      <c r="S65" s="121" t="inlineStr">
         <is>
           <t>-9.18%</t>
         </is>
@@ -20355,6 +20609,11 @@
       <c r="AZ65" s="19" t="inlineStr">
         <is>
           <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="BA65" s="20" t="inlineStr">
+        <is>
+          <t>-9.96%</t>
         </is>
       </c>
     </row>
@@ -20364,7 +20623,7 @@
           <t>600303</t>
         </is>
       </c>
-      <c r="B66" s="121" t="inlineStr">
+      <c r="B66" s="122" t="inlineStr">
         <is>
           <t>[申请撤销其他风险警示+军工+商用车+氢能源]</t>
         </is>
@@ -20374,7 +20633,7 @@
           <t>曙光股份</t>
         </is>
       </c>
-      <c r="D66" s="122" t="inlineStr">
+      <c r="D66" s="123" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -20760,7 +21019,7 @@
           <t>中毅达</t>
         </is>
       </c>
-      <c r="D69" s="94" t="inlineStr">
+      <c r="D69" s="95" t="inlineStr">
         <is>
           <t>-16.14%</t>
         </is>
@@ -20785,7 +21044,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="L69" s="123" t="inlineStr">
+      <c r="L69" s="124" t="inlineStr">
         <is>
           <t>7.64%</t>
         </is>
@@ -20845,7 +21104,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="X69" s="124" t="inlineStr">
+      <c r="X69" s="125" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
@@ -20890,7 +21149,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AG69" s="125" t="inlineStr">
+      <c r="AG69" s="126" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -20935,7 +21194,7 @@
           <t>-2.30%</t>
         </is>
       </c>
-      <c r="AP69" s="126" t="inlineStr">
+      <c r="AP69" s="127" t="inlineStr">
         <is>
           <t>-7.63%</t>
         </is>
@@ -21254,7 +21513,7 @@
           <t>-10.07%</t>
         </is>
       </c>
-      <c r="Y71" s="127" t="inlineStr">
+      <c r="Y71" s="128" t="inlineStr">
         <is>
           <t>-9.34%</t>
         </is>
@@ -21294,7 +21553,7 @@
           <t>6.09%</t>
         </is>
       </c>
-      <c r="AP71" s="70" t="inlineStr">
+      <c r="AP71" s="71" t="inlineStr">
         <is>
           <t>-7.50%</t>
         </is>
@@ -21347,6 +21606,11 @@
       <c r="AZ71" s="19" t="inlineStr">
         <is>
           <t>-2.64%</t>
+        </is>
+      </c>
+      <c r="BA71" s="19" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
         </is>
       </c>
     </row>
@@ -21356,7 +21620,7 @@
           <t>601083</t>
         </is>
       </c>
-      <c r="B72" s="63" t="inlineStr">
+      <c r="B72" s="64" t="inlineStr">
         <is>
           <t>[航运+上海国资]</t>
         </is>
@@ -21461,7 +21725,7 @@
           <t>-0.31%</t>
         </is>
       </c>
-      <c r="AJ72" s="128" t="inlineStr">
+      <c r="AJ72" s="129" t="inlineStr">
         <is>
           <t>-8.17%</t>
         </is>
@@ -21498,7 +21762,7 @@
           <t>603879</t>
         </is>
       </c>
-      <c r="B73" s="101" t="inlineStr">
+      <c r="B73" s="102" t="inlineStr">
         <is>
           <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
@@ -21508,7 +21772,7 @@
           <t>永悦科技</t>
         </is>
       </c>
-      <c r="D73" s="122" t="inlineStr">
+      <c r="D73" s="123" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -21633,7 +21897,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AY73" s="129" t="inlineStr">
+      <c r="AY73" s="130" t="inlineStr">
         <is>
           <t>-8.40%</t>
         </is>
@@ -21641,6 +21905,11 @@
       <c r="AZ73" s="19" t="inlineStr">
         <is>
           <t>-6.36%</t>
+        </is>
+      </c>
+      <c r="BA73" s="19" t="inlineStr">
+        <is>
+          <t>0.63%</t>
         </is>
       </c>
     </row>
@@ -21730,7 +21999,7 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="V74" s="130" t="inlineStr">
+      <c r="V74" s="131" t="inlineStr">
         <is>
           <t>7.15%</t>
         </is>
@@ -21873,6 +22142,11 @@
       <c r="AZ74" s="19" t="inlineStr">
         <is>
           <t>1.14%</t>
+        </is>
+      </c>
+      <c r="BA74" s="19" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
         </is>
       </c>
     </row>
@@ -21887,7 +22161,7 @@
           <t>[甲醛+可用于生产季戊四醇+国企]</t>
         </is>
       </c>
-      <c r="C75" s="64" t="inlineStr">
+      <c r="C75" s="65" t="inlineStr">
         <is>
           <t>江天化学*</t>
         </is>
@@ -21947,7 +22221,7 @@
           <t>4.53%</t>
         </is>
       </c>
-      <c r="S75" s="131" t="inlineStr">
+      <c r="S75" s="132" t="inlineStr">
         <is>
           <t>-8.74%</t>
         </is>
@@ -21962,7 +22236,7 @@
           <t>3.71%</t>
         </is>
       </c>
-      <c r="V75" s="113" t="inlineStr">
+      <c r="V75" s="114" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -21997,12 +22271,12 @@
           <t>-1.27%</t>
         </is>
       </c>
-      <c r="AO75" s="132" t="inlineStr">
+      <c r="AO75" s="133" t="inlineStr">
         <is>
           <t>8.30%</t>
         </is>
       </c>
-      <c r="AP75" s="133" t="inlineStr">
+      <c r="AP75" s="134" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -22019,7 +22293,7 @@
           <t>301558</t>
         </is>
       </c>
-      <c r="B76" s="63" t="inlineStr">
+      <c r="B76" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+AI SaaS]</t>
         </is>
@@ -22176,7 +22450,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="T77" s="134" t="inlineStr">
+      <c r="T77" s="135" t="inlineStr">
         <is>
           <t>-8.21%</t>
         </is>
@@ -22243,7 +22517,7 @@
           <t>605188</t>
         </is>
       </c>
-      <c r="B78" s="93" t="inlineStr">
+      <c r="B78" s="94" t="inlineStr">
         <is>
           <t>[零售+生鲜食品+智能物流]</t>
         </is>
@@ -22408,7 +22682,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU78" s="75" t="inlineStr">
+      <c r="AU78" s="76" t="inlineStr">
         <is>
           <t>-7.24%</t>
         </is>
@@ -22435,7 +22709,7 @@
           <t>002165</t>
         </is>
       </c>
-      <c r="B79" s="63" t="inlineStr">
+      <c r="B79" s="64" t="inlineStr">
         <is>
           <t>[环氧丙烷衍生品+光刻胶+出海]</t>
         </is>
@@ -22445,7 +22719,7 @@
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D79" s="135" t="inlineStr">
+      <c r="D79" s="136" t="inlineStr">
         <is>
           <t>79.74%</t>
         </is>
@@ -22575,7 +22849,7 @@
           <t>5.77%</t>
         </is>
       </c>
-      <c r="AG79" s="91" t="inlineStr">
+      <c r="AG79" s="92" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -22600,7 +22874,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL79" s="80" t="inlineStr">
+      <c r="AL79" s="81" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -22630,7 +22904,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AR79" s="92" t="inlineStr">
+      <c r="AR79" s="93" t="inlineStr">
         <is>
           <t>-7.93%</t>
         </is>
@@ -22647,7 +22921,7 @@
           <t>603128</t>
         </is>
       </c>
-      <c r="B80" s="63" t="inlineStr">
+      <c r="B80" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+敦煌网合作+物流+国企改革]</t>
         </is>
@@ -22662,7 +22936,7 @@
           <t>27.02%</t>
         </is>
       </c>
-      <c r="J80" s="136" t="inlineStr">
+      <c r="J80" s="137" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
@@ -22712,7 +22986,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="T80" s="137" t="inlineStr">
+      <c r="T80" s="138" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -22896,7 +23170,7 @@
           <t>001368</t>
         </is>
       </c>
-      <c r="B82" s="63" t="inlineStr">
+      <c r="B82" s="64" t="inlineStr">
         <is>
           <t>[一带一路+体育户外+三胎+外销]</t>
         </is>
@@ -23095,7 +23369,7 @@
           <t>002098</t>
         </is>
       </c>
-      <c r="B84" s="63" t="inlineStr">
+      <c r="B84" s="64" t="inlineStr">
         <is>
           <t>[跨境支付+跨境电商+敦煌网+拉链]</t>
         </is>
@@ -23180,7 +23454,7 @@
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="Y84" s="138" t="inlineStr">
+      <c r="Y84" s="139" t="inlineStr">
         <is>
           <t>-8.19%</t>
         </is>
@@ -23222,7 +23496,7 @@
           <t>002719</t>
         </is>
       </c>
-      <c r="B85" s="93" t="inlineStr">
+      <c r="B85" s="94" t="inlineStr">
         <is>
           <t>[饮料乳品+新疆振兴+新零售]</t>
         </is>
@@ -23297,7 +23571,7 @@
           <t>-6.92%</t>
         </is>
       </c>
-      <c r="W85" s="139" t="inlineStr">
+      <c r="W85" s="140" t="inlineStr">
         <is>
           <t>-8.41%</t>
         </is>
@@ -23439,7 +23713,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="X86" s="80" t="inlineStr">
+      <c r="X86" s="81" t="inlineStr">
         <is>
           <t>-8.60%</t>
         </is>
@@ -23563,7 +23837,7 @@
           <t>603696</t>
         </is>
       </c>
-      <c r="B88" s="93" t="inlineStr">
+      <c r="B88" s="94" t="inlineStr">
         <is>
           <t>[地天板+调味品+新零售+年报增长]</t>
         </is>
@@ -23638,7 +23912,7 @@
           <t>-0.20%</t>
         </is>
       </c>
-      <c r="W88" s="140" t="inlineStr">
+      <c r="W88" s="141" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
@@ -23740,7 +24014,7 @@
           <t>-3.98%</t>
         </is>
       </c>
-      <c r="T89" s="113" t="inlineStr">
+      <c r="T89" s="114" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -23792,7 +24066,7 @@
           <t>29.91%</t>
         </is>
       </c>
-      <c r="K90" s="141" t="inlineStr">
+      <c r="K90" s="142" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
@@ -23869,7 +24143,7 @@
           <t>000965</t>
         </is>
       </c>
-      <c r="B91" s="121" t="inlineStr">
+      <c r="B91" s="122" t="inlineStr">
         <is>
           <t>[房地产+大飞机+天津国企]</t>
         </is>
@@ -23889,7 +24163,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="L91" s="142" t="inlineStr">
+      <c r="L91" s="143" t="inlineStr">
         <is>
           <t>-9.48%</t>
         </is>
@@ -23954,7 +24228,7 @@
           <t>-9.93%[0.3]</t>
         </is>
       </c>
-      <c r="Y91" s="143" t="inlineStr">
+      <c r="Y91" s="144" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -24246,6 +24520,11 @@
           <t>-1.44%</t>
         </is>
       </c>
+      <c r="BA92" s="19" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="inlineStr">
@@ -24253,7 +24532,7 @@
           <t>300322</t>
         </is>
       </c>
-      <c r="B93" s="144" t="inlineStr">
+      <c r="B93" s="145" t="inlineStr">
         <is>
           <t>[一季报预增+卫星导航+AI眼镜+消费电子]</t>
         </is>
@@ -24350,7 +24629,7 @@
           <t>[星空科技入主+半导体装备]</t>
         </is>
       </c>
-      <c r="C94" s="65" t="inlineStr">
+      <c r="C94" s="66" t="inlineStr">
         <is>
           <t>中旗新材</t>
         </is>
@@ -24415,12 +24694,12 @@
           <t>-5.78%</t>
         </is>
       </c>
-      <c r="R94" s="66" t="inlineStr">
+      <c r="R94" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="S94" s="67" t="inlineStr">
+      <c r="S94" s="68" t="inlineStr">
         <is>
           <t>9板[0.4]</t>
         </is>
@@ -24450,7 +24729,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="Y94" s="68" t="inlineStr">
+      <c r="Y94" s="69" t="inlineStr">
         <is>
           <t>-8.48%</t>
         </is>
@@ -24495,7 +24774,7 @@
           <t>1.02%</t>
         </is>
       </c>
-      <c r="AH94" s="69" t="inlineStr">
+      <c r="AH94" s="70" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
@@ -24587,7 +24866,7 @@
           <t>[产品涨价+环氧丙烷+混凝土外加剂]</t>
         </is>
       </c>
-      <c r="C95" s="145" t="inlineStr">
+      <c r="C95" s="146" t="inlineStr">
         <is>
           <t>红墙股份</t>
         </is>
@@ -24662,7 +24941,7 @@
           <t>-9.99%</t>
         </is>
       </c>
-      <c r="Z95" s="70" t="inlineStr">
+      <c r="Z95" s="71" t="inlineStr">
         <is>
           <t>-7.51%</t>
         </is>
@@ -24677,17 +24956,17 @@
           <t>5.12%</t>
         </is>
       </c>
-      <c r="AC95" s="66" t="inlineStr">
+      <c r="AC95" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AD95" s="67" t="inlineStr">
+      <c r="AD95" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="AE95" s="85" t="inlineStr">
+      <c r="AE95" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
@@ -24702,12 +24981,12 @@
           <t>-3.41%</t>
         </is>
       </c>
-      <c r="AH95" s="85" t="inlineStr">
+      <c r="AH95" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="AI95" s="115" t="inlineStr">
+      <c r="AI95" s="116" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
@@ -24754,7 +25033,7 @@
           <t>600794</t>
         </is>
       </c>
-      <c r="B96" s="93" t="inlineStr">
+      <c r="B96" s="94" t="inlineStr">
         <is>
           <t>[智慧物流+数字货币+电子商务+国企]</t>
         </is>
@@ -24932,6 +25211,11 @@
       <c r="AZ96" s="19" t="inlineStr">
         <is>
           <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="BA96" s="19" t="inlineStr">
+        <is>
+          <t>-4.08%</t>
         </is>
       </c>
     </row>
@@ -24941,7 +25225,7 @@
           <t>603110</t>
         </is>
       </c>
-      <c r="B97" s="144" t="inlineStr">
+      <c r="B97" s="145" t="inlineStr">
         <is>
           <t>[MCP+东方超算+PCB电子油墨]</t>
         </is>
@@ -24991,7 +25275,7 @@
           <t>1.60%</t>
         </is>
       </c>
-      <c r="T97" s="146" t="inlineStr">
+      <c r="T97" s="147" t="inlineStr">
         <is>
           <t>-7.64%</t>
         </is>
@@ -25148,7 +25432,7 @@
           <t>-2.11%</t>
         </is>
       </c>
-      <c r="AI98" s="147" t="inlineStr">
+      <c r="AI98" s="148" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -25215,7 +25499,7 @@
           <t>002251</t>
         </is>
       </c>
-      <c r="B99" s="93" t="inlineStr">
+      <c r="B99" s="94" t="inlineStr">
         <is>
           <t>[零售+摘帽+一季报增长+年报扭亏]</t>
         </is>
@@ -25285,7 +25569,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="W99" s="148" t="inlineStr">
+      <c r="W99" s="149" t="inlineStr">
         <is>
           <t>-8.29%</t>
         </is>
@@ -25332,7 +25616,7 @@
           <t>002583</t>
         </is>
       </c>
-      <c r="B100" s="63" t="inlineStr">
+      <c r="B100" s="64" t="inlineStr">
         <is>
           <t>[6G+对讲机终端+一带一路]</t>
         </is>
@@ -25460,6 +25744,11 @@
       <c r="AJ100" s="19" t="inlineStr">
         <is>
           <t>1.47%</t>
+        </is>
+      </c>
+      <c r="BA100" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.2]</t>
         </is>
       </c>
     </row>
@@ -25469,12 +25758,12 @@
           <t>300892</t>
         </is>
       </c>
-      <c r="B101" s="93" t="inlineStr">
+      <c r="B101" s="94" t="inlineStr">
         <is>
           <t>[乳业+进口食品+零售]</t>
         </is>
       </c>
-      <c r="C101" s="64" t="inlineStr">
+      <c r="C101" s="65" t="inlineStr">
         <is>
           <t>品渥食品*</t>
         </is>
@@ -25514,7 +25803,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="Q101" s="98" t="inlineStr">
+      <c r="Q101" s="99" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -25524,12 +25813,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="S101" s="99" t="inlineStr">
+      <c r="S101" s="100" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
       </c>
-      <c r="T101" s="100" t="inlineStr">
+      <c r="T101" s="101" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -25621,7 +25910,7 @@
           <t>-0.24%</t>
         </is>
       </c>
-      <c r="T102" s="149" t="inlineStr">
+      <c r="T102" s="150" t="inlineStr">
         <is>
           <t>-8.61%</t>
         </is>
@@ -25651,7 +25940,7 @@
           <t>-0.17%</t>
         </is>
       </c>
-      <c r="Z102" s="69" t="inlineStr">
+      <c r="Z102" s="70" t="inlineStr">
         <is>
           <t>7.06%</t>
         </is>
@@ -25678,7 +25967,7 @@
           <t>54.17%</t>
         </is>
       </c>
-      <c r="M103" s="103" t="inlineStr">
+      <c r="M103" s="104" t="inlineStr">
         <is>
           <t>7.46%</t>
         </is>
@@ -25813,7 +26102,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX103" s="150" t="inlineStr">
+      <c r="AX103" s="151" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -25826,6 +26115,11 @@
       <c r="AZ103" s="43" t="inlineStr">
         <is>
           <t>10.36%</t>
+        </is>
+      </c>
+      <c r="BA103" s="152" t="inlineStr">
+        <is>
+          <t>7.04%</t>
         </is>
       </c>
     </row>
@@ -25835,7 +26129,7 @@
           <t>001316</t>
         </is>
       </c>
-      <c r="B104" s="121" t="inlineStr">
+      <c r="B104" s="122" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -25885,7 +26179,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T104" s="151" t="inlineStr">
+      <c r="T104" s="153" t="inlineStr">
         <is>
           <t>-8.49%</t>
         </is>
@@ -25895,12 +26189,12 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="V104" s="99" t="inlineStr">
+      <c r="V104" s="100" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W104" s="152" t="inlineStr">
+      <c r="W104" s="154" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -25998,6 +26292,11 @@
       <c r="AZ104" s="19" t="inlineStr">
         <is>
           <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="BA104" s="19" t="inlineStr">
+        <is>
+          <t>4.04%</t>
         </is>
       </c>
     </row>
@@ -26007,7 +26306,7 @@
           <t>003003</t>
         </is>
       </c>
-      <c r="B105" s="63" t="inlineStr">
+      <c r="B105" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+可降解塑料+快递包装]</t>
         </is>
@@ -26114,7 +26413,7 @@
           <t>600865</t>
         </is>
       </c>
-      <c r="B106" s="93" t="inlineStr">
+      <c r="B106" s="94" t="inlineStr">
         <is>
           <t>[年报净利增长+零售+杭州]</t>
         </is>
@@ -26159,7 +26458,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="T106" s="150" t="inlineStr">
+      <c r="T106" s="151" t="inlineStr">
         <is>
           <t>-8.70%[3.9]</t>
         </is>
@@ -26169,7 +26468,7 @@
           <t>-6.00%</t>
         </is>
       </c>
-      <c r="V106" s="153" t="inlineStr">
+      <c r="V106" s="155" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -26238,17 +26537,17 @@
       </c>
       <c r="Q107" s="21" t="inlineStr">
         <is>
-          <t>首板[2.3]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="R107" s="24" t="inlineStr">
         <is>
-          <t>2板[2.7]</t>
+          <t>2板</t>
         </is>
       </c>
       <c r="S107" s="25" t="inlineStr">
         <is>
-          <t>3板[2.3]</t>
+          <t>3板</t>
         </is>
       </c>
       <c r="T107" s="19" t="inlineStr">
@@ -26318,7 +26617,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B108" s="63" t="inlineStr">
+      <c r="B108" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -26398,7 +26697,7 @@
           <t>-9.85%</t>
         </is>
       </c>
-      <c r="W108" s="89" t="inlineStr">
+      <c r="W108" s="90" t="inlineStr">
         <is>
           <t>-9.47%</t>
         </is>
@@ -26670,7 +26969,7 @@
           <t>3板[3.0]</t>
         </is>
       </c>
-      <c r="AT109" s="154" t="inlineStr">
+      <c r="AT109" s="156" t="inlineStr">
         <is>
           <t>-7.31%[2.6]</t>
         </is>
@@ -26680,7 +26979,7 @@
           <t>2.47%</t>
         </is>
       </c>
-      <c r="AV109" s="90" t="inlineStr">
+      <c r="AV109" s="91" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -26703,6 +27002,11 @@
       <c r="AZ109" s="19" t="inlineStr">
         <is>
           <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="BA109" s="19" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
         </is>
       </c>
     </row>
@@ -26712,12 +27016,12 @@
           <t>002640</t>
         </is>
       </c>
-      <c r="B110" s="63" t="inlineStr">
+      <c r="B110" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+欧美用户]</t>
         </is>
       </c>
-      <c r="C110" s="64" t="inlineStr">
+      <c r="C110" s="65" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
@@ -26757,7 +27061,7 @@
           <t>1.62%</t>
         </is>
       </c>
-      <c r="Q110" s="114" t="inlineStr">
+      <c r="Q110" s="115" t="inlineStr">
         <is>
           <t>-8.22%</t>
         </is>
@@ -26777,7 +27081,7 @@
           <t>2.15%[3.4]</t>
         </is>
       </c>
-      <c r="U110" s="115" t="inlineStr">
+      <c r="U110" s="116" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
@@ -26787,12 +27091,12 @@
           <t>-0.75%</t>
         </is>
       </c>
-      <c r="W110" s="116" t="inlineStr">
+      <c r="W110" s="117" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="X110" s="117" t="inlineStr">
+      <c r="X110" s="118" t="inlineStr">
         <is>
           <t>-9.11%</t>
         </is>
@@ -26822,7 +27126,7 @@
           <t>-5.61%</t>
         </is>
       </c>
-      <c r="AD110" s="118" t="inlineStr">
+      <c r="AD110" s="119" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
@@ -26895,6 +27199,11 @@
       <c r="AZ110" s="19" t="inlineStr">
         <is>
           <t>-2.68%</t>
+        </is>
+      </c>
+      <c r="BA110" s="19" t="inlineStr">
+        <is>
+          <t>-5.30%</t>
         </is>
       </c>
     </row>
@@ -26904,12 +27213,12 @@
           <t>600571</t>
         </is>
       </c>
-      <c r="B111" s="63" t="inlineStr">
+      <c r="B111" s="64" t="inlineStr">
         <is>
           <t>[跨境支付+金融科技+AI智能体+此前因Pika大涨]</t>
         </is>
       </c>
-      <c r="C111" s="64" t="inlineStr">
+      <c r="C111" s="65" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
@@ -27046,7 +27355,7 @@
           <t>300542</t>
         </is>
       </c>
-      <c r="B112" s="63" t="inlineStr">
+      <c r="B112" s="64" t="inlineStr">
         <is>
           <t>[拟收购天一恩华+跨境支付+华为]</t>
         </is>
@@ -27096,7 +27405,7 @@
           <t>2板[0.3]</t>
         </is>
       </c>
-      <c r="U112" s="116" t="inlineStr">
+      <c r="U112" s="117" t="inlineStr">
         <is>
           <t>8.35%[8.8]</t>
         </is>
@@ -27121,7 +27430,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="Z112" s="155" t="inlineStr">
+      <c r="Z112" s="157" t="inlineStr">
         <is>
           <t>7.67%</t>
         </is>
@@ -27143,17 +27452,17 @@
           <t>300773</t>
         </is>
       </c>
-      <c r="B113" s="63" t="inlineStr">
+      <c r="B113" s="64" t="inlineStr">
         <is>
           <t>[金融科技+跨境支付+AI应用]</t>
         </is>
       </c>
-      <c r="C113" s="64" t="inlineStr">
+      <c r="C113" s="65" t="inlineStr">
         <is>
           <t>拉卡拉*</t>
         </is>
       </c>
-      <c r="D113" s="135" t="inlineStr">
+      <c r="D113" s="136" t="inlineStr">
         <is>
           <t>74.05%</t>
         </is>
@@ -27188,7 +27497,7 @@
           <t>首板*[2.7]</t>
         </is>
       </c>
-      <c r="T113" s="132" t="inlineStr">
+      <c r="T113" s="133" t="inlineStr">
         <is>
           <t>8.30%[2.3]</t>
         </is>
@@ -27410,7 +27719,7 @@
           <t>-2.52%</t>
         </is>
       </c>
-      <c r="AP114" s="115" t="inlineStr">
+      <c r="AP114" s="116" t="inlineStr">
         <is>
           <t>-7.00%</t>
         </is>
@@ -27527,7 +27836,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AB115" s="156" t="inlineStr">
+      <c r="AB115" s="158" t="inlineStr">
         <is>
           <t>-8.99%</t>
         </is>
@@ -27567,7 +27876,7 @@
           <t>6.03%</t>
         </is>
       </c>
-      <c r="AJ115" s="133" t="inlineStr">
+      <c r="AJ115" s="134" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -27701,7 +28010,7 @@
           <t>000632</t>
         </is>
       </c>
-      <c r="B117" s="63" t="inlineStr">
+      <c r="B117" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+创投+福建国企]</t>
         </is>
@@ -27888,7 +28197,7 @@
           <t>0.38%</t>
         </is>
       </c>
-      <c r="Y118" s="157" t="inlineStr">
+      <c r="Y118" s="152" t="inlineStr">
         <is>
           <t>7.04%</t>
         </is>
@@ -27908,7 +28217,7 @@
           <t>-2.84%</t>
         </is>
       </c>
-      <c r="AC118" s="158" t="inlineStr">
+      <c r="AC118" s="159" t="inlineStr">
         <is>
           <t>-8.38%</t>
         </is>
@@ -27970,12 +28279,12 @@
           <t>-2.04%</t>
         </is>
       </c>
-      <c r="W119" s="159" t="inlineStr">
+      <c r="W119" s="160" t="inlineStr">
         <is>
           <t>-8.71%</t>
         </is>
       </c>
-      <c r="X119" s="160" t="inlineStr">
+      <c r="X119" s="161" t="inlineStr">
         <is>
           <t>-7.78%</t>
         </is>
@@ -28057,12 +28366,12 @@
           <t>300994</t>
         </is>
       </c>
-      <c r="B120" s="63" t="inlineStr">
+      <c r="B120" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+儿童自行车+两轮车+外销]</t>
         </is>
       </c>
-      <c r="C120" s="64" t="inlineStr">
+      <c r="C120" s="65" t="inlineStr">
         <is>
           <t>久祺股份*</t>
         </is>
@@ -28112,7 +28421,7 @@
           <t>1.14%</t>
         </is>
       </c>
-      <c r="W120" s="161" t="inlineStr">
+      <c r="W120" s="162" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -28127,7 +28436,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Z120" s="162" t="inlineStr">
+      <c r="Z120" s="163" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -28147,7 +28456,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AD120" s="163" t="inlineStr">
+      <c r="AD120" s="164" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -28296,7 +28605,7 @@
           <t>002095</t>
         </is>
       </c>
-      <c r="B122" s="63" t="inlineStr">
+      <c r="B122" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+数据要素]</t>
         </is>
@@ -28393,7 +28702,7 @@
           <t>601956</t>
         </is>
       </c>
-      <c r="B123" s="63" t="inlineStr">
+      <c r="B123" s="64" t="inlineStr">
         <is>
           <t>[人形机器人+蜜雪冰城供应商+跨境电商]</t>
         </is>
@@ -28458,7 +28767,7 @@
           <t>-5.94%</t>
         </is>
       </c>
-      <c r="AA123" s="164" t="inlineStr">
+      <c r="AA123" s="165" t="inlineStr">
         <is>
           <t>8.53%</t>
         </is>
@@ -28556,6 +28865,11 @@
       <c r="AZ123" s="19" t="inlineStr">
         <is>
           <t>0.68%</t>
+        </is>
+      </c>
+      <c r="BA123" s="19" t="inlineStr">
+        <is>
+          <t>-6.34%</t>
         </is>
       </c>
     </row>
@@ -28630,7 +28944,7 @@
           <t>-10.06%</t>
         </is>
       </c>
-      <c r="Y124" s="80" t="inlineStr">
+      <c r="Y124" s="81" t="inlineStr">
         <is>
           <t>-8.59%</t>
         </is>
@@ -28926,7 +29240,7 @@
           <t>600828</t>
         </is>
       </c>
-      <c r="B127" s="93" t="inlineStr">
+      <c r="B127" s="94" t="inlineStr">
         <is>
           <t>[零售+首店经济+即时零售]</t>
         </is>
@@ -29175,12 +29489,12 @@
           <t>000565</t>
         </is>
       </c>
-      <c r="B129" s="121" t="inlineStr">
+      <c r="B129" s="122" t="inlineStr">
         <is>
           <t>[涂料制造+氢能源+军工+重庆国资]</t>
         </is>
       </c>
-      <c r="C129" s="65" t="inlineStr">
+      <c r="C129" s="66" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
@@ -29250,7 +29564,7 @@
           <t>6.16%</t>
         </is>
       </c>
-      <c r="AD129" s="107" t="inlineStr">
+      <c r="AD129" s="108" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -29265,12 +29579,12 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="AG129" s="66" t="inlineStr">
+      <c r="AG129" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AH129" s="67" t="inlineStr">
+      <c r="AH129" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -29363,6 +29677,11 @@
       <c r="AZ129" s="19" t="inlineStr">
         <is>
           <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="BA129" s="19" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
         </is>
       </c>
     </row>
@@ -29432,7 +29751,7 @@
           <t>4板[3.5]</t>
         </is>
       </c>
-      <c r="Z130" s="118" t="inlineStr">
+      <c r="Z130" s="119" t="inlineStr">
         <is>
           <t>8.31%[4.7]</t>
         </is>
@@ -29492,7 +29811,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AR130" s="137" t="inlineStr">
+      <c r="AR130" s="138" t="inlineStr">
         <is>
           <t>-8.14%</t>
         </is>
@@ -29711,7 +30030,7 @@
           <t>-3.71%</t>
         </is>
       </c>
-      <c r="Z132" s="165" t="inlineStr">
+      <c r="Z132" s="166" t="inlineStr">
         <is>
           <t>-7.73%</t>
         </is>
@@ -29726,7 +30045,7 @@
           <t>15.60%</t>
         </is>
       </c>
-      <c r="AC132" s="166" t="inlineStr">
+      <c r="AC132" s="167" t="inlineStr">
         <is>
           <t>-8.43%</t>
         </is>
@@ -29840,7 +30159,7 @@
           <t>603359</t>
         </is>
       </c>
-      <c r="B134" s="144" t="inlineStr">
+      <c r="B134" s="145" t="inlineStr">
         <is>
           <t>[参股迪洛斯10%股权+AI初创公司]</t>
         </is>
@@ -29980,7 +30299,7 @@
           <t>-4.06%</t>
         </is>
       </c>
-      <c r="AP134" s="167" t="inlineStr">
+      <c r="AP134" s="168" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -30067,7 +30386,7 @@
           <t>4.40%</t>
         </is>
       </c>
-      <c r="U135" s="168" t="inlineStr">
+      <c r="U135" s="169" t="inlineStr">
         <is>
           <t>9.16%[2.8]</t>
         </is>
@@ -30112,7 +30431,7 @@
           <t>-5.16%</t>
         </is>
       </c>
-      <c r="AD135" s="169" t="inlineStr">
+      <c r="AD135" s="170" t="inlineStr">
         <is>
           <t>7.44%</t>
         </is>
@@ -30229,7 +30548,7 @@
           <t>-3.17%</t>
         </is>
       </c>
-      <c r="AF136" s="170" t="inlineStr">
+      <c r="AF136" s="171" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
@@ -30403,7 +30722,7 @@
           <t>1.88%</t>
         </is>
       </c>
-      <c r="AC138" s="171" t="inlineStr">
+      <c r="AC138" s="172" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -30640,6 +30959,11 @@
           <t>-1.44%</t>
         </is>
       </c>
+      <c r="BA139" s="19" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="14" t="inlineStr">
@@ -30649,10 +30973,10 @@
       </c>
       <c r="B140" s="38" t="inlineStr">
         <is>
-          <t>[稀土永磁+贵金属回收+山西国资+一季报同比扭亏]</t>
-        </is>
-      </c>
-      <c r="C140" s="64" t="inlineStr">
+          <t>[贵金属回收+稀土永磁+一季报同比扭亏+山西国资]</t>
+        </is>
+      </c>
+      <c r="C140" s="65" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
@@ -30702,7 +31026,7 @@
           <t>-5.21%</t>
         </is>
       </c>
-      <c r="AC140" s="172" t="inlineStr">
+      <c r="AC140" s="173" t="inlineStr">
         <is>
           <t>-8.88%</t>
         </is>
@@ -30742,7 +31066,7 @@
           <t>6.12%</t>
         </is>
       </c>
-      <c r="AK140" s="173" t="inlineStr">
+      <c r="AK140" s="174" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -30785,6 +31109,11 @@
       <c r="AZ140" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="BA140" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
         </is>
       </c>
     </row>
@@ -30854,7 +31183,7 @@
           <t>9.62%</t>
         </is>
       </c>
-      <c r="AD141" s="174" t="inlineStr">
+      <c r="AD141" s="63" t="inlineStr">
         <is>
           <t>-7.18%</t>
         </is>
@@ -30993,7 +31322,7 @@
           <t>603030</t>
         </is>
       </c>
-      <c r="B143" s="63" t="inlineStr">
+      <c r="B143" s="64" t="inlineStr">
         <is>
           <t>[机器人+出海+建筑装饰+业绩改善]</t>
         </is>
@@ -31135,7 +31464,7 @@
           <t>603040</t>
         </is>
       </c>
-      <c r="B144" s="63" t="inlineStr">
+      <c r="B144" s="64" t="inlineStr">
         <is>
           <t>[一季报增长+滚珠丝杠+汽车零部件+外销]</t>
         </is>
@@ -31180,7 +31509,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AA144" s="147" t="inlineStr">
+      <c r="AA144" s="148" t="inlineStr">
         <is>
           <t>7.39%[3.0]</t>
         </is>
@@ -31195,7 +31524,7 @@
           <t>-4.49%</t>
         </is>
       </c>
-      <c r="AD144" s="112" t="inlineStr">
+      <c r="AD144" s="113" t="inlineStr">
         <is>
           <t>7.57%</t>
         </is>
@@ -31362,6 +31691,11 @@
           <t>3.20%[6.5]</t>
         </is>
       </c>
+      <c r="BA145" s="19" t="inlineStr">
+        <is>
+          <t>-6.80%</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="14" t="inlineStr">
@@ -31516,7 +31850,7 @@
           <t>-1.30%[5.8]</t>
         </is>
       </c>
-      <c r="AC147" s="74" t="inlineStr">
+      <c r="AC147" s="75" t="inlineStr">
         <is>
           <t>-8.66%</t>
         </is>
@@ -31914,7 +32248,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C151" s="84" t="inlineStr">
+      <c r="C151" s="85" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -31959,32 +32293,32 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="O151" s="66" t="inlineStr">
+      <c r="O151" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="P151" s="67" t="inlineStr">
+      <c r="P151" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="Q151" s="85" t="inlineStr">
+      <c r="Q151" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R151" s="85" t="inlineStr">
+      <c r="R151" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S151" s="85" t="inlineStr">
+      <c r="S151" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U151" s="85" t="inlineStr">
+      <c r="U151" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -32014,7 +32348,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AA151" s="85" t="inlineStr">
+      <c r="AA151" s="86" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -32024,7 +32358,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC151" s="86" t="inlineStr">
+      <c r="AC151" s="87" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -32039,7 +32373,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF151" s="85" t="inlineStr">
+      <c r="AF151" s="86" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -32079,7 +32413,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN151" s="87" t="inlineStr">
+      <c r="AN151" s="88" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -32136,7 +32470,12 @@
       </c>
       <c r="AZ151" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="BA151" s="19" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -32146,7 +32485,7 @@
           <t>000965</t>
         </is>
       </c>
-      <c r="B152" s="121" t="inlineStr">
+      <c r="B152" s="122" t="inlineStr">
         <is>
           <t>[房地产+大飞机+天津国企]</t>
         </is>
@@ -32211,7 +32550,7 @@
           <t>-9.93%[0.3]</t>
         </is>
       </c>
-      <c r="Y152" s="143" t="inlineStr">
+      <c r="Y152" s="144" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -32273,7 +32612,7 @@
           <t>001316</t>
         </is>
       </c>
-      <c r="B153" s="121" t="inlineStr">
+      <c r="B153" s="122" t="inlineStr">
         <is>
           <t>[大飞机+航空材料+AI眼镜]</t>
         </is>
@@ -32313,12 +32652,12 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="V153" s="99" t="inlineStr">
+      <c r="V153" s="100" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
       </c>
-      <c r="W153" s="152" t="inlineStr">
+      <c r="W153" s="154" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -32416,6 +32755,11 @@
       <c r="AZ153" s="19" t="inlineStr">
         <is>
           <t>-1.05%</t>
+        </is>
+      </c>
+      <c r="BA153" s="19" t="inlineStr">
+        <is>
+          <t>4.04%</t>
         </is>
       </c>
     </row>
@@ -32510,7 +32854,7 @@
           <t>-6.19%</t>
         </is>
       </c>
-      <c r="AG154" s="172" t="inlineStr">
+      <c r="AG154" s="173" t="inlineStr">
         <is>
           <t>-8.88%</t>
         </is>
@@ -32535,22 +32879,22 @@
           <t>-5.58%</t>
         </is>
       </c>
-      <c r="AL154" s="66" t="inlineStr">
+      <c r="AL154" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AM154" s="67" t="inlineStr">
+      <c r="AM154" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="AN154" s="85" t="inlineStr">
+      <c r="AN154" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="AO154" s="85" t="inlineStr">
+      <c r="AO154" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
@@ -32560,7 +32904,7 @@
           <t>-3.33%</t>
         </is>
       </c>
-      <c r="AQ154" s="85" t="inlineStr">
+      <c r="AQ154" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -32590,7 +32934,7 @@
           <t>-1.56%</t>
         </is>
       </c>
-      <c r="AW154" s="85" t="inlineStr">
+      <c r="AW154" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -32608,6 +32952,11 @@
       <c r="AZ154" s="19" t="inlineStr">
         <is>
           <t>-1.06%</t>
+        </is>
+      </c>
+      <c r="BA154" s="19" t="inlineStr">
+        <is>
+          <t>-6.44%</t>
         </is>
       </c>
     </row>
@@ -32672,7 +33021,7 @@
           <t>-4.29%[5.4]</t>
         </is>
       </c>
-      <c r="AC155" s="173" t="inlineStr">
+      <c r="AC155" s="174" t="inlineStr">
         <is>
           <t>-8.31%</t>
         </is>
@@ -32739,7 +33088,7 @@
           <t>600592</t>
         </is>
       </c>
-      <c r="B156" s="121" t="inlineStr">
+      <c r="B156" s="122" t="inlineStr">
         <is>
           <t>[人形机器人+大飞机+军工+国企]</t>
         </is>
@@ -32824,7 +33173,7 @@
           <t>4.92%</t>
         </is>
       </c>
-      <c r="AI156" s="109" t="inlineStr">
+      <c r="AI156" s="110" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -32946,6 +33295,11 @@
           <t>2板[5.0]</t>
         </is>
       </c>
+      <c r="BA157" s="20" t="inlineStr">
+        <is>
+          <t>-9.98%[2.5]</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="14" t="inlineStr">
@@ -33070,7 +33424,7 @@
           <t>600448</t>
         </is>
       </c>
-      <c r="B159" s="63" t="inlineStr">
+      <c r="B159" s="64" t="inlineStr">
         <is>
           <t>[纺织制造+高外销+国企改革]</t>
         </is>
@@ -33145,7 +33499,7 @@
           <t>6.43%</t>
         </is>
       </c>
-      <c r="AG159" s="168" t="inlineStr">
+      <c r="AG159" s="169" t="inlineStr">
         <is>
           <t>9.17%</t>
         </is>
@@ -33160,7 +33514,7 @@
           <t>2.73%</t>
         </is>
       </c>
-      <c r="AJ159" s="125" t="inlineStr">
+      <c r="AJ159" s="126" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -33170,7 +33524,7 @@
           <t>-5.95%</t>
         </is>
       </c>
-      <c r="AL159" s="109" t="inlineStr">
+      <c r="AL159" s="110" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
@@ -33297,7 +33651,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AV160" s="78" t="inlineStr">
+      <c r="AV160" s="79" t="inlineStr">
         <is>
           <t>7.24%</t>
         </is>
@@ -33320,6 +33674,11 @@
       <c r="AZ160" s="19" t="inlineStr">
         <is>
           <t>6.68%</t>
+        </is>
+      </c>
+      <c r="BA160" s="19" t="inlineStr">
+        <is>
+          <t>-1.14%</t>
         </is>
       </c>
     </row>
@@ -33329,7 +33688,7 @@
           <t>300095</t>
         </is>
       </c>
-      <c r="B161" s="121" t="inlineStr">
+      <c r="B161" s="122" t="inlineStr">
         <is>
           <t>[航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造]</t>
         </is>
@@ -33426,12 +33785,12 @@
           <t>300581</t>
         </is>
       </c>
-      <c r="B162" s="121" t="inlineStr">
+      <c r="B162" s="122" t="inlineStr">
         <is>
           <t>[航空装备+军工+无人机]</t>
         </is>
       </c>
-      <c r="C162" s="36" t="inlineStr">
+      <c r="C162" s="65" t="inlineStr">
         <is>
           <t>晨曦航空*</t>
         </is>
@@ -33481,7 +33840,7 @@
           <t>2板[4.6]</t>
         </is>
       </c>
-      <c r="AC162" s="112" t="inlineStr">
+      <c r="AC162" s="113" t="inlineStr">
         <is>
           <t>7.58%[2.5]</t>
         </is>
@@ -33491,7 +33850,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AE162" s="110" t="inlineStr">
+      <c r="AE162" s="111" t="inlineStr">
         <is>
           <t>-8.80%</t>
         </is>
@@ -33501,7 +33860,7 @@
           <t>-4.07%</t>
         </is>
       </c>
-      <c r="AG162" s="76" t="inlineStr">
+      <c r="AG162" s="77" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
@@ -33516,7 +33875,7 @@
           <t>-4.11%</t>
         </is>
       </c>
-      <c r="AJ162" s="81" t="inlineStr">
+      <c r="AJ162" s="82" t="inlineStr">
         <is>
           <t>-8.83%</t>
         </is>
@@ -33529,6 +33888,11 @@
       <c r="AL162" s="19" t="inlineStr">
         <is>
           <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="BA162" s="21" t="inlineStr">
+        <is>
+          <t>首板*[2.9]</t>
         </is>
       </c>
     </row>
@@ -33598,7 +33962,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AC163" s="125" t="inlineStr">
+      <c r="AC163" s="126" t="inlineStr">
         <is>
           <t>-7.59%[11.4]</t>
         </is>
@@ -33636,6 +34000,11 @@
       <c r="AJ163" s="19" t="inlineStr">
         <is>
           <t>0.00%</t>
+        </is>
+      </c>
+      <c r="BA163" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -33645,7 +34014,7 @@
           <t>603610</t>
         </is>
       </c>
-      <c r="B164" s="63" t="inlineStr">
+      <c r="B164" s="64" t="inlineStr">
         <is>
           <t>[脑机接口+智能电动床+鸿蒙+外销]</t>
         </is>
@@ -33705,7 +34074,7 @@
           <t>2.91%</t>
         </is>
       </c>
-      <c r="AF164" s="143" t="inlineStr">
+      <c r="AF164" s="144" t="inlineStr">
         <is>
           <t>-9.31%</t>
         </is>
@@ -33742,12 +34111,12 @@
           <t>002190</t>
         </is>
       </c>
-      <c r="B165" s="121" t="inlineStr">
+      <c r="B165" s="122" t="inlineStr">
         <is>
           <t>[成飞概念+军工+汽车零部件+国企改革]</t>
         </is>
       </c>
-      <c r="C165" s="65" t="inlineStr">
+      <c r="C165" s="66" t="inlineStr">
         <is>
           <t>成飞集成</t>
         </is>
@@ -33812,12 +34181,12 @@
           <t>7板[2.6]</t>
         </is>
       </c>
-      <c r="AH165" s="66" t="inlineStr">
+      <c r="AH165" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AI165" s="67" t="inlineStr">
+      <c r="AI165" s="68" t="inlineStr">
         <is>
           <t>9板[2.4]</t>
         </is>
@@ -33837,7 +34206,7 @@
           <t>-4.97%</t>
         </is>
       </c>
-      <c r="AM165" s="171" t="inlineStr">
+      <c r="AM165" s="172" t="inlineStr">
         <is>
           <t>-7.02%</t>
         </is>
@@ -33860,6 +34229,11 @@
       <c r="AQ165" s="19" t="inlineStr">
         <is>
           <t>0.98%</t>
+        </is>
+      </c>
+      <c r="BA165" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
     </row>
@@ -33869,12 +34243,12 @@
           <t>002651</t>
         </is>
       </c>
-      <c r="B166" s="121" t="inlineStr">
+      <c r="B166" s="122" t="inlineStr">
         <is>
           <t>[军工+航空零部件+粉磨系统+机器人]</t>
         </is>
       </c>
-      <c r="C166" s="65" t="inlineStr">
+      <c r="C166" s="66" t="inlineStr">
         <is>
           <t>利君股份</t>
         </is>
@@ -33949,7 +34323,7 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="AI166" s="66" t="inlineStr">
+      <c r="AI166" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
@@ -34012,6 +34386,11 @@
       <c r="AZ166" s="19" t="inlineStr">
         <is>
           <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="BA166" s="19" t="inlineStr">
+        <is>
+          <t>6.41%</t>
         </is>
       </c>
     </row>
@@ -34021,7 +34400,7 @@
           <t>302132</t>
         </is>
       </c>
-      <c r="B167" s="121" t="inlineStr">
+      <c r="B167" s="122" t="inlineStr">
         <is>
           <t>[航空装备+军贸+无人机+人形机器人]</t>
         </is>
@@ -34101,7 +34480,7 @@
           <t>1.30%</t>
         </is>
       </c>
-      <c r="AJ167" s="92" t="inlineStr">
+      <c r="AJ167" s="93" t="inlineStr">
         <is>
           <t>-7.92%</t>
         </is>
@@ -34123,7 +34502,7 @@
           <t>688552</t>
         </is>
       </c>
-      <c r="B168" s="121" t="inlineStr">
+      <c r="B168" s="122" t="inlineStr">
         <is>
           <t>[军工+一季报增长+低空经济+央企]</t>
         </is>
@@ -34225,7 +34604,7 @@
           <t>873169</t>
         </is>
       </c>
-      <c r="B169" s="121" t="inlineStr">
+      <c r="B169" s="122" t="inlineStr">
         <is>
           <t>[航空航天+轨道交通+一季报增长]</t>
         </is>
@@ -34419,12 +34798,12 @@
           <t>300994</t>
         </is>
       </c>
-      <c r="B171" s="63" t="inlineStr">
+      <c r="B171" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+儿童自行车+两轮车+外销]</t>
         </is>
       </c>
-      <c r="C171" s="64" t="inlineStr">
+      <c r="C171" s="65" t="inlineStr">
         <is>
           <t>久祺股份*</t>
         </is>
@@ -34444,7 +34823,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="W171" s="161" t="inlineStr">
+      <c r="W171" s="162" t="inlineStr">
         <is>
           <t>-8.01%</t>
         </is>
@@ -34459,7 +34838,7 @@
           <t>3.85%</t>
         </is>
       </c>
-      <c r="Z171" s="162" t="inlineStr">
+      <c r="Z171" s="163" t="inlineStr">
         <is>
           <t>9.27%</t>
         </is>
@@ -34479,7 +34858,7 @@
           <t>-10.95%</t>
         </is>
       </c>
-      <c r="AD171" s="163" t="inlineStr">
+      <c r="AD171" s="164" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -34581,12 +34960,12 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AF172" s="96" t="inlineStr">
+      <c r="AF172" s="97" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="AG172" s="125" t="inlineStr">
+      <c r="AG172" s="126" t="inlineStr">
         <is>
           <t>-7.60%</t>
         </is>
@@ -34720,7 +35099,7 @@
           <t>002977</t>
         </is>
       </c>
-      <c r="B174" s="121" t="inlineStr">
+      <c r="B174" s="122" t="inlineStr">
         <is>
           <t>[军工+卫星通信+雷达+一季报增长]</t>
         </is>
@@ -34882,7 +35261,7 @@
           <t>4.96%[3.3]</t>
         </is>
       </c>
-      <c r="AF175" s="125" t="inlineStr">
+      <c r="AF175" s="126" t="inlineStr">
         <is>
           <t>-7.60%</t>
         </is>
@@ -34912,7 +35291,7 @@
           <t>-1.20%</t>
         </is>
       </c>
-      <c r="AL175" s="152" t="inlineStr">
+      <c r="AL175" s="154" t="inlineStr">
         <is>
           <t>-7.27%</t>
         </is>
@@ -34924,7 +35303,7 @@
           <t>002290</t>
         </is>
       </c>
-      <c r="B176" s="93" t="inlineStr">
+      <c r="B176" s="94" t="inlineStr">
         <is>
           <t>[算力+DeepSeek概念+家电零部件]</t>
         </is>
@@ -35042,6 +35421,11 @@
       <c r="AZ176" s="19" t="inlineStr">
         <is>
           <t>-3.64%</t>
+        </is>
+      </c>
+      <c r="BA176" s="193" t="inlineStr">
+        <is>
+          <t>-8.50%</t>
         </is>
       </c>
     </row>
@@ -35086,7 +35470,7 @@
           <t>5.68%[4.2]</t>
         </is>
       </c>
-      <c r="AC177" s="193" t="inlineStr">
+      <c r="AC177" s="194" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -35158,7 +35542,7 @@
           <t>恒而达*</t>
         </is>
       </c>
-      <c r="D178" s="135" t="inlineStr">
+      <c r="D178" s="136" t="inlineStr">
         <is>
           <t>72.05%</t>
         </is>
@@ -35218,7 +35602,7 @@
           <t>5.55%</t>
         </is>
       </c>
-      <c r="AJ178" s="194" t="inlineStr">
+      <c r="AJ178" s="195" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -35238,7 +35622,7 @@
           <t>-5.26%</t>
         </is>
       </c>
-      <c r="AN178" s="195" t="inlineStr">
+      <c r="AN178" s="196" t="inlineStr">
         <is>
           <t>8.13%</t>
         </is>
@@ -35320,7 +35704,7 @@
           <t>2.12%</t>
         </is>
       </c>
-      <c r="AJ179" s="194" t="inlineStr">
+      <c r="AJ179" s="195" t="inlineStr">
         <is>
           <t>-7.20%</t>
         </is>
@@ -35377,7 +35761,7 @@
           <t>2板[3.4]</t>
         </is>
       </c>
-      <c r="AD180" s="196" t="inlineStr">
+      <c r="AD180" s="197" t="inlineStr">
         <is>
           <t>-7.49%[2.8]</t>
         </is>
@@ -35439,7 +35823,7 @@
           <t>[涤纶+产品涨价+一季报增长]</t>
         </is>
       </c>
-      <c r="C181" s="65" t="inlineStr">
+      <c r="C181" s="66" t="inlineStr">
         <is>
           <t>苏州龙杰</t>
         </is>
@@ -35489,7 +35873,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AH181" s="111" t="inlineStr">
+      <c r="AH181" s="112" t="inlineStr">
         <is>
           <t>-7.03%[2.2]</t>
         </is>
@@ -35519,12 +35903,12 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="AN181" s="66" t="inlineStr">
+      <c r="AN181" s="67" t="inlineStr">
         <is>
           <t>8板[0.2]</t>
         </is>
       </c>
-      <c r="AO181" s="67" t="inlineStr">
+      <c r="AO181" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -35554,7 +35938,7 @@
           <t>5.99%</t>
         </is>
       </c>
-      <c r="AU181" s="197" t="inlineStr">
+      <c r="AU181" s="198" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -35581,7 +35965,12 @@
       </c>
       <c r="AZ181" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-1.17%[2.6]</t>
+        </is>
+      </c>
+      <c r="BA181" s="20" t="inlineStr">
+        <is>
+          <t>-9.97%</t>
         </is>
       </c>
     </row>
@@ -35686,7 +36075,7 @@
           <t>-5.99%</t>
         </is>
       </c>
-      <c r="AP182" s="198" t="inlineStr">
+      <c r="AP182" s="199" t="inlineStr">
         <is>
           <t>-7.39%</t>
         </is>
@@ -35708,7 +36097,7 @@
           <t>300840</t>
         </is>
       </c>
-      <c r="B183" s="144" t="inlineStr">
+      <c r="B183" s="145" t="inlineStr">
         <is>
           <t>[AI智能体+服装定制+外贸]</t>
         </is>
@@ -35758,7 +36147,7 @@
           <t>3.07%[3.3]</t>
         </is>
       </c>
-      <c r="AG183" s="91" t="inlineStr">
+      <c r="AG183" s="92" t="inlineStr">
         <is>
           <t>-7.91%</t>
         </is>
@@ -35805,7 +36194,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C184" s="84" t="inlineStr">
+      <c r="C184" s="85" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -35850,37 +36239,37 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="O184" s="66" t="inlineStr">
+      <c r="O184" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="P184" s="67" t="inlineStr">
+      <c r="P184" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="Q184" s="85" t="inlineStr">
+      <c r="Q184" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R184" s="85" t="inlineStr">
+      <c r="R184" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S184" s="85" t="inlineStr">
+      <c r="S184" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U184" s="85" t="inlineStr">
+      <c r="U184" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
       </c>
-      <c r="AA184" s="85" t="inlineStr">
+      <c r="AA184" s="86" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
@@ -35890,7 +36279,7 @@
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AC184" s="86" t="inlineStr">
+      <c r="AC184" s="87" t="inlineStr">
         <is>
           <t>-7.87%</t>
         </is>
@@ -35905,7 +36294,7 @@
           <t>4.43%</t>
         </is>
       </c>
-      <c r="AF184" s="85" t="inlineStr">
+      <c r="AF184" s="86" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -35945,7 +36334,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN184" s="87" t="inlineStr">
+      <c r="AN184" s="88" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -36002,7 +36391,12 @@
       </c>
       <c r="AZ184" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="BA184" s="19" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -36012,12 +36406,12 @@
           <t>000565</t>
         </is>
       </c>
-      <c r="B185" s="121" t="inlineStr">
+      <c r="B185" s="122" t="inlineStr">
         <is>
           <t>[涂料制造+氢能源+军工+重庆国资]</t>
         </is>
       </c>
-      <c r="C185" s="65" t="inlineStr">
+      <c r="C185" s="66" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
@@ -36067,7 +36461,7 @@
           <t>6.16%</t>
         </is>
       </c>
-      <c r="AD185" s="107" t="inlineStr">
+      <c r="AD185" s="108" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -36082,12 +36476,12 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="AG185" s="66" t="inlineStr">
+      <c r="AG185" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AH185" s="67" t="inlineStr">
+      <c r="AH185" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -36180,6 +36574,11 @@
       <c r="AZ185" s="19" t="inlineStr">
         <is>
           <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="BA185" s="19" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
         </is>
       </c>
     </row>
@@ -36189,7 +36588,7 @@
           <t>002551</t>
         </is>
       </c>
-      <c r="B186" s="63" t="inlineStr">
+      <c r="B186" s="64" t="inlineStr">
         <is>
           <t>[出口美国+外销+医疗器械]</t>
         </is>
@@ -36351,12 +36750,12 @@
           <t>-6.39%</t>
         </is>
       </c>
-      <c r="AL187" s="199" t="inlineStr">
+      <c r="AL187" s="200" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
       </c>
-      <c r="AM187" s="106" t="inlineStr">
+      <c r="AM187" s="107" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
@@ -36424,6 +36823,11 @@
       <c r="AZ187" s="25" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="BA187" s="19" t="inlineStr">
+        <is>
+          <t>-4.69%</t>
         </is>
       </c>
     </row>
@@ -36433,7 +36837,7 @@
           <t>603488</t>
         </is>
       </c>
-      <c r="B188" s="121" t="inlineStr">
+      <c r="B188" s="122" t="inlineStr">
         <is>
           <t>[军工信息化+电梯]</t>
         </is>
@@ -36478,7 +36882,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AG188" s="200" t="inlineStr">
+      <c r="AG188" s="201" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -36595,7 +36999,7 @@
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="AK189" s="201" t="inlineStr">
+      <c r="AK189" s="202" t="inlineStr">
         <is>
           <t>-7.08%</t>
         </is>
@@ -36622,7 +37026,7 @@
           <t>002040</t>
         </is>
       </c>
-      <c r="B190" s="63" t="inlineStr">
+      <c r="B190" s="64" t="inlineStr">
         <is>
           <t>[地天板+港口+统一大市场+国企改革]</t>
         </is>
@@ -36707,7 +37111,7 @@
           <t>6板</t>
         </is>
       </c>
-      <c r="AL190" s="141" t="inlineStr">
+      <c r="AL190" s="142" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
@@ -36727,7 +37131,7 @@
           <t>2.71%</t>
         </is>
       </c>
-      <c r="AP190" s="154" t="inlineStr">
+      <c r="AP190" s="156" t="inlineStr">
         <is>
           <t>-7.31%</t>
         </is>
@@ -36760,6 +37164,11 @@
       <c r="AZ190" s="19" t="inlineStr">
         <is>
           <t>-5.55%</t>
+        </is>
+      </c>
+      <c r="BA190" s="19" t="inlineStr">
+        <is>
+          <t>2.68%</t>
         </is>
       </c>
     </row>
@@ -36769,7 +37178,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B191" s="63" t="inlineStr">
+      <c r="B191" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -36779,7 +37188,7 @@
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D191" s="94" t="inlineStr">
+      <c r="D191" s="95" t="inlineStr">
         <is>
           <t>-5.58%</t>
         </is>
@@ -36966,7 +37375,7 @@
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D192" s="94" t="inlineStr">
+      <c r="D192" s="95" t="inlineStr">
         <is>
           <t>-6.02%</t>
         </is>
@@ -37139,6 +37548,11 @@
       <c r="AZ192" s="19" t="inlineStr">
         <is>
           <t>-1.44%</t>
+        </is>
+      </c>
+      <c r="BA192" s="19" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
         </is>
       </c>
     </row>
@@ -37213,7 +37627,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AG193" s="125" t="inlineStr">
+      <c r="AG193" s="126" t="inlineStr">
         <is>
           <t>-7.59%</t>
         </is>
@@ -37258,7 +37672,7 @@
           <t>-2.30%</t>
         </is>
       </c>
-      <c r="AP193" s="126" t="inlineStr">
+      <c r="AP193" s="127" t="inlineStr">
         <is>
           <t>-7.63%</t>
         </is>
@@ -37275,7 +37689,7 @@
           <t>600798</t>
         </is>
       </c>
-      <c r="B194" s="63" t="inlineStr">
+      <c r="B194" s="64" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
@@ -37360,7 +37774,7 @@
           <t>-4.77%</t>
         </is>
       </c>
-      <c r="AM194" s="81" t="inlineStr">
+      <c r="AM194" s="82" t="inlineStr">
         <is>
           <t>-8.83%</t>
         </is>
@@ -37398,6 +37812,11 @@
       <c r="AZ194" s="19" t="inlineStr">
         <is>
           <t>-5.73%</t>
+        </is>
+      </c>
+      <c r="BA194" s="19" t="inlineStr">
+        <is>
+          <t>1.22%</t>
         </is>
       </c>
     </row>
@@ -37407,12 +37826,12 @@
           <t>601008</t>
         </is>
       </c>
-      <c r="B195" s="63" t="inlineStr">
+      <c r="B195" s="64" t="inlineStr">
         <is>
           <t>[港口航运+一带一路+国企]</t>
         </is>
       </c>
-      <c r="C195" s="65" t="inlineStr">
+      <c r="C195" s="66" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
@@ -37457,12 +37876,12 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="S195" s="66" t="inlineStr">
+      <c r="S195" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="T195" s="67" t="inlineStr">
+      <c r="T195" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -37562,9 +37981,14 @@
           <t>1.84%[2.3]</t>
         </is>
       </c>
-      <c r="AZ195" s="71" t="inlineStr">
+      <c r="AZ195" s="72" t="inlineStr">
         <is>
           <t>-7.36%</t>
+        </is>
+      </c>
+      <c r="BA195" s="19" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
         </is>
       </c>
     </row>
@@ -37574,7 +37998,7 @@
           <t>601022</t>
         </is>
       </c>
-      <c r="B196" s="63" t="inlineStr">
+      <c r="B196" s="64" t="inlineStr">
         <is>
           <t>[航运+海洋+浙江国资]</t>
         </is>
@@ -37639,7 +38063,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AK196" s="202" t="inlineStr">
+      <c r="AK196" s="203" t="inlineStr">
         <is>
           <t>-9.00%</t>
         </is>
@@ -37682,6 +38106,11 @@
       <c r="AZ196" s="19" t="inlineStr">
         <is>
           <t>-4.86%</t>
+        </is>
+      </c>
+      <c r="BA196" s="19" t="inlineStr">
+        <is>
+          <t>-0.10%</t>
         </is>
       </c>
     </row>
@@ -37691,12 +38120,12 @@
           <t>300240</t>
         </is>
       </c>
-      <c r="B197" s="101" t="inlineStr">
+      <c r="B197" s="102" t="inlineStr">
         <is>
           <t>[现代物流服务商+冷链物流]</t>
         </is>
       </c>
-      <c r="C197" s="64" t="inlineStr">
+      <c r="C197" s="65" t="inlineStr">
         <is>
           <t>飞力达*</t>
         </is>
@@ -37776,7 +38205,7 @@
           <t>-2.78%</t>
         </is>
       </c>
-      <c r="AL197" s="107" t="inlineStr">
+      <c r="AL197" s="108" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
@@ -37798,17 +38227,17 @@
           <t>833171</t>
         </is>
       </c>
-      <c r="B198" s="63" t="inlineStr">
+      <c r="B198" s="64" t="inlineStr">
         <is>
           <t>[航运+战略合作+出海]</t>
         </is>
       </c>
-      <c r="C198" s="64" t="inlineStr">
+      <c r="C198" s="65" t="inlineStr">
         <is>
           <t>国航远洋**</t>
         </is>
       </c>
-      <c r="D198" s="135" t="inlineStr">
+      <c r="D198" s="136" t="inlineStr">
         <is>
           <t>71.29%</t>
         </is>
@@ -37848,7 +38277,7 @@
           <t>首板**[2.7]</t>
         </is>
       </c>
-      <c r="AG198" s="203" t="inlineStr">
+      <c r="AG198" s="204" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
@@ -37878,7 +38307,7 @@
           <t>0.37%</t>
         </is>
       </c>
-      <c r="AM198" s="197" t="inlineStr">
+      <c r="AM198" s="198" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -37901,6 +38330,11 @@
       <c r="AZ198" s="19" t="inlineStr">
         <is>
           <t>-4.77%</t>
+        </is>
+      </c>
+      <c r="BA198" s="19" t="inlineStr">
+        <is>
+          <t>5.19%</t>
         </is>
       </c>
     </row>
@@ -37910,7 +38344,7 @@
           <t>002909</t>
         </is>
       </c>
-      <c r="B199" s="63" t="inlineStr">
+      <c r="B199" s="64" t="inlineStr">
         <is>
           <t>[集装箱用产品+涂料+有机硅胶粘剂+跨境电商]</t>
         </is>
@@ -38012,7 +38446,7 @@
           <t>605138</t>
         </is>
       </c>
-      <c r="B200" s="63" t="inlineStr">
+      <c r="B200" s="64" t="inlineStr">
         <is>
           <t>[纺织服装+外销]</t>
         </is>
@@ -38119,7 +38553,7 @@
           <t>000420</t>
         </is>
       </c>
-      <c r="B201" s="121" t="inlineStr">
+      <c r="B201" s="122" t="inlineStr">
         <is>
           <t>[涨价+碳纤维+军工应用+国企改革]</t>
         </is>
@@ -38179,7 +38613,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AJ201" s="199" t="inlineStr">
+      <c r="AJ201" s="200" t="inlineStr">
         <is>
           <t>-7.74%</t>
         </is>
@@ -38338,7 +38772,7 @@
           <t>601866</t>
         </is>
       </c>
-      <c r="B203" s="63" t="inlineStr">
+      <c r="B203" s="64" t="inlineStr">
         <is>
           <t>[航运物流+中字头]</t>
         </is>
@@ -38495,7 +38929,7 @@
           <t>-3.51%</t>
         </is>
       </c>
-      <c r="AJ204" s="127" t="inlineStr">
+      <c r="AJ204" s="128" t="inlineStr">
         <is>
           <t>-9.35%</t>
         </is>
@@ -38639,7 +39073,7 @@
           <t>[酶解蛋白产品+饲料添加剂+宠物经济]</t>
         </is>
       </c>
-      <c r="C206" s="64" t="inlineStr">
+      <c r="C206" s="65" t="inlineStr">
         <is>
           <t>美农生物*</t>
         </is>
@@ -38786,7 +39220,7 @@
           <t>首板*[8.9]</t>
         </is>
       </c>
-      <c r="AH207" s="99" t="inlineStr">
+      <c r="AH207" s="100" t="inlineStr">
         <is>
           <t>-7.34%[2.8]</t>
         </is>
@@ -38925,7 +39359,7 @@
           <t>002560</t>
         </is>
       </c>
-      <c r="B209" s="121" t="inlineStr">
+      <c r="B209" s="122" t="inlineStr">
         <is>
           <t>[军工+大飞机+电线电缆]</t>
         </is>
@@ -38985,7 +39419,7 @@
           <t>-9.98%</t>
         </is>
       </c>
-      <c r="AK209" s="204" t="inlineStr">
+      <c r="AK209" s="205" t="inlineStr">
         <is>
           <t>-8.34%</t>
         </is>
@@ -39022,7 +39456,7 @@
           <t>002811</t>
         </is>
       </c>
-      <c r="B210" s="144" t="inlineStr">
+      <c r="B210" s="145" t="inlineStr">
         <is>
           <t>[AI设计+IP+室内设计+小红书]</t>
         </is>
@@ -39284,6 +39718,11 @@
           <t>3.92%</t>
         </is>
       </c>
+      <c r="BA211" s="63" t="inlineStr">
+        <is>
+          <t>-7.18%</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="14" t="inlineStr">
@@ -39291,7 +39730,7 @@
           <t>605136</t>
         </is>
       </c>
-      <c r="B212" s="93" t="inlineStr">
+      <c r="B212" s="94" t="inlineStr">
         <is>
           <t>[化妆品+麦角硫因（业绩收入占比小）+电商]</t>
         </is>
@@ -39590,7 +40029,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AJ214" s="193" t="inlineStr">
+      <c r="AJ214" s="194" t="inlineStr">
         <is>
           <t>-7.97%</t>
         </is>
@@ -39625,7 +40064,7 @@
           <t>-10.01%</t>
         </is>
       </c>
-      <c r="AQ214" s="115" t="inlineStr">
+      <c r="AQ214" s="116" t="inlineStr">
         <is>
           <t>-7.00%</t>
         </is>
@@ -39662,7 +40101,7 @@
           <t>002819</t>
         </is>
       </c>
-      <c r="B215" s="144" t="inlineStr">
+      <c r="B215" s="145" t="inlineStr">
         <is>
           <t>[北京玄戒+中科系+鸿蒙概念+脑机接口]</t>
         </is>
@@ -39764,7 +40203,7 @@
           <t>603630</t>
         </is>
       </c>
-      <c r="B216" s="93" t="inlineStr">
+      <c r="B216" s="94" t="inlineStr">
         <is>
           <t>[日化用品+护肤品+AI数智平台+电子商务]</t>
         </is>
@@ -39867,6 +40306,11 @@
       <c r="AZ216" s="21" t="inlineStr">
         <is>
           <t>首板</t>
+        </is>
+      </c>
+      <c r="BA216" s="19" t="inlineStr">
+        <is>
+          <t>-6.57%</t>
         </is>
       </c>
     </row>
@@ -39983,7 +40427,7 @@
           <t>002735</t>
         </is>
       </c>
-      <c r="B218" s="121" t="inlineStr">
+      <c r="B218" s="122" t="inlineStr">
         <is>
           <t>[可控核聚变+军工+塑料包装]</t>
         </is>
@@ -40018,7 +40462,7 @@
           <t>0.85%[2.5]</t>
         </is>
       </c>
-      <c r="AG218" s="205" t="inlineStr">
+      <c r="AG218" s="206" t="inlineStr">
         <is>
           <t>7.61%[3.4]</t>
         </is>
@@ -40120,7 +40564,7 @@
           <t>605188</t>
         </is>
       </c>
-      <c r="B219" s="93" t="inlineStr">
+      <c r="B219" s="94" t="inlineStr">
         <is>
           <t>[零售+生鲜食品+智能物流]</t>
         </is>
@@ -40250,7 +40694,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU219" s="75" t="inlineStr">
+      <c r="AU219" s="76" t="inlineStr">
         <is>
           <t>-7.24%</t>
         </is>
@@ -40332,7 +40776,7 @@
           <t>-4.79%[5.7]</t>
         </is>
       </c>
-      <c r="AL220" s="81" t="inlineStr">
+      <c r="AL220" s="82" t="inlineStr">
         <is>
           <t>-8.84%</t>
         </is>
@@ -40394,7 +40838,7 @@
           <t>301335</t>
         </is>
       </c>
-      <c r="B221" s="63" t="inlineStr">
+      <c r="B221" s="64" t="inlineStr">
         <is>
           <t>[资产重组+宠物经济+跨境电商]</t>
         </is>
@@ -40449,7 +40893,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AK221" s="206" t="inlineStr">
+      <c r="AK221" s="207" t="inlineStr">
         <is>
           <t>-8.27%</t>
         </is>
@@ -40474,7 +40918,7 @@
           <t>-2.15%</t>
         </is>
       </c>
-      <c r="AP221" s="88" t="inlineStr">
+      <c r="AP221" s="89" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -40608,7 +41052,7 @@
           <t>[甲醛+可用于生产季戊四醇+国企]</t>
         </is>
       </c>
-      <c r="C223" s="64" t="inlineStr">
+      <c r="C223" s="65" t="inlineStr">
         <is>
           <t>江天化学*</t>
         </is>
@@ -40628,7 +41072,7 @@
           <t>5.67%</t>
         </is>
       </c>
-      <c r="AE223" s="207" t="inlineStr">
+      <c r="AE223" s="208" t="inlineStr">
         <is>
           <t>8.11%</t>
         </is>
@@ -40678,12 +41122,12 @@
           <t>-1.27%</t>
         </is>
       </c>
-      <c r="AO223" s="132" t="inlineStr">
+      <c r="AO223" s="133" t="inlineStr">
         <is>
           <t>8.30%</t>
         </is>
       </c>
-      <c r="AP223" s="133" t="inlineStr">
+      <c r="AP223" s="134" t="inlineStr">
         <is>
           <t>-9.23%</t>
         </is>
@@ -40755,7 +41199,7 @@
           <t>-0.77%</t>
         </is>
       </c>
-      <c r="AM224" s="88" t="inlineStr">
+      <c r="AM224" s="89" t="inlineStr">
         <is>
           <t>-9.26%</t>
         </is>
@@ -40803,6 +41247,11 @@
       <c r="AZ224" s="19" t="inlineStr">
         <is>
           <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="BA224" s="19" t="inlineStr">
+        <is>
+          <t>-6.31%</t>
         </is>
       </c>
     </row>
@@ -40862,7 +41311,7 @@
           <t>2.69%[4.6]</t>
         </is>
       </c>
-      <c r="AL225" s="208" t="inlineStr">
+      <c r="AL225" s="209" t="inlineStr">
         <is>
           <t>-9.45%</t>
         </is>
@@ -40892,7 +41341,7 @@
           <t>2.31%</t>
         </is>
       </c>
-      <c r="AR225" s="91" t="inlineStr">
+      <c r="AR225" s="92" t="inlineStr">
         <is>
           <t>-7.90%</t>
         </is>
@@ -41001,7 +41450,7 @@
           <t>[可控核聚变+超导+电网设备+国企]</t>
         </is>
       </c>
-      <c r="C227" s="65" t="inlineStr">
+      <c r="C227" s="66" t="inlineStr">
         <is>
           <t>百利电气</t>
         </is>
@@ -41096,12 +41545,12 @@
           <t>-7.07%</t>
         </is>
       </c>
-      <c r="AV227" s="66" t="inlineStr">
+      <c r="AV227" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AW227" s="67" t="inlineStr">
+      <c r="AW227" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
@@ -41119,6 +41568,11 @@
       <c r="AZ227" s="19" t="inlineStr">
         <is>
           <t>4.72%</t>
+        </is>
+      </c>
+      <c r="BA227" s="19" t="inlineStr">
+        <is>
+          <t>-6.60%</t>
         </is>
       </c>
     </row>
@@ -41133,7 +41587,7 @@
           <t>[并购重组+电力+光伏]</t>
         </is>
       </c>
-      <c r="C228" s="64" t="inlineStr">
+      <c r="C228" s="65" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
@@ -41256,6 +41710,11 @@
       <c r="AZ228" s="19" t="inlineStr">
         <is>
           <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="BA228" s="19" t="inlineStr">
+        <is>
+          <t>-4.62%</t>
         </is>
       </c>
     </row>
@@ -41320,7 +41779,7 @@
           <t>3.08%[3.7]</t>
         </is>
       </c>
-      <c r="AL229" s="167" t="inlineStr">
+      <c r="AL229" s="168" t="inlineStr">
         <is>
           <t>-7.53%</t>
         </is>
@@ -41442,7 +41901,7 @@
           <t>-9.97%[3.7]</t>
         </is>
       </c>
-      <c r="AM230" s="209" t="inlineStr">
+      <c r="AM230" s="210" t="inlineStr">
         <is>
           <t>-9.43%</t>
         </is>
@@ -41505,6 +41964,11 @@
       <c r="AZ230" s="19" t="inlineStr">
         <is>
           <t>-1.17%</t>
+        </is>
+      </c>
+      <c r="BA230" s="19" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
         </is>
       </c>
     </row>
@@ -41514,7 +41978,7 @@
           <t>835174</t>
         </is>
       </c>
-      <c r="B231" s="63" t="inlineStr">
+      <c r="B231" s="64" t="inlineStr">
         <is>
           <t>[重大资产重组+基建+一带一路]</t>
         </is>
@@ -41564,12 +42028,12 @@
           <t>-12.01%</t>
         </is>
       </c>
-      <c r="AL231" s="210" t="inlineStr">
+      <c r="AL231" s="211" t="inlineStr">
         <is>
           <t>-9.16%</t>
         </is>
       </c>
-      <c r="AM231" s="83" t="inlineStr">
+      <c r="AM231" s="84" t="inlineStr">
         <is>
           <t>-7.28%</t>
         </is>
@@ -41616,7 +42080,7 @@
           <t>信邦智能*</t>
         </is>
       </c>
-      <c r="D232" s="122" t="inlineStr">
+      <c r="D232" s="123" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -41661,7 +42125,7 @@
           <t>-17.76%</t>
         </is>
       </c>
-      <c r="AM232" s="211" t="inlineStr">
+      <c r="AM232" s="212" t="inlineStr">
         <is>
           <t>-7.13%</t>
         </is>
@@ -41676,7 +42140,7 @@
           <t>-0.55%</t>
         </is>
       </c>
-      <c r="AP232" s="212" t="inlineStr">
+      <c r="AP232" s="213" t="inlineStr">
         <is>
           <t>-7.22%</t>
         </is>
@@ -41713,7 +42177,7 @@
           <t>慧博云通*</t>
         </is>
       </c>
-      <c r="D233" s="122" t="inlineStr">
+      <c r="D233" s="123" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -41912,7 +42376,7 @@
           <t>[黄金+珠宝+IP经济]</t>
         </is>
       </c>
-      <c r="C235" s="64" t="inlineStr">
+      <c r="C235" s="65" t="inlineStr">
         <is>
           <t>曼卡龙*</t>
         </is>
@@ -41937,7 +42401,7 @@
           <t>-0.78%</t>
         </is>
       </c>
-      <c r="AH235" s="213" t="inlineStr">
+      <c r="AH235" s="214" t="inlineStr">
         <is>
           <t>8.55%</t>
         </is>
@@ -41957,7 +42421,7 @@
           <t>9.52%[2.5]</t>
         </is>
       </c>
-      <c r="AL235" s="99" t="inlineStr">
+      <c r="AL235" s="100" t="inlineStr">
         <is>
           <t>-7.34%</t>
         </is>
@@ -42017,7 +42481,7 @@
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AX235" s="162" t="inlineStr">
+      <c r="AX235" s="163" t="inlineStr">
         <is>
           <t>9.28%</t>
         </is>
@@ -42030,6 +42494,11 @@
       <c r="AZ235" s="19" t="inlineStr">
         <is>
           <t>4.68%</t>
+        </is>
+      </c>
+      <c r="BA235" s="19" t="inlineStr">
+        <is>
+          <t>-1.27%</t>
         </is>
       </c>
     </row>
@@ -42044,7 +42513,7 @@
           <t>[重大资产重组+固态电池+硅基负极+包装印刷]</t>
         </is>
       </c>
-      <c r="C236" s="65" t="inlineStr">
+      <c r="C236" s="66" t="inlineStr">
         <is>
           <t>滨海能源</t>
         </is>
@@ -42129,7 +42598,7 @@
           <t>-2.52%</t>
         </is>
       </c>
-      <c r="AU236" s="66" t="inlineStr">
+      <c r="AU236" s="67" t="inlineStr">
         <is>
           <t>8板[0.4]</t>
         </is>
@@ -42144,7 +42613,7 @@
           <t>1.82%</t>
         </is>
       </c>
-      <c r="AX236" s="214" t="inlineStr">
+      <c r="AX236" s="215" t="inlineStr">
         <is>
           <t>-9.20%</t>
         </is>
@@ -42157,6 +42626,11 @@
       <c r="AZ236" s="19" t="inlineStr">
         <is>
           <t>-4.54%</t>
+        </is>
+      </c>
+      <c r="BA236" s="19" t="inlineStr">
+        <is>
+          <t>-5.35%</t>
         </is>
       </c>
     </row>
@@ -42236,7 +42710,7 @@
           <t>2.41%</t>
         </is>
       </c>
-      <c r="AQ237" s="215" t="inlineStr">
+      <c r="AQ237" s="216" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
@@ -42293,7 +42767,7 @@
           <t>600137</t>
         </is>
       </c>
-      <c r="B238" s="93" t="inlineStr">
+      <c r="B238" s="94" t="inlineStr">
         <is>
           <t>[服装家纺+电子商务]</t>
         </is>
@@ -42450,7 +42924,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AN239" s="216" t="inlineStr">
+      <c r="AN239" s="217" t="inlineStr">
         <is>
           <t>-9.36%</t>
         </is>
@@ -42719,7 +43193,7 @@
           <t>0.17%</t>
         </is>
       </c>
-      <c r="AY241" s="217" t="inlineStr">
+      <c r="AY241" s="218" t="inlineStr">
         <is>
           <t>-8.54%</t>
         </is>
@@ -42727,6 +43201,11 @@
       <c r="AZ241" s="19" t="inlineStr">
         <is>
           <t>2.36%</t>
+        </is>
+      </c>
+      <c r="BA241" s="19" t="inlineStr">
+        <is>
+          <t>-3.91%</t>
         </is>
       </c>
     </row>
@@ -42896,6 +43375,11 @@
           <t>1.14%</t>
         </is>
       </c>
+      <c r="BA242" s="19" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="14" t="inlineStr">
@@ -42908,7 +43392,7 @@
           <t>[创新药+固态电池+原料药]</t>
         </is>
       </c>
-      <c r="C243" s="64" t="inlineStr">
+      <c r="C243" s="65" t="inlineStr">
         <is>
           <t>海辰药业*</t>
         </is>
@@ -43021,6 +43505,11 @@
       <c r="AZ243" s="19" t="inlineStr">
         <is>
           <t>6.85%</t>
+        </is>
+      </c>
+      <c r="BA243" s="19" t="inlineStr">
+        <is>
+          <t>2.08%</t>
         </is>
       </c>
     </row>
@@ -43140,7 +43629,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX244" s="150" t="inlineStr">
+      <c r="AX244" s="151" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -43153,6 +43642,11 @@
       <c r="AZ244" s="43" t="inlineStr">
         <is>
           <t>10.36%</t>
+        </is>
+      </c>
+      <c r="BA244" s="152" t="inlineStr">
+        <is>
+          <t>7.04%</t>
         </is>
       </c>
     </row>
@@ -43212,7 +43706,7 @@
           <t>首板*[2.6]</t>
         </is>
       </c>
-      <c r="AL245" s="218" t="inlineStr">
+      <c r="AL245" s="219" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -43264,7 +43758,7 @@
           <t>[固态电池+次新股]</t>
         </is>
       </c>
-      <c r="C246" s="64" t="inlineStr">
+      <c r="C246" s="65" t="inlineStr">
         <is>
           <t>宏工科技*</t>
         </is>
@@ -43279,7 +43773,7 @@
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AG246" s="163" t="inlineStr">
+      <c r="AG246" s="164" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
@@ -43347,6 +43841,11 @@
       <c r="AZ246" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="BA246" s="19" t="inlineStr">
+        <is>
+          <t>5.74%</t>
         </is>
       </c>
     </row>
@@ -43446,7 +43945,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AR247" s="99" t="inlineStr">
+      <c r="AR247" s="100" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -43489,6 +43988,11 @@
       <c r="AZ247" s="19" t="inlineStr">
         <is>
           <t>5.96%</t>
+        </is>
+      </c>
+      <c r="BA247" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -43610,7 +44114,7 @@
           <t>300418</t>
         </is>
       </c>
-      <c r="B249" s="144" t="inlineStr">
+      <c r="B249" s="145" t="inlineStr">
         <is>
           <t>[发布天工超级智能体+AI应用]</t>
         </is>
@@ -43757,12 +44261,12 @@
           <t>11.45%[3.0]</t>
         </is>
       </c>
-      <c r="AN250" s="109" t="inlineStr">
+      <c r="AN250" s="110" t="inlineStr">
         <is>
           <t>-7.86%</t>
         </is>
       </c>
-      <c r="AO250" s="219" t="inlineStr">
+      <c r="AO250" s="220" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -43777,7 +44281,7 @@
           <t>-3.12%</t>
         </is>
       </c>
-      <c r="AR250" s="220" t="inlineStr">
+      <c r="AR250" s="221" t="inlineStr">
         <is>
           <t>-8.26%</t>
         </is>
@@ -43889,6 +44393,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="BA251" s="19" t="inlineStr">
+        <is>
+          <t>-1.41%[2.6]</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="14" t="inlineStr">
@@ -43956,7 +44465,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AP252" s="113" t="inlineStr">
+      <c r="AP252" s="114" t="inlineStr">
         <is>
           <t>-7.72%[4.5]</t>
         </is>
@@ -44003,7 +44512,7 @@
           <t>000561</t>
         </is>
       </c>
-      <c r="B253" s="121" t="inlineStr">
+      <c r="B253" s="122" t="inlineStr">
         <is>
           <t>[军工+资产重组+低空防御系统+国企改革]</t>
         </is>
@@ -44058,7 +44567,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AP253" s="100" t="inlineStr">
+      <c r="AP253" s="101" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -44068,7 +44577,7 @@
           <t>-2.32%</t>
         </is>
       </c>
-      <c r="AR253" s="100" t="inlineStr">
+      <c r="AR253" s="101" t="inlineStr">
         <is>
           <t>-8.16%</t>
         </is>
@@ -44190,7 +44699,7 @@
           <t>4.89%</t>
         </is>
       </c>
-      <c r="AV254" s="221" t="inlineStr">
+      <c r="AV254" s="222" t="inlineStr">
         <is>
           <t>-8.37%</t>
         </is>
@@ -44222,7 +44731,7 @@
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
       </c>
-      <c r="C255" s="64" t="inlineStr">
+      <c r="C255" s="65" t="inlineStr">
         <is>
           <t>哈焊华通*</t>
         </is>
@@ -44312,7 +44821,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX255" s="222" t="inlineStr">
+      <c r="AX255" s="223" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
@@ -44325,6 +44834,11 @@
       <c r="AZ255" s="19" t="inlineStr">
         <is>
           <t>6.40%</t>
+        </is>
+      </c>
+      <c r="BA255" s="19" t="inlineStr">
+        <is>
+          <t>-4.33%</t>
         </is>
       </c>
     </row>
@@ -44461,7 +44975,7 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="AL257" s="194" t="inlineStr">
+      <c r="AL257" s="195" t="inlineStr">
         <is>
           <t>-7.21%</t>
         </is>
@@ -44675,12 +45189,12 @@
           <t>2.51%[2.7]</t>
         </is>
       </c>
-      <c r="AS259" s="174" t="inlineStr">
+      <c r="AS259" s="63" t="inlineStr">
         <is>
           <t>-7.17%</t>
         </is>
       </c>
-      <c r="AT259" s="150" t="inlineStr">
+      <c r="AT259" s="151" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -44713,6 +45227,11 @@
       <c r="AZ259" s="19" t="inlineStr">
         <is>
           <t>-4.48%</t>
+        </is>
+      </c>
+      <c r="BA259" s="121" t="inlineStr">
+        <is>
+          <t>-9.18%</t>
         </is>
       </c>
     </row>
@@ -44777,12 +45296,12 @@
           <t>4.46%</t>
         </is>
       </c>
-      <c r="AK260" s="223" t="inlineStr">
+      <c r="AK260" s="224" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
       </c>
-      <c r="AL260" s="153" t="inlineStr">
+      <c r="AL260" s="155" t="inlineStr">
         <is>
           <t>-9.29%</t>
         </is>
@@ -44802,7 +45321,7 @@
           <t>6.09%</t>
         </is>
       </c>
-      <c r="AP260" s="70" t="inlineStr">
+      <c r="AP260" s="71" t="inlineStr">
         <is>
           <t>-7.50%</t>
         </is>
@@ -44855,6 +45374,11 @@
       <c r="AZ260" s="19" t="inlineStr">
         <is>
           <t>-2.64%</t>
+        </is>
+      </c>
+      <c r="BA260" s="19" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
         </is>
       </c>
     </row>
@@ -44969,6 +45493,11 @@
           <t>首板</t>
         </is>
       </c>
+      <c r="BA261" s="19" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="14" t="inlineStr">
@@ -45061,7 +45590,7 @@
           <t>5.46%</t>
         </is>
       </c>
-      <c r="AU262" s="224" t="inlineStr">
+      <c r="AU262" s="225" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
@@ -45076,7 +45605,7 @@
           <t>1.47%</t>
         </is>
       </c>
-      <c r="AX262" s="160" t="inlineStr">
+      <c r="AX262" s="161" t="inlineStr">
         <is>
           <t>-7.79%</t>
         </is>
@@ -45088,7 +45617,7 @@
           <t>300771</t>
         </is>
       </c>
-      <c r="B263" s="63" t="inlineStr">
+      <c r="B263" s="64" t="inlineStr">
         <is>
           <t>[无人送货车+智能保管+医疗+外销]</t>
         </is>
@@ -45113,7 +45642,7 @@
           <t>1.56%</t>
         </is>
       </c>
-      <c r="AK263" s="225" t="inlineStr">
+      <c r="AK263" s="226" t="inlineStr">
         <is>
           <t>8.87%[3.2]</t>
         </is>
@@ -45180,7 +45709,7 @@
           <t>688648</t>
         </is>
       </c>
-      <c r="B264" s="101" t="inlineStr">
+      <c r="B264" s="102" t="inlineStr">
         <is>
           <t>[智能无人车+智能物流系统+机器视觉+央企]</t>
         </is>
@@ -45220,7 +45749,7 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="AM264" s="200" t="inlineStr">
+      <c r="AM264" s="201" t="inlineStr">
         <is>
           <t>-8.00%</t>
         </is>
@@ -45277,7 +45806,7 @@
           <t>603681</t>
         </is>
       </c>
-      <c r="B265" s="63" t="inlineStr">
+      <c r="B265" s="64" t="inlineStr">
         <is>
           <t>[汽车膜+胶粘解决方案+AI智能体+外销]</t>
         </is>
@@ -45332,7 +45861,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AR265" s="226" t="inlineStr">
+      <c r="AR265" s="227" t="inlineStr">
         <is>
           <t>-8.13%</t>
         </is>
@@ -45375,6 +45904,11 @@
       <c r="AZ265" s="19" t="inlineStr">
         <is>
           <t>1.22%</t>
+        </is>
+      </c>
+      <c r="BA265" s="92" t="inlineStr">
+        <is>
+          <t>-7.91%</t>
         </is>
       </c>
     </row>
@@ -45668,7 +46202,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AL268" s="227" t="inlineStr">
+      <c r="AL268" s="228" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
@@ -45810,7 +46344,7 @@
           <t>0.93%[0.4]</t>
         </is>
       </c>
-      <c r="AU269" s="91" t="inlineStr">
+      <c r="AU269" s="92" t="inlineStr">
         <is>
           <t>-7.91%</t>
         </is>
@@ -45832,7 +46366,7 @@
           <t>300575</t>
         </is>
       </c>
-      <c r="B270" s="63" t="inlineStr">
+      <c r="B270" s="64" t="inlineStr">
         <is>
           <t>[农药+外销]</t>
         </is>
@@ -45877,7 +46411,7 @@
           <t>首板*[8.6]</t>
         </is>
       </c>
-      <c r="AP270" s="228" t="inlineStr">
+      <c r="AP270" s="229" t="inlineStr">
         <is>
           <t>8.71%[6.2]</t>
         </is>
@@ -45887,7 +46421,7 @@
           <t>-6.85%</t>
         </is>
       </c>
-      <c r="AR270" s="218" t="inlineStr">
+      <c r="AR270" s="219" t="inlineStr">
         <is>
           <t>-9.02%</t>
         </is>
@@ -45924,7 +46458,7 @@
           <t>301260</t>
         </is>
       </c>
-      <c r="B271" s="63" t="inlineStr">
+      <c r="B271" s="64" t="inlineStr">
         <is>
           <t>[机器人+新能源园林机械+中越美制造基地+外销]</t>
         </is>
@@ -45944,7 +46478,7 @@
           <t>首板*[2.2]</t>
         </is>
       </c>
-      <c r="AJ271" s="229" t="inlineStr">
+      <c r="AJ271" s="230" t="inlineStr">
         <is>
           <t>7.79%</t>
         </is>
@@ -45954,7 +46488,7 @@
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="AL271" s="223" t="inlineStr">
+      <c r="AL271" s="224" t="inlineStr">
         <is>
           <t>-8.03%</t>
         </is>
@@ -46076,7 +46610,7 @@
           <t>-2.70%[3.7]</t>
         </is>
       </c>
-      <c r="AR272" s="147" t="inlineStr">
+      <c r="AR272" s="148" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -46183,12 +46717,12 @@
           <t>-4.44%</t>
         </is>
       </c>
-      <c r="AU273" s="75" t="inlineStr">
+      <c r="AU273" s="76" t="inlineStr">
         <is>
           <t>-7.25%</t>
         </is>
       </c>
-      <c r="AV273" s="138" t="inlineStr">
+      <c r="AV273" s="139" t="inlineStr">
         <is>
           <t>-8.20%</t>
         </is>
@@ -46210,7 +46744,7 @@
           <t>605388</t>
         </is>
       </c>
-      <c r="B274" s="63" t="inlineStr">
+      <c r="B274" s="64" t="inlineStr">
         <is>
           <t>[益生菌+跨境电商]</t>
         </is>
@@ -46303,6 +46837,11 @@
       <c r="AZ274" s="19" t="inlineStr">
         <is>
           <t>-4.83%</t>
+        </is>
+      </c>
+      <c r="BA274" s="231" t="inlineStr">
+        <is>
+          <t>-7.61%</t>
         </is>
       </c>
     </row>
@@ -46377,7 +46916,7 @@
           <t>6.01%[2.7]</t>
         </is>
       </c>
-      <c r="AT275" s="230" t="inlineStr">
+      <c r="AT275" s="232" t="inlineStr">
         <is>
           <t>-8.23%</t>
         </is>
@@ -46459,7 +46998,7 @@
           <t>4.18%</t>
         </is>
       </c>
-      <c r="AM276" s="147" t="inlineStr">
+      <c r="AM276" s="148" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
@@ -46527,6 +47066,11 @@
       <c r="AZ276" s="19" t="inlineStr">
         <is>
           <t>4.82%</t>
+        </is>
+      </c>
+      <c r="BA276" s="19" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
         </is>
       </c>
     </row>
@@ -46536,7 +47080,7 @@
           <t>603056</t>
         </is>
       </c>
-      <c r="B277" s="101" t="inlineStr">
+      <c r="B277" s="102" t="inlineStr">
         <is>
           <t>[智能物流+京东增持+年报增长]</t>
         </is>
@@ -46601,7 +47145,7 @@
           <t>-3.19%[2.4]</t>
         </is>
       </c>
-      <c r="AU277" s="231" t="inlineStr">
+      <c r="AU277" s="233" t="inlineStr">
         <is>
           <t>-8.76%</t>
         </is>
@@ -46629,6 +47173,11 @@
       <c r="AZ277" s="19" t="inlineStr">
         <is>
           <t>0.46%</t>
+        </is>
+      </c>
+      <c r="BA277" s="19" t="inlineStr">
+        <is>
+          <t>-4.22%</t>
         </is>
       </c>
     </row>
@@ -46638,12 +47187,12 @@
           <t>300804</t>
         </is>
       </c>
-      <c r="B278" s="63" t="inlineStr">
+      <c r="B278" s="64" t="inlineStr">
         <is>
           <t>[农药+杀虫剂+氯氰菊酯+外销]</t>
         </is>
       </c>
-      <c r="C278" s="64" t="inlineStr">
+      <c r="C278" s="65" t="inlineStr">
         <is>
           <t>广康生化*</t>
         </is>
@@ -46673,7 +47222,7 @@
           <t>-0.38%</t>
         </is>
       </c>
-      <c r="AO278" s="95" t="inlineStr">
+      <c r="AO278" s="96" t="inlineStr">
         <is>
           <t>7.99%[3.6]</t>
         </is>
@@ -46731,6 +47280,11 @@
       <c r="AZ278" s="19" t="inlineStr">
         <is>
           <t>1.08%</t>
+        </is>
+      </c>
+      <c r="BA278" s="19" t="inlineStr">
+        <is>
+          <t>-5.20%</t>
         </is>
       </c>
     </row>
@@ -46740,7 +47294,7 @@
           <t>300815</t>
         </is>
       </c>
-      <c r="B279" s="101" t="inlineStr">
+      <c r="B279" s="102" t="inlineStr">
         <is>
           <t>[无人驾驶扫路机器人+城市服务运营商+AI大模型]</t>
         </is>
@@ -46775,7 +47329,7 @@
           <t>-0.41%</t>
         </is>
       </c>
-      <c r="AO279" s="232" t="inlineStr">
+      <c r="AO279" s="234" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
@@ -46790,7 +47344,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR279" s="233" t="inlineStr">
+      <c r="AR279" s="235" t="inlineStr">
         <is>
           <t>-7.77%</t>
         </is>
@@ -46902,7 +47456,7 @@
           <t>11.97%</t>
         </is>
       </c>
-      <c r="AU280" s="127" t="inlineStr">
+      <c r="AU280" s="128" t="inlineStr">
         <is>
           <t>-9.34%</t>
         </is>
@@ -47021,7 +47575,7 @@
           <t>603065</t>
         </is>
       </c>
-      <c r="B282" s="63" t="inlineStr">
+      <c r="B282" s="64" t="inlineStr">
         <is>
           <t>[受阻胺光稳定剂+高分子材料防老化助剂+外销]</t>
         </is>
@@ -47119,6 +47673,11 @@
       <c r="AZ282" s="19" t="inlineStr">
         <is>
           <t>-3.99%</t>
+        </is>
+      </c>
+      <c r="BA282" s="19" t="inlineStr">
+        <is>
+          <t>-1.77%</t>
         </is>
       </c>
     </row>
@@ -47128,7 +47687,7 @@
           <t>603076</t>
         </is>
       </c>
-      <c r="B283" s="63" t="inlineStr">
+      <c r="B283" s="64" t="inlineStr">
         <is>
           <t>[精酿啤酒+一季报增长+一带一路]</t>
         </is>
@@ -47178,7 +47737,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AR283" s="110" t="inlineStr">
+      <c r="AR283" s="111" t="inlineStr">
         <is>
           <t>-8.81%</t>
         </is>
@@ -47208,7 +47767,7 @@
           <t>6.97%</t>
         </is>
       </c>
-      <c r="AX283" s="110" t="inlineStr">
+      <c r="AX283" s="111" t="inlineStr">
         <is>
           <t>-8.81%</t>
         </is>
@@ -47221,6 +47780,11 @@
       <c r="AZ283" s="19" t="inlineStr">
         <is>
           <t>-5.77%</t>
+        </is>
+      </c>
+      <c r="BA283" s="19" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
         </is>
       </c>
     </row>
@@ -47295,7 +47859,7 @@
           <t>9.66%</t>
         </is>
       </c>
-      <c r="AV284" s="234" t="inlineStr">
+      <c r="AV284" s="236" t="inlineStr">
         <is>
           <t>-7.54%</t>
         </is>
@@ -47318,6 +47882,11 @@
       <c r="AZ284" s="19" t="inlineStr">
         <is>
           <t>2.17%</t>
+        </is>
+      </c>
+      <c r="BA284" s="19" t="inlineStr">
+        <is>
+          <t>-2.53%</t>
         </is>
       </c>
     </row>
@@ -47332,7 +47901,7 @@
           <t>[资产注入预期+获赔4702万+新能源+江苏国资]</t>
         </is>
       </c>
-      <c r="C285" s="64" t="inlineStr">
+      <c r="C285" s="65" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -47439,7 +48008,7 @@
           <t>002094</t>
         </is>
       </c>
-      <c r="B286" s="63" t="inlineStr">
+      <c r="B286" s="64" t="inlineStr">
         <is>
           <t>[跨境电商+跨境支付+化妆品+外销]</t>
         </is>
@@ -47681,6 +48250,11 @@
           <t>-4.27%</t>
         </is>
       </c>
+      <c r="BA287" s="237" t="inlineStr">
+        <is>
+          <t>-7.80%</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="14" t="inlineStr">
@@ -47743,7 +48317,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AT288" s="235" t="inlineStr">
+      <c r="AT288" s="238" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
@@ -47776,6 +48350,11 @@
       <c r="AZ288" s="19" t="inlineStr">
         <is>
           <t>-3.38%</t>
+        </is>
+      </c>
+      <c r="BA288" s="19" t="inlineStr">
+        <is>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -47790,7 +48369,7 @@
           <t>[超级百货+引进谷子店+参投御道智算+参股券商]</t>
         </is>
       </c>
-      <c r="C289" s="84" t="inlineStr">
+      <c r="C289" s="85" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
@@ -47835,42 +48414,42 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="O289" s="66" t="inlineStr">
+      <c r="O289" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="P289" s="67" t="inlineStr">
+      <c r="P289" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="Q289" s="85" t="inlineStr">
+      <c r="Q289" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="R289" s="85" t="inlineStr">
+      <c r="R289" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="S289" s="85" t="inlineStr">
+      <c r="S289" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="U289" s="85" t="inlineStr">
+      <c r="U289" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
       </c>
-      <c r="AA289" s="85" t="inlineStr">
+      <c r="AA289" s="86" t="inlineStr">
         <is>
           <t>14板</t>
         </is>
       </c>
-      <c r="AF289" s="85" t="inlineStr">
+      <c r="AF289" s="86" t="inlineStr">
         <is>
           <t>15板</t>
         </is>
@@ -47885,7 +48464,7 @@
           <t>-5.31%</t>
         </is>
       </c>
-      <c r="AN289" s="87" t="inlineStr">
+      <c r="AN289" s="88" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
@@ -47947,7 +48526,12 @@
       </c>
       <c r="AZ289" s="19" t="inlineStr">
         <is>
-          <t>停牌</t>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="BA289" s="19" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -47962,7 +48546,7 @@
           <t>[CRO+创新药+细胞免疫治疗]</t>
         </is>
       </c>
-      <c r="C290" s="64" t="inlineStr">
+      <c r="C290" s="65" t="inlineStr">
         <is>
           <t>睿智医药*</t>
         </is>
@@ -47977,7 +48561,7 @@
           <t>6.08%[2.9]</t>
         </is>
       </c>
-      <c r="AM290" s="87" t="inlineStr">
+      <c r="AM290" s="88" t="inlineStr">
         <is>
           <t>8.05%[2.6]</t>
         </is>
@@ -48045,6 +48629,11 @@
       <c r="AZ290" s="43" t="inlineStr">
         <is>
           <t>11.31%</t>
+        </is>
+      </c>
+      <c r="BA290" s="19" t="inlineStr">
+        <is>
+          <t>-3.72%</t>
         </is>
       </c>
     </row>
@@ -48129,7 +48718,7 @@
           <t>6.05%</t>
         </is>
       </c>
-      <c r="AX291" s="236" t="inlineStr">
+      <c r="AX291" s="239" t="inlineStr">
         <is>
           <t>8.94%</t>
         </is>
@@ -48139,9 +48728,14 @@
           <t>-9.69%</t>
         </is>
       </c>
-      <c r="AZ291" s="167" t="inlineStr">
+      <c r="AZ291" s="168" t="inlineStr">
         <is>
           <t>-7.53%</t>
+        </is>
+      </c>
+      <c r="BA291" s="19" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
         </is>
       </c>
     </row>
@@ -48333,7 +48927,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX293" s="150" t="inlineStr">
+      <c r="AX293" s="151" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -48346,6 +48940,11 @@
       <c r="AZ293" s="43" t="inlineStr">
         <is>
           <t>10.36%</t>
+        </is>
+      </c>
+      <c r="BA293" s="152" t="inlineStr">
+        <is>
+          <t>7.04%</t>
         </is>
       </c>
     </row>
@@ -48355,7 +48954,7 @@
           <t>300468</t>
         </is>
       </c>
-      <c r="B294" s="63" t="inlineStr">
+      <c r="B294" s="64" t="inlineStr">
         <is>
           <t>[数字货币+跨境支付+金融科技+AI智能体]</t>
         </is>
@@ -48400,7 +48999,7 @@
           <t>首板*[3.3]</t>
         </is>
       </c>
-      <c r="AR294" s="237" t="inlineStr">
+      <c r="AR294" s="240" t="inlineStr">
         <is>
           <t>7.27%[3.2]</t>
         </is>
@@ -48420,7 +49019,7 @@
           <t>10.74%</t>
         </is>
       </c>
-      <c r="AV294" s="234" t="inlineStr">
+      <c r="AV294" s="236" t="inlineStr">
         <is>
           <t>-7.55%</t>
         </is>
@@ -48539,12 +49138,12 @@
           <t>300773</t>
         </is>
       </c>
-      <c r="B296" s="63" t="inlineStr">
+      <c r="B296" s="64" t="inlineStr">
         <is>
           <t>[金融科技+跨境支付+AI应用]</t>
         </is>
       </c>
-      <c r="C296" s="64" t="inlineStr">
+      <c r="C296" s="65" t="inlineStr">
         <is>
           <t>拉卡拉*</t>
         </is>
@@ -48803,7 +49402,7 @@
           <t>-6.83%</t>
         </is>
       </c>
-      <c r="AW298" s="119" t="inlineStr">
+      <c r="AW298" s="120" t="inlineStr">
         <is>
           <t>7.63%</t>
         </is>
@@ -48905,7 +49504,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AX299" s="98" t="inlineStr">
+      <c r="AX299" s="99" t="inlineStr">
         <is>
           <t>-8.09%</t>
         </is>
@@ -48918,6 +49517,11 @@
       <c r="AZ299" s="19" t="inlineStr">
         <is>
           <t>2.34%</t>
+        </is>
+      </c>
+      <c r="BA299" s="19" t="inlineStr">
+        <is>
+          <t>3.47%</t>
         </is>
       </c>
     </row>
@@ -49007,7 +49611,7 @@
           <t>3板[3.0]</t>
         </is>
       </c>
-      <c r="AT300" s="154" t="inlineStr">
+      <c r="AT300" s="156" t="inlineStr">
         <is>
           <t>-7.31%[2.6]</t>
         </is>
@@ -49017,7 +49621,7 @@
           <t>2.47%</t>
         </is>
       </c>
-      <c r="AV300" s="90" t="inlineStr">
+      <c r="AV300" s="91" t="inlineStr">
         <is>
           <t>-7.82%</t>
         </is>
@@ -49040,6 +49644,11 @@
       <c r="AZ300" s="19" t="inlineStr">
         <is>
           <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="BA300" s="19" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
         </is>
       </c>
     </row>
@@ -49049,7 +49658,7 @@
           <t>603123</t>
         </is>
       </c>
-      <c r="B301" s="144" t="inlineStr">
+      <c r="B301" s="145" t="inlineStr">
         <is>
           <t>[数字人民币+AI支付+地方国企+亏损收窄]</t>
         </is>
@@ -49084,7 +49693,7 @@
           <t>-3.05%</t>
         </is>
       </c>
-      <c r="AN301" s="219" t="inlineStr">
+      <c r="AN301" s="220" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
@@ -49124,7 +49733,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AV301" s="238" t="inlineStr">
+      <c r="AV301" s="241" t="inlineStr">
         <is>
           <t>-7.83%</t>
         </is>
@@ -49147,6 +49756,11 @@
       <c r="AZ301" s="19" t="inlineStr">
         <is>
           <t>-5.29%</t>
+        </is>
+      </c>
+      <c r="BA301" s="19" t="inlineStr">
+        <is>
+          <t>-5.92%</t>
         </is>
       </c>
     </row>
@@ -49263,7 +49877,7 @@
           <t>路桥信息**</t>
         </is>
       </c>
-      <c r="D303" s="135" t="inlineStr">
+      <c r="D303" s="136" t="inlineStr">
         <is>
           <t>86.99%</t>
         </is>
@@ -49283,7 +49897,7 @@
           <t>-4.93%</t>
         </is>
       </c>
-      <c r="AP303" s="96" t="inlineStr">
+      <c r="AP303" s="97" t="inlineStr">
         <is>
           <t>8.61%</t>
         </is>
@@ -49336,6 +49950,11 @@
       <c r="AZ303" s="43" t="inlineStr">
         <is>
           <t>11.14%</t>
+        </is>
+      </c>
+      <c r="BA303" s="19" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
         </is>
       </c>
     </row>
@@ -49345,7 +49964,7 @@
           <t>605005</t>
         </is>
       </c>
-      <c r="B304" s="93" t="inlineStr">
+      <c r="B304" s="94" t="inlineStr">
         <is>
           <t>[无人驾驶+汽车电子+家电]</t>
         </is>
@@ -49423,6 +50042,11 @@
       <c r="AZ304" s="19" t="inlineStr">
         <is>
           <t>-0.52%</t>
+        </is>
+      </c>
+      <c r="BA304" s="19" t="inlineStr">
+        <is>
+          <t>-3.61%</t>
         </is>
       </c>
     </row>
@@ -49547,6 +50171,11 @@
           <t>3.92%</t>
         </is>
       </c>
+      <c r="BA305" s="63" t="inlineStr">
+        <is>
+          <t>-7.18%</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="14" t="inlineStr">
@@ -49554,7 +50183,7 @@
           <t>603017</t>
         </is>
       </c>
-      <c r="B306" s="144" t="inlineStr">
+      <c r="B306" s="145" t="inlineStr">
         <is>
           <t>[商业航天+低空经济+建筑设计+多模态AI]</t>
         </is>
@@ -49637,6 +50266,11 @@
       <c r="AZ306" s="19" t="inlineStr">
         <is>
           <t>-1.95%</t>
+        </is>
+      </c>
+      <c r="BA306" s="19" t="inlineStr">
+        <is>
+          <t>-4.28%</t>
         </is>
       </c>
     </row>
@@ -49706,7 +50340,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV307" s="239" t="inlineStr">
+      <c r="AV307" s="242" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
@@ -49716,7 +50350,7 @@
           <t>15.31%</t>
         </is>
       </c>
-      <c r="AX307" s="113" t="inlineStr">
+      <c r="AX307" s="114" t="inlineStr">
         <is>
           <t>-7.72%</t>
         </is>
@@ -49729,6 +50363,11 @@
       <c r="AZ307" s="19" t="inlineStr">
         <is>
           <t>6.54%</t>
+        </is>
+      </c>
+      <c r="BA307" s="19" t="inlineStr">
+        <is>
+          <t>1.16%</t>
         </is>
       </c>
     </row>
@@ -49738,7 +50377,7 @@
           <t>300703</t>
         </is>
       </c>
-      <c r="B308" s="63" t="inlineStr">
+      <c r="B308" s="64" t="inlineStr">
         <is>
           <t>[IP经济+宠物经济+文创消费品+外销]</t>
         </is>
@@ -49826,6 +50465,11 @@
       <c r="AZ308" s="19" t="inlineStr">
         <is>
           <t>-2.05%</t>
+        </is>
+      </c>
+      <c r="BA308" s="20" t="inlineStr">
+        <is>
+          <t>-11.56%</t>
         </is>
       </c>
     </row>
@@ -49840,7 +50484,7 @@
           <t>[黄金+珠宝+IP经济]</t>
         </is>
       </c>
-      <c r="C309" s="64" t="inlineStr">
+      <c r="C309" s="65" t="inlineStr">
         <is>
           <t>曼卡龙*</t>
         </is>
@@ -49905,7 +50549,7 @@
           <t>4.28%</t>
         </is>
       </c>
-      <c r="AX309" s="162" t="inlineStr">
+      <c r="AX309" s="163" t="inlineStr">
         <is>
           <t>9.28%</t>
         </is>
@@ -49918,6 +50562,11 @@
       <c r="AZ309" s="19" t="inlineStr">
         <is>
           <t>4.68%</t>
+        </is>
+      </c>
+      <c r="BA309" s="19" t="inlineStr">
+        <is>
+          <t>-1.27%</t>
         </is>
       </c>
     </row>
@@ -49997,7 +50646,7 @@
           <t>-10.00%</t>
         </is>
       </c>
-      <c r="AR310" s="99" t="inlineStr">
+      <c r="AR310" s="100" t="inlineStr">
         <is>
           <t>-7.33%</t>
         </is>
@@ -50040,6 +50689,11 @@
       <c r="AZ310" s="19" t="inlineStr">
         <is>
           <t>5.96%</t>
+        </is>
+      </c>
+      <c r="BA310" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -50049,7 +50703,7 @@
           <t>000826</t>
         </is>
       </c>
-      <c r="B311" s="101" t="inlineStr">
+      <c r="B311" s="102" t="inlineStr">
         <is>
           <t>[无人驾驶+数字环卫]</t>
         </is>
@@ -50079,7 +50733,7 @@
           <t>2板</t>
         </is>
       </c>
-      <c r="AR311" s="240" t="inlineStr">
+      <c r="AR311" s="243" t="inlineStr">
         <is>
           <t>7.02%[11.0]</t>
         </is>
@@ -50122,6 +50776,11 @@
       <c r="AZ311" s="19" t="inlineStr">
         <is>
           <t>1.36%</t>
+        </is>
+      </c>
+      <c r="BA311" s="244" t="inlineStr">
+        <is>
+          <t>-7.14%</t>
         </is>
       </c>
     </row>
@@ -50196,7 +50855,7 @@
           <t>-10.03%</t>
         </is>
       </c>
-      <c r="AY312" s="197" t="inlineStr">
+      <c r="AY312" s="198" t="inlineStr">
         <is>
           <t>-7.89%</t>
         </is>
@@ -50204,6 +50863,11 @@
       <c r="AZ312" s="19" t="inlineStr">
         <is>
           <t>3.54%</t>
+        </is>
+      </c>
+      <c r="BA312" s="19" t="inlineStr">
+        <is>
+          <t>-4.20%</t>
         </is>
       </c>
     </row>
@@ -50298,6 +50962,11 @@
           <t>-3.23%</t>
         </is>
       </c>
+      <c r="BA313" s="19" t="inlineStr">
+        <is>
+          <t>-2.84%</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="14" t="inlineStr">
@@ -50305,7 +50974,7 @@
           <t>603879</t>
         </is>
       </c>
-      <c r="B314" s="101" t="inlineStr">
+      <c r="B314" s="102" t="inlineStr">
         <is>
           <t>[无人机业务+摘帽+季度减亏]</t>
         </is>
@@ -50395,7 +51064,7 @@
           <t>5板</t>
         </is>
       </c>
-      <c r="AY314" s="129" t="inlineStr">
+      <c r="AY314" s="130" t="inlineStr">
         <is>
           <t>-8.40%</t>
         </is>
@@ -50403,6 +51072,11 @@
       <c r="AZ314" s="19" t="inlineStr">
         <is>
           <t>-6.36%</t>
+        </is>
+      </c>
+      <c r="BA314" s="19" t="inlineStr">
+        <is>
+          <t>0.63%</t>
         </is>
       </c>
     </row>
@@ -50487,6 +51161,11 @@
           <t>0.83%</t>
         </is>
       </c>
+      <c r="BA315" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="14" t="inlineStr">
@@ -50519,7 +51198,7 @@
           <t>首板</t>
         </is>
       </c>
-      <c r="AO316" s="141" t="inlineStr">
+      <c r="AO316" s="142" t="inlineStr">
         <is>
           <t>7.20%</t>
         </is>
@@ -50574,9 +51253,14 @@
           <t>0.96%</t>
         </is>
       </c>
-      <c r="AZ316" s="241" t="inlineStr">
+      <c r="AZ316" s="245" t="inlineStr">
         <is>
           <t>8.60%</t>
+        </is>
+      </c>
+      <c r="BA316" s="19" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
         </is>
       </c>
     </row>
@@ -50661,6 +51345,11 @@
           <t>-4.70%</t>
         </is>
       </c>
+      <c r="BA317" s="20" t="inlineStr">
+        <is>
+          <t>-10.15%</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="14" t="inlineStr">
@@ -50703,7 +51392,7 @@
           <t>-4.54%[3.0]</t>
         </is>
       </c>
-      <c r="AT318" s="113" t="inlineStr">
+      <c r="AT318" s="114" t="inlineStr">
         <is>
           <t>-7.71%</t>
         </is>
@@ -50736,6 +51425,11 @@
       <c r="AZ318" s="29" t="inlineStr">
         <is>
           <t>6板</t>
+        </is>
+      </c>
+      <c r="BA318" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
         </is>
       </c>
     </row>
@@ -50750,7 +51444,7 @@
           <t>[蚂蚁数科合作+储能+超级电容器+摘帽]</t>
         </is>
       </c>
-      <c r="C319" s="16" t="inlineStr">
+      <c r="C319" s="27" t="inlineStr">
         <is>
           <t>金时科技</t>
         </is>
@@ -50813,6 +51507,11 @@
       <c r="AZ319" s="19" t="inlineStr">
         <is>
           <t>-5.23%</t>
+        </is>
+      </c>
+      <c r="BA319" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
         </is>
       </c>
     </row>
@@ -50852,7 +51551,7 @@
           <t>2板[9.3]</t>
         </is>
       </c>
-      <c r="AS320" s="98" t="inlineStr">
+      <c r="AS320" s="99" t="inlineStr">
         <is>
           <t>-8.09%[2.6]</t>
         </is>
@@ -50890,6 +51589,11 @@
       <c r="AZ320" s="19" t="inlineStr">
         <is>
           <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="BA320" s="19" t="inlineStr">
+        <is>
+          <t>-4.01%</t>
         </is>
       </c>
     </row>
@@ -50944,7 +51648,7 @@
           <t>3板</t>
         </is>
       </c>
-      <c r="AV321" s="242" t="inlineStr">
+      <c r="AV321" s="246" t="inlineStr">
         <is>
           <t>7.97%[2.7]</t>
         </is>
@@ -50967,6 +51671,11 @@
       <c r="AZ321" s="18" t="inlineStr">
         <is>
           <t>5板</t>
+        </is>
+      </c>
+      <c r="BA321" s="19" t="inlineStr">
+        <is>
+          <t>-6.90%</t>
         </is>
       </c>
     </row>
@@ -51056,6 +51765,11 @@
           <t>停牌</t>
         </is>
       </c>
+      <c r="BA322" s="20" t="inlineStr">
+        <is>
+          <t>-9.98%</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="14" t="inlineStr">
@@ -51133,6 +51847,11 @@
           <t>-3.53%</t>
         </is>
       </c>
+      <c r="BA323" s="19" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="14" t="inlineStr">
@@ -51210,7 +51929,7 @@
           <t>4板</t>
         </is>
       </c>
-      <c r="AY324" s="148" t="inlineStr">
+      <c r="AY324" s="149" t="inlineStr">
         <is>
           <t>-8.28%</t>
         </is>
@@ -51218,6 +51937,11 @@
       <c r="AZ324" s="19" t="inlineStr">
         <is>
           <t>-6.71%</t>
+        </is>
+      </c>
+      <c r="BA324" s="19" t="inlineStr">
+        <is>
+          <t>-6.64%</t>
         </is>
       </c>
     </row>
@@ -51307,6 +52031,11 @@
           <t>2.29%</t>
         </is>
       </c>
+      <c r="BA325" s="116" t="inlineStr">
+        <is>
+          <t>-7.01%</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="14" t="inlineStr">
@@ -51384,6 +52113,11 @@
           <t>-5.87%</t>
         </is>
       </c>
+      <c r="BA326" s="19" t="inlineStr">
+        <is>
+          <t>-4.83%</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="14" t="inlineStr">
@@ -51461,6 +52195,11 @@
           <t>-1.71%</t>
         </is>
       </c>
+      <c r="BA327" s="19" t="inlineStr">
+        <is>
+          <t>-3.99%</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="14" t="inlineStr">
@@ -51523,7 +52262,7 @@
           <t>3.54%[7.0]</t>
         </is>
       </c>
-      <c r="AY328" s="148" t="inlineStr">
+      <c r="AY328" s="149" t="inlineStr">
         <is>
           <t>-8.29%</t>
         </is>
@@ -51531,6 +52270,11 @@
       <c r="AZ328" s="19" t="inlineStr">
         <is>
           <t>-3.72%</t>
+        </is>
+      </c>
+      <c r="BA328" s="19" t="inlineStr">
+        <is>
+          <t>-4.42%</t>
         </is>
       </c>
     </row>
@@ -51610,6 +52354,11 @@
           <t>7板[16.1]</t>
         </is>
       </c>
+      <c r="BA329" s="19" t="inlineStr">
+        <is>
+          <t>-5.39%[2.4]</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="14" t="inlineStr">
@@ -51622,7 +52371,7 @@
           <t>[创新药+固态电池+原料药]</t>
         </is>
       </c>
-      <c r="C330" s="64" t="inlineStr">
+      <c r="C330" s="65" t="inlineStr">
         <is>
           <t>海辰药业*</t>
         </is>
@@ -51690,6 +52439,11 @@
       <c r="AZ330" s="19" t="inlineStr">
         <is>
           <t>6.85%</t>
+        </is>
+      </c>
+      <c r="BA330" s="19" t="inlineStr">
+        <is>
+          <t>2.08%</t>
         </is>
       </c>
     </row>
@@ -51764,27 +52518,27 @@
           <t>7板</t>
         </is>
       </c>
-      <c r="AL331" s="66" t="inlineStr">
+      <c r="AL331" s="67" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="AM331" s="67" t="inlineStr">
+      <c r="AM331" s="68" t="inlineStr">
         <is>
           <t>9板</t>
         </is>
       </c>
-      <c r="AN331" s="85" t="inlineStr">
+      <c r="AN331" s="86" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="AO331" s="85" t="inlineStr">
+      <c r="AO331" s="86" t="inlineStr">
         <is>
           <t>11板</t>
         </is>
       </c>
-      <c r="AQ331" s="85" t="inlineStr">
+      <c r="AQ331" s="86" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
@@ -51814,7 +52568,7 @@
           <t>-1.56%</t>
         </is>
       </c>
-      <c r="AW331" s="85" t="inlineStr">
+      <c r="AW331" s="86" t="inlineStr">
         <is>
           <t>13板</t>
         </is>
@@ -51832,6 +52586,11 @@
       <c r="AZ331" s="19" t="inlineStr">
         <is>
           <t>-1.06%</t>
+        </is>
+      </c>
+      <c r="BA331" s="19" t="inlineStr">
+        <is>
+          <t>-6.44%</t>
         </is>
       </c>
     </row>
@@ -51841,7 +52600,7 @@
           <t>003040</t>
         </is>
       </c>
-      <c r="B332" s="63" t="inlineStr">
+      <c r="B332" s="64" t="inlineStr">
         <is>
           <t>[数字人民币+跨境支付]</t>
         </is>
@@ -51899,6 +52658,11 @@
       <c r="AZ332" s="19" t="inlineStr">
         <is>
           <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="BA332" s="20" t="inlineStr">
+        <is>
+          <t>-9.73%</t>
         </is>
       </c>
     </row>
@@ -51913,7 +52677,7 @@
           <t>[CRO+创新药+细胞免疫治疗]</t>
         </is>
       </c>
-      <c r="C333" s="64" t="inlineStr">
+      <c r="C333" s="65" t="inlineStr">
         <is>
           <t>睿智医药*</t>
         </is>
@@ -51971,6 +52735,11 @@
       <c r="AZ333" s="43" t="inlineStr">
         <is>
           <t>11.31%</t>
+        </is>
+      </c>
+      <c r="BA333" s="19" t="inlineStr">
+        <is>
+          <t>-3.72%</t>
         </is>
       </c>
     </row>
@@ -51980,12 +52749,12 @@
           <t>300804</t>
         </is>
       </c>
-      <c r="B334" s="63" t="inlineStr">
+      <c r="B334" s="64" t="inlineStr">
         <is>
           <t>[农药+杀虫剂+氯氰菊酯+外销]</t>
         </is>
       </c>
-      <c r="C334" s="64" t="inlineStr">
+      <c r="C334" s="65" t="inlineStr">
         <is>
           <t>广康生化*</t>
         </is>
@@ -52048,6 +52817,11 @@
       <c r="AZ334" s="19" t="inlineStr">
         <is>
           <t>1.08%</t>
+        </is>
+      </c>
+      <c r="BA334" s="19" t="inlineStr">
+        <is>
+          <t>-5.20%</t>
         </is>
       </c>
     </row>
@@ -52062,7 +52836,7 @@
           <t>[可控核聚变+焊接材料+此前收购中达金属60%股权+央企]</t>
         </is>
       </c>
-      <c r="C335" s="64" t="inlineStr">
+      <c r="C335" s="65" t="inlineStr">
         <is>
           <t>哈焊华通*</t>
         </is>
@@ -52117,7 +52891,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX335" s="222" t="inlineStr">
+      <c r="AX335" s="223" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
@@ -52130,6 +52904,11 @@
       <c r="AZ335" s="19" t="inlineStr">
         <is>
           <t>6.40%</t>
+        </is>
+      </c>
+      <c r="BA335" s="19" t="inlineStr">
+        <is>
+          <t>-4.33%</t>
         </is>
       </c>
     </row>
@@ -52199,7 +52978,7 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AX336" s="150" t="inlineStr">
+      <c r="AX336" s="151" t="inlineStr">
         <is>
           <t>-8.70%</t>
         </is>
@@ -52212,6 +52991,11 @@
       <c r="AZ336" s="43" t="inlineStr">
         <is>
           <t>10.36%</t>
+        </is>
+      </c>
+      <c r="BA336" s="152" t="inlineStr">
+        <is>
+          <t>7.04%</t>
         </is>
       </c>
     </row>
@@ -52286,6 +53070,11 @@
           <t>3.70%</t>
         </is>
       </c>
+      <c r="BA337" s="19" t="inlineStr">
+        <is>
+          <t>-3.19%</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="14" t="inlineStr">
@@ -52348,6 +53137,11 @@
           <t>3.79%</t>
         </is>
       </c>
+      <c r="BA338" s="19" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="14" t="inlineStr">
@@ -52410,6 +53204,11 @@
           <t>-1.65%[2.2]</t>
         </is>
       </c>
+      <c r="BA339" s="80" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="14" t="inlineStr">
@@ -52472,46 +53271,56 @@
           <t>-4.48%</t>
         </is>
       </c>
+      <c r="BA340" s="236" t="inlineStr">
+        <is>
+          <t>-7.54%</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="14" t="inlineStr">
         <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="B341" s="144" t="inlineStr">
-        <is>
-          <t>[AI营销+体育产业+报业传媒+广州国企]</t>
-        </is>
-      </c>
-      <c r="C341" s="16" t="inlineStr">
-        <is>
-          <t>粤传媒</t>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="B341" s="35" t="inlineStr">
+        <is>
+          <t>[养老+三胎概念+民营医院+高压氧仓]</t>
+        </is>
+      </c>
+      <c r="C341" s="36" t="inlineStr">
+        <is>
+          <t>澳洋健康</t>
         </is>
       </c>
       <c r="D341" s="34" t="inlineStr">
         <is>
-          <t>36.18%</t>
+          <t>27.30%</t>
+        </is>
+      </c>
+      <c r="R341" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.3]</t>
         </is>
       </c>
       <c r="AS341" s="19" t="inlineStr">
         <is>
-          <t>6.86%[5.2]</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="AT341" s="19" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="AU341" s="19" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>-1.56%</t>
         </is>
       </c>
       <c r="AV341" s="19" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>-0.26%</t>
         </is>
       </c>
       <c r="AW341" s="21" t="inlineStr">
@@ -52521,59 +53330,64 @@
       </c>
       <c r="AX341" s="24" t="inlineStr">
         <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AY341" s="25" t="inlineStr">
+          <t>2板[5.9]</t>
+        </is>
+      </c>
+      <c r="AY341" s="19" t="inlineStr">
+        <is>
+          <t>-0.44%[3.5]</t>
+        </is>
+      </c>
+      <c r="AZ341" s="19" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="BA341" s="25" t="inlineStr">
         <is>
           <t>3板</t>
-        </is>
-      </c>
-      <c r="AZ341" s="28" t="inlineStr">
-        <is>
-          <t>4板</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="14" t="inlineStr">
         <is>
-          <t>600980</t>
-        </is>
-      </c>
-      <c r="B342" s="15" t="inlineStr">
-        <is>
-          <t>[稀土永磁+机器人+央企]</t>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="B342" s="145" t="inlineStr">
+        <is>
+          <t>[AI营销+体育产业+报业传媒+广州国企]</t>
         </is>
       </c>
       <c r="C342" s="16" t="inlineStr">
         <is>
-          <t>北矿科技</t>
+          <t>粤传媒</t>
         </is>
       </c>
       <c r="D342" s="34" t="inlineStr">
         <is>
-          <t>22.37%</t>
+          <t>36.18%</t>
         </is>
       </c>
       <c r="AS342" s="19" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>6.86%[5.2]</t>
         </is>
       </c>
       <c r="AT342" s="19" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="AU342" s="19" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="AV342" s="19" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>-2.88%</t>
         </is>
       </c>
       <c r="AW342" s="21" t="inlineStr">
@@ -52594,227 +53408,242 @@
       <c r="AZ342" s="28" t="inlineStr">
         <is>
           <t>4板</t>
+        </is>
+      </c>
+      <c r="BA342" s="20" t="inlineStr">
+        <is>
+          <t>-10.02%</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="14" t="inlineStr">
         <is>
-          <t>603332</t>
-        </is>
-      </c>
-      <c r="B343" s="38" t="inlineStr">
-        <is>
-          <t>[涤纶+产品涨价+一季报增长]</t>
-        </is>
-      </c>
-      <c r="C343" s="65" t="inlineStr">
-        <is>
-          <t>苏州龙杰</t>
-        </is>
-      </c>
-      <c r="D343" s="61" t="inlineStr">
-        <is>
-          <t>0.17%</t>
-        </is>
-      </c>
-      <c r="AC343" s="21" t="inlineStr">
+          <t>600980</t>
+        </is>
+      </c>
+      <c r="B343" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+机器人+央企]</t>
+        </is>
+      </c>
+      <c r="C343" s="16" t="inlineStr">
+        <is>
+          <t>北矿科技</t>
+        </is>
+      </c>
+      <c r="D343" s="34" t="inlineStr">
+        <is>
+          <t>22.37%</t>
+        </is>
+      </c>
+      <c r="AS343" s="19" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="AT343" s="19" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="AU343" s="19" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="AV343" s="19" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="AW343" s="21" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AD343" s="24" t="inlineStr">
+      <c r="AX343" s="24" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="AE343" s="25" t="inlineStr">
+      <c r="AY343" s="25" t="inlineStr">
         <is>
           <t>3板</t>
         </is>
       </c>
-      <c r="AF343" s="28" t="inlineStr">
+      <c r="AZ343" s="28" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="AG343" s="18" t="inlineStr">
+      <c r="BA343" s="18" t="inlineStr">
         <is>
           <t>5板</t>
-        </is>
-      </c>
-      <c r="AJ343" s="29" t="inlineStr">
-        <is>
-          <t>6板</t>
-        </is>
-      </c>
-      <c r="AM343" s="30" t="inlineStr">
-        <is>
-          <t>7板</t>
-        </is>
-      </c>
-      <c r="AN343" s="66" t="inlineStr">
-        <is>
-          <t>8板[0.2]</t>
-        </is>
-      </c>
-      <c r="AO343" s="67" t="inlineStr">
-        <is>
-          <t>9板</t>
-        </is>
-      </c>
-      <c r="AS343" s="19" t="inlineStr">
-        <is>
-          <t>-5.82%</t>
-        </is>
-      </c>
-      <c r="AT343" s="19" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="AU343" s="197" t="inlineStr">
-        <is>
-          <t>-7.89%</t>
-        </is>
-      </c>
-      <c r="AV343" s="19" t="inlineStr">
-        <is>
-          <t>-4.92%</t>
-        </is>
-      </c>
-      <c r="AW343" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AX343" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AY343" s="25" t="inlineStr">
-        <is>
-          <t>3板[0.1]</t>
-        </is>
-      </c>
-      <c r="AZ343" s="19" t="inlineStr">
-        <is>
-          <t>停牌</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="14" t="inlineStr">
         <is>
-          <t>300886</t>
-        </is>
-      </c>
-      <c r="B344" s="63" t="inlineStr">
-        <is>
-          <t>[烟草概念+香料+一季报增长+外销]</t>
-        </is>
-      </c>
-      <c r="C344" s="36" t="inlineStr">
-        <is>
-          <t>华业香料*</t>
-        </is>
-      </c>
-      <c r="D344" s="34" t="inlineStr">
-        <is>
-          <t>31.60%</t>
-        </is>
-      </c>
-      <c r="AG344" s="21" t="inlineStr">
-        <is>
-          <t>首板*[6.8]</t>
+          <t>603332</t>
+        </is>
+      </c>
+      <c r="B344" s="38" t="inlineStr">
+        <is>
+          <t>[涤纶+产品涨价+一季报增长]</t>
+        </is>
+      </c>
+      <c r="C344" s="66" t="inlineStr">
+        <is>
+          <t>苏州龙杰</t>
+        </is>
+      </c>
+      <c r="D344" s="61" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AC344" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AD344" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AE344" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AF344" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="AG344" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
+        </is>
+      </c>
+      <c r="AJ344" s="29" t="inlineStr">
+        <is>
+          <t>6板</t>
+        </is>
+      </c>
+      <c r="AM344" s="30" t="inlineStr">
+        <is>
+          <t>7板</t>
+        </is>
+      </c>
+      <c r="AN344" s="67" t="inlineStr">
+        <is>
+          <t>8板[0.2]</t>
+        </is>
+      </c>
+      <c r="AO344" s="68" t="inlineStr">
+        <is>
+          <t>9板</t>
         </is>
       </c>
       <c r="AS344" s="19" t="inlineStr">
         <is>
-          <t>2.73%</t>
-        </is>
-      </c>
-      <c r="AT344" s="243" t="inlineStr">
-        <is>
-          <t>8.98%</t>
-        </is>
-      </c>
-      <c r="AU344" s="171" t="inlineStr">
-        <is>
-          <t>-7.02%</t>
+          <t>-5.82%</t>
+        </is>
+      </c>
+      <c r="AT344" s="19" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="AU344" s="198" t="inlineStr">
+        <is>
+          <t>-7.89%</t>
         </is>
       </c>
       <c r="AV344" s="19" t="inlineStr">
         <is>
-          <t>5.32%</t>
-        </is>
-      </c>
-      <c r="AW344" s="19" t="inlineStr">
-        <is>
-          <t>2.11%</t>
-        </is>
-      </c>
-      <c r="AX344" s="21" t="inlineStr">
-        <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AY344" s="19" t="inlineStr">
-        <is>
-          <t>-2.63%</t>
-        </is>
-      </c>
-      <c r="AZ344" s="24" t="inlineStr">
+          <t>-4.92%</t>
+        </is>
+      </c>
+      <c r="AW344" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX344" s="24" t="inlineStr">
         <is>
           <t>2板</t>
+        </is>
+      </c>
+      <c r="AY344" s="25" t="inlineStr">
+        <is>
+          <t>3板[0.1]</t>
+        </is>
+      </c>
+      <c r="AZ344" s="19" t="inlineStr">
+        <is>
+          <t>-1.17%[2.6]</t>
+        </is>
+      </c>
+      <c r="BA344" s="20" t="inlineStr">
+        <is>
+          <t>-9.97%</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="14" t="inlineStr">
         <is>
-          <t>301141</t>
-        </is>
-      </c>
-      <c r="B345" s="15" t="inlineStr">
-        <is>
-          <t>[稀土永磁+一季报增长+机器人概念]</t>
+          <t>300886</t>
+        </is>
+      </c>
+      <c r="B345" s="64" t="inlineStr">
+        <is>
+          <t>[烟草概念+香料+一季报增长+外销]</t>
         </is>
       </c>
       <c r="C345" s="36" t="inlineStr">
         <is>
-          <t>中科磁业*</t>
-        </is>
-      </c>
-      <c r="D345" s="17" t="inlineStr">
-        <is>
-          <t>47.47%</t>
+          <t>华业香料*</t>
+        </is>
+      </c>
+      <c r="D345" s="34" t="inlineStr">
+        <is>
+          <t>31.60%</t>
+        </is>
+      </c>
+      <c r="AG345" s="21" t="inlineStr">
+        <is>
+          <t>首板*[6.8]</t>
         </is>
       </c>
       <c r="AS345" s="19" t="inlineStr">
         <is>
-          <t>2.42%</t>
-        </is>
-      </c>
-      <c r="AT345" s="244" t="inlineStr">
-        <is>
-          <t>9.02%[6.9]</t>
-        </is>
-      </c>
-      <c r="AU345" s="19" t="inlineStr">
-        <is>
-          <t>0.41%[2.7]</t>
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="AT345" s="247" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="AU345" s="172" t="inlineStr">
+        <is>
+          <t>-7.02%</t>
         </is>
       </c>
       <c r="AV345" s="19" t="inlineStr">
         <is>
-          <t>-2.98%</t>
-        </is>
-      </c>
-      <c r="AW345" s="43" t="inlineStr">
-        <is>
-          <t>13.49%[2.8]</t>
+          <t>5.32%</t>
+        </is>
+      </c>
+      <c r="AW345" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="AX345" s="21" t="inlineStr">
@@ -52822,510 +53651,560 @@
           <t>首板*</t>
         </is>
       </c>
-      <c r="AY345" s="24" t="inlineStr">
+      <c r="AY345" s="19" t="inlineStr">
+        <is>
+          <t>-2.63%</t>
+        </is>
+      </c>
+      <c r="AZ345" s="24" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="AZ345" s="19" t="inlineStr">
-        <is>
-          <t>3.20%</t>
+      <c r="BA345" s="248" t="inlineStr">
+        <is>
+          <t>-9.14%</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="14" t="inlineStr">
         <is>
-          <t>300299</t>
-        </is>
-      </c>
-      <c r="B346" s="144" t="inlineStr">
-        <is>
-          <t>[参股《长安的荔枝》出品方+游戏+AI宠物]</t>
+          <t>301141</t>
+        </is>
+      </c>
+      <c r="B346" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+一季报增长+机器人概念]</t>
         </is>
       </c>
       <c r="C346" s="36" t="inlineStr">
         <is>
-          <t>富春股份*</t>
-        </is>
-      </c>
-      <c r="D346" s="34" t="inlineStr">
-        <is>
-          <t>34.06%</t>
+          <t>中科磁业*</t>
+        </is>
+      </c>
+      <c r="D346" s="17" t="inlineStr">
+        <is>
+          <t>47.47%</t>
         </is>
       </c>
       <c r="AS346" s="19" t="inlineStr">
         <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="AT346" s="19" t="inlineStr">
-        <is>
-          <t>2.11%</t>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="AT346" s="249" t="inlineStr">
+        <is>
+          <t>9.02%[6.9]</t>
         </is>
       </c>
       <c r="AU346" s="19" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>0.41%[2.7]</t>
         </is>
       </c>
       <c r="AV346" s="19" t="inlineStr">
         <is>
-          <t>-2.16%</t>
-        </is>
-      </c>
-      <c r="AW346" s="19" t="inlineStr">
-        <is>
-          <t>5.05%</t>
+          <t>-2.98%</t>
+        </is>
+      </c>
+      <c r="AW346" s="43" t="inlineStr">
+        <is>
+          <t>13.49%[2.8]</t>
         </is>
       </c>
       <c r="AX346" s="21" t="inlineStr">
         <is>
-          <t>首板*[4.5]</t>
-        </is>
-      </c>
-      <c r="AY346" s="43" t="inlineStr">
-        <is>
-          <t>9.89%[2.7]</t>
+          <t>首板*</t>
+        </is>
+      </c>
+      <c r="AY346" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
         </is>
       </c>
       <c r="AZ346" s="19" t="inlineStr">
         <is>
-          <t>-6.49%</t>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="BA346" s="19" t="inlineStr">
+        <is>
+          <t>-2.98%</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="14" t="inlineStr">
         <is>
-          <t>300485</t>
-        </is>
-      </c>
-      <c r="B347" s="35" t="inlineStr">
-        <is>
-          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+          <t>300299</t>
+        </is>
+      </c>
+      <c r="B347" s="145" t="inlineStr">
+        <is>
+          <t>[参股《长安的荔枝》出品方+游戏+AI宠物]</t>
         </is>
       </c>
       <c r="C347" s="36" t="inlineStr">
         <is>
-          <t>赛升药业*</t>
+          <t>富春股份*</t>
         </is>
       </c>
       <c r="D347" s="34" t="inlineStr">
         <is>
-          <t>32.57%</t>
+          <t>34.06%</t>
         </is>
       </c>
       <c r="AS347" s="19" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="AT347" s="19" t="inlineStr">
         <is>
-          <t>-2.05%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="AU347" s="19" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="AV347" s="19" t="inlineStr">
         <is>
-          <t>-1.18%</t>
+          <t>-2.16%</t>
         </is>
       </c>
       <c r="AW347" s="19" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="AX347" s="21" t="inlineStr">
         <is>
-          <t>首板*</t>
-        </is>
-      </c>
-      <c r="AY347" s="19" t="inlineStr">
-        <is>
-          <t>2.90%[2.9]</t>
+          <t>首板*[4.5]</t>
+        </is>
+      </c>
+      <c r="AY347" s="43" t="inlineStr">
+        <is>
+          <t>9.89%[2.7]</t>
         </is>
       </c>
       <c r="AZ347" s="19" t="inlineStr">
         <is>
-          <t>-3.50%</t>
+          <t>-6.49%</t>
+        </is>
+      </c>
+      <c r="BA347" s="20" t="inlineStr">
+        <is>
+          <t>-11.57%</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="14" t="inlineStr">
         <is>
-          <t>833171</t>
-        </is>
-      </c>
-      <c r="B348" s="63" t="inlineStr">
-        <is>
-          <t>[航运+战略合作+出海]</t>
-        </is>
-      </c>
-      <c r="C348" s="64" t="inlineStr">
-        <is>
-          <t>国航远洋**</t>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="B348" s="35" t="inlineStr">
+        <is>
+          <t>[心脑血管注射剂+创新药研发+一季报扭亏]</t>
+        </is>
+      </c>
+      <c r="C348" s="36" t="inlineStr">
+        <is>
+          <t>赛升药业*</t>
         </is>
       </c>
       <c r="D348" s="34" t="inlineStr">
         <is>
-          <t>28.53%</t>
-        </is>
-      </c>
-      <c r="J348" s="21" t="inlineStr">
-        <is>
-          <t>首板**[2.3]</t>
-        </is>
-      </c>
-      <c r="AF348" s="21" t="inlineStr">
-        <is>
-          <t>首板**[2.7]</t>
+          <t>32.57%</t>
         </is>
       </c>
       <c r="AS348" s="19" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="AT348" s="19" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>-2.05%</t>
         </is>
       </c>
       <c r="AU348" s="19" t="inlineStr">
         <is>
-          <t>-3.99%</t>
+          <t>-3.33%</t>
         </is>
       </c>
       <c r="AV348" s="19" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="AW348" s="19" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AX348" s="21" t="inlineStr">
         <is>
-          <t>首板**[3.4]</t>
+          <t>首板*</t>
         </is>
       </c>
       <c r="AY348" s="19" t="inlineStr">
         <is>
-          <t>-6.68%</t>
+          <t>2.90%[2.9]</t>
         </is>
       </c>
       <c r="AZ348" s="19" t="inlineStr">
         <is>
-          <t>-4.77%</t>
+          <t>-3.50%</t>
+        </is>
+      </c>
+      <c r="BA348" s="250" t="inlineStr">
+        <is>
+          <t>7.88%</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="14" t="inlineStr">
         <is>
-          <t>301110</t>
-        </is>
-      </c>
-      <c r="B349" s="93" t="inlineStr">
-        <is>
-          <t>[泡泡玛特代运营服务商+电商+AI智能体]</t>
-        </is>
-      </c>
-      <c r="C349" s="36" t="inlineStr">
-        <is>
-          <t>青木科技*</t>
+          <t>833171</t>
+        </is>
+      </c>
+      <c r="B349" s="64" t="inlineStr">
+        <is>
+          <t>[航运+战略合作+出海]</t>
+        </is>
+      </c>
+      <c r="C349" s="65" t="inlineStr">
+        <is>
+          <t>国航远洋**</t>
         </is>
       </c>
       <c r="D349" s="34" t="inlineStr">
         <is>
-          <t>28.27%</t>
+          <t>28.53%</t>
+        </is>
+      </c>
+      <c r="J349" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.3]</t>
+        </is>
+      </c>
+      <c r="AF349" s="21" t="inlineStr">
+        <is>
+          <t>首板**[2.7]</t>
+        </is>
+      </c>
+      <c r="AS349" s="19" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="AT349" s="19" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="AU349" s="19" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>-3.99%</t>
         </is>
       </c>
       <c r="AV349" s="19" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>1.66%</t>
         </is>
       </c>
       <c r="AW349" s="19" t="inlineStr">
         <is>
-          <t>1.87%</t>
-        </is>
-      </c>
-      <c r="AX349" s="19" t="inlineStr">
-        <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="AY349" s="21" t="inlineStr">
-        <is>
-          <t>首板*[5.2]</t>
-        </is>
-      </c>
-      <c r="AZ349" s="24" t="inlineStr">
-        <is>
-          <t>2板[3.0]</t>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="AX349" s="21" t="inlineStr">
+        <is>
+          <t>首板**[3.4]</t>
+        </is>
+      </c>
+      <c r="AY349" s="19" t="inlineStr">
+        <is>
+          <t>-6.68%</t>
+        </is>
+      </c>
+      <c r="AZ349" s="19" t="inlineStr">
+        <is>
+          <t>-4.77%</t>
+        </is>
+      </c>
+      <c r="BA349" s="19" t="inlineStr">
+        <is>
+          <t>5.19%</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="14" t="inlineStr">
         <is>
-          <t>600250</t>
-        </is>
-      </c>
-      <c r="B350" s="38" t="inlineStr">
-        <is>
-          <t>[南京旅游+低空经济+国企]</t>
+          <t>301110</t>
+        </is>
+      </c>
+      <c r="B350" s="94" t="inlineStr">
+        <is>
+          <t>[泡泡玛特代运营服务商+电商+AI智能体]</t>
         </is>
       </c>
       <c r="C350" s="36" t="inlineStr">
         <is>
-          <t>南京商旅</t>
-        </is>
-      </c>
-      <c r="D350" s="17" t="inlineStr">
-        <is>
-          <t>60.91%</t>
-        </is>
-      </c>
-      <c r="P350" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AS350" s="21" t="inlineStr">
-        <is>
-          <t>首板[3.9]</t>
+          <t>青木科技*</t>
+        </is>
+      </c>
+      <c r="D350" s="34" t="inlineStr">
+        <is>
+          <t>28.27%</t>
+        </is>
+      </c>
+      <c r="AT350" s="19" t="inlineStr">
+        <is>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="AU350" s="19" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>-0.86%</t>
         </is>
       </c>
       <c r="AV350" s="19" t="inlineStr">
         <is>
-          <t>2.53%</t>
-        </is>
-      </c>
-      <c r="AW350" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
+          <t>-0.02%</t>
+        </is>
+      </c>
+      <c r="AW350" s="19" t="inlineStr">
+        <is>
+          <t>1.87%</t>
         </is>
       </c>
       <c r="AX350" s="19" t="inlineStr">
         <is>
-          <t>4.21%</t>
-        </is>
-      </c>
-      <c r="AY350" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AZ350" s="25" t="inlineStr">
-        <is>
-          <t>3板</t>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="AY350" s="21" t="inlineStr">
+        <is>
+          <t>首板*[5.2]</t>
+        </is>
+      </c>
+      <c r="AZ350" s="24" t="inlineStr">
+        <is>
+          <t>2板[3.0]</t>
+        </is>
+      </c>
+      <c r="BA350" s="20" t="inlineStr">
+        <is>
+          <t>-11.89%</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="14" t="inlineStr">
         <is>
-          <t>600530</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="B351" s="38" t="inlineStr">
         <is>
-          <t>[保健品+宠物经济+控股权变更]</t>
-        </is>
-      </c>
-      <c r="C351" s="16" t="inlineStr">
-        <is>
-          <t>交大昂立</t>
-        </is>
-      </c>
-      <c r="D351" s="61" t="inlineStr">
-        <is>
-          <t>18.95%</t>
-        </is>
-      </c>
-      <c r="AC351" s="21" t="inlineStr">
+          <t>[南京旅游+低空经济+国企]</t>
+        </is>
+      </c>
+      <c r="C351" s="36" t="inlineStr">
+        <is>
+          <t>南京商旅</t>
+        </is>
+      </c>
+      <c r="D351" s="17" t="inlineStr">
+        <is>
+          <t>60.91%</t>
+        </is>
+      </c>
+      <c r="P351" s="21" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AE351" s="24" t="inlineStr">
+      <c r="AS351" s="21" t="inlineStr">
+        <is>
+          <t>首板[3.9]</t>
+        </is>
+      </c>
+      <c r="AU351" s="19" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="AV351" s="19" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="AW351" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AX351" s="19" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="AY351" s="24" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
-      <c r="AF351" s="25" t="inlineStr">
+      <c r="AZ351" s="25" t="inlineStr">
         <is>
           <t>3板</t>
         </is>
       </c>
-      <c r="AG351" s="28" t="inlineStr">
-        <is>
-          <t>4板</t>
-        </is>
-      </c>
-      <c r="AI351" s="18" t="inlineStr">
-        <is>
-          <t>5板</t>
-        </is>
-      </c>
-      <c r="AO351" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AS351" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AU351" s="19" t="inlineStr">
-        <is>
-          <t>-3.09%</t>
-        </is>
-      </c>
-      <c r="AV351" s="19" t="inlineStr">
-        <is>
-          <t>-3.68%</t>
-        </is>
-      </c>
-      <c r="AW351" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AX351" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AY351" s="19" t="inlineStr">
-        <is>
-          <t>2.11%</t>
-        </is>
-      </c>
-      <c r="AZ351" s="25" t="inlineStr">
-        <is>
-          <t>3板</t>
+      <c r="BA351" s="20" t="inlineStr">
+        <is>
+          <t>-10.01%</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="14" t="inlineStr">
         <is>
-          <t>603139</t>
+          <t>600530</t>
         </is>
       </c>
       <c r="B352" s="38" t="inlineStr">
         <is>
-          <t>[中药+创新驱动+控制权变更]</t>
-        </is>
-      </c>
-      <c r="C352" s="36" t="inlineStr">
-        <is>
-          <t>康惠制药</t>
-        </is>
-      </c>
-      <c r="D352" s="17" t="inlineStr">
-        <is>
-          <t>40.48%</t>
-        </is>
-      </c>
-      <c r="M352" s="21" t="inlineStr">
+          <t>[保健品+宠物经济+控股权变更]</t>
+        </is>
+      </c>
+      <c r="C352" s="16" t="inlineStr">
+        <is>
+          <t>交大昂立</t>
+        </is>
+      </c>
+      <c r="D352" s="61" t="inlineStr">
+        <is>
+          <t>18.95%</t>
+        </is>
+      </c>
+      <c r="AC352" s="21" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
+      <c r="AE352" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AF352" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AG352" s="28" t="inlineStr">
+        <is>
+          <t>4板</t>
+        </is>
+      </c>
+      <c r="AI352" s="18" t="inlineStr">
+        <is>
+          <t>5板</t>
+        </is>
+      </c>
+      <c r="AO352" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AS352" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
       <c r="AU352" s="19" t="inlineStr">
         <is>
-          <t>-2.17%</t>
+          <t>-3.09%</t>
         </is>
       </c>
       <c r="AV352" s="19" t="inlineStr">
         <is>
-          <t>1.11%</t>
-        </is>
-      </c>
-      <c r="AW352" s="19" t="inlineStr">
-        <is>
-          <t>3.05%</t>
-        </is>
-      </c>
-      <c r="AX352" s="21" t="inlineStr">
+          <t>-3.68%</t>
+        </is>
+      </c>
+      <c r="AW352" s="21" t="inlineStr">
         <is>
           <t>首板</t>
         </is>
       </c>
-      <c r="AY352" s="24" t="inlineStr">
+      <c r="AX352" s="24" t="inlineStr">
         <is>
           <t>2板</t>
         </is>
       </c>
+      <c r="AY352" s="19" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
       <c r="AZ352" s="25" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="BA352" s="19" t="inlineStr">
+        <is>
+          <t>-4.69%</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="14" t="inlineStr">
         <is>
-          <t>603787</t>
+          <t>603139</t>
         </is>
       </c>
       <c r="B353" s="38" t="inlineStr">
         <is>
-          <t>[电动两轮车+职业培训+海外产能布局]</t>
+          <t>[中药+创新驱动+控制权变更]</t>
         </is>
       </c>
       <c r="C353" s="36" t="inlineStr">
         <is>
-          <t>新日股份</t>
-        </is>
-      </c>
-      <c r="D353" s="34" t="inlineStr">
-        <is>
-          <t>33.28%</t>
+          <t>康惠制药</t>
+        </is>
+      </c>
+      <c r="D353" s="17" t="inlineStr">
+        <is>
+          <t>40.48%</t>
+        </is>
+      </c>
+      <c r="M353" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
         </is>
       </c>
       <c r="AU353" s="19" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-2.17%</t>
         </is>
       </c>
       <c r="AV353" s="19" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="AW353" s="19" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>3.05%</t>
         </is>
       </c>
       <c r="AX353" s="21" t="inlineStr">
@@ -53341,197 +54220,522 @@
       <c r="AZ353" s="25" t="inlineStr">
         <is>
           <t>3板</t>
+        </is>
+      </c>
+      <c r="BA353" s="19" t="inlineStr">
+        <is>
+          <t>-4.55%[9.8]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="14" t="inlineStr">
         <is>
-          <t>600281</t>
+          <t>603787</t>
         </is>
       </c>
       <c r="B354" s="38" t="inlineStr">
         <is>
-          <t>[稀土永磁+贵金属回收+山西国资+一季报同比扭亏]</t>
-        </is>
-      </c>
-      <c r="C354" s="64" t="inlineStr">
-        <is>
-          <t>华阳新材</t>
+          <t>[电动两轮车+职业培训+海外产能布局]</t>
+        </is>
+      </c>
+      <c r="C354" s="36" t="inlineStr">
+        <is>
+          <t>新日股份</t>
         </is>
       </c>
       <c r="D354" s="34" t="inlineStr">
         <is>
-          <t>26.44%</t>
-        </is>
-      </c>
-      <c r="W354" s="21" t="inlineStr">
-        <is>
-          <t>首板[4.7]</t>
-        </is>
-      </c>
-      <c r="X354" s="24" t="inlineStr">
-        <is>
-          <t>2板[2.8]</t>
-        </is>
-      </c>
-      <c r="Z354" s="25" t="inlineStr">
+          <t>33.28%</t>
+        </is>
+      </c>
+      <c r="AU354" s="19" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
+      <c r="AV354" s="19" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="AW354" s="19" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="AX354" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AY354" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AZ354" s="25" t="inlineStr">
         <is>
           <t>3板</t>
         </is>
       </c>
-      <c r="AD354" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AH354" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AI354" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
-        </is>
-      </c>
-      <c r="AU354" s="19" t="inlineStr">
-        <is>
-          <t>-0.79%</t>
-        </is>
-      </c>
-      <c r="AV354" s="19" t="inlineStr">
-        <is>
-          <t>2.20%</t>
-        </is>
-      </c>
-      <c r="AW354" s="245" t="inlineStr">
-        <is>
-          <t>8.20%[2.2]</t>
-        </is>
-      </c>
-      <c r="AX354" s="19" t="inlineStr">
-        <is>
-          <t>-1.62%</t>
-        </is>
-      </c>
-      <c r="AY354" s="21" t="inlineStr">
-        <is>
-          <t>首板</t>
-        </is>
-      </c>
-      <c r="AZ354" s="24" t="inlineStr">
-        <is>
-          <t>2板</t>
+      <c r="BA354" s="251" t="inlineStr">
+        <is>
+          <t>-9.38%[2.5]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="14" t="inlineStr">
         <is>
-          <t>600366</t>
-        </is>
-      </c>
-      <c r="B355" s="15" t="inlineStr">
-        <is>
-          <t>[稀土永磁+人形机器人+新能源汽车]</t>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="B355" s="38" t="inlineStr">
+        <is>
+          <t>[IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿]</t>
         </is>
       </c>
       <c r="C355" s="36" t="inlineStr">
         <is>
-          <t>宁波韵升</t>
+          <t>哈尔斯</t>
         </is>
       </c>
       <c r="D355" s="34" t="inlineStr">
         <is>
-          <t>32.29%</t>
+          <t>27.85%</t>
+        </is>
+      </c>
+      <c r="AT355" s="21" t="inlineStr">
+        <is>
+          <t>首板[6.7]</t>
         </is>
       </c>
       <c r="AU355" s="19" t="inlineStr">
         <is>
-          <t>4.23%[3.7]</t>
+          <t>-3.87%[3.6]</t>
         </is>
       </c>
       <c r="AV355" s="19" t="inlineStr">
         <is>
-          <t>-0.95%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="AW355" s="19" t="inlineStr">
         <is>
-          <t>4.10%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="AX355" s="19" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>-0.90%</t>
         </is>
       </c>
       <c r="AY355" s="21" t="inlineStr">
         <is>
-          <t>首板[2.9]</t>
+          <t>首板</t>
         </is>
       </c>
       <c r="AZ355" s="24" t="inlineStr">
         <is>
-          <t>2板[2.6]</t>
+          <t>2板[3.1]</t>
+        </is>
+      </c>
+      <c r="BA355" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="14" t="inlineStr">
         <is>
+          <t>600281</t>
+        </is>
+      </c>
+      <c r="B356" s="38" t="inlineStr">
+        <is>
+          <t>[贵金属回收+稀土永磁+一季报同比扭亏+山西国资]</t>
+        </is>
+      </c>
+      <c r="C356" s="65" t="inlineStr">
+        <is>
+          <t>华阳新材</t>
+        </is>
+      </c>
+      <c r="D356" s="34" t="inlineStr">
+        <is>
+          <t>26.44%</t>
+        </is>
+      </c>
+      <c r="W356" s="21" t="inlineStr">
+        <is>
+          <t>首板[4.7]</t>
+        </is>
+      </c>
+      <c r="X356" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.8]</t>
+        </is>
+      </c>
+      <c r="Z356" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AD356" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AH356" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AI356" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="AU356" s="19" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="AV356" s="19" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="AW356" s="252" t="inlineStr">
+        <is>
+          <t>8.20%[2.2]</t>
+        </is>
+      </c>
+      <c r="AX356" s="19" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
+        </is>
+      </c>
+      <c r="AY356" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AZ356" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="BA356" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="14" t="inlineStr">
+        <is>
+          <t>600366</t>
+        </is>
+      </c>
+      <c r="B357" s="15" t="inlineStr">
+        <is>
+          <t>[稀土永磁+人形机器人+新能源汽车]</t>
+        </is>
+      </c>
+      <c r="C357" s="36" t="inlineStr">
+        <is>
+          <t>宁波韵升</t>
+        </is>
+      </c>
+      <c r="D357" s="34" t="inlineStr">
+        <is>
+          <t>32.29%</t>
+        </is>
+      </c>
+      <c r="AU357" s="19" t="inlineStr">
+        <is>
+          <t>4.23%[3.7]</t>
+        </is>
+      </c>
+      <c r="AV357" s="19" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="AW357" s="19" t="inlineStr">
+        <is>
+          <t>4.10%</t>
+        </is>
+      </c>
+      <c r="AX357" s="19" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="AY357" s="21" t="inlineStr">
+        <is>
+          <t>首板[2.9]</t>
+        </is>
+      </c>
+      <c r="AZ357" s="24" t="inlineStr">
+        <is>
+          <t>2板[2.6]</t>
+        </is>
+      </c>
+      <c r="BA357" s="19" t="inlineStr">
+        <is>
+          <t>5.49%[2.6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="14" t="inlineStr">
+        <is>
           <t>301662</t>
         </is>
       </c>
-      <c r="B356" s="26" t="inlineStr">
+      <c r="B358" s="26" t="inlineStr">
         <is>
           <t>[固态电池+次新股]</t>
         </is>
       </c>
-      <c r="C356" s="64" t="inlineStr">
+      <c r="C358" s="65" t="inlineStr">
         <is>
           <t>宏工科技*</t>
         </is>
       </c>
-      <c r="D356" s="61" t="inlineStr">
+      <c r="D358" s="61" t="inlineStr">
         <is>
           <t>12.11%</t>
         </is>
       </c>
-      <c r="AK356" s="21" t="inlineStr">
+      <c r="AK358" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
         </is>
       </c>
-      <c r="AU356" s="19" t="inlineStr">
+      <c r="AU358" s="19" t="inlineStr">
         <is>
           <t>-3.23%</t>
         </is>
       </c>
-      <c r="AV356" s="19" t="inlineStr">
+      <c r="AV358" s="19" t="inlineStr">
         <is>
           <t>5.87%</t>
         </is>
       </c>
-      <c r="AW356" s="19" t="inlineStr">
+      <c r="AW358" s="19" t="inlineStr">
         <is>
           <t>5.12%</t>
         </is>
       </c>
-      <c r="AX356" s="19" t="inlineStr">
+      <c r="AX358" s="19" t="inlineStr">
         <is>
           <t>2.53%</t>
         </is>
       </c>
-      <c r="AY356" s="19" t="inlineStr">
+      <c r="AY358" s="19" t="inlineStr">
         <is>
           <t>-4.28%</t>
         </is>
       </c>
-      <c r="AZ356" s="21" t="inlineStr">
+      <c r="AZ358" s="21" t="inlineStr">
         <is>
           <t>首板*</t>
+        </is>
+      </c>
+      <c r="BA358" s="19" t="inlineStr">
+        <is>
+          <t>5.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="14" t="inlineStr">
+        <is>
+          <t>601279</t>
+        </is>
+      </c>
+      <c r="B359" s="38" t="inlineStr">
+        <is>
+          <t>[汽车零部件+轻量化+比亚迪概念]</t>
+        </is>
+      </c>
+      <c r="C359" s="36" t="inlineStr">
+        <is>
+          <t>英利汽车</t>
+        </is>
+      </c>
+      <c r="D359" s="34" t="inlineStr">
+        <is>
+          <t>32.23%</t>
+        </is>
+      </c>
+      <c r="N359" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AV359" s="19" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="AW359" s="19" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="AX359" s="19" t="inlineStr">
+        <is>
+          <t>-0.55%</t>
+        </is>
+      </c>
+      <c r="AY359" s="21" t="inlineStr">
+        <is>
+          <t>首板</t>
+        </is>
+      </c>
+      <c r="AZ359" s="24" t="inlineStr">
+        <is>
+          <t>2板</t>
+        </is>
+      </c>
+      <c r="BA359" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="14" t="inlineStr">
+        <is>
+          <t>300581</t>
+        </is>
+      </c>
+      <c r="B360" s="122" t="inlineStr">
+        <is>
+          <t>[航空装备+军工+无人机]</t>
+        </is>
+      </c>
+      <c r="C360" s="65" t="inlineStr">
+        <is>
+          <t>晨曦航空*</t>
+        </is>
+      </c>
+      <c r="D360" s="61" t="inlineStr">
+        <is>
+          <t>17.88%</t>
+        </is>
+      </c>
+      <c r="J360" s="21" t="inlineStr">
+        <is>
+          <t>首板*[2.5]</t>
+        </is>
+      </c>
+      <c r="AA360" s="21" t="inlineStr">
+        <is>
+          <t>首板*[8.0]</t>
+        </is>
+      </c>
+      <c r="AB360" s="24" t="inlineStr">
+        <is>
+          <t>2板[4.6]</t>
+        </is>
+      </c>
+      <c r="AD360" s="25" t="inlineStr">
+        <is>
+          <t>3板</t>
+        </is>
+      </c>
+      <c r="AV360" s="19" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="AW360" s="19" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="AX360" s="19" t="inlineStr">
+        <is>
+          <t>-5.18%</t>
+        </is>
+      </c>
+      <c r="AY360" s="19" t="inlineStr">
+        <is>
+          <t>-0.15%</t>
+        </is>
+      </c>
+      <c r="AZ360" s="19" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="BA360" s="21" t="inlineStr">
+        <is>
+          <t>首板*[2.9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="14" t="inlineStr">
+        <is>
+          <t>300157</t>
+        </is>
+      </c>
+      <c r="B361" s="38" t="inlineStr">
+        <is>
+          <t>[油气装备+能源装备+海外市场拓展]</t>
+        </is>
+      </c>
+      <c r="C361" s="36" t="inlineStr">
+        <is>
+          <t>新锦动力*</t>
+        </is>
+      </c>
+      <c r="D361" s="34" t="inlineStr">
+        <is>
+          <t>27.91%</t>
+        </is>
+      </c>
+      <c r="W361" s="21" t="inlineStr">
+        <is>
+          <t>首板*[3.4]</t>
+        </is>
+      </c>
+      <c r="AV361" s="19" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="AW361" s="19" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="AX361" s="19" t="inlineStr">
+        <is>
+          <t>-3.23%</t>
+        </is>
+      </c>
+      <c r="AY361" s="19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AZ361" s="19" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="BA361" s="21" t="inlineStr">
+        <is>
+          <t>首板*[3.8]</t>
         </is>
       </c>
     </row>
@@ -53560,446 +54764,446 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="246" t="inlineStr">
+      <c r="A1" s="253" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="247" t="n"/>
+      <c r="B1" s="254" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="248" t="inlineStr">
+      <c r="A2" s="255" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="248" t="inlineStr">
+      <c r="B2" s="255" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="249" t="inlineStr">
+      <c r="A3" s="256" t="inlineStr">
         <is>
           <t>港口航运</t>
         </is>
       </c>
-      <c r="B3" s="247" t="n">
+      <c r="B3" s="254" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="250" t="inlineStr">
+      <c r="A4" s="257" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B4" s="247" t="n">
-        <v>45</v>
+      <c r="B4" s="254" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="251" t="inlineStr">
+      <c r="A5" s="258" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B5" s="247" t="n">
+      <c r="B5" s="254" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="252" t="inlineStr">
+      <c r="A6" s="259" t="inlineStr">
         <is>
           <t>新能源</t>
         </is>
       </c>
-      <c r="B6" s="247" t="n">
+      <c r="B6" s="254" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="253" t="inlineStr">
+      <c r="A7" s="260" t="inlineStr">
         <is>
           <t>传统消费</t>
         </is>
       </c>
-      <c r="B7" s="247" t="n">
+      <c r="B7" s="254" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="254" t="inlineStr">
+      <c r="A8" s="261" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B8" s="247" t="n">
-        <v>34</v>
+      <c r="B8" s="254" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="255" t="inlineStr">
+      <c r="A9" s="262" t="inlineStr">
         <is>
           <t>无人经济</t>
         </is>
       </c>
-      <c r="B9" s="247" t="n">
-        <v>30</v>
+      <c r="B9" s="254" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="256" t="inlineStr">
+      <c r="A10" s="263" t="inlineStr">
         <is>
           <t>AI大模型</t>
         </is>
       </c>
-      <c r="B10" s="247" t="n">
+      <c r="B10" s="254" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="257" t="inlineStr">
+      <c r="A11" s="264" t="inlineStr">
         <is>
           <t>核聚变</t>
         </is>
       </c>
-      <c r="B11" s="247" t="n">
+      <c r="B11" s="254" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="248" t="inlineStr">
+      <c r="A12" s="255" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="247" t="n"/>
+      <c r="B12" s="254" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="247" t="inlineStr">
+      <c r="A13" s="254" t="inlineStr">
         <is>
           <t>化工</t>
         </is>
       </c>
-      <c r="B13" s="247" t="n">
+      <c r="B13" s="254" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="247" t="inlineStr">
-        <is>
-          <t>半导体</t>
-        </is>
-      </c>
-      <c r="B14" s="247" t="n">
+      <c r="A14" s="254" t="inlineStr">
+        <is>
+          <t>新消费</t>
+        </is>
+      </c>
+      <c r="B14" s="254" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="247" t="inlineStr">
-        <is>
-          <t>新消费</t>
-        </is>
-      </c>
-      <c r="B15" s="247" t="n">
-        <v>21</v>
+      <c r="A15" s="254" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="B15" s="254" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="247" t="inlineStr">
+      <c r="A16" s="254" t="inlineStr">
         <is>
           <t>数字经济</t>
         </is>
       </c>
-      <c r="B16" s="247" t="n">
+      <c r="B16" s="254" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="247" t="inlineStr">
+      <c r="A17" s="254" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B17" s="247" t="n">
-        <v>15</v>
+      <c r="B17" s="254" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="247" t="inlineStr">
+      <c r="A18" s="254" t="inlineStr">
         <is>
           <t>华为概念</t>
         </is>
       </c>
-      <c r="B18" s="247" t="n">
+      <c r="B18" s="254" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="247" t="inlineStr">
+      <c r="A19" s="254" t="inlineStr">
         <is>
           <t>新型材料</t>
         </is>
       </c>
-      <c r="B19" s="247" t="n">
+      <c r="B19" s="254" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="247" t="inlineStr">
+      <c r="A20" s="254" t="inlineStr">
         <is>
           <t>重组</t>
         </is>
       </c>
-      <c r="B20" s="247" t="n">
+      <c r="B20" s="254" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="247" t="inlineStr">
+      <c r="A21" s="254" t="inlineStr">
         <is>
           <t>AI算力</t>
         </is>
       </c>
-      <c r="B21" s="247" t="n">
+      <c r="B21" s="254" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="247" t="inlineStr">
+      <c r="A22" s="254" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B22" s="247" t="n">
+      <c r="B22" s="254" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="247" t="inlineStr">
+      <c r="A23" s="254" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B23" s="247" t="n">
+      <c r="B23" s="254" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="247" t="inlineStr">
+      <c r="A24" s="254" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B24" s="247" t="n">
+      <c r="B24" s="254" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="247" t="inlineStr">
+      <c r="A25" s="254" t="inlineStr">
         <is>
           <t>农业</t>
         </is>
       </c>
-      <c r="B25" s="247" t="n">
+      <c r="B25" s="254" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="247" t="inlineStr">
+      <c r="A26" s="254" t="inlineStr">
         <is>
           <t>精密电子</t>
         </is>
       </c>
-      <c r="B26" s="247" t="n">
+      <c r="B26" s="254" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="247" t="inlineStr">
+      <c r="A27" s="254" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B27" s="247" t="n">
+      <c r="B27" s="254" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="247" t="inlineStr">
+      <c r="A28" s="254" t="inlineStr">
         <is>
           <t>体育产业</t>
         </is>
       </c>
-      <c r="B28" s="247" t="n">
+      <c r="B28" s="254" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="247" t="inlineStr">
+      <c r="A29" s="254" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B29" s="247" t="n">
+      <c r="B29" s="254" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="247" t="inlineStr">
+      <c r="A30" s="254" t="inlineStr">
         <is>
           <t>旅游</t>
         </is>
       </c>
-      <c r="B30" s="247" t="n">
+      <c r="B30" s="254" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="247" t="inlineStr">
+      <c r="A31" s="254" t="inlineStr">
         <is>
           <t>小米概念</t>
         </is>
       </c>
-      <c r="B31" s="247" t="n">
+      <c r="B31" s="254" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="248" t="inlineStr">
+      <c r="A32" s="255" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B32" s="247" t="n"/>
+      <c r="B32" s="254" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="247" t="inlineStr">
+      <c r="A33" s="254" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B33" s="247" t="n">
+      <c r="B33" s="254" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="247" t="inlineStr">
+      <c r="A34" s="254" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B34" s="247" t="n">
+      <c r="B34" s="254" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="247" t="inlineStr">
+      <c r="A35" s="254" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B35" s="247" t="n">
+      <c r="B35" s="254" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="258" t="inlineStr">
+      <c r="A36" s="265" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B36" s="247" t="n"/>
+      <c r="B36" s="254" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="248" t="inlineStr">
+      <c r="A37" s="255" t="inlineStr">
         <is>
           <t>高板数颜色</t>
         </is>
       </c>
-      <c r="B37" s="247" t="n"/>
+      <c r="B37" s="254" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="259" t="inlineStr">
+      <c r="A38" s="266" t="inlineStr">
         <is>
           <t>4板</t>
         </is>
       </c>
-      <c r="B38" s="247" t="n"/>
+      <c r="B38" s="254" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="260" t="inlineStr">
+      <c r="A39" s="267" t="inlineStr">
         <is>
           <t>6板</t>
         </is>
       </c>
-      <c r="B39" s="247" t="n"/>
+      <c r="B39" s="254" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="261" t="inlineStr">
+      <c r="A40" s="268" t="inlineStr">
         <is>
           <t>8板</t>
         </is>
       </c>
-      <c r="B40" s="247" t="n"/>
+      <c r="B40" s="254" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="262" t="inlineStr">
+      <c r="A41" s="269" t="inlineStr">
         <is>
           <t>10板</t>
         </is>
       </c>
-      <c r="B41" s="247" t="n"/>
+      <c r="B41" s="254" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="263" t="inlineStr">
+      <c r="A42" s="270" t="inlineStr">
         <is>
           <t>12板</t>
         </is>
       </c>
-      <c r="B42" s="247" t="n"/>
+      <c r="B42" s="254" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="264" t="inlineStr">
+      <c r="A43" s="271" t="inlineStr">
         <is>
           <t>14板及以上</t>
         </is>
       </c>
-      <c r="B43" s="247" t="n"/>
+      <c r="B43" s="254" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="248" t="inlineStr">
+      <c r="A44" s="255" t="inlineStr">
         <is>
           <t>重复入选颜色</t>
         </is>
       </c>
-      <c r="B44" s="247" t="n"/>
+      <c r="B44" s="254" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="265" t="inlineStr">
+      <c r="A45" s="272" t="inlineStr">
         <is>
           <t>2次入选</t>
         </is>
       </c>
-      <c r="B45" s="247" t="n"/>
+      <c r="B45" s="254" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="266" t="inlineStr">
+      <c r="A46" s="273" t="inlineStr">
         <is>
           <t>3次入选</t>
         </is>
       </c>
-      <c r="B46" s="247" t="n"/>
+      <c r="B46" s="254" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="267" t="inlineStr">
+      <c r="A47" s="274" t="inlineStr">
         <is>
           <t>4次及以上入选</t>
         </is>
       </c>
-      <c r="B47" s="247" t="n"/>
+      <c r="B47" s="254" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
